--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeok\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyeokpark/Desktop/dev/work/atm/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D5817B-B7BA-B047-8BA0-604E21213BB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$190</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$185</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="767">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -2310,13 +2311,63 @@
   <si>
     <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만도로브제</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 첨단대로60번길 75</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논고개로 17</t>
+  </si>
+  <si>
+    <t>한화에코11단지</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논고개로 10</t>
+  </si>
+  <si>
+    <t>한화에코12단지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>924604.9640742338</t>
+  </si>
+  <si>
+    <t>1929694.2852085028</t>
+  </si>
+  <si>
+    <t>931971.8826013578</t>
+  </si>
+  <si>
+    <t>1933157.4842754863</t>
+  </si>
+  <si>
+    <t>932065.1035968331</t>
+  </si>
+  <si>
+    <t>1933133.3493248513</t>
+  </si>
+  <si>
+    <t>경인종합상가 결합부스</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 경인로 392</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>927784.8569973619</t>
+  </si>
+  <si>
+    <t>1940188.3494468476</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2641,24 +2692,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView topLeftCell="B157" workbookViewId="0">
-      <selection sqref="A1:F190"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191:E193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>720</v>
       </c>
@@ -2675,7 +2726,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2696,7 +2747,7 @@
         <v>{name:'(주)비에스이',addr:'인천광역시 남동구 남동서로 193',x:'928448.838274891',y:'1934545.4152585235'},</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -2717,7 +2768,7 @@
         <v>{name:'(주)씨에스티',addr:'인천광역시 남동구 남동대로 248',x:'929162.2536080531',y:'1934468.471045103'},</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -2738,7 +2789,7 @@
         <v>{name:'(주)일야',addr:'인천광역시 남동구 은봉로 129',x:'929636.4538484735',y:'1934569.642266401'},</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -2759,7 +2810,7 @@
         <v>{name:'CU연수타운점',addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092'},</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -2780,7 +2831,7 @@
         <v>{name:'간석드림점G',addr:'인천광역시 남동구 석산로9번길 69',x:'929139.5206771668',y:'1940818.0201271167'},</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2801,7 +2852,7 @@
         <v>{name:'고잔엘아이점G',addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442'},</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -2822,7 +2873,7 @@
         <v>{name:'고잔중앙점G',addr:'인천광역시 남동구 앵고개로 712',x:'930676.6785130233',y:'1932416.9426641734'},</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2843,7 +2894,7 @@
         <v>{name:'남구숭의점G',addr:'인천광역시 미추홀구 독배로 438',x:'924751.8764202176',y:'1940279.1432027267'},</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -2864,7 +2915,7 @@
         <v>{name:'남동논현점G',addr:'인천광역시 남동구 앵고개로815번길 20',x:'931356.6721433003',y:'1933189.4978637807'},</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2885,7 +2936,7 @@
         <v>{name:'남촌중앙점G',addr:'인천광역시 남동구 남촌로84번길 38-1',x:'930709.9029618322',y:'1936926.6012936095'},</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2906,7 +2957,7 @@
         <v>{name:'남촌풍림점G',addr:'인천광역시 남동구 남촌로 87',x:'930519.5241960534',y:'1936924.5501427501'},</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -2927,7 +2978,7 @@
         <v>{name:'논현9단지점G',addr:'인천광역시 남동구 에코중앙로 96',x:'931082.9144479546',y:'1932299.9763963223'},</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -2948,7 +2999,7 @@
         <v>{name:'논현그린점G',addr:'인천광역시 남동구 소래역남로 41',x:'932050.8703605854',y:'1933616.1930220574'},</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -2969,7 +3020,7 @@
         <v>{name:'논현논곡점G',addr:'인천광역시 남동구 은봉로165번길 70',x:'930117.4696603667',y:'1934690.2941433568'},</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2990,7 +3041,7 @@
         <v>{name:'논현본점G',addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222'},</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -3011,7 +3062,7 @@
         <v>{name:'논현사리울점G',addr:'인천광역시 남동구 호구포로 294',x:'930380.131301852',y:'1934682.26347306'},</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3032,7 +3083,7 @@
         <v>{name:'논현타워점G',addr:'인천광역시 남동구 논고개로 101',x:'931351.6498332566',y:'1933713.8792295498'},</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3053,7 +3104,7 @@
         <v>{name:'논현푸르내점G',addr:'인천광역시 남동구 포구로 96',x:'932234.2407277152',y:'1934439.1704077376'},</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -3074,7 +3125,7 @@
         <v>{name:'논현푸르지오점G',addr:'인천광역시 남동구 남동서로236번길 30',x:'928769.7605027566',y:'1934796.3489991403'},</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -3095,7 +3146,7 @@
         <v>{name:'논현하늘소점G',addr:'인천광역시 남동구 논현로 17',x:'929976.1893208527',y:'1934125.684656498'},</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -3116,7 +3167,7 @@
         <v>{name:'논현행복점G',addr:'인천광역시 남동구 논현로 152',x:'931221.0594972067',y:'1934106.1328947735'},</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -3137,7 +3188,7 @@
         <v>{name:'논현현대식자재마트',addr:'인천광역시 남동구 포구로 69',x:'932397.976608831',y:'1934223.199099741'},</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -3158,7 +3209,7 @@
         <v>{name:'논현호구포점G',addr:'인천광역시 남동구 호구포로 209',x:'929995.2392286886',y:'1933932.6975875972'},</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -3179,7 +3230,7 @@
         <v>{name:'도림벽산점G',addr:'인천광역시 남동구 도림로 5-1',x:'931800.7220110968',y:'1935999.2065084004'},</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -3200,7 +3251,7 @@
         <v>{name:'도림아이파크점G',addr:'인천광역시 남동구 도리미로 8',x:'931913.8111496232',y:'1936148.2539673'},</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -3221,7 +3272,7 @@
         <v>{name:'도화 길목G',addr:'인천광역시 미추홀구 한나루로586번길 46',x:'926983.470680593',y:'1940180.8585922741'},</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3242,7 +3293,7 @@
         <v>{name:'도화진주점G',addr:'인천광역시 미추홀구 석정로323번길 43',x:'926556.1723330859',y:'1941432.2902734857'},</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3263,7 +3314,7 @@
         <v>{name:'도화팰리스점G',addr:'인천광역시 미추홀구 경인로 301',x:'926987.0691978035',y:'1940461.0685464954'},</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -3284,7 +3335,7 @@
         <v>{name:'동춘서해점G',addr:'인천광역시 연수구 봉재산로 20',x:'926197.1109902868',y:'1934885.043063439'},</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -3305,7 +3356,7 @@
         <v>{name:'동춘풍림점G',addr:'인천광역시 연수구 경원대로119번길 21',x:'926969.1834998771',y:'1933933.1206172006'},</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3326,7 +3377,7 @@
         <v>{name:'마스터뷰21호점G',addr:'인천광역시 연수구 컨벤시아대로274번길 55',x:'922947.2055729781',y:'1932085.0274891593'},</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>727</v>
       </c>
@@ -3347,7 +3398,7 @@
         <v>{name:'만도헬라일렉트로닉스(주)-WOORI',addr:'인천광역시 연수구 하모니로 224',x:'923721.6646240482',y:'1931399.019956504'},</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -3368,7 +3419,7 @@
         <v>{name:'만수숭의점G',addr:'인천광역시 남동구 구월말로58번길 1',x:'931460.6338070568',y:'1939723.2555402233'},</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>747</v>
       </c>
@@ -3389,7 +3440,7 @@
         <v>{name:'주안동궁전예식장 결합부스',addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243'},</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -3410,7 +3461,7 @@
         <v>{name:'무지개할인마트',addr:'인천광역시 연수구 새말로36번길 11',x:'926976.9262094533',y:'1936160.6680197665'},</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -3431,7 +3482,7 @@
         <v>{name:'미니24-인천',addr:'인천광역시 미추홀구 경인로 437',x:'928246.1295577467',y:'1940192.399497855'},</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>725</v>
       </c>
@@ -3452,7 +3503,7 @@
         <v>{name:'미추홀타워점G',addr:'인천광역시 연수구 갯벌로 12',x:'925064.2345959987',y:'1931830.2383670015'},</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -3473,7 +3524,7 @@
         <v>{name:'보금마트-연수',addr:'인천광역시 연수구 함박로25번길 2',x:'927463.1199536233',y:'1936627.06679082'},</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -3494,7 +3545,7 @@
         <v>{name:'서구검단고점G',addr:'인천광역시 서구 검단로 532',x:'926110.4926230235',y:'1956373.3558248538'},</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3515,7 +3566,7 @@
         <v>{name:'서구엠파크점G',addr:'인천광역시 서구 염곡로 52',x:'926244.9221541481',y:'1943755.5184864542'},</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -3536,7 +3587,7 @@
         <v>{name:'서구연희점G',addr:'인천광역시 서구 간촌로 9',x:'927388.9430976734',y:'1950308.0950684836'},</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -3557,7 +3608,7 @@
         <v>{name:'선학역점M',addr:'인천광역시 연수구 학나래로118번길 23',x:'929081.3471575531',y:'1936767.7973411446'},</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -3578,7 +3629,7 @@
         <v>{name:'선학중앙G',addr:'인천광역시 연수구 학나래로6번길 32',x:'929030.9872679301',y:'1936439.7252242365'},</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -3599,7 +3650,7 @@
         <v>{name:'세븐일레븐-인천간석역점',addr:'인천광역시 남동구 석산로 3',x:'928759.3617110967',y:'1940883.321277853'},</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3620,7 +3671,7 @@
         <v>{name:'셀트리온 제2공장 3층WOORI',addr:'인천광역시 연수구 아카데미로51번길 20',x:'923862.253035788',y:'1930721.5154832513'},</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -3641,7 +3692,7 @@
         <v>{name:'소래베스트점G',addr:'인천광역시 남동구 소래역로 20',x:'932409.8016257668',y:'1933619.6491731368'},</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -3662,7 +3713,7 @@
         <v>{name:'소래시티점G',addr:'인천광역시 남동구 포구로 35',x:'932559.6363396579',y:'1933938.546323114'},</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>124</v>
       </c>
@@ -3683,7 +3734,7 @@
         <v>{name:'소래중앙점G',addr:'인천광역시 남동구 소래역로18번길 15',x:'932472.0993263312',y:'1933643.4917039908'},</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -3704,7 +3755,7 @@
         <v>{name:'소래포구점G',addr:'인천광역시 남동구 장도로 85',x:'932594.8315246161',y:'1933497.9901714372'},</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -3725,7 +3776,7 @@
         <v>{name:'소래풍림점G',addr:'인천광역시 남동구 포구로 64-29',x:'932494.2900207366',y:'1934308.7269807002'},</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>350</v>
       </c>
@@ -3746,7 +3797,7 @@
         <v>{name:'송도 라이크홈기숙사-KEB하나',addr:'인천광역시 연수구 첨단대로 80',x:'925077.5744217939',y:'1930163.4990456211'},</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -3767,7 +3818,7 @@
         <v>{name:'주안으뜸점G',addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243'},</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -3788,7 +3839,7 @@
         <v>{name:'송도그림워크점GSS',addr:'인천광역시 연수구 아트센터대로97번길 15',x:'923949.5984413391',y:'1933886.2199624083'},</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -3809,7 +3860,7 @@
         <v>{name:'송도더샵엑스포KB',addr:'인천광역시 연수구 컨벤시아대로42번길 95',x:'924238.7160272836',y:'1934178.4920383645'},</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -3830,7 +3881,7 @@
         <v>{name:'송도더샵점G',addr:'인천광역시 연수구 아트센터대로97번길 75',x:'924389.3127429485',y:'1933490.9978888235'},</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -3851,7 +3902,7 @@
         <v>{name:'송도라마다점G',addr:'인천광역시 연수구 능허대로267번길 29',x:'925239.3006682626',y:'1935277.2973558633'},</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -3872,7 +3923,7 @@
         <v>{name:'송도메디점G',addr:'인천광역시 연수구 컨벤시아대로130번길 14',x:'924308.0890260204',y:'1932993.4899920663'},</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>171</v>
       </c>
@@ -3893,7 +3944,7 @@
         <v>{name:'송도성지점G',addr:'인천광역시 연수구 신송로6번길 7',x:'925894.2303461249',y:'1932625.2375938715'},</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -3914,7 +3965,7 @@
         <v>{name:'메리빌리아-송도',addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588'},</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -3935,7 +3986,7 @@
         <v>{name:'송도센트럴파크호텔',addr:'인천광역시 연수구 테크노파크로 193',x:'923641.9774963101',y:'1932732.2588121234'},</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -3956,7 +4007,7 @@
         <v>{name:'송도스마트밸리점G',addr:'인천광역시 연수구 송도미래로 30',x:'924568.090254779',y:'1930236.501307576'},</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -3977,7 +4028,7 @@
         <v>{name:'송도월드마크점M',addr:'인천광역시 연수구 컨벤시아대로 60',x:'924851.1126633752',y:'1933442.4269422777'},</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3998,7 +4049,7 @@
         <v>{name:'송도유원지점G',addr:'인천광역시 연수구 능허대로 203',x:'924862.0970530566',y:'1935734.32011165'},</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -4019,7 +4070,7 @@
         <v>{name:'송도점-GSS',addr:'인천광역시 연수구 해돋이로 107',x:'924778.2391112824',y:'1932822.1059526857'},</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -4040,7 +4091,7 @@
         <v>{name:'송도커넬워크점G',addr:'인천광역시 연수구 아트센터대로 107',x:'923751.8781831791',y:'1933894.0553808152'},</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -4061,7 +4112,7 @@
         <v>{name:'송도테크노파크IT센터SHINHAN',addr:'인천광역시 연수구 송도과학로 32',x:'925841.3207283262',y:'1931743.5380926528'},</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>722</v>
       </c>
@@ -4082,7 +4133,7 @@
         <v>{name:'송도트리플점G',addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588'},</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>159</v>
       </c>
@@ -4103,7 +4154,7 @@
         <v>{name:'송도파크호텔WOORI',addr:'인천광역시 연수구 테크노파크로 151',x:'923940.5490371233',y:'1932461.3960087532'},</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -4124,7 +4175,7 @@
         <v>{name:'인천글로벌운영재단',addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412'},</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -4145,7 +4196,7 @@
         <v>{name:'송도하모니점G',addr:'인천광역시 연수구 하모니로 124',x:'924325.4107504063',y:'1932184.2251096321'},</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -4166,7 +4217,7 @@
         <v>{name:'송도해송점G',addr:'인천광역시 연수구 해송로30번길 19',x:'924385.1257843729',y:'1931691.8597509419'},</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -4187,7 +4238,7 @@
         <v>{name:'송도현대점G',addr:'인천광역시 연수구 해돋이로6번길 7',x:'925627.0584128611',y:'1932281.0568902749'},</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -4208,7 +4259,7 @@
         <v>{name:'송도힐스점G',addr:'인천광역시 연수구 컨벤시아대로 90',x:'924647.7513800692',y:'1933202.8066080627'},</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -4229,7 +4280,7 @@
         <v>{name:'숭의길목점G',addr:'인천광역시 미추홀구 수봉안길 16',x:'925635.7302395517',y:'1940618.206504576'},</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -4250,7 +4301,7 @@
         <v>{name:'시흥신창점G',addr:'경기도 시흥시 신천4길 12',x:'936418.8711248166',y:'1937926.4969950966'},</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -4271,7 +4322,7 @@
         <v>{name:'신기사거리점G',addr:'인천광역시 미추홀구 미추홀대로 610',x:'927475.7843919608',y:'1939483.3085580925'},</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -4292,7 +4343,7 @@
         <v>{name:'신천동국민은행 결합부스',addr:'경기도 시흥시 수인로 3372',x:'936693.2910999567',y:'1938235.12572021'},</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -4313,7 +4364,7 @@
         <v>{name:'아크리아점G',addr:'인천광역시 연수구 신송로125번길 13',x:'924866.6899020134',y:'1933167.18251291'},</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>358</v>
       </c>
@@ -4334,7 +4385,7 @@
         <v>{name:'한국뉴욕주립대학교 결합부스',addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412'},</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -4355,7 +4406,7 @@
         <v>{name:'엠파크타워점G',addr:'인천광역시 서구 봉수대로 158',x:'925983.41854599',y:'1943696.0707750432'},</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -4376,7 +4427,7 @@
         <v>{name:'연수경원G',addr:'인천광역시 연수구 경원대로467번길 13',x:'929009.7022006633',y:'1936610.8085542968'},</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -4397,7 +4448,7 @@
         <v>{name:'연수골드점G',addr:'인천광역시 연수구 함박로 80',x:'927980.0656931633',y:'1936544.17710579'},</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -4418,7 +4469,7 @@
         <v>{name:'연수단비점G',addr:'인천광역시 연수구 청능대로113번길 43',x:'927274.7641431501',y:'1935327.7588821636'},</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -4439,7 +4490,7 @@
         <v>{name:'연수선학점G',addr:'인천광역시 연수구 넘말로29번길 21',x:'928915.90151959',y:'1936891.1488486365'},</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -4460,7 +4511,7 @@
         <v>{name:'연수장례식장 인천내부',addr:'인천광역시 연수구 벚꽃로 122',x:'927335.7894045769',y:'1935611.3385808035'},</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -4481,7 +4532,7 @@
         <v>{name:'연수점G',addr:'인천광역시 연수구 새말로46번길 4',x:'927054.4397459901',y:'1936127.9562478536'},</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -4502,7 +4553,7 @@
         <v>{name:'연수점M',addr:'인천광역시 연수구 비류대로 230',x:'925700.9976564867',y:'1936753.3900593636'},</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -4523,7 +4574,7 @@
         <v>{name:'연수중앙점G',addr:'인천광역시 연수구 새말로69번길 1',x:'927230.4884649334',y:'1935967.4642858398'},</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -4544,7 +4595,7 @@
         <v>{name:'연수청학점M',addr:'인천광역시 연수구 먼우금로 197',x:'927097.7779245968',y:'1935413.5243354505'},</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -4565,7 +4616,7 @@
         <v>{name:'연수타운점G',addr:'인천광역시 연수구 샘말로21번길 3',x:'927277.5510110233',y:'1935141.1890938403'},</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -4586,7 +4637,7 @@
         <v>{name:'연수태산점G',addr:'인천광역시 연수구 먼우금로264번길 8-4',x:'927477.3679526933',y:'1935944.299351547'},</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -4607,7 +4658,7 @@
         <v>{name:'연수파크타운점M',addr:'인천광역시 연수구 용담로 115',x:'927244.231129833',y:'1935426.1714365287'},</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>131</v>
       </c>
@@ -4628,7 +4679,7 @@
         <v>{name:'연수함박점M',addr:'인천광역시 연수구 함박뫼로50번길 93',x:'927263.5188448408',y:'1935872.3548643487'},</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>170</v>
       </c>
@@ -4649,7 +4700,7 @@
         <v>{name:'연수희망점G',addr:'인천광역시 연수구 앵고개로 256',x:'926724.2878851034',y:'1934622.8657452334'},</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>61</v>
       </c>
@@ -4670,7 +4721,7 @@
         <v>{name:'영빌딩CITY',addr:'인천광역시 미추홀구 인하로 253',x:'927138.1700531407',y:'1939133.3534303224'},</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -4691,7 +4742,7 @@
         <v>{name:'옥련백산점G',addr:'인천광역시 연수구 독배로 25',x:'924316.71718126',y:'1936330.9110739832'},</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>182</v>
       </c>
@@ -4712,7 +4763,7 @@
         <v>{name:'옥련사거리G',addr:'인천광역시 연수구 독배로 68',x:'924367.6668144872',y:'1936729.1735826507'},</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>181</v>
       </c>
@@ -4733,7 +4784,7 @@
         <v>{name:'옥련사랑M',addr:'인천광역시 연수구 한나루로 166',x:'925293.9163142969',y:'1936455.0597683867'},</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>134</v>
       </c>
@@ -4754,7 +4805,7 @@
         <v>{name:'옥련서해점G',addr:'인천광역시 연수구 청량로185번길 13',x:'924973.1474770068',y:'1936336.0367916236'},</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>180</v>
       </c>
@@ -4775,7 +4826,7 @@
         <v>{name:'옥련쌍용G',addr:'인천광역시 연수구 청량로184번길 48',x:'925182.9532054849',y:'1936549.0084032882'},</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -4796,7 +4847,7 @@
         <v>{name:'옥련아주점G',addr:'인천광역시 연수구 청량로 217',x:'925018.4765206832',y:'1936665.1654121173'},</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -4817,7 +4868,7 @@
         <v>{name:'옥련우성점G',addr:'인천광역시 연수구 독배로40번길 47',x:'924577.7008813033',y:'1936507.4463419202'},</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>132</v>
       </c>
@@ -4838,7 +4889,7 @@
         <v>{name:'옥련풍림점G',addr:'인천광역시 연수구 한나루로193번길 3',x:'925362.11812462',y:'1936699.7315103933'},</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -4859,7 +4910,7 @@
         <v>{name:'월미분수대점G',addr:'인천광역시 중구 월미문화로 57',x:'920135.501782795',y:'1941955.847831308'},</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -4880,7 +4931,7 @@
         <v>{name:'월미중앙점G',addr:'인천광역시 중구 월미문화로 65',x:'920108.2432266385',y:'1941888.865706168'},</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>76</v>
       </c>
@@ -4901,7 +4952,7 @@
         <v>{name:'위드미-라마다송도점',addr:'인천광역시 연수구 능허대로267번길 42',x:'925310.3928309134',y:'1935295.212755117'},</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -4922,7 +4973,7 @@
         <v>{name:'유진로봇 송도사옥',addr:'인천광역시 연수구 하모니로187번길 33',x:'924180.5928355344',y:'1931340.6668476937'},</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -4943,7 +4994,7 @@
         <v>{name:'은계센트럴점G',addr:'경기도 시흥시 은계중앙로 97',x:'938203.4013041602',y:'1938022.7406927734'},</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>156</v>
       </c>
@@ -4964,7 +5015,7 @@
         <v>{name:'은행동성원아파트 결합부스',addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804'},</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>157</v>
       </c>
@@ -4985,7 +5036,7 @@
         <v>{name:'은행동약사 결합부스',addr:'경기도 시흥시 은행로 8',x:'937498.2971942425',y:'1937334.1604390284'},</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>149</v>
       </c>
@@ -5006,7 +5057,7 @@
         <v>{name:'은혜의교회SH',addr:'인천광역시 미추홀구 매소홀로 428',x:'926520.0805420987',y:'1938134.7043078174'},</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -5027,7 +5078,7 @@
         <v>{name:'이마트 동인천점SC',addr:'인천광역시 중구 인중로 134',x:'922988.2656142102',y:'1941172.2637899336'},</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>179</v>
       </c>
@@ -5048,7 +5099,7 @@
         <v>{name:'이마트24 연수함박로',addr:'인천광역시 연수구 함박로 36',x:'927543.317565355',y:'1936592.6575228586'},</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -5069,7 +5120,7 @@
         <v>{name:'이수엑사보드 인천공장',addr:'인천광역시 남동구 남동서로270번길 54',x:'929093.4386579194',y:'1935045.5201349352'},</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>734</v>
       </c>
@@ -5090,7 +5141,7 @@
         <v>{name:'인천 송도 컨벤시아',addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082'},</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -5111,7 +5162,7 @@
         <v>{name:'인천5공단파출소결합부스',addr:'인천광역시 서구 가재울로 75',x:'927648.8596204547',y:'1942435.9377577854'},</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -5132,7 +5183,7 @@
         <v>{name:'인천경동점G',addr:'인천광역시 중구 개항로 82',x:'923229.7654404601',y:'1941739.1997609003'},</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>728</v>
       </c>
@@ -5153,7 +5204,7 @@
         <v>{name:'송도 에듀포레푸르지오',addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713'},</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>82</v>
       </c>
@@ -5174,7 +5225,7 @@
         <v>{name:'인천남촌로점G',addr:'인천광역시 남동구 남촌동로3번길 33',x:'930644.9199876767',y:'1937177.0833667233'},</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>57</v>
       </c>
@@ -5195,7 +5246,7 @@
         <v>{name:'인천논현광장점G',addr:'인천광역시 남동구 논고개로123번길 35',x:'931147.5988134101',y:'1933884.31215839'},</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -5216,7 +5267,7 @@
         <v>{name:'인천논현사랑점G',addr:'인천광역시 남동구 논고개로 166',x:'931299.0037734902',y:'1934371.8316615'},</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -5237,7 +5288,7 @@
         <v>{name:'인천논현역점G',addr:'인천광역시 남동구 논고개로 121',x:'931299.4091969267',y:'1933928.8000814402'},</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>51</v>
       </c>
@@ -5258,7 +5309,7 @@
         <v>{name:'인천논현점M',addr:'인천광역시 남동구 논현로46번길 51',x:'930040.7558424668',y:'1933792.9459385104'},</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>93</v>
       </c>
@@ -5279,7 +5330,7 @@
         <v>{name:'인천동아서점 결합부스',addr:'인천광역시 미추홀구 경인로 386-1',x:'927733.8360022209',y:'1940187.0715722647'},</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>160</v>
       </c>
@@ -5300,7 +5351,7 @@
         <v>{name:'인천메카점M',addr:'인천광역시 연수구 용담로125번길 41',x:'927422.4468487434',y:'1935499.65872847'},</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -5321,7 +5372,7 @@
         <v>{name:'인천벽산아파트 결합부스',addr:'인천광역시 남동구 서판로 43',x:'931434.1630260036',y:'1940841.3205330772'},</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>85</v>
       </c>
@@ -5342,7 +5393,7 @@
         <v>{name:'인천선학점G',addr:'인천광역시 연수구 비류대로529번길 10',x:'928643.5051002635',y:'1936354.497053353'},</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>94</v>
       </c>
@@ -5363,7 +5414,7 @@
         <v>{name:'인천송도점G',addr:'인천광역시 연수구 해돋이로84번길 29',x:'925166.2389731444',y:'1932929.6578389006'},</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -5384,7 +5435,7 @@
         <v>{name:'인천신현쇼핑 결합부스',addr:'인천광역시 서구 가정로 369',x:'926879.0843732902',y:'1946840.1810874036'},</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>100</v>
       </c>
@@ -5405,7 +5456,7 @@
         <v>{name:'인천옥련점M',addr:'인천광역시 연수구 한나루로197번길 30',x:'925282.19116041',y:'1936827.8251766833'},</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -5426,7 +5477,7 @@
         <v>{name:'인천주안로점G',addr:'인천광역시 미추홀구 주안동로 28-15',x:'928043.4087397007',y:'1940464.958479995'},</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -5447,7 +5498,7 @@
         <v>{name:'인천터미널점M',addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102'},</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>352</v>
       </c>
@@ -5468,7 +5519,7 @@
         <v>{name:'인천해양경찰서-SH',addr:'인천광역시 연수구 옥골로 69',x:'924748.3864360615',y:'1937246.7582861618'},</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -5489,7 +5540,7 @@
         <v>{name:'인천호구포역점M',addr:'인천광역시 남동구 논현로26번길 12',x:'929979.51652928',y:'1934015.4848348568'},</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>63</v>
       </c>
@@ -5510,7 +5561,7 @@
         <v>{name:'자매슈퍼-연수',addr:'인천광역시 연수구 함박로12번길 46',x:'927560.5282932345',y:'1936553.2454770715'},</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>25</v>
       </c>
@@ -5531,7 +5582,7 @@
         <v>{name:'제물포버스정류장 결합부스',addr:'인천광역시 미추홀구 경인로 135',x:'925542.174751237',y:'1941140.5618504882'},</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>69</v>
       </c>
@@ -5552,7 +5603,7 @@
         <v>{name:'제일슈퍼-인천',addr:'인천광역시 연수구 함박안로156번길 6',x:'927773.0413744',y:'1936723.1742538'},</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>173</v>
       </c>
@@ -5573,7 +5624,7 @@
         <v>{name:'주안 보보G',addr:'인천광역시 미추홀구 경인로425번길 14',x:'928155.8178139064',y:'1940251.613382046'},</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>174</v>
       </c>
@@ -5594,7 +5645,7 @@
         <v>{name:'주안 신성G',addr:'인천광역시 미추홀구 주안중로 28',x:'927733.3861476094',y:'1940496.9830620233'},</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>116</v>
       </c>
@@ -5615,7 +5666,7 @@
         <v>{name:'주안1동점G',addr:'인천광역시 미추홀구 주안중로50번길 20',x:'927832.11701282',y:'1940714.3422219716'},</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -5636,7 +5687,7 @@
         <v>{name:'주안공단점G',addr:'인천광역시 미추홀구 염전로 362',x:'927504.3446300412',y:'1941528.745698372'},</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>98</v>
       </c>
@@ -5657,7 +5708,7 @@
         <v>{name:'주안남부점M',addr:'인천광역시 미추홀구 주안로104번길 15',x:'927600.294782457',y:'1940748.241028722'},</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>117</v>
       </c>
@@ -5678,7 +5729,7 @@
         <v>{name:'주안대로점G',addr:'인천광역시 미추홀구 주안로 45',x:'927021.73843505',y:'1940904.6652424666'},</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -5699,7 +5750,7 @@
         <v>{name:'주안동경점G',addr:'인천광역시 미추홀구 주안서로 53',x:'927285.2900126814',y:'1940792.0053177588'},</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -5720,7 +5771,7 @@
         <v>{name:'에듀포레점G',addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713'},</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -5741,7 +5792,7 @@
         <v>{name:'주안미래점M',addr:'인천광역시 미추홀구 주안중로 13-1',x:'927698.3542673178',y:'1940367.9314235584'},</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -5762,7 +5813,7 @@
         <v>{name:'주안미소점G',addr:'인천광역시 미추홀구 신기길30번길 37',x:'926981.776154774',y:'1938935.675808793'},</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -5783,7 +5834,7 @@
         <v>{name:'주안미추홀점G',addr:'인천광역시 미추홀구 경인로 343',x:'927260.9079237133',y:'1940267.6733396333'},</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -5804,7 +5855,7 @@
         <v>{name:'주안본점M',addr:'인천광역시 미추홀구 미추홀대로734번길 37',x:'927714.5775235672',y:'1940744.2295416128'},</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>109</v>
       </c>
@@ -5825,7 +5876,7 @@
         <v>{name:'주안사거리점G',addr:'인천광역시 미추홀구 석바위로 61',x:'927476.9399430258',y:'1940520.5633123717'},</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>86</v>
       </c>
@@ -5846,7 +5897,7 @@
         <v>{name:'주안석바위점M',addr:'인천광역시 미추홀구 석바위로 112',x:'927947.6847094274',y:'1940400.324138321'},</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -5867,7 +5918,7 @@
         <v>{name:'주안세일점G',addr:'인천광역시 미추홀구 동주길 76',x:'927911.4083549832',y:'1939815.436123129'},</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>184</v>
       </c>
@@ -5888,7 +5939,7 @@
         <v>{name:'주안역삼거리 결합부스',addr:'인천광역시 미추홀구 미추홀대로 741',x:'927492.7927790079',y:'1940802.0347208697'},</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -5909,7 +5960,7 @@
         <v>{name:'주안월드점G',addr:'인천광역시 미추홀구 경인로485번길 33',x:'928577.0918325363',y:'1940491.9788272986'},</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -5930,7 +5981,7 @@
         <v>{name:'송도센트럴점M',addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754'},</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>139</v>
       </c>
@@ -5951,7 +6002,7 @@
         <v>{name:'주안주공점G',addr:'인천광역시 미추홀구 주안로 215',x:'928700.075495082',y:'1940788.8228662973'},</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>148</v>
       </c>
@@ -5972,7 +6023,7 @@
         <v>{name:'주안파크점G',addr:'인천광역시 미추홀구 미추홀대로722번길 21-1',x:'927631.6564081493',y:'1940615.9256797591'},</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -5993,7 +6044,7 @@
         <v>{name:'주안한신점G',addr:'인천광역시 미추홀구 인하로352번길 10',x:'928112.3556398968',y:'1939019.7543626092'},</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>119</v>
       </c>
@@ -6014,7 +6065,7 @@
         <v>{name:'주안행복점M',addr:'인천광역시 미추홀구 석바위로53번길 3',x:'927366.0847729146',y:'1940514.0627141502'},</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>55</v>
       </c>
@@ -6035,7 +6086,7 @@
         <v>{name:'중부지방해양경찰청SH',addr:'인천광역시 연수구 센트럴로 263',x:'923373.8316200967',y:'1933570.7668816056'},</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -6056,7 +6107,7 @@
         <v>{name:'중앙슈퍼-연수',addr:'인천광역시 연수구 함박뫼로4번길 13-8',x:'926743.3556705897',y:'1935757.611946192'},</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -6077,7 +6128,7 @@
         <v>{name:'천일식품-고잔동',addr:'인천광역시 남동구 앵고개로 426',x:'928102.1321792866',y:'1933636.4756072024'},</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>103</v>
       </c>
@@ -6098,7 +6149,7 @@
         <v>{name:'청능공원점G',addr:'인천광역시 연수구 청능말로7번길 20',x:'926506.0746164669',y:'1935665.4340851936'},</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>28</v>
       </c>
@@ -6119,7 +6170,7 @@
         <v>{name:'청라리치아노점M',addr:'인천광역시 서구 청라에메랄드로102번길 10',x:'925562.0452141722',y:'1948624.1122872476'},</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -6140,7 +6191,7 @@
         <v>{name:'청라에뜰점G',addr:'인천광역시 서구 청라커낼로 300',x:'924457.963117328',y:'1948765.6387663502'},</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>27</v>
       </c>
@@ -6161,7 +6212,7 @@
         <v>{name:'청라호반점G',addr:'인천광역시 서구 청라커낼로 163',x:'923949.8371560569',y:'1947760.2909392407'},</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>354</v>
       </c>
@@ -6182,7 +6233,7 @@
         <v>{name:'청학복합문화센터-SHINHAN',addr:'인천광역시 연수구 비류대로 299',x:'926357.2427523071',y:'1936675.620955735'},</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>74</v>
       </c>
@@ -6203,7 +6254,7 @@
         <v>{name:'청학본점G',addr:'인천광역시 연수구 비류대로278번길 8-3',x:'926142.2991103267',y:'1936646.2066965867'},</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -6224,7 +6275,7 @@
         <v>{name:'청학타운점G',addr:'인천광역시 연수구 청학로12번길 47',x:'926231.6395880934',y:'1936834.2690070835'},</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -6245,7 +6296,7 @@
         <v>{name:'청학현대점G',addr:'인천광역시 연수구 계림로35번길 58',x:'926443.0193460134',y:'1936904.7241967367'},</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>730</v>
       </c>
@@ -6266,7 +6317,7 @@
         <v>{name:'코스트코',addr:'인천광역시 연수구 컨벤시아대로230번길 60',x:' 923278.7832623338',y:'1932636.7317621163'},</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>133</v>
       </c>
@@ -6287,7 +6338,7 @@
         <v>{name:'퍼스트파크13점',addr:'인천광역시 연수구 컨벤시아대로252번길 70',x:'923074.6219626968',y:'1932451.7707887636'},</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>47</v>
       </c>
@@ -6308,7 +6359,7 @@
         <v>{name:'포스코송도 R&amp;D센터KB',addr:'인천광역시 연수구 송도과학로 100',x:'926384.4323779428',y:'1931453.2860596376'},</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>53</v>
       </c>
@@ -6329,7 +6380,7 @@
         <v>{name:'포스코이앤씨타워점G',addr:'인천광역시 연수구 인천타워대로 241',x:'923372.5008990793',y:'1932935.9711958324'},</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>123</v>
       </c>
@@ -6350,7 +6401,7 @@
         <v>{name:'하이-소래포구',addr:'인천광역시 남동구 포구로 3',x:'932688.4409603968',y:'1933646.0883224965'},</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>22</v>
       </c>
@@ -6371,7 +6422,7 @@
         <v>{name:'학익늘봄점G',addr:'인천광역시 미추홀구 한나루로403번길 105',x:'925632.7361822787',y:'1938795.12119258'},</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -6392,7 +6443,7 @@
         <v>{name:'학익다송G',addr:'인천광역시 미추홀구 소성로 162',x:'926243.6841133314',y:'1938404.1977886255'},</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>83</v>
       </c>
@@ -6413,7 +6464,7 @@
         <v>{name:'학익대로점G',addr:'인천광역시 미추홀구 소성로 244',x:'926977.6259435453',y:'1938038.3710919674'},</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>175</v>
       </c>
@@ -6434,7 +6485,7 @@
         <v>{name:'학익미소G',addr:'인천광역시 미추홀구 주승로 22',x:'926826.3832888785',y:'1938596.312287895'},</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -6455,7 +6506,7 @@
         <v>{name:'학익사거리점M',addr:'인천광역시 미추홀구 매소홀로446번길 16',x:'926687.5525610019',y:'1938078.4112452823'},</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>84</v>
       </c>
@@ -6476,7 +6527,7 @@
         <v>{name:'학익센터점G',addr:'인천광역시 미추홀구 매소홀로446번길 4',x:'926688.1271994561',y:'1938129.2821605182'},</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>40</v>
       </c>
@@ -6497,7 +6548,7 @@
         <v>{name:'학익점GSS',addr:'인천광역시 미추홀구 소성로 146',x:'926064.1264832243',y:'1938437.8886083513'},</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>118</v>
       </c>
@@ -6518,7 +6569,7 @@
         <v>{name:'학익중앙점G',addr:'인천광역시 미추홀구 소성로185번길 16-5',x:'926531.8325332045',y:'1938402.6683132658'},</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>165</v>
       </c>
@@ -6539,7 +6590,7 @@
         <v>{name:'학익타운점G',addr:'인천광역시 미추홀구 한나루로 350',x:'925893.6336379224',y:'1938132.127089256'},</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>356</v>
       </c>
@@ -6560,7 +6611,7 @@
         <v>{name:'송도푸르지오시티점G',addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754'},</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -6581,7 +6632,7 @@
         <v>{name:'한옥마을앰배서더-SHINHAN',addr:'인천광역시 연수구 테크노파크로 200',x:'923643.9542986592',y:'1932798.2731926683'},</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>33</v>
       </c>
@@ -6602,7 +6653,7 @@
         <v>{name:'한화프라자점G',addr:'인천광역시 남동구 소래역남로 12',x:'932305.6277828533',y:'1933461.700828867'},</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>129</v>
       </c>
@@ -6623,7 +6674,7 @@
         <v>{name:'해양경비안전본부SHINHAN',addr:'인천광역시 연수구 해돋이로 130',x:'924618.4617833635',y:'1932985.3575826176'},</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>732</v>
       </c>
@@ -6644,9 +6695,72 @@
         <v>{name:'현대 프리미엄 아울렛 송도',addr:'인천광역시 연수구 송도국제대로 123',x:'925450.1762407259',y:'1931726.6847481355'},</v>
       </c>
     </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>751</v>
+      </c>
+      <c r="B191" t="s">
+        <v>752</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F191" t="str">
+        <f>"{name:" &amp; "'" &amp;A191&amp;"',addr:" &amp; "'" &amp;B191&amp;"',x:"&amp; "'" &amp;C191&amp;"',y:"&amp; "'" &amp;D191&amp;"'},"</f>
+        <v>{name:'만도로브제',addr:'인천광역시 연수구 첨단대로60번길 75',x:'924604.9640742338',y:'1929694.2852085028'},</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>754</v>
+      </c>
+      <c r="B192" t="s">
+        <v>753</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F192" t="str">
+        <f>"{name:" &amp; "'" &amp;A192&amp;"',addr:" &amp; "'" &amp;B192&amp;"',x:"&amp; "'" &amp;C192&amp;"',y:"&amp; "'" &amp;D192&amp;"'},"</f>
+        <v>{name:'한화에코11단지',addr:'인천광역시 남동구 논고개로 17',x:'931971.8826013578',y:'1933157.4842754863'},</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>756</v>
+      </c>
+      <c r="B193" t="s">
+        <v>755</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F193" t="str">
+        <f>"{name:" &amp; "'" &amp;A193&amp;"',addr:" &amp; "'" &amp;B193&amp;"',x:"&amp; "'" &amp;C193&amp;"',y:"&amp; "'" &amp;D193&amp;"'},"</f>
+        <v>{name:'한화에코12단지',addr:'인천광역시 남동구 논고개로 10',x:'932065.1035968331',y:'1933133.3493248513'},</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F190">
-    <sortState ref="A35:F186">
+  <autoFilter ref="A1:F190" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F193">
       <sortCondition ref="B1:B190"/>
     </sortState>
   </autoFilter>
@@ -6657,24 +6771,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G185"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C152" workbookViewId="0">
-      <selection activeCell="G166" sqref="G166"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="43.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="139.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="139.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>720</v>
       </c>
@@ -6694,7 +6809,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6715,7 +6830,7 @@
         <v>{name:['(주)비에스이'],addr:'인천광역시 남동구 남동서로 193',x:'928448.838274891',y:'1934545.4152585235'},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -6732,11 +6847,11 @@
         <v>735</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="0">"{name:" &amp; "['"&amp;A3&amp;"'"&amp;IF(ISBLANK(B3),"",",'"&amp;B3&amp;"'")&amp;"],addr:" &amp; "'" &amp;C3&amp;"',x:"&amp; "'" &amp;D3&amp;"',y:"&amp; "'" &amp;E3&amp;"'},"</f>
+        <f>"{name:" &amp; "['"&amp;A3&amp;"'"&amp;IF(ISBLANK(B3),"",",'"&amp;B3&amp;"'")&amp;"],addr:" &amp; "'" &amp;C3&amp;"',x:"&amp; "'" &amp;D3&amp;"',y:"&amp; "'" &amp;E3&amp;"'},"</f>
         <v>{name:['(주)씨에스티'],addr:'인천광역시 남동구 남동대로 248',x:'929162.2536080531',y:'1934468.471045103'},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -6753,53 +6868,53 @@
         <v>735</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A4&amp;"'"&amp;IF(ISBLANK(B4),"",",'"&amp;B4&amp;"'")&amp;"],addr:" &amp; "'" &amp;C4&amp;"',x:"&amp; "'" &amp;D4&amp;"',y:"&amp; "'" &amp;E4&amp;"'},"</f>
         <v>{name:['(주)일야'],addr:'인천광역시 남동구 은봉로 129',x:'929636.4538484735',y:'1934569.642266401'},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['CU연수타운점'],addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092'},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <f>"{name:" &amp; "['"&amp;A5&amp;"'"&amp;IF(ISBLANK(B5),"",",'"&amp;B5&amp;"'")&amp;"],addr:" &amp; "'" &amp;C5&amp;"',x:"&amp; "'" &amp;D5&amp;"',y:"&amp; "'" &amp;E5&amp;"'},"</f>
+        <v>{name:['간석드림점G'],addr:'인천광역시 남동구 석산로9번길 69',x:'929139.5206771668',y:'1940818.0201271167'},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>763</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>764</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>499</v>
+        <v>765</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>644</v>
+        <v>766</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['간석드림점G'],addr:'인천광역시 남동구 석산로9번길 69',x:'929139.5206771668',y:'1940818.0201271167'},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <f>"{name:" &amp; "['"&amp;A6&amp;"'"&amp;IF(ISBLANK(B6),"",",'"&amp;B6&amp;"'")&amp;"],addr:" &amp; "'" &amp;C6&amp;"',x:"&amp; "'" &amp;D6&amp;"',y:"&amp; "'" &amp;E6&amp;"'},"</f>
+        <v>{name:['경인종합상가 결합부스'],addr:'인천광역시 미추홀구 경인로 392',x:'927784.8569973619',y:'1940188.3494468476'},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -6816,11 +6931,11 @@
         <v>735</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A7&amp;"'"&amp;IF(ISBLANK(B7),"",",'"&amp;B7&amp;"'")&amp;"],addr:" &amp; "'" &amp;C7&amp;"',x:"&amp; "'" &amp;D7&amp;"',y:"&amp; "'" &amp;E7&amp;"'},"</f>
         <v>{name:['고잔엘아이점G'],addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442'},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -6837,11 +6952,11 @@
         <v>735</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A8&amp;"'"&amp;IF(ISBLANK(B8),"",",'"&amp;B8&amp;"'")&amp;"],addr:" &amp; "'" &amp;C8&amp;"',x:"&amp; "'" &amp;D8&amp;"',y:"&amp; "'" &amp;E8&amp;"'},"</f>
         <v>{name:['고잔중앙점G'],addr:'인천광역시 남동구 앵고개로 712',x:'930676.6785130233',y:'1932416.9426641734'},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -6858,11 +6973,11 @@
         <v>735</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A9&amp;"'"&amp;IF(ISBLANK(B9),"",",'"&amp;B9&amp;"'")&amp;"],addr:" &amp; "'" &amp;C9&amp;"',x:"&amp; "'" &amp;D9&amp;"',y:"&amp; "'" &amp;E9&amp;"'},"</f>
         <v>{name:['남구숭의점G'],addr:'인천광역시 미추홀구 독배로 438',x:'924751.8764202176',y:'1940279.1432027267'},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -6879,11 +6994,11 @@
         <v>735</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A10&amp;"'"&amp;IF(ISBLANK(B10),"",",'"&amp;B10&amp;"'")&amp;"],addr:" &amp; "'" &amp;C10&amp;"',x:"&amp; "'" &amp;D10&amp;"',y:"&amp; "'" &amp;E10&amp;"'},"</f>
         <v>{name:['남동논현점G'],addr:'인천광역시 남동구 앵고개로815번길 20',x:'931356.6721433003',y:'1933189.4978637807'},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -6900,11 +7015,11 @@
         <v>735</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A11&amp;"'"&amp;IF(ISBLANK(B11),"",",'"&amp;B11&amp;"'")&amp;"],addr:" &amp; "'" &amp;C11&amp;"',x:"&amp; "'" &amp;D11&amp;"',y:"&amp; "'" &amp;E11&amp;"'},"</f>
         <v>{name:['남촌중앙점G'],addr:'인천광역시 남동구 남촌로84번길 38-1',x:'930709.9029618322',y:'1936926.6012936095'},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -6921,11 +7036,11 @@
         <v>735</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A12&amp;"'"&amp;IF(ISBLANK(B12),"",",'"&amp;B12&amp;"'")&amp;"],addr:" &amp; "'" &amp;C12&amp;"',x:"&amp; "'" &amp;D12&amp;"',y:"&amp; "'" &amp;E12&amp;"'},"</f>
         <v>{name:['남촌풍림점G'],addr:'인천광역시 남동구 남촌로 87',x:'930519.5241960534',y:'1936924.5501427501'},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -6942,11 +7057,11 @@
         <v>735</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A13&amp;"'"&amp;IF(ISBLANK(B13),"",",'"&amp;B13&amp;"'")&amp;"],addr:" &amp; "'" &amp;C13&amp;"',x:"&amp; "'" &amp;D13&amp;"',y:"&amp; "'" &amp;E13&amp;"'},"</f>
         <v>{name:['논현9단지점G'],addr:'인천광역시 남동구 에코중앙로 96',x:'931082.9144479546',y:'1932299.9763963223'},</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -6963,11 +7078,11 @@
         <v>735</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A14&amp;"'"&amp;IF(ISBLANK(B14),"",",'"&amp;B14&amp;"'")&amp;"],addr:" &amp; "'" &amp;C14&amp;"',x:"&amp; "'" &amp;D14&amp;"',y:"&amp; "'" &amp;E14&amp;"'},"</f>
         <v>{name:['논현그린점G'],addr:'인천광역시 남동구 소래역남로 41',x:'932050.8703605854',y:'1933616.1930220574'},</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -6984,11 +7099,11 @@
         <v>735</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A15&amp;"'"&amp;IF(ISBLANK(B15),"",",'"&amp;B15&amp;"'")&amp;"],addr:" &amp; "'" &amp;C15&amp;"',x:"&amp; "'" &amp;D15&amp;"',y:"&amp; "'" &amp;E15&amp;"'},"</f>
         <v>{name:['논현논곡점G'],addr:'인천광역시 남동구 은봉로165번길 70',x:'930117.4696603667',y:'1934690.2941433568'},</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -7005,11 +7120,11 @@
         <v>735</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A16&amp;"'"&amp;IF(ISBLANK(B16),"",",'"&amp;B16&amp;"'")&amp;"],addr:" &amp; "'" &amp;C16&amp;"',x:"&amp; "'" &amp;D16&amp;"',y:"&amp; "'" &amp;E16&amp;"'},"</f>
         <v>{name:['논현본점G'],addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222'},</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -7026,11 +7141,11 @@
         <v>735</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A17&amp;"'"&amp;IF(ISBLANK(B17),"",",'"&amp;B17&amp;"'")&amp;"],addr:" &amp; "'" &amp;C17&amp;"',x:"&amp; "'" &amp;D17&amp;"',y:"&amp; "'" &amp;E17&amp;"'},"</f>
         <v>{name:['논현사리울점G'],addr:'인천광역시 남동구 호구포로 294',x:'930380.131301852',y:'1934682.26347306'},</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -7047,11 +7162,11 @@
         <v>735</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A18&amp;"'"&amp;IF(ISBLANK(B18),"",",'"&amp;B18&amp;"'")&amp;"],addr:" &amp; "'" &amp;C18&amp;"',x:"&amp; "'" &amp;D18&amp;"',y:"&amp; "'" &amp;E18&amp;"'},"</f>
         <v>{name:['논현타워점G'],addr:'인천광역시 남동구 논고개로 101',x:'931351.6498332566',y:'1933713.8792295498'},</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -7068,11 +7183,11 @@
         <v>735</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A19&amp;"'"&amp;IF(ISBLANK(B19),"",",'"&amp;B19&amp;"'")&amp;"],addr:" &amp; "'" &amp;C19&amp;"',x:"&amp; "'" &amp;D19&amp;"',y:"&amp; "'" &amp;E19&amp;"'},"</f>
         <v>{name:['논현푸르내점G'],addr:'인천광역시 남동구 포구로 96',x:'932234.2407277152',y:'1934439.1704077376'},</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -7089,11 +7204,11 @@
         <v>735</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A20&amp;"'"&amp;IF(ISBLANK(B20),"",",'"&amp;B20&amp;"'")&amp;"],addr:" &amp; "'" &amp;C20&amp;"',x:"&amp; "'" &amp;D20&amp;"',y:"&amp; "'" &amp;E20&amp;"'},"</f>
         <v>{name:['논현푸르지오점G'],addr:'인천광역시 남동구 남동서로236번길 30',x:'928769.7605027566',y:'1934796.3489991403'},</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -7110,11 +7225,11 @@
         <v>735</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A21&amp;"'"&amp;IF(ISBLANK(B21),"",",'"&amp;B21&amp;"'")&amp;"],addr:" &amp; "'" &amp;C21&amp;"',x:"&amp; "'" &amp;D21&amp;"',y:"&amp; "'" &amp;E21&amp;"'},"</f>
         <v>{name:['논현하늘소점G'],addr:'인천광역시 남동구 논현로 17',x:'929976.1893208527',y:'1934125.684656498'},</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -7131,11 +7246,11 @@
         <v>735</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A22&amp;"'"&amp;IF(ISBLANK(B22),"",",'"&amp;B22&amp;"'")&amp;"],addr:" &amp; "'" &amp;C22&amp;"',x:"&amp; "'" &amp;D22&amp;"',y:"&amp; "'" &amp;E22&amp;"'},"</f>
         <v>{name:['논현행복점G'],addr:'인천광역시 남동구 논현로 152',x:'931221.0594972067',y:'1934106.1328947735'},</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -7152,11 +7267,11 @@
         <v>735</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A23&amp;"'"&amp;IF(ISBLANK(B23),"",",'"&amp;B23&amp;"'")&amp;"],addr:" &amp; "'" &amp;C23&amp;"',x:"&amp; "'" &amp;D23&amp;"',y:"&amp; "'" &amp;E23&amp;"'},"</f>
         <v>{name:['논현현대식자재마트'],addr:'인천광역시 남동구 포구로 69',x:'932397.976608831',y:'1934223.199099741'},</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -7173,11 +7288,11 @@
         <v>735</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A24&amp;"'"&amp;IF(ISBLANK(B24),"",",'"&amp;B24&amp;"'")&amp;"],addr:" &amp; "'" &amp;C24&amp;"',x:"&amp; "'" &amp;D24&amp;"',y:"&amp; "'" &amp;E24&amp;"'},"</f>
         <v>{name:['논현호구포점G'],addr:'인천광역시 남동구 호구포로 209',x:'929995.2392286886',y:'1933932.6975875972'},</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -7194,11 +7309,11 @@
         <v>735</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A25&amp;"'"&amp;IF(ISBLANK(B25),"",",'"&amp;B25&amp;"'")&amp;"],addr:" &amp; "'" &amp;C25&amp;"',x:"&amp; "'" &amp;D25&amp;"',y:"&amp; "'" &amp;E25&amp;"'},"</f>
         <v>{name:['도림벽산점G'],addr:'인천광역시 남동구 도림로 5-1',x:'931800.7220110968',y:'1935999.2065084004'},</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -7215,11 +7330,11 @@
         <v>735</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A26&amp;"'"&amp;IF(ISBLANK(B26),"",",'"&amp;B26&amp;"'")&amp;"],addr:" &amp; "'" &amp;C26&amp;"',x:"&amp; "'" &amp;D26&amp;"',y:"&amp; "'" &amp;E26&amp;"'},"</f>
         <v>{name:['도림아이파크점G'],addr:'인천광역시 남동구 도리미로 8',x:'931913.8111496232',y:'1936148.2539673'},</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -7236,11 +7351,11 @@
         <v>735</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A27&amp;"'"&amp;IF(ISBLANK(B27),"",",'"&amp;B27&amp;"'")&amp;"],addr:" &amp; "'" &amp;C27&amp;"',x:"&amp; "'" &amp;D27&amp;"',y:"&amp; "'" &amp;E27&amp;"'},"</f>
         <v>{name:['도화 길목G'],addr:'인천광역시 미추홀구 한나루로586번길 46',x:'926983.470680593',y:'1940180.8585922741'},</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -7257,11 +7372,11 @@
         <v>735</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A28&amp;"'"&amp;IF(ISBLANK(B28),"",",'"&amp;B28&amp;"'")&amp;"],addr:" &amp; "'" &amp;C28&amp;"',x:"&amp; "'" &amp;D28&amp;"',y:"&amp; "'" &amp;E28&amp;"'},"</f>
         <v>{name:['도화진주점G'],addr:'인천광역시 미추홀구 석정로323번길 43',x:'926556.1723330859',y:'1941432.2902734857'},</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -7278,11 +7393,11 @@
         <v>735</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A29&amp;"'"&amp;IF(ISBLANK(B29),"",",'"&amp;B29&amp;"'")&amp;"],addr:" &amp; "'" &amp;C29&amp;"',x:"&amp; "'" &amp;D29&amp;"',y:"&amp; "'" &amp;E29&amp;"'},"</f>
         <v>{name:['도화팰리스점G'],addr:'인천광역시 미추홀구 경인로 301',x:'926987.0691978035',y:'1940461.0685464954'},</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -7299,11 +7414,11 @@
         <v>735</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A30&amp;"'"&amp;IF(ISBLANK(B30),"",",'"&amp;B30&amp;"'")&amp;"],addr:" &amp; "'" &amp;C30&amp;"',x:"&amp; "'" &amp;D30&amp;"',y:"&amp; "'" &amp;E30&amp;"'},"</f>
         <v>{name:['동춘서해점G'],addr:'인천광역시 연수구 봉재산로 20',x:'926197.1109902868',y:'1934885.043063439'},</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -7320,11 +7435,11 @@
         <v>735</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A31&amp;"'"&amp;IF(ISBLANK(B31),"",",'"&amp;B31&amp;"'")&amp;"],addr:" &amp; "'" &amp;C31&amp;"',x:"&amp; "'" &amp;D31&amp;"',y:"&amp; "'" &amp;E31&amp;"'},"</f>
         <v>{name:['동춘풍림점G'],addr:'인천광역시 연수구 경원대로119번길 21',x:'926969.1834998771',y:'1933933.1206172006'},</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -7341,3240 +7456,3328 @@
         <v>735</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="0"/>
+        <f>"{name:" &amp; "['"&amp;A32&amp;"'"&amp;IF(ISBLANK(B32),"",",'"&amp;B32&amp;"'")&amp;"],addr:" &amp; "'" &amp;C32&amp;"',x:"&amp; "'" &amp;D32&amp;"',y:"&amp; "'" &amp;E32&amp;"'},"</f>
         <v>{name:['마스터뷰21호점G'],addr:'인천광역시 연수구 컨벤시아대로274번길 55',x:'922947.2055729781',y:'1932085.0274891593'},</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>751</v>
+      </c>
+      <c r="C33" t="s">
+        <v>752</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G33" t="str">
+        <f>"{name:" &amp; "['"&amp;A33&amp;"'"&amp;IF(ISBLANK(B33),"",",'"&amp;B33&amp;"'")&amp;"],addr:" &amp; "'" &amp;C33&amp;"',x:"&amp; "'" &amp;D33&amp;"',y:"&amp; "'" &amp;E33&amp;"'},"</f>
+        <v>{name:['만도로브제'],addr:'인천광역시 연수구 첨단대로60번길 75',x:'924604.9640742338',y:'1929694.2852085028'},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
         <v>727</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>726</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
+      <c r="F34" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G34" t="str">
+        <f>"{name:" &amp; "['"&amp;A34&amp;"'"&amp;IF(ISBLANK(B34),"",",'"&amp;B34&amp;"'")&amp;"],addr:" &amp; "'" &amp;C34&amp;"',x:"&amp; "'" &amp;D34&amp;"',y:"&amp; "'" &amp;E34&amp;"'},"</f>
         <v>{name:['만도헬라일렉트로닉스(주)-WOORI'],addr:'인천광역시 연수구 하모니로 224',x:'923721.6646240482',y:'1931399.019956504'},</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
         <v>153</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>317</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
+      <c r="F35" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G35" t="str">
+        <f>"{name:" &amp; "['"&amp;A35&amp;"'"&amp;IF(ISBLANK(B35),"",",'"&amp;B35&amp;"'")&amp;"],addr:" &amp; "'" &amp;C35&amp;"',x:"&amp; "'" &amp;D35&amp;"',y:"&amp; "'" &amp;E35&amp;"'},"</f>
         <v>{name:['만수숭의점G'],addr:'인천광역시 남동구 구월말로58번길 1',x:'931460.6338070568',y:'1939723.2555402233'},</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>722</v>
+      </c>
+      <c r="C36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G36" t="str">
+        <f>"{name:" &amp; "['"&amp;A36&amp;"'"&amp;IF(ISBLANK(B36),"",",'"&amp;B36&amp;"'")&amp;"],addr:" &amp; "'" &amp;C36&amp;"',x:"&amp; "'" &amp;D36&amp;"',y:"&amp; "'" &amp;E36&amp;"'},"</f>
+        <v>{name:['메리빌리아-송도','송도트리플점G'],addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588'},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G37" t="str">
+        <f>"{name:" &amp; "['"&amp;A37&amp;"'"&amp;IF(ISBLANK(B37),"",",'"&amp;B37&amp;"'")&amp;"],addr:" &amp; "'" &amp;C37&amp;"',x:"&amp; "'" &amp;D37&amp;"',y:"&amp; "'" &amp;E37&amp;"'},"</f>
+        <v>{name:['무지개할인마트'],addr:'인천광역시 연수구 새말로36번길 11',x:'926976.9262094533',y:'1936160.6680197665'},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G38" t="str">
+        <f>"{name:" &amp; "['"&amp;A38&amp;"'"&amp;IF(ISBLANK(B38),"",",'"&amp;B38&amp;"'")&amp;"],addr:" &amp; "'" &amp;C38&amp;"',x:"&amp; "'" &amp;D38&amp;"',y:"&amp; "'" &amp;E38&amp;"'},"</f>
+        <v>{name:['미니24-인천'],addr:'인천광역시 미추홀구 경인로 437',x:'928246.1295577467',y:'1940192.399497855'},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>725</v>
+      </c>
+      <c r="C39" t="s">
+        <v>724</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G39" t="str">
+        <f>"{name:" &amp; "['"&amp;A39&amp;"'"&amp;IF(ISBLANK(B39),"",",'"&amp;B39&amp;"'")&amp;"],addr:" &amp; "'" &amp;C39&amp;"',x:"&amp; "'" &amp;D39&amp;"',y:"&amp; "'" &amp;E39&amp;"'},"</f>
+        <v>{name:['미추홀타워점G'],addr:'인천광역시 연수구 갯벌로 12',x:'925064.2345959987',y:'1931830.2383670015'},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G40" t="str">
+        <f>"{name:" &amp; "['"&amp;A40&amp;"'"&amp;IF(ISBLANK(B40),"",",'"&amp;B40&amp;"'")&amp;"],addr:" &amp; "'" &amp;C40&amp;"',x:"&amp; "'" &amp;D40&amp;"',y:"&amp; "'" &amp;E40&amp;"'},"</f>
+        <v>{name:['보금마트-연수'],addr:'인천광역시 연수구 함박로25번길 2',x:'927463.1199536233',y:'1936627.06679082'},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G41" t="str">
+        <f>"{name:" &amp; "['"&amp;A41&amp;"'"&amp;IF(ISBLANK(B41),"",",'"&amp;B41&amp;"'")&amp;"],addr:" &amp; "'" &amp;C41&amp;"',x:"&amp; "'" &amp;D41&amp;"',y:"&amp; "'" &amp;E41&amp;"'},"</f>
+        <v>{name:['서구검단고점G'],addr:'인천광역시 서구 검단로 532',x:'926110.4926230235',y:'1956373.3558248538'},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G42" t="str">
+        <f>"{name:" &amp; "['"&amp;A42&amp;"'"&amp;IF(ISBLANK(B42),"",",'"&amp;B42&amp;"'")&amp;"],addr:" &amp; "'" &amp;C42&amp;"',x:"&amp; "'" &amp;D42&amp;"',y:"&amp; "'" &amp;E42&amp;"'},"</f>
+        <v>{name:['서구엠파크점G'],addr:'인천광역시 서구 염곡로 52',x:'926244.9221541481',y:'1943755.5184864542'},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G43" t="str">
+        <f>"{name:" &amp; "['"&amp;A43&amp;"'"&amp;IF(ISBLANK(B43),"",",'"&amp;B43&amp;"'")&amp;"],addr:" &amp; "'" &amp;C43&amp;"',x:"&amp; "'" &amp;D43&amp;"',y:"&amp; "'" &amp;E43&amp;"'},"</f>
+        <v>{name:['서구연희점G'],addr:'인천광역시 서구 간촌로 9',x:'927388.9430976734',y:'1950308.0950684836'},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G44" t="str">
+        <f>"{name:" &amp; "['"&amp;A44&amp;"'"&amp;IF(ISBLANK(B44),"",",'"&amp;B44&amp;"'")&amp;"],addr:" &amp; "'" &amp;C44&amp;"',x:"&amp; "'" &amp;D44&amp;"',y:"&amp; "'" &amp;E44&amp;"'},"</f>
+        <v>{name:['선학역점M'],addr:'인천광역시 연수구 학나래로118번길 23',x:'929081.3471575531',y:'1936767.7973411446'},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G45" t="str">
+        <f>"{name:" &amp; "['"&amp;A45&amp;"'"&amp;IF(ISBLANK(B45),"",",'"&amp;B45&amp;"'")&amp;"],addr:" &amp; "'" &amp;C45&amp;"',x:"&amp; "'" &amp;D45&amp;"',y:"&amp; "'" &amp;E45&amp;"'},"</f>
+        <v>{name:['선학중앙G'],addr:'인천광역시 연수구 학나래로6번길 32',x:'929030.9872679301',y:'1936439.7252242365'},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G46" t="str">
+        <f>"{name:" &amp; "['"&amp;A46&amp;"'"&amp;IF(ISBLANK(B46),"",",'"&amp;B46&amp;"'")&amp;"],addr:" &amp; "'" &amp;C46&amp;"',x:"&amp; "'" &amp;D46&amp;"',y:"&amp; "'" &amp;E46&amp;"'},"</f>
+        <v>{name:['세븐일레븐-인천간석역점'],addr:'인천광역시 남동구 석산로 3',x:'928759.3617110967',y:'1940883.321277853'},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>255</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G47" t="str">
+        <f>"{name:" &amp; "['"&amp;A47&amp;"'"&amp;IF(ISBLANK(B47),"",",'"&amp;B47&amp;"'")&amp;"],addr:" &amp; "'" &amp;C47&amp;"',x:"&amp; "'" &amp;D47&amp;"',y:"&amp; "'" &amp;E47&amp;"'},"</f>
+        <v>{name:['셀트리온 제2공장 3층WOORI'],addr:'인천광역시 연수구 아카데미로51번길 20',x:'923862.253035788',y:'1930721.5154832513'},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G48" t="str">
+        <f>"{name:" &amp; "['"&amp;A48&amp;"'"&amp;IF(ISBLANK(B48),"",",'"&amp;B48&amp;"'")&amp;"],addr:" &amp; "'" &amp;C48&amp;"',x:"&amp; "'" &amp;D48&amp;"',y:"&amp; "'" &amp;E48&amp;"'},"</f>
+        <v>{name:['소래베스트점G'],addr:'인천광역시 남동구 소래역로 20',x:'932409.8016257668',y:'1933619.6491731368'},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G49" t="str">
+        <f>"{name:" &amp; "['"&amp;A49&amp;"'"&amp;IF(ISBLANK(B49),"",",'"&amp;B49&amp;"'")&amp;"],addr:" &amp; "'" &amp;C49&amp;"',x:"&amp; "'" &amp;D49&amp;"',y:"&amp; "'" &amp;E49&amp;"'},"</f>
+        <v>{name:['소래시티점G'],addr:'인천광역시 남동구 포구로 35',x:'932559.6363396579',y:'1933938.546323114'},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G50" t="str">
+        <f>"{name:" &amp; "['"&amp;A50&amp;"'"&amp;IF(ISBLANK(B50),"",",'"&amp;B50&amp;"'")&amp;"],addr:" &amp; "'" &amp;C50&amp;"',x:"&amp; "'" &amp;D50&amp;"',y:"&amp; "'" &amp;E50&amp;"'},"</f>
+        <v>{name:['소래중앙점G'],addr:'인천광역시 남동구 소래역로18번길 15',x:'932472.0993263312',y:'1933643.4917039908'},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>307</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G51" t="str">
+        <f>"{name:" &amp; "['"&amp;A51&amp;"'"&amp;IF(ISBLANK(B51),"",",'"&amp;B51&amp;"'")&amp;"],addr:" &amp; "'" &amp;C51&amp;"',x:"&amp; "'" &amp;D51&amp;"',y:"&amp; "'" &amp;E51&amp;"'},"</f>
+        <v>{name:['소래포구점G'],addr:'인천광역시 남동구 장도로 85',x:'932594.8315246161',y:'1933497.9901714372'},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
+        <v>288</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G52" t="str">
+        <f>"{name:" &amp; "['"&amp;A52&amp;"'"&amp;IF(ISBLANK(B52),"",",'"&amp;B52&amp;"'")&amp;"],addr:" &amp; "'" &amp;C52&amp;"',x:"&amp; "'" &amp;D52&amp;"',y:"&amp; "'" &amp;E52&amp;"'},"</f>
+        <v>{name:['소래풍림점G'],addr:'인천광역시 남동구 포구로 64-29',x:'932494.2900207366',y:'1934308.7269807002'},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" t="s">
+        <v>349</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G53" t="str">
+        <f>"{name:" &amp; "['"&amp;A53&amp;"'"&amp;IF(ISBLANK(B53),"",",'"&amp;B53&amp;"'")&amp;"],addr:" &amp; "'" &amp;C53&amp;"',x:"&amp; "'" &amp;D53&amp;"',y:"&amp; "'" &amp;E53&amp;"'},"</f>
+        <v>{name:['송도 라이크홈기숙사-KEB하나'],addr:'인천광역시 연수구 첨단대로 80',x:'925077.5744217939',y:'1930163.4990456211'},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>728</v>
+      </c>
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" t="s">
+        <v>327</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G54" t="str">
+        <f>"{name:" &amp; "['"&amp;A54&amp;"'"&amp;IF(ISBLANK(B54),"",",'"&amp;B54&amp;"'")&amp;"],addr:" &amp; "'" &amp;C54&amp;"',x:"&amp; "'" &amp;D54&amp;"',y:"&amp; "'" &amp;E54&amp;"'},"</f>
+        <v>{name:['송도 에듀포레푸르지오','에듀포레점G'],addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713'},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G55" t="str">
+        <f>"{name:" &amp; "['"&amp;A55&amp;"'"&amp;IF(ISBLANK(B55),"",",'"&amp;B55&amp;"'")&amp;"],addr:" &amp; "'" &amp;C55&amp;"',x:"&amp; "'" &amp;D55&amp;"',y:"&amp; "'" &amp;E55&amp;"'},"</f>
+        <v>{name:['송도그림워크점GSS'],addr:'인천광역시 연수구 아트센터대로97번길 15',x:'923949.5984413391',y:'1933886.2199624083'},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" t="s">
+        <v>333</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G56" t="str">
+        <f>"{name:" &amp; "['"&amp;A56&amp;"'"&amp;IF(ISBLANK(B56),"",",'"&amp;B56&amp;"'")&amp;"],addr:" &amp; "'" &amp;C56&amp;"',x:"&amp; "'" &amp;D56&amp;"',y:"&amp; "'" &amp;E56&amp;"'},"</f>
+        <v>{name:['송도더샵엑스포KB'],addr:'인천광역시 연수구 컨벤시아대로42번길 95',x:'924238.7160272836',y:'1934178.4920383645'},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G57" t="str">
+        <f>"{name:" &amp; "['"&amp;A57&amp;"'"&amp;IF(ISBLANK(B57),"",",'"&amp;B57&amp;"'")&amp;"],addr:" &amp; "'" &amp;C57&amp;"',x:"&amp; "'" &amp;D57&amp;"',y:"&amp; "'" &amp;E57&amp;"'},"</f>
+        <v>{name:['송도더샵점G'],addr:'인천광역시 연수구 아트센터대로97번길 75',x:'924389.3127429485',y:'1933490.9978888235'},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G58" t="str">
+        <f>"{name:" &amp; "['"&amp;A58&amp;"'"&amp;IF(ISBLANK(B58),"",",'"&amp;B58&amp;"'")&amp;"],addr:" &amp; "'" &amp;C58&amp;"',x:"&amp; "'" &amp;D58&amp;"',y:"&amp; "'" &amp;E58&amp;"'},"</f>
+        <v>{name:['송도라마다점G'],addr:'인천광역시 연수구 능허대로267번길 29',x:'925239.3006682626',y:'1935277.2973558633'},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G59" t="str">
+        <f>"{name:" &amp; "['"&amp;A59&amp;"'"&amp;IF(ISBLANK(B59),"",",'"&amp;B59&amp;"'")&amp;"],addr:" &amp; "'" &amp;C59&amp;"',x:"&amp; "'" &amp;D59&amp;"',y:"&amp; "'" &amp;E59&amp;"'},"</f>
+        <v>{name:['송도메디점G'],addr:'인천광역시 연수구 컨벤시아대로130번길 14',x:'924308.0890260204',y:'1932993.4899920663'},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>335</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G60" t="str">
+        <f>"{name:" &amp; "['"&amp;A60&amp;"'"&amp;IF(ISBLANK(B60),"",",'"&amp;B60&amp;"'")&amp;"],addr:" &amp; "'" &amp;C60&amp;"',x:"&amp; "'" &amp;D60&amp;"',y:"&amp; "'" &amp;E60&amp;"'},"</f>
+        <v>{name:['송도성지점G'],addr:'인천광역시 연수구 신송로6번길 7',x:'925894.2303461249',y:'1932625.2375938715'},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s">
+        <v>356</v>
+      </c>
+      <c r="C61" t="s">
+        <v>355</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G61" t="str">
+        <f>"{name:" &amp; "['"&amp;A61&amp;"'"&amp;IF(ISBLANK(B61),"",",'"&amp;B61&amp;"'")&amp;"],addr:" &amp; "'" &amp;C61&amp;"',x:"&amp; "'" &amp;D61&amp;"',y:"&amp; "'" &amp;E61&amp;"'},"</f>
+        <v>{name:['송도센트럴점M','송도푸르지오시티점G'],addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754'},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G62" t="str">
+        <f>"{name:" &amp; "['"&amp;A62&amp;"'"&amp;IF(ISBLANK(B62),"",",'"&amp;B62&amp;"'")&amp;"],addr:" &amp; "'" &amp;C62&amp;"',x:"&amp; "'" &amp;D62&amp;"',y:"&amp; "'" &amp;E62&amp;"'},"</f>
+        <v>{name:['송도센트럴파크호텔'],addr:'인천광역시 연수구 테크노파크로 193',x:'923641.9774963101',y:'1932732.2588121234'},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G63" t="str">
+        <f>"{name:" &amp; "['"&amp;A63&amp;"'"&amp;IF(ISBLANK(B63),"",",'"&amp;B63&amp;"'")&amp;"],addr:" &amp; "'" &amp;C63&amp;"',x:"&amp; "'" &amp;D63&amp;"',y:"&amp; "'" &amp;E63&amp;"'},"</f>
+        <v>{name:['송도스마트밸리점G'],addr:'인천광역시 연수구 송도미래로 30',x:'924568.090254779',y:'1930236.501307576'},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G64" t="str">
+        <f>"{name:" &amp; "['"&amp;A64&amp;"'"&amp;IF(ISBLANK(B64),"",",'"&amp;B64&amp;"'")&amp;"],addr:" &amp; "'" &amp;C64&amp;"',x:"&amp; "'" &amp;D64&amp;"',y:"&amp; "'" &amp;E64&amp;"'},"</f>
+        <v>{name:['송도월드마크점M'],addr:'인천광역시 연수구 컨벤시아대로 60',x:'924851.1126633752',y:'1933442.4269422777'},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G65" t="str">
+        <f>"{name:" &amp; "['"&amp;A65&amp;"'"&amp;IF(ISBLANK(B65),"",",'"&amp;B65&amp;"'")&amp;"],addr:" &amp; "'" &amp;C65&amp;"',x:"&amp; "'" &amp;D65&amp;"',y:"&amp; "'" &amp;E65&amp;"'},"</f>
+        <v>{name:['송도유원지점G'],addr:'인천광역시 연수구 능허대로 203',x:'924862.0970530566',y:'1935734.32011165'},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G66" t="str">
+        <f>"{name:" &amp; "['"&amp;A66&amp;"'"&amp;IF(ISBLANK(B66),"",",'"&amp;B66&amp;"'")&amp;"],addr:" &amp; "'" &amp;C66&amp;"',x:"&amp; "'" &amp;D66&amp;"',y:"&amp; "'" &amp;E66&amp;"'},"</f>
+        <v>{name:['송도점-GSS'],addr:'인천광역시 연수구 해돋이로 107',x:'924778.2391112824',y:'1932822.1059526857'},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G67" t="str">
+        <f>"{name:" &amp; "['"&amp;A67&amp;"'"&amp;IF(ISBLANK(B67),"",",'"&amp;B67&amp;"'")&amp;"],addr:" &amp; "'" &amp;C67&amp;"',x:"&amp; "'" &amp;D67&amp;"',y:"&amp; "'" &amp;E67&amp;"'},"</f>
+        <v>{name:['송도커넬워크점G'],addr:'인천광역시 연수구 아트센터대로 107',x:'923751.8781831791',y:'1933894.0553808152'},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="s">
+        <v>303</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G68" t="str">
+        <f>"{name:" &amp; "['"&amp;A68&amp;"'"&amp;IF(ISBLANK(B68),"",",'"&amp;B68&amp;"'")&amp;"],addr:" &amp; "'" &amp;C68&amp;"',x:"&amp; "'" &amp;D68&amp;"',y:"&amp; "'" &amp;E68&amp;"'},"</f>
+        <v>{name:['송도테크노파크IT센터SHINHAN'],addr:'인천광역시 연수구 송도과학로 32',x:'925841.3207283262',y:'1931743.5380926528'},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>324</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G69" t="str">
+        <f>"{name:" &amp; "['"&amp;A69&amp;"'"&amp;IF(ISBLANK(B69),"",",'"&amp;B69&amp;"'")&amp;"],addr:" &amp; "'" &amp;C69&amp;"',x:"&amp; "'" &amp;D69&amp;"',y:"&amp; "'" &amp;E69&amp;"'},"</f>
+        <v>{name:['송도파크호텔WOORI'],addr:'인천광역시 연수구 테크노파크로 151',x:'923940.5490371233',y:'1932461.3960087532'},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G70" t="str">
+        <f>"{name:" &amp; "['"&amp;A70&amp;"'"&amp;IF(ISBLANK(B70),"",",'"&amp;B70&amp;"'")&amp;"],addr:" &amp; "'" &amp;C70&amp;"',x:"&amp; "'" &amp;D70&amp;"',y:"&amp; "'" &amp;E70&amp;"'},"</f>
+        <v>{name:['송도하모니점G'],addr:'인천광역시 연수구 하모니로 124',x:'924325.4107504063',y:'1932184.2251096321'},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G71" t="str">
+        <f>"{name:" &amp; "['"&amp;A71&amp;"'"&amp;IF(ISBLANK(B71),"",",'"&amp;B71&amp;"'")&amp;"],addr:" &amp; "'" &amp;C71&amp;"',x:"&amp; "'" &amp;D71&amp;"',y:"&amp; "'" &amp;E71&amp;"'},"</f>
+        <v>{name:['송도해송점G'],addr:'인천광역시 연수구 해송로30번길 19',x:'924385.1257843729',y:'1931691.8597509419'},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G72" t="str">
+        <f>"{name:" &amp; "['"&amp;A72&amp;"'"&amp;IF(ISBLANK(B72),"",",'"&amp;B72&amp;"'")&amp;"],addr:" &amp; "'" &amp;C72&amp;"',x:"&amp; "'" &amp;D72&amp;"',y:"&amp; "'" &amp;E72&amp;"'},"</f>
+        <v>{name:['송도현대점G'],addr:'인천광역시 연수구 해돋이로6번길 7',x:'925627.0584128611',y:'1932281.0568902749'},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G73" t="str">
+        <f>"{name:" &amp; "['"&amp;A73&amp;"'"&amp;IF(ISBLANK(B73),"",",'"&amp;B73&amp;"'")&amp;"],addr:" &amp; "'" &amp;C73&amp;"',x:"&amp; "'" &amp;D73&amp;"',y:"&amp; "'" &amp;E73&amp;"'},"</f>
+        <v>{name:['송도힐스점G'],addr:'인천광역시 연수구 컨벤시아대로 90',x:'924647.7513800692',y:'1933202.8066080627'},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G74" t="str">
+        <f>"{name:" &amp; "['"&amp;A74&amp;"'"&amp;IF(ISBLANK(B74),"",",'"&amp;B74&amp;"'")&amp;"],addr:" &amp; "'" &amp;C74&amp;"',x:"&amp; "'" &amp;D74&amp;"',y:"&amp; "'" &amp;E74&amp;"'},"</f>
+        <v>{name:['숭의길목점G'],addr:'인천광역시 미추홀구 수봉안길 16',x:'925635.7302395517',y:'1940618.206504576'},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" t="s">
+        <v>320</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G75" t="str">
+        <f>"{name:" &amp; "['"&amp;A75&amp;"'"&amp;IF(ISBLANK(B75),"",",'"&amp;B75&amp;"'")&amp;"],addr:" &amp; "'" &amp;C75&amp;"',x:"&amp; "'" &amp;D75&amp;"',y:"&amp; "'" &amp;E75&amp;"'},"</f>
+        <v>{name:['시흥신창점G'],addr:'경기도 시흥시 신천4길 12',x:'936418.8711248166',y:'1937926.4969950966'},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" t="s">
+        <v>257</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G76" t="str">
+        <f>"{name:" &amp; "['"&amp;A76&amp;"'"&amp;IF(ISBLANK(B76),"",",'"&amp;B76&amp;"'")&amp;"],addr:" &amp; "'" &amp;C76&amp;"',x:"&amp; "'" &amp;D76&amp;"',y:"&amp; "'" &amp;E76&amp;"'},"</f>
+        <v>{name:['신기사거리점G'],addr:'인천광역시 미추홀구 미추홀대로 610',x:'927475.7843919608',y:'1939483.3085580925'},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" t="s">
+        <v>323</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G77" t="str">
+        <f>"{name:" &amp; "['"&amp;A77&amp;"'"&amp;IF(ISBLANK(B77),"",",'"&amp;B77&amp;"'")&amp;"],addr:" &amp; "'" &amp;C77&amp;"',x:"&amp; "'" &amp;D77&amp;"',y:"&amp; "'" &amp;E77&amp;"'},"</f>
+        <v>{name:['신천동국민은행 결합부스'],addr:'경기도 시흥시 수인로 3372',x:'936693.2910999567',y:'1938235.12572021'},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="s">
+        <v>263</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G78" t="str">
+        <f>"{name:" &amp; "['"&amp;A78&amp;"'"&amp;IF(ISBLANK(B78),"",",'"&amp;B78&amp;"'")&amp;"],addr:" &amp; "'" &amp;C78&amp;"',x:"&amp; "'" &amp;D78&amp;"',y:"&amp; "'" &amp;E78&amp;"'},"</f>
+        <v>{name:['아크리아점G'],addr:'인천광역시 연수구 신송로125번길 13',x:'924866.6899020134',y:'1933167.18251291'},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G79" t="str">
+        <f>"{name:" &amp; "['"&amp;A79&amp;"'"&amp;IF(ISBLANK(B79),"",",'"&amp;B79&amp;"'")&amp;"],addr:" &amp; "'" &amp;C79&amp;"',x:"&amp; "'" &amp;D79&amp;"',y:"&amp; "'" &amp;E79&amp;"'},"</f>
+        <v>{name:['엠파크타워점G'],addr:'인천광역시 서구 봉수대로 158',x:'925983.41854599',y:'1943696.0707750432'},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" t="s">
+        <v>341</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G80" t="str">
+        <f>"{name:" &amp; "['"&amp;A80&amp;"'"&amp;IF(ISBLANK(B80),"",",'"&amp;B80&amp;"'")&amp;"],addr:" &amp; "'" &amp;C80&amp;"',x:"&amp; "'" &amp;D80&amp;"',y:"&amp; "'" &amp;E80&amp;"'},"</f>
+        <v>{name:['연수경원G'],addr:'인천광역시 연수구 경원대로467번길 13',x:'929009.7022006633',y:'1936610.8085542968'},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G81" t="str">
+        <f>"{name:" &amp; "['"&amp;A81&amp;"'"&amp;IF(ISBLANK(B81),"",",'"&amp;B81&amp;"'")&amp;"],addr:" &amp; "'" &amp;C81&amp;"',x:"&amp; "'" &amp;D81&amp;"',y:"&amp; "'" &amp;E81&amp;"'},"</f>
+        <v>{name:['연수골드점G'],addr:'인천광역시 연수구 함박로 80',x:'927980.0656931633',y:'1936544.17710579'},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G82" t="str">
+        <f>"{name:" &amp; "['"&amp;A82&amp;"'"&amp;IF(ISBLANK(B82),"",",'"&amp;B82&amp;"'")&amp;"],addr:" &amp; "'" &amp;C82&amp;"',x:"&amp; "'" &amp;D82&amp;"',y:"&amp; "'" &amp;E82&amp;"'},"</f>
+        <v>{name:['연수단비점G'],addr:'인천광역시 연수구 청능대로113번길 43',x:'927274.7641431501',y:'1935327.7588821636'},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G83" t="str">
+        <f>"{name:" &amp; "['"&amp;A83&amp;"'"&amp;IF(ISBLANK(B83),"",",'"&amp;B83&amp;"'")&amp;"],addr:" &amp; "'" &amp;C83&amp;"',x:"&amp; "'" &amp;D83&amp;"',y:"&amp; "'" &amp;E83&amp;"'},"</f>
+        <v>{name:['연수선학점G'],addr:'인천광역시 연수구 넘말로29번길 21',x:'928915.90151959',y:'1936891.1488486365'},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" t="s">
+        <v>274</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G84" t="str">
+        <f>"{name:" &amp; "['"&amp;A84&amp;"'"&amp;IF(ISBLANK(B84),"",",'"&amp;B84&amp;"'")&amp;"],addr:" &amp; "'" &amp;C84&amp;"',x:"&amp; "'" &amp;D84&amp;"',y:"&amp; "'" &amp;E84&amp;"'},"</f>
+        <v>{name:['연수장례식장 인천내부'],addr:'인천광역시 연수구 벚꽃로 122',x:'927335.7894045769',y:'1935611.3385808035'},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G85" t="str">
+        <f>"{name:" &amp; "['"&amp;A85&amp;"'"&amp;IF(ISBLANK(B85),"",",'"&amp;B85&amp;"'")&amp;"],addr:" &amp; "'" &amp;C85&amp;"',x:"&amp; "'" &amp;D85&amp;"',y:"&amp; "'" &amp;E85&amp;"'},"</f>
+        <v>{name:['연수점G'],addr:'인천광역시 연수구 새말로46번길 4',x:'927054.4397459901',y:'1936127.9562478536'},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" t="s">
+        <v>273</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G86" t="str">
+        <f>"{name:" &amp; "['"&amp;A86&amp;"'"&amp;IF(ISBLANK(B86),"",",'"&amp;B86&amp;"'")&amp;"],addr:" &amp; "'" &amp;C86&amp;"',x:"&amp; "'" &amp;D86&amp;"',y:"&amp; "'" &amp;E86&amp;"'},"</f>
+        <v>{name:['연수점M'],addr:'인천광역시 연수구 비류대로 230',x:'925700.9976564867',y:'1936753.3900593636'},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" t="s">
+        <v>328</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G87" t="str">
+        <f>"{name:" &amp; "['"&amp;A87&amp;"'"&amp;IF(ISBLANK(B87),"",",'"&amp;B87&amp;"'")&amp;"],addr:" &amp; "'" &amp;C87&amp;"',x:"&amp; "'" &amp;D87&amp;"',y:"&amp; "'" &amp;E87&amp;"'},"</f>
+        <v>{name:['연수중앙점G'],addr:'인천광역시 연수구 새말로69번길 1',x:'927230.4884649334',y:'1935967.4642858398'},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" t="s">
+        <v>216</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G88" t="str">
+        <f>"{name:" &amp; "['"&amp;A88&amp;"'"&amp;IF(ISBLANK(B88),"",",'"&amp;B88&amp;"'")&amp;"],addr:" &amp; "'" &amp;C88&amp;"',x:"&amp; "'" &amp;D88&amp;"',y:"&amp; "'" &amp;E88&amp;"'},"</f>
+        <v>{name:['연수청학점M'],addr:'인천광역시 연수구 먼우금로 197',x:'927097.7779245968',y:'1935413.5243354505'},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" t="s">
+        <v>304</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G89" t="str">
+        <f>"{name:" &amp; "['"&amp;A89&amp;"'"&amp;IF(ISBLANK(B89),"",",'"&amp;B89&amp;"'")&amp;"],addr:" &amp; "'" &amp;C89&amp;"',x:"&amp; "'" &amp;D89&amp;"',y:"&amp; "'" &amp;E89&amp;"'},"</f>
+        <v>{name:['연수타운점G'],addr:'인천광역시 연수구 샘말로21번길 3',x:'927277.5510110233',y:'1935141.1890938403'},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G90" t="str">
+        <f>"{name:" &amp; "['"&amp;A90&amp;"'"&amp;IF(ISBLANK(B90),"",",'"&amp;B90&amp;"'")&amp;"],addr:" &amp; "'" &amp;C90&amp;"',x:"&amp; "'" &amp;D90&amp;"',y:"&amp; "'" &amp;E90&amp;"'},"</f>
+        <v>{name:['연수태산점G'],addr:'인천광역시 연수구 먼우금로264번길 8-4',x:'927477.3679526933',y:'1935944.299351547'},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" t="s">
+        <v>326</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G91" t="str">
+        <f>"{name:" &amp; "['"&amp;A91&amp;"'"&amp;IF(ISBLANK(B91),"",",'"&amp;B91&amp;"'")&amp;"],addr:" &amp; "'" &amp;C91&amp;"',x:"&amp; "'" &amp;D91&amp;"',y:"&amp; "'" &amp;E91&amp;"'},"</f>
+        <v>{name:['연수파크타운점M'],addr:'인천광역시 연수구 용담로 115',x:'927244.231129833',y:'1935426.1714365287'},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" t="s">
+        <v>297</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G92" t="str">
+        <f>"{name:" &amp; "['"&amp;A92&amp;"'"&amp;IF(ISBLANK(B92),"",",'"&amp;B92&amp;"'")&amp;"],addr:" &amp; "'" &amp;C92&amp;"',x:"&amp; "'" &amp;D92&amp;"',y:"&amp; "'" &amp;E92&amp;"'},"</f>
+        <v>{name:['연수함박점M'],addr:'인천광역시 연수구 함박뫼로50번길 93',x:'927263.5188448408',y:'1935872.3548643487'},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" t="s">
+        <v>334</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G93" t="str">
+        <f>"{name:" &amp; "['"&amp;A93&amp;"'"&amp;IF(ISBLANK(B93),"",",'"&amp;B93&amp;"'")&amp;"],addr:" &amp; "'" &amp;C93&amp;"',x:"&amp; "'" &amp;D93&amp;"',y:"&amp; "'" &amp;E93&amp;"'},"</f>
+        <v>{name:['연수희망점G'],addr:'인천광역시 연수구 앵고개로 256',x:'926724.2878851034',y:'1934622.8657452334'},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G94" t="str">
+        <f>"{name:" &amp; "['"&amp;A94&amp;"'"&amp;IF(ISBLANK(B94),"",",'"&amp;B94&amp;"'")&amp;"],addr:" &amp; "'" &amp;C94&amp;"',x:"&amp; "'" &amp;D94&amp;"',y:"&amp; "'" &amp;E94&amp;"'},"</f>
+        <v>{name:['영빌딩CITY'],addr:'인천광역시 미추홀구 인하로 253',x:'927138.1700531407',y:'1939133.3534303224'},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" t="s">
+        <v>287</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G95" t="str">
+        <f>"{name:" &amp; "['"&amp;A95&amp;"'"&amp;IF(ISBLANK(B95),"",",'"&amp;B95&amp;"'")&amp;"],addr:" &amp; "'" &amp;C95&amp;"',x:"&amp; "'" &amp;D95&amp;"',y:"&amp; "'" &amp;E95&amp;"'},"</f>
+        <v>{name:['옥련백산점G'],addr:'인천광역시 연수구 독배로 25',x:'924316.71718126',y:'1936330.9110739832'},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" t="s">
+        <v>346</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G96" t="str">
+        <f>"{name:" &amp; "['"&amp;A96&amp;"'"&amp;IF(ISBLANK(B96),"",",'"&amp;B96&amp;"'")&amp;"],addr:" &amp; "'" &amp;C96&amp;"',x:"&amp; "'" &amp;D96&amp;"',y:"&amp; "'" &amp;E96&amp;"'},"</f>
+        <v>{name:['옥련사거리G'],addr:'인천광역시 연수구 독배로 68',x:'924367.6668144872',y:'1936729.1735826507'},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>181</v>
+      </c>
+      <c r="C97" t="s">
+        <v>345</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G97" t="str">
+        <f>"{name:" &amp; "['"&amp;A97&amp;"'"&amp;IF(ISBLANK(B97),"",",'"&amp;B97&amp;"'")&amp;"],addr:" &amp; "'" &amp;C97&amp;"',x:"&amp; "'" &amp;D97&amp;"',y:"&amp; "'" &amp;E97&amp;"'},"</f>
+        <v>{name:['옥련사랑M'],addr:'인천광역시 연수구 한나루로 166',x:'925293.9163142969',y:'1936455.0597683867'},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" t="s">
+        <v>300</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G98" t="str">
+        <f>"{name:" &amp; "['"&amp;A98&amp;"'"&amp;IF(ISBLANK(B98),"",",'"&amp;B98&amp;"'")&amp;"],addr:" &amp; "'" &amp;C98&amp;"',x:"&amp; "'" &amp;D98&amp;"',y:"&amp; "'" &amp;E98&amp;"'},"</f>
+        <v>{name:['옥련서해점G'],addr:'인천광역시 연수구 청량로185번길 13',x:'924973.1474770068',y:'1936336.0367916236'},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" t="s">
+        <v>344</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G99" t="str">
+        <f>"{name:" &amp; "['"&amp;A99&amp;"'"&amp;IF(ISBLANK(B99),"",",'"&amp;B99&amp;"'")&amp;"],addr:" &amp; "'" &amp;C99&amp;"',x:"&amp; "'" &amp;D99&amp;"',y:"&amp; "'" &amp;E99&amp;"'},"</f>
+        <v>{name:['옥련쌍용G'],addr:'인천광역시 연수구 청량로184번길 48',x:'925182.9532054849',y:'1936549.0084032882'},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G100" t="str">
+        <f>"{name:" &amp; "['"&amp;A100&amp;"'"&amp;IF(ISBLANK(B100),"",",'"&amp;B100&amp;"'")&amp;"],addr:" &amp; "'" &amp;C100&amp;"',x:"&amp; "'" &amp;D100&amp;"',y:"&amp; "'" &amp;E100&amp;"'},"</f>
+        <v>{name:['옥련아주점G'],addr:'인천광역시 연수구 청량로 217',x:'925018.4765206832',y:'1936665.1654121173'},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" t="s">
+        <v>286</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G101" t="str">
+        <f>"{name:" &amp; "['"&amp;A101&amp;"'"&amp;IF(ISBLANK(B101),"",",'"&amp;B101&amp;"'")&amp;"],addr:" &amp; "'" &amp;C101&amp;"',x:"&amp; "'" &amp;D101&amp;"',y:"&amp; "'" &amp;E101&amp;"'},"</f>
+        <v>{name:['옥련우성점G'],addr:'인천광역시 연수구 독배로40번길 47',x:'924577.7008813033',y:'1936507.4463419202'},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" t="s">
+        <v>298</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G102" t="str">
+        <f>"{name:" &amp; "['"&amp;A102&amp;"'"&amp;IF(ISBLANK(B102),"",",'"&amp;B102&amp;"'")&amp;"],addr:" &amp; "'" &amp;C102&amp;"',x:"&amp; "'" &amp;D102&amp;"',y:"&amp; "'" &amp;E102&amp;"'},"</f>
+        <v>{name:['옥련풍림점G'],addr:'인천광역시 연수구 한나루로193번길 3',x:'925362.11812462',y:'1936699.7315103933'},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G103" t="str">
+        <f>"{name:" &amp; "['"&amp;A103&amp;"'"&amp;IF(ISBLANK(B103),"",",'"&amp;B103&amp;"'")&amp;"],addr:" &amp; "'" &amp;C103&amp;"',x:"&amp; "'" &amp;D103&amp;"',y:"&amp; "'" &amp;E103&amp;"'},"</f>
+        <v>{name:['월미분수대점G'],addr:'인천광역시 중구 월미문화로 57',x:'920135.501782795',y:'1941955.847831308'},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G104" t="str">
+        <f>"{name:" &amp; "['"&amp;A104&amp;"'"&amp;IF(ISBLANK(B104),"",",'"&amp;B104&amp;"'")&amp;"],addr:" &amp; "'" &amp;C104&amp;"',x:"&amp; "'" &amp;D104&amp;"',y:"&amp; "'" &amp;E104&amp;"'},"</f>
+        <v>{name:['월미중앙점G'],addr:'인천광역시 중구 월미문화로 65',x:'920108.2432266385',y:'1941888.865706168'},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" t="s">
+        <v>243</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G105" t="str">
+        <f>"{name:" &amp; "['"&amp;A105&amp;"'"&amp;IF(ISBLANK(B105),"",",'"&amp;B105&amp;"'")&amp;"],addr:" &amp; "'" &amp;C105&amp;"',x:"&amp; "'" &amp;D105&amp;"',y:"&amp; "'" &amp;E105&amp;"'},"</f>
+        <v>{name:['위드미-라마다송도점'],addr:'인천광역시 연수구 능허대로267번길 42',x:'925310.3928309134',y:'1935295.212755117'},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106" t="s">
+        <v>267</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G106" t="str">
+        <f>"{name:" &amp; "['"&amp;A106&amp;"'"&amp;IF(ISBLANK(B106),"",",'"&amp;B106&amp;"'")&amp;"],addr:" &amp; "'" &amp;C106&amp;"',x:"&amp; "'" &amp;D106&amp;"',y:"&amp; "'" &amp;E106&amp;"'},"</f>
+        <v>{name:['유진로봇 송도사옥'],addr:'인천광역시 연수구 하모니로187번길 33',x:'924180.5928355344',y:'1931340.6668476937'},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>154</v>
+      </c>
+      <c r="C107" t="s">
+        <v>319</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G107" t="str">
+        <f>"{name:" &amp; "['"&amp;A107&amp;"'"&amp;IF(ISBLANK(B107),"",",'"&amp;B107&amp;"'")&amp;"],addr:" &amp; "'" &amp;C107&amp;"',x:"&amp; "'" &amp;D107&amp;"',y:"&amp; "'" &amp;E107&amp;"'},"</f>
+        <v>{name:['은계센트럴점G'],addr:'경기도 시흥시 은계중앙로 97',x:'938203.4013041602',y:'1938022.7406927734'},</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108" t="s">
+        <v>321</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G108" t="str">
+        <f>"{name:" &amp; "['"&amp;A108&amp;"'"&amp;IF(ISBLANK(B108),"",",'"&amp;B108&amp;"'")&amp;"],addr:" &amp; "'" &amp;C108&amp;"',x:"&amp; "'" &amp;D108&amp;"',y:"&amp; "'" &amp;E108&amp;"'},"</f>
+        <v>{name:['은행동성원아파트 결합부스'],addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804'},</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" t="s">
+        <v>322</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G109" t="str">
+        <f>"{name:" &amp; "['"&amp;A109&amp;"'"&amp;IF(ISBLANK(B109),"",",'"&amp;B109&amp;"'")&amp;"],addr:" &amp; "'" &amp;C109&amp;"',x:"&amp; "'" &amp;D109&amp;"',y:"&amp; "'" &amp;E109&amp;"'},"</f>
+        <v>{name:['은행동약사 결합부스'],addr:'경기도 시흥시 은행로 8',x:'937498.2971942425',y:'1937334.1604390284'},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" t="s">
+        <v>314</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G110" t="str">
+        <f>"{name:" &amp; "['"&amp;A110&amp;"'"&amp;IF(ISBLANK(B110),"",",'"&amp;B110&amp;"'")&amp;"],addr:" &amp; "'" &amp;C110&amp;"',x:"&amp; "'" &amp;D110&amp;"',y:"&amp; "'" &amp;E110&amp;"'},"</f>
+        <v>{name:['은혜의교회SH'],addr:'인천광역시 미추홀구 매소홀로 428',x:'926520.0805420987',y:'1938134.7043078174'},</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G111" t="str">
+        <f>"{name:" &amp; "['"&amp;A111&amp;"'"&amp;IF(ISBLANK(B111),"",",'"&amp;B111&amp;"'")&amp;"],addr:" &amp; "'" &amp;C111&amp;"',x:"&amp; "'" &amp;D111&amp;"',y:"&amp; "'" &amp;E111&amp;"'},"</f>
+        <v>{name:['이마트 동인천점SC'],addr:'인천광역시 중구 인중로 134',x:'922988.2656142102',y:'1941172.2637899336'},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>179</v>
+      </c>
+      <c r="C112" t="s">
+        <v>343</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G112" t="str">
+        <f>"{name:" &amp; "['"&amp;A112&amp;"'"&amp;IF(ISBLANK(B112),"",",'"&amp;B112&amp;"'")&amp;"],addr:" &amp; "'" &amp;C112&amp;"',x:"&amp; "'" &amp;D112&amp;"',y:"&amp; "'" &amp;E112&amp;"'},"</f>
+        <v>{name:['이마트24 연수함박로'],addr:'인천광역시 연수구 함박로 36',x:'927543.317565355',y:'1936592.6575228586'},</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" t="s">
+        <v>293</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G113" t="str">
+        <f>"{name:" &amp; "['"&amp;A113&amp;"'"&amp;IF(ISBLANK(B113),"",",'"&amp;B113&amp;"'")&amp;"],addr:" &amp; "'" &amp;C113&amp;"',x:"&amp; "'" &amp;D113&amp;"',y:"&amp; "'" &amp;E113&amp;"'},"</f>
+        <v>{name:['이수엑사보드 인천공장'],addr:'인천광역시 남동구 남동서로270번길 54',x:'929093.4386579194',y:'1935045.5201349352'},</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>734</v>
+      </c>
+      <c r="C114" t="s">
+        <v>733</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G114" t="str">
+        <f>"{name:" &amp; "['"&amp;A114&amp;"'"&amp;IF(ISBLANK(B114),"",",'"&amp;B114&amp;"'")&amp;"],addr:" &amp; "'" &amp;C114&amp;"',x:"&amp; "'" &amp;D114&amp;"',y:"&amp; "'" &amp;E114&amp;"'},"</f>
+        <v>{name:['인천 송도 컨벤시아'],addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082'},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" t="s">
+        <v>188</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G115" t="str">
+        <f>"{name:" &amp; "['"&amp;A115&amp;"'"&amp;IF(ISBLANK(B115),"",",'"&amp;B115&amp;"'")&amp;"],addr:" &amp; "'" &amp;C115&amp;"',x:"&amp; "'" &amp;D115&amp;"',y:"&amp; "'" &amp;E115&amp;"'},"</f>
+        <v>{name:['인천5공단파출소결합부스'],addr:'인천광역시 서구 가재울로 75',x:'927648.8596204547',y:'1942435.9377577854'},</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G116" t="str">
+        <f>"{name:" &amp; "['"&amp;A116&amp;"'"&amp;IF(ISBLANK(B116),"",",'"&amp;B116&amp;"'")&amp;"],addr:" &amp; "'" &amp;C116&amp;"',x:"&amp; "'" &amp;D116&amp;"',y:"&amp; "'" &amp;E116&amp;"'},"</f>
+        <v>{name:['인천경동점G'],addr:'인천광역시 중구 개항로 82',x:'923229.7654404601',y:'1941739.1997609003'},</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>89</v>
+      </c>
+      <c r="B117" t="s">
+        <v>358</v>
+      </c>
+      <c r="C117" t="s">
+        <v>357</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G117" t="str">
+        <f>"{name:" &amp; "['"&amp;A117&amp;"'"&amp;IF(ISBLANK(B117),"",",'"&amp;B117&amp;"'")&amp;"],addr:" &amp; "'" &amp;C117&amp;"',x:"&amp; "'" &amp;D117&amp;"',y:"&amp; "'" &amp;E117&amp;"'},"</f>
+        <v>{name:['인천글로벌운영재단','한국뉴욕주립대학교 결합부스'],addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412'},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>82</v>
+      </c>
+      <c r="C118" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G118" t="str">
+        <f>"{name:" &amp; "['"&amp;A118&amp;"'"&amp;IF(ISBLANK(B118),"",",'"&amp;B118&amp;"'")&amp;"],addr:" &amp; "'" &amp;C118&amp;"',x:"&amp; "'" &amp;D118&amp;"',y:"&amp; "'" &amp;E118&amp;"'},"</f>
+        <v>{name:['인천남촌로점G'],addr:'인천광역시 남동구 남촌동로3번길 33',x:'930644.9199876767',y:'1937177.0833667233'},</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>57</v>
+      </c>
+      <c r="C119" t="s">
+        <v>224</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G119" t="str">
+        <f>"{name:" &amp; "['"&amp;A119&amp;"'"&amp;IF(ISBLANK(B119),"",",'"&amp;B119&amp;"'")&amp;"],addr:" &amp; "'" &amp;C119&amp;"',x:"&amp; "'" &amp;D119&amp;"',y:"&amp; "'" &amp;E119&amp;"'},"</f>
+        <v>{name:['인천논현광장점G'],addr:'인천광역시 남동구 논고개로123번길 35',x:'931147.5988134101',y:'1933884.31215839'},</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" t="s">
+        <v>292</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G120" t="str">
+        <f>"{name:" &amp; "['"&amp;A120&amp;"'"&amp;IF(ISBLANK(B120),"",",'"&amp;B120&amp;"'")&amp;"],addr:" &amp; "'" &amp;C120&amp;"',x:"&amp; "'" &amp;D120&amp;"',y:"&amp; "'" &amp;E120&amp;"'},"</f>
+        <v>{name:['인천논현사랑점G'],addr:'인천광역시 남동구 논고개로 166',x:'931299.0037734902',y:'1934371.8316615'},</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>114</v>
+      </c>
+      <c r="C121" t="s">
+        <v>280</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G121" t="str">
+        <f>"{name:" &amp; "['"&amp;A121&amp;"'"&amp;IF(ISBLANK(B121),"",",'"&amp;B121&amp;"'")&amp;"],addr:" &amp; "'" &amp;C121&amp;"',x:"&amp; "'" &amp;D121&amp;"',y:"&amp; "'" &amp;E121&amp;"'},"</f>
+        <v>{name:['인천논현역점G'],addr:'인천광역시 남동구 논고개로 121',x:'931299.4091969267',y:'1933928.8000814402'},</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" t="s">
+        <v>218</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G122" t="str">
+        <f>"{name:" &amp; "['"&amp;A122&amp;"'"&amp;IF(ISBLANK(B122),"",",'"&amp;B122&amp;"'")&amp;"],addr:" &amp; "'" &amp;C122&amp;"',x:"&amp; "'" &amp;D122&amp;"',y:"&amp; "'" &amp;E122&amp;"'},"</f>
+        <v>{name:['인천논현점M'],addr:'인천광역시 남동구 논현로46번길 51',x:'930040.7558424668',y:'1933792.9459385104'},</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>93</v>
+      </c>
+      <c r="C123" t="s">
+        <v>259</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G123" t="str">
+        <f>"{name:" &amp; "['"&amp;A123&amp;"'"&amp;IF(ISBLANK(B123),"",",'"&amp;B123&amp;"'")&amp;"],addr:" &amp; "'" &amp;C123&amp;"',x:"&amp; "'" &amp;D123&amp;"',y:"&amp; "'" &amp;E123&amp;"'},"</f>
+        <v>{name:['인천동아서점 결합부스'],addr:'인천광역시 미추홀구 경인로 386-1',x:'927733.8360022209',y:'1940187.0715722647'},</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124" t="s">
+        <v>325</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G124" t="str">
+        <f>"{name:" &amp; "['"&amp;A124&amp;"'"&amp;IF(ISBLANK(B124),"",",'"&amp;B124&amp;"'")&amp;"],addr:" &amp; "'" &amp;C124&amp;"',x:"&amp; "'" &amp;D124&amp;"',y:"&amp; "'" &amp;E124&amp;"'},"</f>
+        <v>{name:['인천메카점M'],addr:'인천광역시 연수구 용담로125번길 41',x:'927422.4468487434',y:'1935499.65872847'},</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125" t="s">
+        <v>316</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G125" t="str">
+        <f>"{name:" &amp; "['"&amp;A125&amp;"'"&amp;IF(ISBLANK(B125),"",",'"&amp;B125&amp;"'")&amp;"],addr:" &amp; "'" &amp;C125&amp;"',x:"&amp; "'" &amp;D125&amp;"',y:"&amp; "'" &amp;E125&amp;"'},"</f>
+        <v>{name:['인천벽산아파트 결합부스'],addr:'인천광역시 남동구 서판로 43',x:'931434.1630260036',y:'1940841.3205330772'},</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" t="s">
+        <v>252</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G126" t="str">
+        <f>"{name:" &amp; "['"&amp;A126&amp;"'"&amp;IF(ISBLANK(B126),"",",'"&amp;B126&amp;"'")&amp;"],addr:" &amp; "'" &amp;C126&amp;"',x:"&amp; "'" &amp;D126&amp;"',y:"&amp; "'" &amp;E126&amp;"'},"</f>
+        <v>{name:['인천선학점G'],addr:'인천광역시 연수구 비류대로529번길 10',x:'928643.5051002635',y:'1936354.497053353'},</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>94</v>
+      </c>
+      <c r="C127" t="s">
+        <v>260</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G127" t="str">
+        <f>"{name:" &amp; "['"&amp;A127&amp;"'"&amp;IF(ISBLANK(B127),"",",'"&amp;B127&amp;"'")&amp;"],addr:" &amp; "'" &amp;C127&amp;"',x:"&amp; "'" &amp;D127&amp;"',y:"&amp; "'" &amp;E127&amp;"'},"</f>
+        <v>{name:['인천송도점G'],addr:'인천광역시 연수구 해돋이로84번길 29',x:'925166.2389731444',y:'1932929.6578389006'},</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" t="s">
+        <v>197</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G128" t="str">
+        <f>"{name:" &amp; "['"&amp;A128&amp;"'"&amp;IF(ISBLANK(B128),"",",'"&amp;B128&amp;"'")&amp;"],addr:" &amp; "'" &amp;C128&amp;"',x:"&amp; "'" &amp;D128&amp;"',y:"&amp; "'" &amp;E128&amp;"'},"</f>
+        <v>{name:['인천신현쇼핑 결합부스'],addr:'인천광역시 서구 가정로 369',x:'926879.0843732902',y:'1946840.1810874036'},</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>100</v>
+      </c>
+      <c r="C129" t="s">
+        <v>266</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G129" t="str">
+        <f>"{name:" &amp; "['"&amp;A129&amp;"'"&amp;IF(ISBLANK(B129),"",",'"&amp;B129&amp;"'")&amp;"],addr:" &amp; "'" &amp;C129&amp;"',x:"&amp; "'" &amp;D129&amp;"',y:"&amp; "'" &amp;E129&amp;"'},"</f>
+        <v>{name:['인천옥련점M'],addr:'인천광역시 연수구 한나루로197번길 30',x:'925282.19116041',y:'1936827.8251766833'},</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" t="s">
+        <v>294</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G130" t="str">
+        <f>"{name:" &amp; "['"&amp;A130&amp;"'"&amp;IF(ISBLANK(B130),"",",'"&amp;B130&amp;"'")&amp;"],addr:" &amp; "'" &amp;C130&amp;"',x:"&amp; "'" &amp;D130&amp;"',y:"&amp; "'" &amp;E130&amp;"'},"</f>
+        <v>{name:['인천주안로점G'],addr:'인천광역시 미추홀구 주안동로 28-15',x:'928043.4087397007',y:'1940464.958479995'},</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>150</v>
+      </c>
+      <c r="C131" t="s">
+        <v>315</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G131" t="str">
+        <f>"{name:" &amp; "['"&amp;A131&amp;"'"&amp;IF(ISBLANK(B131),"",",'"&amp;B131&amp;"'")&amp;"],addr:" &amp; "'" &amp;C131&amp;"',x:"&amp; "'" &amp;D131&amp;"',y:"&amp; "'" &amp;E131&amp;"'},"</f>
+        <v>{name:['인천터미널점M'],addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102'},</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>352</v>
+      </c>
+      <c r="C132" t="s">
+        <v>351</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G132" t="str">
+        <f>"{name:" &amp; "['"&amp;A132&amp;"'"&amp;IF(ISBLANK(B132),"",",'"&amp;B132&amp;"'")&amp;"],addr:" &amp; "'" &amp;C132&amp;"',x:"&amp; "'" &amp;D132&amp;"',y:"&amp; "'" &amp;E132&amp;"'},"</f>
+        <v>{name:['인천해양경찰서-SH'],addr:'인천광역시 연수구 옥골로 69',x:'924748.3864360615',y:'1937246.7582861618'},</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>81</v>
+      </c>
+      <c r="C133" t="s">
+        <v>248</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G133" t="str">
+        <f>"{name:" &amp; "['"&amp;A133&amp;"'"&amp;IF(ISBLANK(B133),"",",'"&amp;B133&amp;"'")&amp;"],addr:" &amp; "'" &amp;C133&amp;"',x:"&amp; "'" &amp;D133&amp;"',y:"&amp; "'" &amp;E133&amp;"'},"</f>
+        <v>{name:['인천호구포역점M'],addr:'인천광역시 남동구 논현로26번길 12',x:'929979.51652928',y:'1934015.4848348568'},</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134" t="s">
+        <v>230</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G134" t="str">
+        <f>"{name:" &amp; "['"&amp;A134&amp;"'"&amp;IF(ISBLANK(B134),"",",'"&amp;B134&amp;"'")&amp;"],addr:" &amp; "'" &amp;C134&amp;"',x:"&amp; "'" &amp;D134&amp;"',y:"&amp; "'" &amp;E134&amp;"'},"</f>
+        <v>{name:['자매슈퍼-연수'],addr:'인천광역시 연수구 함박로12번길 46',x:'927560.5282932345',y:'1936553.2454770715'},</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" t="s">
+        <v>192</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G135" t="str">
+        <f>"{name:" &amp; "['"&amp;A135&amp;"'"&amp;IF(ISBLANK(B135),"",",'"&amp;B135&amp;"'")&amp;"],addr:" &amp; "'" &amp;C135&amp;"',x:"&amp; "'" &amp;D135&amp;"',y:"&amp; "'" &amp;E135&amp;"'},"</f>
+        <v>{name:['제물포버스정류장 결합부스'],addr:'인천광역시 미추홀구 경인로 135',x:'925542.174751237',y:'1941140.5618504882'},</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" t="s">
+        <v>236</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G136" t="str">
+        <f>"{name:" &amp; "['"&amp;A136&amp;"'"&amp;IF(ISBLANK(B136),"",",'"&amp;B136&amp;"'")&amp;"],addr:" &amp; "'" &amp;C136&amp;"',x:"&amp; "'" &amp;D136&amp;"',y:"&amp; "'" &amp;E136&amp;"'},"</f>
+        <v>{name:['제일슈퍼-인천'],addr:'인천광역시 연수구 함박안로156번길 6',x:'927773.0413744',y:'1936723.1742538'},</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>173</v>
+      </c>
+      <c r="C137" t="s">
+        <v>337</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G137" t="str">
+        <f>"{name:" &amp; "['"&amp;A137&amp;"'"&amp;IF(ISBLANK(B137),"",",'"&amp;B137&amp;"'")&amp;"],addr:" &amp; "'" &amp;C137&amp;"',x:"&amp; "'" &amp;D137&amp;"',y:"&amp; "'" &amp;E137&amp;"'},"</f>
+        <v>{name:['주안 보보G'],addr:'인천광역시 미추홀구 경인로425번길 14',x:'928155.8178139064',y:'1940251.613382046'},</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>174</v>
+      </c>
+      <c r="C138" t="s">
+        <v>338</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G138" t="str">
+        <f>"{name:" &amp; "['"&amp;A138&amp;"'"&amp;IF(ISBLANK(B138),"",",'"&amp;B138&amp;"'")&amp;"],addr:" &amp; "'" &amp;C138&amp;"',x:"&amp; "'" &amp;D138&amp;"',y:"&amp; "'" &amp;E138&amp;"'},"</f>
+        <v>{name:['주안 신성G'],addr:'인천광역시 미추홀구 주안중로 28',x:'927733.3861476094',y:'1940496.9830620233'},</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>116</v>
+      </c>
+      <c r="C139" t="s">
+        <v>282</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G139" t="str">
+        <f>"{name:" &amp; "['"&amp;A139&amp;"'"&amp;IF(ISBLANK(B139),"",",'"&amp;B139&amp;"'")&amp;"],addr:" &amp; "'" &amp;C139&amp;"',x:"&amp; "'" &amp;D139&amp;"',y:"&amp; "'" &amp;E139&amp;"'},"</f>
+        <v>{name:['주안1동점G'],addr:'인천광역시 미추홀구 주안중로50번길 20',x:'927832.11701282',y:'1940714.3422219716'},</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G140" t="str">
+        <f>"{name:" &amp; "['"&amp;A140&amp;"'"&amp;IF(ISBLANK(B140),"",",'"&amp;B140&amp;"'")&amp;"],addr:" &amp; "'" &amp;C140&amp;"',x:"&amp; "'" &amp;D140&amp;"',y:"&amp; "'" &amp;E140&amp;"'},"</f>
+        <v>{name:['주안공단점G'],addr:'인천광역시 미추홀구 염전로 362',x:'927504.3446300412',y:'1941528.745698372'},</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>98</v>
+      </c>
+      <c r="C141" t="s">
+        <v>264</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G141" t="str">
+        <f>"{name:" &amp; "['"&amp;A141&amp;"'"&amp;IF(ISBLANK(B141),"",",'"&amp;B141&amp;"'")&amp;"],addr:" &amp; "'" &amp;C141&amp;"',x:"&amp; "'" &amp;D141&amp;"',y:"&amp; "'" &amp;E141&amp;"'},"</f>
+        <v>{name:['주안남부점M'],addr:'인천광역시 미추홀구 주안로104번길 15',x:'927600.294782457',y:'1940748.241028722'},</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>117</v>
+      </c>
+      <c r="C142" t="s">
+        <v>283</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G142" t="str">
+        <f>"{name:" &amp; "['"&amp;A142&amp;"'"&amp;IF(ISBLANK(B142),"",",'"&amp;B142&amp;"'")&amp;"],addr:" &amp; "'" &amp;C142&amp;"',x:"&amp; "'" &amp;D142&amp;"',y:"&amp; "'" &amp;E142&amp;"'},"</f>
+        <v>{name:['주안대로점G'],addr:'인천광역시 미추홀구 주안로 45',x:'927021.73843505',y:'1940904.6652424666'},</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143" t="s">
+        <v>359</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G143" t="str">
+        <f>"{name:" &amp; "['"&amp;A143&amp;"'"&amp;IF(ISBLANK(B143),"",",'"&amp;B143&amp;"'")&amp;"],addr:" &amp; "'" &amp;C143&amp;"',x:"&amp; "'" &amp;D143&amp;"',y:"&amp; "'" &amp;E143&amp;"'},"</f>
+        <v>{name:['주안동경점G'],addr:'인천광역시 미추홀구 주안서로 53',x:'927285.2900126814',y:'1940792.0053177588'},</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
         <v>747</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B144" t="s">
         <v>172</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C144" t="s">
         <v>336</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F144" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
+      <c r="G144" t="str">
+        <f>"{name:" &amp; "['"&amp;A144&amp;"'"&amp;IF(ISBLANK(B144),"",",'"&amp;B144&amp;"'")&amp;"],addr:" &amp; "'" &amp;C144&amp;"',x:"&amp; "'" &amp;D144&amp;"',y:"&amp; "'" &amp;E144&amp;"'},"</f>
         <v>{name:['주안동궁전예식장 결합부스','주안으뜸점G'],addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243'},</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['무지개할인마트'],addr:'인천광역시 연수구 새말로36번길 11',x:'926976.9262094533',y:'1936160.6680197665'},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" t="s">
-        <v>234</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['미니24-인천'],addr:'인천광역시 미추홀구 경인로 437',x:'928246.1295577467',y:'1940192.399497855'},</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>725</v>
-      </c>
-      <c r="C38" t="s">
-        <v>724</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['미추홀타워점G'],addr:'인천광역시 연수구 갯벌로 12',x:'925064.2345959987',y:'1931830.2383670015'},</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['보금마트-연수'],addr:'인천광역시 연수구 함박로25번길 2',x:'927463.1199536233',y:'1936627.06679082'},</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['서구검단고점G'],addr:'인천광역시 서구 검단로 532',x:'926110.4926230235',y:'1956373.3558248538'},</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['서구엠파크점G'],addr:'인천광역시 서구 염곡로 52',x:'926244.9221541481',y:'1943755.5184864542'},</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>196</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['서구연희점G'],addr:'인천광역시 서구 간촌로 9',x:'927388.9430976734',y:'1950308.0950684836'},</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" t="s">
-        <v>238</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['선학역점M'],addr:'인천광역시 연수구 학나래로118번길 23',x:'929081.3471575531',y:'1936767.7973411446'},</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" t="s">
-        <v>342</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['선학중앙G'],addr:'인천광역시 연수구 학나래로6번길 32',x:'929030.9872679301',y:'1936439.7252242365'},</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="s">
-        <v>232</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['세븐일레븐-인천간석역점'],addr:'인천광역시 남동구 석산로 3',x:'928759.3617110967',y:'1940883.321277853'},</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" t="s">
-        <v>255</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['셀트리온 제2공장 3층WOORI'],addr:'인천광역시 연수구 아카데미로51번길 20',x:'923862.253035788',y:'1930721.5154832513'},</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" t="s">
-        <v>308</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['소래베스트점G'],addr:'인천광역시 남동구 소래역로 20',x:'932409.8016257668',y:'1933619.6491731368'},</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['소래시티점G'],addr:'인천광역시 남동구 포구로 35',x:'932559.6363396579',y:'1933938.546323114'},</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" t="s">
-        <v>290</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['소래중앙점G'],addr:'인천광역시 남동구 소래역로18번길 15',x:'932472.0993263312',y:'1933643.4917039908'},</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" t="s">
-        <v>307</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['소래포구점G'],addr:'인천광역시 남동구 장도로 85',x:'932594.8315246161',y:'1933497.9901714372'},</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" t="s">
-        <v>288</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['소래풍림점G'],addr:'인천광역시 남동구 포구로 64-29',x:'932494.2900207366',y:'1934308.7269807002'},</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>350</v>
-      </c>
-      <c r="C52" t="s">
-        <v>349</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도 라이크홈기숙사-KEB하나'],addr:'인천광역시 연수구 첨단대로 80',x:'925077.5744217939',y:'1930163.4990456211'},</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" t="s">
-        <v>213</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도그림워크점GSS'],addr:'인천광역시 연수구 아트센터대로97번길 15',x:'923949.5984413391',y:'1933886.2199624083'},</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" t="s">
-        <v>333</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도더샵엑스포KB'],addr:'인천광역시 연수구 컨벤시아대로42번길 95',x:'924238.7160272836',y:'1934178.4920383645'},</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" t="s">
-        <v>270</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도더샵점G'],addr:'인천광역시 연수구 아트센터대로97번길 75',x:'924389.3127429485',y:'1933490.9978888235'},</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" t="s">
-        <v>244</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도라마다점G'],addr:'인천광역시 연수구 능허대로267번길 29',x:'925239.3006682626',y:'1935277.2973558633'},</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" t="s">
-        <v>268</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도메디점G'],addr:'인천광역시 연수구 컨벤시아대로130번길 14',x:'924308.0890260204',y:'1932993.4899920663'},</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" t="s">
-        <v>335</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도성지점G'],addr:'인천광역시 연수구 신송로6번길 7',x:'925894.2303461249',y:'1932625.2375938715'},</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>136</v>
-      </c>
-      <c r="B59" t="s">
-        <v>722</v>
-      </c>
-      <c r="C59" t="s">
-        <v>302</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['메리빌리아-송도','송도트리플점G'],addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588'},</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" t="s">
-        <v>219</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도센트럴파크호텔'],addr:'인천광역시 연수구 테크노파크로 193',x:'923641.9774963101',y:'1932732.2588121234'},</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도스마트밸리점G'],addr:'인천광역시 연수구 송도미래로 30',x:'924568.090254779',y:'1930236.501307576'},</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" t="s">
-        <v>239</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도월드마크점M'],addr:'인천광역시 연수구 컨벤시아대로 60',x:'924851.1126633752',y:'1933442.4269422777'},</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" t="s">
-        <v>231</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도유원지점G'],addr:'인천광역시 연수구 능허대로 203',x:'924862.0970530566',y:'1935734.32011165'},</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" t="s">
-        <v>296</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도점-GSS'],addr:'인천광역시 연수구 해돋이로 107',x:'924778.2391112824',y:'1932822.1059526857'},</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" t="s">
-        <v>271</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도커넬워크점G'],addr:'인천광역시 연수구 아트센터대로 107',x:'923751.8781831791',y:'1933894.0553808152'},</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" t="s">
-        <v>303</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G66" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:['송도테크노파크IT센터SHINHAN'],addr:'인천광역시 연수구 송도과학로 32',x:'925841.3207283262',y:'1931743.5380926528'},</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" t="s">
-        <v>324</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G67" t="str">
-        <f t="shared" ref="G67:G130" si="1">"{name:" &amp; "['"&amp;A67&amp;"'"&amp;IF(ISBLANK(B67),"",",'"&amp;B67&amp;"'")&amp;"],addr:" &amp; "'" &amp;C67&amp;"',x:"&amp; "'" &amp;D67&amp;"',y:"&amp; "'" &amp;E67&amp;"'},"</f>
-        <v>{name:['송도파크호텔WOORI'],addr:'인천광역시 연수구 테크노파크로 151',x:'923940.5490371233',y:'1932461.3960087532'},</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" t="s">
-        <v>358</v>
-      </c>
-      <c r="C68" t="s">
-        <v>357</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G68" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천글로벌운영재단','한국뉴욕주립대학교 결합부스'],addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412'},</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" t="s">
-        <v>262</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['송도하모니점G'],addr:'인천광역시 연수구 하모니로 124',x:'924325.4107504063',y:'1932184.2251096321'},</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" t="s">
-        <v>254</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['송도해송점G'],addr:'인천광역시 연수구 해송로30번길 19',x:'924385.1257843729',y:'1931691.8597509419'},</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" t="s">
-        <v>235</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G71" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['송도현대점G'],addr:'인천광역시 연수구 해돋이로6번길 7',x:'925627.0584128611',y:'1932281.0568902749'},</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['송도힐스점G'],addr:'인천광역시 연수구 컨벤시아대로 90',x:'924647.7513800692',y:'1933202.8066080627'},</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" t="s">
-        <v>190</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['숭의길목점G'],addr:'인천광역시 미추홀구 수봉안길 16',x:'925635.7302395517',y:'1940618.206504576'},</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" t="s">
-        <v>320</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['시흥신창점G'],addr:'경기도 시흥시 신천4길 12',x:'936418.8711248166',y:'1937926.4969950966'},</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" t="s">
-        <v>257</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['신기사거리점G'],addr:'인천광역시 미추홀구 미추홀대로 610',x:'927475.7843919608',y:'1939483.3085580925'},</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" t="s">
-        <v>323</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['신천동국민은행 결합부스'],addr:'경기도 시흥시 수인로 3372',x:'936693.2910999567',y:'1938235.12572021'},</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" t="s">
-        <v>263</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['아크리아점G'],addr:'인천광역시 연수구 신송로125번길 13',x:'924866.6899020134',y:'1933167.18251291'},</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" t="s">
-        <v>187</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['엠파크타워점G'],addr:'인천광역시 서구 봉수대로 158',x:'925983.41854599',y:'1943696.0707750432'},</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" t="s">
-        <v>341</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수경원G'],addr:'인천광역시 연수구 경원대로467번길 13',x:'929009.7022006633',y:'1936610.8085542968'},</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" t="s">
-        <v>261</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수골드점G'],addr:'인천광역시 연수구 함박로 80',x:'927980.0656931633',y:'1936544.17710579'},</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" t="s">
-        <v>208</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수단비점G'],addr:'인천광역시 연수구 청능대로113번길 43',x:'927274.7641431501',y:'1935327.7588821636'},</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" t="s">
-        <v>210</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수선학점G'],addr:'인천광역시 연수구 넘말로29번길 21',x:'928915.90151959',y:'1936891.1488486365'},</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>108</v>
-      </c>
-      <c r="C83" t="s">
-        <v>274</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수장례식장 인천내부'],addr:'인천광역시 연수구 벚꽃로 122',x:'927335.7894045769',y:'1935611.3385808035'},</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>106</v>
-      </c>
-      <c r="C84" t="s">
-        <v>272</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수점G'],addr:'인천광역시 연수구 새말로46번길 4',x:'927054.4397459901',y:'1936127.9562478536'},</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" t="s">
-        <v>273</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수점M'],addr:'인천광역시 연수구 비류대로 230',x:'925700.9976564867',y:'1936753.3900593636'},</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" t="s">
-        <v>328</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수중앙점G'],addr:'인천광역시 연수구 새말로69번길 1',x:'927230.4884649334',y:'1935967.4642858398'},</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" t="s">
-        <v>216</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G87" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수청학점M'],addr:'인천광역시 연수구 먼우금로 197',x:'927097.7779245968',y:'1935413.5243354505'},</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>138</v>
-      </c>
-      <c r="C88" t="s">
-        <v>304</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G88" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수타운점G'],addr:'인천광역시 연수구 샘말로21번길 3',x:'927277.5510110233',y:'1935141.1890938403'},</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C89" t="s">
-        <v>242</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G89" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수태산점G'],addr:'인천광역시 연수구 먼우금로264번길 8-4',x:'927477.3679526933',y:'1935944.299351547'},</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>161</v>
-      </c>
-      <c r="C90" t="s">
-        <v>326</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G90" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수파크타운점M'],addr:'인천광역시 연수구 용담로 115',x:'927244.231129833',y:'1935426.1714365287'},</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>131</v>
-      </c>
-      <c r="C91" t="s">
-        <v>297</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G91" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수함박점M'],addr:'인천광역시 연수구 함박뫼로50번길 93',x:'927263.5188448408',y:'1935872.3548643487'},</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>170</v>
-      </c>
-      <c r="C92" t="s">
-        <v>334</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G92" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['연수희망점G'],addr:'인천광역시 연수구 앵고개로 256',x:'926724.2878851034',y:'1934622.8657452334'},</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" t="s">
-        <v>228</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G93" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['영빌딩CITY'],addr:'인천광역시 미추홀구 인하로 253',x:'927138.1700531407',y:'1939133.3534303224'},</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C94" t="s">
-        <v>287</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G94" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['옥련백산점G'],addr:'인천광역시 연수구 독배로 25',x:'924316.71718126',y:'1936330.9110739832'},</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>182</v>
-      </c>
-      <c r="C95" t="s">
-        <v>346</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G95" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['옥련사거리G'],addr:'인천광역시 연수구 독배로 68',x:'924367.6668144872',y:'1936729.1735826507'},</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>181</v>
-      </c>
-      <c r="C96" t="s">
-        <v>345</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G96" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['옥련사랑M'],addr:'인천광역시 연수구 한나루로 166',x:'925293.9163142969',y:'1936455.0597683867'},</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>134</v>
-      </c>
-      <c r="C97" t="s">
-        <v>300</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G97" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['옥련서해점G'],addr:'인천광역시 연수구 청량로185번길 13',x:'924973.1474770068',y:'1936336.0367916236'},</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>180</v>
-      </c>
-      <c r="C98" t="s">
-        <v>344</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G98" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['옥련쌍용G'],addr:'인천광역시 연수구 청량로184번길 48',x:'925182.9532054849',y:'1936549.0084032882'},</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>135</v>
-      </c>
-      <c r="C99" t="s">
-        <v>301</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G99" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['옥련아주점G'],addr:'인천광역시 연수구 청량로 217',x:'925018.4765206832',y:'1936665.1654121173'},</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>120</v>
-      </c>
-      <c r="C100" t="s">
-        <v>286</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G100" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['옥련우성점G'],addr:'인천광역시 연수구 독배로40번길 47',x:'924577.7008813033',y:'1936507.4463419202'},</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101" t="s">
-        <v>298</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G101" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['옥련풍림점G'],addr:'인천광역시 연수구 한나루로193번길 3',x:'925362.11812462',y:'1936699.7315103933'},</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" t="s">
-        <v>185</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G102" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['월미분수대점G'],addr:'인천광역시 중구 월미문화로 57',x:'920135.501782795',y:'1941955.847831308'},</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G103" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['월미중앙점G'],addr:'인천광역시 중구 월미문화로 65',x:'920108.2432266385',y:'1941888.865706168'},</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>76</v>
-      </c>
-      <c r="C104" t="s">
-        <v>243</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G104" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['위드미-라마다송도점'],addr:'인천광역시 연수구 능허대로267번길 42',x:'925310.3928309134',y:'1935295.212755117'},</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>101</v>
-      </c>
-      <c r="C105" t="s">
-        <v>267</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G105" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['유진로봇 송도사옥'],addr:'인천광역시 연수구 하모니로187번길 33',x:'924180.5928355344',y:'1931340.6668476937'},</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>154</v>
-      </c>
-      <c r="C106" t="s">
-        <v>319</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G106" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['은계센트럴점G'],addr:'경기도 시흥시 은계중앙로 97',x:'938203.4013041602',y:'1938022.7406927734'},</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>156</v>
-      </c>
-      <c r="C107" t="s">
-        <v>321</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G107" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['은행동성원아파트 결합부스'],addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804'},</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" t="s">
-        <v>322</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G108" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['은행동약사 결합부스'],addr:'경기도 시흥시 은행로 8',x:'937498.2971942425',y:'1937334.1604390284'},</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>149</v>
-      </c>
-      <c r="C109" t="s">
-        <v>314</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G109" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['은혜의교회SH'],addr:'인천광역시 미추홀구 매소홀로 428',x:'926520.0805420987',y:'1938134.7043078174'},</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G110" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['이마트 동인천점SC'],addr:'인천광역시 중구 인중로 134',x:'922988.2656142102',y:'1941172.2637899336'},</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>179</v>
-      </c>
-      <c r="C111" t="s">
-        <v>343</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G111" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['이마트24 연수함박로'],addr:'인천광역시 연수구 함박로 36',x:'927543.317565355',y:'1936592.6575228586'},</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>127</v>
-      </c>
-      <c r="C112" t="s">
-        <v>293</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G112" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['이수엑사보드 인천공장'],addr:'인천광역시 남동구 남동서로270번길 54',x:'929093.4386579194',y:'1935045.5201349352'},</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>734</v>
-      </c>
-      <c r="C113" t="s">
-        <v>733</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G113" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천 송도 컨벤시아'],addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082'},</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" t="s">
-        <v>188</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G114" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천5공단파출소결합부스'],addr:'인천광역시 서구 가재울로 75',x:'927648.8596204547',y:'1942435.9377577854'},</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G115" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천경동점G'],addr:'인천광역시 중구 개항로 82',x:'923229.7654404601',y:'1941739.1997609003'},</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>728</v>
-      </c>
-      <c r="B116" t="s">
-        <v>163</v>
-      </c>
-      <c r="C116" t="s">
-        <v>327</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G116" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['송도 에듀포레푸르지오','에듀포레점G'],addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713'},</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>82</v>
-      </c>
-      <c r="C117" t="s">
-        <v>249</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G117" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천남촌로점G'],addr:'인천광역시 남동구 남촌동로3번길 33',x:'930644.9199876767',y:'1937177.0833667233'},</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>57</v>
-      </c>
-      <c r="C118" t="s">
-        <v>224</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G118" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천논현광장점G'],addr:'인천광역시 남동구 논고개로123번길 35',x:'931147.5988134101',y:'1933884.31215839'},</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>126</v>
-      </c>
-      <c r="C119" t="s">
-        <v>292</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G119" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천논현사랑점G'],addr:'인천광역시 남동구 논고개로 166',x:'931299.0037734902',y:'1934371.8316615'},</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>114</v>
-      </c>
-      <c r="C120" t="s">
-        <v>280</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G120" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천논현역점G'],addr:'인천광역시 남동구 논고개로 121',x:'931299.4091969267',y:'1933928.8000814402'},</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>51</v>
-      </c>
-      <c r="C121" t="s">
-        <v>218</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G121" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천논현점M'],addr:'인천광역시 남동구 논현로46번길 51',x:'930040.7558424668',y:'1933792.9459385104'},</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>93</v>
-      </c>
-      <c r="C122" t="s">
-        <v>259</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G122" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천동아서점 결합부스'],addr:'인천광역시 미추홀구 경인로 386-1',x:'927733.8360022209',y:'1940187.0715722647'},</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>160</v>
-      </c>
-      <c r="C123" t="s">
-        <v>325</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G123" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천메카점M'],addr:'인천광역시 연수구 용담로125번길 41',x:'927422.4468487434',y:'1935499.65872847'},</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>151</v>
-      </c>
-      <c r="C124" t="s">
-        <v>316</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G124" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천벽산아파트 결합부스'],addr:'인천광역시 남동구 서판로 43',x:'931434.1630260036',y:'1940841.3205330772'},</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>85</v>
-      </c>
-      <c r="C125" t="s">
-        <v>252</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G125" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천선학점G'],addr:'인천광역시 연수구 비류대로529번길 10',x:'928643.5051002635',y:'1936354.497053353'},</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>94</v>
-      </c>
-      <c r="C126" t="s">
-        <v>260</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G126" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천송도점G'],addr:'인천광역시 연수구 해돋이로84번길 29',x:'925166.2389731444',y:'1932929.6578389006'},</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>30</v>
-      </c>
-      <c r="C127" t="s">
-        <v>197</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G127" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천신현쇼핑 결합부스'],addr:'인천광역시 서구 가정로 369',x:'926879.0843732902',y:'1946840.1810874036'},</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>100</v>
-      </c>
-      <c r="C128" t="s">
-        <v>266</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G128" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천옥련점M'],addr:'인천광역시 연수구 한나루로197번길 30',x:'925282.19116041',y:'1936827.8251766833'},</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-      <c r="C129" t="s">
-        <v>294</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G129" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천주안로점G'],addr:'인천광역시 미추홀구 주안동로 28-15',x:'928043.4087397007',y:'1940464.958479995'},</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>150</v>
-      </c>
-      <c r="C130" t="s">
-        <v>315</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G130" t="str">
-        <f t="shared" si="1"/>
-        <v>{name:['인천터미널점M'],addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102'},</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>352</v>
-      </c>
-      <c r="C131" t="s">
-        <v>351</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G131" t="str">
-        <f t="shared" ref="G131:G185" si="2">"{name:" &amp; "['"&amp;A131&amp;"'"&amp;IF(ISBLANK(B131),"",",'"&amp;B131&amp;"'")&amp;"],addr:" &amp; "'" &amp;C131&amp;"',x:"&amp; "'" &amp;D131&amp;"',y:"&amp; "'" &amp;E131&amp;"'},"</f>
-        <v>{name:['인천해양경찰서-SH'],addr:'인천광역시 연수구 옥골로 69',x:'924748.3864360615',y:'1937246.7582861618'},</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>81</v>
-      </c>
-      <c r="C132" t="s">
-        <v>248</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G132" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:['인천호구포역점M'],addr:'인천광역시 남동구 논현로26번길 12',x:'929979.51652928',y:'1934015.4848348568'},</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>63</v>
-      </c>
-      <c r="C133" t="s">
-        <v>230</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G133" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:['자매슈퍼-연수'],addr:'인천광역시 연수구 함박로12번길 46',x:'927560.5282932345',y:'1936553.2454770715'},</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>25</v>
-      </c>
-      <c r="C134" t="s">
-        <v>192</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G134" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:['제물포버스정류장 결합부스'],addr:'인천광역시 미추홀구 경인로 135',x:'925542.174751237',y:'1941140.5618504882'},</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>69</v>
-      </c>
-      <c r="C135" t="s">
-        <v>236</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G135" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:['제일슈퍼-인천'],addr:'인천광역시 연수구 함박안로156번길 6',x:'927773.0413744',y:'1936723.1742538'},</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>173</v>
-      </c>
-      <c r="C136" t="s">
-        <v>337</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G136" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:['주안 보보G'],addr:'인천광역시 미추홀구 경인로425번길 14',x:'928155.8178139064',y:'1940251.613382046'},</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>174</v>
-      </c>
-      <c r="C137" t="s">
-        <v>338</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G137" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:['주안 신성G'],addr:'인천광역시 미추홀구 주안중로 28',x:'927733.3861476094',y:'1940496.9830620233'},</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>116</v>
-      </c>
-      <c r="C138" t="s">
-        <v>282</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G138" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:['주안1동점G'],addr:'인천광역시 미추홀구 주안중로50번길 20',x:'927832.11701282',y:'1940714.3422219716'},</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G139" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:['주안공단점G'],addr:'인천광역시 미추홀구 염전로 362',x:'927504.3446300412',y:'1941528.745698372'},</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>98</v>
-      </c>
-      <c r="C140" t="s">
-        <v>264</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G140" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:['주안남부점M'],addr:'인천광역시 미추홀구 주안로104번길 15',x:'927600.294782457',y:'1940748.241028722'},</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>117</v>
-      </c>
-      <c r="C141" t="s">
-        <v>283</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G141" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:['주안대로점G'],addr:'인천광역시 미추홀구 주안로 45',x:'927021.73843505',y:'1940904.6652424666'},</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>146</v>
-      </c>
-      <c r="C142" t="s">
-        <v>359</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G142" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:['주안동경점G'],addr:'인천광역시 미추홀구 주안서로 53',x:'927285.2900126814',y:'1940792.0053177588'},</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
         <v>145</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C145" t="s">
         <v>311</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G143" t="str">
-        <f t="shared" si="2"/>
+      <c r="F145" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G145" t="str">
+        <f>"{name:" &amp; "['"&amp;A145&amp;"'"&amp;IF(ISBLANK(B145),"",",'"&amp;B145&amp;"'")&amp;"],addr:" &amp; "'" &amp;C145&amp;"',x:"&amp; "'" &amp;D145&amp;"',y:"&amp; "'" &amp;E145&amp;"'},"</f>
         <v>{name:['주안미래점M'],addr:'인천광역시 미추홀구 주안중로 13-1',x:'927698.3542673178',y:'1940367.9314235584'},</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
         <v>147</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C146" t="s">
         <v>312</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G144" t="str">
-        <f t="shared" si="2"/>
+      <c r="F146" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G146" t="str">
+        <f>"{name:" &amp; "['"&amp;A146&amp;"'"&amp;IF(ISBLANK(B146),"",",'"&amp;B146&amp;"'")&amp;"],addr:" &amp; "'" &amp;C146&amp;"',x:"&amp; "'" &amp;D146&amp;"',y:"&amp; "'" &amp;E146&amp;"'},"</f>
         <v>{name:['주안미소점G'],addr:'인천광역시 미추홀구 신기길30번길 37',x:'926981.776154774',y:'1938935.675808793'},</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
         <v>36</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C147" t="s">
         <v>203</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G145" t="str">
-        <f t="shared" si="2"/>
+      <c r="F147" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G147" t="str">
+        <f>"{name:" &amp; "['"&amp;A147&amp;"'"&amp;IF(ISBLANK(B147),"",",'"&amp;B147&amp;"'")&amp;"],addr:" &amp; "'" &amp;C147&amp;"',x:"&amp; "'" &amp;D147&amp;"',y:"&amp; "'" &amp;E147&amp;"'},"</f>
         <v>{name:['주안미추홀점G'],addr:'인천광역시 미추홀구 경인로 343',x:'927260.9079237133',y:'1940267.6733396333'},</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
         <v>99</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C148" t="s">
         <v>265</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G146" t="str">
-        <f t="shared" si="2"/>
+      <c r="F148" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G148" t="str">
+        <f>"{name:" &amp; "['"&amp;A148&amp;"'"&amp;IF(ISBLANK(B148),"",",'"&amp;B148&amp;"'")&amp;"],addr:" &amp; "'" &amp;C148&amp;"',x:"&amp; "'" &amp;D148&amp;"',y:"&amp; "'" &amp;E148&amp;"'},"</f>
         <v>{name:['주안본점M'],addr:'인천광역시 미추홀구 미추홀대로734번길 37',x:'927714.5775235672',y:'1940744.2295416128'},</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
         <v>109</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C149" t="s">
         <v>275</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G147" t="str">
-        <f t="shared" si="2"/>
+      <c r="F149" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G149" t="str">
+        <f>"{name:" &amp; "['"&amp;A149&amp;"'"&amp;IF(ISBLANK(B149),"",",'"&amp;B149&amp;"'")&amp;"],addr:" &amp; "'" &amp;C149&amp;"',x:"&amp; "'" &amp;D149&amp;"',y:"&amp; "'" &amp;E149&amp;"'},"</f>
         <v>{name:['주안사거리점G'],addr:'인천광역시 미추홀구 석바위로 61',x:'927476.9399430258',y:'1940520.5633123717'},</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
         <v>86</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C150" t="s">
         <v>253</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G148" t="str">
-        <f t="shared" si="2"/>
+      <c r="F150" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G150" t="str">
+        <f>"{name:" &amp; "['"&amp;A150&amp;"'"&amp;IF(ISBLANK(B150),"",",'"&amp;B150&amp;"'")&amp;"],addr:" &amp; "'" &amp;C150&amp;"',x:"&amp; "'" &amp;D150&amp;"',y:"&amp; "'" &amp;E150&amp;"'},"</f>
         <v>{name:['주안석바위점M'],addr:'인천광역시 미추홀구 석바위로 112',x:'927947.6847094274',y:'1940400.324138321'},</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
         <v>166</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C151" t="s">
         <v>330</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G149" t="str">
-        <f t="shared" si="2"/>
+      <c r="F151" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G151" t="str">
+        <f>"{name:" &amp; "['"&amp;A151&amp;"'"&amp;IF(ISBLANK(B151),"",",'"&amp;B151&amp;"'")&amp;"],addr:" &amp; "'" &amp;C151&amp;"',x:"&amp; "'" &amp;D151&amp;"',y:"&amp; "'" &amp;E151&amp;"'},"</f>
         <v>{name:['주안세일점G'],addr:'인천광역시 미추홀구 동주길 76',x:'927911.4083549832',y:'1939815.436123129'},</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
         <v>184</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C152" t="s">
         <v>348</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G150" t="str">
-        <f t="shared" si="2"/>
+      <c r="F152" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G152" t="str">
+        <f>"{name:" &amp; "['"&amp;A152&amp;"'"&amp;IF(ISBLANK(B152),"",",'"&amp;B152&amp;"'")&amp;"],addr:" &amp; "'" &amp;C152&amp;"',x:"&amp; "'" &amp;D152&amp;"',y:"&amp; "'" &amp;E152&amp;"'},"</f>
         <v>{name:['주안역삼거리 결합부스'],addr:'인천광역시 미추홀구 미추홀대로 741',x:'927492.7927790079',y:'1940802.0347208697'},</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
         <v>7</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C153" t="s">
         <v>6</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G151" t="str">
-        <f t="shared" si="2"/>
+      <c r="F153" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G153" t="str">
+        <f>"{name:" &amp; "['"&amp;A153&amp;"'"&amp;IF(ISBLANK(B153),"",",'"&amp;B153&amp;"'")&amp;"],addr:" &amp; "'" &amp;C153&amp;"',x:"&amp; "'" &amp;D153&amp;"',y:"&amp; "'" &amp;E153&amp;"'},"</f>
         <v>{name:['주안월드점G'],addr:'인천광역시 미추홀구 경인로485번길 33',x:'928577.0918325363',y:'1940491.9788272986'},</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>162</v>
-      </c>
-      <c r="B152" t="s">
-        <v>356</v>
-      </c>
-      <c r="C152" t="s">
-        <v>355</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G152" t="str">
-        <f t="shared" si="2"/>
-        <v>{name:['송도센트럴점M','송도푸르지오시티점G'],addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754'},</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
         <v>139</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C154" t="s">
         <v>305</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G153" t="str">
-        <f t="shared" si="2"/>
+      <c r="F154" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G154" t="str">
+        <f>"{name:" &amp; "['"&amp;A154&amp;"'"&amp;IF(ISBLANK(B154),"",",'"&amp;B154&amp;"'")&amp;"],addr:" &amp; "'" &amp;C154&amp;"',x:"&amp; "'" &amp;D154&amp;"',y:"&amp; "'" &amp;E154&amp;"'},"</f>
         <v>{name:['주안주공점G'],addr:'인천광역시 미추홀구 주안로 215',x:'928700.075495082',y:'1940788.8228662973'},</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
         <v>148</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>313</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G154" t="str">
-        <f t="shared" si="2"/>
+      <c r="F155" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G155" t="str">
+        <f>"{name:" &amp; "['"&amp;A155&amp;"'"&amp;IF(ISBLANK(B155),"",",'"&amp;B155&amp;"'")&amp;"],addr:" &amp; "'" &amp;C155&amp;"',x:"&amp; "'" &amp;D155&amp;"',y:"&amp; "'" &amp;E155&amp;"'},"</f>
         <v>{name:['주안파크점G'],addr:'인천광역시 미추홀구 미추홀대로722번길 21-1',x:'927631.6564081493',y:'1940615.9256797591'},</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
         <v>152</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>318</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G155" t="str">
-        <f t="shared" si="2"/>
+      <c r="F156" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G156" t="str">
+        <f>"{name:" &amp; "['"&amp;A156&amp;"'"&amp;IF(ISBLANK(B156),"",",'"&amp;B156&amp;"'")&amp;"],addr:" &amp; "'" &amp;C156&amp;"',x:"&amp; "'" &amp;D156&amp;"',y:"&amp; "'" &amp;E156&amp;"'},"</f>
         <v>{name:['주안한신점G'],addr:'인천광역시 미추홀구 인하로352번길 10',x:'928112.3556398968',y:'1939019.7543626092'},</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
         <v>119</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>285</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G156" t="str">
-        <f t="shared" si="2"/>
+      <c r="F157" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G157" t="str">
+        <f>"{name:" &amp; "['"&amp;A157&amp;"'"&amp;IF(ISBLANK(B157),"",",'"&amp;B157&amp;"'")&amp;"],addr:" &amp; "'" &amp;C157&amp;"',x:"&amp; "'" &amp;D157&amp;"',y:"&amp; "'" &amp;E157&amp;"'},"</f>
         <v>{name:['주안행복점M'],addr:'인천광역시 미추홀구 석바위로53번길 3',x:'927366.0847729146',y:'1940514.0627141502'},</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
         <v>55</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>222</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G157" t="str">
-        <f t="shared" si="2"/>
+      <c r="F158" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G158" t="str">
+        <f>"{name:" &amp; "['"&amp;A158&amp;"'"&amp;IF(ISBLANK(B158),"",",'"&amp;B158&amp;"'")&amp;"],addr:" &amp; "'" &amp;C158&amp;"',x:"&amp; "'" &amp;D158&amp;"',y:"&amp; "'" &amp;E158&amp;"'},"</f>
         <v>{name:['중부지방해양경찰청SH'],addr:'인천광역시 연수구 센트럴로 263',x:'923373.8316200967',y:'1933570.7668816056'},</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
         <v>37</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>204</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G158" t="str">
-        <f t="shared" si="2"/>
+      <c r="F159" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G159" t="str">
+        <f>"{name:" &amp; "['"&amp;A159&amp;"'"&amp;IF(ISBLANK(B159),"",",'"&amp;B159&amp;"'")&amp;"],addr:" &amp; "'" &amp;C159&amp;"',x:"&amp; "'" &amp;D159&amp;"',y:"&amp; "'" &amp;E159&amp;"'},"</f>
         <v>{name:['중앙슈퍼-연수'],addr:'인천광역시 연수구 함박뫼로4번길 13-8',x:'926743.3556705897',y:'1935757.611946192'},</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
         <v>32</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>199</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G159" t="str">
-        <f t="shared" si="2"/>
+      <c r="F160" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G160" t="str">
+        <f>"{name:" &amp; "['"&amp;A160&amp;"'"&amp;IF(ISBLANK(B160),"",",'"&amp;B160&amp;"'")&amp;"],addr:" &amp; "'" &amp;C160&amp;"',x:"&amp; "'" &amp;D160&amp;"',y:"&amp; "'" &amp;E160&amp;"'},"</f>
         <v>{name:['천일식품-고잔동'],addr:'인천광역시 남동구 앵고개로 426',x:'928102.1321792866',y:'1933636.4756072024'},</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
         <v>103</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>269</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G160" t="str">
-        <f t="shared" si="2"/>
+      <c r="F161" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G161" t="str">
+        <f>"{name:" &amp; "['"&amp;A161&amp;"'"&amp;IF(ISBLANK(B161),"",",'"&amp;B161&amp;"'")&amp;"],addr:" &amp; "'" &amp;C161&amp;"',x:"&amp; "'" &amp;D161&amp;"',y:"&amp; "'" &amp;E161&amp;"'},"</f>
         <v>{name:['청능공원점G'],addr:'인천광역시 연수구 청능말로7번길 20',x:'926506.0746164669',y:'1935665.4340851936'},</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
         <v>28</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>195</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G161" t="str">
-        <f t="shared" si="2"/>
+      <c r="F162" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G162" t="str">
+        <f>"{name:" &amp; "['"&amp;A162&amp;"'"&amp;IF(ISBLANK(B162),"",",'"&amp;B162&amp;"'")&amp;"],addr:" &amp; "'" &amp;C162&amp;"',x:"&amp; "'" &amp;D162&amp;"',y:"&amp; "'" &amp;E162&amp;"'},"</f>
         <v>{name:['청라리치아노점M'],addr:'인천광역시 서구 청라에메랄드로102번길 10',x:'925562.0452141722',y:'1948624.1122872476'},</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
         <v>26</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>193</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G162" t="str">
-        <f t="shared" si="2"/>
+      <c r="F163" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G163" t="str">
+        <f>"{name:" &amp; "['"&amp;A163&amp;"'"&amp;IF(ISBLANK(B163),"",",'"&amp;B163&amp;"'")&amp;"],addr:" &amp; "'" &amp;C163&amp;"',x:"&amp; "'" &amp;D163&amp;"',y:"&amp; "'" &amp;E163&amp;"'},"</f>
         <v>{name:['청라에뜰점G'],addr:'인천광역시 서구 청라커낼로 300',x:'924457.963117328',y:'1948765.6387663502'},</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
         <v>27</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>194</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G163" t="str">
-        <f t="shared" si="2"/>
+      <c r="F164" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G164" t="str">
+        <f>"{name:" &amp; "['"&amp;A164&amp;"'"&amp;IF(ISBLANK(B164),"",",'"&amp;B164&amp;"'")&amp;"],addr:" &amp; "'" &amp;C164&amp;"',x:"&amp; "'" &amp;D164&amp;"',y:"&amp; "'" &amp;E164&amp;"'},"</f>
         <v>{name:['청라호반점G'],addr:'인천광역시 서구 청라커낼로 163',x:'923949.8371560569',y:'1947760.2909392407'},</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
         <v>354</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>353</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G164" t="str">
-        <f t="shared" si="2"/>
+      <c r="F165" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G165" t="str">
+        <f>"{name:" &amp; "['"&amp;A165&amp;"'"&amp;IF(ISBLANK(B165),"",",'"&amp;B165&amp;"'")&amp;"],addr:" &amp; "'" &amp;C165&amp;"',x:"&amp; "'" &amp;D165&amp;"',y:"&amp; "'" &amp;E165&amp;"'},"</f>
         <v>{name:['청학복합문화센터-SHINHAN'],addr:'인천광역시 연수구 비류대로 299',x:'926357.2427523071',y:'1936675.620955735'},</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
         <v>74</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>241</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G165" t="str">
-        <f t="shared" si="2"/>
+      <c r="F166" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G166" t="str">
+        <f>"{name:" &amp; "['"&amp;A166&amp;"'"&amp;IF(ISBLANK(B166),"",",'"&amp;B166&amp;"'")&amp;"],addr:" &amp; "'" &amp;C166&amp;"',x:"&amp; "'" &amp;D166&amp;"',y:"&amp; "'" &amp;E166&amp;"'},"</f>
         <v>{name:['청학본점G'],addr:'인천광역시 연수구 비류대로278번길 8-3',x:'926142.2991103267',y:'1936646.2066965867'},</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
         <v>3</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>2</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G166" t="str">
-        <f t="shared" si="2"/>
+      <c r="F167" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G167" t="str">
+        <f>"{name:" &amp; "['"&amp;A167&amp;"'"&amp;IF(ISBLANK(B167),"",",'"&amp;B167&amp;"'")&amp;"],addr:" &amp; "'" &amp;C167&amp;"',x:"&amp; "'" &amp;D167&amp;"',y:"&amp; "'" &amp;E167&amp;"'},"</f>
         <v>{name:['청학타운점G'],addr:'인천광역시 연수구 청학로12번길 47',x:'926231.6395880934',y:'1936834.2690070835'},</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
         <v>90</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>256</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G167" t="str">
-        <f t="shared" si="2"/>
+      <c r="F168" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G168" t="str">
+        <f>"{name:" &amp; "['"&amp;A168&amp;"'"&amp;IF(ISBLANK(B168),"",",'"&amp;B168&amp;"'")&amp;"],addr:" &amp; "'" &amp;C168&amp;"',x:"&amp; "'" &amp;D168&amp;"',y:"&amp; "'" &amp;E168&amp;"'},"</f>
         <v>{name:['청학현대점G'],addr:'인천광역시 연수구 계림로35번길 58',x:'926443.0193460134',y:'1936904.7241967367'},</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
         <v>730</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>729</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G168" t="str">
-        <f t="shared" si="2"/>
+      <c r="F169" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G169" t="str">
+        <f>"{name:" &amp; "['"&amp;A169&amp;"'"&amp;IF(ISBLANK(B169),"",",'"&amp;B169&amp;"'")&amp;"],addr:" &amp; "'" &amp;C169&amp;"',x:"&amp; "'" &amp;D169&amp;"',y:"&amp; "'" &amp;E169&amp;"'},"</f>
         <v>{name:['코스트코'],addr:'인천광역시 연수구 컨벤시아대로230번길 60',x:' 923278.7832623338',y:'1932636.7317621163'},</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
         <v>133</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>299</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G169" t="str">
-        <f t="shared" si="2"/>
+      <c r="F170" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G170" t="str">
+        <f>"{name:" &amp; "['"&amp;A170&amp;"'"&amp;IF(ISBLANK(B170),"",",'"&amp;B170&amp;"'")&amp;"],addr:" &amp; "'" &amp;C170&amp;"',x:"&amp; "'" &amp;D170&amp;"',y:"&amp; "'" &amp;E170&amp;"'},"</f>
         <v>{name:['퍼스트파크13점'],addr:'인천광역시 연수구 컨벤시아대로252번길 70',x:'923074.6219626968',y:'1932451.7707887636'},</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
         <v>47</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>214</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G170" t="str">
-        <f t="shared" si="2"/>
+      <c r="F171" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G171" t="str">
+        <f>"{name:" &amp; "['"&amp;A171&amp;"'"&amp;IF(ISBLANK(B171),"",",'"&amp;B171&amp;"'")&amp;"],addr:" &amp; "'" &amp;C171&amp;"',x:"&amp; "'" &amp;D171&amp;"',y:"&amp; "'" &amp;E171&amp;"'},"</f>
         <v>{name:['포스코송도 R&amp;D센터KB'],addr:'인천광역시 연수구 송도과학로 100',x:'926384.4323779428',y:'1931453.2860596376'},</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
         <v>53</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C172" t="s">
         <v>220</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G171" t="str">
-        <f t="shared" si="2"/>
+      <c r="F172" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G172" t="str">
+        <f>"{name:" &amp; "['"&amp;A172&amp;"'"&amp;IF(ISBLANK(B172),"",",'"&amp;B172&amp;"'")&amp;"],addr:" &amp; "'" &amp;C172&amp;"',x:"&amp; "'" &amp;D172&amp;"',y:"&amp; "'" &amp;E172&amp;"'},"</f>
         <v>{name:['포스코이앤씨타워점G'],addr:'인천광역시 연수구 인천타워대로 241',x:'923372.5008990793',y:'1932935.9711958324'},</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
         <v>123</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>289</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G172" t="str">
-        <f t="shared" si="2"/>
+      <c r="F173" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G173" t="str">
+        <f>"{name:" &amp; "['"&amp;A173&amp;"'"&amp;IF(ISBLANK(B173),"",",'"&amp;B173&amp;"'")&amp;"],addr:" &amp; "'" &amp;C173&amp;"',x:"&amp; "'" &amp;D173&amp;"',y:"&amp; "'" &amp;E173&amp;"'},"</f>
         <v>{name:['하이-소래포구'],addr:'인천광역시 남동구 포구로 3',x:'932688.4409603968',y:'1933646.0883224965'},</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
         <v>22</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>189</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G173" t="str">
-        <f t="shared" si="2"/>
+      <c r="F174" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G174" t="str">
+        <f>"{name:" &amp; "['"&amp;A174&amp;"'"&amp;IF(ISBLANK(B174),"",",'"&amp;B174&amp;"'")&amp;"],addr:" &amp; "'" &amp;C174&amp;"',x:"&amp; "'" &amp;D174&amp;"',y:"&amp; "'" &amp;E174&amp;"'},"</f>
         <v>{name:['학익늘봄점G'],addr:'인천광역시 미추홀구 한나루로403번길 105',x:'925632.7361822787',y:'1938795.12119258'},</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
         <v>176</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>340</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G174" t="str">
-        <f t="shared" si="2"/>
+      <c r="F175" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G175" t="str">
+        <f>"{name:" &amp; "['"&amp;A175&amp;"'"&amp;IF(ISBLANK(B175),"",",'"&amp;B175&amp;"'")&amp;"],addr:" &amp; "'" &amp;C175&amp;"',x:"&amp; "'" &amp;D175&amp;"',y:"&amp; "'" &amp;E175&amp;"'},"</f>
         <v>{name:['학익다송G'],addr:'인천광역시 미추홀구 소성로 162',x:'926243.6841133314',y:'1938404.1977886255'},</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
         <v>83</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C176" t="s">
         <v>250</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G175" t="str">
-        <f t="shared" si="2"/>
+      <c r="F176" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G176" t="str">
+        <f>"{name:" &amp; "['"&amp;A176&amp;"'"&amp;IF(ISBLANK(B176),"",",'"&amp;B176&amp;"'")&amp;"],addr:" &amp; "'" &amp;C176&amp;"',x:"&amp; "'" &amp;D176&amp;"',y:"&amp; "'" &amp;E176&amp;"'},"</f>
         <v>{name:['학익대로점G'],addr:'인천광역시 미추홀구 소성로 244',x:'926977.6259435453',y:'1938038.3710919674'},</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
         <v>175</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>339</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G176" t="str">
-        <f t="shared" si="2"/>
+      <c r="F177" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G177" t="str">
+        <f>"{name:" &amp; "['"&amp;A177&amp;"'"&amp;IF(ISBLANK(B177),"",",'"&amp;B177&amp;"'")&amp;"],addr:" &amp; "'" &amp;C177&amp;"',x:"&amp; "'" &amp;D177&amp;"',y:"&amp; "'" &amp;E177&amp;"'},"</f>
         <v>{name:['학익미소G'],addr:'인천광역시 미추홀구 주승로 22',x:'926826.3832888785',y:'1938596.312287895'},</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
         <v>5</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C178" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G177" t="str">
-        <f t="shared" si="2"/>
+      <c r="F178" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G178" t="str">
+        <f>"{name:" &amp; "['"&amp;A178&amp;"'"&amp;IF(ISBLANK(B178),"",",'"&amp;B178&amp;"'")&amp;"],addr:" &amp; "'" &amp;C178&amp;"',x:"&amp; "'" &amp;D178&amp;"',y:"&amp; "'" &amp;E178&amp;"'},"</f>
         <v>{name:['학익사거리점M'],addr:'인천광역시 미추홀구 매소홀로446번길 16',x:'926687.5525610019',y:'1938078.4112452823'},</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
         <v>84</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>251</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G178" t="str">
-        <f t="shared" si="2"/>
+      <c r="F179" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G179" t="str">
+        <f>"{name:" &amp; "['"&amp;A179&amp;"'"&amp;IF(ISBLANK(B179),"",",'"&amp;B179&amp;"'")&amp;"],addr:" &amp; "'" &amp;C179&amp;"',x:"&amp; "'" &amp;D179&amp;"',y:"&amp; "'" &amp;E179&amp;"'},"</f>
         <v>{name:['학익센터점G'],addr:'인천광역시 미추홀구 매소홀로446번길 4',x:'926688.1271994561',y:'1938129.2821605182'},</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
         <v>40</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>207</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G179" t="str">
-        <f t="shared" si="2"/>
+      <c r="F180" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G180" t="str">
+        <f>"{name:" &amp; "['"&amp;A180&amp;"'"&amp;IF(ISBLANK(B180),"",",'"&amp;B180&amp;"'")&amp;"],addr:" &amp; "'" &amp;C180&amp;"',x:"&amp; "'" &amp;D180&amp;"',y:"&amp; "'" &amp;E180&amp;"'},"</f>
         <v>{name:['학익점GSS'],addr:'인천광역시 미추홀구 소성로 146',x:'926064.1264832243',y:'1938437.8886083513'},</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
         <v>118</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>284</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G180" t="str">
-        <f t="shared" si="2"/>
+      <c r="F181" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G181" t="str">
+        <f>"{name:" &amp; "['"&amp;A181&amp;"'"&amp;IF(ISBLANK(B181),"",",'"&amp;B181&amp;"'")&amp;"],addr:" &amp; "'" &amp;C181&amp;"',x:"&amp; "'" &amp;D181&amp;"',y:"&amp; "'" &amp;E181&amp;"'},"</f>
         <v>{name:['학익중앙점G'],addr:'인천광역시 미추홀구 소성로185번길 16-5',x:'926531.8325332045',y:'1938402.6683132658'},</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
         <v>165</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C182" t="s">
         <v>329</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G181" t="str">
-        <f t="shared" si="2"/>
+      <c r="F182" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G182" t="str">
+        <f>"{name:" &amp; "['"&amp;A182&amp;"'"&amp;IF(ISBLANK(B182),"",",'"&amp;B182&amp;"'")&amp;"],addr:" &amp; "'" &amp;C182&amp;"',x:"&amp; "'" &amp;D182&amp;"',y:"&amp; "'" &amp;E182&amp;"'},"</f>
         <v>{name:['학익타운점G'],addr:'인천광역시 미추홀구 한나루로 350',x:'925893.6336379224',y:'1938132.127089256'},</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
         <v>1</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>0</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G182" t="str">
-        <f t="shared" si="2"/>
+      <c r="F183" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G183" t="str">
+        <f>"{name:" &amp; "['"&amp;A183&amp;"'"&amp;IF(ISBLANK(B183),"",",'"&amp;B183&amp;"'")&amp;"],addr:" &amp; "'" &amp;C183&amp;"',x:"&amp; "'" &amp;D183&amp;"',y:"&amp; "'" &amp;E183&amp;"'},"</f>
         <v>{name:['한옥마을앰배서더-SHINHAN'],addr:'인천광역시 연수구 테크노파크로 200',x:'923643.9542986592',y:'1932798.2731926683'},</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>754</v>
+      </c>
+      <c r="C184" t="s">
+        <v>753</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G184" t="str">
+        <f>"{name:" &amp; "['"&amp;A184&amp;"'"&amp;IF(ISBLANK(B184),"",",'"&amp;B184&amp;"'")&amp;"],addr:" &amp; "'" &amp;C184&amp;"',x:"&amp; "'" &amp;D184&amp;"',y:"&amp; "'" &amp;E184&amp;"'},"</f>
+        <v>{name:['한화에코11단지'],addr:'인천광역시 남동구 논고개로 17',x:'931971.8826013578',y:'1933157.4842754863'},</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>756</v>
+      </c>
+      <c r="C185" t="s">
+        <v>755</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G185" t="str">
+        <f>"{name:" &amp; "['"&amp;A185&amp;"'"&amp;IF(ISBLANK(B185),"",",'"&amp;B185&amp;"'")&amp;"],addr:" &amp; "'" &amp;C185&amp;"',x:"&amp; "'" &amp;D185&amp;"',y:"&amp; "'" &amp;E185&amp;"'},"</f>
+        <v>{name:['한화에코12단지'],addr:'인천광역시 남동구 논고개로 10',x:'932065.1035968331',y:'1933133.3493248513'},</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
         <v>33</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C186" t="s">
         <v>200</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G183" t="str">
-        <f t="shared" si="2"/>
+      <c r="F186" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G186" t="str">
+        <f>"{name:" &amp; "['"&amp;A186&amp;"'"&amp;IF(ISBLANK(B186),"",",'"&amp;B186&amp;"'")&amp;"],addr:" &amp; "'" &amp;C186&amp;"',x:"&amp; "'" &amp;D186&amp;"',y:"&amp; "'" &amp;E186&amp;"'},"</f>
         <v>{name:['한화프라자점G'],addr:'인천광역시 남동구 소래역남로 12',x:'932305.6277828533',y:'1933461.700828867'},</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
         <v>129</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C187" t="s">
         <v>295</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G184" t="str">
-        <f t="shared" si="2"/>
+      <c r="F187" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G187" t="str">
+        <f>"{name:" &amp; "['"&amp;A187&amp;"'"&amp;IF(ISBLANK(B187),"",",'"&amp;B187&amp;"'")&amp;"],addr:" &amp; "'" &amp;C187&amp;"',x:"&amp; "'" &amp;D187&amp;"',y:"&amp; "'" &amp;E187&amp;"'},"</f>
         <v>{name:['해양경비안전본부SHINHAN'],addr:'인천광역시 연수구 해돋이로 130',x:'924618.4617833635',y:'1932985.3575826176'},</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
         <v>732</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C188" t="s">
         <v>731</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G185" t="str">
-        <f t="shared" si="2"/>
+      <c r="F188" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G188" t="str">
+        <f>"{name:" &amp; "['"&amp;A188&amp;"'"&amp;IF(ISBLANK(B188),"",",'"&amp;B188&amp;"'")&amp;"],addr:" &amp; "'" &amp;C188&amp;"',x:"&amp; "'" &amp;D188&amp;"',y:"&amp; "'" &amp;E188&amp;"'},"</f>
         <v>{name:['현대 프리미엄 아울렛 송도'],addr:'인천광역시 연수구 송도국제대로 123',x:'925450.1762407259',y:'1931726.6847481355'},</v>
       </c>
     </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>70</v>
+      </c>
+      <c r="C189" t="s">
+        <v>237</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G189" t="str">
+        <f>"{name:" &amp; "['"&amp;A189&amp;"'"&amp;IF(ISBLANK(B189),"",",'"&amp;B189&amp;"'")&amp;"],addr:" &amp; "'" &amp;C189&amp;"',x:"&amp; "'" &amp;D189&amp;"',y:"&amp; "'" &amp;E189&amp;"'},"</f>
+        <v>{name:['CU연수타운점'],addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092'},</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G185"/>
+  <autoFilter ref="A1:G185" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G189">
+      <sortCondition ref="A1:A189"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyeokpark/Desktop/dev/work/atm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D5817B-B7BA-B047-8BA0-604E21213BB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0494DF6E-3B35-2C4F-9D99-7DF596B791EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$190</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$185</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="956">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -2361,6 +2361,574 @@
   </si>
   <si>
     <t>1940188.3494468476</t>
+  </si>
+  <si>
+    <t>jibun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 남동구 고잔동 626-3 (주)이츠웰</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 444-4</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 439-3</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 간석동 388-30</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 431-1 경인상가</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 고잔동 736-4</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 고잔동 349-3 석준빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 숭의동 283-11</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 740-2 소래휴먼시아3단지 상가비동</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 남촌동 649</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 남촌동 266-4</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 766-1 에코메트로9단지한화꿈에그린아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 755-1 에코메트로5단지상가</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 579-8</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 633-1 달맞이마을휴먼시아5단지 상가</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 564-1 논현주공1단지아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 649-3 아름다운타워</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 600-9 휴먼시아푸르내마을13단지 상가</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 448 논현2차푸르지오시티</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 643-1 범마을휴먼시아2단지 상가</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 619-18</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 109-40</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 647-6 호텔라르시티</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 도림동 655-5</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 도림동 651-1 현대아이파크아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 도화동 456-5</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 도화동 107-1</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 도화동 389-13 주영팰리스</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 동춘동 0 연수 서해그랑블 1단지</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 동춘동 929 연수2차풍림아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 110 송도 더샵 마스터뷰 21BL</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 217-1 만도브로제공장</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 10-42 MHE송도공장</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 913-4</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 170-1 송도 트리플스트리트</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 559</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1005-10</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 7-50 미추홀타워 별관A동</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 496-11</t>
+  </si>
+  <si>
+    <t>인천광역시 서구 마전동 988-7 신한빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 서구 가좌동 150-19 엠파크 허브</t>
+  </si>
+  <si>
+    <t>인천광역시 서구 연희동 708-6</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 선학동 406 진승빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 선학동 407-10</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 간석동 394-3 의성프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 13-1 셀트리온</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 679-3</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 66-24 유호엔시티1단지</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 678-5 중앙주차타워</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 111-79</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 66-39</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 207-3 레지던스 라이크홈</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 191-4 송도 에듀포레 푸르지오</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 17-3 더샵 그린워크2차</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 16-4 더샵 엑스포</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 17-5 송도 더샵 하버뷰 13단지</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 동춘동 812-1 라마다송도호텔</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 22-19 송도 메디컬타워</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 2-12 송도 성지리벨루스</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 83 송도 센트럴파크 푸르지오시티</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 38 송도센트럴파크호텔</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 214 송도 BRC 스마트밸리 지식산업센터</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 20-23 푸르지오월드마크</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 옥련동 550-7</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 4-1 송도 더샵 퍼스트월드</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 18-1 커낼워크D3 AUTUMN</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 172-1 송도테크노파크IT센터</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 93-1 오라카이송도파크호텔</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 8-19</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 9-6 웰카운티송도3단지</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 3-46 아이파크송도</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 21-64 인천송도힐스테이트</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 숭의동 7-129</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천동 380-14</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1469-1</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천동 712-9 신천프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 3-6 아크리아</t>
+  </si>
+  <si>
+    <t>인천광역시 서구 가좌동 178-105 엠파크타워</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 선학동 405-13 명빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 522-6</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 598-2 동순빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 선학동 398-2</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 592-5 연수동장례식장</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 558-5</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 옥련동 319-6 영남아파트상가</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 550-8</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 청학동 503-1 이리옴프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 602-3</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 575-1</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 596-7 파크타워</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 568-15</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 동춘동 936-5 웅지프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1436-5 한국씨티은행</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 옥련동 463-24</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 옥련동 199-3</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 옥련동 352-30</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 옥련동 423-1</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 옥련동 366-9</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 옥련동 253-1</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 옥련동 462-20</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 옥련동 336-5</t>
+  </si>
+  <si>
+    <t>인천광역시 중구 북성동1가 98-275</t>
+  </si>
+  <si>
+    <t>인천광역시 중구 북성동1가 98-61</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 동춘동 813</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 11-5 (주)유진로봇</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 38-7 은계센트럴타운</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 538-2 시흥성원아파트</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 286-1 영진철물</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 학익동 682-3 은혜교회</t>
+  </si>
+  <si>
+    <t>인천광역시 중구 신생동 38 동인천이마트</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 495-5</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 429-3</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 6-1 송도컨벤시아</t>
+  </si>
+  <si>
+    <t>인천광역시 서구 가좌동 540-3</t>
+  </si>
+  <si>
+    <t>인천광역시 중구 경동 187-3 예지요양병원</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 187 인천글로벌캠퍼스</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 남촌동 332-9 시온교회</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 632-1 칼리오페</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 593-6</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 631-11 에스닷몰</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 642-1 유승테라폴리스</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 431-32</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 593-8 메카리움오피스텔</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 1114 기암유치원</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 선학동 369-15</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 3-13 송도풍림아이원3단지아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 서구 신현동 272-1 서경 플러스 존</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 옥련동 285-1 원준주택</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 60-5</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1462-2 노빌리안 1</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 옥련동 93 능허대중학교</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 646-1 부티크 646</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 504</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 도화동 648-15 해피타운</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 516-8</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1004-3</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 86-5</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 104-8</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 16-1</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 138-5</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 478-50 희림상사㈜</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 272-1</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 133-3 대동빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 179-10</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 856-3</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 195-2</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 132-4</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 210-13</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 271-22</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 386-6</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 227-35</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 922-11</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 49-11</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 153-9 장원빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1523-36</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 216-2</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 29-13 송도국제업무단지 C8-2블럭 업무복합시설</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 청학동 477-7</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 고잔동 690-2</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 청학동 461-1</t>
+  </si>
+  <si>
+    <t>인천광역시 서구 청라동 167-1 청라리치아노</t>
+  </si>
+  <si>
+    <t>인천광역시 서구 청라동 156-1 청라센트럴에일린의뜰</t>
+  </si>
+  <si>
+    <t>인천광역시 서구 청라동 173-1 청라29블럭호반베르디움</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 청학동 239-4 청학문화센터</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 청학동 563-8</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 청학동 535-15</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 청학동 547-13</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 98 코스트코홀세일 송도점</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 100 송도 더샵 퍼스트파크 F13-1BL</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 180-1 포스코 글로벌 R&amp;D CENTER</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 36 부영송도타워</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 111-234</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 학익동 420-16</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 학익동 252-8 다송빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 학익동 671-4</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 학익동 649 정진프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 학익동 675-3</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 학익동 677-2</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 학익동 256-19 LG수퍼마켓 학익점</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 학익동 244-1</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 학익동 691-8</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 24-11 경원재 앰배서더 인천</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 774-1 한화꿈에그린 에코메트로11단지</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 755-4 에코메트로12단지한화꿈에그린아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 754-1 거목프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 3-8 해양경찰청</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 168-1 현대프리미엄 아울렛 송도점</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 498-6</t>
   </si>
 </sst>
 </file>
@@ -2743,7 +3311,7 @@
         <v>735</v>
       </c>
       <c r="F2" t="str">
-        <f>"{name:" &amp; "'" &amp;A2&amp;"',addr:" &amp; "'" &amp;B2&amp;"',x:"&amp; "'" &amp;C2&amp;"',y:"&amp; "'" &amp;D2&amp;"'},"</f>
+        <f t="shared" ref="F2:F33" si="0">"{name:" &amp; "'" &amp;A2&amp;"',addr:" &amp; "'" &amp;B2&amp;"',x:"&amp; "'" &amp;C2&amp;"',y:"&amp; "'" &amp;D2&amp;"'},"</f>
         <v>{name:'(주)비에스이',addr:'인천광역시 남동구 남동서로 193',x:'928448.838274891',y:'1934545.4152585235'},</v>
       </c>
     </row>
@@ -2764,7 +3332,7 @@
         <v>735</v>
       </c>
       <c r="F3" t="str">
-        <f>"{name:" &amp; "'" &amp;A3&amp;"',addr:" &amp; "'" &amp;B3&amp;"',x:"&amp; "'" &amp;C3&amp;"',y:"&amp; "'" &amp;D3&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'(주)씨에스티',addr:'인천광역시 남동구 남동대로 248',x:'929162.2536080531',y:'1934468.471045103'},</v>
       </c>
     </row>
@@ -2785,7 +3353,7 @@
         <v>735</v>
       </c>
       <c r="F4" t="str">
-        <f>"{name:" &amp; "'" &amp;A4&amp;"',addr:" &amp; "'" &amp;B4&amp;"',x:"&amp; "'" &amp;C4&amp;"',y:"&amp; "'" &amp;D4&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'(주)일야',addr:'인천광역시 남동구 은봉로 129',x:'929636.4538484735',y:'1934569.642266401'},</v>
       </c>
     </row>
@@ -2806,7 +3374,7 @@
         <v>735</v>
       </c>
       <c r="F5" t="str">
-        <f>"{name:" &amp; "'" &amp;A5&amp;"',addr:" &amp; "'" &amp;B5&amp;"',x:"&amp; "'" &amp;C5&amp;"',y:"&amp; "'" &amp;D5&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'CU연수타운점',addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092'},</v>
       </c>
     </row>
@@ -2827,7 +3395,7 @@
         <v>735</v>
       </c>
       <c r="F6" t="str">
-        <f>"{name:" &amp; "'" &amp;A6&amp;"',addr:" &amp; "'" &amp;B6&amp;"',x:"&amp; "'" &amp;C6&amp;"',y:"&amp; "'" &amp;D6&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'간석드림점G',addr:'인천광역시 남동구 석산로9번길 69',x:'929139.5206771668',y:'1940818.0201271167'},</v>
       </c>
     </row>
@@ -2848,7 +3416,7 @@
         <v>735</v>
       </c>
       <c r="F7" t="str">
-        <f>"{name:" &amp; "'" &amp;A7&amp;"',addr:" &amp; "'" &amp;B7&amp;"',x:"&amp; "'" &amp;C7&amp;"',y:"&amp; "'" &amp;D7&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'고잔엘아이점G',addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442'},</v>
       </c>
     </row>
@@ -2869,7 +3437,7 @@
         <v>735</v>
       </c>
       <c r="F8" t="str">
-        <f>"{name:" &amp; "'" &amp;A8&amp;"',addr:" &amp; "'" &amp;B8&amp;"',x:"&amp; "'" &amp;C8&amp;"',y:"&amp; "'" &amp;D8&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'고잔중앙점G',addr:'인천광역시 남동구 앵고개로 712',x:'930676.6785130233',y:'1932416.9426641734'},</v>
       </c>
     </row>
@@ -2890,7 +3458,7 @@
         <v>735</v>
       </c>
       <c r="F9" t="str">
-        <f>"{name:" &amp; "'" &amp;A9&amp;"',addr:" &amp; "'" &amp;B9&amp;"',x:"&amp; "'" &amp;C9&amp;"',y:"&amp; "'" &amp;D9&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'남구숭의점G',addr:'인천광역시 미추홀구 독배로 438',x:'924751.8764202176',y:'1940279.1432027267'},</v>
       </c>
     </row>
@@ -2911,7 +3479,7 @@
         <v>735</v>
       </c>
       <c r="F10" t="str">
-        <f>"{name:" &amp; "'" &amp;A10&amp;"',addr:" &amp; "'" &amp;B10&amp;"',x:"&amp; "'" &amp;C10&amp;"',y:"&amp; "'" &amp;D10&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'남동논현점G',addr:'인천광역시 남동구 앵고개로815번길 20',x:'931356.6721433003',y:'1933189.4978637807'},</v>
       </c>
     </row>
@@ -2932,7 +3500,7 @@
         <v>735</v>
       </c>
       <c r="F11" t="str">
-        <f>"{name:" &amp; "'" &amp;A11&amp;"',addr:" &amp; "'" &amp;B11&amp;"',x:"&amp; "'" &amp;C11&amp;"',y:"&amp; "'" &amp;D11&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'남촌중앙점G',addr:'인천광역시 남동구 남촌로84번길 38-1',x:'930709.9029618322',y:'1936926.6012936095'},</v>
       </c>
     </row>
@@ -2953,7 +3521,7 @@
         <v>735</v>
       </c>
       <c r="F12" t="str">
-        <f>"{name:" &amp; "'" &amp;A12&amp;"',addr:" &amp; "'" &amp;B12&amp;"',x:"&amp; "'" &amp;C12&amp;"',y:"&amp; "'" &amp;D12&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'남촌풍림점G',addr:'인천광역시 남동구 남촌로 87',x:'930519.5241960534',y:'1936924.5501427501'},</v>
       </c>
     </row>
@@ -2974,7 +3542,7 @@
         <v>735</v>
       </c>
       <c r="F13" t="str">
-        <f>"{name:" &amp; "'" &amp;A13&amp;"',addr:" &amp; "'" &amp;B13&amp;"',x:"&amp; "'" &amp;C13&amp;"',y:"&amp; "'" &amp;D13&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'논현9단지점G',addr:'인천광역시 남동구 에코중앙로 96',x:'931082.9144479546',y:'1932299.9763963223'},</v>
       </c>
     </row>
@@ -2995,7 +3563,7 @@
         <v>735</v>
       </c>
       <c r="F14" t="str">
-        <f>"{name:" &amp; "'" &amp;A14&amp;"',addr:" &amp; "'" &amp;B14&amp;"',x:"&amp; "'" &amp;C14&amp;"',y:"&amp; "'" &amp;D14&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'논현그린점G',addr:'인천광역시 남동구 소래역남로 41',x:'932050.8703605854',y:'1933616.1930220574'},</v>
       </c>
     </row>
@@ -3016,7 +3584,7 @@
         <v>735</v>
       </c>
       <c r="F15" t="str">
-        <f>"{name:" &amp; "'" &amp;A15&amp;"',addr:" &amp; "'" &amp;B15&amp;"',x:"&amp; "'" &amp;C15&amp;"',y:"&amp; "'" &amp;D15&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'논현논곡점G',addr:'인천광역시 남동구 은봉로165번길 70',x:'930117.4696603667',y:'1934690.2941433568'},</v>
       </c>
     </row>
@@ -3037,7 +3605,7 @@
         <v>735</v>
       </c>
       <c r="F16" t="str">
-        <f>"{name:" &amp; "'" &amp;A16&amp;"',addr:" &amp; "'" &amp;B16&amp;"',x:"&amp; "'" &amp;C16&amp;"',y:"&amp; "'" &amp;D16&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'논현본점G',addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222'},</v>
       </c>
     </row>
@@ -3058,7 +3626,7 @@
         <v>735</v>
       </c>
       <c r="F17" t="str">
-        <f>"{name:" &amp; "'" &amp;A17&amp;"',addr:" &amp; "'" &amp;B17&amp;"',x:"&amp; "'" &amp;C17&amp;"',y:"&amp; "'" &amp;D17&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'논현사리울점G',addr:'인천광역시 남동구 호구포로 294',x:'930380.131301852',y:'1934682.26347306'},</v>
       </c>
     </row>
@@ -3079,7 +3647,7 @@
         <v>735</v>
       </c>
       <c r="F18" t="str">
-        <f>"{name:" &amp; "'" &amp;A18&amp;"',addr:" &amp; "'" &amp;B18&amp;"',x:"&amp; "'" &amp;C18&amp;"',y:"&amp; "'" &amp;D18&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'논현타워점G',addr:'인천광역시 남동구 논고개로 101',x:'931351.6498332566',y:'1933713.8792295498'},</v>
       </c>
     </row>
@@ -3100,7 +3668,7 @@
         <v>735</v>
       </c>
       <c r="F19" t="str">
-        <f>"{name:" &amp; "'" &amp;A19&amp;"',addr:" &amp; "'" &amp;B19&amp;"',x:"&amp; "'" &amp;C19&amp;"',y:"&amp; "'" &amp;D19&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'논현푸르내점G',addr:'인천광역시 남동구 포구로 96',x:'932234.2407277152',y:'1934439.1704077376'},</v>
       </c>
     </row>
@@ -3121,7 +3689,7 @@
         <v>735</v>
       </c>
       <c r="F20" t="str">
-        <f>"{name:" &amp; "'" &amp;A20&amp;"',addr:" &amp; "'" &amp;B20&amp;"',x:"&amp; "'" &amp;C20&amp;"',y:"&amp; "'" &amp;D20&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'논현푸르지오점G',addr:'인천광역시 남동구 남동서로236번길 30',x:'928769.7605027566',y:'1934796.3489991403'},</v>
       </c>
     </row>
@@ -3142,7 +3710,7 @@
         <v>735</v>
       </c>
       <c r="F21" t="str">
-        <f>"{name:" &amp; "'" &amp;A21&amp;"',addr:" &amp; "'" &amp;B21&amp;"',x:"&amp; "'" &amp;C21&amp;"',y:"&amp; "'" &amp;D21&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'논현하늘소점G',addr:'인천광역시 남동구 논현로 17',x:'929976.1893208527',y:'1934125.684656498'},</v>
       </c>
     </row>
@@ -3163,7 +3731,7 @@
         <v>735</v>
       </c>
       <c r="F22" t="str">
-        <f>"{name:" &amp; "'" &amp;A22&amp;"',addr:" &amp; "'" &amp;B22&amp;"',x:"&amp; "'" &amp;C22&amp;"',y:"&amp; "'" &amp;D22&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'논현행복점G',addr:'인천광역시 남동구 논현로 152',x:'931221.0594972067',y:'1934106.1328947735'},</v>
       </c>
     </row>
@@ -3184,7 +3752,7 @@
         <v>735</v>
       </c>
       <c r="F23" t="str">
-        <f>"{name:" &amp; "'" &amp;A23&amp;"',addr:" &amp; "'" &amp;B23&amp;"',x:"&amp; "'" &amp;C23&amp;"',y:"&amp; "'" &amp;D23&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'논현현대식자재마트',addr:'인천광역시 남동구 포구로 69',x:'932397.976608831',y:'1934223.199099741'},</v>
       </c>
     </row>
@@ -3205,7 +3773,7 @@
         <v>735</v>
       </c>
       <c r="F24" t="str">
-        <f>"{name:" &amp; "'" &amp;A24&amp;"',addr:" &amp; "'" &amp;B24&amp;"',x:"&amp; "'" &amp;C24&amp;"',y:"&amp; "'" &amp;D24&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'논현호구포점G',addr:'인천광역시 남동구 호구포로 209',x:'929995.2392286886',y:'1933932.6975875972'},</v>
       </c>
     </row>
@@ -3226,7 +3794,7 @@
         <v>735</v>
       </c>
       <c r="F25" t="str">
-        <f>"{name:" &amp; "'" &amp;A25&amp;"',addr:" &amp; "'" &amp;B25&amp;"',x:"&amp; "'" &amp;C25&amp;"',y:"&amp; "'" &amp;D25&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'도림벽산점G',addr:'인천광역시 남동구 도림로 5-1',x:'931800.7220110968',y:'1935999.2065084004'},</v>
       </c>
     </row>
@@ -3247,7 +3815,7 @@
         <v>735</v>
       </c>
       <c r="F26" t="str">
-        <f>"{name:" &amp; "'" &amp;A26&amp;"',addr:" &amp; "'" &amp;B26&amp;"',x:"&amp; "'" &amp;C26&amp;"',y:"&amp; "'" &amp;D26&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'도림아이파크점G',addr:'인천광역시 남동구 도리미로 8',x:'931913.8111496232',y:'1936148.2539673'},</v>
       </c>
     </row>
@@ -3268,7 +3836,7 @@
         <v>735</v>
       </c>
       <c r="F27" t="str">
-        <f>"{name:" &amp; "'" &amp;A27&amp;"',addr:" &amp; "'" &amp;B27&amp;"',x:"&amp; "'" &amp;C27&amp;"',y:"&amp; "'" &amp;D27&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'도화 길목G',addr:'인천광역시 미추홀구 한나루로586번길 46',x:'926983.470680593',y:'1940180.8585922741'},</v>
       </c>
     </row>
@@ -3289,7 +3857,7 @@
         <v>735</v>
       </c>
       <c r="F28" t="str">
-        <f>"{name:" &amp; "'" &amp;A28&amp;"',addr:" &amp; "'" &amp;B28&amp;"',x:"&amp; "'" &amp;C28&amp;"',y:"&amp; "'" &amp;D28&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'도화진주점G',addr:'인천광역시 미추홀구 석정로323번길 43',x:'926556.1723330859',y:'1941432.2902734857'},</v>
       </c>
     </row>
@@ -3310,7 +3878,7 @@
         <v>735</v>
       </c>
       <c r="F29" t="str">
-        <f>"{name:" &amp; "'" &amp;A29&amp;"',addr:" &amp; "'" &amp;B29&amp;"',x:"&amp; "'" &amp;C29&amp;"',y:"&amp; "'" &amp;D29&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'도화팰리스점G',addr:'인천광역시 미추홀구 경인로 301',x:'926987.0691978035',y:'1940461.0685464954'},</v>
       </c>
     </row>
@@ -3331,7 +3899,7 @@
         <v>735</v>
       </c>
       <c r="F30" t="str">
-        <f>"{name:" &amp; "'" &amp;A30&amp;"',addr:" &amp; "'" &amp;B30&amp;"',x:"&amp; "'" &amp;C30&amp;"',y:"&amp; "'" &amp;D30&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'동춘서해점G',addr:'인천광역시 연수구 봉재산로 20',x:'926197.1109902868',y:'1934885.043063439'},</v>
       </c>
     </row>
@@ -3352,7 +3920,7 @@
         <v>735</v>
       </c>
       <c r="F31" t="str">
-        <f>"{name:" &amp; "'" &amp;A31&amp;"',addr:" &amp; "'" &amp;B31&amp;"',x:"&amp; "'" &amp;C31&amp;"',y:"&amp; "'" &amp;D31&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'동춘풍림점G',addr:'인천광역시 연수구 경원대로119번길 21',x:'926969.1834998771',y:'1933933.1206172006'},</v>
       </c>
     </row>
@@ -3373,7 +3941,7 @@
         <v>735</v>
       </c>
       <c r="F32" t="str">
-        <f>"{name:" &amp; "'" &amp;A32&amp;"',addr:" &amp; "'" &amp;B32&amp;"',x:"&amp; "'" &amp;C32&amp;"',y:"&amp; "'" &amp;D32&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'마스터뷰21호점G',addr:'인천광역시 연수구 컨벤시아대로274번길 55',x:'922947.2055729781',y:'1932085.0274891593'},</v>
       </c>
     </row>
@@ -3394,7 +3962,7 @@
         <v>735</v>
       </c>
       <c r="F33" t="str">
-        <f>"{name:" &amp; "'" &amp;A33&amp;"',addr:" &amp; "'" &amp;B33&amp;"',x:"&amp; "'" &amp;C33&amp;"',y:"&amp; "'" &amp;D33&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{name:'만도헬라일렉트로닉스(주)-WOORI',addr:'인천광역시 연수구 하모니로 224',x:'923721.6646240482',y:'1931399.019956504'},</v>
       </c>
     </row>
@@ -3415,7 +3983,7 @@
         <v>735</v>
       </c>
       <c r="F34" t="str">
-        <f>"{name:" &amp; "'" &amp;A34&amp;"',addr:" &amp; "'" &amp;B34&amp;"',x:"&amp; "'" &amp;C34&amp;"',y:"&amp; "'" &amp;D34&amp;"'},"</f>
+        <f t="shared" ref="F34:F65" si="1">"{name:" &amp; "'" &amp;A34&amp;"',addr:" &amp; "'" &amp;B34&amp;"',x:"&amp; "'" &amp;C34&amp;"',y:"&amp; "'" &amp;D34&amp;"'},"</f>
         <v>{name:'만수숭의점G',addr:'인천광역시 남동구 구월말로58번길 1',x:'931460.6338070568',y:'1939723.2555402233'},</v>
       </c>
     </row>
@@ -3436,7 +4004,7 @@
         <v>736</v>
       </c>
       <c r="F35" t="str">
-        <f>"{name:" &amp; "'" &amp;A35&amp;"',addr:" &amp; "'" &amp;B35&amp;"',x:"&amp; "'" &amp;C35&amp;"',y:"&amp; "'" &amp;D35&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'주안동궁전예식장 결합부스',addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243'},</v>
       </c>
     </row>
@@ -3457,7 +4025,7 @@
         <v>735</v>
       </c>
       <c r="F36" t="str">
-        <f>"{name:" &amp; "'" &amp;A36&amp;"',addr:" &amp; "'" &amp;B36&amp;"',x:"&amp; "'" &amp;C36&amp;"',y:"&amp; "'" &amp;D36&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'무지개할인마트',addr:'인천광역시 연수구 새말로36번길 11',x:'926976.9262094533',y:'1936160.6680197665'},</v>
       </c>
     </row>
@@ -3478,7 +4046,7 @@
         <v>735</v>
       </c>
       <c r="F37" t="str">
-        <f>"{name:" &amp; "'" &amp;A37&amp;"',addr:" &amp; "'" &amp;B37&amp;"',x:"&amp; "'" &amp;C37&amp;"',y:"&amp; "'" &amp;D37&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'미니24-인천',addr:'인천광역시 미추홀구 경인로 437',x:'928246.1295577467',y:'1940192.399497855'},</v>
       </c>
     </row>
@@ -3499,7 +4067,7 @@
         <v>735</v>
       </c>
       <c r="F38" t="str">
-        <f>"{name:" &amp; "'" &amp;A38&amp;"',addr:" &amp; "'" &amp;B38&amp;"',x:"&amp; "'" &amp;C38&amp;"',y:"&amp; "'" &amp;D38&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'미추홀타워점G',addr:'인천광역시 연수구 갯벌로 12',x:'925064.2345959987',y:'1931830.2383670015'},</v>
       </c>
     </row>
@@ -3520,7 +4088,7 @@
         <v>735</v>
       </c>
       <c r="F39" t="str">
-        <f>"{name:" &amp; "'" &amp;A39&amp;"',addr:" &amp; "'" &amp;B39&amp;"',x:"&amp; "'" &amp;C39&amp;"',y:"&amp; "'" &amp;D39&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'보금마트-연수',addr:'인천광역시 연수구 함박로25번길 2',x:'927463.1199536233',y:'1936627.06679082'},</v>
       </c>
     </row>
@@ -3541,7 +4109,7 @@
         <v>735</v>
       </c>
       <c r="F40" t="str">
-        <f>"{name:" &amp; "'" &amp;A40&amp;"',addr:" &amp; "'" &amp;B40&amp;"',x:"&amp; "'" &amp;C40&amp;"',y:"&amp; "'" &amp;D40&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'서구검단고점G',addr:'인천광역시 서구 검단로 532',x:'926110.4926230235',y:'1956373.3558248538'},</v>
       </c>
     </row>
@@ -3562,7 +4130,7 @@
         <v>735</v>
       </c>
       <c r="F41" t="str">
-        <f>"{name:" &amp; "'" &amp;A41&amp;"',addr:" &amp; "'" &amp;B41&amp;"',x:"&amp; "'" &amp;C41&amp;"',y:"&amp; "'" &amp;D41&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'서구엠파크점G',addr:'인천광역시 서구 염곡로 52',x:'926244.9221541481',y:'1943755.5184864542'},</v>
       </c>
     </row>
@@ -3583,7 +4151,7 @@
         <v>735</v>
       </c>
       <c r="F42" t="str">
-        <f>"{name:" &amp; "'" &amp;A42&amp;"',addr:" &amp; "'" &amp;B42&amp;"',x:"&amp; "'" &amp;C42&amp;"',y:"&amp; "'" &amp;D42&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'서구연희점G',addr:'인천광역시 서구 간촌로 9',x:'927388.9430976734',y:'1950308.0950684836'},</v>
       </c>
     </row>
@@ -3604,7 +4172,7 @@
         <v>735</v>
       </c>
       <c r="F43" t="str">
-        <f>"{name:" &amp; "'" &amp;A43&amp;"',addr:" &amp; "'" &amp;B43&amp;"',x:"&amp; "'" &amp;C43&amp;"',y:"&amp; "'" &amp;D43&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'선학역점M',addr:'인천광역시 연수구 학나래로118번길 23',x:'929081.3471575531',y:'1936767.7973411446'},</v>
       </c>
     </row>
@@ -3625,7 +4193,7 @@
         <v>735</v>
       </c>
       <c r="F44" t="str">
-        <f>"{name:" &amp; "'" &amp;A44&amp;"',addr:" &amp; "'" &amp;B44&amp;"',x:"&amp; "'" &amp;C44&amp;"',y:"&amp; "'" &amp;D44&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'선학중앙G',addr:'인천광역시 연수구 학나래로6번길 32',x:'929030.9872679301',y:'1936439.7252242365'},</v>
       </c>
     </row>
@@ -3646,7 +4214,7 @@
         <v>735</v>
       </c>
       <c r="F45" t="str">
-        <f>"{name:" &amp; "'" &amp;A45&amp;"',addr:" &amp; "'" &amp;B45&amp;"',x:"&amp; "'" &amp;C45&amp;"',y:"&amp; "'" &amp;D45&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'세븐일레븐-인천간석역점',addr:'인천광역시 남동구 석산로 3',x:'928759.3617110967',y:'1940883.321277853'},</v>
       </c>
     </row>
@@ -3667,7 +4235,7 @@
         <v>735</v>
       </c>
       <c r="F46" t="str">
-        <f>"{name:" &amp; "'" &amp;A46&amp;"',addr:" &amp; "'" &amp;B46&amp;"',x:"&amp; "'" &amp;C46&amp;"',y:"&amp; "'" &amp;D46&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'셀트리온 제2공장 3층WOORI',addr:'인천광역시 연수구 아카데미로51번길 20',x:'923862.253035788',y:'1930721.5154832513'},</v>
       </c>
     </row>
@@ -3688,7 +4256,7 @@
         <v>735</v>
       </c>
       <c r="F47" t="str">
-        <f>"{name:" &amp; "'" &amp;A47&amp;"',addr:" &amp; "'" &amp;B47&amp;"',x:"&amp; "'" &amp;C47&amp;"',y:"&amp; "'" &amp;D47&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'소래베스트점G',addr:'인천광역시 남동구 소래역로 20',x:'932409.8016257668',y:'1933619.6491731368'},</v>
       </c>
     </row>
@@ -3709,7 +4277,7 @@
         <v>735</v>
       </c>
       <c r="F48" t="str">
-        <f>"{name:" &amp; "'" &amp;A48&amp;"',addr:" &amp; "'" &amp;B48&amp;"',x:"&amp; "'" &amp;C48&amp;"',y:"&amp; "'" &amp;D48&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'소래시티점G',addr:'인천광역시 남동구 포구로 35',x:'932559.6363396579',y:'1933938.546323114'},</v>
       </c>
     </row>
@@ -3730,7 +4298,7 @@
         <v>735</v>
       </c>
       <c r="F49" t="str">
-        <f>"{name:" &amp; "'" &amp;A49&amp;"',addr:" &amp; "'" &amp;B49&amp;"',x:"&amp; "'" &amp;C49&amp;"',y:"&amp; "'" &amp;D49&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'소래중앙점G',addr:'인천광역시 남동구 소래역로18번길 15',x:'932472.0993263312',y:'1933643.4917039908'},</v>
       </c>
     </row>
@@ -3751,7 +4319,7 @@
         <v>735</v>
       </c>
       <c r="F50" t="str">
-        <f>"{name:" &amp; "'" &amp;A50&amp;"',addr:" &amp; "'" &amp;B50&amp;"',x:"&amp; "'" &amp;C50&amp;"',y:"&amp; "'" &amp;D50&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'소래포구점G',addr:'인천광역시 남동구 장도로 85',x:'932594.8315246161',y:'1933497.9901714372'},</v>
       </c>
     </row>
@@ -3772,7 +4340,7 @@
         <v>735</v>
       </c>
       <c r="F51" t="str">
-        <f>"{name:" &amp; "'" &amp;A51&amp;"',addr:" &amp; "'" &amp;B51&amp;"',x:"&amp; "'" &amp;C51&amp;"',y:"&amp; "'" &amp;D51&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'소래풍림점G',addr:'인천광역시 남동구 포구로 64-29',x:'932494.2900207366',y:'1934308.7269807002'},</v>
       </c>
     </row>
@@ -3793,7 +4361,7 @@
         <v>735</v>
       </c>
       <c r="F52" t="str">
-        <f>"{name:" &amp; "'" &amp;A52&amp;"',addr:" &amp; "'" &amp;B52&amp;"',x:"&amp; "'" &amp;C52&amp;"',y:"&amp; "'" &amp;D52&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'송도 라이크홈기숙사-KEB하나',addr:'인천광역시 연수구 첨단대로 80',x:'925077.5744217939',y:'1930163.4990456211'},</v>
       </c>
     </row>
@@ -3814,7 +4382,7 @@
         <v>736</v>
       </c>
       <c r="F53" t="str">
-        <f>"{name:" &amp; "'" &amp;A53&amp;"',addr:" &amp; "'" &amp;B53&amp;"',x:"&amp; "'" &amp;C53&amp;"',y:"&amp; "'" &amp;D53&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'주안으뜸점G',addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243'},</v>
       </c>
     </row>
@@ -3835,7 +4403,7 @@
         <v>735</v>
       </c>
       <c r="F54" t="str">
-        <f>"{name:" &amp; "'" &amp;A54&amp;"',addr:" &amp; "'" &amp;B54&amp;"',x:"&amp; "'" &amp;C54&amp;"',y:"&amp; "'" &amp;D54&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'송도그림워크점GSS',addr:'인천광역시 연수구 아트센터대로97번길 15',x:'923949.5984413391',y:'1933886.2199624083'},</v>
       </c>
     </row>
@@ -3856,7 +4424,7 @@
         <v>735</v>
       </c>
       <c r="F55" t="str">
-        <f>"{name:" &amp; "'" &amp;A55&amp;"',addr:" &amp; "'" &amp;B55&amp;"',x:"&amp; "'" &amp;C55&amp;"',y:"&amp; "'" &amp;D55&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'송도더샵엑스포KB',addr:'인천광역시 연수구 컨벤시아대로42번길 95',x:'924238.7160272836',y:'1934178.4920383645'},</v>
       </c>
     </row>
@@ -3877,7 +4445,7 @@
         <v>735</v>
       </c>
       <c r="F56" t="str">
-        <f>"{name:" &amp; "'" &amp;A56&amp;"',addr:" &amp; "'" &amp;B56&amp;"',x:"&amp; "'" &amp;C56&amp;"',y:"&amp; "'" &amp;D56&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'송도더샵점G',addr:'인천광역시 연수구 아트센터대로97번길 75',x:'924389.3127429485',y:'1933490.9978888235'},</v>
       </c>
     </row>
@@ -3898,7 +4466,7 @@
         <v>735</v>
       </c>
       <c r="F57" t="str">
-        <f>"{name:" &amp; "'" &amp;A57&amp;"',addr:" &amp; "'" &amp;B57&amp;"',x:"&amp; "'" &amp;C57&amp;"',y:"&amp; "'" &amp;D57&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'송도라마다점G',addr:'인천광역시 연수구 능허대로267번길 29',x:'925239.3006682626',y:'1935277.2973558633'},</v>
       </c>
     </row>
@@ -3919,7 +4487,7 @@
         <v>735</v>
       </c>
       <c r="F58" t="str">
-        <f>"{name:" &amp; "'" &amp;A58&amp;"',addr:" &amp; "'" &amp;B58&amp;"',x:"&amp; "'" &amp;C58&amp;"',y:"&amp; "'" &amp;D58&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'송도메디점G',addr:'인천광역시 연수구 컨벤시아대로130번길 14',x:'924308.0890260204',y:'1932993.4899920663'},</v>
       </c>
     </row>
@@ -3940,7 +4508,7 @@
         <v>735</v>
       </c>
       <c r="F59" t="str">
-        <f>"{name:" &amp; "'" &amp;A59&amp;"',addr:" &amp; "'" &amp;B59&amp;"',x:"&amp; "'" &amp;C59&amp;"',y:"&amp; "'" &amp;D59&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'송도성지점G',addr:'인천광역시 연수구 신송로6번길 7',x:'925894.2303461249',y:'1932625.2375938715'},</v>
       </c>
     </row>
@@ -3961,7 +4529,7 @@
         <v>736</v>
       </c>
       <c r="F60" t="str">
-        <f>"{name:" &amp; "'" &amp;A60&amp;"',addr:" &amp; "'" &amp;B60&amp;"',x:"&amp; "'" &amp;C60&amp;"',y:"&amp; "'" &amp;D60&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'메리빌리아-송도',addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588'},</v>
       </c>
     </row>
@@ -3982,7 +4550,7 @@
         <v>735</v>
       </c>
       <c r="F61" t="str">
-        <f>"{name:" &amp; "'" &amp;A61&amp;"',addr:" &amp; "'" &amp;B61&amp;"',x:"&amp; "'" &amp;C61&amp;"',y:"&amp; "'" &amp;D61&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'송도센트럴파크호텔',addr:'인천광역시 연수구 테크노파크로 193',x:'923641.9774963101',y:'1932732.2588121234'},</v>
       </c>
     </row>
@@ -4003,7 +4571,7 @@
         <v>735</v>
       </c>
       <c r="F62" t="str">
-        <f>"{name:" &amp; "'" &amp;A62&amp;"',addr:" &amp; "'" &amp;B62&amp;"',x:"&amp; "'" &amp;C62&amp;"',y:"&amp; "'" &amp;D62&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'송도스마트밸리점G',addr:'인천광역시 연수구 송도미래로 30',x:'924568.090254779',y:'1930236.501307576'},</v>
       </c>
     </row>
@@ -4024,7 +4592,7 @@
         <v>735</v>
       </c>
       <c r="F63" t="str">
-        <f>"{name:" &amp; "'" &amp;A63&amp;"',addr:" &amp; "'" &amp;B63&amp;"',x:"&amp; "'" &amp;C63&amp;"',y:"&amp; "'" &amp;D63&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'송도월드마크점M',addr:'인천광역시 연수구 컨벤시아대로 60',x:'924851.1126633752',y:'1933442.4269422777'},</v>
       </c>
     </row>
@@ -4045,7 +4613,7 @@
         <v>735</v>
       </c>
       <c r="F64" t="str">
-        <f>"{name:" &amp; "'" &amp;A64&amp;"',addr:" &amp; "'" &amp;B64&amp;"',x:"&amp; "'" &amp;C64&amp;"',y:"&amp; "'" &amp;D64&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'송도유원지점G',addr:'인천광역시 연수구 능허대로 203',x:'924862.0970530566',y:'1935734.32011165'},</v>
       </c>
     </row>
@@ -4066,7 +4634,7 @@
         <v>735</v>
       </c>
       <c r="F65" t="str">
-        <f>"{name:" &amp; "'" &amp;A65&amp;"',addr:" &amp; "'" &amp;B65&amp;"',x:"&amp; "'" &amp;C65&amp;"',y:"&amp; "'" &amp;D65&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{name:'송도점-GSS',addr:'인천광역시 연수구 해돋이로 107',x:'924778.2391112824',y:'1932822.1059526857'},</v>
       </c>
     </row>
@@ -4087,7 +4655,7 @@
         <v>735</v>
       </c>
       <c r="F66" t="str">
-        <f>"{name:" &amp; "'" &amp;A66&amp;"',addr:" &amp; "'" &amp;B66&amp;"',x:"&amp; "'" &amp;C66&amp;"',y:"&amp; "'" &amp;D66&amp;"'},"</f>
+        <f t="shared" ref="F66:F97" si="2">"{name:" &amp; "'" &amp;A66&amp;"',addr:" &amp; "'" &amp;B66&amp;"',x:"&amp; "'" &amp;C66&amp;"',y:"&amp; "'" &amp;D66&amp;"'},"</f>
         <v>{name:'송도커넬워크점G',addr:'인천광역시 연수구 아트센터대로 107',x:'923751.8781831791',y:'1933894.0553808152'},</v>
       </c>
     </row>
@@ -4108,7 +4676,7 @@
         <v>735</v>
       </c>
       <c r="F67" t="str">
-        <f>"{name:" &amp; "'" &amp;A67&amp;"',addr:" &amp; "'" &amp;B67&amp;"',x:"&amp; "'" &amp;C67&amp;"',y:"&amp; "'" &amp;D67&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'송도테크노파크IT센터SHINHAN',addr:'인천광역시 연수구 송도과학로 32',x:'925841.3207283262',y:'1931743.5380926528'},</v>
       </c>
     </row>
@@ -4129,7 +4697,7 @@
         <v>736</v>
       </c>
       <c r="F68" t="str">
-        <f>"{name:" &amp; "'" &amp;A68&amp;"',addr:" &amp; "'" &amp;B68&amp;"',x:"&amp; "'" &amp;C68&amp;"',y:"&amp; "'" &amp;D68&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'송도트리플점G',addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588'},</v>
       </c>
     </row>
@@ -4150,7 +4718,7 @@
         <v>735</v>
       </c>
       <c r="F69" t="str">
-        <f>"{name:" &amp; "'" &amp;A69&amp;"',addr:" &amp; "'" &amp;B69&amp;"',x:"&amp; "'" &amp;C69&amp;"',y:"&amp; "'" &amp;D69&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'송도파크호텔WOORI',addr:'인천광역시 연수구 테크노파크로 151',x:'923940.5490371233',y:'1932461.3960087532'},</v>
       </c>
     </row>
@@ -4171,7 +4739,7 @@
         <v>736</v>
       </c>
       <c r="F70" t="str">
-        <f>"{name:" &amp; "'" &amp;A70&amp;"',addr:" &amp; "'" &amp;B70&amp;"',x:"&amp; "'" &amp;C70&amp;"',y:"&amp; "'" &amp;D70&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'인천글로벌운영재단',addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412'},</v>
       </c>
     </row>
@@ -4192,7 +4760,7 @@
         <v>735</v>
       </c>
       <c r="F71" t="str">
-        <f>"{name:" &amp; "'" &amp;A71&amp;"',addr:" &amp; "'" &amp;B71&amp;"',x:"&amp; "'" &amp;C71&amp;"',y:"&amp; "'" &amp;D71&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'송도하모니점G',addr:'인천광역시 연수구 하모니로 124',x:'924325.4107504063',y:'1932184.2251096321'},</v>
       </c>
     </row>
@@ -4213,7 +4781,7 @@
         <v>735</v>
       </c>
       <c r="F72" t="str">
-        <f>"{name:" &amp; "'" &amp;A72&amp;"',addr:" &amp; "'" &amp;B72&amp;"',x:"&amp; "'" &amp;C72&amp;"',y:"&amp; "'" &amp;D72&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'송도해송점G',addr:'인천광역시 연수구 해송로30번길 19',x:'924385.1257843729',y:'1931691.8597509419'},</v>
       </c>
     </row>
@@ -4234,7 +4802,7 @@
         <v>735</v>
       </c>
       <c r="F73" t="str">
-        <f>"{name:" &amp; "'" &amp;A73&amp;"',addr:" &amp; "'" &amp;B73&amp;"',x:"&amp; "'" &amp;C73&amp;"',y:"&amp; "'" &amp;D73&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'송도현대점G',addr:'인천광역시 연수구 해돋이로6번길 7',x:'925627.0584128611',y:'1932281.0568902749'},</v>
       </c>
     </row>
@@ -4255,7 +4823,7 @@
         <v>735</v>
       </c>
       <c r="F74" t="str">
-        <f>"{name:" &amp; "'" &amp;A74&amp;"',addr:" &amp; "'" &amp;B74&amp;"',x:"&amp; "'" &amp;C74&amp;"',y:"&amp; "'" &amp;D74&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'송도힐스점G',addr:'인천광역시 연수구 컨벤시아대로 90',x:'924647.7513800692',y:'1933202.8066080627'},</v>
       </c>
     </row>
@@ -4276,7 +4844,7 @@
         <v>735</v>
       </c>
       <c r="F75" t="str">
-        <f>"{name:" &amp; "'" &amp;A75&amp;"',addr:" &amp; "'" &amp;B75&amp;"',x:"&amp; "'" &amp;C75&amp;"',y:"&amp; "'" &amp;D75&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'숭의길목점G',addr:'인천광역시 미추홀구 수봉안길 16',x:'925635.7302395517',y:'1940618.206504576'},</v>
       </c>
     </row>
@@ -4297,7 +4865,7 @@
         <v>735</v>
       </c>
       <c r="F76" t="str">
-        <f>"{name:" &amp; "'" &amp;A76&amp;"',addr:" &amp; "'" &amp;B76&amp;"',x:"&amp; "'" &amp;C76&amp;"',y:"&amp; "'" &amp;D76&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'시흥신창점G',addr:'경기도 시흥시 신천4길 12',x:'936418.8711248166',y:'1937926.4969950966'},</v>
       </c>
     </row>
@@ -4318,7 +4886,7 @@
         <v>735</v>
       </c>
       <c r="F77" t="str">
-        <f>"{name:" &amp; "'" &amp;A77&amp;"',addr:" &amp; "'" &amp;B77&amp;"',x:"&amp; "'" &amp;C77&amp;"',y:"&amp; "'" &amp;D77&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'신기사거리점G',addr:'인천광역시 미추홀구 미추홀대로 610',x:'927475.7843919608',y:'1939483.3085580925'},</v>
       </c>
     </row>
@@ -4339,7 +4907,7 @@
         <v>735</v>
       </c>
       <c r="F78" t="str">
-        <f>"{name:" &amp; "'" &amp;A78&amp;"',addr:" &amp; "'" &amp;B78&amp;"',x:"&amp; "'" &amp;C78&amp;"',y:"&amp; "'" &amp;D78&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'신천동국민은행 결합부스',addr:'경기도 시흥시 수인로 3372',x:'936693.2910999567',y:'1938235.12572021'},</v>
       </c>
     </row>
@@ -4360,7 +4928,7 @@
         <v>735</v>
       </c>
       <c r="F79" t="str">
-        <f>"{name:" &amp; "'" &amp;A79&amp;"',addr:" &amp; "'" &amp;B79&amp;"',x:"&amp; "'" &amp;C79&amp;"',y:"&amp; "'" &amp;D79&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'아크리아점G',addr:'인천광역시 연수구 신송로125번길 13',x:'924866.6899020134',y:'1933167.18251291'},</v>
       </c>
     </row>
@@ -4381,7 +4949,7 @@
         <v>736</v>
       </c>
       <c r="F80" t="str">
-        <f>"{name:" &amp; "'" &amp;A80&amp;"',addr:" &amp; "'" &amp;B80&amp;"',x:"&amp; "'" &amp;C80&amp;"',y:"&amp; "'" &amp;D80&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'한국뉴욕주립대학교 결합부스',addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412'},</v>
       </c>
     </row>
@@ -4402,7 +4970,7 @@
         <v>735</v>
       </c>
       <c r="F81" t="str">
-        <f>"{name:" &amp; "'" &amp;A81&amp;"',addr:" &amp; "'" &amp;B81&amp;"',x:"&amp; "'" &amp;C81&amp;"',y:"&amp; "'" &amp;D81&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'엠파크타워점G',addr:'인천광역시 서구 봉수대로 158',x:'925983.41854599',y:'1943696.0707750432'},</v>
       </c>
     </row>
@@ -4423,7 +4991,7 @@
         <v>735</v>
       </c>
       <c r="F82" t="str">
-        <f>"{name:" &amp; "'" &amp;A82&amp;"',addr:" &amp; "'" &amp;B82&amp;"',x:"&amp; "'" &amp;C82&amp;"',y:"&amp; "'" &amp;D82&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수경원G',addr:'인천광역시 연수구 경원대로467번길 13',x:'929009.7022006633',y:'1936610.8085542968'},</v>
       </c>
     </row>
@@ -4444,7 +5012,7 @@
         <v>735</v>
       </c>
       <c r="F83" t="str">
-        <f>"{name:" &amp; "'" &amp;A83&amp;"',addr:" &amp; "'" &amp;B83&amp;"',x:"&amp; "'" &amp;C83&amp;"',y:"&amp; "'" &amp;D83&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수골드점G',addr:'인천광역시 연수구 함박로 80',x:'927980.0656931633',y:'1936544.17710579'},</v>
       </c>
     </row>
@@ -4465,7 +5033,7 @@
         <v>735</v>
       </c>
       <c r="F84" t="str">
-        <f>"{name:" &amp; "'" &amp;A84&amp;"',addr:" &amp; "'" &amp;B84&amp;"',x:"&amp; "'" &amp;C84&amp;"',y:"&amp; "'" &amp;D84&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수단비점G',addr:'인천광역시 연수구 청능대로113번길 43',x:'927274.7641431501',y:'1935327.7588821636'},</v>
       </c>
     </row>
@@ -4486,7 +5054,7 @@
         <v>735</v>
       </c>
       <c r="F85" t="str">
-        <f>"{name:" &amp; "'" &amp;A85&amp;"',addr:" &amp; "'" &amp;B85&amp;"',x:"&amp; "'" &amp;C85&amp;"',y:"&amp; "'" &amp;D85&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수선학점G',addr:'인천광역시 연수구 넘말로29번길 21',x:'928915.90151959',y:'1936891.1488486365'},</v>
       </c>
     </row>
@@ -4507,7 +5075,7 @@
         <v>735</v>
       </c>
       <c r="F86" t="str">
-        <f>"{name:" &amp; "'" &amp;A86&amp;"',addr:" &amp; "'" &amp;B86&amp;"',x:"&amp; "'" &amp;C86&amp;"',y:"&amp; "'" &amp;D86&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수장례식장 인천내부',addr:'인천광역시 연수구 벚꽃로 122',x:'927335.7894045769',y:'1935611.3385808035'},</v>
       </c>
     </row>
@@ -4528,7 +5096,7 @@
         <v>735</v>
       </c>
       <c r="F87" t="str">
-        <f>"{name:" &amp; "'" &amp;A87&amp;"',addr:" &amp; "'" &amp;B87&amp;"',x:"&amp; "'" &amp;C87&amp;"',y:"&amp; "'" &amp;D87&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수점G',addr:'인천광역시 연수구 새말로46번길 4',x:'927054.4397459901',y:'1936127.9562478536'},</v>
       </c>
     </row>
@@ -4549,7 +5117,7 @@
         <v>735</v>
       </c>
       <c r="F88" t="str">
-        <f>"{name:" &amp; "'" &amp;A88&amp;"',addr:" &amp; "'" &amp;B88&amp;"',x:"&amp; "'" &amp;C88&amp;"',y:"&amp; "'" &amp;D88&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수점M',addr:'인천광역시 연수구 비류대로 230',x:'925700.9976564867',y:'1936753.3900593636'},</v>
       </c>
     </row>
@@ -4570,7 +5138,7 @@
         <v>735</v>
       </c>
       <c r="F89" t="str">
-        <f>"{name:" &amp; "'" &amp;A89&amp;"',addr:" &amp; "'" &amp;B89&amp;"',x:"&amp; "'" &amp;C89&amp;"',y:"&amp; "'" &amp;D89&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수중앙점G',addr:'인천광역시 연수구 새말로69번길 1',x:'927230.4884649334',y:'1935967.4642858398'},</v>
       </c>
     </row>
@@ -4591,7 +5159,7 @@
         <v>735</v>
       </c>
       <c r="F90" t="str">
-        <f>"{name:" &amp; "'" &amp;A90&amp;"',addr:" &amp; "'" &amp;B90&amp;"',x:"&amp; "'" &amp;C90&amp;"',y:"&amp; "'" &amp;D90&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수청학점M',addr:'인천광역시 연수구 먼우금로 197',x:'927097.7779245968',y:'1935413.5243354505'},</v>
       </c>
     </row>
@@ -4612,7 +5180,7 @@
         <v>735</v>
       </c>
       <c r="F91" t="str">
-        <f>"{name:" &amp; "'" &amp;A91&amp;"',addr:" &amp; "'" &amp;B91&amp;"',x:"&amp; "'" &amp;C91&amp;"',y:"&amp; "'" &amp;D91&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수타운점G',addr:'인천광역시 연수구 샘말로21번길 3',x:'927277.5510110233',y:'1935141.1890938403'},</v>
       </c>
     </row>
@@ -4633,7 +5201,7 @@
         <v>735</v>
       </c>
       <c r="F92" t="str">
-        <f>"{name:" &amp; "'" &amp;A92&amp;"',addr:" &amp; "'" &amp;B92&amp;"',x:"&amp; "'" &amp;C92&amp;"',y:"&amp; "'" &amp;D92&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수태산점G',addr:'인천광역시 연수구 먼우금로264번길 8-4',x:'927477.3679526933',y:'1935944.299351547'},</v>
       </c>
     </row>
@@ -4654,7 +5222,7 @@
         <v>735</v>
       </c>
       <c r="F93" t="str">
-        <f>"{name:" &amp; "'" &amp;A93&amp;"',addr:" &amp; "'" &amp;B93&amp;"',x:"&amp; "'" &amp;C93&amp;"',y:"&amp; "'" &amp;D93&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수파크타운점M',addr:'인천광역시 연수구 용담로 115',x:'927244.231129833',y:'1935426.1714365287'},</v>
       </c>
     </row>
@@ -4675,7 +5243,7 @@
         <v>735</v>
       </c>
       <c r="F94" t="str">
-        <f>"{name:" &amp; "'" &amp;A94&amp;"',addr:" &amp; "'" &amp;B94&amp;"',x:"&amp; "'" &amp;C94&amp;"',y:"&amp; "'" &amp;D94&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수함박점M',addr:'인천광역시 연수구 함박뫼로50번길 93',x:'927263.5188448408',y:'1935872.3548643487'},</v>
       </c>
     </row>
@@ -4696,7 +5264,7 @@
         <v>735</v>
       </c>
       <c r="F95" t="str">
-        <f>"{name:" &amp; "'" &amp;A95&amp;"',addr:" &amp; "'" &amp;B95&amp;"',x:"&amp; "'" &amp;C95&amp;"',y:"&amp; "'" &amp;D95&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'연수희망점G',addr:'인천광역시 연수구 앵고개로 256',x:'926724.2878851034',y:'1934622.8657452334'},</v>
       </c>
     </row>
@@ -4717,7 +5285,7 @@
         <v>735</v>
       </c>
       <c r="F96" t="str">
-        <f>"{name:" &amp; "'" &amp;A96&amp;"',addr:" &amp; "'" &amp;B96&amp;"',x:"&amp; "'" &amp;C96&amp;"',y:"&amp; "'" &amp;D96&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'영빌딩CITY',addr:'인천광역시 미추홀구 인하로 253',x:'927138.1700531407',y:'1939133.3534303224'},</v>
       </c>
     </row>
@@ -4738,7 +5306,7 @@
         <v>735</v>
       </c>
       <c r="F97" t="str">
-        <f>"{name:" &amp; "'" &amp;A97&amp;"',addr:" &amp; "'" &amp;B97&amp;"',x:"&amp; "'" &amp;C97&amp;"',y:"&amp; "'" &amp;D97&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{name:'옥련백산점G',addr:'인천광역시 연수구 독배로 25',x:'924316.71718126',y:'1936330.9110739832'},</v>
       </c>
     </row>
@@ -4759,7 +5327,7 @@
         <v>735</v>
       </c>
       <c r="F98" t="str">
-        <f>"{name:" &amp; "'" &amp;A98&amp;"',addr:" &amp; "'" &amp;B98&amp;"',x:"&amp; "'" &amp;C98&amp;"',y:"&amp; "'" &amp;D98&amp;"'},"</f>
+        <f t="shared" ref="F98:F129" si="3">"{name:" &amp; "'" &amp;A98&amp;"',addr:" &amp; "'" &amp;B98&amp;"',x:"&amp; "'" &amp;C98&amp;"',y:"&amp; "'" &amp;D98&amp;"'},"</f>
         <v>{name:'옥련사거리G',addr:'인천광역시 연수구 독배로 68',x:'924367.6668144872',y:'1936729.1735826507'},</v>
       </c>
     </row>
@@ -4780,7 +5348,7 @@
         <v>735</v>
       </c>
       <c r="F99" t="str">
-        <f>"{name:" &amp; "'" &amp;A99&amp;"',addr:" &amp; "'" &amp;B99&amp;"',x:"&amp; "'" &amp;C99&amp;"',y:"&amp; "'" &amp;D99&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'옥련사랑M',addr:'인천광역시 연수구 한나루로 166',x:'925293.9163142969',y:'1936455.0597683867'},</v>
       </c>
     </row>
@@ -4801,7 +5369,7 @@
         <v>735</v>
       </c>
       <c r="F100" t="str">
-        <f>"{name:" &amp; "'" &amp;A100&amp;"',addr:" &amp; "'" &amp;B100&amp;"',x:"&amp; "'" &amp;C100&amp;"',y:"&amp; "'" &amp;D100&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'옥련서해점G',addr:'인천광역시 연수구 청량로185번길 13',x:'924973.1474770068',y:'1936336.0367916236'},</v>
       </c>
     </row>
@@ -4822,7 +5390,7 @@
         <v>735</v>
       </c>
       <c r="F101" t="str">
-        <f>"{name:" &amp; "'" &amp;A101&amp;"',addr:" &amp; "'" &amp;B101&amp;"',x:"&amp; "'" &amp;C101&amp;"',y:"&amp; "'" &amp;D101&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'옥련쌍용G',addr:'인천광역시 연수구 청량로184번길 48',x:'925182.9532054849',y:'1936549.0084032882'},</v>
       </c>
     </row>
@@ -4843,7 +5411,7 @@
         <v>735</v>
       </c>
       <c r="F102" t="str">
-        <f>"{name:" &amp; "'" &amp;A102&amp;"',addr:" &amp; "'" &amp;B102&amp;"',x:"&amp; "'" &amp;C102&amp;"',y:"&amp; "'" &amp;D102&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'옥련아주점G',addr:'인천광역시 연수구 청량로 217',x:'925018.4765206832',y:'1936665.1654121173'},</v>
       </c>
     </row>
@@ -4864,7 +5432,7 @@
         <v>735</v>
       </c>
       <c r="F103" t="str">
-        <f>"{name:" &amp; "'" &amp;A103&amp;"',addr:" &amp; "'" &amp;B103&amp;"',x:"&amp; "'" &amp;C103&amp;"',y:"&amp; "'" &amp;D103&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'옥련우성점G',addr:'인천광역시 연수구 독배로40번길 47',x:'924577.7008813033',y:'1936507.4463419202'},</v>
       </c>
     </row>
@@ -4885,7 +5453,7 @@
         <v>735</v>
       </c>
       <c r="F104" t="str">
-        <f>"{name:" &amp; "'" &amp;A104&amp;"',addr:" &amp; "'" &amp;B104&amp;"',x:"&amp; "'" &amp;C104&amp;"',y:"&amp; "'" &amp;D104&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'옥련풍림점G',addr:'인천광역시 연수구 한나루로193번길 3',x:'925362.11812462',y:'1936699.7315103933'},</v>
       </c>
     </row>
@@ -4906,7 +5474,7 @@
         <v>735</v>
       </c>
       <c r="F105" t="str">
-        <f>"{name:" &amp; "'" &amp;A105&amp;"',addr:" &amp; "'" &amp;B105&amp;"',x:"&amp; "'" &amp;C105&amp;"',y:"&amp; "'" &amp;D105&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'월미분수대점G',addr:'인천광역시 중구 월미문화로 57',x:'920135.501782795',y:'1941955.847831308'},</v>
       </c>
     </row>
@@ -4927,7 +5495,7 @@
         <v>735</v>
       </c>
       <c r="F106" t="str">
-        <f>"{name:" &amp; "'" &amp;A106&amp;"',addr:" &amp; "'" &amp;B106&amp;"',x:"&amp; "'" &amp;C106&amp;"',y:"&amp; "'" &amp;D106&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'월미중앙점G',addr:'인천광역시 중구 월미문화로 65',x:'920108.2432266385',y:'1941888.865706168'},</v>
       </c>
     </row>
@@ -4948,7 +5516,7 @@
         <v>735</v>
       </c>
       <c r="F107" t="str">
-        <f>"{name:" &amp; "'" &amp;A107&amp;"',addr:" &amp; "'" &amp;B107&amp;"',x:"&amp; "'" &amp;C107&amp;"',y:"&amp; "'" &amp;D107&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'위드미-라마다송도점',addr:'인천광역시 연수구 능허대로267번길 42',x:'925310.3928309134',y:'1935295.212755117'},</v>
       </c>
     </row>
@@ -4969,7 +5537,7 @@
         <v>735</v>
       </c>
       <c r="F108" t="str">
-        <f>"{name:" &amp; "'" &amp;A108&amp;"',addr:" &amp; "'" &amp;B108&amp;"',x:"&amp; "'" &amp;C108&amp;"',y:"&amp; "'" &amp;D108&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'유진로봇 송도사옥',addr:'인천광역시 연수구 하모니로187번길 33',x:'924180.5928355344',y:'1931340.6668476937'},</v>
       </c>
     </row>
@@ -4990,7 +5558,7 @@
         <v>735</v>
       </c>
       <c r="F109" t="str">
-        <f>"{name:" &amp; "'" &amp;A109&amp;"',addr:" &amp; "'" &amp;B109&amp;"',x:"&amp; "'" &amp;C109&amp;"',y:"&amp; "'" &amp;D109&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'은계센트럴점G',addr:'경기도 시흥시 은계중앙로 97',x:'938203.4013041602',y:'1938022.7406927734'},</v>
       </c>
     </row>
@@ -5011,7 +5579,7 @@
         <v>735</v>
       </c>
       <c r="F110" t="str">
-        <f>"{name:" &amp; "'" &amp;A110&amp;"',addr:" &amp; "'" &amp;B110&amp;"',x:"&amp; "'" &amp;C110&amp;"',y:"&amp; "'" &amp;D110&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'은행동성원아파트 결합부스',addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804'},</v>
       </c>
     </row>
@@ -5032,7 +5600,7 @@
         <v>735</v>
       </c>
       <c r="F111" t="str">
-        <f>"{name:" &amp; "'" &amp;A111&amp;"',addr:" &amp; "'" &amp;B111&amp;"',x:"&amp; "'" &amp;C111&amp;"',y:"&amp; "'" &amp;D111&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'은행동약사 결합부스',addr:'경기도 시흥시 은행로 8',x:'937498.2971942425',y:'1937334.1604390284'},</v>
       </c>
     </row>
@@ -5053,7 +5621,7 @@
         <v>735</v>
       </c>
       <c r="F112" t="str">
-        <f>"{name:" &amp; "'" &amp;A112&amp;"',addr:" &amp; "'" &amp;B112&amp;"',x:"&amp; "'" &amp;C112&amp;"',y:"&amp; "'" &amp;D112&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'은혜의교회SH',addr:'인천광역시 미추홀구 매소홀로 428',x:'926520.0805420987',y:'1938134.7043078174'},</v>
       </c>
     </row>
@@ -5074,7 +5642,7 @@
         <v>735</v>
       </c>
       <c r="F113" t="str">
-        <f>"{name:" &amp; "'" &amp;A113&amp;"',addr:" &amp; "'" &amp;B113&amp;"',x:"&amp; "'" &amp;C113&amp;"',y:"&amp; "'" &amp;D113&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'이마트 동인천점SC',addr:'인천광역시 중구 인중로 134',x:'922988.2656142102',y:'1941172.2637899336'},</v>
       </c>
     </row>
@@ -5095,7 +5663,7 @@
         <v>735</v>
       </c>
       <c r="F114" t="str">
-        <f>"{name:" &amp; "'" &amp;A114&amp;"',addr:" &amp; "'" &amp;B114&amp;"',x:"&amp; "'" &amp;C114&amp;"',y:"&amp; "'" &amp;D114&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'이마트24 연수함박로',addr:'인천광역시 연수구 함박로 36',x:'927543.317565355',y:'1936592.6575228586'},</v>
       </c>
     </row>
@@ -5116,7 +5684,7 @@
         <v>735</v>
       </c>
       <c r="F115" t="str">
-        <f>"{name:" &amp; "'" &amp;A115&amp;"',addr:" &amp; "'" &amp;B115&amp;"',x:"&amp; "'" &amp;C115&amp;"',y:"&amp; "'" &amp;D115&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'이수엑사보드 인천공장',addr:'인천광역시 남동구 남동서로270번길 54',x:'929093.4386579194',y:'1935045.5201349352'},</v>
       </c>
     </row>
@@ -5137,7 +5705,7 @@
         <v>735</v>
       </c>
       <c r="F116" t="str">
-        <f>"{name:" &amp; "'" &amp;A116&amp;"',addr:" &amp; "'" &amp;B116&amp;"',x:"&amp; "'" &amp;C116&amp;"',y:"&amp; "'" &amp;D116&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'인천 송도 컨벤시아',addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082'},</v>
       </c>
     </row>
@@ -5158,7 +5726,7 @@
         <v>735</v>
       </c>
       <c r="F117" t="str">
-        <f>"{name:" &amp; "'" &amp;A117&amp;"',addr:" &amp; "'" &amp;B117&amp;"',x:"&amp; "'" &amp;C117&amp;"',y:"&amp; "'" &amp;D117&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'인천5공단파출소결합부스',addr:'인천광역시 서구 가재울로 75',x:'927648.8596204547',y:'1942435.9377577854'},</v>
       </c>
     </row>
@@ -5179,7 +5747,7 @@
         <v>735</v>
       </c>
       <c r="F118" t="str">
-        <f>"{name:" &amp; "'" &amp;A118&amp;"',addr:" &amp; "'" &amp;B118&amp;"',x:"&amp; "'" &amp;C118&amp;"',y:"&amp; "'" &amp;D118&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'인천경동점G',addr:'인천광역시 중구 개항로 82',x:'923229.7654404601',y:'1941739.1997609003'},</v>
       </c>
     </row>
@@ -5200,7 +5768,7 @@
         <v>736</v>
       </c>
       <c r="F119" t="str">
-        <f>"{name:" &amp; "'" &amp;A119&amp;"',addr:" &amp; "'" &amp;B119&amp;"',x:"&amp; "'" &amp;C119&amp;"',y:"&amp; "'" &amp;D119&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'송도 에듀포레푸르지오',addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713'},</v>
       </c>
     </row>
@@ -5221,7 +5789,7 @@
         <v>735</v>
       </c>
       <c r="F120" t="str">
-        <f>"{name:" &amp; "'" &amp;A120&amp;"',addr:" &amp; "'" &amp;B120&amp;"',x:"&amp; "'" &amp;C120&amp;"',y:"&amp; "'" &amp;D120&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'인천남촌로점G',addr:'인천광역시 남동구 남촌동로3번길 33',x:'930644.9199876767',y:'1937177.0833667233'},</v>
       </c>
     </row>
@@ -5242,7 +5810,7 @@
         <v>735</v>
       </c>
       <c r="F121" t="str">
-        <f>"{name:" &amp; "'" &amp;A121&amp;"',addr:" &amp; "'" &amp;B121&amp;"',x:"&amp; "'" &amp;C121&amp;"',y:"&amp; "'" &amp;D121&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'인천논현광장점G',addr:'인천광역시 남동구 논고개로123번길 35',x:'931147.5988134101',y:'1933884.31215839'},</v>
       </c>
     </row>
@@ -5263,7 +5831,7 @@
         <v>735</v>
       </c>
       <c r="F122" t="str">
-        <f>"{name:" &amp; "'" &amp;A122&amp;"',addr:" &amp; "'" &amp;B122&amp;"',x:"&amp; "'" &amp;C122&amp;"',y:"&amp; "'" &amp;D122&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'인천논현사랑점G',addr:'인천광역시 남동구 논고개로 166',x:'931299.0037734902',y:'1934371.8316615'},</v>
       </c>
     </row>
@@ -5284,7 +5852,7 @@
         <v>735</v>
       </c>
       <c r="F123" t="str">
-        <f>"{name:" &amp; "'" &amp;A123&amp;"',addr:" &amp; "'" &amp;B123&amp;"',x:"&amp; "'" &amp;C123&amp;"',y:"&amp; "'" &amp;D123&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'인천논현역점G',addr:'인천광역시 남동구 논고개로 121',x:'931299.4091969267',y:'1933928.8000814402'},</v>
       </c>
     </row>
@@ -5305,7 +5873,7 @@
         <v>735</v>
       </c>
       <c r="F124" t="str">
-        <f>"{name:" &amp; "'" &amp;A124&amp;"',addr:" &amp; "'" &amp;B124&amp;"',x:"&amp; "'" &amp;C124&amp;"',y:"&amp; "'" &amp;D124&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'인천논현점M',addr:'인천광역시 남동구 논현로46번길 51',x:'930040.7558424668',y:'1933792.9459385104'},</v>
       </c>
     </row>
@@ -5326,7 +5894,7 @@
         <v>735</v>
       </c>
       <c r="F125" t="str">
-        <f>"{name:" &amp; "'" &amp;A125&amp;"',addr:" &amp; "'" &amp;B125&amp;"',x:"&amp; "'" &amp;C125&amp;"',y:"&amp; "'" &amp;D125&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'인천동아서점 결합부스',addr:'인천광역시 미추홀구 경인로 386-1',x:'927733.8360022209',y:'1940187.0715722647'},</v>
       </c>
     </row>
@@ -5347,7 +5915,7 @@
         <v>735</v>
       </c>
       <c r="F126" t="str">
-        <f>"{name:" &amp; "'" &amp;A126&amp;"',addr:" &amp; "'" &amp;B126&amp;"',x:"&amp; "'" &amp;C126&amp;"',y:"&amp; "'" &amp;D126&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'인천메카점M',addr:'인천광역시 연수구 용담로125번길 41',x:'927422.4468487434',y:'1935499.65872847'},</v>
       </c>
     </row>
@@ -5368,7 +5936,7 @@
         <v>735</v>
       </c>
       <c r="F127" t="str">
-        <f>"{name:" &amp; "'" &amp;A127&amp;"',addr:" &amp; "'" &amp;B127&amp;"',x:"&amp; "'" &amp;C127&amp;"',y:"&amp; "'" &amp;D127&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'인천벽산아파트 결합부스',addr:'인천광역시 남동구 서판로 43',x:'931434.1630260036',y:'1940841.3205330772'},</v>
       </c>
     </row>
@@ -5389,7 +5957,7 @@
         <v>735</v>
       </c>
       <c r="F128" t="str">
-        <f>"{name:" &amp; "'" &amp;A128&amp;"',addr:" &amp; "'" &amp;B128&amp;"',x:"&amp; "'" &amp;C128&amp;"',y:"&amp; "'" &amp;D128&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'인천선학점G',addr:'인천광역시 연수구 비류대로529번길 10',x:'928643.5051002635',y:'1936354.497053353'},</v>
       </c>
     </row>
@@ -5410,7 +5978,7 @@
         <v>735</v>
       </c>
       <c r="F129" t="str">
-        <f>"{name:" &amp; "'" &amp;A129&amp;"',addr:" &amp; "'" &amp;B129&amp;"',x:"&amp; "'" &amp;C129&amp;"',y:"&amp; "'" &amp;D129&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{name:'인천송도점G',addr:'인천광역시 연수구 해돋이로84번길 29',x:'925166.2389731444',y:'1932929.6578389006'},</v>
       </c>
     </row>
@@ -5431,7 +5999,7 @@
         <v>735</v>
       </c>
       <c r="F130" t="str">
-        <f>"{name:" &amp; "'" &amp;A130&amp;"',addr:" &amp; "'" &amp;B130&amp;"',x:"&amp; "'" &amp;C130&amp;"',y:"&amp; "'" &amp;D130&amp;"'},"</f>
+        <f t="shared" ref="F130:F161" si="4">"{name:" &amp; "'" &amp;A130&amp;"',addr:" &amp; "'" &amp;B130&amp;"',x:"&amp; "'" &amp;C130&amp;"',y:"&amp; "'" &amp;D130&amp;"'},"</f>
         <v>{name:'인천신현쇼핑 결합부스',addr:'인천광역시 서구 가정로 369',x:'926879.0843732902',y:'1946840.1810874036'},</v>
       </c>
     </row>
@@ -5452,7 +6020,7 @@
         <v>735</v>
       </c>
       <c r="F131" t="str">
-        <f>"{name:" &amp; "'" &amp;A131&amp;"',addr:" &amp; "'" &amp;B131&amp;"',x:"&amp; "'" &amp;C131&amp;"',y:"&amp; "'" &amp;D131&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'인천옥련점M',addr:'인천광역시 연수구 한나루로197번길 30',x:'925282.19116041',y:'1936827.8251766833'},</v>
       </c>
     </row>
@@ -5473,7 +6041,7 @@
         <v>735</v>
       </c>
       <c r="F132" t="str">
-        <f>"{name:" &amp; "'" &amp;A132&amp;"',addr:" &amp; "'" &amp;B132&amp;"',x:"&amp; "'" &amp;C132&amp;"',y:"&amp; "'" &amp;D132&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'인천주안로점G',addr:'인천광역시 미추홀구 주안동로 28-15',x:'928043.4087397007',y:'1940464.958479995'},</v>
       </c>
     </row>
@@ -5494,7 +6062,7 @@
         <v>735</v>
       </c>
       <c r="F133" t="str">
-        <f>"{name:" &amp; "'" &amp;A133&amp;"',addr:" &amp; "'" &amp;B133&amp;"',x:"&amp; "'" &amp;C133&amp;"',y:"&amp; "'" &amp;D133&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'인천터미널점M',addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102'},</v>
       </c>
     </row>
@@ -5515,7 +6083,7 @@
         <v>735</v>
       </c>
       <c r="F134" t="str">
-        <f>"{name:" &amp; "'" &amp;A134&amp;"',addr:" &amp; "'" &amp;B134&amp;"',x:"&amp; "'" &amp;C134&amp;"',y:"&amp; "'" &amp;D134&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'인천해양경찰서-SH',addr:'인천광역시 연수구 옥골로 69',x:'924748.3864360615',y:'1937246.7582861618'},</v>
       </c>
     </row>
@@ -5536,7 +6104,7 @@
         <v>735</v>
       </c>
       <c r="F135" t="str">
-        <f>"{name:" &amp; "'" &amp;A135&amp;"',addr:" &amp; "'" &amp;B135&amp;"',x:"&amp; "'" &amp;C135&amp;"',y:"&amp; "'" &amp;D135&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'인천호구포역점M',addr:'인천광역시 남동구 논현로26번길 12',x:'929979.51652928',y:'1934015.4848348568'},</v>
       </c>
     </row>
@@ -5557,7 +6125,7 @@
         <v>735</v>
       </c>
       <c r="F136" t="str">
-        <f>"{name:" &amp; "'" &amp;A136&amp;"',addr:" &amp; "'" &amp;B136&amp;"',x:"&amp; "'" &amp;C136&amp;"',y:"&amp; "'" &amp;D136&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'자매슈퍼-연수',addr:'인천광역시 연수구 함박로12번길 46',x:'927560.5282932345',y:'1936553.2454770715'},</v>
       </c>
     </row>
@@ -5578,7 +6146,7 @@
         <v>735</v>
       </c>
       <c r="F137" t="str">
-        <f>"{name:" &amp; "'" &amp;A137&amp;"',addr:" &amp; "'" &amp;B137&amp;"',x:"&amp; "'" &amp;C137&amp;"',y:"&amp; "'" &amp;D137&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'제물포버스정류장 결합부스',addr:'인천광역시 미추홀구 경인로 135',x:'925542.174751237',y:'1941140.5618504882'},</v>
       </c>
     </row>
@@ -5599,7 +6167,7 @@
         <v>735</v>
       </c>
       <c r="F138" t="str">
-        <f>"{name:" &amp; "'" &amp;A138&amp;"',addr:" &amp; "'" &amp;B138&amp;"',x:"&amp; "'" &amp;C138&amp;"',y:"&amp; "'" &amp;D138&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'제일슈퍼-인천',addr:'인천광역시 연수구 함박안로156번길 6',x:'927773.0413744',y:'1936723.1742538'},</v>
       </c>
     </row>
@@ -5620,7 +6188,7 @@
         <v>735</v>
       </c>
       <c r="F139" t="str">
-        <f>"{name:" &amp; "'" &amp;A139&amp;"',addr:" &amp; "'" &amp;B139&amp;"',x:"&amp; "'" &amp;C139&amp;"',y:"&amp; "'" &amp;D139&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안 보보G',addr:'인천광역시 미추홀구 경인로425번길 14',x:'928155.8178139064',y:'1940251.613382046'},</v>
       </c>
     </row>
@@ -5641,7 +6209,7 @@
         <v>735</v>
       </c>
       <c r="F140" t="str">
-        <f>"{name:" &amp; "'" &amp;A140&amp;"',addr:" &amp; "'" &amp;B140&amp;"',x:"&amp; "'" &amp;C140&amp;"',y:"&amp; "'" &amp;D140&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안 신성G',addr:'인천광역시 미추홀구 주안중로 28',x:'927733.3861476094',y:'1940496.9830620233'},</v>
       </c>
     </row>
@@ -5662,7 +6230,7 @@
         <v>735</v>
       </c>
       <c r="F141" t="str">
-        <f>"{name:" &amp; "'" &amp;A141&amp;"',addr:" &amp; "'" &amp;B141&amp;"',x:"&amp; "'" &amp;C141&amp;"',y:"&amp; "'" &amp;D141&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안1동점G',addr:'인천광역시 미추홀구 주안중로50번길 20',x:'927832.11701282',y:'1940714.3422219716'},</v>
       </c>
     </row>
@@ -5683,7 +6251,7 @@
         <v>735</v>
       </c>
       <c r="F142" t="str">
-        <f>"{name:" &amp; "'" &amp;A142&amp;"',addr:" &amp; "'" &amp;B142&amp;"',x:"&amp; "'" &amp;C142&amp;"',y:"&amp; "'" &amp;D142&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안공단점G',addr:'인천광역시 미추홀구 염전로 362',x:'927504.3446300412',y:'1941528.745698372'},</v>
       </c>
     </row>
@@ -5704,7 +6272,7 @@
         <v>735</v>
       </c>
       <c r="F143" t="str">
-        <f>"{name:" &amp; "'" &amp;A143&amp;"',addr:" &amp; "'" &amp;B143&amp;"',x:"&amp; "'" &amp;C143&amp;"',y:"&amp; "'" &amp;D143&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안남부점M',addr:'인천광역시 미추홀구 주안로104번길 15',x:'927600.294782457',y:'1940748.241028722'},</v>
       </c>
     </row>
@@ -5725,7 +6293,7 @@
         <v>735</v>
       </c>
       <c r="F144" t="str">
-        <f>"{name:" &amp; "'" &amp;A144&amp;"',addr:" &amp; "'" &amp;B144&amp;"',x:"&amp; "'" &amp;C144&amp;"',y:"&amp; "'" &amp;D144&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안대로점G',addr:'인천광역시 미추홀구 주안로 45',x:'927021.73843505',y:'1940904.6652424666'},</v>
       </c>
     </row>
@@ -5746,7 +6314,7 @@
         <v>735</v>
       </c>
       <c r="F145" t="str">
-        <f>"{name:" &amp; "'" &amp;A145&amp;"',addr:" &amp; "'" &amp;B145&amp;"',x:"&amp; "'" &amp;C145&amp;"',y:"&amp; "'" &amp;D145&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안동경점G',addr:'인천광역시 미추홀구 주안서로 53',x:'927285.2900126814',y:'1940792.0053177588'},</v>
       </c>
     </row>
@@ -5767,7 +6335,7 @@
         <v>736</v>
       </c>
       <c r="F146" t="str">
-        <f>"{name:" &amp; "'" &amp;A146&amp;"',addr:" &amp; "'" &amp;B146&amp;"',x:"&amp; "'" &amp;C146&amp;"',y:"&amp; "'" &amp;D146&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'에듀포레점G',addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713'},</v>
       </c>
     </row>
@@ -5788,7 +6356,7 @@
         <v>735</v>
       </c>
       <c r="F147" t="str">
-        <f>"{name:" &amp; "'" &amp;A147&amp;"',addr:" &amp; "'" &amp;B147&amp;"',x:"&amp; "'" &amp;C147&amp;"',y:"&amp; "'" &amp;D147&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안미래점M',addr:'인천광역시 미추홀구 주안중로 13-1',x:'927698.3542673178',y:'1940367.9314235584'},</v>
       </c>
     </row>
@@ -5809,7 +6377,7 @@
         <v>735</v>
       </c>
       <c r="F148" t="str">
-        <f>"{name:" &amp; "'" &amp;A148&amp;"',addr:" &amp; "'" &amp;B148&amp;"',x:"&amp; "'" &amp;C148&amp;"',y:"&amp; "'" &amp;D148&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안미소점G',addr:'인천광역시 미추홀구 신기길30번길 37',x:'926981.776154774',y:'1938935.675808793'},</v>
       </c>
     </row>
@@ -5830,7 +6398,7 @@
         <v>735</v>
       </c>
       <c r="F149" t="str">
-        <f>"{name:" &amp; "'" &amp;A149&amp;"',addr:" &amp; "'" &amp;B149&amp;"',x:"&amp; "'" &amp;C149&amp;"',y:"&amp; "'" &amp;D149&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안미추홀점G',addr:'인천광역시 미추홀구 경인로 343',x:'927260.9079237133',y:'1940267.6733396333'},</v>
       </c>
     </row>
@@ -5851,7 +6419,7 @@
         <v>735</v>
       </c>
       <c r="F150" t="str">
-        <f>"{name:" &amp; "'" &amp;A150&amp;"',addr:" &amp; "'" &amp;B150&amp;"',x:"&amp; "'" &amp;C150&amp;"',y:"&amp; "'" &amp;D150&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안본점M',addr:'인천광역시 미추홀구 미추홀대로734번길 37',x:'927714.5775235672',y:'1940744.2295416128'},</v>
       </c>
     </row>
@@ -5872,7 +6440,7 @@
         <v>735</v>
       </c>
       <c r="F151" t="str">
-        <f>"{name:" &amp; "'" &amp;A151&amp;"',addr:" &amp; "'" &amp;B151&amp;"',x:"&amp; "'" &amp;C151&amp;"',y:"&amp; "'" &amp;D151&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안사거리점G',addr:'인천광역시 미추홀구 석바위로 61',x:'927476.9399430258',y:'1940520.5633123717'},</v>
       </c>
     </row>
@@ -5893,7 +6461,7 @@
         <v>735</v>
       </c>
       <c r="F152" t="str">
-        <f>"{name:" &amp; "'" &amp;A152&amp;"',addr:" &amp; "'" &amp;B152&amp;"',x:"&amp; "'" &amp;C152&amp;"',y:"&amp; "'" &amp;D152&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안석바위점M',addr:'인천광역시 미추홀구 석바위로 112',x:'927947.6847094274',y:'1940400.324138321'},</v>
       </c>
     </row>
@@ -5914,7 +6482,7 @@
         <v>735</v>
       </c>
       <c r="F153" t="str">
-        <f>"{name:" &amp; "'" &amp;A153&amp;"',addr:" &amp; "'" &amp;B153&amp;"',x:"&amp; "'" &amp;C153&amp;"',y:"&amp; "'" &amp;D153&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안세일점G',addr:'인천광역시 미추홀구 동주길 76',x:'927911.4083549832',y:'1939815.436123129'},</v>
       </c>
     </row>
@@ -5935,7 +6503,7 @@
         <v>735</v>
       </c>
       <c r="F154" t="str">
-        <f>"{name:" &amp; "'" &amp;A154&amp;"',addr:" &amp; "'" &amp;B154&amp;"',x:"&amp; "'" &amp;C154&amp;"',y:"&amp; "'" &amp;D154&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안역삼거리 결합부스',addr:'인천광역시 미추홀구 미추홀대로 741',x:'927492.7927790079',y:'1940802.0347208697'},</v>
       </c>
     </row>
@@ -5956,7 +6524,7 @@
         <v>735</v>
       </c>
       <c r="F155" t="str">
-        <f>"{name:" &amp; "'" &amp;A155&amp;"',addr:" &amp; "'" &amp;B155&amp;"',x:"&amp; "'" &amp;C155&amp;"',y:"&amp; "'" &amp;D155&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안월드점G',addr:'인천광역시 미추홀구 경인로485번길 33',x:'928577.0918325363',y:'1940491.9788272986'},</v>
       </c>
     </row>
@@ -5977,7 +6545,7 @@
         <v>736</v>
       </c>
       <c r="F156" t="str">
-        <f>"{name:" &amp; "'" &amp;A156&amp;"',addr:" &amp; "'" &amp;B156&amp;"',x:"&amp; "'" &amp;C156&amp;"',y:"&amp; "'" &amp;D156&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'송도센트럴점M',addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754'},</v>
       </c>
     </row>
@@ -5998,7 +6566,7 @@
         <v>735</v>
       </c>
       <c r="F157" t="str">
-        <f>"{name:" &amp; "'" &amp;A157&amp;"',addr:" &amp; "'" &amp;B157&amp;"',x:"&amp; "'" &amp;C157&amp;"',y:"&amp; "'" &amp;D157&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안주공점G',addr:'인천광역시 미추홀구 주안로 215',x:'928700.075495082',y:'1940788.8228662973'},</v>
       </c>
     </row>
@@ -6019,7 +6587,7 @@
         <v>735</v>
       </c>
       <c r="F158" t="str">
-        <f>"{name:" &amp; "'" &amp;A158&amp;"',addr:" &amp; "'" &amp;B158&amp;"',x:"&amp; "'" &amp;C158&amp;"',y:"&amp; "'" &amp;D158&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안파크점G',addr:'인천광역시 미추홀구 미추홀대로722번길 21-1',x:'927631.6564081493',y:'1940615.9256797591'},</v>
       </c>
     </row>
@@ -6040,7 +6608,7 @@
         <v>735</v>
       </c>
       <c r="F159" t="str">
-        <f>"{name:" &amp; "'" &amp;A159&amp;"',addr:" &amp; "'" &amp;B159&amp;"',x:"&amp; "'" &amp;C159&amp;"',y:"&amp; "'" &amp;D159&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안한신점G',addr:'인천광역시 미추홀구 인하로352번길 10',x:'928112.3556398968',y:'1939019.7543626092'},</v>
       </c>
     </row>
@@ -6061,7 +6629,7 @@
         <v>735</v>
       </c>
       <c r="F160" t="str">
-        <f>"{name:" &amp; "'" &amp;A160&amp;"',addr:" &amp; "'" &amp;B160&amp;"',x:"&amp; "'" &amp;C160&amp;"',y:"&amp; "'" &amp;D160&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'주안행복점M',addr:'인천광역시 미추홀구 석바위로53번길 3',x:'927366.0847729146',y:'1940514.0627141502'},</v>
       </c>
     </row>
@@ -6082,7 +6650,7 @@
         <v>735</v>
       </c>
       <c r="F161" t="str">
-        <f>"{name:" &amp; "'" &amp;A161&amp;"',addr:" &amp; "'" &amp;B161&amp;"',x:"&amp; "'" &amp;C161&amp;"',y:"&amp; "'" &amp;D161&amp;"'},"</f>
+        <f t="shared" si="4"/>
         <v>{name:'중부지방해양경찰청SH',addr:'인천광역시 연수구 센트럴로 263',x:'923373.8316200967',y:'1933570.7668816056'},</v>
       </c>
     </row>
@@ -6103,7 +6671,7 @@
         <v>735</v>
       </c>
       <c r="F162" t="str">
-        <f>"{name:" &amp; "'" &amp;A162&amp;"',addr:" &amp; "'" &amp;B162&amp;"',x:"&amp; "'" &amp;C162&amp;"',y:"&amp; "'" &amp;D162&amp;"'},"</f>
+        <f t="shared" ref="F162:F193" si="5">"{name:" &amp; "'" &amp;A162&amp;"',addr:" &amp; "'" &amp;B162&amp;"',x:"&amp; "'" &amp;C162&amp;"',y:"&amp; "'" &amp;D162&amp;"'},"</f>
         <v>{name:'중앙슈퍼-연수',addr:'인천광역시 연수구 함박뫼로4번길 13-8',x:'926743.3556705897',y:'1935757.611946192'},</v>
       </c>
     </row>
@@ -6124,7 +6692,7 @@
         <v>735</v>
       </c>
       <c r="F163" t="str">
-        <f>"{name:" &amp; "'" &amp;A163&amp;"',addr:" &amp; "'" &amp;B163&amp;"',x:"&amp; "'" &amp;C163&amp;"',y:"&amp; "'" &amp;D163&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'천일식품-고잔동',addr:'인천광역시 남동구 앵고개로 426',x:'928102.1321792866',y:'1933636.4756072024'},</v>
       </c>
     </row>
@@ -6145,7 +6713,7 @@
         <v>735</v>
       </c>
       <c r="F164" t="str">
-        <f>"{name:" &amp; "'" &amp;A164&amp;"',addr:" &amp; "'" &amp;B164&amp;"',x:"&amp; "'" &amp;C164&amp;"',y:"&amp; "'" &amp;D164&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'청능공원점G',addr:'인천광역시 연수구 청능말로7번길 20',x:'926506.0746164669',y:'1935665.4340851936'},</v>
       </c>
     </row>
@@ -6166,7 +6734,7 @@
         <v>735</v>
       </c>
       <c r="F165" t="str">
-        <f>"{name:" &amp; "'" &amp;A165&amp;"',addr:" &amp; "'" &amp;B165&amp;"',x:"&amp; "'" &amp;C165&amp;"',y:"&amp; "'" &amp;D165&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'청라리치아노점M',addr:'인천광역시 서구 청라에메랄드로102번길 10',x:'925562.0452141722',y:'1948624.1122872476'},</v>
       </c>
     </row>
@@ -6187,7 +6755,7 @@
         <v>735</v>
       </c>
       <c r="F166" t="str">
-        <f>"{name:" &amp; "'" &amp;A166&amp;"',addr:" &amp; "'" &amp;B166&amp;"',x:"&amp; "'" &amp;C166&amp;"',y:"&amp; "'" &amp;D166&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'청라에뜰점G',addr:'인천광역시 서구 청라커낼로 300',x:'924457.963117328',y:'1948765.6387663502'},</v>
       </c>
     </row>
@@ -6208,7 +6776,7 @@
         <v>735</v>
       </c>
       <c r="F167" t="str">
-        <f>"{name:" &amp; "'" &amp;A167&amp;"',addr:" &amp; "'" &amp;B167&amp;"',x:"&amp; "'" &amp;C167&amp;"',y:"&amp; "'" &amp;D167&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'청라호반점G',addr:'인천광역시 서구 청라커낼로 163',x:'923949.8371560569',y:'1947760.2909392407'},</v>
       </c>
     </row>
@@ -6229,7 +6797,7 @@
         <v>735</v>
       </c>
       <c r="F168" t="str">
-        <f>"{name:" &amp; "'" &amp;A168&amp;"',addr:" &amp; "'" &amp;B168&amp;"',x:"&amp; "'" &amp;C168&amp;"',y:"&amp; "'" &amp;D168&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'청학복합문화센터-SHINHAN',addr:'인천광역시 연수구 비류대로 299',x:'926357.2427523071',y:'1936675.620955735'},</v>
       </c>
     </row>
@@ -6250,7 +6818,7 @@
         <v>735</v>
       </c>
       <c r="F169" t="str">
-        <f>"{name:" &amp; "'" &amp;A169&amp;"',addr:" &amp; "'" &amp;B169&amp;"',x:"&amp; "'" &amp;C169&amp;"',y:"&amp; "'" &amp;D169&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'청학본점G',addr:'인천광역시 연수구 비류대로278번길 8-3',x:'926142.2991103267',y:'1936646.2066965867'},</v>
       </c>
     </row>
@@ -6271,7 +6839,7 @@
         <v>735</v>
       </c>
       <c r="F170" t="str">
-        <f>"{name:" &amp; "'" &amp;A170&amp;"',addr:" &amp; "'" &amp;B170&amp;"',x:"&amp; "'" &amp;C170&amp;"',y:"&amp; "'" &amp;D170&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'청학타운점G',addr:'인천광역시 연수구 청학로12번길 47',x:'926231.6395880934',y:'1936834.2690070835'},</v>
       </c>
     </row>
@@ -6292,7 +6860,7 @@
         <v>735</v>
       </c>
       <c r="F171" t="str">
-        <f>"{name:" &amp; "'" &amp;A171&amp;"',addr:" &amp; "'" &amp;B171&amp;"',x:"&amp; "'" &amp;C171&amp;"',y:"&amp; "'" &amp;D171&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'청학현대점G',addr:'인천광역시 연수구 계림로35번길 58',x:'926443.0193460134',y:'1936904.7241967367'},</v>
       </c>
     </row>
@@ -6313,7 +6881,7 @@
         <v>735</v>
       </c>
       <c r="F172" t="str">
-        <f>"{name:" &amp; "'" &amp;A172&amp;"',addr:" &amp; "'" &amp;B172&amp;"',x:"&amp; "'" &amp;C172&amp;"',y:"&amp; "'" &amp;D172&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'코스트코',addr:'인천광역시 연수구 컨벤시아대로230번길 60',x:' 923278.7832623338',y:'1932636.7317621163'},</v>
       </c>
     </row>
@@ -6334,7 +6902,7 @@
         <v>735</v>
       </c>
       <c r="F173" t="str">
-        <f>"{name:" &amp; "'" &amp;A173&amp;"',addr:" &amp; "'" &amp;B173&amp;"',x:"&amp; "'" &amp;C173&amp;"',y:"&amp; "'" &amp;D173&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'퍼스트파크13점',addr:'인천광역시 연수구 컨벤시아대로252번길 70',x:'923074.6219626968',y:'1932451.7707887636'},</v>
       </c>
     </row>
@@ -6355,7 +6923,7 @@
         <v>735</v>
       </c>
       <c r="F174" t="str">
-        <f>"{name:" &amp; "'" &amp;A174&amp;"',addr:" &amp; "'" &amp;B174&amp;"',x:"&amp; "'" &amp;C174&amp;"',y:"&amp; "'" &amp;D174&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'포스코송도 R&amp;D센터KB',addr:'인천광역시 연수구 송도과학로 100',x:'926384.4323779428',y:'1931453.2860596376'},</v>
       </c>
     </row>
@@ -6376,7 +6944,7 @@
         <v>735</v>
       </c>
       <c r="F175" t="str">
-        <f>"{name:" &amp; "'" &amp;A175&amp;"',addr:" &amp; "'" &amp;B175&amp;"',x:"&amp; "'" &amp;C175&amp;"',y:"&amp; "'" &amp;D175&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'포스코이앤씨타워점G',addr:'인천광역시 연수구 인천타워대로 241',x:'923372.5008990793',y:'1932935.9711958324'},</v>
       </c>
     </row>
@@ -6397,7 +6965,7 @@
         <v>735</v>
       </c>
       <c r="F176" t="str">
-        <f>"{name:" &amp; "'" &amp;A176&amp;"',addr:" &amp; "'" &amp;B176&amp;"',x:"&amp; "'" &amp;C176&amp;"',y:"&amp; "'" &amp;D176&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'하이-소래포구',addr:'인천광역시 남동구 포구로 3',x:'932688.4409603968',y:'1933646.0883224965'},</v>
       </c>
     </row>
@@ -6418,7 +6986,7 @@
         <v>735</v>
       </c>
       <c r="F177" t="str">
-        <f>"{name:" &amp; "'" &amp;A177&amp;"',addr:" &amp; "'" &amp;B177&amp;"',x:"&amp; "'" &amp;C177&amp;"',y:"&amp; "'" &amp;D177&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'학익늘봄점G',addr:'인천광역시 미추홀구 한나루로403번길 105',x:'925632.7361822787',y:'1938795.12119258'},</v>
       </c>
     </row>
@@ -6439,7 +7007,7 @@
         <v>735</v>
       </c>
       <c r="F178" t="str">
-        <f>"{name:" &amp; "'" &amp;A178&amp;"',addr:" &amp; "'" &amp;B178&amp;"',x:"&amp; "'" &amp;C178&amp;"',y:"&amp; "'" &amp;D178&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'학익다송G',addr:'인천광역시 미추홀구 소성로 162',x:'926243.6841133314',y:'1938404.1977886255'},</v>
       </c>
     </row>
@@ -6460,7 +7028,7 @@
         <v>735</v>
       </c>
       <c r="F179" t="str">
-        <f>"{name:" &amp; "'" &amp;A179&amp;"',addr:" &amp; "'" &amp;B179&amp;"',x:"&amp; "'" &amp;C179&amp;"',y:"&amp; "'" &amp;D179&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'학익대로점G',addr:'인천광역시 미추홀구 소성로 244',x:'926977.6259435453',y:'1938038.3710919674'},</v>
       </c>
     </row>
@@ -6481,7 +7049,7 @@
         <v>735</v>
       </c>
       <c r="F180" t="str">
-        <f>"{name:" &amp; "'" &amp;A180&amp;"',addr:" &amp; "'" &amp;B180&amp;"',x:"&amp; "'" &amp;C180&amp;"',y:"&amp; "'" &amp;D180&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'학익미소G',addr:'인천광역시 미추홀구 주승로 22',x:'926826.3832888785',y:'1938596.312287895'},</v>
       </c>
     </row>
@@ -6502,7 +7070,7 @@
         <v>735</v>
       </c>
       <c r="F181" t="str">
-        <f>"{name:" &amp; "'" &amp;A181&amp;"',addr:" &amp; "'" &amp;B181&amp;"',x:"&amp; "'" &amp;C181&amp;"',y:"&amp; "'" &amp;D181&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'학익사거리점M',addr:'인천광역시 미추홀구 매소홀로446번길 16',x:'926687.5525610019',y:'1938078.4112452823'},</v>
       </c>
     </row>
@@ -6523,7 +7091,7 @@
         <v>735</v>
       </c>
       <c r="F182" t="str">
-        <f>"{name:" &amp; "'" &amp;A182&amp;"',addr:" &amp; "'" &amp;B182&amp;"',x:"&amp; "'" &amp;C182&amp;"',y:"&amp; "'" &amp;D182&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'학익센터점G',addr:'인천광역시 미추홀구 매소홀로446번길 4',x:'926688.1271994561',y:'1938129.2821605182'},</v>
       </c>
     </row>
@@ -6544,7 +7112,7 @@
         <v>735</v>
       </c>
       <c r="F183" t="str">
-        <f>"{name:" &amp; "'" &amp;A183&amp;"',addr:" &amp; "'" &amp;B183&amp;"',x:"&amp; "'" &amp;C183&amp;"',y:"&amp; "'" &amp;D183&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'학익점GSS',addr:'인천광역시 미추홀구 소성로 146',x:'926064.1264832243',y:'1938437.8886083513'},</v>
       </c>
     </row>
@@ -6565,7 +7133,7 @@
         <v>735</v>
       </c>
       <c r="F184" t="str">
-        <f>"{name:" &amp; "'" &amp;A184&amp;"',addr:" &amp; "'" &amp;B184&amp;"',x:"&amp; "'" &amp;C184&amp;"',y:"&amp; "'" &amp;D184&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'학익중앙점G',addr:'인천광역시 미추홀구 소성로185번길 16-5',x:'926531.8325332045',y:'1938402.6683132658'},</v>
       </c>
     </row>
@@ -6586,7 +7154,7 @@
         <v>735</v>
       </c>
       <c r="F185" t="str">
-        <f>"{name:" &amp; "'" &amp;A185&amp;"',addr:" &amp; "'" &amp;B185&amp;"',x:"&amp; "'" &amp;C185&amp;"',y:"&amp; "'" &amp;D185&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'학익타운점G',addr:'인천광역시 미추홀구 한나루로 350',x:'925893.6336379224',y:'1938132.127089256'},</v>
       </c>
     </row>
@@ -6607,7 +7175,7 @@
         <v>736</v>
       </c>
       <c r="F186" t="str">
-        <f>"{name:" &amp; "'" &amp;A186&amp;"',addr:" &amp; "'" &amp;B186&amp;"',x:"&amp; "'" &amp;C186&amp;"',y:"&amp; "'" &amp;D186&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'송도푸르지오시티점G',addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754'},</v>
       </c>
     </row>
@@ -6628,7 +7196,7 @@
         <v>735</v>
       </c>
       <c r="F187" t="str">
-        <f>"{name:" &amp; "'" &amp;A187&amp;"',addr:" &amp; "'" &amp;B187&amp;"',x:"&amp; "'" &amp;C187&amp;"',y:"&amp; "'" &amp;D187&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'한옥마을앰배서더-SHINHAN',addr:'인천광역시 연수구 테크노파크로 200',x:'923643.9542986592',y:'1932798.2731926683'},</v>
       </c>
     </row>
@@ -6649,7 +7217,7 @@
         <v>735</v>
       </c>
       <c r="F188" t="str">
-        <f>"{name:" &amp; "'" &amp;A188&amp;"',addr:" &amp; "'" &amp;B188&amp;"',x:"&amp; "'" &amp;C188&amp;"',y:"&amp; "'" &amp;D188&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'한화프라자점G',addr:'인천광역시 남동구 소래역남로 12',x:'932305.6277828533',y:'1933461.700828867'},</v>
       </c>
     </row>
@@ -6670,7 +7238,7 @@
         <v>735</v>
       </c>
       <c r="F189" t="str">
-        <f>"{name:" &amp; "'" &amp;A189&amp;"',addr:" &amp; "'" &amp;B189&amp;"',x:"&amp; "'" &amp;C189&amp;"',y:"&amp; "'" &amp;D189&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'해양경비안전본부SHINHAN',addr:'인천광역시 연수구 해돋이로 130',x:'924618.4617833635',y:'1932985.3575826176'},</v>
       </c>
     </row>
@@ -6691,7 +7259,7 @@
         <v>735</v>
       </c>
       <c r="F190" t="str">
-        <f>"{name:" &amp; "'" &amp;A190&amp;"',addr:" &amp; "'" &amp;B190&amp;"',x:"&amp; "'" &amp;C190&amp;"',y:"&amp; "'" &amp;D190&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'현대 프리미엄 아울렛 송도',addr:'인천광역시 연수구 송도국제대로 123',x:'925450.1762407259',y:'1931726.6847481355'},</v>
       </c>
     </row>
@@ -6712,7 +7280,7 @@
         <v>735</v>
       </c>
       <c r="F191" t="str">
-        <f>"{name:" &amp; "'" &amp;A191&amp;"',addr:" &amp; "'" &amp;B191&amp;"',x:"&amp; "'" &amp;C191&amp;"',y:"&amp; "'" &amp;D191&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'만도로브제',addr:'인천광역시 연수구 첨단대로60번길 75',x:'924604.9640742338',y:'1929694.2852085028'},</v>
       </c>
     </row>
@@ -6733,7 +7301,7 @@
         <v>735</v>
       </c>
       <c r="F192" t="str">
-        <f>"{name:" &amp; "'" &amp;A192&amp;"',addr:" &amp; "'" &amp;B192&amp;"',x:"&amp; "'" &amp;C192&amp;"',y:"&amp; "'" &amp;D192&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'한화에코11단지',addr:'인천광역시 남동구 논고개로 17',x:'931971.8826013578',y:'1933157.4842754863'},</v>
       </c>
     </row>
@@ -6754,7 +7322,7 @@
         <v>735</v>
       </c>
       <c r="F193" t="str">
-        <f>"{name:" &amp; "'" &amp;A193&amp;"',addr:" &amp; "'" &amp;B193&amp;"',x:"&amp; "'" &amp;C193&amp;"',y:"&amp; "'" &amp;D193&amp;"'},"</f>
+        <f t="shared" si="5"/>
         <v>{name:'한화에코12단지',addr:'인천광역시 남동구 논고개로 10',x:'932065.1035968331',y:'1933133.3493248513'},</v>
       </c>
     </row>
@@ -6772,10 +7340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6786,10 +7354,11 @@
     <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="139.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="191.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>720</v>
       </c>
@@ -6808,8 +7377,11 @@
       <c r="F1" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6825,12 +7397,15 @@
       <c r="F2" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G2" t="str">
-        <f>"{name:" &amp; "['"&amp;A2&amp;"'"&amp;IF(ISBLANK(B2),"",",'"&amp;B2&amp;"'")&amp;"],addr:" &amp; "'" &amp;C2&amp;"',x:"&amp; "'" &amp;D2&amp;"',y:"&amp; "'" &amp;E2&amp;"'},"</f>
-        <v>{name:['(주)비에스이'],addr:'인천광역시 남동구 남동서로 193',x:'928448.838274891',y:'1934545.4152585235'},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"{name:" &amp; "['"&amp;A2&amp;"'"&amp;IF(ISBLANK(B2),"",",'"&amp;B2&amp;"'")&amp;"],addr:" &amp; "'" &amp;C2&amp;"',x:"&amp; "'" &amp;D2&amp;"',y:"&amp; "'" &amp;E2&amp;"',jibun:"&amp; "'" &amp;G2&amp;"'},"</f>
+        <v>{name:['(주)비에스이'],addr:'인천광역시 남동구 남동서로 193',x:'928448.838274891',y:'1934545.4152585235',jibun:'인천광역시 남동구 고잔동 626-3 (주)이츠웰'},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -6846,12 +7421,15 @@
       <c r="F3" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G3" t="str">
-        <f>"{name:" &amp; "['"&amp;A3&amp;"'"&amp;IF(ISBLANK(B3),"",",'"&amp;B3&amp;"'")&amp;"],addr:" &amp; "'" &amp;C3&amp;"',x:"&amp; "'" &amp;D3&amp;"',y:"&amp; "'" &amp;E3&amp;"'},"</f>
-        <v>{name:['(주)씨에스티'],addr:'인천광역시 남동구 남동대로 248',x:'929162.2536080531',y:'1934468.471045103'},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="0">"{name:" &amp; "['"&amp;A3&amp;"'"&amp;IF(ISBLANK(B3),"",",'"&amp;B3&amp;"'")&amp;"],addr:" &amp; "'" &amp;C3&amp;"',x:"&amp; "'" &amp;D3&amp;"',y:"&amp; "'" &amp;E3&amp;"',jibun:"&amp; "'" &amp;G3&amp;"'},"</f>
+        <v>{name:['(주)씨에스티'],addr:'인천광역시 남동구 남동대로 248',x:'929162.2536080531',y:'1934468.471045103',jibun:'인천광역시 남동구 논현동 444-4'},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -6867,12 +7445,15 @@
       <c r="F4" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G4" t="str">
-        <f>"{name:" &amp; "['"&amp;A4&amp;"'"&amp;IF(ISBLANK(B4),"",",'"&amp;B4&amp;"'")&amp;"],addr:" &amp; "'" &amp;C4&amp;"',x:"&amp; "'" &amp;D4&amp;"',y:"&amp; "'" &amp;E4&amp;"'},"</f>
-        <v>{name:['(주)일야'],addr:'인천광역시 남동구 은봉로 129',x:'929636.4538484735',y:'1934569.642266401'},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['(주)일야'],addr:'인천광역시 남동구 은봉로 129',x:'929636.4538484735',y:'1934569.642266401',jibun:'인천광역시 남동구 논현동 439-3'},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -6888,12 +7469,15 @@
       <c r="F5" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G5" t="str">
-        <f>"{name:" &amp; "['"&amp;A5&amp;"'"&amp;IF(ISBLANK(B5),"",",'"&amp;B5&amp;"'")&amp;"],addr:" &amp; "'" &amp;C5&amp;"',x:"&amp; "'" &amp;D5&amp;"',y:"&amp; "'" &amp;E5&amp;"'},"</f>
-        <v>{name:['간석드림점G'],addr:'인천광역시 남동구 석산로9번길 69',x:'929139.5206771668',y:'1940818.0201271167'},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['간석드림점G'],addr:'인천광역시 남동구 석산로9번길 69',x:'929139.5206771668',y:'1940818.0201271167',jibun:'인천광역시 남동구 간석동 388-30'},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>763</v>
       </c>
@@ -6909,12 +7493,15 @@
       <c r="F6" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G6" t="str">
-        <f>"{name:" &amp; "['"&amp;A6&amp;"'"&amp;IF(ISBLANK(B6),"",",'"&amp;B6&amp;"'")&amp;"],addr:" &amp; "'" &amp;C6&amp;"',x:"&amp; "'" &amp;D6&amp;"',y:"&amp; "'" &amp;E6&amp;"'},"</f>
-        <v>{name:['경인종합상가 결합부스'],addr:'인천광역시 미추홀구 경인로 392',x:'927784.8569973619',y:'1940188.3494468476'},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['경인종합상가 결합부스'],addr:'인천광역시 미추홀구 경인로 392',x:'927784.8569973619',y:'1940188.3494468476',jibun:'인천광역시 미추홀구 주안동 431-1 경인상가'},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -6930,12 +7517,15 @@
       <c r="F7" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G7" t="str">
-        <f>"{name:" &amp; "['"&amp;A7&amp;"'"&amp;IF(ISBLANK(B7),"",",'"&amp;B7&amp;"'")&amp;"],addr:" &amp; "'" &amp;C7&amp;"',x:"&amp; "'" &amp;D7&amp;"',y:"&amp; "'" &amp;E7&amp;"'},"</f>
-        <v>{name:['고잔엘아이점G'],addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442'},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['고잔엘아이점G'],addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442',jibun:'인천광역시 남동구 고잔동 736-4'},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -6951,12 +7541,15 @@
       <c r="F8" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G8" t="str">
-        <f>"{name:" &amp; "['"&amp;A8&amp;"'"&amp;IF(ISBLANK(B8),"",",'"&amp;B8&amp;"'")&amp;"],addr:" &amp; "'" &amp;C8&amp;"',x:"&amp; "'" &amp;D8&amp;"',y:"&amp; "'" &amp;E8&amp;"'},"</f>
-        <v>{name:['고잔중앙점G'],addr:'인천광역시 남동구 앵고개로 712',x:'930676.6785130233',y:'1932416.9426641734'},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['고잔중앙점G'],addr:'인천광역시 남동구 앵고개로 712',x:'930676.6785130233',y:'1932416.9426641734',jibun:'인천광역시 남동구 고잔동 349-3 석준빌딩'},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -6972,12 +7565,15 @@
       <c r="F9" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G9" t="str">
-        <f>"{name:" &amp; "['"&amp;A9&amp;"'"&amp;IF(ISBLANK(B9),"",",'"&amp;B9&amp;"'")&amp;"],addr:" &amp; "'" &amp;C9&amp;"',x:"&amp; "'" &amp;D9&amp;"',y:"&amp; "'" &amp;E9&amp;"'},"</f>
-        <v>{name:['남구숭의점G'],addr:'인천광역시 미추홀구 독배로 438',x:'924751.8764202176',y:'1940279.1432027267'},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['남구숭의점G'],addr:'인천광역시 미추홀구 독배로 438',x:'924751.8764202176',y:'1940279.1432027267',jibun:'인천광역시 미추홀구 숭의동 283-11'},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -6993,12 +7589,15 @@
       <c r="F10" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G10" t="str">
-        <f>"{name:" &amp; "['"&amp;A10&amp;"'"&amp;IF(ISBLANK(B10),"",",'"&amp;B10&amp;"'")&amp;"],addr:" &amp; "'" &amp;C10&amp;"',x:"&amp; "'" &amp;D10&amp;"',y:"&amp; "'" &amp;E10&amp;"'},"</f>
-        <v>{name:['남동논현점G'],addr:'인천광역시 남동구 앵고개로815번길 20',x:'931356.6721433003',y:'1933189.4978637807'},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['남동논현점G'],addr:'인천광역시 남동구 앵고개로815번길 20',x:'931356.6721433003',y:'1933189.4978637807',jibun:'인천광역시 남동구 논현동 740-2 소래휴먼시아3단지 상가비동'},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -7014,12 +7613,15 @@
       <c r="F11" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G11" t="str">
-        <f>"{name:" &amp; "['"&amp;A11&amp;"'"&amp;IF(ISBLANK(B11),"",",'"&amp;B11&amp;"'")&amp;"],addr:" &amp; "'" &amp;C11&amp;"',x:"&amp; "'" &amp;D11&amp;"',y:"&amp; "'" &amp;E11&amp;"'},"</f>
-        <v>{name:['남촌중앙점G'],addr:'인천광역시 남동구 남촌로84번길 38-1',x:'930709.9029618322',y:'1936926.6012936095'},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['남촌중앙점G'],addr:'인천광역시 남동구 남촌로84번길 38-1',x:'930709.9029618322',y:'1936926.6012936095',jibun:'인천광역시 남동구 남촌동 649'},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -7035,12 +7637,15 @@
       <c r="F12" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G12" t="str">
-        <f>"{name:" &amp; "['"&amp;A12&amp;"'"&amp;IF(ISBLANK(B12),"",",'"&amp;B12&amp;"'")&amp;"],addr:" &amp; "'" &amp;C12&amp;"',x:"&amp; "'" &amp;D12&amp;"',y:"&amp; "'" &amp;E12&amp;"'},"</f>
-        <v>{name:['남촌풍림점G'],addr:'인천광역시 남동구 남촌로 87',x:'930519.5241960534',y:'1936924.5501427501'},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['남촌풍림점G'],addr:'인천광역시 남동구 남촌로 87',x:'930519.5241960534',y:'1936924.5501427501',jibun:'인천광역시 남동구 남촌동 266-4'},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -7056,12 +7661,15 @@
       <c r="F13" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G13" t="str">
-        <f>"{name:" &amp; "['"&amp;A13&amp;"'"&amp;IF(ISBLANK(B13),"",",'"&amp;B13&amp;"'")&amp;"],addr:" &amp; "'" &amp;C13&amp;"',x:"&amp; "'" &amp;D13&amp;"',y:"&amp; "'" &amp;E13&amp;"'},"</f>
-        <v>{name:['논현9단지점G'],addr:'인천광역시 남동구 에코중앙로 96',x:'931082.9144479546',y:'1932299.9763963223'},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['논현9단지점G'],addr:'인천광역시 남동구 에코중앙로 96',x:'931082.9144479546',y:'1932299.9763963223',jibun:'인천광역시 남동구 논현동 766-1 에코메트로9단지한화꿈에그린아파트'},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -7077,12 +7685,15 @@
       <c r="F14" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G14" t="str">
-        <f>"{name:" &amp; "['"&amp;A14&amp;"'"&amp;IF(ISBLANK(B14),"",",'"&amp;B14&amp;"'")&amp;"],addr:" &amp; "'" &amp;C14&amp;"',x:"&amp; "'" &amp;D14&amp;"',y:"&amp; "'" &amp;E14&amp;"'},"</f>
-        <v>{name:['논현그린점G'],addr:'인천광역시 남동구 소래역남로 41',x:'932050.8703605854',y:'1933616.1930220574'},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['논현그린점G'],addr:'인천광역시 남동구 소래역남로 41',x:'932050.8703605854',y:'1933616.1930220574',jibun:'인천광역시 남동구 논현동 755-1 에코메트로5단지상가'},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -7098,12 +7709,15 @@
       <c r="F15" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G15" t="str">
-        <f>"{name:" &amp; "['"&amp;A15&amp;"'"&amp;IF(ISBLANK(B15),"",",'"&amp;B15&amp;"'")&amp;"],addr:" &amp; "'" &amp;C15&amp;"',x:"&amp; "'" &amp;D15&amp;"',y:"&amp; "'" &amp;E15&amp;"'},"</f>
-        <v>{name:['논현논곡점G'],addr:'인천광역시 남동구 은봉로165번길 70',x:'930117.4696603667',y:'1934690.2941433568'},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['논현논곡점G'],addr:'인천광역시 남동구 은봉로165번길 70',x:'930117.4696603667',y:'1934690.2941433568',jibun:'인천광역시 남동구 논현동 579-8'},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -7119,12 +7733,15 @@
       <c r="F16" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G16" t="str">
-        <f>"{name:" &amp; "['"&amp;A16&amp;"'"&amp;IF(ISBLANK(B16),"",",'"&amp;B16&amp;"'")&amp;"],addr:" &amp; "'" &amp;C16&amp;"',x:"&amp; "'" &amp;D16&amp;"',y:"&amp; "'" &amp;E16&amp;"'},"</f>
-        <v>{name:['논현본점G'],addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222'},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['논현본점G'],addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222',jibun:'인천광역시 남동구 논현동 633-1 달맞이마을휴먼시아5단지 상가'},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -7140,12 +7757,15 @@
       <c r="F17" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G17" t="str">
-        <f>"{name:" &amp; "['"&amp;A17&amp;"'"&amp;IF(ISBLANK(B17),"",",'"&amp;B17&amp;"'")&amp;"],addr:" &amp; "'" &amp;C17&amp;"',x:"&amp; "'" &amp;D17&amp;"',y:"&amp; "'" &amp;E17&amp;"'},"</f>
-        <v>{name:['논현사리울점G'],addr:'인천광역시 남동구 호구포로 294',x:'930380.131301852',y:'1934682.26347306'},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['논현사리울점G'],addr:'인천광역시 남동구 호구포로 294',x:'930380.131301852',y:'1934682.26347306',jibun:'인천광역시 남동구 논현동 564-1 논현주공1단지아파트'},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -7161,12 +7781,15 @@
       <c r="F18" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G18" t="str">
-        <f>"{name:" &amp; "['"&amp;A18&amp;"'"&amp;IF(ISBLANK(B18),"",",'"&amp;B18&amp;"'")&amp;"],addr:" &amp; "'" &amp;C18&amp;"',x:"&amp; "'" &amp;D18&amp;"',y:"&amp; "'" &amp;E18&amp;"'},"</f>
-        <v>{name:['논현타워점G'],addr:'인천광역시 남동구 논고개로 101',x:'931351.6498332566',y:'1933713.8792295498'},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['논현타워점G'],addr:'인천광역시 남동구 논고개로 101',x:'931351.6498332566',y:'1933713.8792295498',jibun:'인천광역시 남동구 논현동 649-3 아름다운타워'},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -7182,12 +7805,15 @@
       <c r="F19" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G19" t="str">
-        <f>"{name:" &amp; "['"&amp;A19&amp;"'"&amp;IF(ISBLANK(B19),"",",'"&amp;B19&amp;"'")&amp;"],addr:" &amp; "'" &amp;C19&amp;"',x:"&amp; "'" &amp;D19&amp;"',y:"&amp; "'" &amp;E19&amp;"'},"</f>
-        <v>{name:['논현푸르내점G'],addr:'인천광역시 남동구 포구로 96',x:'932234.2407277152',y:'1934439.1704077376'},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['논현푸르내점G'],addr:'인천광역시 남동구 포구로 96',x:'932234.2407277152',y:'1934439.1704077376',jibun:'인천광역시 남동구 논현동 600-9 휴먼시아푸르내마을13단지 상가'},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -7203,12 +7829,15 @@
       <c r="F20" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G20" t="str">
-        <f>"{name:" &amp; "['"&amp;A20&amp;"'"&amp;IF(ISBLANK(B20),"",",'"&amp;B20&amp;"'")&amp;"],addr:" &amp; "'" &amp;C20&amp;"',x:"&amp; "'" &amp;D20&amp;"',y:"&amp; "'" &amp;E20&amp;"'},"</f>
-        <v>{name:['논현푸르지오점G'],addr:'인천광역시 남동구 남동서로236번길 30',x:'928769.7605027566',y:'1934796.3489991403'},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['논현푸르지오점G'],addr:'인천광역시 남동구 남동서로236번길 30',x:'928769.7605027566',y:'1934796.3489991403',jibun:'인천광역시 남동구 논현동 448 논현2차푸르지오시티'},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -7224,12 +7853,15 @@
       <c r="F21" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G21" t="str">
-        <f>"{name:" &amp; "['"&amp;A21&amp;"'"&amp;IF(ISBLANK(B21),"",",'"&amp;B21&amp;"'")&amp;"],addr:" &amp; "'" &amp;C21&amp;"',x:"&amp; "'" &amp;D21&amp;"',y:"&amp; "'" &amp;E21&amp;"'},"</f>
-        <v>{name:['논현하늘소점G'],addr:'인천광역시 남동구 논현로 17',x:'929976.1893208527',y:'1934125.684656498'},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['논현하늘소점G'],addr:'인천광역시 남동구 논현로 17',x:'929976.1893208527',y:'1934125.684656498',jibun:'인천광역시 남동구 논현동 643-1 범마을휴먼시아2단지 상가'},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -7245,12 +7877,15 @@
       <c r="F22" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G22" t="str">
-        <f>"{name:" &amp; "['"&amp;A22&amp;"'"&amp;IF(ISBLANK(B22),"",",'"&amp;B22&amp;"'")&amp;"],addr:" &amp; "'" &amp;C22&amp;"',x:"&amp; "'" &amp;D22&amp;"',y:"&amp; "'" &amp;E22&amp;"'},"</f>
-        <v>{name:['논현행복점G'],addr:'인천광역시 남동구 논현로 152',x:'931221.0594972067',y:'1934106.1328947735'},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['논현행복점G'],addr:'인천광역시 남동구 논현로 152',x:'931221.0594972067',y:'1934106.1328947735',jibun:'인천광역시 남동구 논현동 619-18'},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -7266,12 +7901,15 @@
       <c r="F23" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G23" t="str">
-        <f>"{name:" &amp; "['"&amp;A23&amp;"'"&amp;IF(ISBLANK(B23),"",",'"&amp;B23&amp;"'")&amp;"],addr:" &amp; "'" &amp;C23&amp;"',x:"&amp; "'" &amp;D23&amp;"',y:"&amp; "'" &amp;E23&amp;"'},"</f>
-        <v>{name:['논현현대식자재마트'],addr:'인천광역시 남동구 포구로 69',x:'932397.976608831',y:'1934223.199099741'},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['논현현대식자재마트'],addr:'인천광역시 남동구 포구로 69',x:'932397.976608831',y:'1934223.199099741',jibun:'인천광역시 남동구 논현동 109-40'},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -7287,12 +7925,15 @@
       <c r="F24" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G24" t="str">
-        <f>"{name:" &amp; "['"&amp;A24&amp;"'"&amp;IF(ISBLANK(B24),"",",'"&amp;B24&amp;"'")&amp;"],addr:" &amp; "'" &amp;C24&amp;"',x:"&amp; "'" &amp;D24&amp;"',y:"&amp; "'" &amp;E24&amp;"'},"</f>
-        <v>{name:['논현호구포점G'],addr:'인천광역시 남동구 호구포로 209',x:'929995.2392286886',y:'1933932.6975875972'},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['논현호구포점G'],addr:'인천광역시 남동구 호구포로 209',x:'929995.2392286886',y:'1933932.6975875972',jibun:'인천광역시 남동구 논현동 647-6 호텔라르시티'},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -7308,12 +7949,15 @@
       <c r="F25" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G25" t="str">
-        <f>"{name:" &amp; "['"&amp;A25&amp;"'"&amp;IF(ISBLANK(B25),"",",'"&amp;B25&amp;"'")&amp;"],addr:" &amp; "'" &amp;C25&amp;"',x:"&amp; "'" &amp;D25&amp;"',y:"&amp; "'" &amp;E25&amp;"'},"</f>
-        <v>{name:['도림벽산점G'],addr:'인천광역시 남동구 도림로 5-1',x:'931800.7220110968',y:'1935999.2065084004'},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['도림벽산점G'],addr:'인천광역시 남동구 도림로 5-1',x:'931800.7220110968',y:'1935999.2065084004',jibun:'인천광역시 남동구 도림동 655-5'},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -7329,12 +7973,15 @@
       <c r="F26" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G26" t="str">
-        <f>"{name:" &amp; "['"&amp;A26&amp;"'"&amp;IF(ISBLANK(B26),"",",'"&amp;B26&amp;"'")&amp;"],addr:" &amp; "'" &amp;C26&amp;"',x:"&amp; "'" &amp;D26&amp;"',y:"&amp; "'" &amp;E26&amp;"'},"</f>
-        <v>{name:['도림아이파크점G'],addr:'인천광역시 남동구 도리미로 8',x:'931913.8111496232',y:'1936148.2539673'},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['도림아이파크점G'],addr:'인천광역시 남동구 도리미로 8',x:'931913.8111496232',y:'1936148.2539673',jibun:'인천광역시 남동구 도림동 651-1 현대아이파크아파트'},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -7350,12 +7997,15 @@
       <c r="F27" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G27" t="str">
-        <f>"{name:" &amp; "['"&amp;A27&amp;"'"&amp;IF(ISBLANK(B27),"",",'"&amp;B27&amp;"'")&amp;"],addr:" &amp; "'" &amp;C27&amp;"',x:"&amp; "'" &amp;D27&amp;"',y:"&amp; "'" &amp;E27&amp;"'},"</f>
-        <v>{name:['도화 길목G'],addr:'인천광역시 미추홀구 한나루로586번길 46',x:'926983.470680593',y:'1940180.8585922741'},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['도화 길목G'],addr:'인천광역시 미추홀구 한나루로586번길 46',x:'926983.470680593',y:'1940180.8585922741',jibun:'인천광역시 미추홀구 도화동 456-5'},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -7371,12 +8021,15 @@
       <c r="F28" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G28" t="str">
-        <f>"{name:" &amp; "['"&amp;A28&amp;"'"&amp;IF(ISBLANK(B28),"",",'"&amp;B28&amp;"'")&amp;"],addr:" &amp; "'" &amp;C28&amp;"',x:"&amp; "'" &amp;D28&amp;"',y:"&amp; "'" &amp;E28&amp;"'},"</f>
-        <v>{name:['도화진주점G'],addr:'인천광역시 미추홀구 석정로323번길 43',x:'926556.1723330859',y:'1941432.2902734857'},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['도화진주점G'],addr:'인천광역시 미추홀구 석정로323번길 43',x:'926556.1723330859',y:'1941432.2902734857',jibun:'인천광역시 미추홀구 도화동 107-1'},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -7392,12 +8045,15 @@
       <c r="F29" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G29" t="str">
-        <f>"{name:" &amp; "['"&amp;A29&amp;"'"&amp;IF(ISBLANK(B29),"",",'"&amp;B29&amp;"'")&amp;"],addr:" &amp; "'" &amp;C29&amp;"',x:"&amp; "'" &amp;D29&amp;"',y:"&amp; "'" &amp;E29&amp;"'},"</f>
-        <v>{name:['도화팰리스점G'],addr:'인천광역시 미추홀구 경인로 301',x:'926987.0691978035',y:'1940461.0685464954'},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['도화팰리스점G'],addr:'인천광역시 미추홀구 경인로 301',x:'926987.0691978035',y:'1940461.0685464954',jibun:'인천광역시 미추홀구 도화동 389-13 주영팰리스'},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -7413,12 +8069,15 @@
       <c r="F30" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G30" t="str">
-        <f>"{name:" &amp; "['"&amp;A30&amp;"'"&amp;IF(ISBLANK(B30),"",",'"&amp;B30&amp;"'")&amp;"],addr:" &amp; "'" &amp;C30&amp;"',x:"&amp; "'" &amp;D30&amp;"',y:"&amp; "'" &amp;E30&amp;"'},"</f>
-        <v>{name:['동춘서해점G'],addr:'인천광역시 연수구 봉재산로 20',x:'926197.1109902868',y:'1934885.043063439'},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['동춘서해점G'],addr:'인천광역시 연수구 봉재산로 20',x:'926197.1109902868',y:'1934885.043063439',jibun:'인천광역시 연수구 동춘동 0 연수 서해그랑블 1단지'},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -7434,12 +8093,15 @@
       <c r="F31" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G31" t="str">
-        <f>"{name:" &amp; "['"&amp;A31&amp;"'"&amp;IF(ISBLANK(B31),"",",'"&amp;B31&amp;"'")&amp;"],addr:" &amp; "'" &amp;C31&amp;"',x:"&amp; "'" &amp;D31&amp;"',y:"&amp; "'" &amp;E31&amp;"'},"</f>
-        <v>{name:['동춘풍림점G'],addr:'인천광역시 연수구 경원대로119번길 21',x:'926969.1834998771',y:'1933933.1206172006'},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['동춘풍림점G'],addr:'인천광역시 연수구 경원대로119번길 21',x:'926969.1834998771',y:'1933933.1206172006',jibun:'인천광역시 연수구 동춘동 929 연수2차풍림아파트'},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -7455,12 +8117,15 @@
       <c r="F32" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G32" t="str">
-        <f>"{name:" &amp; "['"&amp;A32&amp;"'"&amp;IF(ISBLANK(B32),"",",'"&amp;B32&amp;"'")&amp;"],addr:" &amp; "'" &amp;C32&amp;"',x:"&amp; "'" &amp;D32&amp;"',y:"&amp; "'" &amp;E32&amp;"'},"</f>
-        <v>{name:['마스터뷰21호점G'],addr:'인천광역시 연수구 컨벤시아대로274번길 55',x:'922947.2055729781',y:'1932085.0274891593'},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['마스터뷰21호점G'],addr:'인천광역시 연수구 컨벤시아대로274번길 55',x:'922947.2055729781',y:'1932085.0274891593',jibun:'인천광역시 연수구 송도동 110 송도 더샵 마스터뷰 21BL'},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>751</v>
       </c>
@@ -7476,12 +8141,15 @@
       <c r="F33" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G33" t="str">
-        <f>"{name:" &amp; "['"&amp;A33&amp;"'"&amp;IF(ISBLANK(B33),"",",'"&amp;B33&amp;"'")&amp;"],addr:" &amp; "'" &amp;C33&amp;"',x:"&amp; "'" &amp;D33&amp;"',y:"&amp; "'" &amp;E33&amp;"'},"</f>
-        <v>{name:['만도로브제'],addr:'인천광역시 연수구 첨단대로60번길 75',x:'924604.9640742338',y:'1929694.2852085028'},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['만도로브제'],addr:'인천광역시 연수구 첨단대로60번길 75',x:'924604.9640742338',y:'1929694.2852085028',jibun:'인천광역시 연수구 송도동 217-1 만도브로제공장'},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>727</v>
       </c>
@@ -7497,12 +8165,15 @@
       <c r="F34" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G34" t="str">
-        <f>"{name:" &amp; "['"&amp;A34&amp;"'"&amp;IF(ISBLANK(B34),"",",'"&amp;B34&amp;"'")&amp;"],addr:" &amp; "'" &amp;C34&amp;"',x:"&amp; "'" &amp;D34&amp;"',y:"&amp; "'" &amp;E34&amp;"'},"</f>
-        <v>{name:['만도헬라일렉트로닉스(주)-WOORI'],addr:'인천광역시 연수구 하모니로 224',x:'923721.6646240482',y:'1931399.019956504'},</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['만도헬라일렉트로닉스(주)-WOORI'],addr:'인천광역시 연수구 하모니로 224',x:'923721.6646240482',y:'1931399.019956504',jibun:'인천광역시 연수구 송도동 10-42 MHE송도공장'},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -7518,12 +8189,15 @@
       <c r="F35" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G35" t="str">
-        <f>"{name:" &amp; "['"&amp;A35&amp;"'"&amp;IF(ISBLANK(B35),"",",'"&amp;B35&amp;"'")&amp;"],addr:" &amp; "'" &amp;C35&amp;"',x:"&amp; "'" &amp;D35&amp;"',y:"&amp; "'" &amp;E35&amp;"'},"</f>
-        <v>{name:['만수숭의점G'],addr:'인천광역시 남동구 구월말로58번길 1',x:'931460.6338070568',y:'1939723.2555402233'},</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['만수숭의점G'],addr:'인천광역시 남동구 구월말로58번길 1',x:'931460.6338070568',y:'1939723.2555402233',jibun:'인천광역시 남동구 만수동 913-4'},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -7542,12 +8216,15 @@
       <c r="F36" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G36" t="str">
-        <f>"{name:" &amp; "['"&amp;A36&amp;"'"&amp;IF(ISBLANK(B36),"",",'"&amp;B36&amp;"'")&amp;"],addr:" &amp; "'" &amp;C36&amp;"',x:"&amp; "'" &amp;D36&amp;"',y:"&amp; "'" &amp;E36&amp;"'},"</f>
-        <v>{name:['메리빌리아-송도','송도트리플점G'],addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588'},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['메리빌리아-송도','송도트리플점G'],addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588',jibun:'인천광역시 연수구 송도동 170-1 송도 트리플스트리트'},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -7563,12 +8240,15 @@
       <c r="F37" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G37" t="str">
-        <f>"{name:" &amp; "['"&amp;A37&amp;"'"&amp;IF(ISBLANK(B37),"",",'"&amp;B37&amp;"'")&amp;"],addr:" &amp; "'" &amp;C37&amp;"',x:"&amp; "'" &amp;D37&amp;"',y:"&amp; "'" &amp;E37&amp;"'},"</f>
-        <v>{name:['무지개할인마트'],addr:'인천광역시 연수구 새말로36번길 11',x:'926976.9262094533',y:'1936160.6680197665'},</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G37" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['무지개할인마트'],addr:'인천광역시 연수구 새말로36번길 11',x:'926976.9262094533',y:'1936160.6680197665',jibun:'인천광역시 연수구 연수동 559'},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -7584,12 +8264,15 @@
       <c r="F38" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G38" t="str">
-        <f>"{name:" &amp; "['"&amp;A38&amp;"'"&amp;IF(ISBLANK(B38),"",",'"&amp;B38&amp;"'")&amp;"],addr:" &amp; "'" &amp;C38&amp;"',x:"&amp; "'" &amp;D38&amp;"',y:"&amp; "'" &amp;E38&amp;"'},"</f>
-        <v>{name:['미니24-인천'],addr:'인천광역시 미추홀구 경인로 437',x:'928246.1295577467',y:'1940192.399497855'},</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['미니24-인천'],addr:'인천광역시 미추홀구 경인로 437',x:'928246.1295577467',y:'1940192.399497855',jibun:'인천광역시 미추홀구 주안동 1005-10'},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>725</v>
       </c>
@@ -7605,12 +8288,15 @@
       <c r="F39" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G39" t="str">
-        <f>"{name:" &amp; "['"&amp;A39&amp;"'"&amp;IF(ISBLANK(B39),"",",'"&amp;B39&amp;"'")&amp;"],addr:" &amp; "'" &amp;C39&amp;"',x:"&amp; "'" &amp;D39&amp;"',y:"&amp; "'" &amp;E39&amp;"'},"</f>
-        <v>{name:['미추홀타워점G'],addr:'인천광역시 연수구 갯벌로 12',x:'925064.2345959987',y:'1931830.2383670015'},</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="G39" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['미추홀타워점G'],addr:'인천광역시 연수구 갯벌로 12',x:'925064.2345959987',y:'1931830.2383670015',jibun:'인천광역시 연수구 송도동 7-50 미추홀타워 별관A동'},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -7626,12 +8312,15 @@
       <c r="F40" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G40" t="str">
-        <f>"{name:" &amp; "['"&amp;A40&amp;"'"&amp;IF(ISBLANK(B40),"",",'"&amp;B40&amp;"'")&amp;"],addr:" &amp; "'" &amp;C40&amp;"',x:"&amp; "'" &amp;D40&amp;"',y:"&amp; "'" &amp;E40&amp;"'},"</f>
-        <v>{name:['보금마트-연수'],addr:'인천광역시 연수구 함박로25번길 2',x:'927463.1199536233',y:'1936627.06679082'},</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="G40" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['보금마트-연수'],addr:'인천광역시 연수구 함박로25번길 2',x:'927463.1199536233',y:'1936627.06679082',jibun:'인천광역시 연수구 연수동 496-11'},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -7647,12 +8336,15 @@
       <c r="F41" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G41" t="str">
-        <f>"{name:" &amp; "['"&amp;A41&amp;"'"&amp;IF(ISBLANK(B41),"",",'"&amp;B41&amp;"'")&amp;"],addr:" &amp; "'" &amp;C41&amp;"',x:"&amp; "'" &amp;D41&amp;"',y:"&amp; "'" &amp;E41&amp;"'},"</f>
-        <v>{name:['서구검단고점G'],addr:'인천광역시 서구 검단로 532',x:'926110.4926230235',y:'1956373.3558248538'},</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="G41" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['서구검단고점G'],addr:'인천광역시 서구 검단로 532',x:'926110.4926230235',y:'1956373.3558248538',jibun:'인천광역시 서구 마전동 988-7 신한빌딩'},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -7668,12 +8360,15 @@
       <c r="F42" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G42" t="str">
-        <f>"{name:" &amp; "['"&amp;A42&amp;"'"&amp;IF(ISBLANK(B42),"",",'"&amp;B42&amp;"'")&amp;"],addr:" &amp; "'" &amp;C42&amp;"',x:"&amp; "'" &amp;D42&amp;"',y:"&amp; "'" &amp;E42&amp;"'},"</f>
-        <v>{name:['서구엠파크점G'],addr:'인천광역시 서구 염곡로 52',x:'926244.9221541481',y:'1943755.5184864542'},</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="G42" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['서구엠파크점G'],addr:'인천광역시 서구 염곡로 52',x:'926244.9221541481',y:'1943755.5184864542',jibun:'인천광역시 서구 가좌동 150-19 엠파크 허브'},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -7689,12 +8384,15 @@
       <c r="F43" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G43" t="str">
-        <f>"{name:" &amp; "['"&amp;A43&amp;"'"&amp;IF(ISBLANK(B43),"",",'"&amp;B43&amp;"'")&amp;"],addr:" &amp; "'" &amp;C43&amp;"',x:"&amp; "'" &amp;D43&amp;"',y:"&amp; "'" &amp;E43&amp;"'},"</f>
-        <v>{name:['서구연희점G'],addr:'인천광역시 서구 간촌로 9',x:'927388.9430976734',y:'1950308.0950684836'},</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="G43" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['서구연희점G'],addr:'인천광역시 서구 간촌로 9',x:'927388.9430976734',y:'1950308.0950684836',jibun:'인천광역시 서구 연희동 708-6'},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -7710,12 +8408,15 @@
       <c r="F44" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G44" t="str">
-        <f>"{name:" &amp; "['"&amp;A44&amp;"'"&amp;IF(ISBLANK(B44),"",",'"&amp;B44&amp;"'")&amp;"],addr:" &amp; "'" &amp;C44&amp;"',x:"&amp; "'" &amp;D44&amp;"',y:"&amp; "'" &amp;E44&amp;"'},"</f>
-        <v>{name:['선학역점M'],addr:'인천광역시 연수구 학나래로118번길 23',x:'929081.3471575531',y:'1936767.7973411446'},</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="G44" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['선학역점M'],addr:'인천광역시 연수구 학나래로118번길 23',x:'929081.3471575531',y:'1936767.7973411446',jibun:'인천광역시 연수구 선학동 406 진승빌딩'},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -7731,12 +8432,15 @@
       <c r="F45" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G45" t="str">
-        <f>"{name:" &amp; "['"&amp;A45&amp;"'"&amp;IF(ISBLANK(B45),"",",'"&amp;B45&amp;"'")&amp;"],addr:" &amp; "'" &amp;C45&amp;"',x:"&amp; "'" &amp;D45&amp;"',y:"&amp; "'" &amp;E45&amp;"'},"</f>
-        <v>{name:['선학중앙G'],addr:'인천광역시 연수구 학나래로6번길 32',x:'929030.9872679301',y:'1936439.7252242365'},</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="G45" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['선학중앙G'],addr:'인천광역시 연수구 학나래로6번길 32',x:'929030.9872679301',y:'1936439.7252242365',jibun:'인천광역시 연수구 선학동 407-10'},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -7752,12 +8456,15 @@
       <c r="F46" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G46" t="str">
-        <f>"{name:" &amp; "['"&amp;A46&amp;"'"&amp;IF(ISBLANK(B46),"",",'"&amp;B46&amp;"'")&amp;"],addr:" &amp; "'" &amp;C46&amp;"',x:"&amp; "'" &amp;D46&amp;"',y:"&amp; "'" &amp;E46&amp;"'},"</f>
-        <v>{name:['세븐일레븐-인천간석역점'],addr:'인천광역시 남동구 석산로 3',x:'928759.3617110967',y:'1940883.321277853'},</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="G46" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['세븐일레븐-인천간석역점'],addr:'인천광역시 남동구 석산로 3',x:'928759.3617110967',y:'1940883.321277853',jibun:'인천광역시 남동구 간석동 394-3 의성프라자'},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -7773,12 +8480,15 @@
       <c r="F47" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G47" t="str">
-        <f>"{name:" &amp; "['"&amp;A47&amp;"'"&amp;IF(ISBLANK(B47),"",",'"&amp;B47&amp;"'")&amp;"],addr:" &amp; "'" &amp;C47&amp;"',x:"&amp; "'" &amp;D47&amp;"',y:"&amp; "'" &amp;E47&amp;"'},"</f>
-        <v>{name:['셀트리온 제2공장 3층WOORI'],addr:'인천광역시 연수구 아카데미로51번길 20',x:'923862.253035788',y:'1930721.5154832513'},</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="G47" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['셀트리온 제2공장 3층WOORI'],addr:'인천광역시 연수구 아카데미로51번길 20',x:'923862.253035788',y:'1930721.5154832513',jibun:'인천광역시 연수구 송도동 13-1 셀트리온'},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -7794,12 +8504,15 @@
       <c r="F48" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G48" t="str">
-        <f>"{name:" &amp; "['"&amp;A48&amp;"'"&amp;IF(ISBLANK(B48),"",",'"&amp;B48&amp;"'")&amp;"],addr:" &amp; "'" &amp;C48&amp;"',x:"&amp; "'" &amp;D48&amp;"',y:"&amp; "'" &amp;E48&amp;"'},"</f>
-        <v>{name:['소래베스트점G'],addr:'인천광역시 남동구 소래역로 20',x:'932409.8016257668',y:'1933619.6491731368'},</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="G48" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['소래베스트점G'],addr:'인천광역시 남동구 소래역로 20',x:'932409.8016257668',y:'1933619.6491731368',jibun:'인천광역시 남동구 논현동 679-3'},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -7815,12 +8528,15 @@
       <c r="F49" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G49" t="str">
-        <f>"{name:" &amp; "['"&amp;A49&amp;"'"&amp;IF(ISBLANK(B49),"",",'"&amp;B49&amp;"'")&amp;"],addr:" &amp; "'" &amp;C49&amp;"',x:"&amp; "'" &amp;D49&amp;"',y:"&amp; "'" &amp;E49&amp;"'},"</f>
-        <v>{name:['소래시티점G'],addr:'인천광역시 남동구 포구로 35',x:'932559.6363396579',y:'1933938.546323114'},</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="G49" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['소래시티점G'],addr:'인천광역시 남동구 포구로 35',x:'932559.6363396579',y:'1933938.546323114',jibun:'인천광역시 남동구 논현동 66-24 유호엔시티1단지'},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -7836,12 +8552,15 @@
       <c r="F50" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G50" t="str">
-        <f>"{name:" &amp; "['"&amp;A50&amp;"'"&amp;IF(ISBLANK(B50),"",",'"&amp;B50&amp;"'")&amp;"],addr:" &amp; "'" &amp;C50&amp;"',x:"&amp; "'" &amp;D50&amp;"',y:"&amp; "'" &amp;E50&amp;"'},"</f>
-        <v>{name:['소래중앙점G'],addr:'인천광역시 남동구 소래역로18번길 15',x:'932472.0993263312',y:'1933643.4917039908'},</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="G50" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['소래중앙점G'],addr:'인천광역시 남동구 소래역로18번길 15',x:'932472.0993263312',y:'1933643.4917039908',jibun:'인천광역시 남동구 논현동 678-5 중앙주차타워'},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -7857,12 +8576,15 @@
       <c r="F51" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G51" t="str">
-        <f>"{name:" &amp; "['"&amp;A51&amp;"'"&amp;IF(ISBLANK(B51),"",",'"&amp;B51&amp;"'")&amp;"],addr:" &amp; "'" &amp;C51&amp;"',x:"&amp; "'" &amp;D51&amp;"',y:"&amp; "'" &amp;E51&amp;"'},"</f>
-        <v>{name:['소래포구점G'],addr:'인천광역시 남동구 장도로 85',x:'932594.8315246161',y:'1933497.9901714372'},</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="G51" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['소래포구점G'],addr:'인천광역시 남동구 장도로 85',x:'932594.8315246161',y:'1933497.9901714372',jibun:'인천광역시 남동구 논현동 111-79'},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -7878,12 +8600,15 @@
       <c r="F52" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G52" t="str">
-        <f>"{name:" &amp; "['"&amp;A52&amp;"'"&amp;IF(ISBLANK(B52),"",",'"&amp;B52&amp;"'")&amp;"],addr:" &amp; "'" &amp;C52&amp;"',x:"&amp; "'" &amp;D52&amp;"',y:"&amp; "'" &amp;E52&amp;"'},"</f>
-        <v>{name:['소래풍림점G'],addr:'인천광역시 남동구 포구로 64-29',x:'932494.2900207366',y:'1934308.7269807002'},</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="G52" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['소래풍림점G'],addr:'인천광역시 남동구 포구로 64-29',x:'932494.2900207366',y:'1934308.7269807002',jibun:'인천광역시 남동구 논현동 66-39'},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>350</v>
       </c>
@@ -7899,12 +8624,15 @@
       <c r="F53" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G53" t="str">
-        <f>"{name:" &amp; "['"&amp;A53&amp;"'"&amp;IF(ISBLANK(B53),"",",'"&amp;B53&amp;"'")&amp;"],addr:" &amp; "'" &amp;C53&amp;"',x:"&amp; "'" &amp;D53&amp;"',y:"&amp; "'" &amp;E53&amp;"'},"</f>
-        <v>{name:['송도 라이크홈기숙사-KEB하나'],addr:'인천광역시 연수구 첨단대로 80',x:'925077.5744217939',y:'1930163.4990456211'},</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="G53" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도 라이크홈기숙사-KEB하나'],addr:'인천광역시 연수구 첨단대로 80',x:'925077.5744217939',y:'1930163.4990456211',jibun:'인천광역시 연수구 송도동 207-3 레지던스 라이크홈'},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>728</v>
       </c>
@@ -7923,12 +8651,15 @@
       <c r="F54" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G54" t="str">
-        <f>"{name:" &amp; "['"&amp;A54&amp;"'"&amp;IF(ISBLANK(B54),"",",'"&amp;B54&amp;"'")&amp;"],addr:" &amp; "'" &amp;C54&amp;"',x:"&amp; "'" &amp;D54&amp;"',y:"&amp; "'" &amp;E54&amp;"'},"</f>
-        <v>{name:['송도 에듀포레푸르지오','에듀포레점G'],addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713'},</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="G54" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도 에듀포레푸르지오','에듀포레점G'],addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713',jibun:'인천광역시 연수구 송도동 191-4 송도 에듀포레 푸르지오'},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -7944,12 +8675,15 @@
       <c r="F55" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G55" t="str">
-        <f>"{name:" &amp; "['"&amp;A55&amp;"'"&amp;IF(ISBLANK(B55),"",",'"&amp;B55&amp;"'")&amp;"],addr:" &amp; "'" &amp;C55&amp;"',x:"&amp; "'" &amp;D55&amp;"',y:"&amp; "'" &amp;E55&amp;"'},"</f>
-        <v>{name:['송도그림워크점GSS'],addr:'인천광역시 연수구 아트센터대로97번길 15',x:'923949.5984413391',y:'1933886.2199624083'},</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="G55" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도그림워크점GSS'],addr:'인천광역시 연수구 아트센터대로97번길 15',x:'923949.5984413391',y:'1933886.2199624083',jibun:'인천광역시 연수구 송도동 17-3 더샵 그린워크2차'},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -7965,12 +8699,15 @@
       <c r="F56" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G56" t="str">
-        <f>"{name:" &amp; "['"&amp;A56&amp;"'"&amp;IF(ISBLANK(B56),"",",'"&amp;B56&amp;"'")&amp;"],addr:" &amp; "'" &amp;C56&amp;"',x:"&amp; "'" &amp;D56&amp;"',y:"&amp; "'" &amp;E56&amp;"'},"</f>
-        <v>{name:['송도더샵엑스포KB'],addr:'인천광역시 연수구 컨벤시아대로42번길 95',x:'924238.7160272836',y:'1934178.4920383645'},</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="G56" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도더샵엑스포KB'],addr:'인천광역시 연수구 컨벤시아대로42번길 95',x:'924238.7160272836',y:'1934178.4920383645',jibun:'인천광역시 연수구 송도동 16-4 더샵 엑스포'},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -7986,12 +8723,15 @@
       <c r="F57" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G57" t="str">
-        <f>"{name:" &amp; "['"&amp;A57&amp;"'"&amp;IF(ISBLANK(B57),"",",'"&amp;B57&amp;"'")&amp;"],addr:" &amp; "'" &amp;C57&amp;"',x:"&amp; "'" &amp;D57&amp;"',y:"&amp; "'" &amp;E57&amp;"'},"</f>
-        <v>{name:['송도더샵점G'],addr:'인천광역시 연수구 아트센터대로97번길 75',x:'924389.3127429485',y:'1933490.9978888235'},</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="G57" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도더샵점G'],addr:'인천광역시 연수구 아트센터대로97번길 75',x:'924389.3127429485',y:'1933490.9978888235',jibun:'인천광역시 연수구 송도동 17-5 송도 더샵 하버뷰 13단지'},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8007,12 +8747,15 @@
       <c r="F58" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G58" t="str">
-        <f>"{name:" &amp; "['"&amp;A58&amp;"'"&amp;IF(ISBLANK(B58),"",",'"&amp;B58&amp;"'")&amp;"],addr:" &amp; "'" &amp;C58&amp;"',x:"&amp; "'" &amp;D58&amp;"',y:"&amp; "'" &amp;E58&amp;"'},"</f>
-        <v>{name:['송도라마다점G'],addr:'인천광역시 연수구 능허대로267번길 29',x:'925239.3006682626',y:'1935277.2973558633'},</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="G58" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도라마다점G'],addr:'인천광역시 연수구 능허대로267번길 29',x:'925239.3006682626',y:'1935277.2973558633',jibun:'인천광역시 연수구 동춘동 812-1 라마다송도호텔'},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -8028,12 +8771,15 @@
       <c r="F59" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G59" t="str">
-        <f>"{name:" &amp; "['"&amp;A59&amp;"'"&amp;IF(ISBLANK(B59),"",",'"&amp;B59&amp;"'")&amp;"],addr:" &amp; "'" &amp;C59&amp;"',x:"&amp; "'" &amp;D59&amp;"',y:"&amp; "'" &amp;E59&amp;"'},"</f>
-        <v>{name:['송도메디점G'],addr:'인천광역시 연수구 컨벤시아대로130번길 14',x:'924308.0890260204',y:'1932993.4899920663'},</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="G59" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도메디점G'],addr:'인천광역시 연수구 컨벤시아대로130번길 14',x:'924308.0890260204',y:'1932993.4899920663',jibun:'인천광역시 연수구 송도동 22-19 송도 메디컬타워'},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>171</v>
       </c>
@@ -8049,12 +8795,15 @@
       <c r="F60" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G60" t="str">
-        <f>"{name:" &amp; "['"&amp;A60&amp;"'"&amp;IF(ISBLANK(B60),"",",'"&amp;B60&amp;"'")&amp;"],addr:" &amp; "'" &amp;C60&amp;"',x:"&amp; "'" &amp;D60&amp;"',y:"&amp; "'" &amp;E60&amp;"'},"</f>
-        <v>{name:['송도성지점G'],addr:'인천광역시 연수구 신송로6번길 7',x:'925894.2303461249',y:'1932625.2375938715'},</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="G60" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도성지점G'],addr:'인천광역시 연수구 신송로6번길 7',x:'925894.2303461249',y:'1932625.2375938715',jibun:'인천광역시 연수구 송도동 2-12 송도 성지리벨루스'},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>162</v>
       </c>
@@ -8073,12 +8822,15 @@
       <c r="F61" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G61" t="str">
-        <f>"{name:" &amp; "['"&amp;A61&amp;"'"&amp;IF(ISBLANK(B61),"",",'"&amp;B61&amp;"'")&amp;"],addr:" &amp; "'" &amp;C61&amp;"',x:"&amp; "'" &amp;D61&amp;"',y:"&amp; "'" &amp;E61&amp;"'},"</f>
-        <v>{name:['송도센트럴점M','송도푸르지오시티점G'],addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754'},</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="G61" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도센트럴점M','송도푸르지오시티점G'],addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754',jibun:'인천광역시 연수구 송도동 83 송도 센트럴파크 푸르지오시티'},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -8094,12 +8846,15 @@
       <c r="F62" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G62" t="str">
-        <f>"{name:" &amp; "['"&amp;A62&amp;"'"&amp;IF(ISBLANK(B62),"",",'"&amp;B62&amp;"'")&amp;"],addr:" &amp; "'" &amp;C62&amp;"',x:"&amp; "'" &amp;D62&amp;"',y:"&amp; "'" &amp;E62&amp;"'},"</f>
-        <v>{name:['송도센트럴파크호텔'],addr:'인천광역시 연수구 테크노파크로 193',x:'923641.9774963101',y:'1932732.2588121234'},</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="G62" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도센트럴파크호텔'],addr:'인천광역시 연수구 테크노파크로 193',x:'923641.9774963101',y:'1932732.2588121234',jibun:'인천광역시 연수구 송도동 38 송도센트럴파크호텔'},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -8115,12 +8870,15 @@
       <c r="F63" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G63" t="str">
-        <f>"{name:" &amp; "['"&amp;A63&amp;"'"&amp;IF(ISBLANK(B63),"",",'"&amp;B63&amp;"'")&amp;"],addr:" &amp; "'" &amp;C63&amp;"',x:"&amp; "'" &amp;D63&amp;"',y:"&amp; "'" &amp;E63&amp;"'},"</f>
-        <v>{name:['송도스마트밸리점G'],addr:'인천광역시 연수구 송도미래로 30',x:'924568.090254779',y:'1930236.501307576'},</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="G63" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도스마트밸리점G'],addr:'인천광역시 연수구 송도미래로 30',x:'924568.090254779',y:'1930236.501307576',jibun:'인천광역시 연수구 송도동 214 송도 BRC 스마트밸리 지식산업센터'},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -8136,12 +8894,15 @@
       <c r="F64" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G64" t="str">
-        <f>"{name:" &amp; "['"&amp;A64&amp;"'"&amp;IF(ISBLANK(B64),"",",'"&amp;B64&amp;"'")&amp;"],addr:" &amp; "'" &amp;C64&amp;"',x:"&amp; "'" &amp;D64&amp;"',y:"&amp; "'" &amp;E64&amp;"'},"</f>
-        <v>{name:['송도월드마크점M'],addr:'인천광역시 연수구 컨벤시아대로 60',x:'924851.1126633752',y:'1933442.4269422777'},</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="G64" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도월드마크점M'],addr:'인천광역시 연수구 컨벤시아대로 60',x:'924851.1126633752',y:'1933442.4269422777',jibun:'인천광역시 연수구 송도동 20-23 푸르지오월드마크'},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -8157,12 +8918,15 @@
       <c r="F65" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G65" t="str">
-        <f>"{name:" &amp; "['"&amp;A65&amp;"'"&amp;IF(ISBLANK(B65),"",",'"&amp;B65&amp;"'")&amp;"],addr:" &amp; "'" &amp;C65&amp;"',x:"&amp; "'" &amp;D65&amp;"',y:"&amp; "'" &amp;E65&amp;"'},"</f>
-        <v>{name:['송도유원지점G'],addr:'인천광역시 연수구 능허대로 203',x:'924862.0970530566',y:'1935734.32011165'},</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="G65" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도유원지점G'],addr:'인천광역시 연수구 능허대로 203',x:'924862.0970530566',y:'1935734.32011165',jibun:'인천광역시 연수구 옥련동 550-7'},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -8178,12 +8942,15 @@
       <c r="F66" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G66" t="str">
-        <f>"{name:" &amp; "['"&amp;A66&amp;"'"&amp;IF(ISBLANK(B66),"",",'"&amp;B66&amp;"'")&amp;"],addr:" &amp; "'" &amp;C66&amp;"',x:"&amp; "'" &amp;D66&amp;"',y:"&amp; "'" &amp;E66&amp;"'},"</f>
-        <v>{name:['송도점-GSS'],addr:'인천광역시 연수구 해돋이로 107',x:'924778.2391112824',y:'1932822.1059526857'},</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="G66" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>{name:['송도점-GSS'],addr:'인천광역시 연수구 해돋이로 107',x:'924778.2391112824',y:'1932822.1059526857',jibun:'인천광역시 연수구 송도동 4-1 송도 더샵 퍼스트월드'},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -8199,12 +8966,15 @@
       <c r="F67" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G67" t="str">
-        <f>"{name:" &amp; "['"&amp;A67&amp;"'"&amp;IF(ISBLANK(B67),"",",'"&amp;B67&amp;"'")&amp;"],addr:" &amp; "'" &amp;C67&amp;"',x:"&amp; "'" &amp;D67&amp;"',y:"&amp; "'" &amp;E67&amp;"'},"</f>
-        <v>{name:['송도커넬워크점G'],addr:'인천광역시 연수구 아트센터대로 107',x:'923751.8781831791',y:'1933894.0553808152'},</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="G67" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H130" si="1">"{name:" &amp; "['"&amp;A67&amp;"'"&amp;IF(ISBLANK(B67),"",",'"&amp;B67&amp;"'")&amp;"],addr:" &amp; "'" &amp;C67&amp;"',x:"&amp; "'" &amp;D67&amp;"',y:"&amp; "'" &amp;E67&amp;"',jibun:"&amp; "'" &amp;G67&amp;"'},"</f>
+        <v>{name:['송도커넬워크점G'],addr:'인천광역시 연수구 아트센터대로 107',x:'923751.8781831791',y:'1933894.0553808152',jibun:'인천광역시 연수구 송도동 18-1 커낼워크D3 AUTUMN'},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -8220,12 +8990,15 @@
       <c r="F68" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G68" t="str">
-        <f>"{name:" &amp; "['"&amp;A68&amp;"'"&amp;IF(ISBLANK(B68),"",",'"&amp;B68&amp;"'")&amp;"],addr:" &amp; "'" &amp;C68&amp;"',x:"&amp; "'" &amp;D68&amp;"',y:"&amp; "'" &amp;E68&amp;"'},"</f>
-        <v>{name:['송도테크노파크IT센터SHINHAN'],addr:'인천광역시 연수구 송도과학로 32',x:'925841.3207283262',y:'1931743.5380926528'},</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="G68" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['송도테크노파크IT센터SHINHAN'],addr:'인천광역시 연수구 송도과학로 32',x:'925841.3207283262',y:'1931743.5380926528',jibun:'인천광역시 연수구 송도동 172-1 송도테크노파크IT센터'},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>159</v>
       </c>
@@ -8241,12 +9014,15 @@
       <c r="F69" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G69" t="str">
-        <f>"{name:" &amp; "['"&amp;A69&amp;"'"&amp;IF(ISBLANK(B69),"",",'"&amp;B69&amp;"'")&amp;"],addr:" &amp; "'" &amp;C69&amp;"',x:"&amp; "'" &amp;D69&amp;"',y:"&amp; "'" &amp;E69&amp;"'},"</f>
-        <v>{name:['송도파크호텔WOORI'],addr:'인천광역시 연수구 테크노파크로 151',x:'923940.5490371233',y:'1932461.3960087532'},</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="G69" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['송도파크호텔WOORI'],addr:'인천광역시 연수구 테크노파크로 151',x:'923940.5490371233',y:'1932461.3960087532',jibun:'인천광역시 연수구 송도동 93-1 오라카이송도파크호텔'},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -8262,12 +9038,15 @@
       <c r="F70" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G70" t="str">
-        <f>"{name:" &amp; "['"&amp;A70&amp;"'"&amp;IF(ISBLANK(B70),"",",'"&amp;B70&amp;"'")&amp;"],addr:" &amp; "'" &amp;C70&amp;"',x:"&amp; "'" &amp;D70&amp;"',y:"&amp; "'" &amp;E70&amp;"'},"</f>
-        <v>{name:['송도하모니점G'],addr:'인천광역시 연수구 하모니로 124',x:'924325.4107504063',y:'1932184.2251096321'},</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="G70" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['송도하모니점G'],addr:'인천광역시 연수구 하모니로 124',x:'924325.4107504063',y:'1932184.2251096321',jibun:'인천광역시 연수구 송도동 8-19'},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -8283,12 +9062,15 @@
       <c r="F71" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G71" t="str">
-        <f>"{name:" &amp; "['"&amp;A71&amp;"'"&amp;IF(ISBLANK(B71),"",",'"&amp;B71&amp;"'")&amp;"],addr:" &amp; "'" &amp;C71&amp;"',x:"&amp; "'" &amp;D71&amp;"',y:"&amp; "'" &amp;E71&amp;"'},"</f>
-        <v>{name:['송도해송점G'],addr:'인천광역시 연수구 해송로30번길 19',x:'924385.1257843729',y:'1931691.8597509419'},</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="G71" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['송도해송점G'],addr:'인천광역시 연수구 해송로30번길 19',x:'924385.1257843729',y:'1931691.8597509419',jibun:'인천광역시 연수구 송도동 9-6 웰카운티송도3단지'},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -8304,12 +9086,15 @@
       <c r="F72" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G72" t="str">
-        <f>"{name:" &amp; "['"&amp;A72&amp;"'"&amp;IF(ISBLANK(B72),"",",'"&amp;B72&amp;"'")&amp;"],addr:" &amp; "'" &amp;C72&amp;"',x:"&amp; "'" &amp;D72&amp;"',y:"&amp; "'" &amp;E72&amp;"'},"</f>
-        <v>{name:['송도현대점G'],addr:'인천광역시 연수구 해돋이로6번길 7',x:'925627.0584128611',y:'1932281.0568902749'},</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="G72" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['송도현대점G'],addr:'인천광역시 연수구 해돋이로6번길 7',x:'925627.0584128611',y:'1932281.0568902749',jibun:'인천광역시 연수구 송도동 3-46 아이파크송도'},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -8325,12 +9110,15 @@
       <c r="F73" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G73" t="str">
-        <f>"{name:" &amp; "['"&amp;A73&amp;"'"&amp;IF(ISBLANK(B73),"",",'"&amp;B73&amp;"'")&amp;"],addr:" &amp; "'" &amp;C73&amp;"',x:"&amp; "'" &amp;D73&amp;"',y:"&amp; "'" &amp;E73&amp;"'},"</f>
-        <v>{name:['송도힐스점G'],addr:'인천광역시 연수구 컨벤시아대로 90',x:'924647.7513800692',y:'1933202.8066080627'},</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="G73" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['송도힐스점G'],addr:'인천광역시 연수구 컨벤시아대로 90',x:'924647.7513800692',y:'1933202.8066080627',jibun:'인천광역시 연수구 송도동 21-64 인천송도힐스테이트'},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -8346,12 +9134,15 @@
       <c r="F74" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G74" t="str">
-        <f>"{name:" &amp; "['"&amp;A74&amp;"'"&amp;IF(ISBLANK(B74),"",",'"&amp;B74&amp;"'")&amp;"],addr:" &amp; "'" &amp;C74&amp;"',x:"&amp; "'" &amp;D74&amp;"',y:"&amp; "'" &amp;E74&amp;"'},"</f>
-        <v>{name:['숭의길목점G'],addr:'인천광역시 미추홀구 수봉안길 16',x:'925635.7302395517',y:'1940618.206504576'},</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="G74" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['숭의길목점G'],addr:'인천광역시 미추홀구 수봉안길 16',x:'925635.7302395517',y:'1940618.206504576',jibun:'인천광역시 미추홀구 숭의동 7-129'},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -8367,12 +9158,15 @@
       <c r="F75" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G75" t="str">
-        <f>"{name:" &amp; "['"&amp;A75&amp;"'"&amp;IF(ISBLANK(B75),"",",'"&amp;B75&amp;"'")&amp;"],addr:" &amp; "'" &amp;C75&amp;"',x:"&amp; "'" &amp;D75&amp;"',y:"&amp; "'" &amp;E75&amp;"'},"</f>
-        <v>{name:['시흥신창점G'],addr:'경기도 시흥시 신천4길 12',x:'936418.8711248166',y:'1937926.4969950966'},</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="G75" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['시흥신창점G'],addr:'경기도 시흥시 신천4길 12',x:'936418.8711248166',y:'1937926.4969950966',jibun:'경기도 시흥시 신천동 380-14'},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -8388,12 +9182,15 @@
       <c r="F76" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G76" t="str">
-        <f>"{name:" &amp; "['"&amp;A76&amp;"'"&amp;IF(ISBLANK(B76),"",",'"&amp;B76&amp;"'")&amp;"],addr:" &amp; "'" &amp;C76&amp;"',x:"&amp; "'" &amp;D76&amp;"',y:"&amp; "'" &amp;E76&amp;"'},"</f>
-        <v>{name:['신기사거리점G'],addr:'인천광역시 미추홀구 미추홀대로 610',x:'927475.7843919608',y:'1939483.3085580925'},</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="G76" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['신기사거리점G'],addr:'인천광역시 미추홀구 미추홀대로 610',x:'927475.7843919608',y:'1939483.3085580925',jibun:'인천광역시 미추홀구 주안동 1469-1'},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -8409,12 +9206,15 @@
       <c r="F77" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G77" t="str">
-        <f>"{name:" &amp; "['"&amp;A77&amp;"'"&amp;IF(ISBLANK(B77),"",",'"&amp;B77&amp;"'")&amp;"],addr:" &amp; "'" &amp;C77&amp;"',x:"&amp; "'" &amp;D77&amp;"',y:"&amp; "'" &amp;E77&amp;"'},"</f>
-        <v>{name:['신천동국민은행 결합부스'],addr:'경기도 시흥시 수인로 3372',x:'936693.2910999567',y:'1938235.12572021'},</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="G77" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['신천동국민은행 결합부스'],addr:'경기도 시흥시 수인로 3372',x:'936693.2910999567',y:'1938235.12572021',jibun:'경기도 시흥시 신천동 712-9 신천프라자'},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -8430,12 +9230,15 @@
       <c r="F78" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G78" t="str">
-        <f>"{name:" &amp; "['"&amp;A78&amp;"'"&amp;IF(ISBLANK(B78),"",",'"&amp;B78&amp;"'")&amp;"],addr:" &amp; "'" &amp;C78&amp;"',x:"&amp; "'" &amp;D78&amp;"',y:"&amp; "'" &amp;E78&amp;"'},"</f>
-        <v>{name:['아크리아점G'],addr:'인천광역시 연수구 신송로125번길 13',x:'924866.6899020134',y:'1933167.18251291'},</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="G78" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['아크리아점G'],addr:'인천광역시 연수구 신송로125번길 13',x:'924866.6899020134',y:'1933167.18251291',jibun:'인천광역시 연수구 송도동 3-6 아크리아'},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -8451,12 +9254,15 @@
       <c r="F79" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G79" t="str">
-        <f>"{name:" &amp; "['"&amp;A79&amp;"'"&amp;IF(ISBLANK(B79),"",",'"&amp;B79&amp;"'")&amp;"],addr:" &amp; "'" &amp;C79&amp;"',x:"&amp; "'" &amp;D79&amp;"',y:"&amp; "'" &amp;E79&amp;"'},"</f>
-        <v>{name:['엠파크타워점G'],addr:'인천광역시 서구 봉수대로 158',x:'925983.41854599',y:'1943696.0707750432'},</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="G79" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['엠파크타워점G'],addr:'인천광역시 서구 봉수대로 158',x:'925983.41854599',y:'1943696.0707750432',jibun:'인천광역시 서구 가좌동 178-105 엠파크타워'},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -8472,12 +9278,15 @@
       <c r="F80" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G80" t="str">
-        <f>"{name:" &amp; "['"&amp;A80&amp;"'"&amp;IF(ISBLANK(B80),"",",'"&amp;B80&amp;"'")&amp;"],addr:" &amp; "'" &amp;C80&amp;"',x:"&amp; "'" &amp;D80&amp;"',y:"&amp; "'" &amp;E80&amp;"'},"</f>
-        <v>{name:['연수경원G'],addr:'인천광역시 연수구 경원대로467번길 13',x:'929009.7022006633',y:'1936610.8085542968'},</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="G80" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수경원G'],addr:'인천광역시 연수구 경원대로467번길 13',x:'929009.7022006633',y:'1936610.8085542968',jibun:'인천광역시 연수구 선학동 405-13 명빌딩'},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -8493,12 +9302,15 @@
       <c r="F81" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G81" t="str">
-        <f>"{name:" &amp; "['"&amp;A81&amp;"'"&amp;IF(ISBLANK(B81),"",",'"&amp;B81&amp;"'")&amp;"],addr:" &amp; "'" &amp;C81&amp;"',x:"&amp; "'" &amp;D81&amp;"',y:"&amp; "'" &amp;E81&amp;"'},"</f>
-        <v>{name:['연수골드점G'],addr:'인천광역시 연수구 함박로 80',x:'927980.0656931633',y:'1936544.17710579'},</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="G81" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수골드점G'],addr:'인천광역시 연수구 함박로 80',x:'927980.0656931633',y:'1936544.17710579',jibun:'인천광역시 연수구 연수동 522-6'},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -8514,12 +9326,15 @@
       <c r="F82" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G82" t="str">
-        <f>"{name:" &amp; "['"&amp;A82&amp;"'"&amp;IF(ISBLANK(B82),"",",'"&amp;B82&amp;"'")&amp;"],addr:" &amp; "'" &amp;C82&amp;"',x:"&amp; "'" &amp;D82&amp;"',y:"&amp; "'" &amp;E82&amp;"'},"</f>
-        <v>{name:['연수단비점G'],addr:'인천광역시 연수구 청능대로113번길 43',x:'927274.7641431501',y:'1935327.7588821636'},</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="G82" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수단비점G'],addr:'인천광역시 연수구 청능대로113번길 43',x:'927274.7641431501',y:'1935327.7588821636',jibun:'인천광역시 연수구 연수동 598-2 동순빌딩'},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -8535,12 +9350,15 @@
       <c r="F83" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G83" t="str">
-        <f>"{name:" &amp; "['"&amp;A83&amp;"'"&amp;IF(ISBLANK(B83),"",",'"&amp;B83&amp;"'")&amp;"],addr:" &amp; "'" &amp;C83&amp;"',x:"&amp; "'" &amp;D83&amp;"',y:"&amp; "'" &amp;E83&amp;"'},"</f>
-        <v>{name:['연수선학점G'],addr:'인천광역시 연수구 넘말로29번길 21',x:'928915.90151959',y:'1936891.1488486365'},</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="G83" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수선학점G'],addr:'인천광역시 연수구 넘말로29번길 21',x:'928915.90151959',y:'1936891.1488486365',jibun:'인천광역시 연수구 선학동 398-2'},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -8556,12 +9374,15 @@
       <c r="F84" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G84" t="str">
-        <f>"{name:" &amp; "['"&amp;A84&amp;"'"&amp;IF(ISBLANK(B84),"",",'"&amp;B84&amp;"'")&amp;"],addr:" &amp; "'" &amp;C84&amp;"',x:"&amp; "'" &amp;D84&amp;"',y:"&amp; "'" &amp;E84&amp;"'},"</f>
-        <v>{name:['연수장례식장 인천내부'],addr:'인천광역시 연수구 벚꽃로 122',x:'927335.7894045769',y:'1935611.3385808035'},</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="G84" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수장례식장 인천내부'],addr:'인천광역시 연수구 벚꽃로 122',x:'927335.7894045769',y:'1935611.3385808035',jibun:'인천광역시 연수구 연수동 592-5 연수동장례식장'},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -8577,12 +9398,15 @@
       <c r="F85" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G85" t="str">
-        <f>"{name:" &amp; "['"&amp;A85&amp;"'"&amp;IF(ISBLANK(B85),"",",'"&amp;B85&amp;"'")&amp;"],addr:" &amp; "'" &amp;C85&amp;"',x:"&amp; "'" &amp;D85&amp;"',y:"&amp; "'" &amp;E85&amp;"'},"</f>
-        <v>{name:['연수점G'],addr:'인천광역시 연수구 새말로46번길 4',x:'927054.4397459901',y:'1936127.9562478536'},</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="G85" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수점G'],addr:'인천광역시 연수구 새말로46번길 4',x:'927054.4397459901',y:'1936127.9562478536',jibun:'인천광역시 연수구 연수동 558-5'},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -8598,12 +9422,15 @@
       <c r="F86" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G86" t="str">
-        <f>"{name:" &amp; "['"&amp;A86&amp;"'"&amp;IF(ISBLANK(B86),"",",'"&amp;B86&amp;"'")&amp;"],addr:" &amp; "'" &amp;C86&amp;"',x:"&amp; "'" &amp;D86&amp;"',y:"&amp; "'" &amp;E86&amp;"'},"</f>
-        <v>{name:['연수점M'],addr:'인천광역시 연수구 비류대로 230',x:'925700.9976564867',y:'1936753.3900593636'},</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="G86" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수점M'],addr:'인천광역시 연수구 비류대로 230',x:'925700.9976564867',y:'1936753.3900593636',jibun:'인천광역시 연수구 옥련동 319-6 영남아파트상가'},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>164</v>
       </c>
@@ -8619,12 +9446,15 @@
       <c r="F87" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G87" t="str">
-        <f>"{name:" &amp; "['"&amp;A87&amp;"'"&amp;IF(ISBLANK(B87),"",",'"&amp;B87&amp;"'")&amp;"],addr:" &amp; "'" &amp;C87&amp;"',x:"&amp; "'" &amp;D87&amp;"',y:"&amp; "'" &amp;E87&amp;"'},"</f>
-        <v>{name:['연수중앙점G'],addr:'인천광역시 연수구 새말로69번길 1',x:'927230.4884649334',y:'1935967.4642858398'},</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="G87" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수중앙점G'],addr:'인천광역시 연수구 새말로69번길 1',x:'927230.4884649334',y:'1935967.4642858398',jibun:'인천광역시 연수구 연수동 550-8'},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>49</v>
       </c>
@@ -8640,12 +9470,15 @@
       <c r="F88" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G88" t="str">
-        <f>"{name:" &amp; "['"&amp;A88&amp;"'"&amp;IF(ISBLANK(B88),"",",'"&amp;B88&amp;"'")&amp;"],addr:" &amp; "'" &amp;C88&amp;"',x:"&amp; "'" &amp;D88&amp;"',y:"&amp; "'" &amp;E88&amp;"'},"</f>
-        <v>{name:['연수청학점M'],addr:'인천광역시 연수구 먼우금로 197',x:'927097.7779245968',y:'1935413.5243354505'},</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="G88" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수청학점M'],addr:'인천광역시 연수구 먼우금로 197',x:'927097.7779245968',y:'1935413.5243354505',jibun:'인천광역시 연수구 청학동 503-1 이리옴프라자'},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>138</v>
       </c>
@@ -8661,12 +9494,15 @@
       <c r="F89" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G89" t="str">
-        <f>"{name:" &amp; "['"&amp;A89&amp;"'"&amp;IF(ISBLANK(B89),"",",'"&amp;B89&amp;"'")&amp;"],addr:" &amp; "'" &amp;C89&amp;"',x:"&amp; "'" &amp;D89&amp;"',y:"&amp; "'" &amp;E89&amp;"'},"</f>
-        <v>{name:['연수타운점G'],addr:'인천광역시 연수구 샘말로21번길 3',x:'927277.5510110233',y:'1935141.1890938403'},</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="G89" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수타운점G'],addr:'인천광역시 연수구 샘말로21번길 3',x:'927277.5510110233',y:'1935141.1890938403',jibun:'인천광역시 연수구 연수동 602-3'},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -8682,12 +9518,15 @@
       <c r="F90" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G90" t="str">
-        <f>"{name:" &amp; "['"&amp;A90&amp;"'"&amp;IF(ISBLANK(B90),"",",'"&amp;B90&amp;"'")&amp;"],addr:" &amp; "'" &amp;C90&amp;"',x:"&amp; "'" &amp;D90&amp;"',y:"&amp; "'" &amp;E90&amp;"'},"</f>
-        <v>{name:['연수태산점G'],addr:'인천광역시 연수구 먼우금로264번길 8-4',x:'927477.3679526933',y:'1935944.299351547'},</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="G90" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수태산점G'],addr:'인천광역시 연수구 먼우금로264번길 8-4',x:'927477.3679526933',y:'1935944.299351547',jibun:'인천광역시 연수구 연수동 575-1'},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -8703,12 +9542,15 @@
       <c r="F91" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G91" t="str">
-        <f>"{name:" &amp; "['"&amp;A91&amp;"'"&amp;IF(ISBLANK(B91),"",",'"&amp;B91&amp;"'")&amp;"],addr:" &amp; "'" &amp;C91&amp;"',x:"&amp; "'" &amp;D91&amp;"',y:"&amp; "'" &amp;E91&amp;"'},"</f>
-        <v>{name:['연수파크타운점M'],addr:'인천광역시 연수구 용담로 115',x:'927244.231129833',y:'1935426.1714365287'},</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="G91" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수파크타운점M'],addr:'인천광역시 연수구 용담로 115',x:'927244.231129833',y:'1935426.1714365287',jibun:'인천광역시 연수구 연수동 596-7 파크타워'},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -8724,12 +9566,15 @@
       <c r="F92" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G92" t="str">
-        <f>"{name:" &amp; "['"&amp;A92&amp;"'"&amp;IF(ISBLANK(B92),"",",'"&amp;B92&amp;"'")&amp;"],addr:" &amp; "'" &amp;C92&amp;"',x:"&amp; "'" &amp;D92&amp;"',y:"&amp; "'" &amp;E92&amp;"'},"</f>
-        <v>{name:['연수함박점M'],addr:'인천광역시 연수구 함박뫼로50번길 93',x:'927263.5188448408',y:'1935872.3548643487'},</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="G92" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수함박점M'],addr:'인천광역시 연수구 함박뫼로50번길 93',x:'927263.5188448408',y:'1935872.3548643487',jibun:'인천광역시 연수구 연수동 568-15'},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>170</v>
       </c>
@@ -8745,12 +9590,15 @@
       <c r="F93" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G93" t="str">
-        <f>"{name:" &amp; "['"&amp;A93&amp;"'"&amp;IF(ISBLANK(B93),"",",'"&amp;B93&amp;"'")&amp;"],addr:" &amp; "'" &amp;C93&amp;"',x:"&amp; "'" &amp;D93&amp;"',y:"&amp; "'" &amp;E93&amp;"'},"</f>
-        <v>{name:['연수희망점G'],addr:'인천광역시 연수구 앵고개로 256',x:'926724.2878851034',y:'1934622.8657452334'},</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="G93" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['연수희망점G'],addr:'인천광역시 연수구 앵고개로 256',x:'926724.2878851034',y:'1934622.8657452334',jibun:'인천광역시 연수구 동춘동 936-5 웅지프라자'},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>61</v>
       </c>
@@ -8766,12 +9614,15 @@
       <c r="F94" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G94" t="str">
-        <f>"{name:" &amp; "['"&amp;A94&amp;"'"&amp;IF(ISBLANK(B94),"",",'"&amp;B94&amp;"'")&amp;"],addr:" &amp; "'" &amp;C94&amp;"',x:"&amp; "'" &amp;D94&amp;"',y:"&amp; "'" &amp;E94&amp;"'},"</f>
-        <v>{name:['영빌딩CITY'],addr:'인천광역시 미추홀구 인하로 253',x:'927138.1700531407',y:'1939133.3534303224'},</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="G94" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['영빌딩CITY'],addr:'인천광역시 미추홀구 인하로 253',x:'927138.1700531407',y:'1939133.3534303224',jibun:'인천광역시 미추홀구 주안동 1436-5 한국씨티은행'},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -8787,12 +9638,15 @@
       <c r="F95" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G95" t="str">
-        <f>"{name:" &amp; "['"&amp;A95&amp;"'"&amp;IF(ISBLANK(B95),"",",'"&amp;B95&amp;"'")&amp;"],addr:" &amp; "'" &amp;C95&amp;"',x:"&amp; "'" &amp;D95&amp;"',y:"&amp; "'" &amp;E95&amp;"'},"</f>
-        <v>{name:['옥련백산점G'],addr:'인천광역시 연수구 독배로 25',x:'924316.71718126',y:'1936330.9110739832'},</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="G95" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['옥련백산점G'],addr:'인천광역시 연수구 독배로 25',x:'924316.71718126',y:'1936330.9110739832',jibun:'인천광역시 연수구 옥련동 463-24'},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -8808,12 +9662,15 @@
       <c r="F96" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G96" t="str">
-        <f>"{name:" &amp; "['"&amp;A96&amp;"'"&amp;IF(ISBLANK(B96),"",",'"&amp;B96&amp;"'")&amp;"],addr:" &amp; "'" &amp;C96&amp;"',x:"&amp; "'" &amp;D96&amp;"',y:"&amp; "'" &amp;E96&amp;"'},"</f>
-        <v>{name:['옥련사거리G'],addr:'인천광역시 연수구 독배로 68',x:'924367.6668144872',y:'1936729.1735826507'},</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="G96" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['옥련사거리G'],addr:'인천광역시 연수구 독배로 68',x:'924367.6668144872',y:'1936729.1735826507',jibun:'인천광역시 연수구 옥련동 199-3'},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>181</v>
       </c>
@@ -8829,12 +9686,15 @@
       <c r="F97" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G97" t="str">
-        <f>"{name:" &amp; "['"&amp;A97&amp;"'"&amp;IF(ISBLANK(B97),"",",'"&amp;B97&amp;"'")&amp;"],addr:" &amp; "'" &amp;C97&amp;"',x:"&amp; "'" &amp;D97&amp;"',y:"&amp; "'" &amp;E97&amp;"'},"</f>
-        <v>{name:['옥련사랑M'],addr:'인천광역시 연수구 한나루로 166',x:'925293.9163142969',y:'1936455.0597683867'},</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="G97" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['옥련사랑M'],addr:'인천광역시 연수구 한나루로 166',x:'925293.9163142969',y:'1936455.0597683867',jibun:'인천광역시 연수구 옥련동 352-30'},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>134</v>
       </c>
@@ -8850,12 +9710,15 @@
       <c r="F98" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G98" t="str">
-        <f>"{name:" &amp; "['"&amp;A98&amp;"'"&amp;IF(ISBLANK(B98),"",",'"&amp;B98&amp;"'")&amp;"],addr:" &amp; "'" &amp;C98&amp;"',x:"&amp; "'" &amp;D98&amp;"',y:"&amp; "'" &amp;E98&amp;"'},"</f>
-        <v>{name:['옥련서해점G'],addr:'인천광역시 연수구 청량로185번길 13',x:'924973.1474770068',y:'1936336.0367916236'},</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="G98" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['옥련서해점G'],addr:'인천광역시 연수구 청량로185번길 13',x:'924973.1474770068',y:'1936336.0367916236',jibun:'인천광역시 연수구 옥련동 423-1'},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>180</v>
       </c>
@@ -8871,12 +9734,15 @@
       <c r="F99" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G99" t="str">
-        <f>"{name:" &amp; "['"&amp;A99&amp;"'"&amp;IF(ISBLANK(B99),"",",'"&amp;B99&amp;"'")&amp;"],addr:" &amp; "'" &amp;C99&amp;"',x:"&amp; "'" &amp;D99&amp;"',y:"&amp; "'" &amp;E99&amp;"'},"</f>
-        <v>{name:['옥련쌍용G'],addr:'인천광역시 연수구 청량로184번길 48',x:'925182.9532054849',y:'1936549.0084032882'},</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="G99" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['옥련쌍용G'],addr:'인천광역시 연수구 청량로184번길 48',x:'925182.9532054849',y:'1936549.0084032882',jibun:'인천광역시 연수구 옥련동 366-9'},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>135</v>
       </c>
@@ -8892,12 +9758,15 @@
       <c r="F100" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G100" t="str">
-        <f>"{name:" &amp; "['"&amp;A100&amp;"'"&amp;IF(ISBLANK(B100),"",",'"&amp;B100&amp;"'")&amp;"],addr:" &amp; "'" &amp;C100&amp;"',x:"&amp; "'" &amp;D100&amp;"',y:"&amp; "'" &amp;E100&amp;"'},"</f>
-        <v>{name:['옥련아주점G'],addr:'인천광역시 연수구 청량로 217',x:'925018.4765206832',y:'1936665.1654121173'},</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="G100" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['옥련아주점G'],addr:'인천광역시 연수구 청량로 217',x:'925018.4765206832',y:'1936665.1654121173',jibun:'인천광역시 연수구 옥련동 253-1'},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -8913,12 +9782,15 @@
       <c r="F101" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G101" t="str">
-        <f>"{name:" &amp; "['"&amp;A101&amp;"'"&amp;IF(ISBLANK(B101),"",",'"&amp;B101&amp;"'")&amp;"],addr:" &amp; "'" &amp;C101&amp;"',x:"&amp; "'" &amp;D101&amp;"',y:"&amp; "'" &amp;E101&amp;"'},"</f>
-        <v>{name:['옥련우성점G'],addr:'인천광역시 연수구 독배로40번길 47',x:'924577.7008813033',y:'1936507.4463419202'},</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="G101" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['옥련우성점G'],addr:'인천광역시 연수구 독배로40번길 47',x:'924577.7008813033',y:'1936507.4463419202',jibun:'인천광역시 연수구 옥련동 462-20'},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>132</v>
       </c>
@@ -8934,12 +9806,15 @@
       <c r="F102" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G102" t="str">
-        <f>"{name:" &amp; "['"&amp;A102&amp;"'"&amp;IF(ISBLANK(B102),"",",'"&amp;B102&amp;"'")&amp;"],addr:" &amp; "'" &amp;C102&amp;"',x:"&amp; "'" &amp;D102&amp;"',y:"&amp; "'" &amp;E102&amp;"'},"</f>
-        <v>{name:['옥련풍림점G'],addr:'인천광역시 연수구 한나루로193번길 3',x:'925362.11812462',y:'1936699.7315103933'},</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="G102" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['옥련풍림점G'],addr:'인천광역시 연수구 한나루로193번길 3',x:'925362.11812462',y:'1936699.7315103933',jibun:'인천광역시 연수구 옥련동 336-5'},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -8955,12 +9830,15 @@
       <c r="F103" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G103" t="str">
-        <f>"{name:" &amp; "['"&amp;A103&amp;"'"&amp;IF(ISBLANK(B103),"",",'"&amp;B103&amp;"'")&amp;"],addr:" &amp; "'" &amp;C103&amp;"',x:"&amp; "'" &amp;D103&amp;"',y:"&amp; "'" &amp;E103&amp;"'},"</f>
-        <v>{name:['월미분수대점G'],addr:'인천광역시 중구 월미문화로 57',x:'920135.501782795',y:'1941955.847831308'},</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="G103" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['월미분수대점G'],addr:'인천광역시 중구 월미문화로 57',x:'920135.501782795',y:'1941955.847831308',jibun:'인천광역시 중구 북성동1가 98-275'},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -8976,12 +9854,15 @@
       <c r="F104" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G104" t="str">
-        <f>"{name:" &amp; "['"&amp;A104&amp;"'"&amp;IF(ISBLANK(B104),"",",'"&amp;B104&amp;"'")&amp;"],addr:" &amp; "'" &amp;C104&amp;"',x:"&amp; "'" &amp;D104&amp;"',y:"&amp; "'" &amp;E104&amp;"'},"</f>
-        <v>{name:['월미중앙점G'],addr:'인천광역시 중구 월미문화로 65',x:'920108.2432266385',y:'1941888.865706168'},</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="G104" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['월미중앙점G'],addr:'인천광역시 중구 월미문화로 65',x:'920108.2432266385',y:'1941888.865706168',jibun:'인천광역시 중구 북성동1가 98-61'},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>76</v>
       </c>
@@ -8997,12 +9878,15 @@
       <c r="F105" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G105" t="str">
-        <f>"{name:" &amp; "['"&amp;A105&amp;"'"&amp;IF(ISBLANK(B105),"",",'"&amp;B105&amp;"'")&amp;"],addr:" &amp; "'" &amp;C105&amp;"',x:"&amp; "'" &amp;D105&amp;"',y:"&amp; "'" &amp;E105&amp;"'},"</f>
-        <v>{name:['위드미-라마다송도점'],addr:'인천광역시 연수구 능허대로267번길 42',x:'925310.3928309134',y:'1935295.212755117'},</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="G105" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['위드미-라마다송도점'],addr:'인천광역시 연수구 능허대로267번길 42',x:'925310.3928309134',y:'1935295.212755117',jibun:'인천광역시 연수구 동춘동 813'},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -9018,12 +9902,15 @@
       <c r="F106" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G106" t="str">
-        <f>"{name:" &amp; "['"&amp;A106&amp;"'"&amp;IF(ISBLANK(B106),"",",'"&amp;B106&amp;"'")&amp;"],addr:" &amp; "'" &amp;C106&amp;"',x:"&amp; "'" &amp;D106&amp;"',y:"&amp; "'" &amp;E106&amp;"'},"</f>
-        <v>{name:['유진로봇 송도사옥'],addr:'인천광역시 연수구 하모니로187번길 33',x:'924180.5928355344',y:'1931340.6668476937'},</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="G106" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['유진로봇 송도사옥'],addr:'인천광역시 연수구 하모니로187번길 33',x:'924180.5928355344',y:'1931340.6668476937',jibun:'인천광역시 연수구 송도동 11-5 (주)유진로봇'},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>154</v>
       </c>
@@ -9039,12 +9926,15 @@
       <c r="F107" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G107" t="str">
-        <f>"{name:" &amp; "['"&amp;A107&amp;"'"&amp;IF(ISBLANK(B107),"",",'"&amp;B107&amp;"'")&amp;"],addr:" &amp; "'" &amp;C107&amp;"',x:"&amp; "'" &amp;D107&amp;"',y:"&amp; "'" &amp;E107&amp;"'},"</f>
-        <v>{name:['은계센트럴점G'],addr:'경기도 시흥시 은계중앙로 97',x:'938203.4013041602',y:'1938022.7406927734'},</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="G107" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['은계센트럴점G'],addr:'경기도 시흥시 은계중앙로 97',x:'938203.4013041602',y:'1938022.7406927734',jibun:'경기도 시흥시 은행동 38-7 은계센트럴타운'},</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>156</v>
       </c>
@@ -9060,12 +9950,15 @@
       <c r="F108" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G108" t="str">
-        <f>"{name:" &amp; "['"&amp;A108&amp;"'"&amp;IF(ISBLANK(B108),"",",'"&amp;B108&amp;"'")&amp;"],addr:" &amp; "'" &amp;C108&amp;"',x:"&amp; "'" &amp;D108&amp;"',y:"&amp; "'" &amp;E108&amp;"'},"</f>
-        <v>{name:['은행동성원아파트 결합부스'],addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804'},</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="G108" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['은행동성원아파트 결합부스'],addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804',jibun:'경기도 시흥시 은행동 538-2 시흥성원아파트'},</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>157</v>
       </c>
@@ -9081,12 +9974,15 @@
       <c r="F109" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G109" t="str">
-        <f>"{name:" &amp; "['"&amp;A109&amp;"'"&amp;IF(ISBLANK(B109),"",",'"&amp;B109&amp;"'")&amp;"],addr:" &amp; "'" &amp;C109&amp;"',x:"&amp; "'" &amp;D109&amp;"',y:"&amp; "'" &amp;E109&amp;"'},"</f>
-        <v>{name:['은행동약사 결합부스'],addr:'경기도 시흥시 은행로 8',x:'937498.2971942425',y:'1937334.1604390284'},</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="G109" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['은행동약사 결합부스'],addr:'경기도 시흥시 은행로 8',x:'937498.2971942425',y:'1937334.1604390284',jibun:'경기도 시흥시 은행동 286-1 영진철물'},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -9102,12 +9998,15 @@
       <c r="F110" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G110" t="str">
-        <f>"{name:" &amp; "['"&amp;A110&amp;"'"&amp;IF(ISBLANK(B110),"",",'"&amp;B110&amp;"'")&amp;"],addr:" &amp; "'" &amp;C110&amp;"',x:"&amp; "'" &amp;D110&amp;"',y:"&amp; "'" &amp;E110&amp;"'},"</f>
-        <v>{name:['은혜의교회SH'],addr:'인천광역시 미추홀구 매소홀로 428',x:'926520.0805420987',y:'1938134.7043078174'},</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="G110" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['은혜의교회SH'],addr:'인천광역시 미추홀구 매소홀로 428',x:'926520.0805420987',y:'1938134.7043078174',jibun:'인천광역시 미추홀구 학익동 682-3 은혜교회'},</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -9123,12 +10022,15 @@
       <c r="F111" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G111" t="str">
-        <f>"{name:" &amp; "['"&amp;A111&amp;"'"&amp;IF(ISBLANK(B111),"",",'"&amp;B111&amp;"'")&amp;"],addr:" &amp; "'" &amp;C111&amp;"',x:"&amp; "'" &amp;D111&amp;"',y:"&amp; "'" &amp;E111&amp;"'},"</f>
-        <v>{name:['이마트 동인천점SC'],addr:'인천광역시 중구 인중로 134',x:'922988.2656142102',y:'1941172.2637899336'},</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="G111" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['이마트 동인천점SC'],addr:'인천광역시 중구 인중로 134',x:'922988.2656142102',y:'1941172.2637899336',jibun:'인천광역시 중구 신생동 38 동인천이마트'},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -9144,12 +10046,15 @@
       <c r="F112" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G112" t="str">
-        <f>"{name:" &amp; "['"&amp;A112&amp;"'"&amp;IF(ISBLANK(B112),"",",'"&amp;B112&amp;"'")&amp;"],addr:" &amp; "'" &amp;C112&amp;"',x:"&amp; "'" &amp;D112&amp;"',y:"&amp; "'" &amp;E112&amp;"'},"</f>
-        <v>{name:['이마트24 연수함박로'],addr:'인천광역시 연수구 함박로 36',x:'927543.317565355',y:'1936592.6575228586'},</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="G112" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['이마트24 연수함박로'],addr:'인천광역시 연수구 함박로 36',x:'927543.317565355',y:'1936592.6575228586',jibun:'인천광역시 연수구 연수동 495-5'},</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -9165,12 +10070,15 @@
       <c r="F113" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G113" t="str">
-        <f>"{name:" &amp; "['"&amp;A113&amp;"'"&amp;IF(ISBLANK(B113),"",",'"&amp;B113&amp;"'")&amp;"],addr:" &amp; "'" &amp;C113&amp;"',x:"&amp; "'" &amp;D113&amp;"',y:"&amp; "'" &amp;E113&amp;"'},"</f>
-        <v>{name:['이수엑사보드 인천공장'],addr:'인천광역시 남동구 남동서로270번길 54',x:'929093.4386579194',y:'1935045.5201349352'},</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="G113" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['이수엑사보드 인천공장'],addr:'인천광역시 남동구 남동서로270번길 54',x:'929093.4386579194',y:'1935045.5201349352',jibun:'인천광역시 남동구 논현동 429-3'},</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>734</v>
       </c>
@@ -9186,12 +10094,15 @@
       <c r="F114" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G114" t="str">
-        <f>"{name:" &amp; "['"&amp;A114&amp;"'"&amp;IF(ISBLANK(B114),"",",'"&amp;B114&amp;"'")&amp;"],addr:" &amp; "'" &amp;C114&amp;"',x:"&amp; "'" &amp;D114&amp;"',y:"&amp; "'" &amp;E114&amp;"'},"</f>
-        <v>{name:['인천 송도 컨벤시아'],addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082'},</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="G114" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천 송도 컨벤시아'],addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082',jibun:'인천광역시 연수구 송도동 6-1 송도컨벤시아'},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -9207,12 +10118,15 @@
       <c r="F115" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G115" t="str">
-        <f>"{name:" &amp; "['"&amp;A115&amp;"'"&amp;IF(ISBLANK(B115),"",",'"&amp;B115&amp;"'")&amp;"],addr:" &amp; "'" &amp;C115&amp;"',x:"&amp; "'" &amp;D115&amp;"',y:"&amp; "'" &amp;E115&amp;"'},"</f>
-        <v>{name:['인천5공단파출소결합부스'],addr:'인천광역시 서구 가재울로 75',x:'927648.8596204547',y:'1942435.9377577854'},</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="G115" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천5공단파출소결합부스'],addr:'인천광역시 서구 가재울로 75',x:'927648.8596204547',y:'1942435.9377577854',jibun:'인천광역시 서구 가좌동 540-3'},</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -9228,12 +10142,15 @@
       <c r="F116" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G116" t="str">
-        <f>"{name:" &amp; "['"&amp;A116&amp;"'"&amp;IF(ISBLANK(B116),"",",'"&amp;B116&amp;"'")&amp;"],addr:" &amp; "'" &amp;C116&amp;"',x:"&amp; "'" &amp;D116&amp;"',y:"&amp; "'" &amp;E116&amp;"'},"</f>
-        <v>{name:['인천경동점G'],addr:'인천광역시 중구 개항로 82',x:'923229.7654404601',y:'1941739.1997609003'},</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="G116" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천경동점G'],addr:'인천광역시 중구 개항로 82',x:'923229.7654404601',y:'1941739.1997609003',jibun:'인천광역시 중구 경동 187-3 예지요양병원'},</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>89</v>
       </c>
@@ -9252,12 +10169,15 @@
       <c r="F117" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G117" t="str">
-        <f>"{name:" &amp; "['"&amp;A117&amp;"'"&amp;IF(ISBLANK(B117),"",",'"&amp;B117&amp;"'")&amp;"],addr:" &amp; "'" &amp;C117&amp;"',x:"&amp; "'" &amp;D117&amp;"',y:"&amp; "'" &amp;E117&amp;"'},"</f>
-        <v>{name:['인천글로벌운영재단','한국뉴욕주립대학교 결합부스'],addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412'},</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="G117" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천글로벌운영재단','한국뉴욕주립대학교 결합부스'],addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412',jibun:'인천광역시 연수구 송도동 187 인천글로벌캠퍼스'},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>82</v>
       </c>
@@ -9273,12 +10193,15 @@
       <c r="F118" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G118" t="str">
-        <f>"{name:" &amp; "['"&amp;A118&amp;"'"&amp;IF(ISBLANK(B118),"",",'"&amp;B118&amp;"'")&amp;"],addr:" &amp; "'" &amp;C118&amp;"',x:"&amp; "'" &amp;D118&amp;"',y:"&amp; "'" &amp;E118&amp;"'},"</f>
-        <v>{name:['인천남촌로점G'],addr:'인천광역시 남동구 남촌동로3번길 33',x:'930644.9199876767',y:'1937177.0833667233'},</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="G118" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천남촌로점G'],addr:'인천광역시 남동구 남촌동로3번길 33',x:'930644.9199876767',y:'1937177.0833667233',jibun:'인천광역시 남동구 남촌동 332-9 시온교회'},</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>57</v>
       </c>
@@ -9294,12 +10217,15 @@
       <c r="F119" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G119" t="str">
-        <f>"{name:" &amp; "['"&amp;A119&amp;"'"&amp;IF(ISBLANK(B119),"",",'"&amp;B119&amp;"'")&amp;"],addr:" &amp; "'" &amp;C119&amp;"',x:"&amp; "'" &amp;D119&amp;"',y:"&amp; "'" &amp;E119&amp;"'},"</f>
-        <v>{name:['인천논현광장점G'],addr:'인천광역시 남동구 논고개로123번길 35',x:'931147.5988134101',y:'1933884.31215839'},</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="G119" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천논현광장점G'],addr:'인천광역시 남동구 논고개로123번길 35',x:'931147.5988134101',y:'1933884.31215839',jibun:'인천광역시 남동구 논현동 632-1 칼리오페'},</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -9315,12 +10241,15 @@
       <c r="F120" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G120" t="str">
-        <f>"{name:" &amp; "['"&amp;A120&amp;"'"&amp;IF(ISBLANK(B120),"",",'"&amp;B120&amp;"'")&amp;"],addr:" &amp; "'" &amp;C120&amp;"',x:"&amp; "'" &amp;D120&amp;"',y:"&amp; "'" &amp;E120&amp;"'},"</f>
-        <v>{name:['인천논현사랑점G'],addr:'인천광역시 남동구 논고개로 166',x:'931299.0037734902',y:'1934371.8316615'},</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="G120" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천논현사랑점G'],addr:'인천광역시 남동구 논고개로 166',x:'931299.0037734902',y:'1934371.8316615',jibun:'인천광역시 남동구 논현동 593-6'},</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -9336,12 +10265,15 @@
       <c r="F121" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G121" t="str">
-        <f>"{name:" &amp; "['"&amp;A121&amp;"'"&amp;IF(ISBLANK(B121),"",",'"&amp;B121&amp;"'")&amp;"],addr:" &amp; "'" &amp;C121&amp;"',x:"&amp; "'" &amp;D121&amp;"',y:"&amp; "'" &amp;E121&amp;"'},"</f>
-        <v>{name:['인천논현역점G'],addr:'인천광역시 남동구 논고개로 121',x:'931299.4091969267',y:'1933928.8000814402'},</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="G121" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천논현역점G'],addr:'인천광역시 남동구 논고개로 121',x:'931299.4091969267',y:'1933928.8000814402',jibun:'인천광역시 남동구 논현동 631-11 에스닷몰'},</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -9357,12 +10289,15 @@
       <c r="F122" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G122" t="str">
-        <f>"{name:" &amp; "['"&amp;A122&amp;"'"&amp;IF(ISBLANK(B122),"",",'"&amp;B122&amp;"'")&amp;"],addr:" &amp; "'" &amp;C122&amp;"',x:"&amp; "'" &amp;D122&amp;"',y:"&amp; "'" &amp;E122&amp;"'},"</f>
-        <v>{name:['인천논현점M'],addr:'인천광역시 남동구 논현로46번길 51',x:'930040.7558424668',y:'1933792.9459385104'},</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="G122" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천논현점M'],addr:'인천광역시 남동구 논현로46번길 51',x:'930040.7558424668',y:'1933792.9459385104',jibun:'인천광역시 남동구 논현동 642-1 유승테라폴리스'},</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>93</v>
       </c>
@@ -9378,12 +10313,15 @@
       <c r="F123" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G123" t="str">
-        <f>"{name:" &amp; "['"&amp;A123&amp;"'"&amp;IF(ISBLANK(B123),"",",'"&amp;B123&amp;"'")&amp;"],addr:" &amp; "'" &amp;C123&amp;"',x:"&amp; "'" &amp;D123&amp;"',y:"&amp; "'" &amp;E123&amp;"'},"</f>
-        <v>{name:['인천동아서점 결합부스'],addr:'인천광역시 미추홀구 경인로 386-1',x:'927733.8360022209',y:'1940187.0715722647'},</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="G123" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천동아서점 결합부스'],addr:'인천광역시 미추홀구 경인로 386-1',x:'927733.8360022209',y:'1940187.0715722647',jibun:'인천광역시 미추홀구 주안동 431-32'},</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>160</v>
       </c>
@@ -9399,12 +10337,15 @@
       <c r="F124" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G124" t="str">
-        <f>"{name:" &amp; "['"&amp;A124&amp;"'"&amp;IF(ISBLANK(B124),"",",'"&amp;B124&amp;"'")&amp;"],addr:" &amp; "'" &amp;C124&amp;"',x:"&amp; "'" &amp;D124&amp;"',y:"&amp; "'" &amp;E124&amp;"'},"</f>
-        <v>{name:['인천메카점M'],addr:'인천광역시 연수구 용담로125번길 41',x:'927422.4468487434',y:'1935499.65872847'},</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="G124" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천메카점M'],addr:'인천광역시 연수구 용담로125번길 41',x:'927422.4468487434',y:'1935499.65872847',jibun:'인천광역시 연수구 연수동 593-8 메카리움오피스텔'},</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>151</v>
       </c>
@@ -9420,12 +10361,15 @@
       <c r="F125" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G125" t="str">
-        <f>"{name:" &amp; "['"&amp;A125&amp;"'"&amp;IF(ISBLANK(B125),"",",'"&amp;B125&amp;"'")&amp;"],addr:" &amp; "'" &amp;C125&amp;"',x:"&amp; "'" &amp;D125&amp;"',y:"&amp; "'" &amp;E125&amp;"'},"</f>
-        <v>{name:['인천벽산아파트 결합부스'],addr:'인천광역시 남동구 서판로 43',x:'931434.1630260036',y:'1940841.3205330772'},</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="G125" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천벽산아파트 결합부스'],addr:'인천광역시 남동구 서판로 43',x:'931434.1630260036',y:'1940841.3205330772',jibun:'인천광역시 남동구 만수동 1114 기암유치원'},</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -9441,12 +10385,15 @@
       <c r="F126" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G126" t="str">
-        <f>"{name:" &amp; "['"&amp;A126&amp;"'"&amp;IF(ISBLANK(B126),"",",'"&amp;B126&amp;"'")&amp;"],addr:" &amp; "'" &amp;C126&amp;"',x:"&amp; "'" &amp;D126&amp;"',y:"&amp; "'" &amp;E126&amp;"'},"</f>
-        <v>{name:['인천선학점G'],addr:'인천광역시 연수구 비류대로529번길 10',x:'928643.5051002635',y:'1936354.497053353'},</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="G126" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천선학점G'],addr:'인천광역시 연수구 비류대로529번길 10',x:'928643.5051002635',y:'1936354.497053353',jibun:'인천광역시 연수구 선학동 369-15'},</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>94</v>
       </c>
@@ -9462,12 +10409,15 @@
       <c r="F127" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G127" t="str">
-        <f>"{name:" &amp; "['"&amp;A127&amp;"'"&amp;IF(ISBLANK(B127),"",",'"&amp;B127&amp;"'")&amp;"],addr:" &amp; "'" &amp;C127&amp;"',x:"&amp; "'" &amp;D127&amp;"',y:"&amp; "'" &amp;E127&amp;"'},"</f>
-        <v>{name:['인천송도점G'],addr:'인천광역시 연수구 해돋이로84번길 29',x:'925166.2389731444',y:'1932929.6578389006'},</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="G127" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천송도점G'],addr:'인천광역시 연수구 해돋이로84번길 29',x:'925166.2389731444',y:'1932929.6578389006',jibun:'인천광역시 연수구 송도동 3-13 송도풍림아이원3단지아파트'},</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -9483,12 +10433,15 @@
       <c r="F128" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G128" t="str">
-        <f>"{name:" &amp; "['"&amp;A128&amp;"'"&amp;IF(ISBLANK(B128),"",",'"&amp;B128&amp;"'")&amp;"],addr:" &amp; "'" &amp;C128&amp;"',x:"&amp; "'" &amp;D128&amp;"',y:"&amp; "'" &amp;E128&amp;"'},"</f>
-        <v>{name:['인천신현쇼핑 결합부스'],addr:'인천광역시 서구 가정로 369',x:'926879.0843732902',y:'1946840.1810874036'},</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="G128" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천신현쇼핑 결합부스'],addr:'인천광역시 서구 가정로 369',x:'926879.0843732902',y:'1946840.1810874036',jibun:'인천광역시 서구 신현동 272-1 서경 플러스 존'},</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>100</v>
       </c>
@@ -9504,12 +10457,15 @@
       <c r="F129" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G129" t="str">
-        <f>"{name:" &amp; "['"&amp;A129&amp;"'"&amp;IF(ISBLANK(B129),"",",'"&amp;B129&amp;"'")&amp;"],addr:" &amp; "'" &amp;C129&amp;"',x:"&amp; "'" &amp;D129&amp;"',y:"&amp; "'" &amp;E129&amp;"'},"</f>
-        <v>{name:['인천옥련점M'],addr:'인천광역시 연수구 한나루로197번길 30',x:'925282.19116041',y:'1936827.8251766833'},</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="G129" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천옥련점M'],addr:'인천광역시 연수구 한나루로197번길 30',x:'925282.19116041',y:'1936827.8251766833',jibun:'인천광역시 연수구 옥련동 285-1 원준주택'},</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -9525,12 +10481,15 @@
       <c r="F130" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G130" t="str">
-        <f>"{name:" &amp; "['"&amp;A130&amp;"'"&amp;IF(ISBLANK(B130),"",",'"&amp;B130&amp;"'")&amp;"],addr:" &amp; "'" &amp;C130&amp;"',x:"&amp; "'" &amp;D130&amp;"',y:"&amp; "'" &amp;E130&amp;"'},"</f>
-        <v>{name:['인천주안로점G'],addr:'인천광역시 미추홀구 주안동로 28-15',x:'928043.4087397007',y:'1940464.958479995'},</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="G130" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="1"/>
+        <v>{name:['인천주안로점G'],addr:'인천광역시 미추홀구 주안동로 28-15',x:'928043.4087397007',y:'1940464.958479995',jibun:'인천광역시 미추홀구 주안동 60-5'},</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -9546,12 +10505,15 @@
       <c r="F131" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G131" t="str">
-        <f>"{name:" &amp; "['"&amp;A131&amp;"'"&amp;IF(ISBLANK(B131),"",",'"&amp;B131&amp;"'")&amp;"],addr:" &amp; "'" &amp;C131&amp;"',x:"&amp; "'" &amp;D131&amp;"',y:"&amp; "'" &amp;E131&amp;"'},"</f>
-        <v>{name:['인천터미널점M'],addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102'},</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="G131" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" ref="H131:H189" si="2">"{name:" &amp; "['"&amp;A131&amp;"'"&amp;IF(ISBLANK(B131),"",",'"&amp;B131&amp;"'")&amp;"],addr:" &amp; "'" &amp;C131&amp;"',x:"&amp; "'" &amp;D131&amp;"',y:"&amp; "'" &amp;E131&amp;"',jibun:"&amp; "'" &amp;G131&amp;"'},"</f>
+        <v>{name:['인천터미널점M'],addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102',jibun:'인천광역시 남동구 구월동 1462-2 노빌리안 1'},</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>352</v>
       </c>
@@ -9567,12 +10529,15 @@
       <c r="F132" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G132" t="str">
-        <f>"{name:" &amp; "['"&amp;A132&amp;"'"&amp;IF(ISBLANK(B132),"",",'"&amp;B132&amp;"'")&amp;"],addr:" &amp; "'" &amp;C132&amp;"',x:"&amp; "'" &amp;D132&amp;"',y:"&amp; "'" &amp;E132&amp;"'},"</f>
-        <v>{name:['인천해양경찰서-SH'],addr:'인천광역시 연수구 옥골로 69',x:'924748.3864360615',y:'1937246.7582861618'},</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="G132" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['인천해양경찰서-SH'],addr:'인천광역시 연수구 옥골로 69',x:'924748.3864360615',y:'1937246.7582861618',jibun:'인천광역시 연수구 옥련동 93 능허대중학교'},</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -9588,12 +10553,15 @@
       <c r="F133" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G133" t="str">
-        <f>"{name:" &amp; "['"&amp;A133&amp;"'"&amp;IF(ISBLANK(B133),"",",'"&amp;B133&amp;"'")&amp;"],addr:" &amp; "'" &amp;C133&amp;"',x:"&amp; "'" &amp;D133&amp;"',y:"&amp; "'" &amp;E133&amp;"'},"</f>
-        <v>{name:['인천호구포역점M'],addr:'인천광역시 남동구 논현로26번길 12',x:'929979.51652928',y:'1934015.4848348568'},</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="G133" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['인천호구포역점M'],addr:'인천광역시 남동구 논현로26번길 12',x:'929979.51652928',y:'1934015.4848348568',jibun:'인천광역시 남동구 논현동 646-1 부티크 646'},</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>63</v>
       </c>
@@ -9609,12 +10577,15 @@
       <c r="F134" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G134" t="str">
-        <f>"{name:" &amp; "['"&amp;A134&amp;"'"&amp;IF(ISBLANK(B134),"",",'"&amp;B134&amp;"'")&amp;"],addr:" &amp; "'" &amp;C134&amp;"',x:"&amp; "'" &amp;D134&amp;"',y:"&amp; "'" &amp;E134&amp;"'},"</f>
-        <v>{name:['자매슈퍼-연수'],addr:'인천광역시 연수구 함박로12번길 46',x:'927560.5282932345',y:'1936553.2454770715'},</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="G134" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['자매슈퍼-연수'],addr:'인천광역시 연수구 함박로12번길 46',x:'927560.5282932345',y:'1936553.2454770715',jibun:'인천광역시 연수구 연수동 504'},</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -9630,12 +10601,15 @@
       <c r="F135" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G135" t="str">
-        <f>"{name:" &amp; "['"&amp;A135&amp;"'"&amp;IF(ISBLANK(B135),"",",'"&amp;B135&amp;"'")&amp;"],addr:" &amp; "'" &amp;C135&amp;"',x:"&amp; "'" &amp;D135&amp;"',y:"&amp; "'" &amp;E135&amp;"'},"</f>
-        <v>{name:['제물포버스정류장 결합부스'],addr:'인천광역시 미추홀구 경인로 135',x:'925542.174751237',y:'1941140.5618504882'},</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="G135" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['제물포버스정류장 결합부스'],addr:'인천광역시 미추홀구 경인로 135',x:'925542.174751237',y:'1941140.5618504882',jibun:'인천광역시 미추홀구 도화동 648-15 해피타운'},</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>69</v>
       </c>
@@ -9651,12 +10625,15 @@
       <c r="F136" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G136" t="str">
-        <f>"{name:" &amp; "['"&amp;A136&amp;"'"&amp;IF(ISBLANK(B136),"",",'"&amp;B136&amp;"'")&amp;"],addr:" &amp; "'" &amp;C136&amp;"',x:"&amp; "'" &amp;D136&amp;"',y:"&amp; "'" &amp;E136&amp;"'},"</f>
-        <v>{name:['제일슈퍼-인천'],addr:'인천광역시 연수구 함박안로156번길 6',x:'927773.0413744',y:'1936723.1742538'},</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="G136" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['제일슈퍼-인천'],addr:'인천광역시 연수구 함박안로156번길 6',x:'927773.0413744',y:'1936723.1742538',jibun:'인천광역시 연수구 연수동 516-8'},</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -9672,12 +10649,15 @@
       <c r="F137" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G137" t="str">
-        <f>"{name:" &amp; "['"&amp;A137&amp;"'"&amp;IF(ISBLANK(B137),"",",'"&amp;B137&amp;"'")&amp;"],addr:" &amp; "'" &amp;C137&amp;"',x:"&amp; "'" &amp;D137&amp;"',y:"&amp; "'" &amp;E137&amp;"'},"</f>
-        <v>{name:['주안 보보G'],addr:'인천광역시 미추홀구 경인로425번길 14',x:'928155.8178139064',y:'1940251.613382046'},</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="G137" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안 보보G'],addr:'인천광역시 미추홀구 경인로425번길 14',x:'928155.8178139064',y:'1940251.613382046',jibun:'인천광역시 미추홀구 주안동 1004-3'},</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>174</v>
       </c>
@@ -9693,12 +10673,15 @@
       <c r="F138" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G138" t="str">
-        <f>"{name:" &amp; "['"&amp;A138&amp;"'"&amp;IF(ISBLANK(B138),"",",'"&amp;B138&amp;"'")&amp;"],addr:" &amp; "'" &amp;C138&amp;"',x:"&amp; "'" &amp;D138&amp;"',y:"&amp; "'" &amp;E138&amp;"'},"</f>
-        <v>{name:['주안 신성G'],addr:'인천광역시 미추홀구 주안중로 28',x:'927733.3861476094',y:'1940496.9830620233'},</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="G138" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안 신성G'],addr:'인천광역시 미추홀구 주안중로 28',x:'927733.3861476094',y:'1940496.9830620233',jibun:'인천광역시 미추홀구 주안동 86-5'},</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>116</v>
       </c>
@@ -9714,12 +10697,15 @@
       <c r="F139" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G139" t="str">
-        <f>"{name:" &amp; "['"&amp;A139&amp;"'"&amp;IF(ISBLANK(B139),"",",'"&amp;B139&amp;"'")&amp;"],addr:" &amp; "'" &amp;C139&amp;"',x:"&amp; "'" &amp;D139&amp;"',y:"&amp; "'" &amp;E139&amp;"'},"</f>
-        <v>{name:['주안1동점G'],addr:'인천광역시 미추홀구 주안중로50번길 20',x:'927832.11701282',y:'1940714.3422219716'},</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="G139" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안1동점G'],addr:'인천광역시 미추홀구 주안중로50번길 20',x:'927832.11701282',y:'1940714.3422219716',jibun:'인천광역시 미추홀구 주안동 104-8'},</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -9735,12 +10721,15 @@
       <c r="F140" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G140" t="str">
-        <f>"{name:" &amp; "['"&amp;A140&amp;"'"&amp;IF(ISBLANK(B140),"",",'"&amp;B140&amp;"'")&amp;"],addr:" &amp; "'" &amp;C140&amp;"',x:"&amp; "'" &amp;D140&amp;"',y:"&amp; "'" &amp;E140&amp;"'},"</f>
-        <v>{name:['주안공단점G'],addr:'인천광역시 미추홀구 염전로 362',x:'927504.3446300412',y:'1941528.745698372'},</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="G140" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안공단점G'],addr:'인천광역시 미추홀구 염전로 362',x:'927504.3446300412',y:'1941528.745698372',jibun:'인천광역시 미추홀구 주안동 16-1'},</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>98</v>
       </c>
@@ -9756,12 +10745,15 @@
       <c r="F141" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G141" t="str">
-        <f>"{name:" &amp; "['"&amp;A141&amp;"'"&amp;IF(ISBLANK(B141),"",",'"&amp;B141&amp;"'")&amp;"],addr:" &amp; "'" &amp;C141&amp;"',x:"&amp; "'" &amp;D141&amp;"',y:"&amp; "'" &amp;E141&amp;"'},"</f>
-        <v>{name:['주안남부점M'],addr:'인천광역시 미추홀구 주안로104번길 15',x:'927600.294782457',y:'1940748.241028722'},</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="G141" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안남부점M'],addr:'인천광역시 미추홀구 주안로104번길 15',x:'927600.294782457',y:'1940748.241028722',jibun:'인천광역시 미추홀구 주안동 138-5'},</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>117</v>
       </c>
@@ -9777,12 +10769,15 @@
       <c r="F142" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G142" t="str">
-        <f>"{name:" &amp; "['"&amp;A142&amp;"'"&amp;IF(ISBLANK(B142),"",",'"&amp;B142&amp;"'")&amp;"],addr:" &amp; "'" &amp;C142&amp;"',x:"&amp; "'" &amp;D142&amp;"',y:"&amp; "'" &amp;E142&amp;"'},"</f>
-        <v>{name:['주안대로점G'],addr:'인천광역시 미추홀구 주안로 45',x:'927021.73843505',y:'1940904.6652424666'},</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="G142" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안대로점G'],addr:'인천광역시 미추홀구 주안로 45',x:'927021.73843505',y:'1940904.6652424666',jibun:'인천광역시 미추홀구 주안동 478-50 희림상사㈜'},</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -9798,12 +10793,15 @@
       <c r="F143" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G143" t="str">
-        <f>"{name:" &amp; "['"&amp;A143&amp;"'"&amp;IF(ISBLANK(B143),"",",'"&amp;B143&amp;"'")&amp;"],addr:" &amp; "'" &amp;C143&amp;"',x:"&amp; "'" &amp;D143&amp;"',y:"&amp; "'" &amp;E143&amp;"'},"</f>
-        <v>{name:['주안동경점G'],addr:'인천광역시 미추홀구 주안서로 53',x:'927285.2900126814',y:'1940792.0053177588'},</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="G143" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안동경점G'],addr:'인천광역시 미추홀구 주안서로 53',x:'927285.2900126814',y:'1940792.0053177588',jibun:'인천광역시 미추홀구 주안동 272-1'},</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>747</v>
       </c>
@@ -9822,12 +10820,15 @@
       <c r="F144" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="G144" t="str">
-        <f>"{name:" &amp; "['"&amp;A144&amp;"'"&amp;IF(ISBLANK(B144),"",",'"&amp;B144&amp;"'")&amp;"],addr:" &amp; "'" &amp;C144&amp;"',x:"&amp; "'" &amp;D144&amp;"',y:"&amp; "'" &amp;E144&amp;"'},"</f>
-        <v>{name:['주안동궁전예식장 결합부스','주안으뜸점G'],addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243'},</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="G144" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안동궁전예식장 결합부스','주안으뜸점G'],addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243',jibun:'인천광역시 미추홀구 주안동 133-3 대동빌딩'},</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -9843,12 +10844,15 @@
       <c r="F145" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G145" t="str">
-        <f>"{name:" &amp; "['"&amp;A145&amp;"'"&amp;IF(ISBLANK(B145),"",",'"&amp;B145&amp;"'")&amp;"],addr:" &amp; "'" &amp;C145&amp;"',x:"&amp; "'" &amp;D145&amp;"',y:"&amp; "'" &amp;E145&amp;"'},"</f>
-        <v>{name:['주안미래점M'],addr:'인천광역시 미추홀구 주안중로 13-1',x:'927698.3542673178',y:'1940367.9314235584'},</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="G145" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안미래점M'],addr:'인천광역시 미추홀구 주안중로 13-1',x:'927698.3542673178',y:'1940367.9314235584',jibun:'인천광역시 미추홀구 주안동 179-10'},</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -9864,12 +10868,15 @@
       <c r="F146" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G146" t="str">
-        <f>"{name:" &amp; "['"&amp;A146&amp;"'"&amp;IF(ISBLANK(B146),"",",'"&amp;B146&amp;"'")&amp;"],addr:" &amp; "'" &amp;C146&amp;"',x:"&amp; "'" &amp;D146&amp;"',y:"&amp; "'" &amp;E146&amp;"'},"</f>
-        <v>{name:['주안미소점G'],addr:'인천광역시 미추홀구 신기길30번길 37',x:'926981.776154774',y:'1938935.675808793'},</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="G146" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="H146" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안미소점G'],addr:'인천광역시 미추홀구 신기길30번길 37',x:'926981.776154774',y:'1938935.675808793',jibun:'인천광역시 미추홀구 주안동 856-3'},</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>36</v>
       </c>
@@ -9885,12 +10892,15 @@
       <c r="F147" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G147" t="str">
-        <f>"{name:" &amp; "['"&amp;A147&amp;"'"&amp;IF(ISBLANK(B147),"",",'"&amp;B147&amp;"'")&amp;"],addr:" &amp; "'" &amp;C147&amp;"',x:"&amp; "'" &amp;D147&amp;"',y:"&amp; "'" &amp;E147&amp;"'},"</f>
-        <v>{name:['주안미추홀점G'],addr:'인천광역시 미추홀구 경인로 343',x:'927260.9079237133',y:'1940267.6733396333'},</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="G147" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="H147" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안미추홀점G'],addr:'인천광역시 미추홀구 경인로 343',x:'927260.9079237133',y:'1940267.6733396333',jibun:'인천광역시 미추홀구 주안동 195-2'},</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -9906,12 +10916,15 @@
       <c r="F148" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G148" t="str">
-        <f>"{name:" &amp; "['"&amp;A148&amp;"'"&amp;IF(ISBLANK(B148),"",",'"&amp;B148&amp;"'")&amp;"],addr:" &amp; "'" &amp;C148&amp;"',x:"&amp; "'" &amp;D148&amp;"',y:"&amp; "'" &amp;E148&amp;"'},"</f>
-        <v>{name:['주안본점M'],addr:'인천광역시 미추홀구 미추홀대로734번길 37',x:'927714.5775235672',y:'1940744.2295416128'},</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="G148" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="H148" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안본점M'],addr:'인천광역시 미추홀구 미추홀대로734번길 37',x:'927714.5775235672',y:'1940744.2295416128',jibun:'인천광역시 미추홀구 주안동 132-4'},</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>109</v>
       </c>
@@ -9927,12 +10940,15 @@
       <c r="F149" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G149" t="str">
-        <f>"{name:" &amp; "['"&amp;A149&amp;"'"&amp;IF(ISBLANK(B149),"",",'"&amp;B149&amp;"'")&amp;"],addr:" &amp; "'" &amp;C149&amp;"',x:"&amp; "'" &amp;D149&amp;"',y:"&amp; "'" &amp;E149&amp;"'},"</f>
-        <v>{name:['주안사거리점G'],addr:'인천광역시 미추홀구 석바위로 61',x:'927476.9399430258',y:'1940520.5633123717'},</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="G149" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="H149" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안사거리점G'],addr:'인천광역시 미추홀구 석바위로 61',x:'927476.9399430258',y:'1940520.5633123717',jibun:'인천광역시 미추홀구 주안동 210-13'},</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>86</v>
       </c>
@@ -9948,12 +10964,15 @@
       <c r="F150" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G150" t="str">
-        <f>"{name:" &amp; "['"&amp;A150&amp;"'"&amp;IF(ISBLANK(B150),"",",'"&amp;B150&amp;"'")&amp;"],addr:" &amp; "'" &amp;C150&amp;"',x:"&amp; "'" &amp;D150&amp;"',y:"&amp; "'" &amp;E150&amp;"'},"</f>
-        <v>{name:['주안석바위점M'],addr:'인천광역시 미추홀구 석바위로 112',x:'927947.6847094274',y:'1940400.324138321'},</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="G150" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="H150" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안석바위점M'],addr:'인천광역시 미추홀구 석바위로 112',x:'927947.6847094274',y:'1940400.324138321',jibun:'인천광역시 미추홀구 주안동 271-22'},</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>166</v>
       </c>
@@ -9969,12 +10988,15 @@
       <c r="F151" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G151" t="str">
-        <f>"{name:" &amp; "['"&amp;A151&amp;"'"&amp;IF(ISBLANK(B151),"",",'"&amp;B151&amp;"'")&amp;"],addr:" &amp; "'" &amp;C151&amp;"',x:"&amp; "'" &amp;D151&amp;"',y:"&amp; "'" &amp;E151&amp;"'},"</f>
-        <v>{name:['주안세일점G'],addr:'인천광역시 미추홀구 동주길 76',x:'927911.4083549832',y:'1939815.436123129'},</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="G151" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="H151" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안세일점G'],addr:'인천광역시 미추홀구 동주길 76',x:'927911.4083549832',y:'1939815.436123129',jibun:'인천광역시 미추홀구 주안동 386-6'},</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -9990,12 +11012,15 @@
       <c r="F152" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G152" t="str">
-        <f>"{name:" &amp; "['"&amp;A152&amp;"'"&amp;IF(ISBLANK(B152),"",",'"&amp;B152&amp;"'")&amp;"],addr:" &amp; "'" &amp;C152&amp;"',x:"&amp; "'" &amp;D152&amp;"',y:"&amp; "'" &amp;E152&amp;"'},"</f>
-        <v>{name:['주안역삼거리 결합부스'],addr:'인천광역시 미추홀구 미추홀대로 741',x:'927492.7927790079',y:'1940802.0347208697'},</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="G152" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="H152" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안역삼거리 결합부스'],addr:'인천광역시 미추홀구 미추홀대로 741',x:'927492.7927790079',y:'1940802.0347208697',jibun:'인천광역시 미추홀구 주안동 227-35'},</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -10011,12 +11036,15 @@
       <c r="F153" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G153" t="str">
-        <f>"{name:" &amp; "['"&amp;A153&amp;"'"&amp;IF(ISBLANK(B153),"",",'"&amp;B153&amp;"'")&amp;"],addr:" &amp; "'" &amp;C153&amp;"',x:"&amp; "'" &amp;D153&amp;"',y:"&amp; "'" &amp;E153&amp;"'},"</f>
-        <v>{name:['주안월드점G'],addr:'인천광역시 미추홀구 경인로485번길 33',x:'928577.0918325363',y:'1940491.9788272986'},</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="G153" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="H153" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안월드점G'],addr:'인천광역시 미추홀구 경인로485번길 33',x:'928577.0918325363',y:'1940491.9788272986',jibun:'인천광역시 미추홀구 주안동 922-11'},</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>139</v>
       </c>
@@ -10032,12 +11060,15 @@
       <c r="F154" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G154" t="str">
-        <f>"{name:" &amp; "['"&amp;A154&amp;"'"&amp;IF(ISBLANK(B154),"",",'"&amp;B154&amp;"'")&amp;"],addr:" &amp; "'" &amp;C154&amp;"',x:"&amp; "'" &amp;D154&amp;"',y:"&amp; "'" &amp;E154&amp;"'},"</f>
-        <v>{name:['주안주공점G'],addr:'인천광역시 미추홀구 주안로 215',x:'928700.075495082',y:'1940788.8228662973'},</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="G154" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="H154" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안주공점G'],addr:'인천광역시 미추홀구 주안로 215',x:'928700.075495082',y:'1940788.8228662973',jibun:'인천광역시 미추홀구 주안동 49-11'},</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>148</v>
       </c>
@@ -10053,12 +11084,15 @@
       <c r="F155" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G155" t="str">
-        <f>"{name:" &amp; "['"&amp;A155&amp;"'"&amp;IF(ISBLANK(B155),"",",'"&amp;B155&amp;"'")&amp;"],addr:" &amp; "'" &amp;C155&amp;"',x:"&amp; "'" &amp;D155&amp;"',y:"&amp; "'" &amp;E155&amp;"'},"</f>
-        <v>{name:['주안파크점G'],addr:'인천광역시 미추홀구 미추홀대로722번길 21-1',x:'927631.6564081493',y:'1940615.9256797591'},</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="G155" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="H155" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안파크점G'],addr:'인천광역시 미추홀구 미추홀대로722번길 21-1',x:'927631.6564081493',y:'1940615.9256797591',jibun:'인천광역시 미추홀구 주안동 153-9 장원빌딩'},</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -10074,12 +11108,15 @@
       <c r="F156" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G156" t="str">
-        <f>"{name:" &amp; "['"&amp;A156&amp;"'"&amp;IF(ISBLANK(B156),"",",'"&amp;B156&amp;"'")&amp;"],addr:" &amp; "'" &amp;C156&amp;"',x:"&amp; "'" &amp;D156&amp;"',y:"&amp; "'" &amp;E156&amp;"'},"</f>
-        <v>{name:['주안한신점G'],addr:'인천광역시 미추홀구 인하로352번길 10',x:'928112.3556398968',y:'1939019.7543626092'},</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="G156" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="H156" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안한신점G'],addr:'인천광역시 미추홀구 인하로352번길 10',x:'928112.3556398968',y:'1939019.7543626092',jibun:'인천광역시 미추홀구 주안동 1523-36'},</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>119</v>
       </c>
@@ -10095,12 +11132,15 @@
       <c r="F157" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G157" t="str">
-        <f>"{name:" &amp; "['"&amp;A157&amp;"'"&amp;IF(ISBLANK(B157),"",",'"&amp;B157&amp;"'")&amp;"],addr:" &amp; "'" &amp;C157&amp;"',x:"&amp; "'" &amp;D157&amp;"',y:"&amp; "'" &amp;E157&amp;"'},"</f>
-        <v>{name:['주안행복점M'],addr:'인천광역시 미추홀구 석바위로53번길 3',x:'927366.0847729146',y:'1940514.0627141502'},</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="G157" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="H157" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['주안행복점M'],addr:'인천광역시 미추홀구 석바위로53번길 3',x:'927366.0847729146',y:'1940514.0627141502',jibun:'인천광역시 미추홀구 주안동 216-2'},</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>55</v>
       </c>
@@ -10116,12 +11156,15 @@
       <c r="F158" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G158" t="str">
-        <f>"{name:" &amp; "['"&amp;A158&amp;"'"&amp;IF(ISBLANK(B158),"",",'"&amp;B158&amp;"'")&amp;"],addr:" &amp; "'" &amp;C158&amp;"',x:"&amp; "'" &amp;D158&amp;"',y:"&amp; "'" &amp;E158&amp;"'},"</f>
-        <v>{name:['중부지방해양경찰청SH'],addr:'인천광역시 연수구 센트럴로 263',x:'923373.8316200967',y:'1933570.7668816056'},</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="G158" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="H158" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['중부지방해양경찰청SH'],addr:'인천광역시 연수구 센트럴로 263',x:'923373.8316200967',y:'1933570.7668816056',jibun:'인천광역시 연수구 송도동 29-13 송도국제업무단지 C8-2블럭 업무복합시설'},</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>37</v>
       </c>
@@ -10137,12 +11180,15 @@
       <c r="F159" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G159" t="str">
-        <f>"{name:" &amp; "['"&amp;A159&amp;"'"&amp;IF(ISBLANK(B159),"",",'"&amp;B159&amp;"'")&amp;"],addr:" &amp; "'" &amp;C159&amp;"',x:"&amp; "'" &amp;D159&amp;"',y:"&amp; "'" &amp;E159&amp;"'},"</f>
-        <v>{name:['중앙슈퍼-연수'],addr:'인천광역시 연수구 함박뫼로4번길 13-8',x:'926743.3556705897',y:'1935757.611946192'},</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="G159" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="H159" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['중앙슈퍼-연수'],addr:'인천광역시 연수구 함박뫼로4번길 13-8',x:'926743.3556705897',y:'1935757.611946192',jibun:'인천광역시 연수구 청학동 477-7'},</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -10158,12 +11204,15 @@
       <c r="F160" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G160" t="str">
-        <f>"{name:" &amp; "['"&amp;A160&amp;"'"&amp;IF(ISBLANK(B160),"",",'"&amp;B160&amp;"'")&amp;"],addr:" &amp; "'" &amp;C160&amp;"',x:"&amp; "'" &amp;D160&amp;"',y:"&amp; "'" &amp;E160&amp;"'},"</f>
-        <v>{name:['천일식품-고잔동'],addr:'인천광역시 남동구 앵고개로 426',x:'928102.1321792866',y:'1933636.4756072024'},</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="G160" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="H160" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['천일식품-고잔동'],addr:'인천광역시 남동구 앵고개로 426',x:'928102.1321792866',y:'1933636.4756072024',jibun:'인천광역시 남동구 고잔동 690-2'},</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -10179,12 +11228,15 @@
       <c r="F161" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G161" t="str">
-        <f>"{name:" &amp; "['"&amp;A161&amp;"'"&amp;IF(ISBLANK(B161),"",",'"&amp;B161&amp;"'")&amp;"],addr:" &amp; "'" &amp;C161&amp;"',x:"&amp; "'" &amp;D161&amp;"',y:"&amp; "'" &amp;E161&amp;"'},"</f>
-        <v>{name:['청능공원점G'],addr:'인천광역시 연수구 청능말로7번길 20',x:'926506.0746164669',y:'1935665.4340851936'},</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="G161" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H161" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['청능공원점G'],addr:'인천광역시 연수구 청능말로7번길 20',x:'926506.0746164669',y:'1935665.4340851936',jibun:'인천광역시 연수구 청학동 461-1'},</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>28</v>
       </c>
@@ -10200,12 +11252,15 @@
       <c r="F162" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G162" t="str">
-        <f>"{name:" &amp; "['"&amp;A162&amp;"'"&amp;IF(ISBLANK(B162),"",",'"&amp;B162&amp;"'")&amp;"],addr:" &amp; "'" &amp;C162&amp;"',x:"&amp; "'" &amp;D162&amp;"',y:"&amp; "'" &amp;E162&amp;"'},"</f>
-        <v>{name:['청라리치아노점M'],addr:'인천광역시 서구 청라에메랄드로102번길 10',x:'925562.0452141722',y:'1948624.1122872476'},</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="G162" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="H162" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['청라리치아노점M'],addr:'인천광역시 서구 청라에메랄드로102번길 10',x:'925562.0452141722',y:'1948624.1122872476',jibun:'인천광역시 서구 청라동 167-1 청라리치아노'},</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -10221,12 +11276,15 @@
       <c r="F163" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G163" t="str">
-        <f>"{name:" &amp; "['"&amp;A163&amp;"'"&amp;IF(ISBLANK(B163),"",",'"&amp;B163&amp;"'")&amp;"],addr:" &amp; "'" &amp;C163&amp;"',x:"&amp; "'" &amp;D163&amp;"',y:"&amp; "'" &amp;E163&amp;"'},"</f>
-        <v>{name:['청라에뜰점G'],addr:'인천광역시 서구 청라커낼로 300',x:'924457.963117328',y:'1948765.6387663502'},</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="G163" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="H163" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['청라에뜰점G'],addr:'인천광역시 서구 청라커낼로 300',x:'924457.963117328',y:'1948765.6387663502',jibun:'인천광역시 서구 청라동 156-1 청라센트럴에일린의뜰'},</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -10242,12 +11300,15 @@
       <c r="F164" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G164" t="str">
-        <f>"{name:" &amp; "['"&amp;A164&amp;"'"&amp;IF(ISBLANK(B164),"",",'"&amp;B164&amp;"'")&amp;"],addr:" &amp; "'" &amp;C164&amp;"',x:"&amp; "'" &amp;D164&amp;"',y:"&amp; "'" &amp;E164&amp;"'},"</f>
-        <v>{name:['청라호반점G'],addr:'인천광역시 서구 청라커낼로 163',x:'923949.8371560569',y:'1947760.2909392407'},</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="G164" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="H164" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['청라호반점G'],addr:'인천광역시 서구 청라커낼로 163',x:'923949.8371560569',y:'1947760.2909392407',jibun:'인천광역시 서구 청라동 173-1 청라29블럭호반베르디움'},</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>354</v>
       </c>
@@ -10263,12 +11324,15 @@
       <c r="F165" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G165" t="str">
-        <f>"{name:" &amp; "['"&amp;A165&amp;"'"&amp;IF(ISBLANK(B165),"",",'"&amp;B165&amp;"'")&amp;"],addr:" &amp; "'" &amp;C165&amp;"',x:"&amp; "'" &amp;D165&amp;"',y:"&amp; "'" &amp;E165&amp;"'},"</f>
-        <v>{name:['청학복합문화센터-SHINHAN'],addr:'인천광역시 연수구 비류대로 299',x:'926357.2427523071',y:'1936675.620955735'},</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="G165" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="H165" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['청학복합문화센터-SHINHAN'],addr:'인천광역시 연수구 비류대로 299',x:'926357.2427523071',y:'1936675.620955735',jibun:'인천광역시 연수구 청학동 239-4 청학문화센터'},</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>74</v>
       </c>
@@ -10284,12 +11348,15 @@
       <c r="F166" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G166" t="str">
-        <f>"{name:" &amp; "['"&amp;A166&amp;"'"&amp;IF(ISBLANK(B166),"",",'"&amp;B166&amp;"'")&amp;"],addr:" &amp; "'" &amp;C166&amp;"',x:"&amp; "'" &amp;D166&amp;"',y:"&amp; "'" &amp;E166&amp;"'},"</f>
-        <v>{name:['청학본점G'],addr:'인천광역시 연수구 비류대로278번길 8-3',x:'926142.2991103267',y:'1936646.2066965867'},</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="G166" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="H166" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['청학본점G'],addr:'인천광역시 연수구 비류대로278번길 8-3',x:'926142.2991103267',y:'1936646.2066965867',jibun:'인천광역시 연수구 청학동 563-8'},</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -10305,12 +11372,15 @@
       <c r="F167" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G167" t="str">
-        <f>"{name:" &amp; "['"&amp;A167&amp;"'"&amp;IF(ISBLANK(B167),"",",'"&amp;B167&amp;"'")&amp;"],addr:" &amp; "'" &amp;C167&amp;"',x:"&amp; "'" &amp;D167&amp;"',y:"&amp; "'" &amp;E167&amp;"'},"</f>
-        <v>{name:['청학타운점G'],addr:'인천광역시 연수구 청학로12번길 47',x:'926231.6395880934',y:'1936834.2690070835'},</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="G167" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="H167" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['청학타운점G'],addr:'인천광역시 연수구 청학로12번길 47',x:'926231.6395880934',y:'1936834.2690070835',jibun:'인천광역시 연수구 청학동 535-15'},</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>90</v>
       </c>
@@ -10326,12 +11396,15 @@
       <c r="F168" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G168" t="str">
-        <f>"{name:" &amp; "['"&amp;A168&amp;"'"&amp;IF(ISBLANK(B168),"",",'"&amp;B168&amp;"'")&amp;"],addr:" &amp; "'" &amp;C168&amp;"',x:"&amp; "'" &amp;D168&amp;"',y:"&amp; "'" &amp;E168&amp;"'},"</f>
-        <v>{name:['청학현대점G'],addr:'인천광역시 연수구 계림로35번길 58',x:'926443.0193460134',y:'1936904.7241967367'},</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="G168" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="H168" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['청학현대점G'],addr:'인천광역시 연수구 계림로35번길 58',x:'926443.0193460134',y:'1936904.7241967367',jibun:'인천광역시 연수구 청학동 547-13'},</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>730</v>
       </c>
@@ -10347,12 +11420,15 @@
       <c r="F169" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G169" t="str">
-        <f>"{name:" &amp; "['"&amp;A169&amp;"'"&amp;IF(ISBLANK(B169),"",",'"&amp;B169&amp;"'")&amp;"],addr:" &amp; "'" &amp;C169&amp;"',x:"&amp; "'" &amp;D169&amp;"',y:"&amp; "'" &amp;E169&amp;"'},"</f>
-        <v>{name:['코스트코'],addr:'인천광역시 연수구 컨벤시아대로230번길 60',x:' 923278.7832623338',y:'1932636.7317621163'},</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="G169" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="H169" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['코스트코'],addr:'인천광역시 연수구 컨벤시아대로230번길 60',x:' 923278.7832623338',y:'1932636.7317621163',jibun:'인천광역시 연수구 송도동 98 코스트코홀세일 송도점'},</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>133</v>
       </c>
@@ -10368,12 +11444,15 @@
       <c r="F170" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G170" t="str">
-        <f>"{name:" &amp; "['"&amp;A170&amp;"'"&amp;IF(ISBLANK(B170),"",",'"&amp;B170&amp;"'")&amp;"],addr:" &amp; "'" &amp;C170&amp;"',x:"&amp; "'" &amp;D170&amp;"',y:"&amp; "'" &amp;E170&amp;"'},"</f>
-        <v>{name:['퍼스트파크13점'],addr:'인천광역시 연수구 컨벤시아대로252번길 70',x:'923074.6219626968',y:'1932451.7707887636'},</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="G170" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="H170" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['퍼스트파크13점'],addr:'인천광역시 연수구 컨벤시아대로252번길 70',x:'923074.6219626968',y:'1932451.7707887636',jibun:'인천광역시 연수구 송도동 100 송도 더샵 퍼스트파크 F13-1BL'},</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>47</v>
       </c>
@@ -10389,12 +11468,15 @@
       <c r="F171" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G171" t="str">
-        <f>"{name:" &amp; "['"&amp;A171&amp;"'"&amp;IF(ISBLANK(B171),"",",'"&amp;B171&amp;"'")&amp;"],addr:" &amp; "'" &amp;C171&amp;"',x:"&amp; "'" &amp;D171&amp;"',y:"&amp; "'" &amp;E171&amp;"'},"</f>
-        <v>{name:['포스코송도 R&amp;D센터KB'],addr:'인천광역시 연수구 송도과학로 100',x:'926384.4323779428',y:'1931453.2860596376'},</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="G171" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="H171" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['포스코송도 R&amp;D센터KB'],addr:'인천광역시 연수구 송도과학로 100',x:'926384.4323779428',y:'1931453.2860596376',jibun:'인천광역시 연수구 송도동 180-1 포스코 글로벌 R&amp;D CENTER'},</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>53</v>
       </c>
@@ -10410,12 +11492,15 @@
       <c r="F172" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G172" t="str">
-        <f>"{name:" &amp; "['"&amp;A172&amp;"'"&amp;IF(ISBLANK(B172),"",",'"&amp;B172&amp;"'")&amp;"],addr:" &amp; "'" &amp;C172&amp;"',x:"&amp; "'" &amp;D172&amp;"',y:"&amp; "'" &amp;E172&amp;"'},"</f>
-        <v>{name:['포스코이앤씨타워점G'],addr:'인천광역시 연수구 인천타워대로 241',x:'923372.5008990793',y:'1932935.9711958324'},</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="G172" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="H172" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['포스코이앤씨타워점G'],addr:'인천광역시 연수구 인천타워대로 241',x:'923372.5008990793',y:'1932935.9711958324',jibun:'인천광역시 연수구 송도동 36 부영송도타워'},</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>123</v>
       </c>
@@ -10431,12 +11516,15 @@
       <c r="F173" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G173" t="str">
-        <f>"{name:" &amp; "['"&amp;A173&amp;"'"&amp;IF(ISBLANK(B173),"",",'"&amp;B173&amp;"'")&amp;"],addr:" &amp; "'" &amp;C173&amp;"',x:"&amp; "'" &amp;D173&amp;"',y:"&amp; "'" &amp;E173&amp;"'},"</f>
-        <v>{name:['하이-소래포구'],addr:'인천광역시 남동구 포구로 3',x:'932688.4409603968',y:'1933646.0883224965'},</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="G173" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="H173" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['하이-소래포구'],addr:'인천광역시 남동구 포구로 3',x:'932688.4409603968',y:'1933646.0883224965',jibun:'인천광역시 남동구 논현동 111-234'},</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -10452,12 +11540,15 @@
       <c r="F174" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G174" t="str">
-        <f>"{name:" &amp; "['"&amp;A174&amp;"'"&amp;IF(ISBLANK(B174),"",",'"&amp;B174&amp;"'")&amp;"],addr:" &amp; "'" &amp;C174&amp;"',x:"&amp; "'" &amp;D174&amp;"',y:"&amp; "'" &amp;E174&amp;"'},"</f>
-        <v>{name:['학익늘봄점G'],addr:'인천광역시 미추홀구 한나루로403번길 105',x:'925632.7361822787',y:'1938795.12119258'},</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="G174" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="H174" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['학익늘봄점G'],addr:'인천광역시 미추홀구 한나루로403번길 105',x:'925632.7361822787',y:'1938795.12119258',jibun:'인천광역시 미추홀구 학익동 420-16'},</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -10473,12 +11564,15 @@
       <c r="F175" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G175" t="str">
-        <f>"{name:" &amp; "['"&amp;A175&amp;"'"&amp;IF(ISBLANK(B175),"",",'"&amp;B175&amp;"'")&amp;"],addr:" &amp; "'" &amp;C175&amp;"',x:"&amp; "'" &amp;D175&amp;"',y:"&amp; "'" &amp;E175&amp;"'},"</f>
-        <v>{name:['학익다송G'],addr:'인천광역시 미추홀구 소성로 162',x:'926243.6841133314',y:'1938404.1977886255'},</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="G175" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="H175" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['학익다송G'],addr:'인천광역시 미추홀구 소성로 162',x:'926243.6841133314',y:'1938404.1977886255',jibun:'인천광역시 미추홀구 학익동 252-8 다송빌딩'},</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>83</v>
       </c>
@@ -10494,12 +11588,15 @@
       <c r="F176" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G176" t="str">
-        <f>"{name:" &amp; "['"&amp;A176&amp;"'"&amp;IF(ISBLANK(B176),"",",'"&amp;B176&amp;"'")&amp;"],addr:" &amp; "'" &amp;C176&amp;"',x:"&amp; "'" &amp;D176&amp;"',y:"&amp; "'" &amp;E176&amp;"'},"</f>
-        <v>{name:['학익대로점G'],addr:'인천광역시 미추홀구 소성로 244',x:'926977.6259435453',y:'1938038.3710919674'},</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="G176" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="H176" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['학익대로점G'],addr:'인천광역시 미추홀구 소성로 244',x:'926977.6259435453',y:'1938038.3710919674',jibun:'인천광역시 미추홀구 학익동 671-4'},</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -10515,12 +11612,15 @@
       <c r="F177" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G177" t="str">
-        <f>"{name:" &amp; "['"&amp;A177&amp;"'"&amp;IF(ISBLANK(B177),"",",'"&amp;B177&amp;"'")&amp;"],addr:" &amp; "'" &amp;C177&amp;"',x:"&amp; "'" &amp;D177&amp;"',y:"&amp; "'" &amp;E177&amp;"'},"</f>
-        <v>{name:['학익미소G'],addr:'인천광역시 미추홀구 주승로 22',x:'926826.3832888785',y:'1938596.312287895'},</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="G177" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="H177" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['학익미소G'],addr:'인천광역시 미추홀구 주승로 22',x:'926826.3832888785',y:'1938596.312287895',jibun:'인천광역시 미추홀구 학익동 649 정진프라자'},</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -10536,12 +11636,15 @@
       <c r="F178" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G178" t="str">
-        <f>"{name:" &amp; "['"&amp;A178&amp;"'"&amp;IF(ISBLANK(B178),"",",'"&amp;B178&amp;"'")&amp;"],addr:" &amp; "'" &amp;C178&amp;"',x:"&amp; "'" &amp;D178&amp;"',y:"&amp; "'" &amp;E178&amp;"'},"</f>
-        <v>{name:['학익사거리점M'],addr:'인천광역시 미추홀구 매소홀로446번길 16',x:'926687.5525610019',y:'1938078.4112452823'},</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="G178" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="H178" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['학익사거리점M'],addr:'인천광역시 미추홀구 매소홀로446번길 16',x:'926687.5525610019',y:'1938078.4112452823',jibun:'인천광역시 미추홀구 학익동 675-3'},</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>84</v>
       </c>
@@ -10557,12 +11660,15 @@
       <c r="F179" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G179" t="str">
-        <f>"{name:" &amp; "['"&amp;A179&amp;"'"&amp;IF(ISBLANK(B179),"",",'"&amp;B179&amp;"'")&amp;"],addr:" &amp; "'" &amp;C179&amp;"',x:"&amp; "'" &amp;D179&amp;"',y:"&amp; "'" &amp;E179&amp;"'},"</f>
-        <v>{name:['학익센터점G'],addr:'인천광역시 미추홀구 매소홀로446번길 4',x:'926688.1271994561',y:'1938129.2821605182'},</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="G179" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H179" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['학익센터점G'],addr:'인천광역시 미추홀구 매소홀로446번길 4',x:'926688.1271994561',y:'1938129.2821605182',jibun:'인천광역시 미추홀구 학익동 677-2'},</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>40</v>
       </c>
@@ -10578,12 +11684,15 @@
       <c r="F180" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G180" t="str">
-        <f>"{name:" &amp; "['"&amp;A180&amp;"'"&amp;IF(ISBLANK(B180),"",",'"&amp;B180&amp;"'")&amp;"],addr:" &amp; "'" &amp;C180&amp;"',x:"&amp; "'" &amp;D180&amp;"',y:"&amp; "'" &amp;E180&amp;"'},"</f>
-        <v>{name:['학익점GSS'],addr:'인천광역시 미추홀구 소성로 146',x:'926064.1264832243',y:'1938437.8886083513'},</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="G180" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="H180" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['학익점GSS'],addr:'인천광역시 미추홀구 소성로 146',x:'926064.1264832243',y:'1938437.8886083513',jibun:'인천광역시 미추홀구 학익동 256-19 LG수퍼마켓 학익점'},</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>118</v>
       </c>
@@ -10599,12 +11708,15 @@
       <c r="F181" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G181" t="str">
-        <f>"{name:" &amp; "['"&amp;A181&amp;"'"&amp;IF(ISBLANK(B181),"",",'"&amp;B181&amp;"'")&amp;"],addr:" &amp; "'" &amp;C181&amp;"',x:"&amp; "'" &amp;D181&amp;"',y:"&amp; "'" &amp;E181&amp;"'},"</f>
-        <v>{name:['학익중앙점G'],addr:'인천광역시 미추홀구 소성로185번길 16-5',x:'926531.8325332045',y:'1938402.6683132658'},</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="G181" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="H181" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['학익중앙점G'],addr:'인천광역시 미추홀구 소성로185번길 16-5',x:'926531.8325332045',y:'1938402.6683132658',jibun:'인천광역시 미추홀구 학익동 244-1'},</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -10620,12 +11732,15 @@
       <c r="F182" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G182" t="str">
-        <f>"{name:" &amp; "['"&amp;A182&amp;"'"&amp;IF(ISBLANK(B182),"",",'"&amp;B182&amp;"'")&amp;"],addr:" &amp; "'" &amp;C182&amp;"',x:"&amp; "'" &amp;D182&amp;"',y:"&amp; "'" &amp;E182&amp;"'},"</f>
-        <v>{name:['학익타운점G'],addr:'인천광역시 미추홀구 한나루로 350',x:'925893.6336379224',y:'1938132.127089256'},</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="G182" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="H182" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['학익타운점G'],addr:'인천광역시 미추홀구 한나루로 350',x:'925893.6336379224',y:'1938132.127089256',jibun:'인천광역시 미추홀구 학익동 691-8'},</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -10641,12 +11756,15 @@
       <c r="F183" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G183" t="str">
-        <f>"{name:" &amp; "['"&amp;A183&amp;"'"&amp;IF(ISBLANK(B183),"",",'"&amp;B183&amp;"'")&amp;"],addr:" &amp; "'" &amp;C183&amp;"',x:"&amp; "'" &amp;D183&amp;"',y:"&amp; "'" &amp;E183&amp;"'},"</f>
-        <v>{name:['한옥마을앰배서더-SHINHAN'],addr:'인천광역시 연수구 테크노파크로 200',x:'923643.9542986592',y:'1932798.2731926683'},</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="G183" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="H183" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['한옥마을앰배서더-SHINHAN'],addr:'인천광역시 연수구 테크노파크로 200',x:'923643.9542986592',y:'1932798.2731926683',jibun:'인천광역시 연수구 송도동 24-11 경원재 앰배서더 인천'},</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>754</v>
       </c>
@@ -10662,12 +11780,15 @@
       <c r="F184" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G184" t="str">
-        <f>"{name:" &amp; "['"&amp;A184&amp;"'"&amp;IF(ISBLANK(B184),"",",'"&amp;B184&amp;"'")&amp;"],addr:" &amp; "'" &amp;C184&amp;"',x:"&amp; "'" &amp;D184&amp;"',y:"&amp; "'" &amp;E184&amp;"'},"</f>
-        <v>{name:['한화에코11단지'],addr:'인천광역시 남동구 논고개로 17',x:'931971.8826013578',y:'1933157.4842754863'},</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="G184" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="H184" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['한화에코11단지'],addr:'인천광역시 남동구 논고개로 17',x:'931971.8826013578',y:'1933157.4842754863',jibun:'인천광역시 남동구 논현동 774-1 한화꿈에그린 에코메트로11단지'},</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>756</v>
       </c>
@@ -10683,12 +11804,15 @@
       <c r="F185" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G185" t="str">
-        <f>"{name:" &amp; "['"&amp;A185&amp;"'"&amp;IF(ISBLANK(B185),"",",'"&amp;B185&amp;"'")&amp;"],addr:" &amp; "'" &amp;C185&amp;"',x:"&amp; "'" &amp;D185&amp;"',y:"&amp; "'" &amp;E185&amp;"'},"</f>
-        <v>{name:['한화에코12단지'],addr:'인천광역시 남동구 논고개로 10',x:'932065.1035968331',y:'1933133.3493248513'},</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="G185" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="H185" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['한화에코12단지'],addr:'인천광역시 남동구 논고개로 10',x:'932065.1035968331',y:'1933133.3493248513',jibun:'인천광역시 남동구 논현동 755-4 에코메트로12단지한화꿈에그린아파트'},</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>33</v>
       </c>
@@ -10704,12 +11828,15 @@
       <c r="F186" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G186" t="str">
-        <f>"{name:" &amp; "['"&amp;A186&amp;"'"&amp;IF(ISBLANK(B186),"",",'"&amp;B186&amp;"'")&amp;"],addr:" &amp; "'" &amp;C186&amp;"',x:"&amp; "'" &amp;D186&amp;"',y:"&amp; "'" &amp;E186&amp;"'},"</f>
-        <v>{name:['한화프라자점G'],addr:'인천광역시 남동구 소래역남로 12',x:'932305.6277828533',y:'1933461.700828867'},</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="G186" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="H186" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['한화프라자점G'],addr:'인천광역시 남동구 소래역남로 12',x:'932305.6277828533',y:'1933461.700828867',jibun:'인천광역시 남동구 논현동 754-1 거목프라자'},</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>129</v>
       </c>
@@ -10725,12 +11852,15 @@
       <c r="F187" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G187" t="str">
-        <f>"{name:" &amp; "['"&amp;A187&amp;"'"&amp;IF(ISBLANK(B187),"",",'"&amp;B187&amp;"'")&amp;"],addr:" &amp; "'" &amp;C187&amp;"',x:"&amp; "'" &amp;D187&amp;"',y:"&amp; "'" &amp;E187&amp;"'},"</f>
-        <v>{name:['해양경비안전본부SHINHAN'],addr:'인천광역시 연수구 해돋이로 130',x:'924618.4617833635',y:'1932985.3575826176'},</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="G187" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="H187" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['해양경비안전본부SHINHAN'],addr:'인천광역시 연수구 해돋이로 130',x:'924618.4617833635',y:'1932985.3575826176',jibun:'인천광역시 연수구 송도동 3-8 해양경찰청'},</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>732</v>
       </c>
@@ -10746,12 +11876,15 @@
       <c r="F188" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G188" t="str">
-        <f>"{name:" &amp; "['"&amp;A188&amp;"'"&amp;IF(ISBLANK(B188),"",",'"&amp;B188&amp;"'")&amp;"],addr:" &amp; "'" &amp;C188&amp;"',x:"&amp; "'" &amp;D188&amp;"',y:"&amp; "'" &amp;E188&amp;"'},"</f>
-        <v>{name:['현대 프리미엄 아울렛 송도'],addr:'인천광역시 연수구 송도국제대로 123',x:'925450.1762407259',y:'1931726.6847481355'},</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="G188" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="H188" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['현대 프리미엄 아울렛 송도'],addr:'인천광역시 연수구 송도국제대로 123',x:'925450.1762407259',y:'1931726.6847481355',jibun:'인천광역시 연수구 송도동 168-1 현대프리미엄 아울렛 송도점'},</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>70</v>
       </c>
@@ -10767,14 +11900,17 @@
       <c r="F189" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G189" t="str">
-        <f>"{name:" &amp; "['"&amp;A189&amp;"'"&amp;IF(ISBLANK(B189),"",",'"&amp;B189&amp;"'")&amp;"],addr:" &amp; "'" &amp;C189&amp;"',x:"&amp; "'" &amp;D189&amp;"',y:"&amp; "'" &amp;E189&amp;"'},"</f>
-        <v>{name:['CU연수타운점'],addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092'},</v>
+      <c r="G189" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="H189" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['CU연수타운점'],addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092',jibun:'인천광역시 연수구 연수동 498-6'},</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G185" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G189">
+  <autoFilter ref="A1:H185" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H189">
       <sortCondition ref="A1:A189"/>
     </sortState>
   </autoFilter>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyeokpark/Desktop/dev/work/atm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0494DF6E-3B35-2C4F-9D99-7DF596B791EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EF0DA1-F8CB-364B-A1DA-85343AFB7C5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13780" yWindow="600" windowWidth="17120" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="993">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -2929,6 +2929,126 @@
   </si>
   <si>
     <t>인천광역시 연수구 연수동 498-6</t>
+  </si>
+  <si>
+    <t>남동국가365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥련365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송도365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이마트 연수점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가천의대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천카톨릭대학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천운전면허시험장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주공5단지상가(KEB하나은행365)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 연수구 신송로 122</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 독배로40번길 11</t>
+  </si>
+  <si>
+    <t>LH논현사옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현로46번길 7</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 경원대로 184</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 함박뫼로 191</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 아암대로 1247</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 해송로 12</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 2-6 송도프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 옥련동 462-9 효명프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 동춘동 926-9 이마트</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 534-2 가천대학교</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 9-3 인천가톨릭대학교</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 고잔동 510-2</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 638-1</t>
+  </si>
+  <si>
+    <t>924979.0126602231</t>
+  </si>
+  <si>
+    <t>1933304.6588912918</t>
+  </si>
+  <si>
+    <t>924405.9113474332</t>
+  </si>
+  <si>
+    <t>1936495.7661320935</t>
+  </si>
+  <si>
+    <t>927526.0918634394</t>
+  </si>
+  <si>
+    <t>1934214.7747739688</t>
+  </si>
+  <si>
+    <t>928150.6333777537</t>
+  </si>
+  <si>
+    <t>1936215.7186591197</t>
+  </si>
+  <si>
+    <t>924277.2476386407</t>
+  </si>
+  <si>
+    <t>1931904.949320057</t>
+  </si>
+  <si>
+    <t>929796.4585835717</t>
+  </si>
+  <si>
+    <t>1931960.6694761738</t>
+  </si>
+  <si>
+    <t>930246.6015386996</t>
+  </si>
+  <si>
+    <t>1933930.1850851905</t>
   </si>
 </sst>
 </file>
@@ -7340,10 +7460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="H177" workbookViewId="0">
+      <selection activeCell="H190" sqref="H190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -7505,6 +7625,9 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
+      <c r="B7" t="s">
+        <v>956</v>
+      </c>
       <c r="C7" t="s">
         <v>206</v>
       </c>
@@ -7522,7 +7645,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>{name:['고잔엘아이점G'],addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442',jibun:'인천광역시 남동구 고잔동 736-4'},</v>
+        <v>{name:['고잔엘아이점G','남동국가365'],addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442',jibun:'인천광역시 남동구 고잔동 736-4'},</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7721,6 +7844,9 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
+      <c r="B16" t="s">
+        <v>963</v>
+      </c>
       <c r="C16" t="s">
         <v>201</v>
       </c>
@@ -7738,7 +7864,7 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>{name:['논현본점G'],addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222',jibun:'인천광역시 남동구 논현동 633-1 달맞이마을휴먼시아5단지 상가'},</v>
+        <v>{name:['논현본점G','주공5단지상가(KEB하나은행365)'],addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222',jibun:'인천광역시 남동구 논현동 633-1 달맞이마을휴먼시아5단지 상가'},</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -10509,7 +10635,7 @@
         <v>897</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H189" si="2">"{name:" &amp; "['"&amp;A131&amp;"'"&amp;IF(ISBLANK(B131),"",",'"&amp;B131&amp;"'")&amp;"],addr:" &amp; "'" &amp;C131&amp;"',x:"&amp; "'" &amp;D131&amp;"',y:"&amp; "'" &amp;E131&amp;"',jibun:"&amp; "'" &amp;G131&amp;"'},"</f>
+        <f t="shared" ref="H131:H194" si="2">"{name:" &amp; "['"&amp;A131&amp;"'"&amp;IF(ISBLANK(B131),"",",'"&amp;B131&amp;"'")&amp;"],addr:" &amp; "'" &amp;C131&amp;"',x:"&amp; "'" &amp;D131&amp;"',y:"&amp; "'" &amp;E131&amp;"',jibun:"&amp; "'" &amp;G131&amp;"'},"</f>
         <v>{name:['인천터미널점M'],addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102',jibun:'인천광역시 남동구 구월동 1462-2 노빌리안 1'},</v>
       </c>
     </row>
@@ -11906,6 +12032,174 @@
       <c r="H189" t="str">
         <f t="shared" si="2"/>
         <v>{name:['CU연수타운점'],addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092',jibun:'인천광역시 연수구 연수동 498-6'},</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>958</v>
+      </c>
+      <c r="C190" t="s">
+        <v>964</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="H190" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['송도365'],addr:'인천광역시 연수구 신송로 122',x:'924979.0126602231',y:'1933304.6588912918',jibun:'인천광역시 연수구 송도동 2-6 송도프라자'},</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>957</v>
+      </c>
+      <c r="C191" t="s">
+        <v>965</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="H191" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['옥련365'],addr:'인천광역시 연수구 독배로40번길 11',x:'924405.9113474332',y:'1936495.7661320935',jibun:'인천광역시 연수구 옥련동 462-9 효명프라자'},</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>959</v>
+      </c>
+      <c r="C192" t="s">
+        <v>968</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="H192" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['이마트 연수점'],addr:'인천광역시 연수구 경원대로 184',x:'927526.0918634394',y:'1934214.7747739688',jibun:'인천광역시 연수구 동춘동 926-9 이마트'},</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>960</v>
+      </c>
+      <c r="C193" t="s">
+        <v>969</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="H193" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['가천의대'],addr:'인천광역시 연수구 함박뫼로 191',x:'928150.6333777537',y:'1936215.7186591197',jibun:'인천광역시 연수구 연수동 534-2 가천대학교'},</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>961</v>
+      </c>
+      <c r="C194" t="s">
+        <v>971</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="H194" t="str">
+        <f t="shared" si="2"/>
+        <v>{name:['인천카톨릭대학'],addr:'인천광역시 연수구 해송로 12',x:'924277.2476386407',y:'1931904.949320057',jibun:'인천광역시 연수구 송도동 9-3 인천가톨릭대학교'},</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>962</v>
+      </c>
+      <c r="C195" t="s">
+        <v>970</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="H195" t="str">
+        <f t="shared" ref="H195:H196" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
+        <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>966</v>
+      </c>
+      <c r="C196" t="s">
+        <v>967</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="H196" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['LH논현사옥'],addr:'인천광역시 남동구 논현로46번길 7',x:'930246.6015386996',y:'1933930.1850851905',jibun:'인천광역시 남동구 논현동 638-1'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyeokpark/Desktop/dev/work/atm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EF0DA1-F8CB-364B-A1DA-85343AFB7C5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CFB4F9-00C0-DB46-8974-75AC03E728B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="600" windowWidth="17120" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11680" yWindow="600" windowWidth="17120" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2951,10 +2951,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천카톨릭대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인천운전면허시험장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3049,6 +3045,10 @@
   </si>
   <si>
     <t>1933930.1850851905</t>
+  </si>
+  <si>
+    <t>인천가톨릭대학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7462,8 +7462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H177" workbookViewId="0">
-      <selection activeCell="H190" sqref="H190"/>
+    <sheetView tabSelected="1" topLeftCell="F177" workbookViewId="0">
+      <selection activeCell="G203" sqref="G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -7845,7 +7845,7 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C16" t="s">
         <v>201</v>
@@ -12039,19 +12039,19 @@
         <v>958</v>
       </c>
       <c r="C190" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D190" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>980</v>
-      </c>
       <c r="F190" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="2"/>
@@ -12063,19 +12063,19 @@
         <v>957</v>
       </c>
       <c r="C191" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D191" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>982</v>
-      </c>
       <c r="F191" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" si="2"/>
@@ -12087,19 +12087,19 @@
         <v>959</v>
       </c>
       <c r="C192" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D192" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>984</v>
-      </c>
       <c r="F192" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="2"/>
@@ -12111,19 +12111,19 @@
         <v>960</v>
       </c>
       <c r="C193" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D193" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>986</v>
-      </c>
       <c r="F193" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="2"/>
@@ -12132,46 +12132,46 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>961</v>
+        <v>992</v>
       </c>
       <c r="C194" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>988</v>
-      </c>
       <c r="F194" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="2"/>
-        <v>{name:['인천카톨릭대학'],addr:'인천광역시 연수구 해송로 12',x:'924277.2476386407',y:'1931904.949320057',jibun:'인천광역시 연수구 송도동 9-3 인천가톨릭대학교'},</v>
+        <v>{name:['인천가톨릭대학'],addr:'인천광역시 연수구 해송로 12',x:'924277.2476386407',y:'1931904.949320057',jibun:'인천광역시 연수구 송도동 9-3 인천가톨릭대학교'},</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C195" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D195" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>990</v>
-      </c>
       <c r="F195" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H195" t="str">
         <f t="shared" ref="H195:H196" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
@@ -12180,22 +12180,22 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
+        <v>965</v>
+      </c>
+      <c r="C196" t="s">
         <v>966</v>
       </c>
-      <c r="C196" t="s">
-        <v>967</v>
-      </c>
       <c r="D196" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>992</v>
-      </c>
       <c r="F196" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" si="3"/>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyeokpark/Desktop/dev/work/atm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\works\temp\atm\atm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CFB4F9-00C0-DB46-8974-75AC03E728B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="600" windowWidth="17120" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11685" yWindow="600" windowWidth="17115" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$190</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$185</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="994">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -3048,14 +3047,18 @@
   </si>
   <si>
     <t>인천가톨릭대학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송도 컨벤시아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3380,24 +3383,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView topLeftCell="A181" workbookViewId="0">
       <selection activeCell="B191" sqref="B191:E193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>720</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>{name:'(주)비에스이',addr:'인천광역시 남동구 남동서로 193',x:'928448.838274891',y:'1934545.4152585235'},</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>{name:'(주)씨에스티',addr:'인천광역시 남동구 남동대로 248',x:'929162.2536080531',y:'1934468.471045103'},</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>{name:'(주)일야',addr:'인천광역시 남동구 은봉로 129',x:'929636.4538484735',y:'1934569.642266401'},</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>{name:'CU연수타운점',addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092'},</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -3519,7 +3522,7 @@
         <v>{name:'간석드림점G',addr:'인천광역시 남동구 석산로9번길 69',x:'929139.5206771668',y:'1940818.0201271167'},</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>{name:'고잔엘아이점G',addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442'},</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -3561,7 +3564,7 @@
         <v>{name:'고잔중앙점G',addr:'인천광역시 남동구 앵고개로 712',x:'930676.6785130233',y:'1932416.9426641734'},</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>{name:'남구숭의점G',addr:'인천광역시 미추홀구 독배로 438',x:'924751.8764202176',y:'1940279.1432027267'},</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -3603,7 +3606,7 @@
         <v>{name:'남동논현점G',addr:'인천광역시 남동구 앵고개로815번길 20',x:'931356.6721433003',y:'1933189.4978637807'},</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>{name:'남촌중앙점G',addr:'인천광역시 남동구 남촌로84번길 38-1',x:'930709.9029618322',y:'1936926.6012936095'},</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>{name:'남촌풍림점G',addr:'인천광역시 남동구 남촌로 87',x:'930519.5241960534',y:'1936924.5501427501'},</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -3666,7 +3669,7 @@
         <v>{name:'논현9단지점G',addr:'인천광역시 남동구 에코중앙로 96',x:'931082.9144479546',y:'1932299.9763963223'},</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>{name:'논현그린점G',addr:'인천광역시 남동구 소래역남로 41',x:'932050.8703605854',y:'1933616.1930220574'},</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>{name:'논현논곡점G',addr:'인천광역시 남동구 은봉로165번길 70',x:'930117.4696603667',y:'1934690.2941433568'},</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>{name:'논현본점G',addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222'},</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>{name:'논현사리울점G',addr:'인천광역시 남동구 호구포로 294',x:'930380.131301852',y:'1934682.26347306'},</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3771,7 +3774,7 @@
         <v>{name:'논현타워점G',addr:'인천광역시 남동구 논고개로 101',x:'931351.6498332566',y:'1933713.8792295498'},</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>{name:'논현푸르내점G',addr:'인천광역시 남동구 포구로 96',x:'932234.2407277152',y:'1934439.1704077376'},</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>{name:'논현푸르지오점G',addr:'인천광역시 남동구 남동서로236번길 30',x:'928769.7605027566',y:'1934796.3489991403'},</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>{name:'논현하늘소점G',addr:'인천광역시 남동구 논현로 17',x:'929976.1893208527',y:'1934125.684656498'},</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>{name:'논현행복점G',addr:'인천광역시 남동구 논현로 152',x:'931221.0594972067',y:'1934106.1328947735'},</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>{name:'논현현대식자재마트',addr:'인천광역시 남동구 포구로 69',x:'932397.976608831',y:'1934223.199099741'},</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -3897,7 +3900,7 @@
         <v>{name:'논현호구포점G',addr:'인천광역시 남동구 호구포로 209',x:'929995.2392286886',y:'1933932.6975875972'},</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>{name:'도림벽산점G',addr:'인천광역시 남동구 도림로 5-1',x:'931800.7220110968',y:'1935999.2065084004'},</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>{name:'도림아이파크점G',addr:'인천광역시 남동구 도리미로 8',x:'931913.8111496232',y:'1936148.2539673'},</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>{name:'도화 길목G',addr:'인천광역시 미추홀구 한나루로586번길 46',x:'926983.470680593',y:'1940180.8585922741'},</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>{name:'도화진주점G',addr:'인천광역시 미추홀구 석정로323번길 43',x:'926556.1723330859',y:'1941432.2902734857'},</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>{name:'도화팰리스점G',addr:'인천광역시 미추홀구 경인로 301',x:'926987.0691978035',y:'1940461.0685464954'},</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -4023,7 +4026,7 @@
         <v>{name:'동춘서해점G',addr:'인천광역시 연수구 봉재산로 20',x:'926197.1109902868',y:'1934885.043063439'},</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>{name:'동춘풍림점G',addr:'인천광역시 연수구 경원대로119번길 21',x:'926969.1834998771',y:'1933933.1206172006'},</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -4065,7 +4068,7 @@
         <v>{name:'마스터뷰21호점G',addr:'인천광역시 연수구 컨벤시아대로274번길 55',x:'922947.2055729781',y:'1932085.0274891593'},</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>727</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>{name:'만도헬라일렉트로닉스(주)-WOORI',addr:'인천광역시 연수구 하모니로 224',x:'923721.6646240482',y:'1931399.019956504'},</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -4107,7 +4110,7 @@
         <v>{name:'만수숭의점G',addr:'인천광역시 남동구 구월말로58번길 1',x:'931460.6338070568',y:'1939723.2555402233'},</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>747</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>{name:'주안동궁전예식장 결합부스',addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243'},</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>{name:'무지개할인마트',addr:'인천광역시 연수구 새말로36번길 11',x:'926976.9262094533',y:'1936160.6680197665'},</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>{name:'미니24-인천',addr:'인천광역시 미추홀구 경인로 437',x:'928246.1295577467',y:'1940192.399497855'},</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>725</v>
       </c>
@@ -4191,7 +4194,7 @@
         <v>{name:'미추홀타워점G',addr:'인천광역시 연수구 갯벌로 12',x:'925064.2345959987',y:'1931830.2383670015'},</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -4212,7 +4215,7 @@
         <v>{name:'보금마트-연수',addr:'인천광역시 연수구 함박로25번길 2',x:'927463.1199536233',y:'1936627.06679082'},</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>{name:'서구검단고점G',addr:'인천광역시 서구 검단로 532',x:'926110.4926230235',y:'1956373.3558248538'},</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -4254,7 +4257,7 @@
         <v>{name:'서구엠파크점G',addr:'인천광역시 서구 염곡로 52',x:'926244.9221541481',y:'1943755.5184864542'},</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -4275,7 +4278,7 @@
         <v>{name:'서구연희점G',addr:'인천광역시 서구 간촌로 9',x:'927388.9430976734',y:'1950308.0950684836'},</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>{name:'선학역점M',addr:'인천광역시 연수구 학나래로118번길 23',x:'929081.3471575531',y:'1936767.7973411446'},</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>{name:'선학중앙G',addr:'인천광역시 연수구 학나래로6번길 32',x:'929030.9872679301',y:'1936439.7252242365'},</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>{name:'세븐일레븐-인천간석역점',addr:'인천광역시 남동구 석산로 3',x:'928759.3617110967',y:'1940883.321277853'},</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -4359,7 +4362,7 @@
         <v>{name:'셀트리온 제2공장 3층WOORI',addr:'인천광역시 연수구 아카데미로51번길 20',x:'923862.253035788',y:'1930721.5154832513'},</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>{name:'소래베스트점G',addr:'인천광역시 남동구 소래역로 20',x:'932409.8016257668',y:'1933619.6491731368'},</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>{name:'소래시티점G',addr:'인천광역시 남동구 포구로 35',x:'932559.6363396579',y:'1933938.546323114'},</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>124</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>{name:'소래중앙점G',addr:'인천광역시 남동구 소래역로18번길 15',x:'932472.0993263312',y:'1933643.4917039908'},</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -4443,7 +4446,7 @@
         <v>{name:'소래포구점G',addr:'인천광역시 남동구 장도로 85',x:'932594.8315246161',y:'1933497.9901714372'},</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>{name:'소래풍림점G',addr:'인천광역시 남동구 포구로 64-29',x:'932494.2900207366',y:'1934308.7269807002'},</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>350</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>{name:'송도 라이크홈기숙사-KEB하나',addr:'인천광역시 연수구 첨단대로 80',x:'925077.5744217939',y:'1930163.4990456211'},</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>{name:'주안으뜸점G',addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243'},</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -4527,7 +4530,7 @@
         <v>{name:'송도그림워크점GSS',addr:'인천광역시 연수구 아트센터대로97번길 15',x:'923949.5984413391',y:'1933886.2199624083'},</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>{name:'송도더샵엑스포KB',addr:'인천광역시 연수구 컨벤시아대로42번길 95',x:'924238.7160272836',y:'1934178.4920383645'},</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -4569,7 +4572,7 @@
         <v>{name:'송도더샵점G',addr:'인천광역시 연수구 아트센터대로97번길 75',x:'924389.3127429485',y:'1933490.9978888235'},</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -4590,7 +4593,7 @@
         <v>{name:'송도라마다점G',addr:'인천광역시 연수구 능허대로267번길 29',x:'925239.3006682626',y:'1935277.2973558633'},</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -4611,7 +4614,7 @@
         <v>{name:'송도메디점G',addr:'인천광역시 연수구 컨벤시아대로130번길 14',x:'924308.0890260204',y:'1932993.4899920663'},</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>171</v>
       </c>
@@ -4632,7 +4635,7 @@
         <v>{name:'송도성지점G',addr:'인천광역시 연수구 신송로6번길 7',x:'925894.2303461249',y:'1932625.2375938715'},</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>{name:'메리빌리아-송도',addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588'},</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -4674,7 +4677,7 @@
         <v>{name:'송도센트럴파크호텔',addr:'인천광역시 연수구 테크노파크로 193',x:'923641.9774963101',y:'1932732.2588121234'},</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -4695,7 +4698,7 @@
         <v>{name:'송도스마트밸리점G',addr:'인천광역시 연수구 송도미래로 30',x:'924568.090254779',y:'1930236.501307576'},</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>{name:'송도월드마크점M',addr:'인천광역시 연수구 컨벤시아대로 60',x:'924851.1126633752',y:'1933442.4269422777'},</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -4737,7 +4740,7 @@
         <v>{name:'송도유원지점G',addr:'인천광역시 연수구 능허대로 203',x:'924862.0970530566',y:'1935734.32011165'},</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -4758,7 +4761,7 @@
         <v>{name:'송도점-GSS',addr:'인천광역시 연수구 해돋이로 107',x:'924778.2391112824',y:'1932822.1059526857'},</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>{name:'송도커넬워크점G',addr:'인천광역시 연수구 아트센터대로 107',x:'923751.8781831791',y:'1933894.0553808152'},</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>{name:'송도테크노파크IT센터SHINHAN',addr:'인천광역시 연수구 송도과학로 32',x:'925841.3207283262',y:'1931743.5380926528'},</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>722</v>
       </c>
@@ -4821,7 +4824,7 @@
         <v>{name:'송도트리플점G',addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588'},</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>159</v>
       </c>
@@ -4842,7 +4845,7 @@
         <v>{name:'송도파크호텔WOORI',addr:'인천광역시 연수구 테크노파크로 151',x:'923940.5490371233',y:'1932461.3960087532'},</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -4863,7 +4866,7 @@
         <v>{name:'인천글로벌운영재단',addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412'},</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>{name:'송도하모니점G',addr:'인천광역시 연수구 하모니로 124',x:'924325.4107504063',y:'1932184.2251096321'},</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>{name:'송도해송점G',addr:'인천광역시 연수구 해송로30번길 19',x:'924385.1257843729',y:'1931691.8597509419'},</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -4926,7 +4929,7 @@
         <v>{name:'송도현대점G',addr:'인천광역시 연수구 해돋이로6번길 7',x:'925627.0584128611',y:'1932281.0568902749'},</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>{name:'송도힐스점G',addr:'인천광역시 연수구 컨벤시아대로 90',x:'924647.7513800692',y:'1933202.8066080627'},</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -4968,7 +4971,7 @@
         <v>{name:'숭의길목점G',addr:'인천광역시 미추홀구 수봉안길 16',x:'925635.7302395517',y:'1940618.206504576'},</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -4989,7 +4992,7 @@
         <v>{name:'시흥신창점G',addr:'경기도 시흥시 신천4길 12',x:'936418.8711248166',y:'1937926.4969950966'},</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>{name:'신기사거리점G',addr:'인천광역시 미추홀구 미추홀대로 610',x:'927475.7843919608',y:'1939483.3085580925'},</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -5031,7 +5034,7 @@
         <v>{name:'신천동국민은행 결합부스',addr:'경기도 시흥시 수인로 3372',x:'936693.2910999567',y:'1938235.12572021'},</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>{name:'아크리아점G',addr:'인천광역시 연수구 신송로125번길 13',x:'924866.6899020134',y:'1933167.18251291'},</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>358</v>
       </c>
@@ -5073,7 +5076,7 @@
         <v>{name:'한국뉴욕주립대학교 결합부스',addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412'},</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -5094,7 +5097,7 @@
         <v>{name:'엠파크타워점G',addr:'인천광역시 서구 봉수대로 158',x:'925983.41854599',y:'1943696.0707750432'},</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -5115,7 +5118,7 @@
         <v>{name:'연수경원G',addr:'인천광역시 연수구 경원대로467번길 13',x:'929009.7022006633',y:'1936610.8085542968'},</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>{name:'연수골드점G',addr:'인천광역시 연수구 함박로 80',x:'927980.0656931633',y:'1936544.17710579'},</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -5157,7 +5160,7 @@
         <v>{name:'연수단비점G',addr:'인천광역시 연수구 청능대로113번길 43',x:'927274.7641431501',y:'1935327.7588821636'},</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -5178,7 +5181,7 @@
         <v>{name:'연수선학점G',addr:'인천광역시 연수구 넘말로29번길 21',x:'928915.90151959',y:'1936891.1488486365'},</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>{name:'연수장례식장 인천내부',addr:'인천광역시 연수구 벚꽃로 122',x:'927335.7894045769',y:'1935611.3385808035'},</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -5220,7 +5223,7 @@
         <v>{name:'연수점G',addr:'인천광역시 연수구 새말로46번길 4',x:'927054.4397459901',y:'1936127.9562478536'},</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -5241,7 +5244,7 @@
         <v>{name:'연수점M',addr:'인천광역시 연수구 비류대로 230',x:'925700.9976564867',y:'1936753.3900593636'},</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>{name:'연수중앙점G',addr:'인천광역시 연수구 새말로69번길 1',x:'927230.4884649334',y:'1935967.4642858398'},</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>{name:'연수청학점M',addr:'인천광역시 연수구 먼우금로 197',x:'927097.7779245968',y:'1935413.5243354505'},</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>{name:'연수타운점G',addr:'인천광역시 연수구 샘말로21번길 3',x:'927277.5510110233',y:'1935141.1890938403'},</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -5325,7 +5328,7 @@
         <v>{name:'연수태산점G',addr:'인천광역시 연수구 먼우금로264번길 8-4',x:'927477.3679526933',y:'1935944.299351547'},</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -5346,7 +5349,7 @@
         <v>{name:'연수파크타운점M',addr:'인천광역시 연수구 용담로 115',x:'927244.231129833',y:'1935426.1714365287'},</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>131</v>
       </c>
@@ -5367,7 +5370,7 @@
         <v>{name:'연수함박점M',addr:'인천광역시 연수구 함박뫼로50번길 93',x:'927263.5188448408',y:'1935872.3548643487'},</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>170</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>{name:'연수희망점G',addr:'인천광역시 연수구 앵고개로 256',x:'926724.2878851034',y:'1934622.8657452334'},</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>61</v>
       </c>
@@ -5409,7 +5412,7 @@
         <v>{name:'영빌딩CITY',addr:'인천광역시 미추홀구 인하로 253',x:'927138.1700531407',y:'1939133.3534303224'},</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -5430,7 +5433,7 @@
         <v>{name:'옥련백산점G',addr:'인천광역시 연수구 독배로 25',x:'924316.71718126',y:'1936330.9110739832'},</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>182</v>
       </c>
@@ -5451,7 +5454,7 @@
         <v>{name:'옥련사거리G',addr:'인천광역시 연수구 독배로 68',x:'924367.6668144872',y:'1936729.1735826507'},</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>181</v>
       </c>
@@ -5472,7 +5475,7 @@
         <v>{name:'옥련사랑M',addr:'인천광역시 연수구 한나루로 166',x:'925293.9163142969',y:'1936455.0597683867'},</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>134</v>
       </c>
@@ -5493,7 +5496,7 @@
         <v>{name:'옥련서해점G',addr:'인천광역시 연수구 청량로185번길 13',x:'924973.1474770068',y:'1936336.0367916236'},</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>180</v>
       </c>
@@ -5514,7 +5517,7 @@
         <v>{name:'옥련쌍용G',addr:'인천광역시 연수구 청량로184번길 48',x:'925182.9532054849',y:'1936549.0084032882'},</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>{name:'옥련아주점G',addr:'인천광역시 연수구 청량로 217',x:'925018.4765206832',y:'1936665.1654121173'},</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -5556,7 +5559,7 @@
         <v>{name:'옥련우성점G',addr:'인천광역시 연수구 독배로40번길 47',x:'924577.7008813033',y:'1936507.4463419202'},</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>132</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>{name:'옥련풍림점G',addr:'인천광역시 연수구 한나루로193번길 3',x:'925362.11812462',y:'1936699.7315103933'},</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -5598,7 +5601,7 @@
         <v>{name:'월미분수대점G',addr:'인천광역시 중구 월미문화로 57',x:'920135.501782795',y:'1941955.847831308'},</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>{name:'월미중앙점G',addr:'인천광역시 중구 월미문화로 65',x:'920108.2432266385',y:'1941888.865706168'},</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>76</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>{name:'위드미-라마다송도점',addr:'인천광역시 연수구 능허대로267번길 42',x:'925310.3928309134',y:'1935295.212755117'},</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -5661,7 +5664,7 @@
         <v>{name:'유진로봇 송도사옥',addr:'인천광역시 연수구 하모니로187번길 33',x:'924180.5928355344',y:'1931340.6668476937'},</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -5682,7 +5685,7 @@
         <v>{name:'은계센트럴점G',addr:'경기도 시흥시 은계중앙로 97',x:'938203.4013041602',y:'1938022.7406927734'},</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>156</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>{name:'은행동성원아파트 결합부스',addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804'},</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>157</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>{name:'은행동약사 결합부스',addr:'경기도 시흥시 은행로 8',x:'937498.2971942425',y:'1937334.1604390284'},</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>149</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>{name:'은혜의교회SH',addr:'인천광역시 미추홀구 매소홀로 428',x:'926520.0805420987',y:'1938134.7043078174'},</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -5766,7 +5769,7 @@
         <v>{name:'이마트 동인천점SC',addr:'인천광역시 중구 인중로 134',x:'922988.2656142102',y:'1941172.2637899336'},</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>179</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>{name:'이마트24 연수함박로',addr:'인천광역시 연수구 함박로 36',x:'927543.317565355',y:'1936592.6575228586'},</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -5808,7 +5811,7 @@
         <v>{name:'이수엑사보드 인천공장',addr:'인천광역시 남동구 남동서로270번길 54',x:'929093.4386579194',y:'1935045.5201349352'},</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>734</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>{name:'인천 송도 컨벤시아',addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082'},</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>{name:'인천5공단파출소결합부스',addr:'인천광역시 서구 가재울로 75',x:'927648.8596204547',y:'1942435.9377577854'},</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>{name:'인천경동점G',addr:'인천광역시 중구 개항로 82',x:'923229.7654404601',y:'1941739.1997609003'},</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>728</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>{name:'송도 에듀포레푸르지오',addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713'},</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>82</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>{name:'인천남촌로점G',addr:'인천광역시 남동구 남촌동로3번길 33',x:'930644.9199876767',y:'1937177.0833667233'},</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>57</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>{name:'인천논현광장점G',addr:'인천광역시 남동구 논고개로123번길 35',x:'931147.5988134101',y:'1933884.31215839'},</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>{name:'인천논현사랑점G',addr:'인천광역시 남동구 논고개로 166',x:'931299.0037734902',y:'1934371.8316615'},</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>{name:'인천논현역점G',addr:'인천광역시 남동구 논고개로 121',x:'931299.4091969267',y:'1933928.8000814402'},</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>51</v>
       </c>
@@ -5997,7 +6000,7 @@
         <v>{name:'인천논현점M',addr:'인천광역시 남동구 논현로46번길 51',x:'930040.7558424668',y:'1933792.9459385104'},</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>93</v>
       </c>
@@ -6018,7 +6021,7 @@
         <v>{name:'인천동아서점 결합부스',addr:'인천광역시 미추홀구 경인로 386-1',x:'927733.8360022209',y:'1940187.0715722647'},</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>160</v>
       </c>
@@ -6039,7 +6042,7 @@
         <v>{name:'인천메카점M',addr:'인천광역시 연수구 용담로125번길 41',x:'927422.4468487434',y:'1935499.65872847'},</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -6060,7 +6063,7 @@
         <v>{name:'인천벽산아파트 결합부스',addr:'인천광역시 남동구 서판로 43',x:'931434.1630260036',y:'1940841.3205330772'},</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>85</v>
       </c>
@@ -6081,7 +6084,7 @@
         <v>{name:'인천선학점G',addr:'인천광역시 연수구 비류대로529번길 10',x:'928643.5051002635',y:'1936354.497053353'},</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>94</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v>{name:'인천송도점G',addr:'인천광역시 연수구 해돋이로84번길 29',x:'925166.2389731444',y:'1932929.6578389006'},</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -6123,7 +6126,7 @@
         <v>{name:'인천신현쇼핑 결합부스',addr:'인천광역시 서구 가정로 369',x:'926879.0843732902',y:'1946840.1810874036'},</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>100</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>{name:'인천옥련점M',addr:'인천광역시 연수구 한나루로197번길 30',x:'925282.19116041',y:'1936827.8251766833'},</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>{name:'인천주안로점G',addr:'인천광역시 미추홀구 주안동로 28-15',x:'928043.4087397007',y:'1940464.958479995'},</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -6186,7 +6189,7 @@
         <v>{name:'인천터미널점M',addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102'},</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>352</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>{name:'인천해양경찰서-SH',addr:'인천광역시 연수구 옥골로 69',x:'924748.3864360615',y:'1937246.7582861618'},</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>{name:'인천호구포역점M',addr:'인천광역시 남동구 논현로26번길 12',x:'929979.51652928',y:'1934015.4848348568'},</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>63</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>{name:'자매슈퍼-연수',addr:'인천광역시 연수구 함박로12번길 46',x:'927560.5282932345',y:'1936553.2454770715'},</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>25</v>
       </c>
@@ -6270,7 +6273,7 @@
         <v>{name:'제물포버스정류장 결합부스',addr:'인천광역시 미추홀구 경인로 135',x:'925542.174751237',y:'1941140.5618504882'},</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>69</v>
       </c>
@@ -6291,7 +6294,7 @@
         <v>{name:'제일슈퍼-인천',addr:'인천광역시 연수구 함박안로156번길 6',x:'927773.0413744',y:'1936723.1742538'},</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>173</v>
       </c>
@@ -6312,7 +6315,7 @@
         <v>{name:'주안 보보G',addr:'인천광역시 미추홀구 경인로425번길 14',x:'928155.8178139064',y:'1940251.613382046'},</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>174</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>{name:'주안 신성G',addr:'인천광역시 미추홀구 주안중로 28',x:'927733.3861476094',y:'1940496.9830620233'},</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>116</v>
       </c>
@@ -6354,7 +6357,7 @@
         <v>{name:'주안1동점G',addr:'인천광역시 미추홀구 주안중로50번길 20',x:'927832.11701282',y:'1940714.3422219716'},</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>{name:'주안공단점G',addr:'인천광역시 미추홀구 염전로 362',x:'927504.3446300412',y:'1941528.745698372'},</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>98</v>
       </c>
@@ -6396,7 +6399,7 @@
         <v>{name:'주안남부점M',addr:'인천광역시 미추홀구 주안로104번길 15',x:'927600.294782457',y:'1940748.241028722'},</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>117</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>{name:'주안대로점G',addr:'인천광역시 미추홀구 주안로 45',x:'927021.73843505',y:'1940904.6652424666'},</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -6438,7 +6441,7 @@
         <v>{name:'주안동경점G',addr:'인천광역시 미추홀구 주안서로 53',x:'927285.2900126814',y:'1940792.0053177588'},</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -6459,7 +6462,7 @@
         <v>{name:'에듀포레점G',addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713'},</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>{name:'주안미래점M',addr:'인천광역시 미추홀구 주안중로 13-1',x:'927698.3542673178',y:'1940367.9314235584'},</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6501,7 +6504,7 @@
         <v>{name:'주안미소점G',addr:'인천광역시 미추홀구 신기길30번길 37',x:'926981.776154774',y:'1938935.675808793'},</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -6522,7 +6525,7 @@
         <v>{name:'주안미추홀점G',addr:'인천광역시 미추홀구 경인로 343',x:'927260.9079237133',y:'1940267.6733396333'},</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -6543,7 +6546,7 @@
         <v>{name:'주안본점M',addr:'인천광역시 미추홀구 미추홀대로734번길 37',x:'927714.5775235672',y:'1940744.2295416128'},</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>109</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>{name:'주안사거리점G',addr:'인천광역시 미추홀구 석바위로 61',x:'927476.9399430258',y:'1940520.5633123717'},</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>86</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>{name:'주안석바위점M',addr:'인천광역시 미추홀구 석바위로 112',x:'927947.6847094274',y:'1940400.324138321'},</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>{name:'주안세일점G',addr:'인천광역시 미추홀구 동주길 76',x:'927911.4083549832',y:'1939815.436123129'},</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>184</v>
       </c>
@@ -6627,7 +6630,7 @@
         <v>{name:'주안역삼거리 결합부스',addr:'인천광역시 미추홀구 미추홀대로 741',x:'927492.7927790079',y:'1940802.0347208697'},</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -6648,7 +6651,7 @@
         <v>{name:'주안월드점G',addr:'인천광역시 미추홀구 경인로485번길 33',x:'928577.0918325363',y:'1940491.9788272986'},</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -6669,7 +6672,7 @@
         <v>{name:'송도센트럴점M',addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754'},</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>139</v>
       </c>
@@ -6690,7 +6693,7 @@
         <v>{name:'주안주공점G',addr:'인천광역시 미추홀구 주안로 215',x:'928700.075495082',y:'1940788.8228662973'},</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>148</v>
       </c>
@@ -6711,7 +6714,7 @@
         <v>{name:'주안파크점G',addr:'인천광역시 미추홀구 미추홀대로722번길 21-1',x:'927631.6564081493',y:'1940615.9256797591'},</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -6732,7 +6735,7 @@
         <v>{name:'주안한신점G',addr:'인천광역시 미추홀구 인하로352번길 10',x:'928112.3556398968',y:'1939019.7543626092'},</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>119</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>{name:'주안행복점M',addr:'인천광역시 미추홀구 석바위로53번길 3',x:'927366.0847729146',y:'1940514.0627141502'},</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>55</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>{name:'중부지방해양경찰청SH',addr:'인천광역시 연수구 센트럴로 263',x:'923373.8316200967',y:'1933570.7668816056'},</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -6795,7 +6798,7 @@
         <v>{name:'중앙슈퍼-연수',addr:'인천광역시 연수구 함박뫼로4번길 13-8',x:'926743.3556705897',y:'1935757.611946192'},</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>{name:'천일식품-고잔동',addr:'인천광역시 남동구 앵고개로 426',x:'928102.1321792866',y:'1933636.4756072024'},</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>103</v>
       </c>
@@ -6837,7 +6840,7 @@
         <v>{name:'청능공원점G',addr:'인천광역시 연수구 청능말로7번길 20',x:'926506.0746164669',y:'1935665.4340851936'},</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>28</v>
       </c>
@@ -6858,7 +6861,7 @@
         <v>{name:'청라리치아노점M',addr:'인천광역시 서구 청라에메랄드로102번길 10',x:'925562.0452141722',y:'1948624.1122872476'},</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -6879,7 +6882,7 @@
         <v>{name:'청라에뜰점G',addr:'인천광역시 서구 청라커낼로 300',x:'924457.963117328',y:'1948765.6387663502'},</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>27</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>{name:'청라호반점G',addr:'인천광역시 서구 청라커낼로 163',x:'923949.8371560569',y:'1947760.2909392407'},</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>354</v>
       </c>
@@ -6921,7 +6924,7 @@
         <v>{name:'청학복합문화센터-SHINHAN',addr:'인천광역시 연수구 비류대로 299',x:'926357.2427523071',y:'1936675.620955735'},</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>74</v>
       </c>
@@ -6942,7 +6945,7 @@
         <v>{name:'청학본점G',addr:'인천광역시 연수구 비류대로278번길 8-3',x:'926142.2991103267',y:'1936646.2066965867'},</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -6963,7 +6966,7 @@
         <v>{name:'청학타운점G',addr:'인천광역시 연수구 청학로12번길 47',x:'926231.6395880934',y:'1936834.2690070835'},</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -6984,7 +6987,7 @@
         <v>{name:'청학현대점G',addr:'인천광역시 연수구 계림로35번길 58',x:'926443.0193460134',y:'1936904.7241967367'},</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>730</v>
       </c>
@@ -7005,7 +7008,7 @@
         <v>{name:'코스트코',addr:'인천광역시 연수구 컨벤시아대로230번길 60',x:' 923278.7832623338',y:'1932636.7317621163'},</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>133</v>
       </c>
@@ -7026,7 +7029,7 @@
         <v>{name:'퍼스트파크13점',addr:'인천광역시 연수구 컨벤시아대로252번길 70',x:'923074.6219626968',y:'1932451.7707887636'},</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>47</v>
       </c>
@@ -7047,7 +7050,7 @@
         <v>{name:'포스코송도 R&amp;D센터KB',addr:'인천광역시 연수구 송도과학로 100',x:'926384.4323779428',y:'1931453.2860596376'},</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>53</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>{name:'포스코이앤씨타워점G',addr:'인천광역시 연수구 인천타워대로 241',x:'923372.5008990793',y:'1932935.9711958324'},</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>123</v>
       </c>
@@ -7089,7 +7092,7 @@
         <v>{name:'하이-소래포구',addr:'인천광역시 남동구 포구로 3',x:'932688.4409603968',y:'1933646.0883224965'},</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>22</v>
       </c>
@@ -7110,7 +7113,7 @@
         <v>{name:'학익늘봄점G',addr:'인천광역시 미추홀구 한나루로403번길 105',x:'925632.7361822787',y:'1938795.12119258'},</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -7131,7 +7134,7 @@
         <v>{name:'학익다송G',addr:'인천광역시 미추홀구 소성로 162',x:'926243.6841133314',y:'1938404.1977886255'},</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>83</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>{name:'학익대로점G',addr:'인천광역시 미추홀구 소성로 244',x:'926977.6259435453',y:'1938038.3710919674'},</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>175</v>
       </c>
@@ -7173,7 +7176,7 @@
         <v>{name:'학익미소G',addr:'인천광역시 미추홀구 주승로 22',x:'926826.3832888785',y:'1938596.312287895'},</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -7194,7 +7197,7 @@
         <v>{name:'학익사거리점M',addr:'인천광역시 미추홀구 매소홀로446번길 16',x:'926687.5525610019',y:'1938078.4112452823'},</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>84</v>
       </c>
@@ -7215,7 +7218,7 @@
         <v>{name:'학익센터점G',addr:'인천광역시 미추홀구 매소홀로446번길 4',x:'926688.1271994561',y:'1938129.2821605182'},</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>40</v>
       </c>
@@ -7236,7 +7239,7 @@
         <v>{name:'학익점GSS',addr:'인천광역시 미추홀구 소성로 146',x:'926064.1264832243',y:'1938437.8886083513'},</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>118</v>
       </c>
@@ -7257,7 +7260,7 @@
         <v>{name:'학익중앙점G',addr:'인천광역시 미추홀구 소성로185번길 16-5',x:'926531.8325332045',y:'1938402.6683132658'},</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>165</v>
       </c>
@@ -7278,7 +7281,7 @@
         <v>{name:'학익타운점G',addr:'인천광역시 미추홀구 한나루로 350',x:'925893.6336379224',y:'1938132.127089256'},</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>356</v>
       </c>
@@ -7299,7 +7302,7 @@
         <v>{name:'송도푸르지오시티점G',addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754'},</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -7320,7 +7323,7 @@
         <v>{name:'한옥마을앰배서더-SHINHAN',addr:'인천광역시 연수구 테크노파크로 200',x:'923643.9542986592',y:'1932798.2731926683'},</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>33</v>
       </c>
@@ -7341,7 +7344,7 @@
         <v>{name:'한화프라자점G',addr:'인천광역시 남동구 소래역남로 12',x:'932305.6277828533',y:'1933461.700828867'},</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>129</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>{name:'해양경비안전본부SHINHAN',addr:'인천광역시 연수구 해돋이로 130',x:'924618.4617833635',y:'1932985.3575826176'},</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>732</v>
       </c>
@@ -7383,7 +7386,7 @@
         <v>{name:'현대 프리미엄 아울렛 송도',addr:'인천광역시 연수구 송도국제대로 123',x:'925450.1762407259',y:'1931726.6847481355'},</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>751</v>
       </c>
@@ -7404,7 +7407,7 @@
         <v>{name:'만도로브제',addr:'인천광역시 연수구 첨단대로60번길 75',x:'924604.9640742338',y:'1929694.2852085028'},</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>754</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>{name:'한화에코11단지',addr:'인천광역시 남동구 논고개로 17',x:'931971.8826013578',y:'1933157.4842754863'},</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>756</v>
       </c>
@@ -7447,8 +7450,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F190" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F193">
+  <autoFilter ref="A1:F190">
+    <sortState ref="A2:F193">
       <sortCondition ref="B1:B190"/>
     </sortState>
   </autoFilter>
@@ -7459,26 +7462,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F177" workbookViewId="0">
-      <selection activeCell="G203" sqref="G203"/>
+    <sheetView tabSelected="1" topLeftCell="F163" workbookViewId="0">
+      <selection activeCell="H184" sqref="H184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="70.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="191.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1"/>
+    <col min="7" max="7" width="70.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="191.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>720</v>
       </c>
@@ -7501,7 +7504,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -7525,7 +7528,7 @@
         <v>{name:['(주)비에스이'],addr:'인천광역시 남동구 남동서로 193',x:'928448.838274891',y:'1934545.4152585235',jibun:'인천광역시 남동구 고잔동 626-3 (주)이츠웰'},</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -7549,7 +7552,7 @@
         <v>{name:['(주)씨에스티'],addr:'인천광역시 남동구 남동대로 248',x:'929162.2536080531',y:'1934468.471045103',jibun:'인천광역시 남동구 논현동 444-4'},</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -7573,7 +7576,7 @@
         <v>{name:['(주)일야'],addr:'인천광역시 남동구 은봉로 129',x:'929636.4538484735',y:'1934569.642266401',jibun:'인천광역시 남동구 논현동 439-3'},</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -7597,7 +7600,7 @@
         <v>{name:['간석드림점G'],addr:'인천광역시 남동구 석산로9번길 69',x:'929139.5206771668',y:'1940818.0201271167',jibun:'인천광역시 남동구 간석동 388-30'},</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>763</v>
       </c>
@@ -7621,7 +7624,7 @@
         <v>{name:['경인종합상가 결합부스'],addr:'인천광역시 미추홀구 경인로 392',x:'927784.8569973619',y:'1940188.3494468476',jibun:'인천광역시 미추홀구 주안동 431-1 경인상가'},</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>{name:['고잔엘아이점G','남동국가365'],addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442',jibun:'인천광역시 남동구 고잔동 736-4'},</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -7672,7 +7675,7 @@
         <v>{name:['고잔중앙점G'],addr:'인천광역시 남동구 앵고개로 712',x:'930676.6785130233',y:'1932416.9426641734',jibun:'인천광역시 남동구 고잔동 349-3 석준빌딩'},</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -7696,7 +7699,7 @@
         <v>{name:['남구숭의점G'],addr:'인천광역시 미추홀구 독배로 438',x:'924751.8764202176',y:'1940279.1432027267',jibun:'인천광역시 미추홀구 숭의동 283-11'},</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -7720,7 +7723,7 @@
         <v>{name:['남동논현점G'],addr:'인천광역시 남동구 앵고개로815번길 20',x:'931356.6721433003',y:'1933189.4978637807',jibun:'인천광역시 남동구 논현동 740-2 소래휴먼시아3단지 상가비동'},</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>{name:['남촌중앙점G'],addr:'인천광역시 남동구 남촌로84번길 38-1',x:'930709.9029618322',y:'1936926.6012936095',jibun:'인천광역시 남동구 남촌동 649'},</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>{name:['남촌풍림점G'],addr:'인천광역시 남동구 남촌로 87',x:'930519.5241960534',y:'1936924.5501427501',jibun:'인천광역시 남동구 남촌동 266-4'},</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -7792,7 +7795,7 @@
         <v>{name:['논현9단지점G'],addr:'인천광역시 남동구 에코중앙로 96',x:'931082.9144479546',y:'1932299.9763963223',jibun:'인천광역시 남동구 논현동 766-1 에코메트로9단지한화꿈에그린아파트'},</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -7816,7 +7819,7 @@
         <v>{name:['논현그린점G'],addr:'인천광역시 남동구 소래역남로 41',x:'932050.8703605854',y:'1933616.1930220574',jibun:'인천광역시 남동구 논현동 755-1 에코메트로5단지상가'},</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>{name:['논현논곡점G'],addr:'인천광역시 남동구 은봉로165번길 70',x:'930117.4696603667',y:'1934690.2941433568',jibun:'인천광역시 남동구 논현동 579-8'},</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -7867,7 +7870,7 @@
         <v>{name:['논현본점G','주공5단지상가(KEB하나은행365)'],addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222',jibun:'인천광역시 남동구 논현동 633-1 달맞이마을휴먼시아5단지 상가'},</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -7891,7 +7894,7 @@
         <v>{name:['논현사리울점G'],addr:'인천광역시 남동구 호구포로 294',x:'930380.131301852',y:'1934682.26347306',jibun:'인천광역시 남동구 논현동 564-1 논현주공1단지아파트'},</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -7915,7 +7918,7 @@
         <v>{name:['논현타워점G'],addr:'인천광역시 남동구 논고개로 101',x:'931351.6498332566',y:'1933713.8792295498',jibun:'인천광역시 남동구 논현동 649-3 아름다운타워'},</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -7939,7 +7942,7 @@
         <v>{name:['논현푸르내점G'],addr:'인천광역시 남동구 포구로 96',x:'932234.2407277152',y:'1934439.1704077376',jibun:'인천광역시 남동구 논현동 600-9 휴먼시아푸르내마을13단지 상가'},</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -7963,7 +7966,7 @@
         <v>{name:['논현푸르지오점G'],addr:'인천광역시 남동구 남동서로236번길 30',x:'928769.7605027566',y:'1934796.3489991403',jibun:'인천광역시 남동구 논현동 448 논현2차푸르지오시티'},</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -7987,7 +7990,7 @@
         <v>{name:['논현하늘소점G'],addr:'인천광역시 남동구 논현로 17',x:'929976.1893208527',y:'1934125.684656498',jibun:'인천광역시 남동구 논현동 643-1 범마을휴먼시아2단지 상가'},</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -8011,7 +8014,7 @@
         <v>{name:['논현행복점G'],addr:'인천광역시 남동구 논현로 152',x:'931221.0594972067',y:'1934106.1328947735',jibun:'인천광역시 남동구 논현동 619-18'},</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -8035,7 +8038,7 @@
         <v>{name:['논현현대식자재마트'],addr:'인천광역시 남동구 포구로 69',x:'932397.976608831',y:'1934223.199099741',jibun:'인천광역시 남동구 논현동 109-40'},</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -8059,7 +8062,7 @@
         <v>{name:['논현호구포점G'],addr:'인천광역시 남동구 호구포로 209',x:'929995.2392286886',y:'1933932.6975875972',jibun:'인천광역시 남동구 논현동 647-6 호텔라르시티'},</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -8083,7 +8086,7 @@
         <v>{name:['도림벽산점G'],addr:'인천광역시 남동구 도림로 5-1',x:'931800.7220110968',y:'1935999.2065084004',jibun:'인천광역시 남동구 도림동 655-5'},</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -8107,7 +8110,7 @@
         <v>{name:['도림아이파크점G'],addr:'인천광역시 남동구 도리미로 8',x:'931913.8111496232',y:'1936148.2539673',jibun:'인천광역시 남동구 도림동 651-1 현대아이파크아파트'},</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -8131,7 +8134,7 @@
         <v>{name:['도화 길목G'],addr:'인천광역시 미추홀구 한나루로586번길 46',x:'926983.470680593',y:'1940180.8585922741',jibun:'인천광역시 미추홀구 도화동 456-5'},</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -8155,7 +8158,7 @@
         <v>{name:['도화진주점G'],addr:'인천광역시 미추홀구 석정로323번길 43',x:'926556.1723330859',y:'1941432.2902734857',jibun:'인천광역시 미추홀구 도화동 107-1'},</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -8179,7 +8182,7 @@
         <v>{name:['도화팰리스점G'],addr:'인천광역시 미추홀구 경인로 301',x:'926987.0691978035',y:'1940461.0685464954',jibun:'인천광역시 미추홀구 도화동 389-13 주영팰리스'},</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -8203,7 +8206,7 @@
         <v>{name:['동춘서해점G'],addr:'인천광역시 연수구 봉재산로 20',x:'926197.1109902868',y:'1934885.043063439',jibun:'인천광역시 연수구 동춘동 0 연수 서해그랑블 1단지'},</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -8227,7 +8230,7 @@
         <v>{name:['동춘풍림점G'],addr:'인천광역시 연수구 경원대로119번길 21',x:'926969.1834998771',y:'1933933.1206172006',jibun:'인천광역시 연수구 동춘동 929 연수2차풍림아파트'},</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -8251,7 +8254,7 @@
         <v>{name:['마스터뷰21호점G'],addr:'인천광역시 연수구 컨벤시아대로274번길 55',x:'922947.2055729781',y:'1932085.0274891593',jibun:'인천광역시 연수구 송도동 110 송도 더샵 마스터뷰 21BL'},</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>751</v>
       </c>
@@ -8275,7 +8278,7 @@
         <v>{name:['만도로브제'],addr:'인천광역시 연수구 첨단대로60번길 75',x:'924604.9640742338',y:'1929694.2852085028',jibun:'인천광역시 연수구 송도동 217-1 만도브로제공장'},</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>727</v>
       </c>
@@ -8299,7 +8302,7 @@
         <v>{name:['만도헬라일렉트로닉스(주)-WOORI'],addr:'인천광역시 연수구 하모니로 224',x:'923721.6646240482',y:'1931399.019956504',jibun:'인천광역시 연수구 송도동 10-42 MHE송도공장'},</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -8323,7 +8326,7 @@
         <v>{name:['만수숭의점G'],addr:'인천광역시 남동구 구월말로58번길 1',x:'931460.6338070568',y:'1939723.2555402233',jibun:'인천광역시 남동구 만수동 913-4'},</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -8350,7 +8353,7 @@
         <v>{name:['메리빌리아-송도','송도트리플점G'],addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588',jibun:'인천광역시 연수구 송도동 170-1 송도 트리플스트리트'},</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -8374,7 +8377,7 @@
         <v>{name:['무지개할인마트'],addr:'인천광역시 연수구 새말로36번길 11',x:'926976.9262094533',y:'1936160.6680197665',jibun:'인천광역시 연수구 연수동 559'},</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -8398,7 +8401,7 @@
         <v>{name:['미니24-인천'],addr:'인천광역시 미추홀구 경인로 437',x:'928246.1295577467',y:'1940192.399497855',jibun:'인천광역시 미추홀구 주안동 1005-10'},</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>725</v>
       </c>
@@ -8422,7 +8425,7 @@
         <v>{name:['미추홀타워점G'],addr:'인천광역시 연수구 갯벌로 12',x:'925064.2345959987',y:'1931830.2383670015',jibun:'인천광역시 연수구 송도동 7-50 미추홀타워 별관A동'},</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -8446,7 +8449,7 @@
         <v>{name:['보금마트-연수'],addr:'인천광역시 연수구 함박로25번길 2',x:'927463.1199536233',y:'1936627.06679082',jibun:'인천광역시 연수구 연수동 496-11'},</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -8470,7 +8473,7 @@
         <v>{name:['서구검단고점G'],addr:'인천광역시 서구 검단로 532',x:'926110.4926230235',y:'1956373.3558248538',jibun:'인천광역시 서구 마전동 988-7 신한빌딩'},</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -8494,7 +8497,7 @@
         <v>{name:['서구엠파크점G'],addr:'인천광역시 서구 염곡로 52',x:'926244.9221541481',y:'1943755.5184864542',jibun:'인천광역시 서구 가좌동 150-19 엠파크 허브'},</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -8518,7 +8521,7 @@
         <v>{name:['서구연희점G'],addr:'인천광역시 서구 간촌로 9',x:'927388.9430976734',y:'1950308.0950684836',jibun:'인천광역시 서구 연희동 708-6'},</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -8542,7 +8545,7 @@
         <v>{name:['선학역점M'],addr:'인천광역시 연수구 학나래로118번길 23',x:'929081.3471575531',y:'1936767.7973411446',jibun:'인천광역시 연수구 선학동 406 진승빌딩'},</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -8566,7 +8569,7 @@
         <v>{name:['선학중앙G'],addr:'인천광역시 연수구 학나래로6번길 32',x:'929030.9872679301',y:'1936439.7252242365',jibun:'인천광역시 연수구 선학동 407-10'},</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -8590,7 +8593,7 @@
         <v>{name:['세븐일레븐-인천간석역점'],addr:'인천광역시 남동구 석산로 3',x:'928759.3617110967',y:'1940883.321277853',jibun:'인천광역시 남동구 간석동 394-3 의성프라자'},</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -8614,7 +8617,7 @@
         <v>{name:['셀트리온 제2공장 3층WOORI'],addr:'인천광역시 연수구 아카데미로51번길 20',x:'923862.253035788',y:'1930721.5154832513',jibun:'인천광역시 연수구 송도동 13-1 셀트리온'},</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -8638,7 +8641,7 @@
         <v>{name:['소래베스트점G'],addr:'인천광역시 남동구 소래역로 20',x:'932409.8016257668',y:'1933619.6491731368',jibun:'인천광역시 남동구 논현동 679-3'},</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -8662,7 +8665,7 @@
         <v>{name:['소래시티점G'],addr:'인천광역시 남동구 포구로 35',x:'932559.6363396579',y:'1933938.546323114',jibun:'인천광역시 남동구 논현동 66-24 유호엔시티1단지'},</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -8686,7 +8689,7 @@
         <v>{name:['소래중앙점G'],addr:'인천광역시 남동구 소래역로18번길 15',x:'932472.0993263312',y:'1933643.4917039908',jibun:'인천광역시 남동구 논현동 678-5 중앙주차타워'},</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -8710,7 +8713,7 @@
         <v>{name:['소래포구점G'],addr:'인천광역시 남동구 장도로 85',x:'932594.8315246161',y:'1933497.9901714372',jibun:'인천광역시 남동구 논현동 111-79'},</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -8734,7 +8737,7 @@
         <v>{name:['소래풍림점G'],addr:'인천광역시 남동구 포구로 64-29',x:'932494.2900207366',y:'1934308.7269807002',jibun:'인천광역시 남동구 논현동 66-39'},</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>350</v>
       </c>
@@ -8758,7 +8761,7 @@
         <v>{name:['송도 라이크홈기숙사-KEB하나'],addr:'인천광역시 연수구 첨단대로 80',x:'925077.5744217939',y:'1930163.4990456211',jibun:'인천광역시 연수구 송도동 207-3 레지던스 라이크홈'},</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>728</v>
       </c>
@@ -8785,7 +8788,7 @@
         <v>{name:['송도 에듀포레푸르지오','에듀포레점G'],addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713',jibun:'인천광역시 연수구 송도동 191-4 송도 에듀포레 푸르지오'},</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -8809,7 +8812,7 @@
         <v>{name:['송도그림워크점GSS'],addr:'인천광역시 연수구 아트센터대로97번길 15',x:'923949.5984413391',y:'1933886.2199624083',jibun:'인천광역시 연수구 송도동 17-3 더샵 그린워크2차'},</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -8833,7 +8836,7 @@
         <v>{name:['송도더샵엑스포KB'],addr:'인천광역시 연수구 컨벤시아대로42번길 95',x:'924238.7160272836',y:'1934178.4920383645',jibun:'인천광역시 연수구 송도동 16-4 더샵 엑스포'},</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>{name:['송도더샵점G'],addr:'인천광역시 연수구 아트센터대로97번길 75',x:'924389.3127429485',y:'1933490.9978888235',jibun:'인천광역시 연수구 송도동 17-5 송도 더샵 하버뷰 13단지'},</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8881,7 +8884,7 @@
         <v>{name:['송도라마다점G'],addr:'인천광역시 연수구 능허대로267번길 29',x:'925239.3006682626',y:'1935277.2973558633',jibun:'인천광역시 연수구 동춘동 812-1 라마다송도호텔'},</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -8905,7 +8908,7 @@
         <v>{name:['송도메디점G'],addr:'인천광역시 연수구 컨벤시아대로130번길 14',x:'924308.0890260204',y:'1932993.4899920663',jibun:'인천광역시 연수구 송도동 22-19 송도 메디컬타워'},</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>171</v>
       </c>
@@ -8929,7 +8932,7 @@
         <v>{name:['송도성지점G'],addr:'인천광역시 연수구 신송로6번길 7',x:'925894.2303461249',y:'1932625.2375938715',jibun:'인천광역시 연수구 송도동 2-12 송도 성지리벨루스'},</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>162</v>
       </c>
@@ -8956,7 +8959,7 @@
         <v>{name:['송도센트럴점M','송도푸르지오시티점G'],addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754',jibun:'인천광역시 연수구 송도동 83 송도 센트럴파크 푸르지오시티'},</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -8980,7 +8983,7 @@
         <v>{name:['송도센트럴파크호텔'],addr:'인천광역시 연수구 테크노파크로 193',x:'923641.9774963101',y:'1932732.2588121234',jibun:'인천광역시 연수구 송도동 38 송도센트럴파크호텔'},</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -9004,7 +9007,7 @@
         <v>{name:['송도스마트밸리점G'],addr:'인천광역시 연수구 송도미래로 30',x:'924568.090254779',y:'1930236.501307576',jibun:'인천광역시 연수구 송도동 214 송도 BRC 스마트밸리 지식산업센터'},</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -9028,7 +9031,7 @@
         <v>{name:['송도월드마크점M'],addr:'인천광역시 연수구 컨벤시아대로 60',x:'924851.1126633752',y:'1933442.4269422777',jibun:'인천광역시 연수구 송도동 20-23 푸르지오월드마크'},</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -9052,7 +9055,7 @@
         <v>{name:['송도유원지점G'],addr:'인천광역시 연수구 능허대로 203',x:'924862.0970530566',y:'1935734.32011165',jibun:'인천광역시 연수구 옥련동 550-7'},</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -9076,7 +9079,7 @@
         <v>{name:['송도점-GSS'],addr:'인천광역시 연수구 해돋이로 107',x:'924778.2391112824',y:'1932822.1059526857',jibun:'인천광역시 연수구 송도동 4-1 송도 더샵 퍼스트월드'},</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -9100,7 +9103,7 @@
         <v>{name:['송도커넬워크점G'],addr:'인천광역시 연수구 아트센터대로 107',x:'923751.8781831791',y:'1933894.0553808152',jibun:'인천광역시 연수구 송도동 18-1 커낼워크D3 AUTUMN'},</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -9124,7 +9127,7 @@
         <v>{name:['송도테크노파크IT센터SHINHAN'],addr:'인천광역시 연수구 송도과학로 32',x:'925841.3207283262',y:'1931743.5380926528',jibun:'인천광역시 연수구 송도동 172-1 송도테크노파크IT센터'},</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>159</v>
       </c>
@@ -9148,7 +9151,7 @@
         <v>{name:['송도파크호텔WOORI'],addr:'인천광역시 연수구 테크노파크로 151',x:'923940.5490371233',y:'1932461.3960087532',jibun:'인천광역시 연수구 송도동 93-1 오라카이송도파크호텔'},</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -9172,7 +9175,7 @@
         <v>{name:['송도하모니점G'],addr:'인천광역시 연수구 하모니로 124',x:'924325.4107504063',y:'1932184.2251096321',jibun:'인천광역시 연수구 송도동 8-19'},</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -9196,7 +9199,7 @@
         <v>{name:['송도해송점G'],addr:'인천광역시 연수구 해송로30번길 19',x:'924385.1257843729',y:'1931691.8597509419',jibun:'인천광역시 연수구 송도동 9-6 웰카운티송도3단지'},</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>{name:['송도현대점G'],addr:'인천광역시 연수구 해돋이로6번길 7',x:'925627.0584128611',y:'1932281.0568902749',jibun:'인천광역시 연수구 송도동 3-46 아이파크송도'},</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -9244,7 +9247,7 @@
         <v>{name:['송도힐스점G'],addr:'인천광역시 연수구 컨벤시아대로 90',x:'924647.7513800692',y:'1933202.8066080627',jibun:'인천광역시 연수구 송도동 21-64 인천송도힐스테이트'},</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -9268,7 +9271,7 @@
         <v>{name:['숭의길목점G'],addr:'인천광역시 미추홀구 수봉안길 16',x:'925635.7302395517',y:'1940618.206504576',jibun:'인천광역시 미추홀구 숭의동 7-129'},</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -9292,7 +9295,7 @@
         <v>{name:['시흥신창점G'],addr:'경기도 시흥시 신천4길 12',x:'936418.8711248166',y:'1937926.4969950966',jibun:'경기도 시흥시 신천동 380-14'},</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -9316,7 +9319,7 @@
         <v>{name:['신기사거리점G'],addr:'인천광역시 미추홀구 미추홀대로 610',x:'927475.7843919608',y:'1939483.3085580925',jibun:'인천광역시 미추홀구 주안동 1469-1'},</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -9340,7 +9343,7 @@
         <v>{name:['신천동국민은행 결합부스'],addr:'경기도 시흥시 수인로 3372',x:'936693.2910999567',y:'1938235.12572021',jibun:'경기도 시흥시 신천동 712-9 신천프라자'},</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -9364,7 +9367,7 @@
         <v>{name:['아크리아점G'],addr:'인천광역시 연수구 신송로125번길 13',x:'924866.6899020134',y:'1933167.18251291',jibun:'인천광역시 연수구 송도동 3-6 아크리아'},</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -9388,7 +9391,7 @@
         <v>{name:['엠파크타워점G'],addr:'인천광역시 서구 봉수대로 158',x:'925983.41854599',y:'1943696.0707750432',jibun:'인천광역시 서구 가좌동 178-105 엠파크타워'},</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -9412,7 +9415,7 @@
         <v>{name:['연수경원G'],addr:'인천광역시 연수구 경원대로467번길 13',x:'929009.7022006633',y:'1936610.8085542968',jibun:'인천광역시 연수구 선학동 405-13 명빌딩'},</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -9436,7 +9439,7 @@
         <v>{name:['연수골드점G'],addr:'인천광역시 연수구 함박로 80',x:'927980.0656931633',y:'1936544.17710579',jibun:'인천광역시 연수구 연수동 522-6'},</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>{name:['연수단비점G'],addr:'인천광역시 연수구 청능대로113번길 43',x:'927274.7641431501',y:'1935327.7588821636',jibun:'인천광역시 연수구 연수동 598-2 동순빌딩'},</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -9484,7 +9487,7 @@
         <v>{name:['연수선학점G'],addr:'인천광역시 연수구 넘말로29번길 21',x:'928915.90151959',y:'1936891.1488486365',jibun:'인천광역시 연수구 선학동 398-2'},</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -9508,7 +9511,7 @@
         <v>{name:['연수장례식장 인천내부'],addr:'인천광역시 연수구 벚꽃로 122',x:'927335.7894045769',y:'1935611.3385808035',jibun:'인천광역시 연수구 연수동 592-5 연수동장례식장'},</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -9532,7 +9535,7 @@
         <v>{name:['연수점G'],addr:'인천광역시 연수구 새말로46번길 4',x:'927054.4397459901',y:'1936127.9562478536',jibun:'인천광역시 연수구 연수동 558-5'},</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -9556,7 +9559,7 @@
         <v>{name:['연수점M'],addr:'인천광역시 연수구 비류대로 230',x:'925700.9976564867',y:'1936753.3900593636',jibun:'인천광역시 연수구 옥련동 319-6 영남아파트상가'},</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>164</v>
       </c>
@@ -9580,7 +9583,7 @@
         <v>{name:['연수중앙점G'],addr:'인천광역시 연수구 새말로69번길 1',x:'927230.4884649334',y:'1935967.4642858398',jibun:'인천광역시 연수구 연수동 550-8'},</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>49</v>
       </c>
@@ -9604,7 +9607,7 @@
         <v>{name:['연수청학점M'],addr:'인천광역시 연수구 먼우금로 197',x:'927097.7779245968',y:'1935413.5243354505',jibun:'인천광역시 연수구 청학동 503-1 이리옴프라자'},</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>138</v>
       </c>
@@ -9628,7 +9631,7 @@
         <v>{name:['연수타운점G'],addr:'인천광역시 연수구 샘말로21번길 3',x:'927277.5510110233',y:'1935141.1890938403',jibun:'인천광역시 연수구 연수동 602-3'},</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -9652,7 +9655,7 @@
         <v>{name:['연수태산점G'],addr:'인천광역시 연수구 먼우금로264번길 8-4',x:'927477.3679526933',y:'1935944.299351547',jibun:'인천광역시 연수구 연수동 575-1'},</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -9676,7 +9679,7 @@
         <v>{name:['연수파크타운점M'],addr:'인천광역시 연수구 용담로 115',x:'927244.231129833',y:'1935426.1714365287',jibun:'인천광역시 연수구 연수동 596-7 파크타워'},</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -9700,7 +9703,7 @@
         <v>{name:['연수함박점M'],addr:'인천광역시 연수구 함박뫼로50번길 93',x:'927263.5188448408',y:'1935872.3548643487',jibun:'인천광역시 연수구 연수동 568-15'},</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>170</v>
       </c>
@@ -9724,7 +9727,7 @@
         <v>{name:['연수희망점G'],addr:'인천광역시 연수구 앵고개로 256',x:'926724.2878851034',y:'1934622.8657452334',jibun:'인천광역시 연수구 동춘동 936-5 웅지프라자'},</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>61</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>{name:['영빌딩CITY'],addr:'인천광역시 미추홀구 인하로 253',x:'927138.1700531407',y:'1939133.3534303224',jibun:'인천광역시 미추홀구 주안동 1436-5 한국씨티은행'},</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -9772,7 +9775,7 @@
         <v>{name:['옥련백산점G'],addr:'인천광역시 연수구 독배로 25',x:'924316.71718126',y:'1936330.9110739832',jibun:'인천광역시 연수구 옥련동 463-24'},</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -9796,7 +9799,7 @@
         <v>{name:['옥련사거리G'],addr:'인천광역시 연수구 독배로 68',x:'924367.6668144872',y:'1936729.1735826507',jibun:'인천광역시 연수구 옥련동 199-3'},</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>181</v>
       </c>
@@ -9820,7 +9823,7 @@
         <v>{name:['옥련사랑M'],addr:'인천광역시 연수구 한나루로 166',x:'925293.9163142969',y:'1936455.0597683867',jibun:'인천광역시 연수구 옥련동 352-30'},</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>134</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>{name:['옥련서해점G'],addr:'인천광역시 연수구 청량로185번길 13',x:'924973.1474770068',y:'1936336.0367916236',jibun:'인천광역시 연수구 옥련동 423-1'},</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>180</v>
       </c>
@@ -9868,7 +9871,7 @@
         <v>{name:['옥련쌍용G'],addr:'인천광역시 연수구 청량로184번길 48',x:'925182.9532054849',y:'1936549.0084032882',jibun:'인천광역시 연수구 옥련동 366-9'},</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>135</v>
       </c>
@@ -9892,7 +9895,7 @@
         <v>{name:['옥련아주점G'],addr:'인천광역시 연수구 청량로 217',x:'925018.4765206832',y:'1936665.1654121173',jibun:'인천광역시 연수구 옥련동 253-1'},</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -9916,7 +9919,7 @@
         <v>{name:['옥련우성점G'],addr:'인천광역시 연수구 독배로40번길 47',x:'924577.7008813033',y:'1936507.4463419202',jibun:'인천광역시 연수구 옥련동 462-20'},</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>132</v>
       </c>
@@ -9940,7 +9943,7 @@
         <v>{name:['옥련풍림점G'],addr:'인천광역시 연수구 한나루로193번길 3',x:'925362.11812462',y:'1936699.7315103933',jibun:'인천광역시 연수구 옥련동 336-5'},</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -9964,7 +9967,7 @@
         <v>{name:['월미분수대점G'],addr:'인천광역시 중구 월미문화로 57',x:'920135.501782795',y:'1941955.847831308',jibun:'인천광역시 중구 북성동1가 98-275'},</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -9988,7 +9991,7 @@
         <v>{name:['월미중앙점G'],addr:'인천광역시 중구 월미문화로 65',x:'920108.2432266385',y:'1941888.865706168',jibun:'인천광역시 중구 북성동1가 98-61'},</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>76</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>{name:['위드미-라마다송도점'],addr:'인천광역시 연수구 능허대로267번길 42',x:'925310.3928309134',y:'1935295.212755117',jibun:'인천광역시 연수구 동춘동 813'},</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -10036,7 +10039,7 @@
         <v>{name:['유진로봇 송도사옥'],addr:'인천광역시 연수구 하모니로187번길 33',x:'924180.5928355344',y:'1931340.6668476937',jibun:'인천광역시 연수구 송도동 11-5 (주)유진로봇'},</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>154</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v>{name:['은계센트럴점G'],addr:'경기도 시흥시 은계중앙로 97',x:'938203.4013041602',y:'1938022.7406927734',jibun:'경기도 시흥시 은행동 38-7 은계센트럴타운'},</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>156</v>
       </c>
@@ -10084,7 +10087,7 @@
         <v>{name:['은행동성원아파트 결합부스'],addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804',jibun:'경기도 시흥시 은행동 538-2 시흥성원아파트'},</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>157</v>
       </c>
@@ -10108,7 +10111,7 @@
         <v>{name:['은행동약사 결합부스'],addr:'경기도 시흥시 은행로 8',x:'937498.2971942425',y:'1937334.1604390284',jibun:'경기도 시흥시 은행동 286-1 영진철물'},</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -10132,7 +10135,7 @@
         <v>{name:['은혜의교회SH'],addr:'인천광역시 미추홀구 매소홀로 428',x:'926520.0805420987',y:'1938134.7043078174',jibun:'인천광역시 미추홀구 학익동 682-3 은혜교회'},</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -10156,7 +10159,7 @@
         <v>{name:['이마트 동인천점SC'],addr:'인천광역시 중구 인중로 134',x:'922988.2656142102',y:'1941172.2637899336',jibun:'인천광역시 중구 신생동 38 동인천이마트'},</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -10180,7 +10183,7 @@
         <v>{name:['이마트24 연수함박로'],addr:'인천광역시 연수구 함박로 36',x:'927543.317565355',y:'1936592.6575228586',jibun:'인천광역시 연수구 연수동 495-5'},</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -10204,9 +10207,9 @@
         <v>{name:['이수엑사보드 인천공장'],addr:'인천광역시 남동구 남동서로270번길 54',x:'929093.4386579194',y:'1935045.5201349352',jibun:'인천광역시 남동구 논현동 429-3'},</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>734</v>
+        <v>993</v>
       </c>
       <c r="C114" t="s">
         <v>733</v>
@@ -10225,10 +10228,10 @@
       </c>
       <c r="H114" t="str">
         <f t="shared" si="1"/>
-        <v>{name:['인천 송도 컨벤시아'],addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082',jibun:'인천광역시 연수구 송도동 6-1 송도컨벤시아'},</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>{name:['송도 컨벤시아'],addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082',jibun:'인천광역시 연수구 송도동 6-1 송도컨벤시아'},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -10252,7 +10255,7 @@
         <v>{name:['인천5공단파출소결합부스'],addr:'인천광역시 서구 가재울로 75',x:'927648.8596204547',y:'1942435.9377577854',jibun:'인천광역시 서구 가좌동 540-3'},</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -10276,7 +10279,7 @@
         <v>{name:['인천경동점G'],addr:'인천광역시 중구 개항로 82',x:'923229.7654404601',y:'1941739.1997609003',jibun:'인천광역시 중구 경동 187-3 예지요양병원'},</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>89</v>
       </c>
@@ -10303,7 +10306,7 @@
         <v>{name:['인천글로벌운영재단','한국뉴욕주립대학교 결합부스'],addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412',jibun:'인천광역시 연수구 송도동 187 인천글로벌캠퍼스'},</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>82</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>{name:['인천남촌로점G'],addr:'인천광역시 남동구 남촌동로3번길 33',x:'930644.9199876767',y:'1937177.0833667233',jibun:'인천광역시 남동구 남촌동 332-9 시온교회'},</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>57</v>
       </c>
@@ -10351,7 +10354,7 @@
         <v>{name:['인천논현광장점G'],addr:'인천광역시 남동구 논고개로123번길 35',x:'931147.5988134101',y:'1933884.31215839',jibun:'인천광역시 남동구 논현동 632-1 칼리오페'},</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -10375,7 +10378,7 @@
         <v>{name:['인천논현사랑점G'],addr:'인천광역시 남동구 논고개로 166',x:'931299.0037734902',y:'1934371.8316615',jibun:'인천광역시 남동구 논현동 593-6'},</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -10399,7 +10402,7 @@
         <v>{name:['인천논현역점G'],addr:'인천광역시 남동구 논고개로 121',x:'931299.4091969267',y:'1933928.8000814402',jibun:'인천광역시 남동구 논현동 631-11 에스닷몰'},</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -10423,7 +10426,7 @@
         <v>{name:['인천논현점M'],addr:'인천광역시 남동구 논현로46번길 51',x:'930040.7558424668',y:'1933792.9459385104',jibun:'인천광역시 남동구 논현동 642-1 유승테라폴리스'},</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>93</v>
       </c>
@@ -10447,7 +10450,7 @@
         <v>{name:['인천동아서점 결합부스'],addr:'인천광역시 미추홀구 경인로 386-1',x:'927733.8360022209',y:'1940187.0715722647',jibun:'인천광역시 미추홀구 주안동 431-32'},</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>160</v>
       </c>
@@ -10471,7 +10474,7 @@
         <v>{name:['인천메카점M'],addr:'인천광역시 연수구 용담로125번길 41',x:'927422.4468487434',y:'1935499.65872847',jibun:'인천광역시 연수구 연수동 593-8 메카리움오피스텔'},</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>151</v>
       </c>
@@ -10495,7 +10498,7 @@
         <v>{name:['인천벽산아파트 결합부스'],addr:'인천광역시 남동구 서판로 43',x:'931434.1630260036',y:'1940841.3205330772',jibun:'인천광역시 남동구 만수동 1114 기암유치원'},</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -10519,7 +10522,7 @@
         <v>{name:['인천선학점G'],addr:'인천광역시 연수구 비류대로529번길 10',x:'928643.5051002635',y:'1936354.497053353',jibun:'인천광역시 연수구 선학동 369-15'},</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>94</v>
       </c>
@@ -10543,7 +10546,7 @@
         <v>{name:['인천송도점G'],addr:'인천광역시 연수구 해돋이로84번길 29',x:'925166.2389731444',y:'1932929.6578389006',jibun:'인천광역시 연수구 송도동 3-13 송도풍림아이원3단지아파트'},</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -10567,7 +10570,7 @@
         <v>{name:['인천신현쇼핑 결합부스'],addr:'인천광역시 서구 가정로 369',x:'926879.0843732902',y:'1946840.1810874036',jibun:'인천광역시 서구 신현동 272-1 서경 플러스 존'},</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>100</v>
       </c>
@@ -10591,7 +10594,7 @@
         <v>{name:['인천옥련점M'],addr:'인천광역시 연수구 한나루로197번길 30',x:'925282.19116041',y:'1936827.8251766833',jibun:'인천광역시 연수구 옥련동 285-1 원준주택'},</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -10615,7 +10618,7 @@
         <v>{name:['인천주안로점G'],addr:'인천광역시 미추홀구 주안동로 28-15',x:'928043.4087397007',y:'1940464.958479995',jibun:'인천광역시 미추홀구 주안동 60-5'},</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -10639,7 +10642,7 @@
         <v>{name:['인천터미널점M'],addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102',jibun:'인천광역시 남동구 구월동 1462-2 노빌리안 1'},</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>352</v>
       </c>
@@ -10663,7 +10666,7 @@
         <v>{name:['인천해양경찰서-SH'],addr:'인천광역시 연수구 옥골로 69',x:'924748.3864360615',y:'1937246.7582861618',jibun:'인천광역시 연수구 옥련동 93 능허대중학교'},</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -10687,7 +10690,7 @@
         <v>{name:['인천호구포역점M'],addr:'인천광역시 남동구 논현로26번길 12',x:'929979.51652928',y:'1934015.4848348568',jibun:'인천광역시 남동구 논현동 646-1 부티크 646'},</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>63</v>
       </c>
@@ -10711,7 +10714,7 @@
         <v>{name:['자매슈퍼-연수'],addr:'인천광역시 연수구 함박로12번길 46',x:'927560.5282932345',y:'1936553.2454770715',jibun:'인천광역시 연수구 연수동 504'},</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -10735,7 +10738,7 @@
         <v>{name:['제물포버스정류장 결합부스'],addr:'인천광역시 미추홀구 경인로 135',x:'925542.174751237',y:'1941140.5618504882',jibun:'인천광역시 미추홀구 도화동 648-15 해피타운'},</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>69</v>
       </c>
@@ -10759,7 +10762,7 @@
         <v>{name:['제일슈퍼-인천'],addr:'인천광역시 연수구 함박안로156번길 6',x:'927773.0413744',y:'1936723.1742538',jibun:'인천광역시 연수구 연수동 516-8'},</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -10783,7 +10786,7 @@
         <v>{name:['주안 보보G'],addr:'인천광역시 미추홀구 경인로425번길 14',x:'928155.8178139064',y:'1940251.613382046',jibun:'인천광역시 미추홀구 주안동 1004-3'},</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>174</v>
       </c>
@@ -10807,7 +10810,7 @@
         <v>{name:['주안 신성G'],addr:'인천광역시 미추홀구 주안중로 28',x:'927733.3861476094',y:'1940496.9830620233',jibun:'인천광역시 미추홀구 주안동 86-5'},</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>116</v>
       </c>
@@ -10831,7 +10834,7 @@
         <v>{name:['주안1동점G'],addr:'인천광역시 미추홀구 주안중로50번길 20',x:'927832.11701282',y:'1940714.3422219716',jibun:'인천광역시 미추홀구 주안동 104-8'},</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -10855,7 +10858,7 @@
         <v>{name:['주안공단점G'],addr:'인천광역시 미추홀구 염전로 362',x:'927504.3446300412',y:'1941528.745698372',jibun:'인천광역시 미추홀구 주안동 16-1'},</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>98</v>
       </c>
@@ -10879,7 +10882,7 @@
         <v>{name:['주안남부점M'],addr:'인천광역시 미추홀구 주안로104번길 15',x:'927600.294782457',y:'1940748.241028722',jibun:'인천광역시 미추홀구 주안동 138-5'},</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>117</v>
       </c>
@@ -10903,7 +10906,7 @@
         <v>{name:['주안대로점G'],addr:'인천광역시 미추홀구 주안로 45',x:'927021.73843505',y:'1940904.6652424666',jibun:'인천광역시 미추홀구 주안동 478-50 희림상사㈜'},</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -10927,7 +10930,7 @@
         <v>{name:['주안동경점G'],addr:'인천광역시 미추홀구 주안서로 53',x:'927285.2900126814',y:'1940792.0053177588',jibun:'인천광역시 미추홀구 주안동 272-1'},</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>747</v>
       </c>
@@ -10954,7 +10957,7 @@
         <v>{name:['주안동궁전예식장 결합부스','주안으뜸점G'],addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243',jibun:'인천광역시 미추홀구 주안동 133-3 대동빌딩'},</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -10978,7 +10981,7 @@
         <v>{name:['주안미래점M'],addr:'인천광역시 미추홀구 주안중로 13-1',x:'927698.3542673178',y:'1940367.9314235584',jibun:'인천광역시 미추홀구 주안동 179-10'},</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -11002,7 +11005,7 @@
         <v>{name:['주안미소점G'],addr:'인천광역시 미추홀구 신기길30번길 37',x:'926981.776154774',y:'1938935.675808793',jibun:'인천광역시 미추홀구 주안동 856-3'},</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>36</v>
       </c>
@@ -11026,7 +11029,7 @@
         <v>{name:['주안미추홀점G'],addr:'인천광역시 미추홀구 경인로 343',x:'927260.9079237133',y:'1940267.6733396333',jibun:'인천광역시 미추홀구 주안동 195-2'},</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -11050,7 +11053,7 @@
         <v>{name:['주안본점M'],addr:'인천광역시 미추홀구 미추홀대로734번길 37',x:'927714.5775235672',y:'1940744.2295416128',jibun:'인천광역시 미추홀구 주안동 132-4'},</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>109</v>
       </c>
@@ -11074,7 +11077,7 @@
         <v>{name:['주안사거리점G'],addr:'인천광역시 미추홀구 석바위로 61',x:'927476.9399430258',y:'1940520.5633123717',jibun:'인천광역시 미추홀구 주안동 210-13'},</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>86</v>
       </c>
@@ -11098,7 +11101,7 @@
         <v>{name:['주안석바위점M'],addr:'인천광역시 미추홀구 석바위로 112',x:'927947.6847094274',y:'1940400.324138321',jibun:'인천광역시 미추홀구 주안동 271-22'},</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>166</v>
       </c>
@@ -11122,7 +11125,7 @@
         <v>{name:['주안세일점G'],addr:'인천광역시 미추홀구 동주길 76',x:'927911.4083549832',y:'1939815.436123129',jibun:'인천광역시 미추홀구 주안동 386-6'},</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -11146,7 +11149,7 @@
         <v>{name:['주안역삼거리 결합부스'],addr:'인천광역시 미추홀구 미추홀대로 741',x:'927492.7927790079',y:'1940802.0347208697',jibun:'인천광역시 미추홀구 주안동 227-35'},</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -11170,7 +11173,7 @@
         <v>{name:['주안월드점G'],addr:'인천광역시 미추홀구 경인로485번길 33',x:'928577.0918325363',y:'1940491.9788272986',jibun:'인천광역시 미추홀구 주안동 922-11'},</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>139</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>{name:['주안주공점G'],addr:'인천광역시 미추홀구 주안로 215',x:'928700.075495082',y:'1940788.8228662973',jibun:'인천광역시 미추홀구 주안동 49-11'},</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>148</v>
       </c>
@@ -11218,7 +11221,7 @@
         <v>{name:['주안파크점G'],addr:'인천광역시 미추홀구 미추홀대로722번길 21-1',x:'927631.6564081493',y:'1940615.9256797591',jibun:'인천광역시 미추홀구 주안동 153-9 장원빌딩'},</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -11242,7 +11245,7 @@
         <v>{name:['주안한신점G'],addr:'인천광역시 미추홀구 인하로352번길 10',x:'928112.3556398968',y:'1939019.7543626092',jibun:'인천광역시 미추홀구 주안동 1523-36'},</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>119</v>
       </c>
@@ -11266,7 +11269,7 @@
         <v>{name:['주안행복점M'],addr:'인천광역시 미추홀구 석바위로53번길 3',x:'927366.0847729146',y:'1940514.0627141502',jibun:'인천광역시 미추홀구 주안동 216-2'},</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>55</v>
       </c>
@@ -11290,7 +11293,7 @@
         <v>{name:['중부지방해양경찰청SH'],addr:'인천광역시 연수구 센트럴로 263',x:'923373.8316200967',y:'1933570.7668816056',jibun:'인천광역시 연수구 송도동 29-13 송도국제업무단지 C8-2블럭 업무복합시설'},</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>37</v>
       </c>
@@ -11314,7 +11317,7 @@
         <v>{name:['중앙슈퍼-연수'],addr:'인천광역시 연수구 함박뫼로4번길 13-8',x:'926743.3556705897',y:'1935757.611946192',jibun:'인천광역시 연수구 청학동 477-7'},</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -11338,7 +11341,7 @@
         <v>{name:['천일식품-고잔동'],addr:'인천광역시 남동구 앵고개로 426',x:'928102.1321792866',y:'1933636.4756072024',jibun:'인천광역시 남동구 고잔동 690-2'},</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -11362,7 +11365,7 @@
         <v>{name:['청능공원점G'],addr:'인천광역시 연수구 청능말로7번길 20',x:'926506.0746164669',y:'1935665.4340851936',jibun:'인천광역시 연수구 청학동 461-1'},</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>28</v>
       </c>
@@ -11386,7 +11389,7 @@
         <v>{name:['청라리치아노점M'],addr:'인천광역시 서구 청라에메랄드로102번길 10',x:'925562.0452141722',y:'1948624.1122872476',jibun:'인천광역시 서구 청라동 167-1 청라리치아노'},</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -11410,7 +11413,7 @@
         <v>{name:['청라에뜰점G'],addr:'인천광역시 서구 청라커낼로 300',x:'924457.963117328',y:'1948765.6387663502',jibun:'인천광역시 서구 청라동 156-1 청라센트럴에일린의뜰'},</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -11434,7 +11437,7 @@
         <v>{name:['청라호반점G'],addr:'인천광역시 서구 청라커낼로 163',x:'923949.8371560569',y:'1947760.2909392407',jibun:'인천광역시 서구 청라동 173-1 청라29블럭호반베르디움'},</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>354</v>
       </c>
@@ -11458,7 +11461,7 @@
         <v>{name:['청학복합문화센터-SHINHAN'],addr:'인천광역시 연수구 비류대로 299',x:'926357.2427523071',y:'1936675.620955735',jibun:'인천광역시 연수구 청학동 239-4 청학문화센터'},</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>74</v>
       </c>
@@ -11482,7 +11485,7 @@
         <v>{name:['청학본점G'],addr:'인천광역시 연수구 비류대로278번길 8-3',x:'926142.2991103267',y:'1936646.2066965867',jibun:'인천광역시 연수구 청학동 563-8'},</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -11506,7 +11509,7 @@
         <v>{name:['청학타운점G'],addr:'인천광역시 연수구 청학로12번길 47',x:'926231.6395880934',y:'1936834.2690070835',jibun:'인천광역시 연수구 청학동 535-15'},</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>90</v>
       </c>
@@ -11530,7 +11533,7 @@
         <v>{name:['청학현대점G'],addr:'인천광역시 연수구 계림로35번길 58',x:'926443.0193460134',y:'1936904.7241967367',jibun:'인천광역시 연수구 청학동 547-13'},</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>730</v>
       </c>
@@ -11554,7 +11557,7 @@
         <v>{name:['코스트코'],addr:'인천광역시 연수구 컨벤시아대로230번길 60',x:' 923278.7832623338',y:'1932636.7317621163',jibun:'인천광역시 연수구 송도동 98 코스트코홀세일 송도점'},</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>133</v>
       </c>
@@ -11578,7 +11581,7 @@
         <v>{name:['퍼스트파크13점'],addr:'인천광역시 연수구 컨벤시아대로252번길 70',x:'923074.6219626968',y:'1932451.7707887636',jibun:'인천광역시 연수구 송도동 100 송도 더샵 퍼스트파크 F13-1BL'},</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>47</v>
       </c>
@@ -11602,7 +11605,7 @@
         <v>{name:['포스코송도 R&amp;D센터KB'],addr:'인천광역시 연수구 송도과학로 100',x:'926384.4323779428',y:'1931453.2860596376',jibun:'인천광역시 연수구 송도동 180-1 포스코 글로벌 R&amp;D CENTER'},</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>53</v>
       </c>
@@ -11626,7 +11629,7 @@
         <v>{name:['포스코이앤씨타워점G'],addr:'인천광역시 연수구 인천타워대로 241',x:'923372.5008990793',y:'1932935.9711958324',jibun:'인천광역시 연수구 송도동 36 부영송도타워'},</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>123</v>
       </c>
@@ -11650,7 +11653,7 @@
         <v>{name:['하이-소래포구'],addr:'인천광역시 남동구 포구로 3',x:'932688.4409603968',y:'1933646.0883224965',jibun:'인천광역시 남동구 논현동 111-234'},</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -11674,7 +11677,7 @@
         <v>{name:['학익늘봄점G'],addr:'인천광역시 미추홀구 한나루로403번길 105',x:'925632.7361822787',y:'1938795.12119258',jibun:'인천광역시 미추홀구 학익동 420-16'},</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -11698,7 +11701,7 @@
         <v>{name:['학익다송G'],addr:'인천광역시 미추홀구 소성로 162',x:'926243.6841133314',y:'1938404.1977886255',jibun:'인천광역시 미추홀구 학익동 252-8 다송빌딩'},</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>83</v>
       </c>
@@ -11722,7 +11725,7 @@
         <v>{name:['학익대로점G'],addr:'인천광역시 미추홀구 소성로 244',x:'926977.6259435453',y:'1938038.3710919674',jibun:'인천광역시 미추홀구 학익동 671-4'},</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -11746,7 +11749,7 @@
         <v>{name:['학익미소G'],addr:'인천광역시 미추홀구 주승로 22',x:'926826.3832888785',y:'1938596.312287895',jibun:'인천광역시 미추홀구 학익동 649 정진프라자'},</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -11770,7 +11773,7 @@
         <v>{name:['학익사거리점M'],addr:'인천광역시 미추홀구 매소홀로446번길 16',x:'926687.5525610019',y:'1938078.4112452823',jibun:'인천광역시 미추홀구 학익동 675-3'},</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>84</v>
       </c>
@@ -11794,7 +11797,7 @@
         <v>{name:['학익센터점G'],addr:'인천광역시 미추홀구 매소홀로446번길 4',x:'926688.1271994561',y:'1938129.2821605182',jibun:'인천광역시 미추홀구 학익동 677-2'},</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>40</v>
       </c>
@@ -11818,7 +11821,7 @@
         <v>{name:['학익점GSS'],addr:'인천광역시 미추홀구 소성로 146',x:'926064.1264832243',y:'1938437.8886083513',jibun:'인천광역시 미추홀구 학익동 256-19 LG수퍼마켓 학익점'},</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>118</v>
       </c>
@@ -11842,7 +11845,7 @@
         <v>{name:['학익중앙점G'],addr:'인천광역시 미추홀구 소성로185번길 16-5',x:'926531.8325332045',y:'1938402.6683132658',jibun:'인천광역시 미추홀구 학익동 244-1'},</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -11866,7 +11869,7 @@
         <v>{name:['학익타운점G'],addr:'인천광역시 미추홀구 한나루로 350',x:'925893.6336379224',y:'1938132.127089256',jibun:'인천광역시 미추홀구 학익동 691-8'},</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -11890,7 +11893,7 @@
         <v>{name:['한옥마을앰배서더-SHINHAN'],addr:'인천광역시 연수구 테크노파크로 200',x:'923643.9542986592',y:'1932798.2731926683',jibun:'인천광역시 연수구 송도동 24-11 경원재 앰배서더 인천'},</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>754</v>
       </c>
@@ -11914,7 +11917,7 @@
         <v>{name:['한화에코11단지'],addr:'인천광역시 남동구 논고개로 17',x:'931971.8826013578',y:'1933157.4842754863',jibun:'인천광역시 남동구 논현동 774-1 한화꿈에그린 에코메트로11단지'},</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>756</v>
       </c>
@@ -11938,7 +11941,7 @@
         <v>{name:['한화에코12단지'],addr:'인천광역시 남동구 논고개로 10',x:'932065.1035968331',y:'1933133.3493248513',jibun:'인천광역시 남동구 논현동 755-4 에코메트로12단지한화꿈에그린아파트'},</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>33</v>
       </c>
@@ -11962,7 +11965,7 @@
         <v>{name:['한화프라자점G'],addr:'인천광역시 남동구 소래역남로 12',x:'932305.6277828533',y:'1933461.700828867',jibun:'인천광역시 남동구 논현동 754-1 거목프라자'},</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>129</v>
       </c>
@@ -11986,7 +11989,7 @@
         <v>{name:['해양경비안전본부SHINHAN'],addr:'인천광역시 연수구 해돋이로 130',x:'924618.4617833635',y:'1932985.3575826176',jibun:'인천광역시 연수구 송도동 3-8 해양경찰청'},</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>732</v>
       </c>
@@ -12010,7 +12013,7 @@
         <v>{name:['현대 프리미엄 아울렛 송도'],addr:'인천광역시 연수구 송도국제대로 123',x:'925450.1762407259',y:'1931726.6847481355',jibun:'인천광역시 연수구 송도동 168-1 현대프리미엄 아울렛 송도점'},</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>70</v>
       </c>
@@ -12034,7 +12037,7 @@
         <v>{name:['CU연수타운점'],addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092',jibun:'인천광역시 연수구 연수동 498-6'},</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>958</v>
       </c>
@@ -12058,7 +12061,7 @@
         <v>{name:['송도365'],addr:'인천광역시 연수구 신송로 122',x:'924979.0126602231',y:'1933304.6588912918',jibun:'인천광역시 연수구 송도동 2-6 송도프라자'},</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>957</v>
       </c>
@@ -12082,7 +12085,7 @@
         <v>{name:['옥련365'],addr:'인천광역시 연수구 독배로40번길 11',x:'924405.9113474332',y:'1936495.7661320935',jibun:'인천광역시 연수구 옥련동 462-9 효명프라자'},</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>959</v>
       </c>
@@ -12106,7 +12109,7 @@
         <v>{name:['이마트 연수점'],addr:'인천광역시 연수구 경원대로 184',x:'927526.0918634394',y:'1934214.7747739688',jibun:'인천광역시 연수구 동춘동 926-9 이마트'},</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>960</v>
       </c>
@@ -12130,7 +12133,7 @@
         <v>{name:['가천의대'],addr:'인천광역시 연수구 함박뫼로 191',x:'928150.6333777537',y:'1936215.7186591197',jibun:'인천광역시 연수구 연수동 534-2 가천대학교'},</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>992</v>
       </c>
@@ -12154,7 +12157,7 @@
         <v>{name:['인천가톨릭대학'],addr:'인천광역시 연수구 해송로 12',x:'924277.2476386407',y:'1931904.949320057',jibun:'인천광역시 연수구 송도동 9-3 인천가톨릭대학교'},</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>961</v>
       </c>
@@ -12178,7 +12181,7 @@
         <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>965</v>
       </c>
@@ -12203,12 +12206,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H185" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H189">
+  <autoFilter ref="A1:H185">
+    <sortState ref="A2:H189">
       <sortCondition ref="A1:A189"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -7465,8 +7465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F163" workbookViewId="0">
-      <selection activeCell="H184" sqref="H184"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="1000">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -3052,6 +3052,26 @@
   <si>
     <t>송도 컨벤시아</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연수점GSS</t>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>927184.2034296514</t>
+  </si>
+  <si>
+    <t>1934516.2629514583</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 원인재로 88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 연수구 동춘동 925-7 대우삼환아파트</t>
   </si>
 </sst>
 </file>
@@ -7463,10 +7483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12177,7 +12197,7 @@
         <v>976</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H196" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
+        <f t="shared" ref="H195:H197" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
         <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
       </c>
     </row>
@@ -12203,6 +12223,30 @@
       <c r="H196" t="str">
         <f t="shared" si="3"/>
         <v>{name:['LH논현사옥'],addr:'인천광역시 남동구 논현로46번길 7',x:'930246.6015386996',y:'1933930.1850851905',jibun:'인천광역시 남동구 논현동 638-1'},</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>994</v>
+      </c>
+      <c r="C197" t="s">
+        <v>998</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="H197" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['연수점GSS'],addr:'인천광역시 연수구 원인재로 88',x:'927184.2034296514',y:'1934516.2629514583',jibun:'인천광역시 연수구 동춘동 925-7 대우삼환아파트'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="1005">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -3072,6 +3072,22 @@
   </si>
   <si>
     <t>인천광역시 연수구 동춘동 925-7 대우삼환아파트</t>
+  </si>
+  <si>
+    <t>논현향촌점G</t>
+  </si>
+  <si>
+    <t>931416.1976096316</t>
+  </si>
+  <si>
+    <t>1933498.9531416</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 앵고개로847번길 51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 남동구 논현동 740-2 소래휴먼시아3단지 상가에이동</t>
   </si>
 </sst>
 </file>
@@ -7483,10 +7499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H197"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12197,7 +12213,7 @@
         <v>976</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H197" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
+        <f t="shared" ref="H195:H198" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
         <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
       </c>
     </row>
@@ -12247,6 +12263,30 @@
       <c r="H197" t="str">
         <f t="shared" si="3"/>
         <v>{name:['연수점GSS'],addr:'인천광역시 연수구 원인재로 88',x:'927184.2034296514',y:'1934516.2629514583',jibun:'인천광역시 연수구 동춘동 925-7 대우삼환아파트'},</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H198" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['논현향촌점G'],addr:'인천광역시 남동구 앵고개로847번길 51',x:'931416.1976096316',y:'1933498.9531416',jibun:'인천광역시 남동구 논현동 740-2 소래휴먼시아3단지 상가에이동'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1016">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -3088,6 +3088,40 @@
   </si>
   <si>
     <t>인천광역시 남동구 논현동 740-2 소래휴먼시아3단지 상가에이동</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동로 34</t>
+  </si>
+  <si>
+    <t>주안경원점G</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 먼우금로 302</t>
+  </si>
+  <si>
+    <t>연수유천점G</t>
+  </si>
+  <si>
+    <t>928019.33716304</t>
+  </si>
+  <si>
+    <t>1940530.2795259403</t>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>927692.7867924417</t>
+  </si>
+  <si>
+    <t>1936292.8503102353</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 57-12</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 534 연수유천아파트</t>
   </si>
 </sst>
 </file>
@@ -7499,10 +7533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G207" sqref="G207"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12213,7 +12247,7 @@
         <v>976</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H198" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
+        <f t="shared" ref="H195:H200" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
         <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
       </c>
     </row>
@@ -12287,6 +12321,54 @@
       <c r="H198" t="str">
         <f t="shared" si="3"/>
         <v>{name:['논현향촌점G'],addr:'인천광역시 남동구 앵고개로847번길 51',x:'931416.1976096316',y:'1933498.9531416',jibun:'인천광역시 남동구 논현동 740-2 소래휴먼시아3단지 상가에이동'},</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H199" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['주안경원점G'],addr:'인천광역시 미추홀구 주안동로 34',x:'928019.33716304',y:'1940530.2795259403',jibun:'인천광역시 미추홀구 주안동 57-12'},</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H200" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['연수유천점G'],addr:'인천광역시 연수구 먼우금로 302',x:'927692.7867924417',y:'1936292.8503102353',jibun:'인천광역시 연수구 연수동 534 연수유천아파트'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="1022">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -3122,6 +3122,26 @@
   </si>
   <si>
     <t>인천광역시 연수구 연수동 534 연수유천아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 석바위로 143</t>
+  </si>
+  <si>
+    <t>석바위점G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928264.6171794888</t>
+  </si>
+  <si>
+    <t>1940390.7456267346</t>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 989-4 동양빌딩</t>
   </si>
 </sst>
 </file>
@@ -7533,10 +7553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12247,7 +12267,7 @@
         <v>976</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H200" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
+        <f t="shared" ref="H195:H201" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
         <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
       </c>
     </row>
@@ -12369,6 +12389,30 @@
       <c r="H200" t="str">
         <f t="shared" si="3"/>
         <v>{name:['연수유천점G'],addr:'인천광역시 연수구 먼우금로 302',x:'927692.7867924417',y:'1936292.8503102353',jibun:'인천광역시 연수구 연수동 534 연수유천아파트'},</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H201" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['석바위점G'],addr:'인천광역시 미추홀구 석바위로 143',x:'928264.6171794888',y:'1940390.7456267346',jibun:'인천광역시 미추홀구 주안동 989-4 동양빌딩'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="1025">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -2750,9 +2750,6 @@
     <t>인천광역시 연수구 옥련동 285-1 원준주택</t>
   </si>
   <si>
-    <t>인천광역시 미추홀구 주안동 60-5</t>
-  </si>
-  <si>
     <t>인천광역시 남동구 구월동 1462-2 노빌리안 1</t>
   </si>
   <si>
@@ -3142,6 +3139,19 @@
   </si>
   <si>
     <t>인천광역시 미추홀구 주안동 989-4 동양빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안로 152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928081.6298600277</t>
+  </si>
+  <si>
+    <t>1940786.0079571293</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 50-3</t>
   </si>
 </sst>
 </file>
@@ -7555,8 +7565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G206" sqref="G206"/>
+    <sheetView tabSelected="1" topLeftCell="F163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7719,7 +7729,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C7" t="s">
         <v>206</v>
@@ -7938,7 +7948,7 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C16" t="s">
         <v>201</v>
@@ -10299,7 +10309,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C114" t="s">
         <v>733</v>
@@ -10689,23 +10699,23 @@
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>294</v>
+        <v>1021</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>515</v>
+        <v>1022</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>660</v>
+        <v>1023</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>896</v>
+        <v>1024</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="1"/>
-        <v>{name:['인천주안로점G'],addr:'인천광역시 미추홀구 주안동로 28-15',x:'928043.4087397007',y:'1940464.958479995',jibun:'인천광역시 미추홀구 주안동 60-5'},</v>
+        <v>{name:['인천주안로점G'],addr:'인천광역시 미추홀구 주안로 152',x:'928081.6298600277',y:'1940786.0079571293',jibun:'인천광역시 미추홀구 주안동 50-3'},</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -10725,7 +10735,7 @@
         <v>735</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131:H194" si="2">"{name:" &amp; "['"&amp;A131&amp;"'"&amp;IF(ISBLANK(B131),"",",'"&amp;B131&amp;"'")&amp;"],addr:" &amp; "'" &amp;C131&amp;"',x:"&amp; "'" &amp;D131&amp;"',y:"&amp; "'" &amp;E131&amp;"',jibun:"&amp; "'" &amp;G131&amp;"'},"</f>
@@ -10749,7 +10759,7 @@
         <v>735</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="2"/>
@@ -10773,7 +10783,7 @@
         <v>735</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="2"/>
@@ -10797,7 +10807,7 @@
         <v>735</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="2"/>
@@ -10821,7 +10831,7 @@
         <v>735</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="2"/>
@@ -10845,7 +10855,7 @@
         <v>735</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="2"/>
@@ -10869,7 +10879,7 @@
         <v>735</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="2"/>
@@ -10893,7 +10903,7 @@
         <v>735</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="2"/>
@@ -10917,7 +10927,7 @@
         <v>735</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="2"/>
@@ -10941,7 +10951,7 @@
         <v>735</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="2"/>
@@ -10965,7 +10975,7 @@
         <v>735</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="2"/>
@@ -10989,7 +10999,7 @@
         <v>735</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="2"/>
@@ -11013,7 +11023,7 @@
         <v>735</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="2"/>
@@ -11040,7 +11050,7 @@
         <v>749</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="2"/>
@@ -11064,7 +11074,7 @@
         <v>735</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="2"/>
@@ -11088,7 +11098,7 @@
         <v>735</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="2"/>
@@ -11112,7 +11122,7 @@
         <v>735</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="2"/>
@@ -11136,7 +11146,7 @@
         <v>735</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="2"/>
@@ -11160,7 +11170,7 @@
         <v>735</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="2"/>
@@ -11184,7 +11194,7 @@
         <v>735</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="2"/>
@@ -11208,7 +11218,7 @@
         <v>735</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="2"/>
@@ -11232,7 +11242,7 @@
         <v>735</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="2"/>
@@ -11256,7 +11266,7 @@
         <v>735</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="2"/>
@@ -11280,7 +11290,7 @@
         <v>735</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="2"/>
@@ -11304,7 +11314,7 @@
         <v>735</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="2"/>
@@ -11328,7 +11338,7 @@
         <v>735</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="2"/>
@@ -11352,7 +11362,7 @@
         <v>735</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="2"/>
@@ -11376,7 +11386,7 @@
         <v>735</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="2"/>
@@ -11400,7 +11410,7 @@
         <v>735</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="2"/>
@@ -11424,7 +11434,7 @@
         <v>735</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="2"/>
@@ -11448,7 +11458,7 @@
         <v>735</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="2"/>
@@ -11472,7 +11482,7 @@
         <v>735</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="2"/>
@@ -11496,7 +11506,7 @@
         <v>735</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="2"/>
@@ -11520,7 +11530,7 @@
         <v>735</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="2"/>
@@ -11544,7 +11554,7 @@
         <v>735</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="2"/>
@@ -11568,7 +11578,7 @@
         <v>735</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="2"/>
@@ -11592,7 +11602,7 @@
         <v>735</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="2"/>
@@ -11616,7 +11626,7 @@
         <v>735</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="2"/>
@@ -11640,7 +11650,7 @@
         <v>735</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="2"/>
@@ -11664,7 +11674,7 @@
         <v>735</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="2"/>
@@ -11688,7 +11698,7 @@
         <v>735</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="2"/>
@@ -11712,7 +11722,7 @@
         <v>735</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="2"/>
@@ -11736,7 +11746,7 @@
         <v>735</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="2"/>
@@ -11760,7 +11770,7 @@
         <v>735</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="2"/>
@@ -11784,7 +11794,7 @@
         <v>735</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="2"/>
@@ -11808,7 +11818,7 @@
         <v>735</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="2"/>
@@ -11832,7 +11842,7 @@
         <v>735</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="2"/>
@@ -11856,7 +11866,7 @@
         <v>735</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="2"/>
@@ -11880,7 +11890,7 @@
         <v>735</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="2"/>
@@ -11904,7 +11914,7 @@
         <v>735</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="2"/>
@@ -11928,7 +11938,7 @@
         <v>735</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="2"/>
@@ -11952,7 +11962,7 @@
         <v>735</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" si="2"/>
@@ -11976,7 +11986,7 @@
         <v>735</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="2"/>
@@ -12000,7 +12010,7 @@
         <v>735</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="2"/>
@@ -12024,7 +12034,7 @@
         <v>735</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="2"/>
@@ -12048,7 +12058,7 @@
         <v>735</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="2"/>
@@ -12072,7 +12082,7 @@
         <v>735</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="2"/>
@@ -12096,7 +12106,7 @@
         <v>735</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="2"/>
@@ -12120,7 +12130,7 @@
         <v>735</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" si="2"/>
@@ -12129,22 +12139,22 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C190" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D190" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>979</v>
-      </c>
       <c r="F190" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="2"/>
@@ -12153,22 +12163,22 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C191" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D191" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>981</v>
-      </c>
       <c r="F191" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" si="2"/>
@@ -12177,22 +12187,22 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C192" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D192" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>983</v>
-      </c>
       <c r="F192" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="2"/>
@@ -12201,22 +12211,22 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C193" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D193" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>985</v>
-      </c>
       <c r="F193" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="2"/>
@@ -12225,22 +12235,22 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C194" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>987</v>
-      </c>
       <c r="F194" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="2"/>
@@ -12249,22 +12259,22 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C195" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D195" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>989</v>
-      </c>
       <c r="F195" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H195" t="str">
         <f t="shared" ref="H195:H201" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
@@ -12273,22 +12283,22 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>964</v>
+      </c>
+      <c r="C196" t="s">
         <v>965</v>
       </c>
-      <c r="C196" t="s">
-        <v>966</v>
-      </c>
       <c r="D196" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>991</v>
-      </c>
       <c r="F196" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" si="3"/>
@@ -12297,22 +12307,22 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>993</v>
+      </c>
+      <c r="C197" t="s">
+        <v>997</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C197" t="s">
+      <c r="G197" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>999</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="3"/>
@@ -12321,22 +12331,22 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
+        <v>999</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="C198" t="s">
+      <c r="E198" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>1004</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="3"/>
@@ -12345,22 +12355,22 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C199" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D199" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>1010</v>
-      </c>
       <c r="F199" s="1" t="s">
         <v>735</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H199" t="str">
         <f t="shared" si="3"/>
@@ -12369,22 +12379,22 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C200" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D200" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>1013</v>
-      </c>
       <c r="F200" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H200" t="str">
         <f t="shared" si="3"/>
@@ -12393,22 +12403,22 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C201" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="F201" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="F201" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>1021</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" si="3"/>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="1031">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -3152,6 +3152,25 @@
   </si>
   <si>
     <t>인천광역시 미추홀구 주안동 50-3</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도과학로16번길 13-18</t>
+  </si>
+  <si>
+    <t>송도큐브점G</t>
+  </si>
+  <si>
+    <t>925705.9937962485</t>
+  </si>
+  <si>
+    <t>1931656.908183341</t>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 174-1 송도건원테크노큐브</t>
   </si>
 </sst>
 </file>
@@ -7563,10 +7582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179"/>
+    <sheetView tabSelected="1" topLeftCell="F193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H213" sqref="H213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12277,7 +12296,7 @@
         <v>975</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H201" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
+        <f t="shared" ref="H195:H202" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
         <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
       </c>
     </row>
@@ -12423,6 +12442,30 @@
       <c r="H201" t="str">
         <f t="shared" si="3"/>
         <v>{name:['석바위점G'],addr:'인천광역시 미추홀구 석바위로 143',x:'928264.6171794888',y:'1940390.7456267346',jibun:'인천광역시 미추홀구 주안동 989-4 동양빌딩'},</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H202" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['송도큐브점G'],addr:'인천광역시 연수구 송도과학로16번길 13-18',x:'925705.9937962485',y:'1931656.908183341',jibun:'인천광역시 연수구 송도동 174-1 송도건원테크노큐브'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="1036">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -3171,6 +3171,21 @@
   </si>
   <si>
     <t>인천광역시 연수구 송도동 174-1 송도건원테크노큐브</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 청학로6번길 94</t>
+  </si>
+  <si>
+    <t>청학수인점G</t>
+  </si>
+  <si>
+    <t>926415.3123945633</t>
+  </si>
+  <si>
+    <t>1936682.681330747</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 청학동 527-24</t>
   </si>
 </sst>
 </file>
@@ -7582,10 +7597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H213" sqref="H213"/>
+    <sheetView tabSelected="1" topLeftCell="F187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12296,7 +12311,7 @@
         <v>975</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H202" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
+        <f t="shared" ref="H195:H203" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
         <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
       </c>
     </row>
@@ -12466,6 +12481,30 @@
       <c r="H202" t="str">
         <f t="shared" si="3"/>
         <v>{name:['송도큐브점G'],addr:'인천광역시 연수구 송도과학로16번길 13-18',x:'925705.9937962485',y:'1931656.908183341',jibun:'인천광역시 연수구 송도동 174-1 송도건원테크노큐브'},</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H203" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['청학수인점G'],addr:'인천광역시 연수구 청학로6번길 94',x:'926415.3123945633',y:'1936682.681330747',jibun:'인천광역시 연수구 청학동 527-24'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1191">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -3186,6 +3186,473 @@
   </si>
   <si>
     <t>인천광역시 연수구 청학동 527-24</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 아나지로 541</t>
+  </si>
+  <si>
+    <t>새천년장례식장</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 경원대로 1395</t>
+  </si>
+  <si>
+    <t>부평일번가점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 석천로 174</t>
+  </si>
+  <si>
+    <t>중동타운점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 경원대로1256번길 10</t>
+  </si>
+  <si>
+    <t>부평신촌점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 길주로 655</t>
+  </si>
+  <si>
+    <t>글로리병원</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 무네미로447번길 6-4</t>
+  </si>
+  <si>
+    <t>육군제2291부대(17보병사단)</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부영로16번길 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부평2동점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평대로 146</t>
+  </si>
+  <si>
+    <t>나들가게-스타로또판매점</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부흥로 291</t>
+  </si>
+  <si>
+    <t>부평보건소 결합부스</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 시장로 35-2</t>
+  </si>
+  <si>
+    <t>부평삼천당양국 결합부스</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 체육관로 111</t>
+  </si>
+  <si>
+    <t>삼산주공4단지 결합부스</t>
+  </si>
+  <si>
+    <t>경기도 부천시 송내대로42번길 58</t>
+  </si>
+  <si>
+    <t>송내중앙점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평대로12번길 15</t>
+  </si>
+  <si>
+    <t>부평제일점G</t>
+  </si>
+  <si>
+    <t>경기도 김포시 김포한강2로 76</t>
+  </si>
+  <si>
+    <t>김포초당점M</t>
+  </si>
+  <si>
+    <t>경기도 김포시 봉화로181번길 36</t>
+  </si>
+  <si>
+    <t>감정삼환아파트상가 결합부스</t>
+  </si>
+  <si>
+    <t>경기도 김포시 태장로 845</t>
+  </si>
+  <si>
+    <t>한강센트럴자이</t>
+  </si>
+  <si>
+    <t>경기도 김포시 풍무로 111</t>
+  </si>
+  <si>
+    <t>풍무신안점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 경명대로 1062</t>
+  </si>
+  <si>
+    <t>계산점M</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 경명대로 1120</t>
+  </si>
+  <si>
+    <t>계산명인점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 경명대로1029번길 16</t>
+  </si>
+  <si>
+    <t>계양신한점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계양대로 114</t>
+  </si>
+  <si>
+    <t>태화상가 결합부스</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계양대로 159-1</t>
+  </si>
+  <si>
+    <t>계산농협 결합부스</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 병방로 17</t>
+  </si>
+  <si>
+    <t>인천병방점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 봉오대로 785</t>
+  </si>
+  <si>
+    <t>이마트-계양점-KEB</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 장제로997번길 9-1</t>
+  </si>
+  <si>
+    <t>박촌중앙점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 하느재로 4</t>
+  </si>
+  <si>
+    <t>위드미-계산역점</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 형제봉길 57</t>
+  </si>
+  <si>
+    <t>귤현중앙점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 황어로115번길 13</t>
+  </si>
+  <si>
+    <t>계양대원점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 굴포로 50-10</t>
+  </si>
+  <si>
+    <t>부평갈산점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평대로 283</t>
+  </si>
+  <si>
+    <t>부평우림점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계양문화로29번길 10</t>
+  </si>
+  <si>
+    <t>계양국제점M</t>
+  </si>
+  <si>
+    <t>933976.1191295199</t>
+  </si>
+  <si>
+    <t>1947644.6814924027</t>
+  </si>
+  <si>
+    <t>931442.7457843034</t>
+  </si>
+  <si>
+    <t>1943905.1716368534</t>
+  </si>
+  <si>
+    <t>934864.5284565468</t>
+  </si>
+  <si>
+    <t>1945089.772593747</t>
+  </si>
+  <si>
+    <t>930139.6624342366</t>
+  </si>
+  <si>
+    <t>1943538.069996247</t>
+  </si>
+  <si>
+    <t>932421.86098766</t>
+  </si>
+  <si>
+    <t>1945596.0398589005</t>
+  </si>
+  <si>
+    <t>1942131.4210598096</t>
+  </si>
+  <si>
+    <t>930930.0009870247</t>
+  </si>
+  <si>
+    <t>933856.628527692</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1943341.044701905</t>
+  </si>
+  <si>
+    <t>931209.1015196894</t>
+  </si>
+  <si>
+    <t>1945299.2664001212</t>
+  </si>
+  <si>
+    <t>931429.61845897</t>
+  </si>
+  <si>
+    <t>1944679.5655312636</t>
+  </si>
+  <si>
+    <t>931586.8051944501</t>
+  </si>
+  <si>
+    <t>1944161.0736327833</t>
+  </si>
+  <si>
+    <t>933132.6592045021</t>
+  </si>
+  <si>
+    <t>1945946.1184882158</t>
+  </si>
+  <si>
+    <t>934270.8836680101</t>
+  </si>
+  <si>
+    <t>1943345.6518097534</t>
+  </si>
+  <si>
+    <t>931414.8208953666</t>
+  </si>
+  <si>
+    <t>1943984.6596683604</t>
+  </si>
+  <si>
+    <t>927187.7376515022</t>
+  </si>
+  <si>
+    <t>1960298.0954450704</t>
+  </si>
+  <si>
+    <t>929393.31062681</t>
+  </si>
+  <si>
+    <t>1958932.8253651601</t>
+  </si>
+  <si>
+    <t>927249.6620825944</t>
+  </si>
+  <si>
+    <t>1959781.8936519488</t>
+  </si>
+  <si>
+    <t>931328.0170300335</t>
+  </si>
+  <si>
+    <t>1956533.06516879</t>
+  </si>
+  <si>
+    <t>931527.348910369</t>
+  </si>
+  <si>
+    <t>1949595.0281054797</t>
+  </si>
+  <si>
+    <t>932108.7903216111</t>
+  </si>
+  <si>
+    <t>1949561.4707883568</t>
+  </si>
+  <si>
+    <t>931225.1142344968</t>
+  </si>
+  <si>
+    <t>1949819.1893880423</t>
+  </si>
+  <si>
+    <t>931337.9279541038</t>
+  </si>
+  <si>
+    <t>1948567.644235659</t>
+  </si>
+  <si>
+    <t>931290.091887224</t>
+  </si>
+  <si>
+    <t>1949046.5163927404</t>
+  </si>
+  <si>
+    <t>933081.7079332424</t>
+  </si>
+  <si>
+    <t>1949977.93490888</t>
+  </si>
+  <si>
+    <t>932576.6557839434</t>
+  </si>
+  <si>
+    <t>1948243.302971094</t>
+  </si>
+  <si>
+    <t>933248.4628332835</t>
+  </si>
+  <si>
+    <t>1950882.8012067103</t>
+  </si>
+  <si>
+    <t>931544.6516139768</t>
+  </si>
+  <si>
+    <t>1949681.0059877522</t>
+  </si>
+  <si>
+    <t>933716.1497187633</t>
+  </si>
+  <si>
+    <t>1952258.4427198768</t>
+  </si>
+  <si>
+    <t>932175.376509306</t>
+  </si>
+  <si>
+    <t>1953625.1702445736</t>
+  </si>
+  <si>
+    <t>931629.6382923902</t>
+  </si>
+  <si>
+    <t>1946047.8260866501</t>
+  </si>
+  <si>
+    <t>931164.0193303828</t>
+  </si>
+  <si>
+    <t>1946691.216097455</t>
+  </si>
+  <si>
+    <t>932417.39154975</t>
+  </si>
+  <si>
+    <t>1948532.5869564335</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 서운동 138-5 새천년장례식장</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 159-15 부평일번가</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1159-8 하성빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 277-21</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 삼산동 461-3 글로리타워</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 구산동 30-10</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 760-117</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 431-46</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 442-1 부평구 보건소</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 192-1</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 삼산동 456-8 주공삼산타운아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 송내동 300 생명샘교회</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 193-25</t>
+  </si>
+  <si>
+    <t>경기도 김포시 장기동 2039-2 프레즌스빌딩</t>
+  </si>
+  <si>
+    <t>경기도 김포시 감정동 659 삼환아파트</t>
+  </si>
+  <si>
+    <t>경기도 김포시 장기동 2128-1 한강센트럴자이 1단지</t>
+  </si>
+  <si>
+    <t>경기도 김포시 풍무동 100 신안아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계산동 945</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계산동 12-10 명인프라자2</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계산동 931-9 신한아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 작전동 854-2</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계산동 969-16</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 병방동 136-6 제일빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 작전동 911-1 (주)신세계 이마트 계양점</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 박촌동 98-1</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계산동 929</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 귤현동 500-14</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 장기동 131-10 계양 벽산 블루밍</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 갈산동 367-2</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 청천동 425 부평우림라이온스밸리</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 작전동 907-6 태진프라자</t>
   </si>
 </sst>
 </file>
@@ -7597,10 +8064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H208" sqref="H208"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12311,7 +12778,7 @@
         <v>975</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H203" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
+        <f t="shared" ref="H195:H234" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
         <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
       </c>
     </row>
@@ -12505,6 +12972,750 @@
       <c r="H203" t="str">
         <f t="shared" si="3"/>
         <v>{name:['청학수인점G'],addr:'인천광역시 연수구 청학로6번길 94',x:'926415.3123945633',y:'1936682.681330747',jibun:'인천광역시 연수구 청학동 527-24'},</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H204" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['새천년장례식장'],addr:'인천광역시 계양구 아나지로 541',x:'933976.1191295199',y:'1947644.6814924027',jibun:'인천광역시 계양구 서운동 138-5 새천년장례식장'},</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H205" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평일번가점G'],addr:'인천광역시 부평구 경원대로 1395',x:'931442.7457843034',y:'1943905.1716368534',jibun:'인천광역시 부평구 부평동 159-15 부평일번가'},</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H206" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['중동타운점G'],addr:'경기도 부천시 석천로 174',x:'934864.5284565468',y:'1945089.772593747',jibun:'경기도 부천시 중동 1159-8 하성빌딩'},</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H207" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평신촌점G'],addr:'인천광역시 부평구 경원대로1256번길 10',x:'930139.6624342366',y:'1943538.069996247',jibun:'인천광역시 부평구 부평동 277-21'},</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H208" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['글로리병원'],addr:'인천광역시 부평구 길주로 655',x:'932421.86098766',y:'1945596.0398589005',jibun:'인천광역시 부평구 삼산동 461-3 글로리타워'},</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H209" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['육군제2291부대(17보병사단)'],addr:'인천광역시 부평구 무네미로447번길 6-4',x:'933856.628527692',y:'1942131.4210598096',jibun:'인천광역시 부평구 구산동 30-10'},</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H210" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평2동점G'],addr:'인천광역시 부평구 부영로16번길 22',x:'930930.0009870247',y:'1943341.044701905',jibun:'인천광역시 부평구 부평동 760-117'},</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H211" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['나들가게-스타로또판매점'],addr:'인천광역시 부평구 부평대로 146',x:'931209.1015196894',y:'1945299.2664001212',jibun:'인천광역시 부평구 부평동 431-46'},</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H212" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평보건소 결합부스'],addr:'인천광역시 부평구 부흥로 291',x:'931429.61845897',y:'1944679.5655312636',jibun:'인천광역시 부평구 부평동 442-1 부평구 보건소'},</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H213" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평삼천당양국 결합부스'],addr:'인천광역시 부평구 시장로 35-2',x:'931586.8051944501',y:'1944161.0736327833',jibun:'인천광역시 부평구 부평동 192-1'},</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H214" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['삼산주공4단지 결합부스'],addr:'인천광역시 부평구 체육관로 111',x:'933132.6592045021',y:'1945946.1184882158',jibun:'인천광역시 부평구 삼산동 456-8 주공삼산타운아파트'},</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H215" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['송내중앙점G'],addr:'경기도 부천시 송내대로42번길 58',x:'934270.8836680101',y:'1943345.6518097534',jibun:'경기도 부천시 송내동 300 생명샘교회'},</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H216" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평제일점G'],addr:'인천광역시 부평구 부평대로12번길 15',x:'931414.8208953666',y:'1943984.6596683604',jibun:'인천광역시 부평구 부평동 193-25'},</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H217" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['김포초당점M'],addr:'경기도 김포시 김포한강2로 76',x:'927187.7376515022',y:'1960298.0954450704',jibun:'경기도 김포시 장기동 2039-2 프레즌스빌딩'},</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H218" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['감정삼환아파트상가 결합부스'],addr:'경기도 김포시 봉화로181번길 36',x:'929393.31062681',y:'1958932.8253651601',jibun:'경기도 김포시 감정동 659 삼환아파트'},</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H219" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['한강센트럴자이'],addr:'경기도 김포시 태장로 845',x:'927249.6620825944',y:'1959781.8936519488',jibun:'경기도 김포시 장기동 2128-1 한강센트럴자이 1단지'},</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H220" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['풍무신안점G'],addr:'경기도 김포시 풍무로 111',x:'931328.0170300335',y:'1956533.06516879',jibun:'경기도 김포시 풍무동 100 신안아파트'},</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H221" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['계산점M'],addr:'인천광역시 계양구 경명대로 1062',x:'931527.348910369',y:'1949595.0281054797',jibun:'인천광역시 계양구 계산동 945'},</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H222" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['계산명인점G'],addr:'인천광역시 계양구 경명대로 1120',x:'932108.7903216111',y:'1949561.4707883568',jibun:'인천광역시 계양구 계산동 12-10 명인프라자2'},</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H223" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['계양신한점G'],addr:'인천광역시 계양구 경명대로1029번길 16',x:'931225.1142344968',y:'1949819.1893880423',jibun:'인천광역시 계양구 계산동 931-9 신한아파트'},</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H224" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['태화상가 결합부스'],addr:'인천광역시 계양구 계양대로 114',x:'931337.9279541038',y:'1948567.644235659',jibun:'인천광역시 계양구 작전동 854-2'},</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H225" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['계산농협 결합부스'],addr:'인천광역시 계양구 계양대로 159-1',x:'931290.091887224',y:'1949046.5163927404',jibun:'인천광역시 계양구 계산동 969-16'},</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H226" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['인천병방점G'],addr:'인천광역시 계양구 병방로 17',x:'933081.7079332424',y:'1949977.93490888',jibun:'인천광역시 계양구 병방동 136-6 제일빌딩'},</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H227" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['이마트-계양점-KEB'],addr:'인천광역시 계양구 봉오대로 785',x:'932576.6557839434',y:'1948243.302971094',jibun:'인천광역시 계양구 작전동 911-1 (주)신세계 이마트 계양점'},</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H228" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['박촌중앙점G'],addr:'인천광역시 계양구 장제로997번길 9-1',x:'933248.4628332835',y:'1950882.8012067103',jibun:'인천광역시 계양구 박촌동 98-1'},</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H229" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['위드미-계산역점'],addr:'인천광역시 계양구 하느재로 4',x:'931544.6516139768',y:'1949681.0059877522',jibun:'인천광역시 계양구 계산동 929'},</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H230" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['귤현중앙점G'],addr:'인천광역시 계양구 형제봉길 57',x:'933716.1497187633',y:'1952258.4427198768',jibun:'인천광역시 계양구 귤현동 500-14'},</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H231" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['계양대원점G'],addr:'인천광역시 계양구 황어로115번길 13',x:'932175.376509306',y:'1953625.1702445736',jibun:'인천광역시 계양구 장기동 131-10 계양 벽산 블루밍'},</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H232" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평갈산점G'],addr:'인천광역시 부평구 굴포로 50-10',x:'931629.6382923902',y:'1946047.8260866501',jibun:'인천광역시 부평구 갈산동 367-2'},</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H233" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평우림점G'],addr:'인천광역시 부평구 부평대로 283',x:'931164.0193303828',y:'1946691.216097455',jibun:'인천광역시 부평구 청천동 425 부평우림라이온스밸리'},</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H234" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['계양국제점M'],addr:'인천광역시 계양구 계양문화로29번길 10',x:'932417.39154975',y:'1948532.5869564335',jibun:'인천광역시 계양구 작전동 907-6 태진프라자'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="1197">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -3653,6 +3653,25 @@
   </si>
   <si>
     <t>인천광역시 계양구 작전동 907-6 태진프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도국제대로 261</t>
+  </si>
+  <si>
+    <t>송도센트럴점G</t>
+  </si>
+  <si>
+    <t>924676.6906859279</t>
+  </si>
+  <si>
+    <t>1930858.557839889</t>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 190-4 송도 더샵 센트럴시티</t>
   </si>
 </sst>
 </file>
@@ -8064,10 +8083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E217" sqref="E217"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12778,7 +12797,7 @@
         <v>975</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H234" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
+        <f t="shared" ref="H195:H235" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
         <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
       </c>
     </row>
@@ -13716,6 +13735,30 @@
       <c r="H234" t="str">
         <f t="shared" si="3"/>
         <v>{name:['계양국제점M'],addr:'인천광역시 계양구 계양문화로29번길 10',x:'932417.39154975',y:'1948532.5869564335',jibun:'인천광역시 계양구 작전동 907-6 태진프라자'},</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H235" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['송도센트럴점G'],addr:'인천광역시 연수구 송도국제대로 261',x:'924676.6906859279',y:'1930858.557839889',jibun:'인천광역시 연수구 송도동 190-4 송도 더샵 센트럴시티'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="1203">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -3672,6 +3672,25 @@
   </si>
   <si>
     <t>인천광역시 연수구 송도동 190-4 송도 더샵 센트럴시티</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 랜드마크로 113</t>
+  </si>
+  <si>
+    <t>송도이편한점G</t>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 319-1 e편한세상 송도</t>
+  </si>
+  <si>
+    <t>921810.1679151095</t>
+  </si>
+  <si>
+    <t>1935243.4228121955</t>
   </si>
 </sst>
 </file>
@@ -8083,10 +8102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="F220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H242" sqref="H242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12797,7 +12816,7 @@
         <v>975</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H235" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
+        <f t="shared" ref="H195:H236" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
         <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
       </c>
     </row>
@@ -13759,6 +13778,30 @@
       <c r="H235" t="str">
         <f t="shared" si="3"/>
         <v>{name:['송도센트럴점G'],addr:'인천광역시 연수구 송도국제대로 261',x:'924676.6906859279',y:'1930858.557839889',jibun:'인천광역시 연수구 송도동 190-4 송도 더샵 센트럴시티'},</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H236" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['송도이편한점G'],addr:'인천광역시 연수구 랜드마크로 113',x:'921810.1679151095',y:'1935243.4228121955',jibun:'인천광역시 연수구 송도동 319-1 e편한세상 송도'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$190</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$185</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="1351">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -2304,14 +2304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>만도로브제</t>
   </si>
   <si>
@@ -3054,10 +3046,6 @@
     <t>연수점GSS</t>
   </si>
   <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>927184.2034296514</t>
   </si>
   <si>
@@ -3105,10 +3093,6 @@
     <t>1940530.2795259403</t>
   </si>
   <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>927692.7867924417</t>
   </si>
   <si>
@@ -3134,10 +3118,6 @@
     <t>1940390.7456267346</t>
   </si>
   <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인천광역시 미추홀구 주안동 989-4 동양빌딩</t>
   </si>
   <si>
@@ -3166,10 +3146,6 @@
     <t>1931656.908183341</t>
   </si>
   <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인천광역시 연수구 송도동 174-1 송도건원테크노큐브</t>
   </si>
   <si>
@@ -3667,30 +3643,491 @@
     <t>1930858.557839889</t>
   </si>
   <si>
-    <t>false</t>
+    <t>인천광역시 연수구 송도동 190-4 송도 더샵 센트럴시티</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 랜드마크로 113</t>
+  </si>
+  <si>
+    <t>송도이편한점G</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 319-1 e편한세상 송도</t>
+  </si>
+  <si>
+    <t>921810.1679151095</t>
+  </si>
+  <si>
+    <t>1935243.4228121955</t>
+  </si>
+  <si>
+    <t>상동스타점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상이로39번길 29</t>
+  </si>
+  <si>
+    <t>부천역사1점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로 1</t>
+  </si>
+  <si>
+    <t>중동남부점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동로70번길 15</t>
+  </si>
+  <si>
+    <t>현대백화점 중동점3F(디몰)-KB</t>
+  </si>
+  <si>
+    <t>경기도 부천시 길주로 180</t>
+  </si>
+  <si>
+    <t>상동메가점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상동로 90</t>
+  </si>
+  <si>
+    <t>부천상이로점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상이로9번길 26-5</t>
+  </si>
+  <si>
+    <t>부천성도점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 장말로 156</t>
+  </si>
+  <si>
+    <t>간석이화점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 남동대로916번길 40</t>
+  </si>
+  <si>
+    <t>부평동수로점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 동수로 27</t>
+  </si>
+  <si>
+    <t>부개주공점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부개로 61-14</t>
+  </si>
+  <si>
+    <t>부평파크팰리스점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 동수북로 38</t>
+  </si>
+  <si>
+    <t>미래타운주공3단지 결합부스</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평북로 463</t>
+  </si>
+  <si>
+    <t>중동공원점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소향로 149</t>
+  </si>
+  <si>
+    <t>메리트-부천</t>
+  </si>
+  <si>
+    <t>경기도 부천시 길주로 125</t>
+  </si>
+  <si>
+    <t>상동삼성점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소향로13번길 14-23</t>
+  </si>
+  <si>
+    <t>부평사랑점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 경원대로1431번길 13</t>
+  </si>
+  <si>
+    <t>인천삼산점M</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 길주로 633</t>
+  </si>
+  <si>
+    <t>부평파크타운점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 마장로36번길 40-1</t>
+  </si>
+  <si>
+    <t>부평신명점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 장제로 145</t>
+  </si>
+  <si>
+    <t>부평남부점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 장제로27번길 49</t>
+  </si>
+  <si>
+    <t>사우현대점G</t>
+  </si>
+  <si>
+    <t>경기도 김포시 사우로 12</t>
+  </si>
+  <si>
+    <t>풍무자이점G</t>
+  </si>
+  <si>
+    <t>경기도 김포시 풍무로96번길 102</t>
+  </si>
+  <si>
+    <t>계양팬더점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 경명대로1142번길 5</t>
+  </si>
+  <si>
+    <t>용종타운점G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천광역시 연수구 송도동 190-4 송도 더샵 센트럴시티</t>
-  </si>
-  <si>
-    <t>인천광역시 연수구 랜드마크로 113</t>
-  </si>
-  <si>
-    <t>송도이편한점G</t>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천광역시 연수구 송도동 319-1 e편한세상 송도</t>
-  </si>
-  <si>
-    <t>921810.1679151095</t>
-  </si>
-  <si>
-    <t>1935243.4228121955</t>
+    <t>인천광역시 계양구 용마루1길 14</t>
+  </si>
+  <si>
+    <t>병방타운점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 장제로920번길 8</t>
+  </si>
+  <si>
+    <t>하이포크돈까스-인천</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 주부토로 515</t>
+  </si>
+  <si>
+    <t>계산향교점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 향교로 11</t>
+  </si>
+  <si>
+    <t>부평경찰서점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 길주로 505</t>
+  </si>
+  <si>
+    <t>작전한양점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계양대로120번길 11</t>
+  </si>
+  <si>
+    <t>작전중앙점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 오조산로 1</t>
+  </si>
+  <si>
+    <t>갈산본점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 새갈로 22</t>
+  </si>
+  <si>
+    <t>미니스톱계산점앞 결합부스</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상동 604-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡본동 316-2 부천역사쇼핑몰</t>
+  </si>
+  <si>
+    <t>경기도 부천시 송내동 504</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1164 현대백화점부천중동점</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상동 541-1 메가플러스빌딩</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상동 614-7</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상동 420</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 간석동 182-13</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 672-23</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부개동 498-9 대현프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 767-163 파크팰리스</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 삼산동 390-6 주공미래타운3단지</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1160-3 필레오트윈파크2동</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상동 538-7 다승프라자</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상동 545-16 삼성프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 585-2</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 삼산동 464-1 삼산메디캐슬</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 십정동 182-30 파크타운메트로</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 378-3 신명스카이홈</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 605-39 번성빌딩</t>
+  </si>
+  <si>
+    <t>경기도 김포시 사우동 911 풍년마을현대아파트</t>
+  </si>
+  <si>
+    <t>경기도 김포시 풍무동 766 풍무자이2지구</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계산동 489-6 팬더아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 용종동 223-1</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 병방동 118-23</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계산동 948-6 대원프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계산동 982-10</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 청천동 199-51 우진빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 작전동 855-27</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 작전동 911-7 거승프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 갈산동 21-7</t>
+  </si>
+  <si>
+    <t>933018.5068486969</t>
+  </si>
+  <si>
+    <t>936579.4263615669</t>
+  </si>
+  <si>
+    <t>935053.4388435667</t>
+  </si>
+  <si>
+    <t>934778.8432610824</t>
+  </si>
+  <si>
+    <t>934040.5315300801</t>
+  </si>
+  <si>
+    <t>933046.8897880868</t>
+  </si>
+  <si>
+    <t>934518.3469865369</t>
+  </si>
+  <si>
+    <t>930182.1440641168</t>
+  </si>
+  <si>
+    <t>931178.6939188098</t>
+  </si>
+  <si>
+    <t>932730.6221358734</t>
+  </si>
+  <si>
+    <t>930317.6786651467</t>
+  </si>
+  <si>
+    <t>933297.0104331193</t>
+  </si>
+  <si>
+    <t>934961.8521437296</t>
+  </si>
+  <si>
+    <t>934276.3197191034</t>
+  </si>
+  <si>
+    <t>933740.1007567733</t>
+  </si>
+  <si>
+    <t>931750.6910376102</t>
+  </si>
+  <si>
+    <t>932200.5103440566</t>
+  </si>
+  <si>
+    <t>930098.4109072781</t>
+  </si>
+  <si>
+    <t>931906.9543120344</t>
+  </si>
+  <si>
+    <t>931612.0905221628</t>
+  </si>
+  <si>
+    <t>931404.4588655937</t>
+  </si>
+  <si>
+    <t>931911.8236301832</t>
+  </si>
+  <si>
+    <t>932278.270056488</t>
+  </si>
+  <si>
+    <t>933155.0954299255</t>
+  </si>
+  <si>
+    <t>933055.0038974134</t>
+  </si>
+  <si>
+    <t>931801.0081208765</t>
+  </si>
+  <si>
+    <t>931098.6161570952</t>
+  </si>
+  <si>
+    <t>930903.7670974967</t>
+  </si>
+  <si>
+    <t>931438.9118810431</t>
+  </si>
+  <si>
+    <t>932657.6976733829</t>
+  </si>
+  <si>
+    <t>931978.99473544</t>
+  </si>
+  <si>
+    <t>1943921.941091667</t>
+  </si>
+  <si>
+    <t>1942996.8231301266</t>
+  </si>
+  <si>
+    <t>1943261.1177480435</t>
+  </si>
+  <si>
+    <t>1945261.0811271123</t>
+  </si>
+  <si>
+    <t>1945356.8885050272</t>
+  </si>
+  <si>
+    <t>1943656.9576712232</t>
+  </si>
+  <si>
+    <t>1944049.46242386</t>
+  </si>
+  <si>
+    <t>1940798.9819973405</t>
+  </si>
+  <si>
+    <t>1943148.66538799</t>
+  </si>
+  <si>
+    <t>1945165.9190083267</t>
+  </si>
+  <si>
+    <t>1943243.6612359053</t>
+  </si>
+  <si>
+    <t>1947242.2830768712</t>
+  </si>
+  <si>
+    <t>1945021.9345603008</t>
+  </si>
+  <si>
+    <t>1945469.0924291466</t>
+  </si>
+  <si>
+    <t>1945287.2960776766</t>
+  </si>
+  <si>
+    <t>1943899.1085860832</t>
+  </si>
+  <si>
+    <t>1945612.2485296768</t>
+  </si>
+  <si>
+    <t>1943055.0494920602</t>
+  </si>
+  <si>
+    <t>1944676.982779122</t>
+  </si>
+  <si>
+    <t>1943488.9596591424</t>
+  </si>
+  <si>
+    <t>1958213.9915254172</t>
+  </si>
+  <si>
+    <t>1956351.3520765733</t>
+  </si>
+  <si>
+    <t>1949518.940805179</t>
+  </si>
+  <si>
+    <t>1949600.692782736</t>
+  </si>
+  <si>
+    <t>1950124.0965765738</t>
+  </si>
+  <si>
+    <t>1949271.5415414097</t>
+  </si>
+  <si>
+    <t>1949141.8350205198</t>
+  </si>
+  <si>
+    <t>1945685.2516483534</t>
+  </si>
+  <si>
+    <t>1948645.5004086206</t>
+  </si>
+  <si>
+    <t>1948231.547796661</t>
+  </si>
+  <si>
+    <t>1946990.65978572</t>
   </si>
 </sst>
 </file>
@@ -8027,16 +8464,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B191" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>735</v>
@@ -8048,16 +8485,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B192" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>735</v>
@@ -8069,16 +8506,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B193" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>735</v>
@@ -8102,10 +8539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H236"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H242" sqref="H242"/>
+    <sheetView tabSelected="1" topLeftCell="F228" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G240" sqref="G240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8115,12 +8552,11 @@
     <col min="3" max="3" width="43.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1"/>
-    <col min="7" max="7" width="70.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="191.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="191.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>720</v>
       </c>
@@ -8137,13 +8573,10 @@
         <v>397</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -8157,17 +8590,14 @@
         <v>647</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="H2" t="str">
-        <f>"{name:" &amp; "['"&amp;A2&amp;"'"&amp;IF(ISBLANK(B2),"",",'"&amp;B2&amp;"'")&amp;"],addr:" &amp; "'" &amp;C2&amp;"',x:"&amp; "'" &amp;D2&amp;"',y:"&amp; "'" &amp;E2&amp;"',jibun:"&amp; "'" &amp;G2&amp;"'},"</f>
+        <v>766</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"{name:" &amp; "['"&amp;A2&amp;"'"&amp;IF(ISBLANK(B2),"",",'"&amp;B2&amp;"'")&amp;"],addr:" &amp; "'" &amp;C2&amp;"',x:"&amp; "'" &amp;D2&amp;"',y:"&amp; "'" &amp;E2&amp;"',jibun:"&amp; "'" &amp;F2&amp;"'},"</f>
         <v>{name:['(주)비에스이'],addr:'인천광역시 남동구 남동서로 193',x:'928448.838274891',y:'1934545.4152585235',jibun:'인천광역시 남동구 고잔동 626-3 (주)이츠웰'},</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -8181,17 +8611,14 @@
         <v>592</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="0">"{name:" &amp; "['"&amp;A3&amp;"'"&amp;IF(ISBLANK(B3),"",",'"&amp;B3&amp;"'")&amp;"],addr:" &amp; "'" &amp;C3&amp;"',x:"&amp; "'" &amp;D3&amp;"',y:"&amp; "'" &amp;E3&amp;"',jibun:"&amp; "'" &amp;G3&amp;"'},"</f>
+        <v>767</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">"{name:" &amp; "['"&amp;A3&amp;"'"&amp;IF(ISBLANK(B3),"",",'"&amp;B3&amp;"'")&amp;"],addr:" &amp; "'" &amp;C3&amp;"',x:"&amp; "'" &amp;D3&amp;"',y:"&amp; "'" &amp;E3&amp;"',jibun:"&amp; "'" &amp;F3&amp;"'},"</f>
         <v>{name:['(주)씨에스티'],addr:'인천광역시 남동구 남동대로 248',x:'929162.2536080531',y:'1934468.471045103',jibun:'인천광역시 남동구 논현동 444-4'},</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -8205,17 +8632,14 @@
         <v>588</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="H4" t="str">
+        <v>768</v>
+      </c>
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
         <v>{name:['(주)일야'],addr:'인천광역시 남동구 은봉로 129',x:'929636.4538484735',y:'1934569.642266401',jibun:'인천광역시 남동구 논현동 439-3'},</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -8229,46 +8653,40 @@
         <v>644</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="H5" t="str">
+        <v>769</v>
+      </c>
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
         <v>{name:['간석드림점G'],addr:'인천광역시 남동구 석산로9번길 69',x:'929139.5206771668',y:'1940818.0201271167',jibun:'인천광역시 남동구 간석동 388-30'},</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C6" t="s">
+        <v>762</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>766</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="H6" t="str">
+        <v>770</v>
+      </c>
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>{name:['경인종합상가 결합부스'],addr:'인천광역시 미추홀구 경인로 392',x:'927784.8569973619',y:'1940188.3494468476',jibun:'인천광역시 미추홀구 주안동 431-1 경인상가'},</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C7" t="s">
         <v>206</v>
@@ -8280,17 +8698,14 @@
         <v>392</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="H7" t="str">
+        <v>771</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>{name:['고잔엘아이점G','남동국가365'],addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442',jibun:'인천광역시 남동구 고잔동 736-4'},</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -8304,17 +8719,14 @@
         <v>700</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="H8" t="str">
+        <v>772</v>
+      </c>
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>{name:['고잔중앙점G'],addr:'인천광역시 남동구 앵고개로 712',x:'930676.6785130233',y:'1932416.9426641734',jibun:'인천광역시 남동구 고잔동 349-3 석준빌딩'},</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -8328,17 +8740,14 @@
         <v>368</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="H9" t="str">
+        <v>773</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>{name:['남구숭의점G'],addr:'인천광역시 미추홀구 독배로 438',x:'924751.8764202176',y:'1940279.1432027267',jibun:'인천광역시 미추홀구 숭의동 283-11'},</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -8352,17 +8761,14 @@
         <v>643</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="H10" t="str">
+        <v>774</v>
+      </c>
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>{name:['남동논현점G'],addr:'인천광역시 남동구 앵고개로815번길 20',x:'931356.6721433003',y:'1933189.4978637807',jibun:'인천광역시 남동구 논현동 740-2 소래휴먼시아3단지 상가비동'},</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -8376,17 +8782,14 @@
         <v>590</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="H11" t="str">
+        <v>775</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>{name:['남촌중앙점G'],addr:'인천광역시 남동구 남촌로84번길 38-1',x:'930709.9029618322',y:'1936926.6012936095',jibun:'인천광역시 남동구 남촌동 649'},</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -8400,17 +8803,14 @@
         <v>598</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="H12" t="str">
+        <v>776</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>{name:['남촌풍림점G'],addr:'인천광역시 남동구 남촌로 87',x:'930519.5241960534',y:'1936924.5501427501',jibun:'인천광역시 남동구 남촌동 266-4'},</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -8424,17 +8824,14 @@
         <v>699</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="H13" t="str">
+        <v>777</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>{name:['논현9단지점G'],addr:'인천광역시 남동구 에코중앙로 96',x:'931082.9144479546',y:'1932299.9763963223',jibun:'인천광역시 남동구 논현동 766-1 에코메트로9단지한화꿈에그린아파트'},</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -8448,17 +8845,14 @@
         <v>612</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="H14" t="str">
+        <v>778</v>
+      </c>
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>{name:['논현그린점G'],addr:'인천광역시 남동구 소래역남로 41',x:'932050.8703605854',y:'1933616.1930220574',jibun:'인천광역시 남동구 논현동 755-1 에코메트로5단지상가'},</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -8472,22 +8866,19 @@
         <v>624</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="H15" t="str">
+        <v>779</v>
+      </c>
+      <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v>{name:['논현논곡점G'],addr:'인천광역시 남동구 은봉로165번길 70',x:'930117.4696603667',y:'1934690.2941433568',jibun:'인천광역시 남동구 논현동 579-8'},</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C16" t="s">
         <v>201</v>
@@ -8499,17 +8890,14 @@
         <v>387</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="H16" t="str">
+        <v>780</v>
+      </c>
+      <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>{name:['논현본점G','주공5단지상가(KEB하나은행365)'],addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222',jibun:'인천광역시 남동구 논현동 633-1 달맞이마을휴먼시아5단지 상가'},</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -8523,17 +8911,14 @@
         <v>610</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="H17" t="str">
+        <v>781</v>
+      </c>
+      <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>{name:['논현사리울점G'],addr:'인천광역시 남동구 호구포로 294',x:'930380.131301852',y:'1934682.26347306',jibun:'인천광역시 남동구 논현동 564-1 논현주공1단지아파트'},</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -8547,17 +8932,14 @@
         <v>388</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="H18" t="str">
+        <v>782</v>
+      </c>
+      <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>{name:['논현타워점G'],addr:'인천광역시 남동구 논고개로 101',x:'931351.6498332566',y:'1933713.8792295498',jibun:'인천광역시 남동구 논현동 649-3 아름다운타워'},</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -8571,17 +8953,14 @@
         <v>395</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H19" t="str">
+        <v>783</v>
+      </c>
+      <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v>{name:['논현푸르내점G'],addr:'인천광역시 남동구 포구로 96',x:'932234.2407277152',y:'1934439.1704077376',jibun:'인천광역시 남동구 논현동 600-9 휴먼시아푸르내마을13단지 상가'},</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -8595,17 +8974,14 @@
         <v>591</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="H20" t="str">
+        <v>784</v>
+      </c>
+      <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>{name:['논현푸르지오점G'],addr:'인천광역시 남동구 남동서로236번길 30',x:'928769.7605027566',y:'1934796.3489991403',jibun:'인천광역시 남동구 논현동 448 논현2차푸르지오시티'},</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -8619,17 +8995,14 @@
         <v>676</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="H21" t="str">
+        <v>785</v>
+      </c>
+      <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v>{name:['논현하늘소점G'],addr:'인천광역시 남동구 논현로 17',x:'929976.1893208527',y:'1934125.684656498',jibun:'인천광역시 남동구 논현동 643-1 범마을휴먼시아2단지 상가'},</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -8643,17 +9016,14 @@
         <v>645</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="H22" t="str">
+        <v>786</v>
+      </c>
+      <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>{name:['논현행복점G'],addr:'인천광역시 남동구 논현로 152',x:'931221.0594972067',y:'1934106.1328947735',jibun:'인천광역시 남동구 논현동 619-18'},</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -8667,17 +9037,14 @@
         <v>611</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="H23" t="str">
+        <v>787</v>
+      </c>
+      <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v>{name:['논현현대식자재마트'],addr:'인천광역시 남동구 포구로 69',x:'932397.976608831',y:'1934223.199099741',jibun:'인천광역시 남동구 논현동 109-40'},</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -8691,17 +9058,14 @@
         <v>642</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="H24" t="str">
+        <v>788</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v>{name:['논현호구포점G'],addr:'인천광역시 남동구 호구포로 209',x:'929995.2392286886',y:'1933932.6975875972',jibun:'인천광역시 남동구 논현동 647-6 호텔라르시티'},</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -8715,17 +9079,14 @@
         <v>657</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="H25" t="str">
+        <v>789</v>
+      </c>
+      <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v>{name:['도림벽산점G'],addr:'인천광역시 남동구 도림로 5-1',x:'931800.7220110968',y:'1935999.2065084004',jibun:'인천광역시 남동구 도림동 655-5'},</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -8739,17 +9100,14 @@
         <v>675</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="H26" t="str">
+        <v>790</v>
+      </c>
+      <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v>{name:['도림아이파크점G'],addr:'인천광역시 남동구 도리미로 8',x:'931913.8111496232',y:'1936148.2539673',jibun:'인천광역시 남동구 도림동 651-1 현대아이파크아파트'},</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -8763,17 +9121,14 @@
         <v>715</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="H27" t="str">
+        <v>791</v>
+      </c>
+      <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v>{name:['도화 길목G'],addr:'인천광역시 미추홀구 한나루로586번길 46',x:'926983.470680593',y:'1940180.8585922741',jibun:'인천광역시 미추홀구 도화동 456-5'},</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -8787,17 +9142,14 @@
         <v>377</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="H28" t="str">
+        <v>792</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v>{name:['도화진주점G'],addr:'인천광역시 미추홀구 석정로323번길 43',x:'926556.1723330859',y:'1941432.2902734857',jibun:'인천광역시 미추홀구 도화동 107-1'},</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -8811,17 +9163,14 @@
         <v>672</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="H29" t="str">
+        <v>793</v>
+      </c>
+      <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v>{name:['도화팰리스점G'],addr:'인천광역시 미추홀구 경인로 301',x:'926987.0691978035',y:'1940461.0685464954',jibun:'인천광역시 미추홀구 도화동 389-13 주영팰리스'},</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -8835,17 +9184,14 @@
         <v>580</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="H30" t="str">
+        <v>794</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v>{name:['동춘서해점G'],addr:'인천광역시 연수구 봉재산로 20',x:'926197.1109902868',y:'1934885.043063439',jibun:'인천광역시 연수구 동춘동 0 연수 서해그랑블 1단지'},</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -8859,17 +9205,14 @@
         <v>582</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="H31" t="str">
+        <v>795</v>
+      </c>
+      <c r="G31" t="str">
         <f t="shared" si="0"/>
         <v>{name:['동춘풍림점G'],addr:'인천광역시 연수구 경원대로119번길 21',x:'926969.1834998771',y:'1933933.1206172006',jibun:'인천광역시 연수구 동춘동 929 연수2차풍림아파트'},</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -8883,41 +9226,35 @@
         <v>391</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="H32" t="str">
+        <v>796</v>
+      </c>
+      <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v>{name:['마스터뷰21호점G'],addr:'인천광역시 연수구 컨벤시아대로274번길 55',x:'922947.2055729781',y:'1932085.0274891593',jibun:'인천광역시 연수구 송도동 110 송도 더샵 마스터뷰 21BL'},</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C33" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="H33" t="str">
+        <v>797</v>
+      </c>
+      <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v>{name:['만도로브제'],addr:'인천광역시 연수구 첨단대로60번길 75',x:'924604.9640742338',y:'1929694.2852085028',jibun:'인천광역시 연수구 송도동 217-1 만도브로제공장'},</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>727</v>
       </c>
@@ -8931,17 +9268,14 @@
         <v>737</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="H34" t="str">
+        <v>798</v>
+      </c>
+      <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v>{name:['만도헬라일렉트로닉스(주)-WOORI'],addr:'인천광역시 연수구 하모니로 224',x:'923721.6646240482',y:'1931399.019956504',jibun:'인천광역시 연수구 송도동 10-42 MHE송도공장'},</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -8955,17 +9289,14 @@
         <v>684</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="H35" t="str">
+        <v>799</v>
+      </c>
+      <c r="G35" t="str">
         <f t="shared" si="0"/>
         <v>{name:['만수숭의점G'],addr:'인천광역시 남동구 구월말로58번길 1',x:'931460.6338070568',y:'1939723.2555402233',jibun:'인천광역시 남동구 만수동 913-4'},</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -8982,17 +9313,14 @@
         <v>668</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="H36" t="str">
+        <v>800</v>
+      </c>
+      <c r="G36" t="str">
         <f t="shared" si="0"/>
         <v>{name:['메리빌리아-송도','송도트리플점G'],addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588',jibun:'인천광역시 연수구 송도동 170-1 송도 트리플스트리트'},</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -9006,17 +9334,14 @@
         <v>605</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="H37" t="str">
+        <v>801</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v>{name:['무지개할인마트'],addr:'인천광역시 연수구 새말로36번길 11',x:'926976.9262094533',y:'1936160.6680197665',jibun:'인천광역시 연수구 연수동 559'},</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -9030,17 +9355,14 @@
         <v>599</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="H38" t="str">
+        <v>802</v>
+      </c>
+      <c r="G38" t="str">
         <f t="shared" si="0"/>
         <v>{name:['미니24-인천'],addr:'인천광역시 미추홀구 경인로 437',x:'928246.1295577467',y:'1940192.399497855',jibun:'인천광역시 미추홀구 주안동 1005-10'},</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>725</v>
       </c>
@@ -9054,17 +9376,14 @@
         <v>746</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="H39" t="str">
+        <v>803</v>
+      </c>
+      <c r="G39" t="str">
         <f t="shared" si="0"/>
         <v>{name:['미추홀타워점G'],addr:'인천광역시 연수구 갯벌로 12',x:'925064.2345959987',y:'1931830.2383670015',jibun:'인천광역시 연수구 송도동 7-50 미추홀타워 별관A동'},</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -9078,17 +9397,14 @@
         <v>594</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="H40" t="str">
+        <v>804</v>
+      </c>
+      <c r="G40" t="str">
         <f t="shared" si="0"/>
         <v>{name:['보금마트-연수'],addr:'인천광역시 연수구 함박로25번길 2',x:'927463.1199536233',y:'1936627.06679082',jibun:'인천광역시 연수구 연수동 496-11'},</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -9102,17 +9418,14 @@
         <v>384</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="H41" t="str">
+        <v>805</v>
+      </c>
+      <c r="G41" t="str">
         <f t="shared" si="0"/>
         <v>{name:['서구검단고점G'],addr:'인천광역시 서구 검단로 532',x:'926110.4926230235',y:'1956373.3558248538',jibun:'인천광역시 서구 마전동 988-7 신한빌딩'},</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -9126,17 +9439,14 @@
         <v>372</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="H42" t="str">
+        <v>806</v>
+      </c>
+      <c r="G42" t="str">
         <f t="shared" si="0"/>
         <v>{name:['서구엠파크점G'],addr:'인천광역시 서구 염곡로 52',x:'926244.9221541481',y:'1943755.5184864542',jibun:'인천광역시 서구 가좌동 150-19 엠파크 허브'},</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -9150,17 +9460,14 @@
         <v>382</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="H43" t="str">
+        <v>807</v>
+      </c>
+      <c r="G43" t="str">
         <f t="shared" si="0"/>
         <v>{name:['서구연희점G'],addr:'인천광역시 서구 간촌로 9',x:'927388.9430976734',y:'1950308.0950684836',jibun:'인천광역시 서구 연희동 708-6'},</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -9174,17 +9481,14 @@
         <v>603</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="H44" t="str">
+        <v>808</v>
+      </c>
+      <c r="G44" t="str">
         <f t="shared" si="0"/>
         <v>{name:['선학역점M'],addr:'인천광역시 연수구 학나래로118번길 23',x:'929081.3471575531',y:'1936767.7973411446',jibun:'인천광역시 연수구 선학동 406 진승빌딩'},</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -9198,17 +9502,14 @@
         <v>710</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="H45" t="str">
+        <v>809</v>
+      </c>
+      <c r="G45" t="str">
         <f t="shared" si="0"/>
         <v>{name:['선학중앙G'],addr:'인천광역시 연수구 학나래로6번길 32',x:'929030.9872679301',y:'1936439.7252242365',jibun:'인천광역시 연수구 선학동 407-10'},</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -9222,17 +9523,14 @@
         <v>597</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="H46" t="str">
+        <v>810</v>
+      </c>
+      <c r="G46" t="str">
         <f t="shared" si="0"/>
         <v>{name:['세븐일레븐-인천간석역점'],addr:'인천광역시 남동구 석산로 3',x:'928759.3617110967',y:'1940883.321277853',jibun:'인천광역시 남동구 간석동 394-3 의성프라자'},</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -9246,17 +9544,14 @@
         <v>620</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="H47" t="str">
+        <v>811</v>
+      </c>
+      <c r="G47" t="str">
         <f t="shared" si="0"/>
         <v>{name:['셀트리온 제2공장 3층WOORI'],addr:'인천광역시 연수구 아카데미로51번길 20',x:'923862.253035788',y:'1930721.5154832513',jibun:'인천광역시 연수구 송도동 13-1 셀트리온'},</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -9270,17 +9565,14 @@
         <v>674</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="H48" t="str">
+        <v>812</v>
+      </c>
+      <c r="G48" t="str">
         <f t="shared" si="0"/>
         <v>{name:['소래베스트점G'],addr:'인천광역시 남동구 소래역로 20',x:'932409.8016257668',y:'1933619.6491731368',jibun:'인천광역시 남동구 논현동 679-3'},</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -9294,17 +9586,14 @@
         <v>576</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="H49" t="str">
+        <v>813</v>
+      </c>
+      <c r="G49" t="str">
         <f t="shared" si="0"/>
         <v>{name:['소래시티점G'],addr:'인천광역시 남동구 포구로 35',x:'932559.6363396579',y:'1933938.546323114',jibun:'인천광역시 남동구 논현동 66-24 유호엔시티1단지'},</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -9318,17 +9607,14 @@
         <v>656</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="H50" t="str">
+        <v>814</v>
+      </c>
+      <c r="G50" t="str">
         <f t="shared" si="0"/>
         <v>{name:['소래중앙점G'],addr:'인천광역시 남동구 소래역로18번길 15',x:'932472.0993263312',y:'1933643.4917039908',jibun:'인천광역시 남동구 논현동 678-5 중앙주차타워'},</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -9342,17 +9628,14 @@
         <v>673</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="H51" t="str">
+        <v>815</v>
+      </c>
+      <c r="G51" t="str">
         <f t="shared" si="0"/>
         <v>{name:['소래포구점G'],addr:'인천광역시 남동구 장도로 85',x:'932594.8315246161',y:'1933497.9901714372',jibun:'인천광역시 남동구 논현동 111-79'},</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -9366,17 +9649,14 @@
         <v>654</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="H52" t="str">
+        <v>816</v>
+      </c>
+      <c r="G52" t="str">
         <f t="shared" si="0"/>
         <v>{name:['소래풍림점G'],addr:'인천광역시 남동구 포구로 64-29',x:'932494.2900207366',y:'1934308.7269807002',jibun:'인천광역시 남동구 논현동 66-39'},</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>350</v>
       </c>
@@ -9390,17 +9670,14 @@
         <v>717</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="H53" t="str">
+        <v>817</v>
+      </c>
+      <c r="G53" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도 라이크홈기숙사-KEB하나'],addr:'인천광역시 연수구 첨단대로 80',x:'925077.5744217939',y:'1930163.4990456211',jibun:'인천광역시 연수구 송도동 207-3 레지던스 라이크홈'},</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>728</v>
       </c>
@@ -9417,17 +9694,14 @@
         <v>695</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="H54" t="str">
+        <v>818</v>
+      </c>
+      <c r="G54" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도 에듀포레푸르지오','에듀포레점G'],addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713',jibun:'인천광역시 연수구 송도동 191-4 송도 에듀포레 푸르지오'},</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -9441,17 +9715,14 @@
         <v>578</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="H55" t="str">
+        <v>819</v>
+      </c>
+      <c r="G55" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도그림워크점GSS'],addr:'인천광역시 연수구 아트센터대로97번길 15',x:'923949.5984413391',y:'1933886.2199624083',jibun:'인천광역시 연수구 송도동 17-3 더샵 그린워크2차'},</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -9465,17 +9736,14 @@
         <v>701</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="H56" t="str">
+        <v>820</v>
+      </c>
+      <c r="G56" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도더샵엑스포KB'],addr:'인천광역시 연수구 컨벤시아대로42번길 95',x:'924238.7160272836',y:'1934178.4920383645',jibun:'인천광역시 연수구 송도동 16-4 더샵 엑스포'},</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -9489,17 +9757,14 @@
         <v>636</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="H57" t="str">
+        <v>821</v>
+      </c>
+      <c r="G57" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도더샵점G'],addr:'인천광역시 연수구 아트센터대로97번길 75',x:'924389.3127429485',y:'1933490.9978888235',jibun:'인천광역시 연수구 송도동 17-5 송도 더샵 하버뷰 13단지'},</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -9513,17 +9778,14 @@
         <v>609</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="H58" t="str">
+        <v>822</v>
+      </c>
+      <c r="G58" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도라마다점G'],addr:'인천광역시 연수구 능허대로267번길 29',x:'925239.3006682626',y:'1935277.2973558633',jibun:'인천광역시 연수구 동춘동 812-1 라마다송도호텔'},</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -9537,17 +9799,14 @@
         <v>634</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="H59" t="str">
+        <v>823</v>
+      </c>
+      <c r="G59" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도메디점G'],addr:'인천광역시 연수구 컨벤시아대로130번길 14',x:'924308.0890260204',y:'1932993.4899920663',jibun:'인천광역시 연수구 송도동 22-19 송도 메디컬타워'},</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>171</v>
       </c>
@@ -9561,17 +9820,14 @@
         <v>703</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="H60" t="str">
+        <v>824</v>
+      </c>
+      <c r="G60" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도성지점G'],addr:'인천광역시 연수구 신송로6번길 7',x:'925894.2303461249',y:'1932625.2375938715',jibun:'인천광역시 연수구 송도동 2-12 송도 성지리벨루스'},</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>162</v>
       </c>
@@ -9588,17 +9844,14 @@
         <v>694</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="H61" t="str">
+        <v>825</v>
+      </c>
+      <c r="G61" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도센트럴점M','송도푸르지오시티점G'],addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754',jibun:'인천광역시 연수구 송도동 83 송도 센트럴파크 푸르지오시티'},</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -9612,17 +9865,14 @@
         <v>584</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="H62" t="str">
+        <v>826</v>
+      </c>
+      <c r="G62" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도센트럴파크호텔'],addr:'인천광역시 연수구 테크노파크로 193',x:'923641.9774963101',y:'1932732.2588121234',jibun:'인천광역시 연수구 송도동 38 송도센트럴파크호텔'},</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -9636,17 +9886,14 @@
         <v>586</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="H63" t="str">
+        <v>827</v>
+      </c>
+      <c r="G63" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도스마트밸리점G'],addr:'인천광역시 연수구 송도미래로 30',x:'924568.090254779',y:'1930236.501307576',jibun:'인천광역시 연수구 송도동 214 송도 BRC 스마트밸리 지식산업센터'},</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -9660,17 +9907,14 @@
         <v>604</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="H64" t="str">
+        <v>828</v>
+      </c>
+      <c r="G64" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도월드마크점M'],addr:'인천광역시 연수구 컨벤시아대로 60',x:'924851.1126633752',y:'1933442.4269422777',jibun:'인천광역시 연수구 송도동 20-23 푸르지오월드마크'},</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -9684,17 +9928,14 @@
         <v>596</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="H65" t="str">
+        <v>829</v>
+      </c>
+      <c r="G65" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도유원지점G'],addr:'인천광역시 연수구 능허대로 203',x:'924862.0970530566',y:'1935734.32011165',jibun:'인천광역시 연수구 옥련동 550-7'},</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -9708,17 +9949,14 @@
         <v>662</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="H66" t="str">
+        <v>830</v>
+      </c>
+      <c r="G66" t="str">
         <f t="shared" si="0"/>
         <v>{name:['송도점-GSS'],addr:'인천광역시 연수구 해돋이로 107',x:'924778.2391112824',y:'1932822.1059526857',jibun:'인천광역시 연수구 송도동 4-1 송도 더샵 퍼스트월드'},</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -9732,17 +9970,14 @@
         <v>637</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" ref="H67:H130" si="1">"{name:" &amp; "['"&amp;A67&amp;"'"&amp;IF(ISBLANK(B67),"",",'"&amp;B67&amp;"'")&amp;"],addr:" &amp; "'" &amp;C67&amp;"',x:"&amp; "'" &amp;D67&amp;"',y:"&amp; "'" &amp;E67&amp;"',jibun:"&amp; "'" &amp;G67&amp;"'},"</f>
+        <v>831</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G130" si="1">"{name:" &amp; "['"&amp;A67&amp;"'"&amp;IF(ISBLANK(B67),"",",'"&amp;B67&amp;"'")&amp;"],addr:" &amp; "'" &amp;C67&amp;"',x:"&amp; "'" &amp;D67&amp;"',y:"&amp; "'" &amp;E67&amp;"',jibun:"&amp; "'" &amp;F67&amp;"'},"</f>
         <v>{name:['송도커넬워크점G'],addr:'인천광역시 연수구 아트센터대로 107',x:'923751.8781831791',y:'1933894.0553808152',jibun:'인천광역시 연수구 송도동 18-1 커낼워크D3 AUTUMN'},</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -9756,17 +9991,14 @@
         <v>669</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="H68" t="str">
+        <v>832</v>
+      </c>
+      <c r="G68" t="str">
         <f t="shared" si="1"/>
         <v>{name:['송도테크노파크IT센터SHINHAN'],addr:'인천광역시 연수구 송도과학로 32',x:'925841.3207283262',y:'1931743.5380926528',jibun:'인천광역시 연수구 송도동 172-1 송도테크노파크IT센터'},</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>159</v>
       </c>
@@ -9780,17 +10012,14 @@
         <v>691</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="H69" t="str">
+        <v>833</v>
+      </c>
+      <c r="G69" t="str">
         <f t="shared" si="1"/>
         <v>{name:['송도파크호텔WOORI'],addr:'인천광역시 연수구 테크노파크로 151',x:'923940.5490371233',y:'1932461.3960087532',jibun:'인천광역시 연수구 송도동 93-1 오라카이송도파크호텔'},</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -9804,17 +10033,14 @@
         <v>628</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="H70" t="str">
+        <v>834</v>
+      </c>
+      <c r="G70" t="str">
         <f t="shared" si="1"/>
         <v>{name:['송도하모니점G'],addr:'인천광역시 연수구 하모니로 124',x:'924325.4107504063',y:'1932184.2251096321',jibun:'인천광역시 연수구 송도동 8-19'},</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -9828,17 +10054,14 @@
         <v>619</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="H71" t="str">
+        <v>835</v>
+      </c>
+      <c r="G71" t="str">
         <f t="shared" si="1"/>
         <v>{name:['송도해송점G'],addr:'인천광역시 연수구 해송로30번길 19',x:'924385.1257843729',y:'1931691.8597509419',jibun:'인천광역시 연수구 송도동 9-6 웰카운티송도3단지'},</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -9852,17 +10075,14 @@
         <v>600</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="H72" t="str">
+        <v>836</v>
+      </c>
+      <c r="G72" t="str">
         <f t="shared" si="1"/>
         <v>{name:['송도현대점G'],addr:'인천광역시 연수구 해돋이로6번길 7',x:'925627.0584128611',y:'1932281.0568902749',jibun:'인천광역시 연수구 송도동 3-46 아이파크송도'},</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -9876,17 +10096,14 @@
         <v>577</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="H73" t="str">
+        <v>837</v>
+      </c>
+      <c r="G73" t="str">
         <f t="shared" si="1"/>
         <v>{name:['송도힐스점G'],addr:'인천광역시 연수구 컨벤시아대로 90',x:'924647.7513800692',y:'1933202.8066080627',jibun:'인천광역시 연수구 송도동 21-64 인천송도힐스테이트'},</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -9900,17 +10117,14 @@
         <v>376</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="H74" t="str">
+        <v>838</v>
+      </c>
+      <c r="G74" t="str">
         <f t="shared" si="1"/>
         <v>{name:['숭의길목점G'],addr:'인천광역시 미추홀구 수봉안길 16',x:'925635.7302395517',y:'1940618.206504576',jibun:'인천광역시 미추홀구 숭의동 7-129'},</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -9924,17 +10138,14 @@
         <v>687</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="H75" t="str">
+        <v>839</v>
+      </c>
+      <c r="G75" t="str">
         <f t="shared" si="1"/>
         <v>{name:['시흥신창점G'],addr:'경기도 시흥시 신천4길 12',x:'936418.8711248166',y:'1937926.4969950966',jibun:'경기도 시흥시 신천동 380-14'},</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -9948,17 +10159,14 @@
         <v>623</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="H76" t="str">
+        <v>840</v>
+      </c>
+      <c r="G76" t="str">
         <f t="shared" si="1"/>
         <v>{name:['신기사거리점G'],addr:'인천광역시 미추홀구 미추홀대로 610',x:'927475.7843919608',y:'1939483.3085580925',jibun:'인천광역시 미추홀구 주안동 1469-1'},</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -9972,17 +10180,14 @@
         <v>690</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="H77" t="str">
+        <v>841</v>
+      </c>
+      <c r="G77" t="str">
         <f t="shared" si="1"/>
         <v>{name:['신천동국민은행 결합부스'],addr:'경기도 시흥시 수인로 3372',x:'936693.2910999567',y:'1938235.12572021',jibun:'경기도 시흥시 신천동 712-9 신천프라자'},</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -9996,17 +10201,14 @@
         <v>629</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="H78" t="str">
+        <v>842</v>
+      </c>
+      <c r="G78" t="str">
         <f t="shared" si="1"/>
         <v>{name:['아크리아점G'],addr:'인천광역시 연수구 신송로125번길 13',x:'924866.6899020134',y:'1933167.18251291',jibun:'인천광역시 연수구 송도동 3-6 아크리아'},</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -10020,17 +10222,14 @@
         <v>373</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="H79" t="str">
+        <v>843</v>
+      </c>
+      <c r="G79" t="str">
         <f t="shared" si="1"/>
         <v>{name:['엠파크타워점G'],addr:'인천광역시 서구 봉수대로 158',x:'925983.41854599',y:'1943696.0707750432',jibun:'인천광역시 서구 가좌동 178-105 엠파크타워'},</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -10044,17 +10243,14 @@
         <v>709</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="H80" t="str">
+        <v>844</v>
+      </c>
+      <c r="G80" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수경원G'],addr:'인천광역시 연수구 경원대로467번길 13',x:'929009.7022006633',y:'1936610.8085542968',jibun:'인천광역시 연수구 선학동 405-13 명빌딩'},</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -10068,17 +10264,14 @@
         <v>627</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="H81" t="str">
+        <v>845</v>
+      </c>
+      <c r="G81" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수골드점G'],addr:'인천광역시 연수구 함박로 80',x:'927980.0656931633',y:'1936544.17710579',jibun:'인천광역시 연수구 연수동 522-6'},</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -10092,17 +10285,14 @@
         <v>394</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="H82" t="str">
+        <v>846</v>
+      </c>
+      <c r="G82" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수단비점G'],addr:'인천광역시 연수구 청능대로113번길 43',x:'927274.7641431501',y:'1935327.7588821636',jibun:'인천광역시 연수구 연수동 598-2 동순빌딩'},</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -10116,17 +10306,14 @@
         <v>575</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="H83" t="str">
+        <v>847</v>
+      </c>
+      <c r="G83" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수선학점G'],addr:'인천광역시 연수구 넘말로29번길 21',x:'928915.90151959',y:'1936891.1488486365',jibun:'인천광역시 연수구 선학동 398-2'},</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -10140,17 +10327,14 @@
         <v>640</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="H84" t="str">
+        <v>848</v>
+      </c>
+      <c r="G84" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수장례식장 인천내부'],addr:'인천광역시 연수구 벚꽃로 122',x:'927335.7894045769',y:'1935611.3385808035',jibun:'인천광역시 연수구 연수동 592-5 연수동장례식장'},</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -10164,17 +10348,14 @@
         <v>638</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="H85" t="str">
+        <v>849</v>
+      </c>
+      <c r="G85" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수점G'],addr:'인천광역시 연수구 새말로46번길 4',x:'927054.4397459901',y:'1936127.9562478536',jibun:'인천광역시 연수구 연수동 558-5'},</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -10188,17 +10369,14 @@
         <v>639</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="H86" t="str">
+        <v>850</v>
+      </c>
+      <c r="G86" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수점M'],addr:'인천광역시 연수구 비류대로 230',x:'925700.9976564867',y:'1936753.3900593636',jibun:'인천광역시 연수구 옥련동 319-6 영남아파트상가'},</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>164</v>
       </c>
@@ -10212,17 +10390,14 @@
         <v>696</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="H87" t="str">
+        <v>851</v>
+      </c>
+      <c r="G87" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수중앙점G'],addr:'인천광역시 연수구 새말로69번길 1',x:'927230.4884649334',y:'1935967.4642858398',jibun:'인천광역시 연수구 연수동 550-8'},</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>49</v>
       </c>
@@ -10236,17 +10411,14 @@
         <v>581</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="H88" t="str">
+        <v>852</v>
+      </c>
+      <c r="G88" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수청학점M'],addr:'인천광역시 연수구 먼우금로 197',x:'927097.7779245968',y:'1935413.5243354505',jibun:'인천광역시 연수구 청학동 503-1 이리옴프라자'},</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>138</v>
       </c>
@@ -10260,17 +10432,14 @@
         <v>670</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="H89" t="str">
+        <v>853</v>
+      </c>
+      <c r="G89" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수타운점G'],addr:'인천광역시 연수구 샘말로21번길 3',x:'927277.5510110233',y:'1935141.1890938403',jibun:'인천광역시 연수구 연수동 602-3'},</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -10284,17 +10453,14 @@
         <v>607</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="H90" t="str">
+        <v>854</v>
+      </c>
+      <c r="G90" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수태산점G'],addr:'인천광역시 연수구 먼우금로264번길 8-4',x:'927477.3679526933',y:'1935944.299351547',jibun:'인천광역시 연수구 연수동 575-1'},</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -10308,17 +10474,14 @@
         <v>693</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="H91" t="str">
+        <v>855</v>
+      </c>
+      <c r="G91" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수파크타운점M'],addr:'인천광역시 연수구 용담로 115',x:'927244.231129833',y:'1935426.1714365287',jibun:'인천광역시 연수구 연수동 596-7 파크타워'},</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -10332,17 +10495,14 @@
         <v>663</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="H92" t="str">
+        <v>856</v>
+      </c>
+      <c r="G92" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수함박점M'],addr:'인천광역시 연수구 함박뫼로50번길 93',x:'927263.5188448408',y:'1935872.3548643487',jibun:'인천광역시 연수구 연수동 568-15'},</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>170</v>
       </c>
@@ -10356,17 +10516,14 @@
         <v>702</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="H93" t="str">
+        <v>857</v>
+      </c>
+      <c r="G93" t="str">
         <f t="shared" si="1"/>
         <v>{name:['연수희망점G'],addr:'인천광역시 연수구 앵고개로 256',x:'926724.2878851034',y:'1934622.8657452334',jibun:'인천광역시 연수구 동춘동 936-5 웅지프라자'},</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>61</v>
       </c>
@@ -10380,17 +10537,14 @@
         <v>593</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="H94" t="str">
+        <v>858</v>
+      </c>
+      <c r="G94" t="str">
         <f t="shared" si="1"/>
         <v>{name:['영빌딩CITY'],addr:'인천광역시 미추홀구 인하로 253',x:'927138.1700531407',y:'1939133.3534303224',jibun:'인천광역시 미추홀구 주안동 1436-5 한국씨티은행'},</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -10404,17 +10558,14 @@
         <v>653</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="H95" t="str">
+        <v>859</v>
+      </c>
+      <c r="G95" t="str">
         <f t="shared" si="1"/>
         <v>{name:['옥련백산점G'],addr:'인천광역시 연수구 독배로 25',x:'924316.71718126',y:'1936330.9110739832',jibun:'인천광역시 연수구 옥련동 463-24'},</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -10428,17 +10579,14 @@
         <v>714</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="H96" t="str">
+        <v>860</v>
+      </c>
+      <c r="G96" t="str">
         <f t="shared" si="1"/>
         <v>{name:['옥련사거리G'],addr:'인천광역시 연수구 독배로 68',x:'924367.6668144872',y:'1936729.1735826507',jibun:'인천광역시 연수구 옥련동 199-3'},</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>181</v>
       </c>
@@ -10452,17 +10600,14 @@
         <v>713</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="H97" t="str">
+        <v>861</v>
+      </c>
+      <c r="G97" t="str">
         <f t="shared" si="1"/>
         <v>{name:['옥련사랑M'],addr:'인천광역시 연수구 한나루로 166',x:'925293.9163142969',y:'1936455.0597683867',jibun:'인천광역시 연수구 옥련동 352-30'},</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>134</v>
       </c>
@@ -10476,17 +10621,14 @@
         <v>666</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="H98" t="str">
+        <v>862</v>
+      </c>
+      <c r="G98" t="str">
         <f t="shared" si="1"/>
         <v>{name:['옥련서해점G'],addr:'인천광역시 연수구 청량로185번길 13',x:'924973.1474770068',y:'1936336.0367916236',jibun:'인천광역시 연수구 옥련동 423-1'},</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>180</v>
       </c>
@@ -10500,17 +10642,14 @@
         <v>712</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="H99" t="str">
+        <v>863</v>
+      </c>
+      <c r="G99" t="str">
         <f t="shared" si="1"/>
         <v>{name:['옥련쌍용G'],addr:'인천광역시 연수구 청량로184번길 48',x:'925182.9532054849',y:'1936549.0084032882',jibun:'인천광역시 연수구 옥련동 366-9'},</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>135</v>
       </c>
@@ -10524,17 +10663,14 @@
         <v>667</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="H100" t="str">
+        <v>864</v>
+      </c>
+      <c r="G100" t="str">
         <f t="shared" si="1"/>
         <v>{name:['옥련아주점G'],addr:'인천광역시 연수구 청량로 217',x:'925018.4765206832',y:'1936665.1654121173',jibun:'인천광역시 연수구 옥련동 253-1'},</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -10548,17 +10684,14 @@
         <v>652</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="H101" t="str">
+        <v>865</v>
+      </c>
+      <c r="G101" t="str">
         <f t="shared" si="1"/>
         <v>{name:['옥련우성점G'],addr:'인천광역시 연수구 독배로40번길 47',x:'924577.7008813033',y:'1936507.4463419202',jibun:'인천광역시 연수구 옥련동 462-20'},</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>132</v>
       </c>
@@ -10572,17 +10705,14 @@
         <v>664</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="H102" t="str">
+        <v>866</v>
+      </c>
+      <c r="G102" t="str">
         <f t="shared" si="1"/>
         <v>{name:['옥련풍림점G'],addr:'인천광역시 연수구 한나루로193번길 3',x:'925362.11812462',y:'1936699.7315103933',jibun:'인천광역시 연수구 옥련동 336-5'},</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -10596,17 +10726,14 @@
         <v>371</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="H103" t="str">
+        <v>867</v>
+      </c>
+      <c r="G103" t="str">
         <f t="shared" si="1"/>
         <v>{name:['월미분수대점G'],addr:'인천광역시 중구 월미문화로 57',x:'920135.501782795',y:'1941955.847831308',jibun:'인천광역시 중구 북성동1가 98-275'},</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -10620,17 +10747,14 @@
         <v>370</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="H104" t="str">
+        <v>868</v>
+      </c>
+      <c r="G104" t="str">
         <f t="shared" si="1"/>
         <v>{name:['월미중앙점G'],addr:'인천광역시 중구 월미문화로 65',x:'920108.2432266385',y:'1941888.865706168',jibun:'인천광역시 중구 북성동1가 98-61'},</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>76</v>
       </c>
@@ -10644,17 +10768,14 @@
         <v>608</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="H105" t="str">
+        <v>869</v>
+      </c>
+      <c r="G105" t="str">
         <f t="shared" si="1"/>
         <v>{name:['위드미-라마다송도점'],addr:'인천광역시 연수구 능허대로267번길 42',x:'925310.3928309134',y:'1935295.212755117',jibun:'인천광역시 연수구 동춘동 813'},</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -10668,17 +10789,14 @@
         <v>633</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="H106" t="str">
+        <v>870</v>
+      </c>
+      <c r="G106" t="str">
         <f t="shared" si="1"/>
         <v>{name:['유진로봇 송도사옥'],addr:'인천광역시 연수구 하모니로187번길 33',x:'924180.5928355344',y:'1931340.6668476937',jibun:'인천광역시 연수구 송도동 11-5 (주)유진로봇'},</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>154</v>
       </c>
@@ -10692,17 +10810,14 @@
         <v>686</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="H107" t="str">
+        <v>871</v>
+      </c>
+      <c r="G107" t="str">
         <f t="shared" si="1"/>
         <v>{name:['은계센트럴점G'],addr:'경기도 시흥시 은계중앙로 97',x:'938203.4013041602',y:'1938022.7406927734',jibun:'경기도 시흥시 은행동 38-7 은계센트럴타운'},</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>156</v>
       </c>
@@ -10716,17 +10831,14 @@
         <v>688</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="H108" t="str">
+        <v>872</v>
+      </c>
+      <c r="G108" t="str">
         <f t="shared" si="1"/>
         <v>{name:['은행동성원아파트 결합부스'],addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804',jibun:'경기도 시흥시 은행동 538-2 시흥성원아파트'},</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>157</v>
       </c>
@@ -10740,17 +10852,14 @@
         <v>689</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="H109" t="str">
+        <v>873</v>
+      </c>
+      <c r="G109" t="str">
         <f t="shared" si="1"/>
         <v>{name:['은행동약사 결합부스'],addr:'경기도 시흥시 은행로 8',x:'937498.2971942425',y:'1937334.1604390284',jibun:'경기도 시흥시 은행동 286-1 영진철물'},</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -10764,17 +10873,14 @@
         <v>681</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="H110" t="str">
+        <v>874</v>
+      </c>
+      <c r="G110" t="str">
         <f t="shared" si="1"/>
         <v>{name:['은혜의교회SH'],addr:'인천광역시 미추홀구 매소홀로 428',x:'926520.0805420987',y:'1938134.7043078174',jibun:'인천광역시 미추홀구 학익동 682-3 은혜교회'},</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -10788,17 +10894,14 @@
         <v>369</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="H111" t="str">
+        <v>875</v>
+      </c>
+      <c r="G111" t="str">
         <f t="shared" si="1"/>
         <v>{name:['이마트 동인천점SC'],addr:'인천광역시 중구 인중로 134',x:'922988.2656142102',y:'1941172.2637899336',jibun:'인천광역시 중구 신생동 38 동인천이마트'},</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -10812,17 +10915,14 @@
         <v>711</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="H112" t="str">
+        <v>876</v>
+      </c>
+      <c r="G112" t="str">
         <f t="shared" si="1"/>
         <v>{name:['이마트24 연수함박로'],addr:'인천광역시 연수구 함박로 36',x:'927543.317565355',y:'1936592.6575228586',jibun:'인천광역시 연수구 연수동 495-5'},</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -10836,19 +10936,16 @@
         <v>659</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="H113" t="str">
+        <v>877</v>
+      </c>
+      <c r="G113" t="str">
         <f t="shared" si="1"/>
         <v>{name:['이수엑사보드 인천공장'],addr:'인천광역시 남동구 남동서로270번길 54',x:'929093.4386579194',y:'1935045.5201349352',jibun:'인천광역시 남동구 논현동 429-3'},</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C114" t="s">
         <v>733</v>
@@ -10860,17 +10957,14 @@
         <v>744</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="H114" t="str">
+        <v>878</v>
+      </c>
+      <c r="G114" t="str">
         <f t="shared" si="1"/>
         <v>{name:['송도 컨벤시아'],addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082',jibun:'인천광역시 연수구 송도동 6-1 송도컨벤시아'},</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -10884,17 +10978,14 @@
         <v>374</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="H115" t="str">
+        <v>879</v>
+      </c>
+      <c r="G115" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천5공단파출소결합부스'],addr:'인천광역시 서구 가재울로 75',x:'927648.8596204547',y:'1942435.9377577854',jibun:'인천광역시 서구 가좌동 540-3'},</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -10908,17 +10999,14 @@
         <v>366</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="H116" t="str">
+        <v>880</v>
+      </c>
+      <c r="G116" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천경동점G'],addr:'인천광역시 중구 개항로 82',x:'923229.7654404601',y:'1941739.1997609003',jibun:'인천광역시 중구 경동 187-3 예지요양병원'},</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>89</v>
       </c>
@@ -10935,17 +11023,14 @@
         <v>621</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="H117" t="str">
+        <v>881</v>
+      </c>
+      <c r="G117" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천글로벌운영재단','한국뉴욕주립대학교 결합부스'],addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412',jibun:'인천광역시 연수구 송도동 187 인천글로벌캠퍼스'},</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>82</v>
       </c>
@@ -10959,17 +11044,14 @@
         <v>614</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="H118" t="str">
+        <v>882</v>
+      </c>
+      <c r="G118" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천남촌로점G'],addr:'인천광역시 남동구 남촌동로3번길 33',x:'930644.9199876767',y:'1937177.0833667233',jibun:'인천광역시 남동구 남촌동 332-9 시온교회'},</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>57</v>
       </c>
@@ -10983,17 +11065,14 @@
         <v>589</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="H119" t="str">
+        <v>883</v>
+      </c>
+      <c r="G119" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천논현광장점G'],addr:'인천광역시 남동구 논고개로123번길 35',x:'931147.5988134101',y:'1933884.31215839',jibun:'인천광역시 남동구 논현동 632-1 칼리오페'},</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -11007,17 +11086,14 @@
         <v>658</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="H120" t="str">
+        <v>884</v>
+      </c>
+      <c r="G120" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천논현사랑점G'],addr:'인천광역시 남동구 논고개로 166',x:'931299.0037734902',y:'1934371.8316615',jibun:'인천광역시 남동구 논현동 593-6'},</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -11031,17 +11107,14 @@
         <v>646</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="H121" t="str">
+        <v>885</v>
+      </c>
+      <c r="G121" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천논현역점G'],addr:'인천광역시 남동구 논고개로 121',x:'931299.4091969267',y:'1933928.8000814402',jibun:'인천광역시 남동구 논현동 631-11 에스닷몰'},</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -11055,17 +11128,14 @@
         <v>583</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="H122" t="str">
+        <v>886</v>
+      </c>
+      <c r="G122" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천논현점M'],addr:'인천광역시 남동구 논현로46번길 51',x:'930040.7558424668',y:'1933792.9459385104',jibun:'인천광역시 남동구 논현동 642-1 유승테라폴리스'},</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>93</v>
       </c>
@@ -11079,17 +11149,14 @@
         <v>625</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="H123" t="str">
+        <v>887</v>
+      </c>
+      <c r="G123" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천동아서점 결합부스'],addr:'인천광역시 미추홀구 경인로 386-1',x:'927733.8360022209',y:'1940187.0715722647',jibun:'인천광역시 미추홀구 주안동 431-32'},</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>160</v>
       </c>
@@ -11103,17 +11170,14 @@
         <v>692</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="H124" t="str">
+        <v>888</v>
+      </c>
+      <c r="G124" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천메카점M'],addr:'인천광역시 연수구 용담로125번길 41',x:'927422.4468487434',y:'1935499.65872847',jibun:'인천광역시 연수구 연수동 593-8 메카리움오피스텔'},</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>151</v>
       </c>
@@ -11127,17 +11191,14 @@
         <v>683</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="H125" t="str">
+        <v>889</v>
+      </c>
+      <c r="G125" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천벽산아파트 결합부스'],addr:'인천광역시 남동구 서판로 43',x:'931434.1630260036',y:'1940841.3205330772',jibun:'인천광역시 남동구 만수동 1114 기암유치원'},</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -11151,17 +11212,14 @@
         <v>617</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="H126" t="str">
+        <v>890</v>
+      </c>
+      <c r="G126" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천선학점G'],addr:'인천광역시 연수구 비류대로529번길 10',x:'928643.5051002635',y:'1936354.497053353',jibun:'인천광역시 연수구 선학동 369-15'},</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>94</v>
       </c>
@@ -11175,17 +11233,14 @@
         <v>626</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="H127" t="str">
+        <v>891</v>
+      </c>
+      <c r="G127" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천송도점G'],addr:'인천광역시 연수구 해돋이로84번길 29',x:'925166.2389731444',y:'1932929.6578389006',jibun:'인천광역시 연수구 송도동 3-13 송도풍림아이원3단지아파트'},</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -11199,17 +11254,14 @@
         <v>383</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="H128" t="str">
+        <v>892</v>
+      </c>
+      <c r="G128" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천신현쇼핑 결합부스'],addr:'인천광역시 서구 가정로 369',x:'926879.0843732902',y:'1946840.1810874036',jibun:'인천광역시 서구 신현동 272-1 서경 플러스 존'},</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>100</v>
       </c>
@@ -11223,41 +11275,35 @@
         <v>632</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="H129" t="str">
+        <v>893</v>
+      </c>
+      <c r="G129" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천옥련점M'],addr:'인천광역시 연수구 한나루로197번길 30',x:'925282.19116041',y:'1936827.8251766833',jibun:'인천광역시 연수구 옥련동 285-1 원준주택'},</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H130" t="str">
+        <v>1019</v>
+      </c>
+      <c r="G130" t="str">
         <f t="shared" si="1"/>
         <v>{name:['인천주안로점G'],addr:'인천광역시 미추홀구 주안로 152',x:'928081.6298600277',y:'1940786.0079571293',jibun:'인천광역시 미추홀구 주안동 50-3'},</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -11271,17 +11317,14 @@
         <v>682</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="H131" t="str">
-        <f t="shared" ref="H131:H194" si="2">"{name:" &amp; "['"&amp;A131&amp;"'"&amp;IF(ISBLANK(B131),"",",'"&amp;B131&amp;"'")&amp;"],addr:" &amp; "'" &amp;C131&amp;"',x:"&amp; "'" &amp;D131&amp;"',y:"&amp; "'" &amp;E131&amp;"',jibun:"&amp; "'" &amp;G131&amp;"'},"</f>
+        <v>894</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G194" si="2">"{name:" &amp; "['"&amp;A131&amp;"'"&amp;IF(ISBLANK(B131),"",",'"&amp;B131&amp;"'")&amp;"],addr:" &amp; "'" &amp;C131&amp;"',x:"&amp; "'" &amp;D131&amp;"',y:"&amp; "'" &amp;E131&amp;"',jibun:"&amp; "'" &amp;F131&amp;"'},"</f>
         <v>{name:['인천터미널점M'],addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102',jibun:'인천광역시 남동구 구월동 1462-2 노빌리안 1'},</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>352</v>
       </c>
@@ -11295,17 +11338,14 @@
         <v>718</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="H132" t="str">
+        <v>895</v>
+      </c>
+      <c r="G132" t="str">
         <f t="shared" si="2"/>
         <v>{name:['인천해양경찰서-SH'],addr:'인천광역시 연수구 옥골로 69',x:'924748.3864360615',y:'1937246.7582861618',jibun:'인천광역시 연수구 옥련동 93 능허대중학교'},</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -11319,17 +11359,14 @@
         <v>613</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="H133" t="str">
+        <v>896</v>
+      </c>
+      <c r="G133" t="str">
         <f t="shared" si="2"/>
         <v>{name:['인천호구포역점M'],addr:'인천광역시 남동구 논현로26번길 12',x:'929979.51652928',y:'1934015.4848348568',jibun:'인천광역시 남동구 논현동 646-1 부티크 646'},</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>63</v>
       </c>
@@ -11343,17 +11380,14 @@
         <v>595</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="H134" t="str">
+        <v>897</v>
+      </c>
+      <c r="G134" t="str">
         <f t="shared" si="2"/>
         <v>{name:['자매슈퍼-연수'],addr:'인천광역시 연수구 함박로12번길 46',x:'927560.5282932345',y:'1936553.2454770715',jibun:'인천광역시 연수구 연수동 504'},</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -11367,17 +11401,14 @@
         <v>378</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="H135" t="str">
+        <v>898</v>
+      </c>
+      <c r="G135" t="str">
         <f t="shared" si="2"/>
         <v>{name:['제물포버스정류장 결합부스'],addr:'인천광역시 미추홀구 경인로 135',x:'925542.174751237',y:'1941140.5618504882',jibun:'인천광역시 미추홀구 도화동 648-15 해피타운'},</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>69</v>
       </c>
@@ -11391,17 +11422,14 @@
         <v>601</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="H136" t="str">
+        <v>899</v>
+      </c>
+      <c r="G136" t="str">
         <f t="shared" si="2"/>
         <v>{name:['제일슈퍼-인천'],addr:'인천광역시 연수구 함박안로156번길 6',x:'927773.0413744',y:'1936723.1742538',jibun:'인천광역시 연수구 연수동 516-8'},</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -11415,17 +11443,14 @@
         <v>705</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="H137" t="str">
+        <v>900</v>
+      </c>
+      <c r="G137" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안 보보G'],addr:'인천광역시 미추홀구 경인로425번길 14',x:'928155.8178139064',y:'1940251.613382046',jibun:'인천광역시 미추홀구 주안동 1004-3'},</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>174</v>
       </c>
@@ -11439,17 +11464,14 @@
         <v>706</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="H138" t="str">
+        <v>901</v>
+      </c>
+      <c r="G138" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안 신성G'],addr:'인천광역시 미추홀구 주안중로 28',x:'927733.3861476094',y:'1940496.9830620233',jibun:'인천광역시 미추홀구 주안동 86-5'},</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>116</v>
       </c>
@@ -11463,17 +11485,14 @@
         <v>648</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="H139" t="str">
+        <v>902</v>
+      </c>
+      <c r="G139" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안1동점G'],addr:'인천광역시 미추홀구 주안중로50번길 20',x:'927832.11701282',y:'1940714.3422219716',jibun:'인천광역시 미추홀구 주안동 104-8'},</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -11487,17 +11506,14 @@
         <v>367</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="H140" t="str">
+        <v>903</v>
+      </c>
+      <c r="G140" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안공단점G'],addr:'인천광역시 미추홀구 염전로 362',x:'927504.3446300412',y:'1941528.745698372',jibun:'인천광역시 미추홀구 주안동 16-1'},</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>98</v>
       </c>
@@ -11511,17 +11527,14 @@
         <v>630</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="H141" t="str">
+        <v>904</v>
+      </c>
+      <c r="G141" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안남부점M'],addr:'인천광역시 미추홀구 주안로104번길 15',x:'927600.294782457',y:'1940748.241028722',jibun:'인천광역시 미추홀구 주안동 138-5'},</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>117</v>
       </c>
@@ -11535,17 +11548,14 @@
         <v>649</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="H142" t="str">
+        <v>905</v>
+      </c>
+      <c r="G142" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안대로점G'],addr:'인천광역시 미추홀구 주안로 45',x:'927021.73843505',y:'1940904.6652424666',jibun:'인천광역시 미추홀구 주안동 478-50 희림상사㈜'},</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -11559,17 +11569,14 @@
         <v>678</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="H143" t="str">
+        <v>906</v>
+      </c>
+      <c r="G143" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안동경점G'],addr:'인천광역시 미추홀구 주안서로 53',x:'927285.2900126814',y:'1940792.0053177588',jibun:'인천광역시 미추홀구 주안동 272-1'},</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>747</v>
       </c>
@@ -11586,17 +11593,14 @@
         <v>704</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="H144" t="str">
+        <v>907</v>
+      </c>
+      <c r="G144" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안동궁전예식장 결합부스','주안으뜸점G'],addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243',jibun:'인천광역시 미추홀구 주안동 133-3 대동빌딩'},</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -11610,17 +11614,14 @@
         <v>677</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="H145" t="str">
+        <v>908</v>
+      </c>
+      <c r="G145" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안미래점M'],addr:'인천광역시 미추홀구 주안중로 13-1',x:'927698.3542673178',y:'1940367.9314235584',jibun:'인천광역시 미추홀구 주안동 179-10'},</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -11634,17 +11635,14 @@
         <v>679</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="H146" t="str">
+        <v>909</v>
+      </c>
+      <c r="G146" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안미소점G'],addr:'인천광역시 미추홀구 신기길30번길 37',x:'926981.776154774',y:'1938935.675808793',jibun:'인천광역시 미추홀구 주안동 856-3'},</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>36</v>
       </c>
@@ -11658,17 +11656,14 @@
         <v>389</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="H147" t="str">
+        <v>910</v>
+      </c>
+      <c r="G147" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안미추홀점G'],addr:'인천광역시 미추홀구 경인로 343',x:'927260.9079237133',y:'1940267.6733396333',jibun:'인천광역시 미추홀구 주안동 195-2'},</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -11682,17 +11677,14 @@
         <v>631</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="H148" t="str">
+        <v>911</v>
+      </c>
+      <c r="G148" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안본점M'],addr:'인천광역시 미추홀구 미추홀대로734번길 37',x:'927714.5775235672',y:'1940744.2295416128',jibun:'인천광역시 미추홀구 주안동 132-4'},</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>109</v>
       </c>
@@ -11706,17 +11698,14 @@
         <v>641</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="H149" t="str">
+        <v>912</v>
+      </c>
+      <c r="G149" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안사거리점G'],addr:'인천광역시 미추홀구 석바위로 61',x:'927476.9399430258',y:'1940520.5633123717',jibun:'인천광역시 미추홀구 주안동 210-13'},</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>86</v>
       </c>
@@ -11730,17 +11719,14 @@
         <v>618</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="H150" t="str">
+        <v>913</v>
+      </c>
+      <c r="G150" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안석바위점M'],addr:'인천광역시 미추홀구 석바위로 112',x:'927947.6847094274',y:'1940400.324138321',jibun:'인천광역시 미추홀구 주안동 271-22'},</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>166</v>
       </c>
@@ -11754,17 +11740,14 @@
         <v>698</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="H151" t="str">
+        <v>914</v>
+      </c>
+      <c r="G151" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안세일점G'],addr:'인천광역시 미추홀구 동주길 76',x:'927911.4083549832',y:'1939815.436123129',jibun:'인천광역시 미추홀구 주안동 386-6'},</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -11778,17 +11761,14 @@
         <v>716</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="H152" t="str">
+        <v>915</v>
+      </c>
+      <c r="G152" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안역삼거리 결합부스'],addr:'인천광역시 미추홀구 미추홀대로 741',x:'927492.7927790079',y:'1940802.0347208697',jibun:'인천광역시 미추홀구 주안동 227-35'},</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -11802,17 +11782,14 @@
         <v>365</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="H153" t="str">
+        <v>916</v>
+      </c>
+      <c r="G153" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안월드점G'],addr:'인천광역시 미추홀구 경인로485번길 33',x:'928577.0918325363',y:'1940491.9788272986',jibun:'인천광역시 미추홀구 주안동 922-11'},</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>139</v>
       </c>
@@ -11826,17 +11803,14 @@
         <v>671</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="H154" t="str">
+        <v>917</v>
+      </c>
+      <c r="G154" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안주공점G'],addr:'인천광역시 미추홀구 주안로 215',x:'928700.075495082',y:'1940788.8228662973',jibun:'인천광역시 미추홀구 주안동 49-11'},</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>148</v>
       </c>
@@ -11850,17 +11824,14 @@
         <v>680</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="H155" t="str">
+        <v>918</v>
+      </c>
+      <c r="G155" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안파크점G'],addr:'인천광역시 미추홀구 미추홀대로722번길 21-1',x:'927631.6564081493',y:'1940615.9256797591',jibun:'인천광역시 미추홀구 주안동 153-9 장원빌딩'},</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -11874,17 +11845,14 @@
         <v>685</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="H156" t="str">
+        <v>919</v>
+      </c>
+      <c r="G156" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안한신점G'],addr:'인천광역시 미추홀구 인하로352번길 10',x:'928112.3556398968',y:'1939019.7543626092',jibun:'인천광역시 미추홀구 주안동 1523-36'},</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>119</v>
       </c>
@@ -11898,17 +11866,14 @@
         <v>651</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="H157" t="str">
+        <v>920</v>
+      </c>
+      <c r="G157" t="str">
         <f t="shared" si="2"/>
         <v>{name:['주안행복점M'],addr:'인천광역시 미추홀구 석바위로53번길 3',x:'927366.0847729146',y:'1940514.0627141502',jibun:'인천광역시 미추홀구 주안동 216-2'},</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>55</v>
       </c>
@@ -11922,17 +11887,14 @@
         <v>587</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="H158" t="str">
+        <v>921</v>
+      </c>
+      <c r="G158" t="str">
         <f t="shared" si="2"/>
         <v>{name:['중부지방해양경찰청SH'],addr:'인천광역시 연수구 센트럴로 263',x:'923373.8316200967',y:'1933570.7668816056',jibun:'인천광역시 연수구 송도동 29-13 송도국제업무단지 C8-2블럭 업무복합시설'},</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>37</v>
       </c>
@@ -11946,17 +11908,14 @@
         <v>390</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="H159" t="str">
+        <v>922</v>
+      </c>
+      <c r="G159" t="str">
         <f t="shared" si="2"/>
         <v>{name:['중앙슈퍼-연수'],addr:'인천광역시 연수구 함박뫼로4번길 13-8',x:'926743.3556705897',y:'1935757.611946192',jibun:'인천광역시 연수구 청학동 477-7'},</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -11970,17 +11929,14 @@
         <v>385</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="H160" t="str">
+        <v>923</v>
+      </c>
+      <c r="G160" t="str">
         <f t="shared" si="2"/>
         <v>{name:['천일식품-고잔동'],addr:'인천광역시 남동구 앵고개로 426',x:'928102.1321792866',y:'1933636.4756072024',jibun:'인천광역시 남동구 고잔동 690-2'},</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -11994,17 +11950,14 @@
         <v>635</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="H161" t="str">
+        <v>924</v>
+      </c>
+      <c r="G161" t="str">
         <f t="shared" si="2"/>
         <v>{name:['청능공원점G'],addr:'인천광역시 연수구 청능말로7번길 20',x:'926506.0746164669',y:'1935665.4340851936',jibun:'인천광역시 연수구 청학동 461-1'},</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>28</v>
       </c>
@@ -12018,17 +11971,14 @@
         <v>381</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H162" t="str">
+        <v>925</v>
+      </c>
+      <c r="G162" t="str">
         <f t="shared" si="2"/>
         <v>{name:['청라리치아노점M'],addr:'인천광역시 서구 청라에메랄드로102번길 10',x:'925562.0452141722',y:'1948624.1122872476',jibun:'인천광역시 서구 청라동 167-1 청라리치아노'},</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -12042,17 +11992,14 @@
         <v>379</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="H163" t="str">
+        <v>926</v>
+      </c>
+      <c r="G163" t="str">
         <f t="shared" si="2"/>
         <v>{name:['청라에뜰점G'],addr:'인천광역시 서구 청라커낼로 300',x:'924457.963117328',y:'1948765.6387663502',jibun:'인천광역시 서구 청라동 156-1 청라센트럴에일린의뜰'},</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -12066,17 +12013,14 @@
         <v>380</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="H164" t="str">
+        <v>927</v>
+      </c>
+      <c r="G164" t="str">
         <f t="shared" si="2"/>
         <v>{name:['청라호반점G'],addr:'인천광역시 서구 청라커낼로 163',x:'923949.8371560569',y:'1947760.2909392407',jibun:'인천광역시 서구 청라동 173-1 청라29블럭호반베르디움'},</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>354</v>
       </c>
@@ -12090,17 +12034,14 @@
         <v>719</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="H165" t="str">
+        <v>928</v>
+      </c>
+      <c r="G165" t="str">
         <f t="shared" si="2"/>
         <v>{name:['청학복합문화센터-SHINHAN'],addr:'인천광역시 연수구 비류대로 299',x:'926357.2427523071',y:'1936675.620955735',jibun:'인천광역시 연수구 청학동 239-4 청학문화센터'},</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>74</v>
       </c>
@@ -12114,17 +12055,14 @@
         <v>606</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="H166" t="str">
+        <v>929</v>
+      </c>
+      <c r="G166" t="str">
         <f t="shared" si="2"/>
         <v>{name:['청학본점G'],addr:'인천광역시 연수구 비류대로278번길 8-3',x:'926142.2991103267',y:'1936646.2066965867',jibun:'인천광역시 연수구 청학동 563-8'},</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -12138,17 +12076,14 @@
         <v>362</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="H167" t="str">
+        <v>930</v>
+      </c>
+      <c r="G167" t="str">
         <f t="shared" si="2"/>
         <v>{name:['청학타운점G'],addr:'인천광역시 연수구 청학로12번길 47',x:'926231.6395880934',y:'1936834.2690070835',jibun:'인천광역시 연수구 청학동 535-15'},</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>90</v>
       </c>
@@ -12162,17 +12097,14 @@
         <v>622</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="H168" t="str">
+        <v>931</v>
+      </c>
+      <c r="G168" t="str">
         <f t="shared" si="2"/>
         <v>{name:['청학현대점G'],addr:'인천광역시 연수구 계림로35번길 58',x:'926443.0193460134',y:'1936904.7241967367',jibun:'인천광역시 연수구 청학동 547-13'},</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>730</v>
       </c>
@@ -12186,17 +12118,14 @@
         <v>740</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="H169" t="str">
+        <v>932</v>
+      </c>
+      <c r="G169" t="str">
         <f t="shared" si="2"/>
         <v>{name:['코스트코'],addr:'인천광역시 연수구 컨벤시아대로230번길 60',x:' 923278.7832623338',y:'1932636.7317621163',jibun:'인천광역시 연수구 송도동 98 코스트코홀세일 송도점'},</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>133</v>
       </c>
@@ -12210,17 +12139,14 @@
         <v>665</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="H170" t="str">
+        <v>933</v>
+      </c>
+      <c r="G170" t="str">
         <f t="shared" si="2"/>
         <v>{name:['퍼스트파크13점'],addr:'인천광역시 연수구 컨벤시아대로252번길 70',x:'923074.6219626968',y:'1932451.7707887636',jibun:'인천광역시 연수구 송도동 100 송도 더샵 퍼스트파크 F13-1BL'},</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>47</v>
       </c>
@@ -12234,17 +12160,14 @@
         <v>579</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="H171" t="str">
+        <v>934</v>
+      </c>
+      <c r="G171" t="str">
         <f t="shared" si="2"/>
         <v>{name:['포스코송도 R&amp;D센터KB'],addr:'인천광역시 연수구 송도과학로 100',x:'926384.4323779428',y:'1931453.2860596376',jibun:'인천광역시 연수구 송도동 180-1 포스코 글로벌 R&amp;D CENTER'},</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>53</v>
       </c>
@@ -12258,17 +12181,14 @@
         <v>585</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="H172" t="str">
+        <v>935</v>
+      </c>
+      <c r="G172" t="str">
         <f t="shared" si="2"/>
         <v>{name:['포스코이앤씨타워점G'],addr:'인천광역시 연수구 인천타워대로 241',x:'923372.5008990793',y:'1932935.9711958324',jibun:'인천광역시 연수구 송도동 36 부영송도타워'},</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>123</v>
       </c>
@@ -12282,17 +12202,14 @@
         <v>655</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="H173" t="str">
+        <v>936</v>
+      </c>
+      <c r="G173" t="str">
         <f t="shared" si="2"/>
         <v>{name:['하이-소래포구'],addr:'인천광역시 남동구 포구로 3',x:'932688.4409603968',y:'1933646.0883224965',jibun:'인천광역시 남동구 논현동 111-234'},</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -12306,17 +12223,14 @@
         <v>375</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="H174" t="str">
+        <v>937</v>
+      </c>
+      <c r="G174" t="str">
         <f t="shared" si="2"/>
         <v>{name:['학익늘봄점G'],addr:'인천광역시 미추홀구 한나루로403번길 105',x:'925632.7361822787',y:'1938795.12119258',jibun:'인천광역시 미추홀구 학익동 420-16'},</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -12330,17 +12244,14 @@
         <v>708</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="H175" t="str">
+        <v>938</v>
+      </c>
+      <c r="G175" t="str">
         <f t="shared" si="2"/>
         <v>{name:['학익다송G'],addr:'인천광역시 미추홀구 소성로 162',x:'926243.6841133314',y:'1938404.1977886255',jibun:'인천광역시 미추홀구 학익동 252-8 다송빌딩'},</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>83</v>
       </c>
@@ -12354,17 +12265,14 @@
         <v>615</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="H176" t="str">
+        <v>939</v>
+      </c>
+      <c r="G176" t="str">
         <f t="shared" si="2"/>
         <v>{name:['학익대로점G'],addr:'인천광역시 미추홀구 소성로 244',x:'926977.6259435453',y:'1938038.3710919674',jibun:'인천광역시 미추홀구 학익동 671-4'},</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -12378,17 +12286,14 @@
         <v>707</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="H177" t="str">
+        <v>940</v>
+      </c>
+      <c r="G177" t="str">
         <f t="shared" si="2"/>
         <v>{name:['학익미소G'],addr:'인천광역시 미추홀구 주승로 22',x:'926826.3832888785',y:'1938596.312287895',jibun:'인천광역시 미추홀구 학익동 649 정진프라자'},</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -12402,17 +12307,14 @@
         <v>364</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="H178" t="str">
+        <v>941</v>
+      </c>
+      <c r="G178" t="str">
         <f t="shared" si="2"/>
         <v>{name:['학익사거리점M'],addr:'인천광역시 미추홀구 매소홀로446번길 16',x:'926687.5525610019',y:'1938078.4112452823',jibun:'인천광역시 미추홀구 학익동 675-3'},</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>84</v>
       </c>
@@ -12426,17 +12328,14 @@
         <v>616</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="H179" t="str">
+        <v>942</v>
+      </c>
+      <c r="G179" t="str">
         <f t="shared" si="2"/>
         <v>{name:['학익센터점G'],addr:'인천광역시 미추홀구 매소홀로446번길 4',x:'926688.1271994561',y:'1938129.2821605182',jibun:'인천광역시 미추홀구 학익동 677-2'},</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>40</v>
       </c>
@@ -12450,17 +12349,14 @@
         <v>393</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H180" t="str">
+        <v>943</v>
+      </c>
+      <c r="G180" t="str">
         <f t="shared" si="2"/>
         <v>{name:['학익점GSS'],addr:'인천광역시 미추홀구 소성로 146',x:'926064.1264832243',y:'1938437.8886083513',jibun:'인천광역시 미추홀구 학익동 256-19 LG수퍼마켓 학익점'},</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>118</v>
       </c>
@@ -12474,17 +12370,14 @@
         <v>650</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="H181" t="str">
+        <v>944</v>
+      </c>
+      <c r="G181" t="str">
         <f t="shared" si="2"/>
         <v>{name:['학익중앙점G'],addr:'인천광역시 미추홀구 소성로185번길 16-5',x:'926531.8325332045',y:'1938402.6683132658',jibun:'인천광역시 미추홀구 학익동 244-1'},</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -12498,17 +12391,14 @@
         <v>697</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="H182" t="str">
+        <v>945</v>
+      </c>
+      <c r="G182" t="str">
         <f t="shared" si="2"/>
         <v>{name:['학익타운점G'],addr:'인천광역시 미추홀구 한나루로 350',x:'925893.6336379224',y:'1938132.127089256',jibun:'인천광역시 미추홀구 학익동 691-8'},</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -12522,65 +12412,56 @@
         <v>361</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="H183" t="str">
+        <v>946</v>
+      </c>
+      <c r="G183" t="str">
         <f t="shared" si="2"/>
         <v>{name:['한옥마을앰배서더-SHINHAN'],addr:'인천광역시 연수구 테크노파크로 200',x:'923643.9542986592',y:'1932798.2731926683',jibun:'인천광역시 연수구 송도동 24-11 경원재 앰배서더 인천'},</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C184" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="H184" t="str">
+        <v>947</v>
+      </c>
+      <c r="G184" t="str">
         <f t="shared" si="2"/>
         <v>{name:['한화에코11단지'],addr:'인천광역시 남동구 논고개로 17',x:'931971.8826013578',y:'1933157.4842754863',jibun:'인천광역시 남동구 논현동 774-1 한화꿈에그린 에코메트로11단지'},</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C185" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="H185" t="str">
+        <v>948</v>
+      </c>
+      <c r="G185" t="str">
         <f t="shared" si="2"/>
         <v>{name:['한화에코12단지'],addr:'인천광역시 남동구 논고개로 10',x:'932065.1035968331',y:'1933133.3493248513',jibun:'인천광역시 남동구 논현동 755-4 에코메트로12단지한화꿈에그린아파트'},</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>33</v>
       </c>
@@ -12594,17 +12475,14 @@
         <v>386</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="H186" t="str">
+        <v>949</v>
+      </c>
+      <c r="G186" t="str">
         <f t="shared" si="2"/>
         <v>{name:['한화프라자점G'],addr:'인천광역시 남동구 소래역남로 12',x:'932305.6277828533',y:'1933461.700828867',jibun:'인천광역시 남동구 논현동 754-1 거목프라자'},</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>129</v>
       </c>
@@ -12618,17 +12496,14 @@
         <v>661</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="H187" t="str">
+        <v>950</v>
+      </c>
+      <c r="G187" t="str">
         <f t="shared" si="2"/>
         <v>{name:['해양경비안전본부SHINHAN'],addr:'인천광역시 연수구 해돋이로 130',x:'924618.4617833635',y:'1932985.3575826176',jibun:'인천광역시 연수구 송도동 3-8 해양경찰청'},</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>732</v>
       </c>
@@ -12642,17 +12517,14 @@
         <v>742</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="H188" t="str">
+        <v>951</v>
+      </c>
+      <c r="G188" t="str">
         <f t="shared" si="2"/>
         <v>{name:['현대 프리미엄 아울렛 송도'],addr:'인천광역시 연수구 송도국제대로 123',x:'925450.1762407259',y:'1931726.6847481355',jibun:'인천광역시 연수구 송도동 168-1 현대프리미엄 아울렛 송도점'},</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>70</v>
       </c>
@@ -12666,1146 +12538,1656 @@
         <v>602</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="H189" t="str">
+        <v>952</v>
+      </c>
+      <c r="G189" t="str">
         <f t="shared" si="2"/>
         <v>{name:['CU연수타운점'],addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092',jibun:'인천광역시 연수구 연수동 498-6'},</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C190" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="H190" t="str">
+        <v>968</v>
+      </c>
+      <c r="G190" t="str">
         <f t="shared" si="2"/>
         <v>{name:['송도365'],addr:'인천광역시 연수구 신송로 122',x:'924979.0126602231',y:'1933304.6588912918',jibun:'인천광역시 연수구 송도동 2-6 송도프라자'},</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C191" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="H191" t="str">
+        <v>969</v>
+      </c>
+      <c r="G191" t="str">
         <f t="shared" si="2"/>
         <v>{name:['옥련365'],addr:'인천광역시 연수구 독배로40번길 11',x:'924405.9113474332',y:'1936495.7661320935',jibun:'인천광역시 연수구 옥련동 462-9 효명프라자'},</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C192" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="H192" t="str">
+        <v>970</v>
+      </c>
+      <c r="G192" t="str">
         <f t="shared" si="2"/>
         <v>{name:['이마트 연수점'],addr:'인천광역시 연수구 경원대로 184',x:'927526.0918634394',y:'1934214.7747739688',jibun:'인천광역시 연수구 동춘동 926-9 이마트'},</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C193" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="H193" t="str">
+        <v>971</v>
+      </c>
+      <c r="G193" t="str">
         <f t="shared" si="2"/>
         <v>{name:['가천의대'],addr:'인천광역시 연수구 함박뫼로 191',x:'928150.6333777537',y:'1936215.7186591197',jibun:'인천광역시 연수구 연수동 534-2 가천대학교'},</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C194" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="H194" t="str">
+        <v>972</v>
+      </c>
+      <c r="G194" t="str">
         <f t="shared" si="2"/>
         <v>{name:['인천가톨릭대학'],addr:'인천광역시 연수구 해송로 12',x:'924277.2476386407',y:'1931904.949320057',jibun:'인천광역시 연수구 송도동 9-3 인천가톨릭대학교'},</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C195" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D195" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" ref="G195:G258" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;F195&amp;"'},"</f>
+        <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>962</v>
+      </c>
+      <c r="C196" t="s">
+        <v>963</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="H195" t="str">
-        <f t="shared" ref="H195:H236" si="3">"{name:" &amp; "['"&amp;A195&amp;"'"&amp;IF(ISBLANK(B195),"",",'"&amp;B195&amp;"'")&amp;"],addr:" &amp; "'" &amp;C195&amp;"',x:"&amp; "'" &amp;D195&amp;"',y:"&amp; "'" &amp;E195&amp;"',jibun:"&amp; "'" &amp;G195&amp;"'},"</f>
-        <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>964</v>
-      </c>
-      <c r="C196" t="s">
-        <v>965</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>990</v>
-      </c>
       <c r="F196" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="H196" t="str">
+        <v>974</v>
+      </c>
+      <c r="G196" t="str">
         <f t="shared" si="3"/>
         <v>{name:['LH논현사옥'],addr:'인천광역시 남동구 논현로46번길 7',x:'930246.6015386996',y:'1933930.1850851905',jibun:'인천광역시 남동구 논현동 638-1'},</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>991</v>
+      </c>
+      <c r="C197" t="s">
+        <v>994</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="C197" t="s">
-        <v>997</v>
-      </c>
-      <c r="D197" s="1" t="s">
+      <c r="F197" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="H197" t="str">
+      <c r="G197" t="str">
         <f t="shared" si="3"/>
         <v>{name:['연수점GSS'],addr:'인천광역시 연수구 원인재로 88',x:'927184.2034296514',y:'1934516.2629514583',jibun:'인천광역시 연수구 동춘동 925-7 대우삼환아파트'},</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
+        <v>996</v>
+      </c>
+      <c r="C198" t="s">
         <v>999</v>
       </c>
-      <c r="C198" t="s">
-        <v>1002</v>
-      </c>
       <c r="D198" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H198" t="str">
+      <c r="G198" t="str">
         <f t="shared" si="3"/>
         <v>{name:['논현향촌점G'],addr:'인천광역시 남동구 앵고개로847번길 51',x:'931416.1976096316',y:'1933498.9531416',jibun:'인천광역시 남동구 논현동 740-2 소래휴먼시아3단지 상가에이동'},</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="C199" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>1008</v>
-      </c>
       <c r="E199" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H199" t="str">
+      <c r="G199" t="str">
         <f t="shared" si="3"/>
         <v>{name:['주안경원점G'],addr:'인천광역시 미추홀구 주안동로 34',x:'928019.33716304',y:'1940530.2795259403',jibun:'인천광역시 미추홀구 주안동 57-12'},</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C200" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>1011</v>
-      </c>
       <c r="E200" s="1" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H200" t="str">
+      <c r="G200" t="str">
         <f t="shared" si="3"/>
         <v>{name:['연수유천점G'],addr:'인천광역시 연수구 먼우금로 302',x:'927692.7867924417',y:'1936292.8503102353',jibun:'인천광역시 연수구 연수동 534 연수유천아파트'},</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C201" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H201" t="str">
+      <c r="G201" t="str">
         <f t="shared" si="3"/>
         <v>{name:['석바위점G'],addr:'인천광역시 미추홀구 석바위로 143',x:'928264.6171794888',y:'1940390.7456267346',jibun:'인천광역시 미추홀구 주안동 989-4 동양빌딩'},</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C202" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H202" t="str">
+        <v>1024</v>
+      </c>
+      <c r="G202" t="str">
         <f t="shared" si="3"/>
         <v>{name:['송도큐브점G'],addr:'인천광역시 연수구 송도과학로16번길 13-18',x:'925705.9937962485',y:'1931656.908183341',jibun:'인천광역시 연수구 송도동 174-1 송도건원테크노큐브'},</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="C203" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H203" t="str">
+        <v>1029</v>
+      </c>
+      <c r="G203" t="str">
         <f t="shared" si="3"/>
         <v>{name:['청학수인점G'],addr:'인천광역시 연수구 청학로6번길 94',x:'926415.3123945633',y:'1936682.681330747',jibun:'인천광역시 연수구 청학동 527-24'},</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="C204" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="H204" t="str">
+        <v>1154</v>
+      </c>
+      <c r="G204" t="str">
         <f t="shared" si="3"/>
         <v>{name:['새천년장례식장'],addr:'인천광역시 계양구 아나지로 541',x:'933976.1191295199',y:'1947644.6814924027',jibun:'인천광역시 계양구 서운동 138-5 새천년장례식장'},</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="C205" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H205" t="str">
+        <v>1155</v>
+      </c>
+      <c r="G205" t="str">
         <f t="shared" si="3"/>
         <v>{name:['부평일번가점G'],addr:'인천광역시 부평구 경원대로 1395',x:'931442.7457843034',y:'1943905.1716368534',jibun:'인천광역시 부평구 부평동 159-15 부평일번가'},</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="C206" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H206" t="str">
+        <v>1156</v>
+      </c>
+      <c r="G206" t="str">
         <f t="shared" si="3"/>
         <v>{name:['중동타운점G'],addr:'경기도 부천시 석천로 174',x:'934864.5284565468',y:'1945089.772593747',jibun:'경기도 부천시 중동 1159-8 하성빌딩'},</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="C207" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="H207" t="str">
+        <v>1157</v>
+      </c>
+      <c r="G207" t="str">
         <f t="shared" si="3"/>
         <v>{name:['부평신촌점G'],addr:'인천광역시 부평구 경원대로1256번길 10',x:'930139.6624342366',y:'1943538.069996247',jibun:'인천광역시 부평구 부평동 277-21'},</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="C208" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="H208" t="str">
+        <v>1158</v>
+      </c>
+      <c r="G208" t="str">
         <f t="shared" si="3"/>
         <v>{name:['글로리병원'],addr:'인천광역시 부평구 길주로 655',x:'932421.86098766',y:'1945596.0398589005',jibun:'인천광역시 부평구 삼산동 461-3 글로리타워'},</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="C209" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H209" t="str">
+        <v>1159</v>
+      </c>
+      <c r="G209" t="str">
         <f t="shared" si="3"/>
         <v>{name:['육군제2291부대(17보병사단)'],addr:'인천광역시 부평구 무네미로447번길 6-4',x:'933856.628527692',y:'1942131.4210598096',jibun:'인천광역시 부평구 구산동 30-10'},</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="C210" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H210" t="str">
+        <v>1160</v>
+      </c>
+      <c r="G210" t="str">
         <f t="shared" si="3"/>
         <v>{name:['부평2동점G'],addr:'인천광역시 부평구 부영로16번길 22',x:'930930.0009870247',y:'1943341.044701905',jibun:'인천광역시 부평구 부평동 760-117'},</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="C211" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H211" t="str">
+        <v>1161</v>
+      </c>
+      <c r="G211" t="str">
         <f t="shared" si="3"/>
         <v>{name:['나들가게-스타로또판매점'],addr:'인천광역시 부평구 부평대로 146',x:'931209.1015196894',y:'1945299.2664001212',jibun:'인천광역시 부평구 부평동 431-46'},</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="C212" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="H212" t="str">
+        <v>1162</v>
+      </c>
+      <c r="G212" t="str">
         <f t="shared" si="3"/>
         <v>{name:['부평보건소 결합부스'],addr:'인천광역시 부평구 부흥로 291',x:'931429.61845897',y:'1944679.5655312636',jibun:'인천광역시 부평구 부평동 442-1 부평구 보건소'},</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C213" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H213" t="str">
+        <v>1163</v>
+      </c>
+      <c r="G213" t="str">
         <f t="shared" si="3"/>
         <v>{name:['부평삼천당양국 결합부스'],addr:'인천광역시 부평구 시장로 35-2',x:'931586.8051944501',y:'1944161.0736327833',jibun:'인천광역시 부평구 부평동 192-1'},</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="C214" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H214" t="str">
+        <v>1164</v>
+      </c>
+      <c r="G214" t="str">
         <f t="shared" si="3"/>
         <v>{name:['삼산주공4단지 결합부스'],addr:'인천광역시 부평구 체육관로 111',x:'933132.6592045021',y:'1945946.1184882158',jibun:'인천광역시 부평구 삼산동 456-8 주공삼산타운아파트'},</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="C215" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="H215" t="str">
+        <v>1165</v>
+      </c>
+      <c r="G215" t="str">
         <f t="shared" si="3"/>
         <v>{name:['송내중앙점G'],addr:'경기도 부천시 송내대로42번길 58',x:'934270.8836680101',y:'1943345.6518097534',jibun:'경기도 부천시 송내동 300 생명샘교회'},</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C216" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H216" t="str">
+        <v>1166</v>
+      </c>
+      <c r="G216" t="str">
         <f t="shared" si="3"/>
         <v>{name:['부평제일점G'],addr:'인천광역시 부평구 부평대로12번길 15',x:'931414.8208953666',y:'1943984.6596683604',jibun:'인천광역시 부평구 부평동 193-25'},</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C217" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H217" t="str">
+        <v>1167</v>
+      </c>
+      <c r="G217" t="str">
         <f t="shared" si="3"/>
         <v>{name:['김포초당점M'],addr:'경기도 김포시 김포한강2로 76',x:'927187.7376515022',y:'1960298.0954450704',jibun:'경기도 김포시 장기동 2039-2 프레즌스빌딩'},</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C218" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="H218" t="str">
+        <v>1168</v>
+      </c>
+      <c r="G218" t="str">
         <f t="shared" si="3"/>
         <v>{name:['감정삼환아파트상가 결합부스'],addr:'경기도 김포시 봉화로181번길 36',x:'929393.31062681',y:'1958932.8253651601',jibun:'경기도 김포시 감정동 659 삼환아파트'},</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="C219" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="H219" t="str">
+        <v>1169</v>
+      </c>
+      <c r="G219" t="str">
         <f t="shared" si="3"/>
         <v>{name:['한강센트럴자이'],addr:'경기도 김포시 태장로 845',x:'927249.6620825944',y:'1959781.8936519488',jibun:'경기도 김포시 장기동 2128-1 한강센트럴자이 1단지'},</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="C220" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H220" t="str">
+        <v>1170</v>
+      </c>
+      <c r="G220" t="str">
         <f t="shared" si="3"/>
         <v>{name:['풍무신안점G'],addr:'경기도 김포시 풍무로 111',x:'931328.0170300335',y:'1956533.06516879',jibun:'경기도 김포시 풍무동 100 신안아파트'},</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>1071</v>
+        <v>1065</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1257</v>
       </c>
       <c r="C221" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H221" t="str">
+        <v>1171</v>
+      </c>
+      <c r="G221" t="str">
         <f t="shared" si="3"/>
-        <v>{name:['계산점M'],addr:'인천광역시 계양구 경명대로 1062',x:'931527.348910369',y:'1949595.0281054797',jibun:'인천광역시 계양구 계산동 945'},</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+        <v>{name:['계산점M','미니스톱계산점앞 결합부스'],addr:'인천광역시 계양구 경명대로 1062',x:'931527.348910369',y:'1949595.0281054797',jibun:'인천광역시 계양구 계산동 945'},</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="C222" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H222" t="str">
+        <v>1172</v>
+      </c>
+      <c r="G222" t="str">
         <f t="shared" si="3"/>
         <v>{name:['계산명인점G'],addr:'인천광역시 계양구 경명대로 1120',x:'932108.7903216111',y:'1949561.4707883568',jibun:'인천광역시 계양구 계산동 12-10 명인프라자2'},</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C223" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="H223" t="str">
+        <v>1173</v>
+      </c>
+      <c r="G223" t="str">
         <f t="shared" si="3"/>
         <v>{name:['계양신한점G'],addr:'인천광역시 계양구 경명대로1029번길 16',x:'931225.1142344968',y:'1949819.1893880423',jibun:'인천광역시 계양구 계산동 931-9 신한아파트'},</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C224" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="H224" t="str">
+        <v>1174</v>
+      </c>
+      <c r="G224" t="str">
         <f t="shared" si="3"/>
         <v>{name:['태화상가 결합부스'],addr:'인천광역시 계양구 계양대로 114',x:'931337.9279541038',y:'1948567.644235659',jibun:'인천광역시 계양구 작전동 854-2'},</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C225" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="H225" t="str">
+        <v>1175</v>
+      </c>
+      <c r="G225" t="str">
         <f t="shared" si="3"/>
         <v>{name:['계산농협 결합부스'],addr:'인천광역시 계양구 계양대로 159-1',x:'931290.091887224',y:'1949046.5163927404',jibun:'인천광역시 계양구 계산동 969-16'},</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C226" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H226" t="str">
+        <v>1176</v>
+      </c>
+      <c r="G226" t="str">
         <f t="shared" si="3"/>
         <v>{name:['인천병방점G'],addr:'인천광역시 계양구 병방로 17',x:'933081.7079332424',y:'1949977.93490888',jibun:'인천광역시 계양구 병방동 136-6 제일빌딩'},</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C227" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="H227" t="str">
+        <v>1177</v>
+      </c>
+      <c r="G227" t="str">
         <f t="shared" si="3"/>
         <v>{name:['이마트-계양점-KEB'],addr:'인천광역시 계양구 봉오대로 785',x:'932576.6557839434',y:'1948243.302971094',jibun:'인천광역시 계양구 작전동 911-1 (주)신세계 이마트 계양점'},</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C228" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H228" t="str">
+        <v>1178</v>
+      </c>
+      <c r="G228" t="str">
         <f t="shared" si="3"/>
         <v>{name:['박촌중앙점G'],addr:'인천광역시 계양구 장제로997번길 9-1',x:'933248.4628332835',y:'1950882.8012067103',jibun:'인천광역시 계양구 박촌동 98-1'},</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C229" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H229" t="str">
+        <v>1179</v>
+      </c>
+      <c r="G229" t="str">
         <f t="shared" si="3"/>
         <v>{name:['위드미-계산역점'],addr:'인천광역시 계양구 하느재로 4',x:'931544.6516139768',y:'1949681.0059877522',jibun:'인천광역시 계양구 계산동 929'},</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C230" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="H230" t="str">
+        <v>1180</v>
+      </c>
+      <c r="G230" t="str">
         <f t="shared" si="3"/>
         <v>{name:['귤현중앙점G'],addr:'인천광역시 계양구 형제봉길 57',x:'933716.1497187633',y:'1952258.4427198768',jibun:'인천광역시 계양구 귤현동 500-14'},</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C231" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H231" t="str">
+        <v>1181</v>
+      </c>
+      <c r="G231" t="str">
         <f t="shared" si="3"/>
         <v>{name:['계양대원점G'],addr:'인천광역시 계양구 황어로115번길 13',x:'932175.376509306',y:'1953625.1702445736',jibun:'인천광역시 계양구 장기동 131-10 계양 벽산 블루밍'},</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="C232" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H232" t="str">
+        <v>1182</v>
+      </c>
+      <c r="G232" t="str">
         <f t="shared" si="3"/>
         <v>{name:['부평갈산점G'],addr:'인천광역시 부평구 굴포로 50-10',x:'931629.6382923902',y:'1946047.8260866501',jibun:'인천광역시 부평구 갈산동 367-2'},</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C233" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H233" t="str">
+        <v>1183</v>
+      </c>
+      <c r="G233" t="str">
         <f t="shared" si="3"/>
         <v>{name:['부평우림점G'],addr:'인천광역시 부평구 부평대로 283',x:'931164.0193303828',y:'1946691.216097455',jibun:'인천광역시 부평구 청천동 425 부평우림라이온스밸리'},</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C234" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="H234" t="str">
+        <v>1184</v>
+      </c>
+      <c r="G234" t="str">
         <f t="shared" si="3"/>
         <v>{name:['계양국제점M'],addr:'인천광역시 계양구 계양문화로29번길 10',x:'932417.39154975',y:'1948532.5869564335',jibun:'인천광역시 계양구 작전동 907-6 태진프라자'},</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="C235" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H235" t="str">
+        <v>1189</v>
+      </c>
+      <c r="G235" t="str">
         <f t="shared" si="3"/>
         <v>{name:['송도센트럴점G'],addr:'인천광역시 연수구 송도국제대로 261',x:'924676.6906859279',y:'1930858.557839889',jibun:'인천광역시 연수구 송도동 190-4 송도 더샵 센트럴시티'},</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="C236" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H236" t="str">
+        <v>1192</v>
+      </c>
+      <c r="G236" t="str">
         <f t="shared" si="3"/>
         <v>{name:['송도이편한점G'],addr:'인천광역시 연수구 랜드마크로 113',x:'921810.1679151095',y:'1935243.4228121955',jibun:'인천광역시 연수구 송도동 319-1 e편한세상 송도'},</v>
       </c>
     </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G237" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['상동스타점G'],addr:'경기도 부천시 상이로39번길 29',x:'933018.5068486969',y:'1943921.941091667',jibun:'경기도 부천시 상동 604-1'},</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G238" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부천역사1점G'],addr:'경기도 부천시 부천로 1',x:'936579.4263615669',y:'1942996.8231301266',jibun:'경기도 부천시 심곡본동 316-2 부천역사쇼핑몰'},</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G239" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['중동남부점G'],addr:'경기도 부천시 중동로70번길 15',x:'935053.4388435667',y:'1943261.1177480435',jibun:'경기도 부천시 송내동 504'},</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G240" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['현대백화점 중동점3F(디몰)-KB'],addr:'경기도 부천시 길주로 180',x:'934778.8432610824',y:'1945261.0811271123',jibun:'경기도 부천시 중동 1164 현대백화점부천중동점'},</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G241" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['상동메가점G'],addr:'경기도 부천시 상동로 90',x:'934040.5315300801',y:'1945356.8885050272',jibun:'경기도 부천시 상동 541-1 메가플러스빌딩'},</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G242" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부천상이로점M'],addr:'경기도 부천시 상이로9번길 26-5',x:'933046.8897880868',y:'1943656.9576712232',jibun:'경기도 부천시 상동 614-7'},</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G243" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부천성도점G'],addr:'경기도 부천시 장말로 156',x:'934518.3469865369',y:'1944049.46242386',jibun:'경기도 부천시 상동 420'},</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G244" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['간석이화점G'],addr:'인천광역시 남동구 남동대로916번길 40',x:'930182.1440641168',y:'1940798.9819973405',jibun:'인천광역시 남동구 간석동 182-13'},</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G245" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평동수로점G'],addr:'인천광역시 부평구 동수로 27',x:'931178.6939188098',y:'1943148.66538799',jibun:'인천광역시 부평구 부평동 672-23'},</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G246" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부개주공점G'],addr:'인천광역시 부평구 부개로 61-14',x:'932730.6221358734',y:'1945165.9190083267',jibun:'인천광역시 부평구 부개동 498-9 대현프라자'},</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G247" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평파크팰리스점G'],addr:'인천광역시 부평구 동수북로 38',x:'930317.6786651467',y:'1943243.6612359053',jibun:'인천광역시 부평구 부평동 767-163 파크팰리스'},</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G248" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['미래타운주공3단지 결합부스'],addr:'인천광역시 부평구 부평북로 463',x:'933297.0104331193',y:'1947242.2830768712',jibun:'인천광역시 부평구 삼산동 390-6 주공미래타운3단지'},</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G249" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['중동공원점G'],addr:'경기도 부천시 소향로 149',x:'934961.8521437296',y:'1945021.9345603008',jibun:'경기도 부천시 중동 1160-3 필레오트윈파크2동'},</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G250" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['메리트-부천'],addr:'경기도 부천시 길주로 125',x:'934276.3197191034',y:'1945469.0924291466',jibun:'경기도 부천시 상동 538-7 다승프라자'},</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G251" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['상동삼성점M'],addr:'경기도 부천시 소향로13번길 14-23',x:'933740.1007567733',y:'1945287.2960776766',jibun:'경기도 부천시 상동 545-16 삼성프라자'},</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G252" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평사랑점G'],addr:'인천광역시 부평구 경원대로1431번길 13',x:'931750.6910376102',y:'1943899.1085860832',jibun:'인천광역시 부평구 부평동 585-2'},</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G253" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['인천삼산점M'],addr:'인천광역시 부평구 길주로 633',x:'932200.5103440566',y:'1945612.2485296768',jibun:'인천광역시 부평구 삼산동 464-1 삼산메디캐슬'},</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G254" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평파크타운점G'],addr:'인천광역시 부평구 마장로36번길 40-1',x:'930098.4109072781',y:'1943055.0494920602',jibun:'인천광역시 부평구 십정동 182-30 파크타운메트로'},</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G255" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평신명점G'],addr:'인천광역시 부평구 장제로 145',x:'931906.9543120344',y:'1944676.982779122',jibun:'인천광역시 부평구 부평동 378-3 신명스카이홈'},</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G256" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['부평남부점G'],addr:'인천광역시 부평구 장제로27번길 49',x:'931612.0905221628',y:'1943488.9596591424',jibun:'인천광역시 부평구 부평동 605-39 번성빌딩'},</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G257" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['사우현대점G'],addr:'경기도 김포시 사우로 12',x:'931404.4588655937',y:'1958213.9915254172',jibun:'경기도 김포시 사우동 911 풍년마을현대아파트'},</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G258" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:['풍무자이점G'],addr:'경기도 김포시 풍무로96번길 102',x:'931911.8236301832',y:'1956351.3520765733',jibun:'경기도 김포시 풍무동 766 풍무자이2지구'},</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G259" t="str">
+        <f t="shared" ref="G259:G267" si="4">"{name:" &amp; "['"&amp;A259&amp;"'"&amp;IF(ISBLANK(B259),"",",'"&amp;B259&amp;"'")&amp;"],addr:" &amp; "'" &amp;C259&amp;"',x:"&amp; "'" &amp;D259&amp;"',y:"&amp; "'" &amp;E259&amp;"',jibun:"&amp; "'" &amp;F259&amp;"'},"</f>
+        <v>{name:['계양팬더점G'],addr:'인천광역시 계양구 경명대로1142번길 5',x:'932278.270056488',y:'1949518.940805179',jibun:'인천광역시 계양구 계산동 489-6 팬더아파트'},</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G260" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['용종타운점G'],addr:'인천광역시 계양구 용마루1길 14',x:'933155.0954299255',y:'1949600.692782736',jibun:'인천광역시 계양구 용종동 223-1'},</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G261" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['병방타운점G'],addr:'인천광역시 계양구 장제로920번길 8',x:'933055.0038974134',y:'1950124.0965765738',jibun:'인천광역시 계양구 병방동 118-23'},</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G262" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['하이포크돈까스-인천'],addr:'인천광역시 계양구 주부토로 515',x:'931801.0081208765',y:'1949271.5415414097',jibun:'인천광역시 계양구 계산동 948-6 대원프라자'},</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G263" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['계산향교점G'],addr:'인천광역시 계양구 향교로 11',x:'931098.6161570952',y:'1949141.8350205198',jibun:'인천광역시 계양구 계산동 982-10'},</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G264" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['부평경찰서점G'],addr:'인천광역시 부평구 길주로 505',x:'930903.7670974967',y:'1945685.2516483534',jibun:'인천광역시 부평구 청천동 199-51 우진빌딩'},</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G265" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['작전한양점G'],addr:'인천광역시 계양구 계양대로120번길 11',x:'931438.9118810431',y:'1948645.5004086206',jibun:'인천광역시 계양구 작전동 855-27'},</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G266" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['작전중앙점G'],addr:'인천광역시 계양구 오조산로 1',x:'932657.6976733829',y:'1948231.547796661',jibun:'인천광역시 계양구 작전동 911-7 거승프라자'},</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G267" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['갈산본점G'],addr:'인천광역시 부평구 새갈로 22',x:'931978.99473544',y:'1946990.65978572',jibun:'인천광역시 부평구 갈산동 21-7'},</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H185">
+  <autoFilter ref="A1:G185">
     <sortState ref="A2:H189">
       <sortCondition ref="A1:A189"/>
     </sortState>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="1356">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -4128,6 +4128,21 @@
   </si>
   <si>
     <t>1946990.65978572</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 벤처로 82</t>
+  </si>
+  <si>
+    <t>송도휴니드</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 11-13 정보통신산업진흥원 송도사무소</t>
+  </si>
+  <si>
+    <t>924007.2295042474</t>
+  </si>
+  <si>
+    <t>1931228.941159821</t>
   </si>
 </sst>
 </file>
@@ -8539,10 +8554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G267"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F228" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G240" sqref="G240"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14014,7 +14029,7 @@
         <v>1280</v>
       </c>
       <c r="G259" t="str">
-        <f t="shared" ref="G259:G267" si="4">"{name:" &amp; "['"&amp;A259&amp;"'"&amp;IF(ISBLANK(B259),"",",'"&amp;B259&amp;"'")&amp;"],addr:" &amp; "'" &amp;C259&amp;"',x:"&amp; "'" &amp;D259&amp;"',y:"&amp; "'" &amp;E259&amp;"',jibun:"&amp; "'" &amp;F259&amp;"'},"</f>
+        <f t="shared" ref="G259:G268" si="4">"{name:" &amp; "['"&amp;A259&amp;"'"&amp;IF(ISBLANK(B259),"",",'"&amp;B259&amp;"'")&amp;"],addr:" &amp; "'" &amp;C259&amp;"',x:"&amp; "'" &amp;D259&amp;"',y:"&amp; "'" &amp;E259&amp;"',jibun:"&amp; "'" &amp;F259&amp;"'},"</f>
         <v>{name:['계양팬더점G'],addr:'인천광역시 계양구 경명대로1142번길 5',x:'932278.270056488',y:'1949518.940805179',jibun:'인천광역시 계양구 계산동 489-6 팬더아파트'},</v>
       </c>
     </row>
@@ -14184,6 +14199,27 @@
       <c r="G267" t="str">
         <f t="shared" si="4"/>
         <v>{name:['갈산본점G'],addr:'인천광역시 부평구 새갈로 22',x:'931978.99473544',y:'1946990.65978572',jibun:'인천광역시 부평구 갈산동 21-7'},</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G268" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['송도휴니드'],addr:'인천광역시 연수구 벤처로 82',x:'924007.2295042474',y:'1931228.941159821',jibun:'인천광역시 연수구 송도동 11-13 정보통신산업진흥원 송도사무소'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\works\temp\atm\atm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\work\temp\atm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="1501">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -3697,9 +3697,6 @@
     <t>경기도 부천시 상이로9번길 26-5</t>
   </si>
   <si>
-    <t>부천성도점G</t>
-  </si>
-  <si>
     <t>경기도 부천시 장말로 156</t>
   </si>
   <si>
@@ -4143,6 +4140,449 @@
   </si>
   <si>
     <t>1931228.941159821</t>
+  </si>
+  <si>
+    <t>경기도 부천시 경인로53번길 8</t>
+  </si>
+  <si>
+    <t>부천직업학교점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 경원대로 1277</t>
+  </si>
+  <si>
+    <t>2001아울렛 부평점NH</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 경원대로 1422</t>
+  </si>
+  <si>
+    <t>부평대덕아크로존 결합부스</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 경원대로1367번길 18-3</t>
+  </si>
+  <si>
+    <t>부평보영점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 동수로120번길 43</t>
+  </si>
+  <si>
+    <t>부평주공점M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 부평구 마장로264번길 33</t>
+  </si>
+  <si>
+    <t>산곡믿음점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 수변로93번길 6</t>
+  </si>
+  <si>
+    <t>부개하이니스점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 열우물로50번길 30</t>
+  </si>
+  <si>
+    <t>십정2동점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 체육관로 32</t>
+  </si>
+  <si>
+    <t>삼산하이존점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 후정동로 13</t>
+  </si>
+  <si>
+    <t>삼산블루밍점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡로9번길 40</t>
+  </si>
+  <si>
+    <t>심곡본점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 경인로667번길 14</t>
+  </si>
+  <si>
+    <t>열우물동암점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 길주남로 113</t>
+  </si>
+  <si>
+    <t>부평길주점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 동수로 162</t>
+  </si>
+  <si>
+    <t>부개1동점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부일로 70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부개푸르지오점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 수변로37번길 5-2</t>
+  </si>
+  <si>
+    <t>부개북부역점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 장제로 54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부평마사회 결합부스</t>
+  </si>
+  <si>
+    <t>경기도 김포시 대곶면 대곶남로 573</t>
+  </si>
+  <si>
+    <t>대곶대능점G</t>
+  </si>
+  <si>
+    <t>경기도 김포시 사우중로 23</t>
+  </si>
+  <si>
+    <t>김포에코점G</t>
+  </si>
+  <si>
+    <t>경기도 김포시 양촌읍 양곡2로30번길 51-16</t>
+  </si>
+  <si>
+    <t>양촌타워점G</t>
+  </si>
+  <si>
+    <t>경기도 김포시 양촌읍 황금로109번길 80</t>
+  </si>
+  <si>
+    <t>김포학운점M</t>
+  </si>
+  <si>
+    <t>경기도 김포시 양촌읍 황금로89번길 23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김포데시앙점G</t>
+  </si>
+  <si>
+    <t>경기도 김포시 풍무로96번길 42</t>
+  </si>
+  <si>
+    <t>풍무중앙점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 길마로88번길 1</t>
+  </si>
+  <si>
+    <t>효성현대점M</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 임학동로 17</t>
+  </si>
+  <si>
+    <t>인천임학점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계양대로 204</t>
+  </si>
+  <si>
+    <t>우리가의원 결합부스</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 봉오대로531번길 33</t>
+  </si>
+  <si>
+    <t>효성1동점G</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 장제로 879-1</t>
+  </si>
+  <si>
+    <t>임학역점BA</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 주부토로 261</t>
+  </si>
+  <si>
+    <t>갈산사거리점G</t>
+  </si>
+  <si>
+    <t>부천상도점G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 부천시 송내동 366 상승프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 산곡동 311-151 2001아울렛부평점</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 182-10 대덕아크로존</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 546-133 HB엘림캐슬</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 938 부평엘에이치2단지</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 산곡동 255-1 뉴서울아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부개동 120-407</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 십정동 399-6</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 삼산동 459-2 하이존 HI ZONE</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 삼산동 202</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡본동 665</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 십정동 482-30</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부개동 12-213</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부개동 259</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부개동 166-3</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부개동 197-28</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평동 161-3</t>
+  </si>
+  <si>
+    <t>경기도 김포시 대곶면 대능리 57-4</t>
+  </si>
+  <si>
+    <t>경기도 김포시 사우동 251 에코힐즈</t>
+  </si>
+  <si>
+    <t>경기도 김포시 양촌읍 양곡리 1313</t>
+  </si>
+  <si>
+    <t>경기도 김포시 양촌읍 학운리 2980-4</t>
+  </si>
+  <si>
+    <t>경기도 김포시 양촌읍 학운리 3019 김포양촌 금빛마을 자연앤 데시앙 아파트</t>
+  </si>
+  <si>
+    <t>경기도 김포시 풍무동 764 풍무자이</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 효성동 21-47 대성빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 임학동 65-11</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 계산동 944-30</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 효성동 97</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 임학동 10-10</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 갈산동 169-16 신협빌딩</t>
+  </si>
+  <si>
+    <t>934711.3744017</t>
+  </si>
+  <si>
+    <t>930222.273037916</t>
+  </si>
+  <si>
+    <t>931669.1764701765</t>
+  </si>
+  <si>
+    <t>931142.7376056598</t>
+  </si>
+  <si>
+    <t>931934.1715355264</t>
+  </si>
+  <si>
+    <t>929725.2634043125</t>
+  </si>
+  <si>
+    <t>932927.3958141634</t>
+  </si>
+  <si>
+    <t>929381.1594225436</t>
+  </si>
+  <si>
+    <t>932401.6239791668</t>
+  </si>
+  <si>
+    <t>932645.642192537</t>
+  </si>
+  <si>
+    <t>936187.7196378834</t>
+  </si>
+  <si>
+    <t>929885.288130031</t>
+  </si>
+  <si>
+    <t>932322.22616114</t>
+  </si>
+  <si>
+    <t>932503.4987817237</t>
+  </si>
+  <si>
+    <t>932570.000904714</t>
+  </si>
+  <si>
+    <t>932791.9849646788</t>
+  </si>
+  <si>
+    <t>931927.8353052868</t>
+  </si>
+  <si>
+    <t>921102.0937932157</t>
+  </si>
+  <si>
+    <t>930910.95575678</t>
+  </si>
+  <si>
+    <t>923278.2811406231</t>
+  </si>
+  <si>
+    <t>922566.3066215497</t>
+  </si>
+  <si>
+    <t>922733.1425718856</t>
+  </si>
+  <si>
+    <t>931547.1254532575</t>
+  </si>
+  <si>
+    <t>930699.2262116268</t>
+  </si>
+  <si>
+    <t>932442.6257163081</t>
+  </si>
+  <si>
+    <t>931359.4913538166</t>
+  </si>
+  <si>
+    <t>929960.5048100632</t>
+  </si>
+  <si>
+    <t>932744.9545369325</t>
+  </si>
+  <si>
+    <t>931672.1376032769</t>
+  </si>
+  <si>
+    <t>1943003.0680683935</t>
+  </si>
+  <si>
+    <t>1943756.3583188085</t>
+  </si>
+  <si>
+    <t>1943794.49328152</t>
+  </si>
+  <si>
+    <t>1943954.05065474</t>
+  </si>
+  <si>
+    <t>1943017.1910001677</t>
+  </si>
+  <si>
+    <t>1944992.400635913</t>
+  </si>
+  <si>
+    <t>1944228.9306980837</t>
+  </si>
+  <si>
+    <t>1941912.0994479563</t>
+  </si>
+  <si>
+    <t>1945720.5818021502</t>
+  </si>
+  <si>
+    <t>1946866.6548467316</t>
+  </si>
+  <si>
+    <t>1942845.7174466103</t>
+  </si>
+  <si>
+    <t>1941429.8037530337</t>
+  </si>
+  <si>
+    <t>1945266.2459413433</t>
+  </si>
+  <si>
+    <t>1943180.5450270968</t>
+  </si>
+  <si>
+    <t>1943564.380697852</t>
+  </si>
+  <si>
+    <t>1943673.6964042024</t>
+  </si>
+  <si>
+    <t>1943718.5432799067</t>
+  </si>
+  <si>
+    <t>1960245.03606041</t>
+  </si>
+  <si>
+    <t>1957858.4548262246</t>
+  </si>
+  <si>
+    <t>1962039.445796621</t>
+  </si>
+  <si>
+    <t>1957668.0232976116</t>
+  </si>
+  <si>
+    <t>1958046.0483274334</t>
+  </si>
+  <si>
+    <t>1956398.4031931022</t>
+  </si>
+  <si>
+    <t>1948544.4063613536</t>
+  </si>
+  <si>
+    <t>1949692.9968899256</t>
+  </si>
+  <si>
+    <t>1949482.1580298734</t>
+  </si>
+  <si>
+    <t>1948555.4040038083</t>
+  </si>
+  <si>
+    <t>1949848.5700937351</t>
+  </si>
+  <si>
+    <t>1946844.5130525236</t>
   </si>
 </sst>
 </file>
@@ -8554,10 +8994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="F259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F277" sqref="F277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13216,7 +13656,7 @@
         <v>1065</v>
       </c>
       <c r="B221" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C221" t="s">
         <v>1064</v>
@@ -13558,13 +13998,13 @@
         <v>1196</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G237" t="str">
         <f t="shared" si="3"/>
@@ -13579,13 +14019,13 @@
         <v>1198</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G238" t="str">
         <f t="shared" si="3"/>
@@ -13600,13 +14040,13 @@
         <v>1200</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G239" t="str">
         <f t="shared" si="3"/>
@@ -13621,13 +14061,13 @@
         <v>1202</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G240" t="str">
         <f t="shared" si="3"/>
@@ -13642,13 +14082,13 @@
         <v>1204</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G241" t="str">
         <f t="shared" si="3"/>
@@ -13663,13 +14103,13 @@
         <v>1206</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G242" t="str">
         <f t="shared" si="3"/>
@@ -13678,40 +14118,40 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C243" t="s">
         <v>1207</v>
       </c>
-      <c r="C243" t="s">
-        <v>1208</v>
-      </c>
       <c r="D243" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G243" t="str">
         <f t="shared" si="3"/>
-        <v>{name:['부천성도점G'],addr:'경기도 부천시 장말로 156',x:'934518.3469865369',y:'1944049.46242386',jibun:'경기도 부천시 상동 420'},</v>
+        <v>{name:['부천상도점G'],addr:'경기도 부천시 장말로 156',x:'934518.3469865369',y:'1944049.46242386',jibun:'경기도 부천시 상동 420'},</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C244" t="s">
         <v>1209</v>
       </c>
-      <c r="C244" t="s">
-        <v>1210</v>
-      </c>
       <c r="D244" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G244" t="str">
         <f t="shared" si="3"/>
@@ -13720,19 +14160,19 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C245" t="s">
         <v>1211</v>
       </c>
-      <c r="C245" t="s">
-        <v>1212</v>
-      </c>
       <c r="D245" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G245" t="str">
         <f t="shared" si="3"/>
@@ -13741,19 +14181,19 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C246" t="s">
         <v>1213</v>
       </c>
-      <c r="C246" t="s">
-        <v>1214</v>
-      </c>
       <c r="D246" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G246" t="str">
         <f t="shared" si="3"/>
@@ -13762,19 +14202,19 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C247" t="s">
         <v>1215</v>
       </c>
-      <c r="C247" t="s">
-        <v>1216</v>
-      </c>
       <c r="D247" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G247" t="str">
         <f t="shared" si="3"/>
@@ -13783,19 +14223,19 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C248" t="s">
         <v>1217</v>
       </c>
-      <c r="C248" t="s">
-        <v>1218</v>
-      </c>
       <c r="D248" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G248" t="str">
         <f t="shared" si="3"/>
@@ -13804,19 +14244,19 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C249" t="s">
         <v>1219</v>
       </c>
-      <c r="C249" t="s">
-        <v>1220</v>
-      </c>
       <c r="D249" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G249" t="str">
         <f t="shared" si="3"/>
@@ -13825,19 +14265,19 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C250" t="s">
         <v>1221</v>
       </c>
-      <c r="C250" t="s">
-        <v>1222</v>
-      </c>
       <c r="D250" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G250" t="str">
         <f t="shared" si="3"/>
@@ -13846,19 +14286,19 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C251" t="s">
         <v>1223</v>
       </c>
-      <c r="C251" t="s">
-        <v>1224</v>
-      </c>
       <c r="D251" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G251" t="str">
         <f t="shared" si="3"/>
@@ -13867,19 +14307,19 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C252" t="s">
         <v>1225</v>
       </c>
-      <c r="C252" t="s">
-        <v>1226</v>
-      </c>
       <c r="D252" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G252" t="str">
         <f t="shared" si="3"/>
@@ -13888,19 +14328,19 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C253" t="s">
         <v>1227</v>
       </c>
-      <c r="C253" t="s">
-        <v>1228</v>
-      </c>
       <c r="D253" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G253" t="str">
         <f t="shared" si="3"/>
@@ -13909,19 +14349,19 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C254" t="s">
         <v>1229</v>
       </c>
-      <c r="C254" t="s">
-        <v>1230</v>
-      </c>
       <c r="D254" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G254" t="str">
         <f t="shared" si="3"/>
@@ -13930,19 +14370,19 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C255" t="s">
         <v>1231</v>
       </c>
-      <c r="C255" t="s">
-        <v>1232</v>
-      </c>
       <c r="D255" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G255" t="str">
         <f t="shared" si="3"/>
@@ -13951,19 +14391,19 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C256" t="s">
         <v>1233</v>
       </c>
-      <c r="C256" t="s">
-        <v>1234</v>
-      </c>
       <c r="D256" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G256" t="str">
         <f t="shared" si="3"/>
@@ -13972,19 +14412,19 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C257" t="s">
         <v>1235</v>
       </c>
-      <c r="C257" t="s">
-        <v>1236</v>
-      </c>
       <c r="D257" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="G257" t="str">
         <f t="shared" si="3"/>
@@ -13993,19 +14433,19 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C258" t="s">
         <v>1237</v>
       </c>
-      <c r="C258" t="s">
-        <v>1238</v>
-      </c>
       <c r="D258" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="G258" t="str">
         <f t="shared" si="3"/>
@@ -14014,40 +14454,40 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C259" t="s">
         <v>1239</v>
       </c>
-      <c r="C259" t="s">
-        <v>1240</v>
-      </c>
       <c r="D259" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G259" t="str">
-        <f t="shared" ref="G259:G268" si="4">"{name:" &amp; "['"&amp;A259&amp;"'"&amp;IF(ISBLANK(B259),"",",'"&amp;B259&amp;"'")&amp;"],addr:" &amp; "'" &amp;C259&amp;"',x:"&amp; "'" &amp;D259&amp;"',y:"&amp; "'" &amp;E259&amp;"',jibun:"&amp; "'" &amp;F259&amp;"'},"</f>
+        <f t="shared" ref="G259:G297" si="4">"{name:" &amp; "['"&amp;A259&amp;"'"&amp;IF(ISBLANK(B259),"",",'"&amp;B259&amp;"'")&amp;"],addr:" &amp; "'" &amp;C259&amp;"',x:"&amp; "'" &amp;D259&amp;"',y:"&amp; "'" &amp;E259&amp;"',jibun:"&amp; "'" &amp;F259&amp;"'},"</f>
         <v>{name:['계양팬더점G'],addr:'인천광역시 계양구 경명대로1142번길 5',x:'932278.270056488',y:'1949518.940805179',jibun:'인천광역시 계양구 계산동 489-6 팬더아파트'},</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C260" t="s">
         <v>1241</v>
       </c>
-      <c r="C260" t="s">
-        <v>1242</v>
-      </c>
       <c r="D260" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G260" t="str">
         <f t="shared" si="4"/>
@@ -14056,19 +14496,19 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C261" t="s">
         <v>1243</v>
       </c>
-      <c r="C261" t="s">
-        <v>1244</v>
-      </c>
       <c r="D261" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G261" t="str">
         <f t="shared" si="4"/>
@@ -14077,19 +14517,19 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C262" t="s">
         <v>1245</v>
       </c>
-      <c r="C262" t="s">
-        <v>1246</v>
-      </c>
       <c r="D262" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G262" t="str">
         <f t="shared" si="4"/>
@@ -14098,19 +14538,19 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C263" t="s">
         <v>1247</v>
       </c>
-      <c r="C263" t="s">
-        <v>1248</v>
-      </c>
       <c r="D263" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G263" t="str">
         <f t="shared" si="4"/>
@@ -14119,19 +14559,19 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C264" t="s">
         <v>1249</v>
       </c>
-      <c r="C264" t="s">
-        <v>1250</v>
-      </c>
       <c r="D264" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G264" t="str">
         <f t="shared" si="4"/>
@@ -14140,19 +14580,19 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C265" t="s">
         <v>1251</v>
       </c>
-      <c r="C265" t="s">
-        <v>1252</v>
-      </c>
       <c r="D265" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G265" t="str">
         <f t="shared" si="4"/>
@@ -14161,19 +14601,19 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C266" t="s">
         <v>1253</v>
       </c>
-      <c r="C266" t="s">
-        <v>1254</v>
-      </c>
       <c r="D266" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G266" t="str">
         <f t="shared" si="4"/>
@@ -14182,19 +14622,19 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C267" t="s">
         <v>1255</v>
       </c>
-      <c r="C267" t="s">
-        <v>1256</v>
-      </c>
       <c r="D267" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G267" t="str">
         <f t="shared" si="4"/>
@@ -14203,23 +14643,632 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F268" s="1" t="s">
         <v>1352</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>1353</v>
       </c>
       <c r="G268" t="str">
         <f t="shared" si="4"/>
         <v>{name:['송도휴니드'],addr:'인천광역시 연수구 벤처로 82',x:'924007.2295042474',y:'1931228.941159821',jibun:'인천광역시 연수구 송도동 11-13 정보통신산업진흥원 송도사무소'},</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G269" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['부천직업학교점G'],addr:'경기도 부천시 경인로53번길 8',x:'934711.3744017',y:'1943003.0680683935',jibun:'경기도 부천시 송내동 366 상승프라자'},</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G270" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['2001아울렛 부평점NH'],addr:'인천광역시 부평구 경원대로 1277',x:'930222.273037916',y:'1943756.3583188085',jibun:'인천광역시 부평구 산곡동 311-151 2001아울렛부평점'},</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G271" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['부평대덕아크로존 결합부스'],addr:'인천광역시 부평구 경원대로 1422',x:'931669.1764701765',y:'1943794.49328152',jibun:'인천광역시 부평구 부평동 182-10 대덕아크로존'},</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G272" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['부평보영점G'],addr:'인천광역시 부평구 경원대로1367번길 18-3',x:'931142.7376056598',y:'1943954.05065474',jibun:'인천광역시 부평구 부평동 546-133 HB엘림캐슬'},</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G273" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['부평주공점M'],addr:'인천광역시 부평구 동수로120번길 43',x:'931934.1715355264',y:'1943017.1910001677',jibun:'인천광역시 부평구 부평동 938 부평엘에이치2단지'},</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G274" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['산곡믿음점G'],addr:'인천광역시 부평구 마장로264번길 33',x:'929725.2634043125',y:'1944992.400635913',jibun:'인천광역시 부평구 산곡동 255-1 뉴서울아파트'},</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G275" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['부개하이니스점G'],addr:'인천광역시 부평구 수변로93번길 6',x:'932927.3958141634',y:'1944228.9306980837',jibun:'인천광역시 부평구 부개동 120-407'},</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G276" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['십정2동점G'],addr:'인천광역시 부평구 열우물로50번길 30',x:'929381.1594225436',y:'1941912.0994479563',jibun:'인천광역시 부평구 십정동 399-6'},</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G277" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['삼산하이존점G'],addr:'인천광역시 부평구 체육관로 32',x:'932401.6239791668',y:'1945720.5818021502',jibun:'인천광역시 부평구 삼산동 459-2 하이존 HI ZONE'},</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G278" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['삼산블루밍점G'],addr:'인천광역시 부평구 후정동로 13',x:'932645.642192537',y:'1946866.6548467316',jibun:'인천광역시 부평구 삼산동 202'},</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G279" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['심곡본점G'],addr:'경기도 부천시 심곡로9번길 40',x:'936187.7196378834',y:'1942845.7174466103',jibun:'경기도 부천시 심곡본동 665'},</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G280" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['열우물동암점G'],addr:'인천광역시 부평구 경인로667번길 14',x:'929885.288130031',y:'1941429.8037530337',jibun:'인천광역시 부평구 십정동 482-30'},</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G281" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['부평길주점G'],addr:'인천광역시 부평구 길주남로 113',x:'932322.22616114',y:'1945266.2459413433',jibun:'인천광역시 부평구 부개동 12-213'},</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G282" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['부개1동점G'],addr:'인천광역시 부평구 동수로 162',x:'932503.4987817237',y:'1943180.5450270968',jibun:'인천광역시 부평구 부개동 259'},</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G283" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['부개푸르지오점G'],addr:'인천광역시 부평구 부일로 70',x:'932570.000904714',y:'1943564.380697852',jibun:'인천광역시 부평구 부개동 166-3'},</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G284" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['부개북부역점G'],addr:'인천광역시 부평구 수변로37번길 5-2',x:'932791.9849646788',y:'1943673.6964042024',jibun:'인천광역시 부평구 부개동 197-28'},</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G285" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['부평마사회 결합부스'],addr:'인천광역시 부평구 장제로 54',x:'931927.8353052868',y:'1943718.5432799067',jibun:'인천광역시 부평구 부평동 161-3'},</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G286" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['대곶대능점G'],addr:'경기도 김포시 대곶면 대곶남로 573',x:'921102.0937932157',y:'1960245.03606041',jibun:'경기도 김포시 대곶면 대능리 57-4'},</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G287" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['김포에코점G'],addr:'경기도 김포시 사우중로 23',x:'930910.95575678',y:'1957858.4548262246',jibun:'경기도 김포시 사우동 251 에코힐즈'},</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G288" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['양촌타워점G'],addr:'경기도 김포시 양촌읍 양곡2로30번길 51-16',x:'923278.2811406231',y:'1962039.445796621',jibun:'경기도 김포시 양촌읍 양곡리 1313'},</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G289" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['김포학운점M'],addr:'경기도 김포시 양촌읍 황금로109번길 80',x:'922566.3066215497',y:'1957668.0232976116',jibun:'경기도 김포시 양촌읍 학운리 2980-4'},</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G290" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['김포데시앙점G'],addr:'경기도 김포시 양촌읍 황금로89번길 23',x:'922733.1425718856',y:'1958046.0483274334',jibun:'경기도 김포시 양촌읍 학운리 3019 김포양촌 금빛마을 자연앤 데시앙 아파트'},</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G291" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['풍무중앙점G'],addr:'경기도 김포시 풍무로96번길 42',x:'931547.1254532575',y:'1956398.4031931022',jibun:'경기도 김포시 풍무동 764 풍무자이'},</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G292" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['효성현대점M'],addr:'인천광역시 계양구 길마로88번길 1',x:'930699.2262116268',y:'1948544.4063613536',jibun:'인천광역시 계양구 효성동 21-47 대성빌딩'},</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G293" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['인천임학점G'],addr:'인천광역시 계양구 임학동로 17',x:'932442.6257163081',y:'1949692.9968899256',jibun:'인천광역시 계양구 임학동 65-11'},</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G294" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['우리가의원 결합부스'],addr:'인천광역시 계양구 계양대로 204',x:'931359.4913538166',y:'1949482.1580298734',jibun:'인천광역시 계양구 계산동 944-30'},</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G295" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['효성1동점G'],addr:'인천광역시 계양구 봉오대로531번길 33',x:'929960.5048100632',y:'1948555.4040038083',jibun:'인천광역시 계양구 효성동 97'},</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G296" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['임학역점BA'],addr:'인천광역시 계양구 장제로 879-1',x:'932744.9545369325',y:'1949848.5700937351',jibun:'인천광역시 계양구 임학동 10-10'},</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G297" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['갈산사거리점G'],addr:'인천광역시 부평구 주부토로 261',x:'931672.1376032769',y:'1946844.5130525236',jibun:'인천광역시 부평구 갈산동 169-16 신협빌딩'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\work\temp\atm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyeokpark/Desktop/dev/work/atm/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B29F207-A068-1140-88BF-5B746E7E82C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11685" yWindow="600" windowWidth="17115" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="740" windowWidth="21200" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$190</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$185</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="1501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="1601">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -4583,13 +4584,313 @@
   </si>
   <si>
     <t>1946844.5130525236</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 비둘기공원7길 22</t>
+  </si>
+  <si>
+    <t>시흥서강점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 비둘기공원7길 46</t>
+  </si>
+  <si>
+    <t>시흥월드점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 포도원로79번길 2</t>
+  </si>
+  <si>
+    <t>신천초교로점M</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주승로 110</t>
+  </si>
+  <si>
+    <t>주안에쉐르점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월로 247</t>
+  </si>
+  <si>
+    <t>구월캐슬점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월말로 67</t>
+  </si>
+  <si>
+    <t>1004마트-만수동</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월말로85번길 26</t>
+  </si>
+  <si>
+    <t>만수효성점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 남동대로 684</t>
+  </si>
+  <si>
+    <t>구월아시아드점M</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 문화서로18번길 49</t>
+  </si>
+  <si>
+    <t>구월문화점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 복개동로34번길 25</t>
+  </si>
+  <si>
+    <t>만수다온점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 서창남순환로 108</t>
+  </si>
+  <si>
+    <t>서창청아안점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 수현로136번길 35</t>
+  </si>
+  <si>
+    <t>만수신한점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 인주대로676번길 10</t>
+  </si>
+  <si>
+    <t>인천인주점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 호구포로 844</t>
+  </si>
+  <si>
+    <t>구월신세계점G</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 문화로 27</t>
+  </si>
+  <si>
+    <t>관교삼환점G</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 인주대로 456</t>
+  </si>
+  <si>
+    <t>주안승기점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 비둘기공원5길 23-1</t>
+  </si>
+  <si>
+    <t>대야상업점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 삼미시장4길 17</t>
+  </si>
+  <si>
+    <t>시흥하나점M</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 문화서로17번길 6</t>
+  </si>
+  <si>
+    <t>구월점M</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 하촌로 69</t>
+  </si>
+  <si>
+    <t>만수1동점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대야동 562-3 서강프라자</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대야동 541-3 월드타운</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천동 845-19</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1216-17</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1244-11</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 911-4 봉호빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 902-5</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1178-2</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1371-17</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 935-1</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 서창동 639 서창LH3단지상가</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 1-301</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 276-1 진선빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 342-213 신세계아파트상가</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 관교동 13-10 삼환아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1517-7</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대야동 540-3 SK프라자</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천동 759</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1380-7</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 957-5</t>
+  </si>
+  <si>
+    <t>937448.3398756399</t>
+  </si>
+  <si>
+    <t>937346.2121258583</t>
+  </si>
+  <si>
+    <t>936582.2592841634</t>
+  </si>
+  <si>
+    <t>927719.2879240455</t>
+  </si>
+  <si>
+    <t>930841.5710412234</t>
+  </si>
+  <si>
+    <t>931443.6144919668</t>
+  </si>
+  <si>
+    <t>931341.4900672273</t>
+  </si>
+  <si>
+    <t>929856.9788878767</t>
+  </si>
+  <si>
+    <t>929131.4643646367</t>
+  </si>
+  <si>
+    <t>931705.8011908967</t>
+  </si>
+  <si>
+    <t>933284.22361243</t>
+  </si>
+  <si>
+    <t>932774.0465627501</t>
+  </si>
+  <si>
+    <t>930286.7067263534</t>
+  </si>
+  <si>
+    <t>931016.3459577067</t>
+  </si>
+  <si>
+    <t>929078.1662948651</t>
+  </si>
+  <si>
+    <t>928111.2086274424</t>
+  </si>
+  <si>
+    <t>937203.4966861256</t>
+  </si>
+  <si>
+    <t>936544.8355448807</t>
+  </si>
+  <si>
+    <t>928867.7313054034</t>
+  </si>
+  <si>
+    <t>932216.4311302667</t>
+  </si>
+  <si>
+    <t>1938562.4792490038</t>
+  </si>
+  <si>
+    <t>1938344.3109330758</t>
+  </si>
+  <si>
+    <t>1937651.3023221735</t>
+  </si>
+  <si>
+    <t>1938717.6941827536</t>
+  </si>
+  <si>
+    <t>1939958.9257869069</t>
+  </si>
+  <si>
+    <t>1939824.04465779</t>
+  </si>
+  <si>
+    <t>1940018.603999448</t>
+  </si>
+  <si>
+    <t>1938528.3376402766</t>
+  </si>
+  <si>
+    <t>1938925.7876847968</t>
+  </si>
+  <si>
+    <t>1939361.1383707938</t>
+  </si>
+  <si>
+    <t>1937040.3867056346</t>
+  </si>
+  <si>
+    <t>1941019.10117833</t>
+  </si>
+  <si>
+    <t>1939157.4377457472</t>
+  </si>
+  <si>
+    <t>1940141.9505111733</t>
+  </si>
+  <si>
+    <t>1938331.0861617737</t>
+  </si>
+  <si>
+    <t>1939365.0213392377</t>
+  </si>
+  <si>
+    <t>1938321.2268203245</t>
+  </si>
+  <si>
+    <t>1938071.3689906</t>
+  </si>
+  <si>
+    <t>1938957.6338435733</t>
+  </si>
+  <si>
+    <t>1939700.3908490133</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4914,24 +5215,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView topLeftCell="A181" workbookViewId="0">
       <selection activeCell="B191" sqref="B191:E193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>720</v>
       </c>
@@ -4948,7 +5249,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4969,7 +5270,7 @@
         <v>{name:'(주)비에스이',addr:'인천광역시 남동구 남동서로 193',x:'928448.838274891',y:'1934545.4152585235'},</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -4990,7 +5291,7 @@
         <v>{name:'(주)씨에스티',addr:'인천광역시 남동구 남동대로 248',x:'929162.2536080531',y:'1934468.471045103'},</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -5011,7 +5312,7 @@
         <v>{name:'(주)일야',addr:'인천광역시 남동구 은봉로 129',x:'929636.4538484735',y:'1934569.642266401'},</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -5032,7 +5333,7 @@
         <v>{name:'CU연수타운점',addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092'},</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -5053,7 +5354,7 @@
         <v>{name:'간석드림점G',addr:'인천광역시 남동구 석산로9번길 69',x:'929139.5206771668',y:'1940818.0201271167'},</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -5074,7 +5375,7 @@
         <v>{name:'고잔엘아이점G',addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442'},</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -5095,7 +5396,7 @@
         <v>{name:'고잔중앙점G',addr:'인천광역시 남동구 앵고개로 712',x:'930676.6785130233',y:'1932416.9426641734'},</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5116,7 +5417,7 @@
         <v>{name:'남구숭의점G',addr:'인천광역시 미추홀구 독배로 438',x:'924751.8764202176',y:'1940279.1432027267'},</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -5137,7 +5438,7 @@
         <v>{name:'남동논현점G',addr:'인천광역시 남동구 앵고개로815번길 20',x:'931356.6721433003',y:'1933189.4978637807'},</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -5158,7 +5459,7 @@
         <v>{name:'남촌중앙점G',addr:'인천광역시 남동구 남촌로84번길 38-1',x:'930709.9029618322',y:'1936926.6012936095'},</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -5179,7 +5480,7 @@
         <v>{name:'남촌풍림점G',addr:'인천광역시 남동구 남촌로 87',x:'930519.5241960534',y:'1936924.5501427501'},</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -5200,7 +5501,7 @@
         <v>{name:'논현9단지점G',addr:'인천광역시 남동구 에코중앙로 96',x:'931082.9144479546',y:'1932299.9763963223'},</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -5221,7 +5522,7 @@
         <v>{name:'논현그린점G',addr:'인천광역시 남동구 소래역남로 41',x:'932050.8703605854',y:'1933616.1930220574'},</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -5242,7 +5543,7 @@
         <v>{name:'논현논곡점G',addr:'인천광역시 남동구 은봉로165번길 70',x:'930117.4696603667',y:'1934690.2941433568'},</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -5263,7 +5564,7 @@
         <v>{name:'논현본점G',addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222'},</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -5284,7 +5585,7 @@
         <v>{name:'논현사리울점G',addr:'인천광역시 남동구 호구포로 294',x:'930380.131301852',y:'1934682.26347306'},</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5305,7 +5606,7 @@
         <v>{name:'논현타워점G',addr:'인천광역시 남동구 논고개로 101',x:'931351.6498332566',y:'1933713.8792295498'},</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -5326,7 +5627,7 @@
         <v>{name:'논현푸르내점G',addr:'인천광역시 남동구 포구로 96',x:'932234.2407277152',y:'1934439.1704077376'},</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -5347,7 +5648,7 @@
         <v>{name:'논현푸르지오점G',addr:'인천광역시 남동구 남동서로236번길 30',x:'928769.7605027566',y:'1934796.3489991403'},</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -5368,7 +5669,7 @@
         <v>{name:'논현하늘소점G',addr:'인천광역시 남동구 논현로 17',x:'929976.1893208527',y:'1934125.684656498'},</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -5389,7 +5690,7 @@
         <v>{name:'논현행복점G',addr:'인천광역시 남동구 논현로 152',x:'931221.0594972067',y:'1934106.1328947735'},</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -5410,7 +5711,7 @@
         <v>{name:'논현현대식자재마트',addr:'인천광역시 남동구 포구로 69',x:'932397.976608831',y:'1934223.199099741'},</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -5431,7 +5732,7 @@
         <v>{name:'논현호구포점G',addr:'인천광역시 남동구 호구포로 209',x:'929995.2392286886',y:'1933932.6975875972'},</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -5452,7 +5753,7 @@
         <v>{name:'도림벽산점G',addr:'인천광역시 남동구 도림로 5-1',x:'931800.7220110968',y:'1935999.2065084004'},</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -5473,7 +5774,7 @@
         <v>{name:'도림아이파크점G',addr:'인천광역시 남동구 도리미로 8',x:'931913.8111496232',y:'1936148.2539673'},</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -5494,7 +5795,7 @@
         <v>{name:'도화 길목G',addr:'인천광역시 미추홀구 한나루로586번길 46',x:'926983.470680593',y:'1940180.8585922741'},</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -5515,7 +5816,7 @@
         <v>{name:'도화진주점G',addr:'인천광역시 미추홀구 석정로323번길 43',x:'926556.1723330859',y:'1941432.2902734857'},</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -5536,7 +5837,7 @@
         <v>{name:'도화팰리스점G',addr:'인천광역시 미추홀구 경인로 301',x:'926987.0691978035',y:'1940461.0685464954'},</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -5557,7 +5858,7 @@
         <v>{name:'동춘서해점G',addr:'인천광역시 연수구 봉재산로 20',x:'926197.1109902868',y:'1934885.043063439'},</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -5578,7 +5879,7 @@
         <v>{name:'동춘풍림점G',addr:'인천광역시 연수구 경원대로119번길 21',x:'926969.1834998771',y:'1933933.1206172006'},</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -5599,7 +5900,7 @@
         <v>{name:'마스터뷰21호점G',addr:'인천광역시 연수구 컨벤시아대로274번길 55',x:'922947.2055729781',y:'1932085.0274891593'},</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>727</v>
       </c>
@@ -5620,7 +5921,7 @@
         <v>{name:'만도헬라일렉트로닉스(주)-WOORI',addr:'인천광역시 연수구 하모니로 224',x:'923721.6646240482',y:'1931399.019956504'},</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -5641,7 +5942,7 @@
         <v>{name:'만수숭의점G',addr:'인천광역시 남동구 구월말로58번길 1',x:'931460.6338070568',y:'1939723.2555402233'},</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>747</v>
       </c>
@@ -5662,7 +5963,7 @@
         <v>{name:'주안동궁전예식장 결합부스',addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243'},</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -5683,7 +5984,7 @@
         <v>{name:'무지개할인마트',addr:'인천광역시 연수구 새말로36번길 11',x:'926976.9262094533',y:'1936160.6680197665'},</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -5704,7 +6005,7 @@
         <v>{name:'미니24-인천',addr:'인천광역시 미추홀구 경인로 437',x:'928246.1295577467',y:'1940192.399497855'},</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>725</v>
       </c>
@@ -5725,7 +6026,7 @@
         <v>{name:'미추홀타워점G',addr:'인천광역시 연수구 갯벌로 12',x:'925064.2345959987',y:'1931830.2383670015'},</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -5746,7 +6047,7 @@
         <v>{name:'보금마트-연수',addr:'인천광역시 연수구 함박로25번길 2',x:'927463.1199536233',y:'1936627.06679082'},</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -5767,7 +6068,7 @@
         <v>{name:'서구검단고점G',addr:'인천광역시 서구 검단로 532',x:'926110.4926230235',y:'1956373.3558248538'},</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -5788,7 +6089,7 @@
         <v>{name:'서구엠파크점G',addr:'인천광역시 서구 염곡로 52',x:'926244.9221541481',y:'1943755.5184864542'},</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -5809,7 +6110,7 @@
         <v>{name:'서구연희점G',addr:'인천광역시 서구 간촌로 9',x:'927388.9430976734',y:'1950308.0950684836'},</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -5830,7 +6131,7 @@
         <v>{name:'선학역점M',addr:'인천광역시 연수구 학나래로118번길 23',x:'929081.3471575531',y:'1936767.7973411446'},</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -5851,7 +6152,7 @@
         <v>{name:'선학중앙G',addr:'인천광역시 연수구 학나래로6번길 32',x:'929030.9872679301',y:'1936439.7252242365'},</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -5872,7 +6173,7 @@
         <v>{name:'세븐일레븐-인천간석역점',addr:'인천광역시 남동구 석산로 3',x:'928759.3617110967',y:'1940883.321277853'},</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -5893,7 +6194,7 @@
         <v>{name:'셀트리온 제2공장 3층WOORI',addr:'인천광역시 연수구 아카데미로51번길 20',x:'923862.253035788',y:'1930721.5154832513'},</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -5914,7 +6215,7 @@
         <v>{name:'소래베스트점G',addr:'인천광역시 남동구 소래역로 20',x:'932409.8016257668',y:'1933619.6491731368'},</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -5935,7 +6236,7 @@
         <v>{name:'소래시티점G',addr:'인천광역시 남동구 포구로 35',x:'932559.6363396579',y:'1933938.546323114'},</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>124</v>
       </c>
@@ -5956,7 +6257,7 @@
         <v>{name:'소래중앙점G',addr:'인천광역시 남동구 소래역로18번길 15',x:'932472.0993263312',y:'1933643.4917039908'},</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -5977,7 +6278,7 @@
         <v>{name:'소래포구점G',addr:'인천광역시 남동구 장도로 85',x:'932594.8315246161',y:'1933497.9901714372'},</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -5998,7 +6299,7 @@
         <v>{name:'소래풍림점G',addr:'인천광역시 남동구 포구로 64-29',x:'932494.2900207366',y:'1934308.7269807002'},</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>350</v>
       </c>
@@ -6019,7 +6320,7 @@
         <v>{name:'송도 라이크홈기숙사-KEB하나',addr:'인천광역시 연수구 첨단대로 80',x:'925077.5744217939',y:'1930163.4990456211'},</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -6040,7 +6341,7 @@
         <v>{name:'주안으뜸점G',addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243'},</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -6061,7 +6362,7 @@
         <v>{name:'송도그림워크점GSS',addr:'인천광역시 연수구 아트센터대로97번길 15',x:'923949.5984413391',y:'1933886.2199624083'},</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -6082,7 +6383,7 @@
         <v>{name:'송도더샵엑스포KB',addr:'인천광역시 연수구 컨벤시아대로42번길 95',x:'924238.7160272836',y:'1934178.4920383645'},</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -6103,7 +6404,7 @@
         <v>{name:'송도더샵점G',addr:'인천광역시 연수구 아트센터대로97번길 75',x:'924389.3127429485',y:'1933490.9978888235'},</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -6124,7 +6425,7 @@
         <v>{name:'송도라마다점G',addr:'인천광역시 연수구 능허대로267번길 29',x:'925239.3006682626',y:'1935277.2973558633'},</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -6145,7 +6446,7 @@
         <v>{name:'송도메디점G',addr:'인천광역시 연수구 컨벤시아대로130번길 14',x:'924308.0890260204',y:'1932993.4899920663'},</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>171</v>
       </c>
@@ -6166,7 +6467,7 @@
         <v>{name:'송도성지점G',addr:'인천광역시 연수구 신송로6번길 7',x:'925894.2303461249',y:'1932625.2375938715'},</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -6187,7 +6488,7 @@
         <v>{name:'메리빌리아-송도',addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588'},</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -6208,7 +6509,7 @@
         <v>{name:'송도센트럴파크호텔',addr:'인천광역시 연수구 테크노파크로 193',x:'923641.9774963101',y:'1932732.2588121234'},</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -6229,7 +6530,7 @@
         <v>{name:'송도스마트밸리점G',addr:'인천광역시 연수구 송도미래로 30',x:'924568.090254779',y:'1930236.501307576'},</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -6250,7 +6551,7 @@
         <v>{name:'송도월드마크점M',addr:'인천광역시 연수구 컨벤시아대로 60',x:'924851.1126633752',y:'1933442.4269422777'},</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -6271,7 +6572,7 @@
         <v>{name:'송도유원지점G',addr:'인천광역시 연수구 능허대로 203',x:'924862.0970530566',y:'1935734.32011165'},</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -6292,7 +6593,7 @@
         <v>{name:'송도점-GSS',addr:'인천광역시 연수구 해돋이로 107',x:'924778.2391112824',y:'1932822.1059526857'},</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -6313,7 +6614,7 @@
         <v>{name:'송도커넬워크점G',addr:'인천광역시 연수구 아트센터대로 107',x:'923751.8781831791',y:'1933894.0553808152'},</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -6334,7 +6635,7 @@
         <v>{name:'송도테크노파크IT센터SHINHAN',addr:'인천광역시 연수구 송도과학로 32',x:'925841.3207283262',y:'1931743.5380926528'},</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>722</v>
       </c>
@@ -6355,7 +6656,7 @@
         <v>{name:'송도트리플점G',addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588'},</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>159</v>
       </c>
@@ -6376,7 +6677,7 @@
         <v>{name:'송도파크호텔WOORI',addr:'인천광역시 연수구 테크노파크로 151',x:'923940.5490371233',y:'1932461.3960087532'},</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -6397,7 +6698,7 @@
         <v>{name:'인천글로벌운영재단',addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412'},</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -6418,7 +6719,7 @@
         <v>{name:'송도하모니점G',addr:'인천광역시 연수구 하모니로 124',x:'924325.4107504063',y:'1932184.2251096321'},</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -6439,7 +6740,7 @@
         <v>{name:'송도해송점G',addr:'인천광역시 연수구 해송로30번길 19',x:'924385.1257843729',y:'1931691.8597509419'},</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -6460,7 +6761,7 @@
         <v>{name:'송도현대점G',addr:'인천광역시 연수구 해돋이로6번길 7',x:'925627.0584128611',y:'1932281.0568902749'},</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -6481,7 +6782,7 @@
         <v>{name:'송도힐스점G',addr:'인천광역시 연수구 컨벤시아대로 90',x:'924647.7513800692',y:'1933202.8066080627'},</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -6502,7 +6803,7 @@
         <v>{name:'숭의길목점G',addr:'인천광역시 미추홀구 수봉안길 16',x:'925635.7302395517',y:'1940618.206504576'},</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -6523,7 +6824,7 @@
         <v>{name:'시흥신창점G',addr:'경기도 시흥시 신천4길 12',x:'936418.8711248166',y:'1937926.4969950966'},</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -6544,7 +6845,7 @@
         <v>{name:'신기사거리점G',addr:'인천광역시 미추홀구 미추홀대로 610',x:'927475.7843919608',y:'1939483.3085580925'},</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -6565,7 +6866,7 @@
         <v>{name:'신천동국민은행 결합부스',addr:'경기도 시흥시 수인로 3372',x:'936693.2910999567',y:'1938235.12572021'},</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -6586,7 +6887,7 @@
         <v>{name:'아크리아점G',addr:'인천광역시 연수구 신송로125번길 13',x:'924866.6899020134',y:'1933167.18251291'},</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>358</v>
       </c>
@@ -6607,7 +6908,7 @@
         <v>{name:'한국뉴욕주립대학교 결합부스',addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412'},</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -6628,7 +6929,7 @@
         <v>{name:'엠파크타워점G',addr:'인천광역시 서구 봉수대로 158',x:'925983.41854599',y:'1943696.0707750432'},</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -6649,7 +6950,7 @@
         <v>{name:'연수경원G',addr:'인천광역시 연수구 경원대로467번길 13',x:'929009.7022006633',y:'1936610.8085542968'},</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -6670,7 +6971,7 @@
         <v>{name:'연수골드점G',addr:'인천광역시 연수구 함박로 80',x:'927980.0656931633',y:'1936544.17710579'},</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -6691,7 +6992,7 @@
         <v>{name:'연수단비점G',addr:'인천광역시 연수구 청능대로113번길 43',x:'927274.7641431501',y:'1935327.7588821636'},</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -6712,7 +7013,7 @@
         <v>{name:'연수선학점G',addr:'인천광역시 연수구 넘말로29번길 21',x:'928915.90151959',y:'1936891.1488486365'},</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -6733,7 +7034,7 @@
         <v>{name:'연수장례식장 인천내부',addr:'인천광역시 연수구 벚꽃로 122',x:'927335.7894045769',y:'1935611.3385808035'},</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -6754,7 +7055,7 @@
         <v>{name:'연수점G',addr:'인천광역시 연수구 새말로46번길 4',x:'927054.4397459901',y:'1936127.9562478536'},</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -6775,7 +7076,7 @@
         <v>{name:'연수점M',addr:'인천광역시 연수구 비류대로 230',x:'925700.9976564867',y:'1936753.3900593636'},</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -6796,7 +7097,7 @@
         <v>{name:'연수중앙점G',addr:'인천광역시 연수구 새말로69번길 1',x:'927230.4884649334',y:'1935967.4642858398'},</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -6817,7 +7118,7 @@
         <v>{name:'연수청학점M',addr:'인천광역시 연수구 먼우금로 197',x:'927097.7779245968',y:'1935413.5243354505'},</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -6838,7 +7139,7 @@
         <v>{name:'연수타운점G',addr:'인천광역시 연수구 샘말로21번길 3',x:'927277.5510110233',y:'1935141.1890938403'},</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -6859,7 +7160,7 @@
         <v>{name:'연수태산점G',addr:'인천광역시 연수구 먼우금로264번길 8-4',x:'927477.3679526933',y:'1935944.299351547'},</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -6880,7 +7181,7 @@
         <v>{name:'연수파크타운점M',addr:'인천광역시 연수구 용담로 115',x:'927244.231129833',y:'1935426.1714365287'},</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>131</v>
       </c>
@@ -6901,7 +7202,7 @@
         <v>{name:'연수함박점M',addr:'인천광역시 연수구 함박뫼로50번길 93',x:'927263.5188448408',y:'1935872.3548643487'},</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>170</v>
       </c>
@@ -6922,7 +7223,7 @@
         <v>{name:'연수희망점G',addr:'인천광역시 연수구 앵고개로 256',x:'926724.2878851034',y:'1934622.8657452334'},</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>61</v>
       </c>
@@ -6943,7 +7244,7 @@
         <v>{name:'영빌딩CITY',addr:'인천광역시 미추홀구 인하로 253',x:'927138.1700531407',y:'1939133.3534303224'},</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -6964,7 +7265,7 @@
         <v>{name:'옥련백산점G',addr:'인천광역시 연수구 독배로 25',x:'924316.71718126',y:'1936330.9110739832'},</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>182</v>
       </c>
@@ -6985,7 +7286,7 @@
         <v>{name:'옥련사거리G',addr:'인천광역시 연수구 독배로 68',x:'924367.6668144872',y:'1936729.1735826507'},</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>181</v>
       </c>
@@ -7006,7 +7307,7 @@
         <v>{name:'옥련사랑M',addr:'인천광역시 연수구 한나루로 166',x:'925293.9163142969',y:'1936455.0597683867'},</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>134</v>
       </c>
@@ -7027,7 +7328,7 @@
         <v>{name:'옥련서해점G',addr:'인천광역시 연수구 청량로185번길 13',x:'924973.1474770068',y:'1936336.0367916236'},</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>180</v>
       </c>
@@ -7048,7 +7349,7 @@
         <v>{name:'옥련쌍용G',addr:'인천광역시 연수구 청량로184번길 48',x:'925182.9532054849',y:'1936549.0084032882'},</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -7069,7 +7370,7 @@
         <v>{name:'옥련아주점G',addr:'인천광역시 연수구 청량로 217',x:'925018.4765206832',y:'1936665.1654121173'},</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -7090,7 +7391,7 @@
         <v>{name:'옥련우성점G',addr:'인천광역시 연수구 독배로40번길 47',x:'924577.7008813033',y:'1936507.4463419202'},</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>132</v>
       </c>
@@ -7111,7 +7412,7 @@
         <v>{name:'옥련풍림점G',addr:'인천광역시 연수구 한나루로193번길 3',x:'925362.11812462',y:'1936699.7315103933'},</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -7132,7 +7433,7 @@
         <v>{name:'월미분수대점G',addr:'인천광역시 중구 월미문화로 57',x:'920135.501782795',y:'1941955.847831308'},</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -7153,7 +7454,7 @@
         <v>{name:'월미중앙점G',addr:'인천광역시 중구 월미문화로 65',x:'920108.2432266385',y:'1941888.865706168'},</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>76</v>
       </c>
@@ -7174,7 +7475,7 @@
         <v>{name:'위드미-라마다송도점',addr:'인천광역시 연수구 능허대로267번길 42',x:'925310.3928309134',y:'1935295.212755117'},</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -7195,7 +7496,7 @@
         <v>{name:'유진로봇 송도사옥',addr:'인천광역시 연수구 하모니로187번길 33',x:'924180.5928355344',y:'1931340.6668476937'},</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -7216,7 +7517,7 @@
         <v>{name:'은계센트럴점G',addr:'경기도 시흥시 은계중앙로 97',x:'938203.4013041602',y:'1938022.7406927734'},</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>156</v>
       </c>
@@ -7237,7 +7538,7 @@
         <v>{name:'은행동성원아파트 결합부스',addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804'},</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>157</v>
       </c>
@@ -7258,7 +7559,7 @@
         <v>{name:'은행동약사 결합부스',addr:'경기도 시흥시 은행로 8',x:'937498.2971942425',y:'1937334.1604390284'},</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>149</v>
       </c>
@@ -7279,7 +7580,7 @@
         <v>{name:'은혜의교회SH',addr:'인천광역시 미추홀구 매소홀로 428',x:'926520.0805420987',y:'1938134.7043078174'},</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -7300,7 +7601,7 @@
         <v>{name:'이마트 동인천점SC',addr:'인천광역시 중구 인중로 134',x:'922988.2656142102',y:'1941172.2637899336'},</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>179</v>
       </c>
@@ -7321,7 +7622,7 @@
         <v>{name:'이마트24 연수함박로',addr:'인천광역시 연수구 함박로 36',x:'927543.317565355',y:'1936592.6575228586'},</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -7342,7 +7643,7 @@
         <v>{name:'이수엑사보드 인천공장',addr:'인천광역시 남동구 남동서로270번길 54',x:'929093.4386579194',y:'1935045.5201349352'},</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>734</v>
       </c>
@@ -7363,7 +7664,7 @@
         <v>{name:'인천 송도 컨벤시아',addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082'},</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -7384,7 +7685,7 @@
         <v>{name:'인천5공단파출소결합부스',addr:'인천광역시 서구 가재울로 75',x:'927648.8596204547',y:'1942435.9377577854'},</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -7405,7 +7706,7 @@
         <v>{name:'인천경동점G',addr:'인천광역시 중구 개항로 82',x:'923229.7654404601',y:'1941739.1997609003'},</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>728</v>
       </c>
@@ -7426,7 +7727,7 @@
         <v>{name:'송도 에듀포레푸르지오',addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713'},</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>82</v>
       </c>
@@ -7447,7 +7748,7 @@
         <v>{name:'인천남촌로점G',addr:'인천광역시 남동구 남촌동로3번길 33',x:'930644.9199876767',y:'1937177.0833667233'},</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>57</v>
       </c>
@@ -7468,7 +7769,7 @@
         <v>{name:'인천논현광장점G',addr:'인천광역시 남동구 논고개로123번길 35',x:'931147.5988134101',y:'1933884.31215839'},</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -7489,7 +7790,7 @@
         <v>{name:'인천논현사랑점G',addr:'인천광역시 남동구 논고개로 166',x:'931299.0037734902',y:'1934371.8316615'},</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -7510,7 +7811,7 @@
         <v>{name:'인천논현역점G',addr:'인천광역시 남동구 논고개로 121',x:'931299.4091969267',y:'1933928.8000814402'},</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>51</v>
       </c>
@@ -7531,7 +7832,7 @@
         <v>{name:'인천논현점M',addr:'인천광역시 남동구 논현로46번길 51',x:'930040.7558424668',y:'1933792.9459385104'},</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>93</v>
       </c>
@@ -7552,7 +7853,7 @@
         <v>{name:'인천동아서점 결합부스',addr:'인천광역시 미추홀구 경인로 386-1',x:'927733.8360022209',y:'1940187.0715722647'},</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>160</v>
       </c>
@@ -7573,7 +7874,7 @@
         <v>{name:'인천메카점M',addr:'인천광역시 연수구 용담로125번길 41',x:'927422.4468487434',y:'1935499.65872847'},</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -7594,7 +7895,7 @@
         <v>{name:'인천벽산아파트 결합부스',addr:'인천광역시 남동구 서판로 43',x:'931434.1630260036',y:'1940841.3205330772'},</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>85</v>
       </c>
@@ -7615,7 +7916,7 @@
         <v>{name:'인천선학점G',addr:'인천광역시 연수구 비류대로529번길 10',x:'928643.5051002635',y:'1936354.497053353'},</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>94</v>
       </c>
@@ -7636,7 +7937,7 @@
         <v>{name:'인천송도점G',addr:'인천광역시 연수구 해돋이로84번길 29',x:'925166.2389731444',y:'1932929.6578389006'},</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -7657,7 +7958,7 @@
         <v>{name:'인천신현쇼핑 결합부스',addr:'인천광역시 서구 가정로 369',x:'926879.0843732902',y:'1946840.1810874036'},</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>100</v>
       </c>
@@ -7678,7 +7979,7 @@
         <v>{name:'인천옥련점M',addr:'인천광역시 연수구 한나루로197번길 30',x:'925282.19116041',y:'1936827.8251766833'},</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -7699,7 +8000,7 @@
         <v>{name:'인천주안로점G',addr:'인천광역시 미추홀구 주안동로 28-15',x:'928043.4087397007',y:'1940464.958479995'},</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -7720,7 +8021,7 @@
         <v>{name:'인천터미널점M',addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102'},</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>352</v>
       </c>
@@ -7741,7 +8042,7 @@
         <v>{name:'인천해양경찰서-SH',addr:'인천광역시 연수구 옥골로 69',x:'924748.3864360615',y:'1937246.7582861618'},</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -7762,7 +8063,7 @@
         <v>{name:'인천호구포역점M',addr:'인천광역시 남동구 논현로26번길 12',x:'929979.51652928',y:'1934015.4848348568'},</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>63</v>
       </c>
@@ -7783,7 +8084,7 @@
         <v>{name:'자매슈퍼-연수',addr:'인천광역시 연수구 함박로12번길 46',x:'927560.5282932345',y:'1936553.2454770715'},</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>25</v>
       </c>
@@ -7804,7 +8105,7 @@
         <v>{name:'제물포버스정류장 결합부스',addr:'인천광역시 미추홀구 경인로 135',x:'925542.174751237',y:'1941140.5618504882'},</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>69</v>
       </c>
@@ -7825,7 +8126,7 @@
         <v>{name:'제일슈퍼-인천',addr:'인천광역시 연수구 함박안로156번길 6',x:'927773.0413744',y:'1936723.1742538'},</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>173</v>
       </c>
@@ -7846,7 +8147,7 @@
         <v>{name:'주안 보보G',addr:'인천광역시 미추홀구 경인로425번길 14',x:'928155.8178139064',y:'1940251.613382046'},</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>174</v>
       </c>
@@ -7867,7 +8168,7 @@
         <v>{name:'주안 신성G',addr:'인천광역시 미추홀구 주안중로 28',x:'927733.3861476094',y:'1940496.9830620233'},</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>116</v>
       </c>
@@ -7888,7 +8189,7 @@
         <v>{name:'주안1동점G',addr:'인천광역시 미추홀구 주안중로50번길 20',x:'927832.11701282',y:'1940714.3422219716'},</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -7909,7 +8210,7 @@
         <v>{name:'주안공단점G',addr:'인천광역시 미추홀구 염전로 362',x:'927504.3446300412',y:'1941528.745698372'},</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>98</v>
       </c>
@@ -7930,7 +8231,7 @@
         <v>{name:'주안남부점M',addr:'인천광역시 미추홀구 주안로104번길 15',x:'927600.294782457',y:'1940748.241028722'},</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>117</v>
       </c>
@@ -7951,7 +8252,7 @@
         <v>{name:'주안대로점G',addr:'인천광역시 미추홀구 주안로 45',x:'927021.73843505',y:'1940904.6652424666'},</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -7972,7 +8273,7 @@
         <v>{name:'주안동경점G',addr:'인천광역시 미추홀구 주안서로 53',x:'927285.2900126814',y:'1940792.0053177588'},</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -7993,7 +8294,7 @@
         <v>{name:'에듀포레점G',addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713'},</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -8014,7 +8315,7 @@
         <v>{name:'주안미래점M',addr:'인천광역시 미추홀구 주안중로 13-1',x:'927698.3542673178',y:'1940367.9314235584'},</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -8035,7 +8336,7 @@
         <v>{name:'주안미소점G',addr:'인천광역시 미추홀구 신기길30번길 37',x:'926981.776154774',y:'1938935.675808793'},</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -8056,7 +8357,7 @@
         <v>{name:'주안미추홀점G',addr:'인천광역시 미추홀구 경인로 343',x:'927260.9079237133',y:'1940267.6733396333'},</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -8077,7 +8378,7 @@
         <v>{name:'주안본점M',addr:'인천광역시 미추홀구 미추홀대로734번길 37',x:'927714.5775235672',y:'1940744.2295416128'},</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>109</v>
       </c>
@@ -8098,7 +8399,7 @@
         <v>{name:'주안사거리점G',addr:'인천광역시 미추홀구 석바위로 61',x:'927476.9399430258',y:'1940520.5633123717'},</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>86</v>
       </c>
@@ -8119,7 +8420,7 @@
         <v>{name:'주안석바위점M',addr:'인천광역시 미추홀구 석바위로 112',x:'927947.6847094274',y:'1940400.324138321'},</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -8140,7 +8441,7 @@
         <v>{name:'주안세일점G',addr:'인천광역시 미추홀구 동주길 76',x:'927911.4083549832',y:'1939815.436123129'},</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>184</v>
       </c>
@@ -8161,7 +8462,7 @@
         <v>{name:'주안역삼거리 결합부스',addr:'인천광역시 미추홀구 미추홀대로 741',x:'927492.7927790079',y:'1940802.0347208697'},</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -8182,7 +8483,7 @@
         <v>{name:'주안월드점G',addr:'인천광역시 미추홀구 경인로485번길 33',x:'928577.0918325363',y:'1940491.9788272986'},</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -8203,7 +8504,7 @@
         <v>{name:'송도센트럴점M',addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754'},</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>139</v>
       </c>
@@ -8224,7 +8525,7 @@
         <v>{name:'주안주공점G',addr:'인천광역시 미추홀구 주안로 215',x:'928700.075495082',y:'1940788.8228662973'},</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>148</v>
       </c>
@@ -8245,7 +8546,7 @@
         <v>{name:'주안파크점G',addr:'인천광역시 미추홀구 미추홀대로722번길 21-1',x:'927631.6564081493',y:'1940615.9256797591'},</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -8266,7 +8567,7 @@
         <v>{name:'주안한신점G',addr:'인천광역시 미추홀구 인하로352번길 10',x:'928112.3556398968',y:'1939019.7543626092'},</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>119</v>
       </c>
@@ -8287,7 +8588,7 @@
         <v>{name:'주안행복점M',addr:'인천광역시 미추홀구 석바위로53번길 3',x:'927366.0847729146',y:'1940514.0627141502'},</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>55</v>
       </c>
@@ -8308,7 +8609,7 @@
         <v>{name:'중부지방해양경찰청SH',addr:'인천광역시 연수구 센트럴로 263',x:'923373.8316200967',y:'1933570.7668816056'},</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -8329,7 +8630,7 @@
         <v>{name:'중앙슈퍼-연수',addr:'인천광역시 연수구 함박뫼로4번길 13-8',x:'926743.3556705897',y:'1935757.611946192'},</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -8350,7 +8651,7 @@
         <v>{name:'천일식품-고잔동',addr:'인천광역시 남동구 앵고개로 426',x:'928102.1321792866',y:'1933636.4756072024'},</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>103</v>
       </c>
@@ -8371,7 +8672,7 @@
         <v>{name:'청능공원점G',addr:'인천광역시 연수구 청능말로7번길 20',x:'926506.0746164669',y:'1935665.4340851936'},</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>28</v>
       </c>
@@ -8392,7 +8693,7 @@
         <v>{name:'청라리치아노점M',addr:'인천광역시 서구 청라에메랄드로102번길 10',x:'925562.0452141722',y:'1948624.1122872476'},</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -8413,7 +8714,7 @@
         <v>{name:'청라에뜰점G',addr:'인천광역시 서구 청라커낼로 300',x:'924457.963117328',y:'1948765.6387663502'},</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>27</v>
       </c>
@@ -8434,7 +8735,7 @@
         <v>{name:'청라호반점G',addr:'인천광역시 서구 청라커낼로 163',x:'923949.8371560569',y:'1947760.2909392407'},</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>354</v>
       </c>
@@ -8455,7 +8756,7 @@
         <v>{name:'청학복합문화센터-SHINHAN',addr:'인천광역시 연수구 비류대로 299',x:'926357.2427523071',y:'1936675.620955735'},</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>74</v>
       </c>
@@ -8476,7 +8777,7 @@
         <v>{name:'청학본점G',addr:'인천광역시 연수구 비류대로278번길 8-3',x:'926142.2991103267',y:'1936646.2066965867'},</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -8497,7 +8798,7 @@
         <v>{name:'청학타운점G',addr:'인천광역시 연수구 청학로12번길 47',x:'926231.6395880934',y:'1936834.2690070835'},</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -8518,7 +8819,7 @@
         <v>{name:'청학현대점G',addr:'인천광역시 연수구 계림로35번길 58',x:'926443.0193460134',y:'1936904.7241967367'},</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>730</v>
       </c>
@@ -8539,7 +8840,7 @@
         <v>{name:'코스트코',addr:'인천광역시 연수구 컨벤시아대로230번길 60',x:' 923278.7832623338',y:'1932636.7317621163'},</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>133</v>
       </c>
@@ -8560,7 +8861,7 @@
         <v>{name:'퍼스트파크13점',addr:'인천광역시 연수구 컨벤시아대로252번길 70',x:'923074.6219626968',y:'1932451.7707887636'},</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>47</v>
       </c>
@@ -8581,7 +8882,7 @@
         <v>{name:'포스코송도 R&amp;D센터KB',addr:'인천광역시 연수구 송도과학로 100',x:'926384.4323779428',y:'1931453.2860596376'},</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>53</v>
       </c>
@@ -8602,7 +8903,7 @@
         <v>{name:'포스코이앤씨타워점G',addr:'인천광역시 연수구 인천타워대로 241',x:'923372.5008990793',y:'1932935.9711958324'},</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>123</v>
       </c>
@@ -8623,7 +8924,7 @@
         <v>{name:'하이-소래포구',addr:'인천광역시 남동구 포구로 3',x:'932688.4409603968',y:'1933646.0883224965'},</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>22</v>
       </c>
@@ -8644,7 +8945,7 @@
         <v>{name:'학익늘봄점G',addr:'인천광역시 미추홀구 한나루로403번길 105',x:'925632.7361822787',y:'1938795.12119258'},</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -8665,7 +8966,7 @@
         <v>{name:'학익다송G',addr:'인천광역시 미추홀구 소성로 162',x:'926243.6841133314',y:'1938404.1977886255'},</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>83</v>
       </c>
@@ -8686,7 +8987,7 @@
         <v>{name:'학익대로점G',addr:'인천광역시 미추홀구 소성로 244',x:'926977.6259435453',y:'1938038.3710919674'},</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>175</v>
       </c>
@@ -8707,7 +9008,7 @@
         <v>{name:'학익미소G',addr:'인천광역시 미추홀구 주승로 22',x:'926826.3832888785',y:'1938596.312287895'},</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -8728,7 +9029,7 @@
         <v>{name:'학익사거리점M',addr:'인천광역시 미추홀구 매소홀로446번길 16',x:'926687.5525610019',y:'1938078.4112452823'},</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>84</v>
       </c>
@@ -8749,7 +9050,7 @@
         <v>{name:'학익센터점G',addr:'인천광역시 미추홀구 매소홀로446번길 4',x:'926688.1271994561',y:'1938129.2821605182'},</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>40</v>
       </c>
@@ -8770,7 +9071,7 @@
         <v>{name:'학익점GSS',addr:'인천광역시 미추홀구 소성로 146',x:'926064.1264832243',y:'1938437.8886083513'},</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>118</v>
       </c>
@@ -8791,7 +9092,7 @@
         <v>{name:'학익중앙점G',addr:'인천광역시 미추홀구 소성로185번길 16-5',x:'926531.8325332045',y:'1938402.6683132658'},</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>165</v>
       </c>
@@ -8812,7 +9113,7 @@
         <v>{name:'학익타운점G',addr:'인천광역시 미추홀구 한나루로 350',x:'925893.6336379224',y:'1938132.127089256'},</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>356</v>
       </c>
@@ -8833,7 +9134,7 @@
         <v>{name:'송도푸르지오시티점G',addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754'},</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -8854,7 +9155,7 @@
         <v>{name:'한옥마을앰배서더-SHINHAN',addr:'인천광역시 연수구 테크노파크로 200',x:'923643.9542986592',y:'1932798.2731926683'},</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>33</v>
       </c>
@@ -8875,7 +9176,7 @@
         <v>{name:'한화프라자점G',addr:'인천광역시 남동구 소래역남로 12',x:'932305.6277828533',y:'1933461.700828867'},</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>129</v>
       </c>
@@ -8896,7 +9197,7 @@
         <v>{name:'해양경비안전본부SHINHAN',addr:'인천광역시 연수구 해돋이로 130',x:'924618.4617833635',y:'1932985.3575826176'},</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>732</v>
       </c>
@@ -8917,7 +9218,7 @@
         <v>{name:'현대 프리미엄 아울렛 송도',addr:'인천광역시 연수구 송도국제대로 123',x:'925450.1762407259',y:'1931726.6847481355'},</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>749</v>
       </c>
@@ -8938,7 +9239,7 @@
         <v>{name:'만도로브제',addr:'인천광역시 연수구 첨단대로60번길 75',x:'924604.9640742338',y:'1929694.2852085028'},</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>752</v>
       </c>
@@ -8959,7 +9260,7 @@
         <v>{name:'한화에코11단지',addr:'인천광역시 남동구 논고개로 17',x:'931971.8826013578',y:'1933157.4842754863'},</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>754</v>
       </c>
@@ -8981,8 +9282,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F190">
-    <sortState ref="A2:F193">
+  <autoFilter ref="A1:F190" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F193">
       <sortCondition ref="B1:B190"/>
     </sortState>
   </autoFilter>
@@ -8993,25 +9294,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G297"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F277" sqref="F277"/>
+    <sheetView tabSelected="1" topLeftCell="G298" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G322" sqref="G322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.625" customWidth="1"/>
-    <col min="3" max="3" width="43.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="191.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="191.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>720</v>
       </c>
@@ -9031,7 +9332,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -9052,7 +9353,7 @@
         <v>{name:['(주)비에스이'],addr:'인천광역시 남동구 남동서로 193',x:'928448.838274891',y:'1934545.4152585235',jibun:'인천광역시 남동구 고잔동 626-3 (주)이츠웰'},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -9073,7 +9374,7 @@
         <v>{name:['(주)씨에스티'],addr:'인천광역시 남동구 남동대로 248',x:'929162.2536080531',y:'1934468.471045103',jibun:'인천광역시 남동구 논현동 444-4'},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -9094,7 +9395,7 @@
         <v>{name:['(주)일야'],addr:'인천광역시 남동구 은봉로 129',x:'929636.4538484735',y:'1934569.642266401',jibun:'인천광역시 남동구 논현동 439-3'},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -9115,7 +9416,7 @@
         <v>{name:['간석드림점G'],addr:'인천광역시 남동구 석산로9번길 69',x:'929139.5206771668',y:'1940818.0201271167',jibun:'인천광역시 남동구 간석동 388-30'},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>761</v>
       </c>
@@ -9136,7 +9437,7 @@
         <v>{name:['경인종합상가 결합부스'],addr:'인천광역시 미추홀구 경인로 392',x:'927784.8569973619',y:'1940188.3494468476',jibun:'인천광역시 미추홀구 주안동 431-1 경인상가'},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -9160,7 +9461,7 @@
         <v>{name:['고잔엘아이점G','남동국가365'],addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442',jibun:'인천광역시 남동구 고잔동 736-4'},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -9181,7 +9482,7 @@
         <v>{name:['고잔중앙점G'],addr:'인천광역시 남동구 앵고개로 712',x:'930676.6785130233',y:'1932416.9426641734',jibun:'인천광역시 남동구 고잔동 349-3 석준빌딩'},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -9202,7 +9503,7 @@
         <v>{name:['남구숭의점G'],addr:'인천광역시 미추홀구 독배로 438',x:'924751.8764202176',y:'1940279.1432027267',jibun:'인천광역시 미추홀구 숭의동 283-11'},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -9223,7 +9524,7 @@
         <v>{name:['남동논현점G'],addr:'인천광역시 남동구 앵고개로815번길 20',x:'931356.6721433003',y:'1933189.4978637807',jibun:'인천광역시 남동구 논현동 740-2 소래휴먼시아3단지 상가비동'},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -9244,7 +9545,7 @@
         <v>{name:['남촌중앙점G'],addr:'인천광역시 남동구 남촌로84번길 38-1',x:'930709.9029618322',y:'1936926.6012936095',jibun:'인천광역시 남동구 남촌동 649'},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -9265,7 +9566,7 @@
         <v>{name:['남촌풍림점G'],addr:'인천광역시 남동구 남촌로 87',x:'930519.5241960534',y:'1936924.5501427501',jibun:'인천광역시 남동구 남촌동 266-4'},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -9286,7 +9587,7 @@
         <v>{name:['논현9단지점G'],addr:'인천광역시 남동구 에코중앙로 96',x:'931082.9144479546',y:'1932299.9763963223',jibun:'인천광역시 남동구 논현동 766-1 에코메트로9단지한화꿈에그린아파트'},</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -9307,7 +9608,7 @@
         <v>{name:['논현그린점G'],addr:'인천광역시 남동구 소래역남로 41',x:'932050.8703605854',y:'1933616.1930220574',jibun:'인천광역시 남동구 논현동 755-1 에코메트로5단지상가'},</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -9328,7 +9629,7 @@
         <v>{name:['논현논곡점G'],addr:'인천광역시 남동구 은봉로165번길 70',x:'930117.4696603667',y:'1934690.2941433568',jibun:'인천광역시 남동구 논현동 579-8'},</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -9352,7 +9653,7 @@
         <v>{name:['논현본점G','주공5단지상가(KEB하나은행365)'],addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222',jibun:'인천광역시 남동구 논현동 633-1 달맞이마을휴먼시아5단지 상가'},</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -9373,7 +9674,7 @@
         <v>{name:['논현사리울점G'],addr:'인천광역시 남동구 호구포로 294',x:'930380.131301852',y:'1934682.26347306',jibun:'인천광역시 남동구 논현동 564-1 논현주공1단지아파트'},</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -9394,7 +9695,7 @@
         <v>{name:['논현타워점G'],addr:'인천광역시 남동구 논고개로 101',x:'931351.6498332566',y:'1933713.8792295498',jibun:'인천광역시 남동구 논현동 649-3 아름다운타워'},</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -9415,7 +9716,7 @@
         <v>{name:['논현푸르내점G'],addr:'인천광역시 남동구 포구로 96',x:'932234.2407277152',y:'1934439.1704077376',jibun:'인천광역시 남동구 논현동 600-9 휴먼시아푸르내마을13단지 상가'},</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -9436,7 +9737,7 @@
         <v>{name:['논현푸르지오점G'],addr:'인천광역시 남동구 남동서로236번길 30',x:'928769.7605027566',y:'1934796.3489991403',jibun:'인천광역시 남동구 논현동 448 논현2차푸르지오시티'},</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -9457,7 +9758,7 @@
         <v>{name:['논현하늘소점G'],addr:'인천광역시 남동구 논현로 17',x:'929976.1893208527',y:'1934125.684656498',jibun:'인천광역시 남동구 논현동 643-1 범마을휴먼시아2단지 상가'},</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -9478,7 +9779,7 @@
         <v>{name:['논현행복점G'],addr:'인천광역시 남동구 논현로 152',x:'931221.0594972067',y:'1934106.1328947735',jibun:'인천광역시 남동구 논현동 619-18'},</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -9499,7 +9800,7 @@
         <v>{name:['논현현대식자재마트'],addr:'인천광역시 남동구 포구로 69',x:'932397.976608831',y:'1934223.199099741',jibun:'인천광역시 남동구 논현동 109-40'},</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -9520,7 +9821,7 @@
         <v>{name:['논현호구포점G'],addr:'인천광역시 남동구 호구포로 209',x:'929995.2392286886',y:'1933932.6975875972',jibun:'인천광역시 남동구 논현동 647-6 호텔라르시티'},</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -9541,7 +9842,7 @@
         <v>{name:['도림벽산점G'],addr:'인천광역시 남동구 도림로 5-1',x:'931800.7220110968',y:'1935999.2065084004',jibun:'인천광역시 남동구 도림동 655-5'},</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -9562,7 +9863,7 @@
         <v>{name:['도림아이파크점G'],addr:'인천광역시 남동구 도리미로 8',x:'931913.8111496232',y:'1936148.2539673',jibun:'인천광역시 남동구 도림동 651-1 현대아이파크아파트'},</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -9583,7 +9884,7 @@
         <v>{name:['도화 길목G'],addr:'인천광역시 미추홀구 한나루로586번길 46',x:'926983.470680593',y:'1940180.8585922741',jibun:'인천광역시 미추홀구 도화동 456-5'},</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -9604,7 +9905,7 @@
         <v>{name:['도화진주점G'],addr:'인천광역시 미추홀구 석정로323번길 43',x:'926556.1723330859',y:'1941432.2902734857',jibun:'인천광역시 미추홀구 도화동 107-1'},</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -9625,7 +9926,7 @@
         <v>{name:['도화팰리스점G'],addr:'인천광역시 미추홀구 경인로 301',x:'926987.0691978035',y:'1940461.0685464954',jibun:'인천광역시 미추홀구 도화동 389-13 주영팰리스'},</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -9646,7 +9947,7 @@
         <v>{name:['동춘서해점G'],addr:'인천광역시 연수구 봉재산로 20',x:'926197.1109902868',y:'1934885.043063439',jibun:'인천광역시 연수구 동춘동 0 연수 서해그랑블 1단지'},</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -9667,7 +9968,7 @@
         <v>{name:['동춘풍림점G'],addr:'인천광역시 연수구 경원대로119번길 21',x:'926969.1834998771',y:'1933933.1206172006',jibun:'인천광역시 연수구 동춘동 929 연수2차풍림아파트'},</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -9688,7 +9989,7 @@
         <v>{name:['마스터뷰21호점G'],addr:'인천광역시 연수구 컨벤시아대로274번길 55',x:'922947.2055729781',y:'1932085.0274891593',jibun:'인천광역시 연수구 송도동 110 송도 더샵 마스터뷰 21BL'},</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>749</v>
       </c>
@@ -9709,7 +10010,7 @@
         <v>{name:['만도로브제'],addr:'인천광역시 연수구 첨단대로60번길 75',x:'924604.9640742338',y:'1929694.2852085028',jibun:'인천광역시 연수구 송도동 217-1 만도브로제공장'},</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>727</v>
       </c>
@@ -9730,7 +10031,7 @@
         <v>{name:['만도헬라일렉트로닉스(주)-WOORI'],addr:'인천광역시 연수구 하모니로 224',x:'923721.6646240482',y:'1931399.019956504',jibun:'인천광역시 연수구 송도동 10-42 MHE송도공장'},</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -9751,7 +10052,7 @@
         <v>{name:['만수숭의점G'],addr:'인천광역시 남동구 구월말로58번길 1',x:'931460.6338070568',y:'1939723.2555402233',jibun:'인천광역시 남동구 만수동 913-4'},</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -9775,7 +10076,7 @@
         <v>{name:['메리빌리아-송도','송도트리플점G'],addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588',jibun:'인천광역시 연수구 송도동 170-1 송도 트리플스트리트'},</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -9796,7 +10097,7 @@
         <v>{name:['무지개할인마트'],addr:'인천광역시 연수구 새말로36번길 11',x:'926976.9262094533',y:'1936160.6680197665',jibun:'인천광역시 연수구 연수동 559'},</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -9817,7 +10118,7 @@
         <v>{name:['미니24-인천'],addr:'인천광역시 미추홀구 경인로 437',x:'928246.1295577467',y:'1940192.399497855',jibun:'인천광역시 미추홀구 주안동 1005-10'},</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>725</v>
       </c>
@@ -9838,7 +10139,7 @@
         <v>{name:['미추홀타워점G'],addr:'인천광역시 연수구 갯벌로 12',x:'925064.2345959987',y:'1931830.2383670015',jibun:'인천광역시 연수구 송도동 7-50 미추홀타워 별관A동'},</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -9859,7 +10160,7 @@
         <v>{name:['보금마트-연수'],addr:'인천광역시 연수구 함박로25번길 2',x:'927463.1199536233',y:'1936627.06679082',jibun:'인천광역시 연수구 연수동 496-11'},</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -9880,7 +10181,7 @@
         <v>{name:['서구검단고점G'],addr:'인천광역시 서구 검단로 532',x:'926110.4926230235',y:'1956373.3558248538',jibun:'인천광역시 서구 마전동 988-7 신한빌딩'},</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -9901,7 +10202,7 @@
         <v>{name:['서구엠파크점G'],addr:'인천광역시 서구 염곡로 52',x:'926244.9221541481',y:'1943755.5184864542',jibun:'인천광역시 서구 가좌동 150-19 엠파크 허브'},</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -9922,7 +10223,7 @@
         <v>{name:['서구연희점G'],addr:'인천광역시 서구 간촌로 9',x:'927388.9430976734',y:'1950308.0950684836',jibun:'인천광역시 서구 연희동 708-6'},</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -9943,7 +10244,7 @@
         <v>{name:['선학역점M'],addr:'인천광역시 연수구 학나래로118번길 23',x:'929081.3471575531',y:'1936767.7973411446',jibun:'인천광역시 연수구 선학동 406 진승빌딩'},</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -9964,7 +10265,7 @@
         <v>{name:['선학중앙G'],addr:'인천광역시 연수구 학나래로6번길 32',x:'929030.9872679301',y:'1936439.7252242365',jibun:'인천광역시 연수구 선학동 407-10'},</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -9985,7 +10286,7 @@
         <v>{name:['세븐일레븐-인천간석역점'],addr:'인천광역시 남동구 석산로 3',x:'928759.3617110967',y:'1940883.321277853',jibun:'인천광역시 남동구 간석동 394-3 의성프라자'},</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -10006,7 +10307,7 @@
         <v>{name:['셀트리온 제2공장 3층WOORI'],addr:'인천광역시 연수구 아카데미로51번길 20',x:'923862.253035788',y:'1930721.5154832513',jibun:'인천광역시 연수구 송도동 13-1 셀트리온'},</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -10027,7 +10328,7 @@
         <v>{name:['소래베스트점G'],addr:'인천광역시 남동구 소래역로 20',x:'932409.8016257668',y:'1933619.6491731368',jibun:'인천광역시 남동구 논현동 679-3'},</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -10048,7 +10349,7 @@
         <v>{name:['소래시티점G'],addr:'인천광역시 남동구 포구로 35',x:'932559.6363396579',y:'1933938.546323114',jibun:'인천광역시 남동구 논현동 66-24 유호엔시티1단지'},</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -10069,7 +10370,7 @@
         <v>{name:['소래중앙점G'],addr:'인천광역시 남동구 소래역로18번길 15',x:'932472.0993263312',y:'1933643.4917039908',jibun:'인천광역시 남동구 논현동 678-5 중앙주차타워'},</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -10090,7 +10391,7 @@
         <v>{name:['소래포구점G'],addr:'인천광역시 남동구 장도로 85',x:'932594.8315246161',y:'1933497.9901714372',jibun:'인천광역시 남동구 논현동 111-79'},</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -10111,7 +10412,7 @@
         <v>{name:['소래풍림점G'],addr:'인천광역시 남동구 포구로 64-29',x:'932494.2900207366',y:'1934308.7269807002',jibun:'인천광역시 남동구 논현동 66-39'},</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>350</v>
       </c>
@@ -10132,7 +10433,7 @@
         <v>{name:['송도 라이크홈기숙사-KEB하나'],addr:'인천광역시 연수구 첨단대로 80',x:'925077.5744217939',y:'1930163.4990456211',jibun:'인천광역시 연수구 송도동 207-3 레지던스 라이크홈'},</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>728</v>
       </c>
@@ -10156,7 +10457,7 @@
         <v>{name:['송도 에듀포레푸르지오','에듀포레점G'],addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713',jibun:'인천광역시 연수구 송도동 191-4 송도 에듀포레 푸르지오'},</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -10177,7 +10478,7 @@
         <v>{name:['송도그림워크점GSS'],addr:'인천광역시 연수구 아트센터대로97번길 15',x:'923949.5984413391',y:'1933886.2199624083',jibun:'인천광역시 연수구 송도동 17-3 더샵 그린워크2차'},</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -10198,7 +10499,7 @@
         <v>{name:['송도더샵엑스포KB'],addr:'인천광역시 연수구 컨벤시아대로42번길 95',x:'924238.7160272836',y:'1934178.4920383645',jibun:'인천광역시 연수구 송도동 16-4 더샵 엑스포'},</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -10219,7 +10520,7 @@
         <v>{name:['송도더샵점G'],addr:'인천광역시 연수구 아트센터대로97번길 75',x:'924389.3127429485',y:'1933490.9978888235',jibun:'인천광역시 연수구 송도동 17-5 송도 더샵 하버뷰 13단지'},</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -10240,7 +10541,7 @@
         <v>{name:['송도라마다점G'],addr:'인천광역시 연수구 능허대로267번길 29',x:'925239.3006682626',y:'1935277.2973558633',jibun:'인천광역시 연수구 동춘동 812-1 라마다송도호텔'},</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -10261,7 +10562,7 @@
         <v>{name:['송도메디점G'],addr:'인천광역시 연수구 컨벤시아대로130번길 14',x:'924308.0890260204',y:'1932993.4899920663',jibun:'인천광역시 연수구 송도동 22-19 송도 메디컬타워'},</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>171</v>
       </c>
@@ -10282,7 +10583,7 @@
         <v>{name:['송도성지점G'],addr:'인천광역시 연수구 신송로6번길 7',x:'925894.2303461249',y:'1932625.2375938715',jibun:'인천광역시 연수구 송도동 2-12 송도 성지리벨루스'},</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>162</v>
       </c>
@@ -10306,7 +10607,7 @@
         <v>{name:['송도센트럴점M','송도푸르지오시티점G'],addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754',jibun:'인천광역시 연수구 송도동 83 송도 센트럴파크 푸르지오시티'},</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -10327,7 +10628,7 @@
         <v>{name:['송도센트럴파크호텔'],addr:'인천광역시 연수구 테크노파크로 193',x:'923641.9774963101',y:'1932732.2588121234',jibun:'인천광역시 연수구 송도동 38 송도센트럴파크호텔'},</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -10348,7 +10649,7 @@
         <v>{name:['송도스마트밸리점G'],addr:'인천광역시 연수구 송도미래로 30',x:'924568.090254779',y:'1930236.501307576',jibun:'인천광역시 연수구 송도동 214 송도 BRC 스마트밸리 지식산업센터'},</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -10369,7 +10670,7 @@
         <v>{name:['송도월드마크점M'],addr:'인천광역시 연수구 컨벤시아대로 60',x:'924851.1126633752',y:'1933442.4269422777',jibun:'인천광역시 연수구 송도동 20-23 푸르지오월드마크'},</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -10390,7 +10691,7 @@
         <v>{name:['송도유원지점G'],addr:'인천광역시 연수구 능허대로 203',x:'924862.0970530566',y:'1935734.32011165',jibun:'인천광역시 연수구 옥련동 550-7'},</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -10411,7 +10712,7 @@
         <v>{name:['송도점-GSS'],addr:'인천광역시 연수구 해돋이로 107',x:'924778.2391112824',y:'1932822.1059526857',jibun:'인천광역시 연수구 송도동 4-1 송도 더샵 퍼스트월드'},</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -10432,7 +10733,7 @@
         <v>{name:['송도커넬워크점G'],addr:'인천광역시 연수구 아트센터대로 107',x:'923751.8781831791',y:'1933894.0553808152',jibun:'인천광역시 연수구 송도동 18-1 커낼워크D3 AUTUMN'},</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -10453,7 +10754,7 @@
         <v>{name:['송도테크노파크IT센터SHINHAN'],addr:'인천광역시 연수구 송도과학로 32',x:'925841.3207283262',y:'1931743.5380926528',jibun:'인천광역시 연수구 송도동 172-1 송도테크노파크IT센터'},</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>159</v>
       </c>
@@ -10474,7 +10775,7 @@
         <v>{name:['송도파크호텔WOORI'],addr:'인천광역시 연수구 테크노파크로 151',x:'923940.5490371233',y:'1932461.3960087532',jibun:'인천광역시 연수구 송도동 93-1 오라카이송도파크호텔'},</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -10495,7 +10796,7 @@
         <v>{name:['송도하모니점G'],addr:'인천광역시 연수구 하모니로 124',x:'924325.4107504063',y:'1932184.2251096321',jibun:'인천광역시 연수구 송도동 8-19'},</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -10516,7 +10817,7 @@
         <v>{name:['송도해송점G'],addr:'인천광역시 연수구 해송로30번길 19',x:'924385.1257843729',y:'1931691.8597509419',jibun:'인천광역시 연수구 송도동 9-6 웰카운티송도3단지'},</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -10537,7 +10838,7 @@
         <v>{name:['송도현대점G'],addr:'인천광역시 연수구 해돋이로6번길 7',x:'925627.0584128611',y:'1932281.0568902749',jibun:'인천광역시 연수구 송도동 3-46 아이파크송도'},</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -10558,7 +10859,7 @@
         <v>{name:['송도힐스점G'],addr:'인천광역시 연수구 컨벤시아대로 90',x:'924647.7513800692',y:'1933202.8066080627',jibun:'인천광역시 연수구 송도동 21-64 인천송도힐스테이트'},</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -10579,7 +10880,7 @@
         <v>{name:['숭의길목점G'],addr:'인천광역시 미추홀구 수봉안길 16',x:'925635.7302395517',y:'1940618.206504576',jibun:'인천광역시 미추홀구 숭의동 7-129'},</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -10600,7 +10901,7 @@
         <v>{name:['시흥신창점G'],addr:'경기도 시흥시 신천4길 12',x:'936418.8711248166',y:'1937926.4969950966',jibun:'경기도 시흥시 신천동 380-14'},</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -10621,7 +10922,7 @@
         <v>{name:['신기사거리점G'],addr:'인천광역시 미추홀구 미추홀대로 610',x:'927475.7843919608',y:'1939483.3085580925',jibun:'인천광역시 미추홀구 주안동 1469-1'},</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -10642,7 +10943,7 @@
         <v>{name:['신천동국민은행 결합부스'],addr:'경기도 시흥시 수인로 3372',x:'936693.2910999567',y:'1938235.12572021',jibun:'경기도 시흥시 신천동 712-9 신천프라자'},</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -10663,7 +10964,7 @@
         <v>{name:['아크리아점G'],addr:'인천광역시 연수구 신송로125번길 13',x:'924866.6899020134',y:'1933167.18251291',jibun:'인천광역시 연수구 송도동 3-6 아크리아'},</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -10684,7 +10985,7 @@
         <v>{name:['엠파크타워점G'],addr:'인천광역시 서구 봉수대로 158',x:'925983.41854599',y:'1943696.0707750432',jibun:'인천광역시 서구 가좌동 178-105 엠파크타워'},</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -10705,7 +11006,7 @@
         <v>{name:['연수경원G'],addr:'인천광역시 연수구 경원대로467번길 13',x:'929009.7022006633',y:'1936610.8085542968',jibun:'인천광역시 연수구 선학동 405-13 명빌딩'},</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -10726,7 +11027,7 @@
         <v>{name:['연수골드점G'],addr:'인천광역시 연수구 함박로 80',x:'927980.0656931633',y:'1936544.17710579',jibun:'인천광역시 연수구 연수동 522-6'},</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -10747,7 +11048,7 @@
         <v>{name:['연수단비점G'],addr:'인천광역시 연수구 청능대로113번길 43',x:'927274.7641431501',y:'1935327.7588821636',jibun:'인천광역시 연수구 연수동 598-2 동순빌딩'},</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -10768,7 +11069,7 @@
         <v>{name:['연수선학점G'],addr:'인천광역시 연수구 넘말로29번길 21',x:'928915.90151959',y:'1936891.1488486365',jibun:'인천광역시 연수구 선학동 398-2'},</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -10789,7 +11090,7 @@
         <v>{name:['연수장례식장 인천내부'],addr:'인천광역시 연수구 벚꽃로 122',x:'927335.7894045769',y:'1935611.3385808035',jibun:'인천광역시 연수구 연수동 592-5 연수동장례식장'},</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -10810,7 +11111,7 @@
         <v>{name:['연수점G'],addr:'인천광역시 연수구 새말로46번길 4',x:'927054.4397459901',y:'1936127.9562478536',jibun:'인천광역시 연수구 연수동 558-5'},</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -10831,7 +11132,7 @@
         <v>{name:['연수점M'],addr:'인천광역시 연수구 비류대로 230',x:'925700.9976564867',y:'1936753.3900593636',jibun:'인천광역시 연수구 옥련동 319-6 영남아파트상가'},</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>164</v>
       </c>
@@ -10852,7 +11153,7 @@
         <v>{name:['연수중앙점G'],addr:'인천광역시 연수구 새말로69번길 1',x:'927230.4884649334',y:'1935967.4642858398',jibun:'인천광역시 연수구 연수동 550-8'},</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>49</v>
       </c>
@@ -10873,7 +11174,7 @@
         <v>{name:['연수청학점M'],addr:'인천광역시 연수구 먼우금로 197',x:'927097.7779245968',y:'1935413.5243354505',jibun:'인천광역시 연수구 청학동 503-1 이리옴프라자'},</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>138</v>
       </c>
@@ -10894,7 +11195,7 @@
         <v>{name:['연수타운점G'],addr:'인천광역시 연수구 샘말로21번길 3',x:'927277.5510110233',y:'1935141.1890938403',jibun:'인천광역시 연수구 연수동 602-3'},</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -10915,7 +11216,7 @@
         <v>{name:['연수태산점G'],addr:'인천광역시 연수구 먼우금로264번길 8-4',x:'927477.3679526933',y:'1935944.299351547',jibun:'인천광역시 연수구 연수동 575-1'},</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -10936,7 +11237,7 @@
         <v>{name:['연수파크타운점M'],addr:'인천광역시 연수구 용담로 115',x:'927244.231129833',y:'1935426.1714365287',jibun:'인천광역시 연수구 연수동 596-7 파크타워'},</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -10957,7 +11258,7 @@
         <v>{name:['연수함박점M'],addr:'인천광역시 연수구 함박뫼로50번길 93',x:'927263.5188448408',y:'1935872.3548643487',jibun:'인천광역시 연수구 연수동 568-15'},</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>170</v>
       </c>
@@ -10978,7 +11279,7 @@
         <v>{name:['연수희망점G'],addr:'인천광역시 연수구 앵고개로 256',x:'926724.2878851034',y:'1934622.8657452334',jibun:'인천광역시 연수구 동춘동 936-5 웅지프라자'},</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>61</v>
       </c>
@@ -10999,7 +11300,7 @@
         <v>{name:['영빌딩CITY'],addr:'인천광역시 미추홀구 인하로 253',x:'927138.1700531407',y:'1939133.3534303224',jibun:'인천광역시 미추홀구 주안동 1436-5 한국씨티은행'},</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -11020,7 +11321,7 @@
         <v>{name:['옥련백산점G'],addr:'인천광역시 연수구 독배로 25',x:'924316.71718126',y:'1936330.9110739832',jibun:'인천광역시 연수구 옥련동 463-24'},</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -11041,7 +11342,7 @@
         <v>{name:['옥련사거리G'],addr:'인천광역시 연수구 독배로 68',x:'924367.6668144872',y:'1936729.1735826507',jibun:'인천광역시 연수구 옥련동 199-3'},</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>181</v>
       </c>
@@ -11062,7 +11363,7 @@
         <v>{name:['옥련사랑M'],addr:'인천광역시 연수구 한나루로 166',x:'925293.9163142969',y:'1936455.0597683867',jibun:'인천광역시 연수구 옥련동 352-30'},</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>134</v>
       </c>
@@ -11083,7 +11384,7 @@
         <v>{name:['옥련서해점G'],addr:'인천광역시 연수구 청량로185번길 13',x:'924973.1474770068',y:'1936336.0367916236',jibun:'인천광역시 연수구 옥련동 423-1'},</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>180</v>
       </c>
@@ -11104,7 +11405,7 @@
         <v>{name:['옥련쌍용G'],addr:'인천광역시 연수구 청량로184번길 48',x:'925182.9532054849',y:'1936549.0084032882',jibun:'인천광역시 연수구 옥련동 366-9'},</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>135</v>
       </c>
@@ -11125,7 +11426,7 @@
         <v>{name:['옥련아주점G'],addr:'인천광역시 연수구 청량로 217',x:'925018.4765206832',y:'1936665.1654121173',jibun:'인천광역시 연수구 옥련동 253-1'},</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -11146,7 +11447,7 @@
         <v>{name:['옥련우성점G'],addr:'인천광역시 연수구 독배로40번길 47',x:'924577.7008813033',y:'1936507.4463419202',jibun:'인천광역시 연수구 옥련동 462-20'},</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>132</v>
       </c>
@@ -11167,7 +11468,7 @@
         <v>{name:['옥련풍림점G'],addr:'인천광역시 연수구 한나루로193번길 3',x:'925362.11812462',y:'1936699.7315103933',jibun:'인천광역시 연수구 옥련동 336-5'},</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -11188,7 +11489,7 @@
         <v>{name:['월미분수대점G'],addr:'인천광역시 중구 월미문화로 57',x:'920135.501782795',y:'1941955.847831308',jibun:'인천광역시 중구 북성동1가 98-275'},</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -11209,7 +11510,7 @@
         <v>{name:['월미중앙점G'],addr:'인천광역시 중구 월미문화로 65',x:'920108.2432266385',y:'1941888.865706168',jibun:'인천광역시 중구 북성동1가 98-61'},</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>76</v>
       </c>
@@ -11230,7 +11531,7 @@
         <v>{name:['위드미-라마다송도점'],addr:'인천광역시 연수구 능허대로267번길 42',x:'925310.3928309134',y:'1935295.212755117',jibun:'인천광역시 연수구 동춘동 813'},</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -11251,7 +11552,7 @@
         <v>{name:['유진로봇 송도사옥'],addr:'인천광역시 연수구 하모니로187번길 33',x:'924180.5928355344',y:'1931340.6668476937',jibun:'인천광역시 연수구 송도동 11-5 (주)유진로봇'},</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>154</v>
       </c>
@@ -11272,7 +11573,7 @@
         <v>{name:['은계센트럴점G'],addr:'경기도 시흥시 은계중앙로 97',x:'938203.4013041602',y:'1938022.7406927734',jibun:'경기도 시흥시 은행동 38-7 은계센트럴타운'},</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>156</v>
       </c>
@@ -11293,7 +11594,7 @@
         <v>{name:['은행동성원아파트 결합부스'],addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804',jibun:'경기도 시흥시 은행동 538-2 시흥성원아파트'},</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>157</v>
       </c>
@@ -11314,7 +11615,7 @@
         <v>{name:['은행동약사 결합부스'],addr:'경기도 시흥시 은행로 8',x:'937498.2971942425',y:'1937334.1604390284',jibun:'경기도 시흥시 은행동 286-1 영진철물'},</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -11335,7 +11636,7 @@
         <v>{name:['은혜의교회SH'],addr:'인천광역시 미추홀구 매소홀로 428',x:'926520.0805420987',y:'1938134.7043078174',jibun:'인천광역시 미추홀구 학익동 682-3 은혜교회'},</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -11356,7 +11657,7 @@
         <v>{name:['이마트 동인천점SC'],addr:'인천광역시 중구 인중로 134',x:'922988.2656142102',y:'1941172.2637899336',jibun:'인천광역시 중구 신생동 38 동인천이마트'},</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -11377,7 +11678,7 @@
         <v>{name:['이마트24 연수함박로'],addr:'인천광역시 연수구 함박로 36',x:'927543.317565355',y:'1936592.6575228586',jibun:'인천광역시 연수구 연수동 495-5'},</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -11398,7 +11699,7 @@
         <v>{name:['이수엑사보드 인천공장'],addr:'인천광역시 남동구 남동서로270번길 54',x:'929093.4386579194',y:'1935045.5201349352',jibun:'인천광역시 남동구 논현동 429-3'},</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>990</v>
       </c>
@@ -11419,7 +11720,7 @@
         <v>{name:['송도 컨벤시아'],addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082',jibun:'인천광역시 연수구 송도동 6-1 송도컨벤시아'},</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -11440,7 +11741,7 @@
         <v>{name:['인천5공단파출소결합부스'],addr:'인천광역시 서구 가재울로 75',x:'927648.8596204547',y:'1942435.9377577854',jibun:'인천광역시 서구 가좌동 540-3'},</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -11461,7 +11762,7 @@
         <v>{name:['인천경동점G'],addr:'인천광역시 중구 개항로 82',x:'923229.7654404601',y:'1941739.1997609003',jibun:'인천광역시 중구 경동 187-3 예지요양병원'},</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>89</v>
       </c>
@@ -11485,7 +11786,7 @@
         <v>{name:['인천글로벌운영재단','한국뉴욕주립대학교 결합부스'],addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412',jibun:'인천광역시 연수구 송도동 187 인천글로벌캠퍼스'},</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>82</v>
       </c>
@@ -11506,7 +11807,7 @@
         <v>{name:['인천남촌로점G'],addr:'인천광역시 남동구 남촌동로3번길 33',x:'930644.9199876767',y:'1937177.0833667233',jibun:'인천광역시 남동구 남촌동 332-9 시온교회'},</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>57</v>
       </c>
@@ -11527,7 +11828,7 @@
         <v>{name:['인천논현광장점G'],addr:'인천광역시 남동구 논고개로123번길 35',x:'931147.5988134101',y:'1933884.31215839',jibun:'인천광역시 남동구 논현동 632-1 칼리오페'},</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -11548,7 +11849,7 @@
         <v>{name:['인천논현사랑점G'],addr:'인천광역시 남동구 논고개로 166',x:'931299.0037734902',y:'1934371.8316615',jibun:'인천광역시 남동구 논현동 593-6'},</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -11569,7 +11870,7 @@
         <v>{name:['인천논현역점G'],addr:'인천광역시 남동구 논고개로 121',x:'931299.4091969267',y:'1933928.8000814402',jibun:'인천광역시 남동구 논현동 631-11 에스닷몰'},</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -11590,7 +11891,7 @@
         <v>{name:['인천논현점M'],addr:'인천광역시 남동구 논현로46번길 51',x:'930040.7558424668',y:'1933792.9459385104',jibun:'인천광역시 남동구 논현동 642-1 유승테라폴리스'},</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>93</v>
       </c>
@@ -11611,7 +11912,7 @@
         <v>{name:['인천동아서점 결합부스'],addr:'인천광역시 미추홀구 경인로 386-1',x:'927733.8360022209',y:'1940187.0715722647',jibun:'인천광역시 미추홀구 주안동 431-32'},</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>160</v>
       </c>
@@ -11632,7 +11933,7 @@
         <v>{name:['인천메카점M'],addr:'인천광역시 연수구 용담로125번길 41',x:'927422.4468487434',y:'1935499.65872847',jibun:'인천광역시 연수구 연수동 593-8 메카리움오피스텔'},</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>151</v>
       </c>
@@ -11653,7 +11954,7 @@
         <v>{name:['인천벽산아파트 결합부스'],addr:'인천광역시 남동구 서판로 43',x:'931434.1630260036',y:'1940841.3205330772',jibun:'인천광역시 남동구 만수동 1114 기암유치원'},</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -11674,7 +11975,7 @@
         <v>{name:['인천선학점G'],addr:'인천광역시 연수구 비류대로529번길 10',x:'928643.5051002635',y:'1936354.497053353',jibun:'인천광역시 연수구 선학동 369-15'},</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>94</v>
       </c>
@@ -11695,7 +11996,7 @@
         <v>{name:['인천송도점G'],addr:'인천광역시 연수구 해돋이로84번길 29',x:'925166.2389731444',y:'1932929.6578389006',jibun:'인천광역시 연수구 송도동 3-13 송도풍림아이원3단지아파트'},</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -11716,7 +12017,7 @@
         <v>{name:['인천신현쇼핑 결합부스'],addr:'인천광역시 서구 가정로 369',x:'926879.0843732902',y:'1946840.1810874036',jibun:'인천광역시 서구 신현동 272-1 서경 플러스 존'},</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>100</v>
       </c>
@@ -11737,7 +12038,7 @@
         <v>{name:['인천옥련점M'],addr:'인천광역시 연수구 한나루로197번길 30',x:'925282.19116041',y:'1936827.8251766833',jibun:'인천광역시 연수구 옥련동 285-1 원준주택'},</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -11758,7 +12059,7 @@
         <v>{name:['인천주안로점G'],addr:'인천광역시 미추홀구 주안로 152',x:'928081.6298600277',y:'1940786.0079571293',jibun:'인천광역시 미추홀구 주안동 50-3'},</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -11779,7 +12080,7 @@
         <v>{name:['인천터미널점M'],addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102',jibun:'인천광역시 남동구 구월동 1462-2 노빌리안 1'},</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>352</v>
       </c>
@@ -11800,7 +12101,7 @@
         <v>{name:['인천해양경찰서-SH'],addr:'인천광역시 연수구 옥골로 69',x:'924748.3864360615',y:'1937246.7582861618',jibun:'인천광역시 연수구 옥련동 93 능허대중학교'},</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -11821,7 +12122,7 @@
         <v>{name:['인천호구포역점M'],addr:'인천광역시 남동구 논현로26번길 12',x:'929979.51652928',y:'1934015.4848348568',jibun:'인천광역시 남동구 논현동 646-1 부티크 646'},</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>63</v>
       </c>
@@ -11842,7 +12143,7 @@
         <v>{name:['자매슈퍼-연수'],addr:'인천광역시 연수구 함박로12번길 46',x:'927560.5282932345',y:'1936553.2454770715',jibun:'인천광역시 연수구 연수동 504'},</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -11863,7 +12164,7 @@
         <v>{name:['제물포버스정류장 결합부스'],addr:'인천광역시 미추홀구 경인로 135',x:'925542.174751237',y:'1941140.5618504882',jibun:'인천광역시 미추홀구 도화동 648-15 해피타운'},</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>69</v>
       </c>
@@ -11884,7 +12185,7 @@
         <v>{name:['제일슈퍼-인천'],addr:'인천광역시 연수구 함박안로156번길 6',x:'927773.0413744',y:'1936723.1742538',jibun:'인천광역시 연수구 연수동 516-8'},</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -11905,7 +12206,7 @@
         <v>{name:['주안 보보G'],addr:'인천광역시 미추홀구 경인로425번길 14',x:'928155.8178139064',y:'1940251.613382046',jibun:'인천광역시 미추홀구 주안동 1004-3'},</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>174</v>
       </c>
@@ -11926,7 +12227,7 @@
         <v>{name:['주안 신성G'],addr:'인천광역시 미추홀구 주안중로 28',x:'927733.3861476094',y:'1940496.9830620233',jibun:'인천광역시 미추홀구 주안동 86-5'},</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>116</v>
       </c>
@@ -11947,7 +12248,7 @@
         <v>{name:['주안1동점G'],addr:'인천광역시 미추홀구 주안중로50번길 20',x:'927832.11701282',y:'1940714.3422219716',jibun:'인천광역시 미추홀구 주안동 104-8'},</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -11968,7 +12269,7 @@
         <v>{name:['주안공단점G'],addr:'인천광역시 미추홀구 염전로 362',x:'927504.3446300412',y:'1941528.745698372',jibun:'인천광역시 미추홀구 주안동 16-1'},</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>98</v>
       </c>
@@ -11989,7 +12290,7 @@
         <v>{name:['주안남부점M'],addr:'인천광역시 미추홀구 주안로104번길 15',x:'927600.294782457',y:'1940748.241028722',jibun:'인천광역시 미추홀구 주안동 138-5'},</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>117</v>
       </c>
@@ -12010,7 +12311,7 @@
         <v>{name:['주안대로점G'],addr:'인천광역시 미추홀구 주안로 45',x:'927021.73843505',y:'1940904.6652424666',jibun:'인천광역시 미추홀구 주안동 478-50 희림상사㈜'},</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -12031,7 +12332,7 @@
         <v>{name:['주안동경점G'],addr:'인천광역시 미추홀구 주안서로 53',x:'927285.2900126814',y:'1940792.0053177588',jibun:'인천광역시 미추홀구 주안동 272-1'},</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>747</v>
       </c>
@@ -12055,7 +12356,7 @@
         <v>{name:['주안동궁전예식장 결합부스','주안으뜸점G'],addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243',jibun:'인천광역시 미추홀구 주안동 133-3 대동빌딩'},</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -12076,7 +12377,7 @@
         <v>{name:['주안미래점M'],addr:'인천광역시 미추홀구 주안중로 13-1',x:'927698.3542673178',y:'1940367.9314235584',jibun:'인천광역시 미추홀구 주안동 179-10'},</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -12097,7 +12398,7 @@
         <v>{name:['주안미소점G'],addr:'인천광역시 미추홀구 신기길30번길 37',x:'926981.776154774',y:'1938935.675808793',jibun:'인천광역시 미추홀구 주안동 856-3'},</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>36</v>
       </c>
@@ -12118,7 +12419,7 @@
         <v>{name:['주안미추홀점G'],addr:'인천광역시 미추홀구 경인로 343',x:'927260.9079237133',y:'1940267.6733396333',jibun:'인천광역시 미추홀구 주안동 195-2'},</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -12139,7 +12440,7 @@
         <v>{name:['주안본점M'],addr:'인천광역시 미추홀구 미추홀대로734번길 37',x:'927714.5775235672',y:'1940744.2295416128',jibun:'인천광역시 미추홀구 주안동 132-4'},</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>109</v>
       </c>
@@ -12160,7 +12461,7 @@
         <v>{name:['주안사거리점G'],addr:'인천광역시 미추홀구 석바위로 61',x:'927476.9399430258',y:'1940520.5633123717',jibun:'인천광역시 미추홀구 주안동 210-13'},</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>86</v>
       </c>
@@ -12181,7 +12482,7 @@
         <v>{name:['주안석바위점M'],addr:'인천광역시 미추홀구 석바위로 112',x:'927947.6847094274',y:'1940400.324138321',jibun:'인천광역시 미추홀구 주안동 271-22'},</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>166</v>
       </c>
@@ -12202,7 +12503,7 @@
         <v>{name:['주안세일점G'],addr:'인천광역시 미추홀구 동주길 76',x:'927911.4083549832',y:'1939815.436123129',jibun:'인천광역시 미추홀구 주안동 386-6'},</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -12223,7 +12524,7 @@
         <v>{name:['주안역삼거리 결합부스'],addr:'인천광역시 미추홀구 미추홀대로 741',x:'927492.7927790079',y:'1940802.0347208697',jibun:'인천광역시 미추홀구 주안동 227-35'},</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -12244,7 +12545,7 @@
         <v>{name:['주안월드점G'],addr:'인천광역시 미추홀구 경인로485번길 33',x:'928577.0918325363',y:'1940491.9788272986',jibun:'인천광역시 미추홀구 주안동 922-11'},</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>139</v>
       </c>
@@ -12265,7 +12566,7 @@
         <v>{name:['주안주공점G'],addr:'인천광역시 미추홀구 주안로 215',x:'928700.075495082',y:'1940788.8228662973',jibun:'인천광역시 미추홀구 주안동 49-11'},</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>148</v>
       </c>
@@ -12286,7 +12587,7 @@
         <v>{name:['주안파크점G'],addr:'인천광역시 미추홀구 미추홀대로722번길 21-1',x:'927631.6564081493',y:'1940615.9256797591',jibun:'인천광역시 미추홀구 주안동 153-9 장원빌딩'},</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -12307,7 +12608,7 @@
         <v>{name:['주안한신점G'],addr:'인천광역시 미추홀구 인하로352번길 10',x:'928112.3556398968',y:'1939019.7543626092',jibun:'인천광역시 미추홀구 주안동 1523-36'},</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>119</v>
       </c>
@@ -12328,7 +12629,7 @@
         <v>{name:['주안행복점M'],addr:'인천광역시 미추홀구 석바위로53번길 3',x:'927366.0847729146',y:'1940514.0627141502',jibun:'인천광역시 미추홀구 주안동 216-2'},</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>55</v>
       </c>
@@ -12349,7 +12650,7 @@
         <v>{name:['중부지방해양경찰청SH'],addr:'인천광역시 연수구 센트럴로 263',x:'923373.8316200967',y:'1933570.7668816056',jibun:'인천광역시 연수구 송도동 29-13 송도국제업무단지 C8-2블럭 업무복합시설'},</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>37</v>
       </c>
@@ -12370,7 +12671,7 @@
         <v>{name:['중앙슈퍼-연수'],addr:'인천광역시 연수구 함박뫼로4번길 13-8',x:'926743.3556705897',y:'1935757.611946192',jibun:'인천광역시 연수구 청학동 477-7'},</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -12391,7 +12692,7 @@
         <v>{name:['천일식품-고잔동'],addr:'인천광역시 남동구 앵고개로 426',x:'928102.1321792866',y:'1933636.4756072024',jibun:'인천광역시 남동구 고잔동 690-2'},</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -12412,7 +12713,7 @@
         <v>{name:['청능공원점G'],addr:'인천광역시 연수구 청능말로7번길 20',x:'926506.0746164669',y:'1935665.4340851936',jibun:'인천광역시 연수구 청학동 461-1'},</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>28</v>
       </c>
@@ -12433,7 +12734,7 @@
         <v>{name:['청라리치아노점M'],addr:'인천광역시 서구 청라에메랄드로102번길 10',x:'925562.0452141722',y:'1948624.1122872476',jibun:'인천광역시 서구 청라동 167-1 청라리치아노'},</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -12454,7 +12755,7 @@
         <v>{name:['청라에뜰점G'],addr:'인천광역시 서구 청라커낼로 300',x:'924457.963117328',y:'1948765.6387663502',jibun:'인천광역시 서구 청라동 156-1 청라센트럴에일린의뜰'},</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -12475,7 +12776,7 @@
         <v>{name:['청라호반점G'],addr:'인천광역시 서구 청라커낼로 163',x:'923949.8371560569',y:'1947760.2909392407',jibun:'인천광역시 서구 청라동 173-1 청라29블럭호반베르디움'},</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>354</v>
       </c>
@@ -12496,7 +12797,7 @@
         <v>{name:['청학복합문화센터-SHINHAN'],addr:'인천광역시 연수구 비류대로 299',x:'926357.2427523071',y:'1936675.620955735',jibun:'인천광역시 연수구 청학동 239-4 청학문화센터'},</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>74</v>
       </c>
@@ -12517,7 +12818,7 @@
         <v>{name:['청학본점G'],addr:'인천광역시 연수구 비류대로278번길 8-3',x:'926142.2991103267',y:'1936646.2066965867',jibun:'인천광역시 연수구 청학동 563-8'},</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -12538,7 +12839,7 @@
         <v>{name:['청학타운점G'],addr:'인천광역시 연수구 청학로12번길 47',x:'926231.6395880934',y:'1936834.2690070835',jibun:'인천광역시 연수구 청학동 535-15'},</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>90</v>
       </c>
@@ -12559,7 +12860,7 @@
         <v>{name:['청학현대점G'],addr:'인천광역시 연수구 계림로35번길 58',x:'926443.0193460134',y:'1936904.7241967367',jibun:'인천광역시 연수구 청학동 547-13'},</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>730</v>
       </c>
@@ -12580,7 +12881,7 @@
         <v>{name:['코스트코'],addr:'인천광역시 연수구 컨벤시아대로230번길 60',x:' 923278.7832623338',y:'1932636.7317621163',jibun:'인천광역시 연수구 송도동 98 코스트코홀세일 송도점'},</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>133</v>
       </c>
@@ -12601,7 +12902,7 @@
         <v>{name:['퍼스트파크13점'],addr:'인천광역시 연수구 컨벤시아대로252번길 70',x:'923074.6219626968',y:'1932451.7707887636',jibun:'인천광역시 연수구 송도동 100 송도 더샵 퍼스트파크 F13-1BL'},</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>47</v>
       </c>
@@ -12622,7 +12923,7 @@
         <v>{name:['포스코송도 R&amp;D센터KB'],addr:'인천광역시 연수구 송도과학로 100',x:'926384.4323779428',y:'1931453.2860596376',jibun:'인천광역시 연수구 송도동 180-1 포스코 글로벌 R&amp;D CENTER'},</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>53</v>
       </c>
@@ -12643,7 +12944,7 @@
         <v>{name:['포스코이앤씨타워점G'],addr:'인천광역시 연수구 인천타워대로 241',x:'923372.5008990793',y:'1932935.9711958324',jibun:'인천광역시 연수구 송도동 36 부영송도타워'},</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>123</v>
       </c>
@@ -12664,7 +12965,7 @@
         <v>{name:['하이-소래포구'],addr:'인천광역시 남동구 포구로 3',x:'932688.4409603968',y:'1933646.0883224965',jibun:'인천광역시 남동구 논현동 111-234'},</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -12685,7 +12986,7 @@
         <v>{name:['학익늘봄점G'],addr:'인천광역시 미추홀구 한나루로403번길 105',x:'925632.7361822787',y:'1938795.12119258',jibun:'인천광역시 미추홀구 학익동 420-16'},</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -12706,7 +13007,7 @@
         <v>{name:['학익다송G'],addr:'인천광역시 미추홀구 소성로 162',x:'926243.6841133314',y:'1938404.1977886255',jibun:'인천광역시 미추홀구 학익동 252-8 다송빌딩'},</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>83</v>
       </c>
@@ -12727,7 +13028,7 @@
         <v>{name:['학익대로점G'],addr:'인천광역시 미추홀구 소성로 244',x:'926977.6259435453',y:'1938038.3710919674',jibun:'인천광역시 미추홀구 학익동 671-4'},</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -12748,7 +13049,7 @@
         <v>{name:['학익미소G'],addr:'인천광역시 미추홀구 주승로 22',x:'926826.3832888785',y:'1938596.312287895',jibun:'인천광역시 미추홀구 학익동 649 정진프라자'},</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -12769,7 +13070,7 @@
         <v>{name:['학익사거리점M'],addr:'인천광역시 미추홀구 매소홀로446번길 16',x:'926687.5525610019',y:'1938078.4112452823',jibun:'인천광역시 미추홀구 학익동 675-3'},</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>84</v>
       </c>
@@ -12790,7 +13091,7 @@
         <v>{name:['학익센터점G'],addr:'인천광역시 미추홀구 매소홀로446번길 4',x:'926688.1271994561',y:'1938129.2821605182',jibun:'인천광역시 미추홀구 학익동 677-2'},</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>40</v>
       </c>
@@ -12811,7 +13112,7 @@
         <v>{name:['학익점GSS'],addr:'인천광역시 미추홀구 소성로 146',x:'926064.1264832243',y:'1938437.8886083513',jibun:'인천광역시 미추홀구 학익동 256-19 LG수퍼마켓 학익점'},</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>118</v>
       </c>
@@ -12832,7 +13133,7 @@
         <v>{name:['학익중앙점G'],addr:'인천광역시 미추홀구 소성로185번길 16-5',x:'926531.8325332045',y:'1938402.6683132658',jibun:'인천광역시 미추홀구 학익동 244-1'},</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -12853,7 +13154,7 @@
         <v>{name:['학익타운점G'],addr:'인천광역시 미추홀구 한나루로 350',x:'925893.6336379224',y:'1938132.127089256',jibun:'인천광역시 미추홀구 학익동 691-8'},</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -12874,7 +13175,7 @@
         <v>{name:['한옥마을앰배서더-SHINHAN'],addr:'인천광역시 연수구 테크노파크로 200',x:'923643.9542986592',y:'1932798.2731926683',jibun:'인천광역시 연수구 송도동 24-11 경원재 앰배서더 인천'},</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>752</v>
       </c>
@@ -12895,7 +13196,7 @@
         <v>{name:['한화에코11단지'],addr:'인천광역시 남동구 논고개로 17',x:'931971.8826013578',y:'1933157.4842754863',jibun:'인천광역시 남동구 논현동 774-1 한화꿈에그린 에코메트로11단지'},</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>754</v>
       </c>
@@ -12916,7 +13217,7 @@
         <v>{name:['한화에코12단지'],addr:'인천광역시 남동구 논고개로 10',x:'932065.1035968331',y:'1933133.3493248513',jibun:'인천광역시 남동구 논현동 755-4 에코메트로12단지한화꿈에그린아파트'},</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>33</v>
       </c>
@@ -12937,7 +13238,7 @@
         <v>{name:['한화프라자점G'],addr:'인천광역시 남동구 소래역남로 12',x:'932305.6277828533',y:'1933461.700828867',jibun:'인천광역시 남동구 논현동 754-1 거목프라자'},</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>129</v>
       </c>
@@ -12958,7 +13259,7 @@
         <v>{name:['해양경비안전본부SHINHAN'],addr:'인천광역시 연수구 해돋이로 130',x:'924618.4617833635',y:'1932985.3575826176',jibun:'인천광역시 연수구 송도동 3-8 해양경찰청'},</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>732</v>
       </c>
@@ -12979,7 +13280,7 @@
         <v>{name:['현대 프리미엄 아울렛 송도'],addr:'인천광역시 연수구 송도국제대로 123',x:'925450.1762407259',y:'1931726.6847481355',jibun:'인천광역시 연수구 송도동 168-1 현대프리미엄 아울렛 송도점'},</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>70</v>
       </c>
@@ -13000,7 +13301,7 @@
         <v>{name:['CU연수타운점'],addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092',jibun:'인천광역시 연수구 연수동 498-6'},</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>955</v>
       </c>
@@ -13021,7 +13322,7 @@
         <v>{name:['송도365'],addr:'인천광역시 연수구 신송로 122',x:'924979.0126602231',y:'1933304.6588912918',jibun:'인천광역시 연수구 송도동 2-6 송도프라자'},</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>954</v>
       </c>
@@ -13042,7 +13343,7 @@
         <v>{name:['옥련365'],addr:'인천광역시 연수구 독배로40번길 11',x:'924405.9113474332',y:'1936495.7661320935',jibun:'인천광역시 연수구 옥련동 462-9 효명프라자'},</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>956</v>
       </c>
@@ -13063,7 +13364,7 @@
         <v>{name:['이마트 연수점'],addr:'인천광역시 연수구 경원대로 184',x:'927526.0918634394',y:'1934214.7747739688',jibun:'인천광역시 연수구 동춘동 926-9 이마트'},</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>957</v>
       </c>
@@ -13084,7 +13385,7 @@
         <v>{name:['가천의대'],addr:'인천광역시 연수구 함박뫼로 191',x:'928150.6333777537',y:'1936215.7186591197',jibun:'인천광역시 연수구 연수동 534-2 가천대학교'},</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>989</v>
       </c>
@@ -13105,7 +13406,7 @@
         <v>{name:['인천가톨릭대학'],addr:'인천광역시 연수구 해송로 12',x:'924277.2476386407',y:'1931904.949320057',jibun:'인천광역시 연수구 송도동 9-3 인천가톨릭대학교'},</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>958</v>
       </c>
@@ -13126,7 +13427,7 @@
         <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>962</v>
       </c>
@@ -13147,7 +13448,7 @@
         <v>{name:['LH논현사옥'],addr:'인천광역시 남동구 논현로46번길 7',x:'930246.6015386996',y:'1933930.1850851905',jibun:'인천광역시 남동구 논현동 638-1'},</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>991</v>
       </c>
@@ -13168,7 +13469,7 @@
         <v>{name:['연수점GSS'],addr:'인천광역시 연수구 원인재로 88',x:'927184.2034296514',y:'1934516.2629514583',jibun:'인천광역시 연수구 동춘동 925-7 대우삼환아파트'},</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>996</v>
       </c>
@@ -13189,7 +13490,7 @@
         <v>{name:['논현향촌점G'],addr:'인천광역시 남동구 앵고개로847번길 51',x:'931416.1976096316',y:'1933498.9531416',jibun:'인천광역시 남동구 논현동 740-2 소래휴먼시아3단지 상가에이동'},</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>1002</v>
       </c>
@@ -13210,7 +13511,7 @@
         <v>{name:['주안경원점G'],addr:'인천광역시 미추홀구 주안동로 34',x:'928019.33716304',y:'1940530.2795259403',jibun:'인천광역시 미추홀구 주안동 57-12'},</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>1004</v>
       </c>
@@ -13231,7 +13532,7 @@
         <v>{name:['연수유천점G'],addr:'인천광역시 연수구 먼우금로 302',x:'927692.7867924417',y:'1936292.8503102353',jibun:'인천광역시 연수구 연수동 534 연수유천아파트'},</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>1012</v>
       </c>
@@ -13252,7 +13553,7 @@
         <v>{name:['석바위점G'],addr:'인천광역시 미추홀구 석바위로 143',x:'928264.6171794888',y:'1940390.7456267346',jibun:'인천광역시 미추홀구 주안동 989-4 동양빌딩'},</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>1021</v>
       </c>
@@ -13273,7 +13574,7 @@
         <v>{name:['송도큐브점G'],addr:'인천광역시 연수구 송도과학로16번길 13-18',x:'925705.9937962485',y:'1931656.908183341',jibun:'인천광역시 연수구 송도동 174-1 송도건원테크노큐브'},</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>1026</v>
       </c>
@@ -13294,7 +13595,7 @@
         <v>{name:['청학수인점G'],addr:'인천광역시 연수구 청학로6번길 94',x:'926415.3123945633',y:'1936682.681330747',jibun:'인천광역시 연수구 청학동 527-24'},</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>1031</v>
       </c>
@@ -13315,7 +13616,7 @@
         <v>{name:['새천년장례식장'],addr:'인천광역시 계양구 아나지로 541',x:'933976.1191295199',y:'1947644.6814924027',jibun:'인천광역시 계양구 서운동 138-5 새천년장례식장'},</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>1033</v>
       </c>
@@ -13336,7 +13637,7 @@
         <v>{name:['부평일번가점G'],addr:'인천광역시 부평구 경원대로 1395',x:'931442.7457843034',y:'1943905.1716368534',jibun:'인천광역시 부평구 부평동 159-15 부평일번가'},</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>1035</v>
       </c>
@@ -13357,7 +13658,7 @@
         <v>{name:['중동타운점G'],addr:'경기도 부천시 석천로 174',x:'934864.5284565468',y:'1945089.772593747',jibun:'경기도 부천시 중동 1159-8 하성빌딩'},</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>1037</v>
       </c>
@@ -13378,7 +13679,7 @@
         <v>{name:['부평신촌점G'],addr:'인천광역시 부평구 경원대로1256번길 10',x:'930139.6624342366',y:'1943538.069996247',jibun:'인천광역시 부평구 부평동 277-21'},</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>1039</v>
       </c>
@@ -13399,7 +13700,7 @@
         <v>{name:['글로리병원'],addr:'인천광역시 부평구 길주로 655',x:'932421.86098766',y:'1945596.0398589005',jibun:'인천광역시 부평구 삼산동 461-3 글로리타워'},</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>1041</v>
       </c>
@@ -13420,7 +13721,7 @@
         <v>{name:['육군제2291부대(17보병사단)'],addr:'인천광역시 부평구 무네미로447번길 6-4',x:'933856.628527692',y:'1942131.4210598096',jibun:'인천광역시 부평구 구산동 30-10'},</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>1043</v>
       </c>
@@ -13441,7 +13742,7 @@
         <v>{name:['부평2동점G'],addr:'인천광역시 부평구 부영로16번길 22',x:'930930.0009870247',y:'1943341.044701905',jibun:'인천광역시 부평구 부평동 760-117'},</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>1045</v>
       </c>
@@ -13462,7 +13763,7 @@
         <v>{name:['나들가게-스타로또판매점'],addr:'인천광역시 부평구 부평대로 146',x:'931209.1015196894',y:'1945299.2664001212',jibun:'인천광역시 부평구 부평동 431-46'},</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>1047</v>
       </c>
@@ -13483,7 +13784,7 @@
         <v>{name:['부평보건소 결합부스'],addr:'인천광역시 부평구 부흥로 291',x:'931429.61845897',y:'1944679.5655312636',jibun:'인천광역시 부평구 부평동 442-1 부평구 보건소'},</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>1049</v>
       </c>
@@ -13504,7 +13805,7 @@
         <v>{name:['부평삼천당양국 결합부스'],addr:'인천광역시 부평구 시장로 35-2',x:'931586.8051944501',y:'1944161.0736327833',jibun:'인천광역시 부평구 부평동 192-1'},</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>1051</v>
       </c>
@@ -13525,7 +13826,7 @@
         <v>{name:['삼산주공4단지 결합부스'],addr:'인천광역시 부평구 체육관로 111',x:'933132.6592045021',y:'1945946.1184882158',jibun:'인천광역시 부평구 삼산동 456-8 주공삼산타운아파트'},</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>1053</v>
       </c>
@@ -13546,7 +13847,7 @@
         <v>{name:['송내중앙점G'],addr:'경기도 부천시 송내대로42번길 58',x:'934270.8836680101',y:'1943345.6518097534',jibun:'경기도 부천시 송내동 300 생명샘교회'},</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>1055</v>
       </c>
@@ -13567,7 +13868,7 @@
         <v>{name:['부평제일점G'],addr:'인천광역시 부평구 부평대로12번길 15',x:'931414.8208953666',y:'1943984.6596683604',jibun:'인천광역시 부평구 부평동 193-25'},</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>1057</v>
       </c>
@@ -13588,7 +13889,7 @@
         <v>{name:['김포초당점M'],addr:'경기도 김포시 김포한강2로 76',x:'927187.7376515022',y:'1960298.0954450704',jibun:'경기도 김포시 장기동 2039-2 프레즌스빌딩'},</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>1059</v>
       </c>
@@ -13609,7 +13910,7 @@
         <v>{name:['감정삼환아파트상가 결합부스'],addr:'경기도 김포시 봉화로181번길 36',x:'929393.31062681',y:'1958932.8253651601',jibun:'경기도 김포시 감정동 659 삼환아파트'},</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>1061</v>
       </c>
@@ -13630,7 +13931,7 @@
         <v>{name:['한강센트럴자이'],addr:'경기도 김포시 태장로 845',x:'927249.6620825944',y:'1959781.8936519488',jibun:'경기도 김포시 장기동 2128-1 한강센트럴자이 1단지'},</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>1063</v>
       </c>
@@ -13651,7 +13952,7 @@
         <v>{name:['풍무신안점G'],addr:'경기도 김포시 풍무로 111',x:'931328.0170300335',y:'1956533.06516879',jibun:'경기도 김포시 풍무동 100 신안아파트'},</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>1065</v>
       </c>
@@ -13675,7 +13976,7 @@
         <v>{name:['계산점M','미니스톱계산점앞 결합부스'],addr:'인천광역시 계양구 경명대로 1062',x:'931527.348910369',y:'1949595.0281054797',jibun:'인천광역시 계양구 계산동 945'},</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>1067</v>
       </c>
@@ -13696,7 +13997,7 @@
         <v>{name:['계산명인점G'],addr:'인천광역시 계양구 경명대로 1120',x:'932108.7903216111',y:'1949561.4707883568',jibun:'인천광역시 계양구 계산동 12-10 명인프라자2'},</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>1069</v>
       </c>
@@ -13717,7 +14018,7 @@
         <v>{name:['계양신한점G'],addr:'인천광역시 계양구 경명대로1029번길 16',x:'931225.1142344968',y:'1949819.1893880423',jibun:'인천광역시 계양구 계산동 931-9 신한아파트'},</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>1071</v>
       </c>
@@ -13738,7 +14039,7 @@
         <v>{name:['태화상가 결합부스'],addr:'인천광역시 계양구 계양대로 114',x:'931337.9279541038',y:'1948567.644235659',jibun:'인천광역시 계양구 작전동 854-2'},</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>1073</v>
       </c>
@@ -13759,7 +14060,7 @@
         <v>{name:['계산농협 결합부스'],addr:'인천광역시 계양구 계양대로 159-1',x:'931290.091887224',y:'1949046.5163927404',jibun:'인천광역시 계양구 계산동 969-16'},</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>1075</v>
       </c>
@@ -13780,7 +14081,7 @@
         <v>{name:['인천병방점G'],addr:'인천광역시 계양구 병방로 17',x:'933081.7079332424',y:'1949977.93490888',jibun:'인천광역시 계양구 병방동 136-6 제일빌딩'},</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>1077</v>
       </c>
@@ -13801,7 +14102,7 @@
         <v>{name:['이마트-계양점-KEB'],addr:'인천광역시 계양구 봉오대로 785',x:'932576.6557839434',y:'1948243.302971094',jibun:'인천광역시 계양구 작전동 911-1 (주)신세계 이마트 계양점'},</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
         <v>1079</v>
       </c>
@@ -13822,7 +14123,7 @@
         <v>{name:['박촌중앙점G'],addr:'인천광역시 계양구 장제로997번길 9-1',x:'933248.4628332835',y:'1950882.8012067103',jibun:'인천광역시 계양구 박촌동 98-1'},</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>1081</v>
       </c>
@@ -13843,7 +14144,7 @@
         <v>{name:['위드미-계산역점'],addr:'인천광역시 계양구 하느재로 4',x:'931544.6516139768',y:'1949681.0059877522',jibun:'인천광역시 계양구 계산동 929'},</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>1083</v>
       </c>
@@ -13864,7 +14165,7 @@
         <v>{name:['귤현중앙점G'],addr:'인천광역시 계양구 형제봉길 57',x:'933716.1497187633',y:'1952258.4427198768',jibun:'인천광역시 계양구 귤현동 500-14'},</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>1085</v>
       </c>
@@ -13885,7 +14186,7 @@
         <v>{name:['계양대원점G'],addr:'인천광역시 계양구 황어로115번길 13',x:'932175.376509306',y:'1953625.1702445736',jibun:'인천광역시 계양구 장기동 131-10 계양 벽산 블루밍'},</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>1087</v>
       </c>
@@ -13906,7 +14207,7 @@
         <v>{name:['부평갈산점G'],addr:'인천광역시 부평구 굴포로 50-10',x:'931629.6382923902',y:'1946047.8260866501',jibun:'인천광역시 부평구 갈산동 367-2'},</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
         <v>1089</v>
       </c>
@@ -13927,7 +14228,7 @@
         <v>{name:['부평우림점G'],addr:'인천광역시 부평구 부평대로 283',x:'931164.0193303828',y:'1946691.216097455',jibun:'인천광역시 부평구 청천동 425 부평우림라이온스밸리'},</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>1091</v>
       </c>
@@ -13948,7 +14249,7 @@
         <v>{name:['계양국제점M'],addr:'인천광역시 계양구 계양문화로29번길 10',x:'932417.39154975',y:'1948532.5869564335',jibun:'인천광역시 계양구 작전동 907-6 태진프라자'},</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>1186</v>
       </c>
@@ -13969,7 +14270,7 @@
         <v>{name:['송도센트럴점G'],addr:'인천광역시 연수구 송도국제대로 261',x:'924676.6906859279',y:'1930858.557839889',jibun:'인천광역시 연수구 송도동 190-4 송도 더샵 센트럴시티'},</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>1191</v>
       </c>
@@ -13990,7 +14291,7 @@
         <v>{name:['송도이편한점G'],addr:'인천광역시 연수구 랜드마크로 113',x:'921810.1679151095',y:'1935243.4228121955',jibun:'인천광역시 연수구 송도동 319-1 e편한세상 송도'},</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>1195</v>
       </c>
@@ -14011,7 +14312,7 @@
         <v>{name:['상동스타점G'],addr:'경기도 부천시 상이로39번길 29',x:'933018.5068486969',y:'1943921.941091667',jibun:'경기도 부천시 상동 604-1'},</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>1197</v>
       </c>
@@ -14032,7 +14333,7 @@
         <v>{name:['부천역사1점G'],addr:'경기도 부천시 부천로 1',x:'936579.4263615669',y:'1942996.8231301266',jibun:'경기도 부천시 심곡본동 316-2 부천역사쇼핑몰'},</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>1199</v>
       </c>
@@ -14053,7 +14354,7 @@
         <v>{name:['중동남부점G'],addr:'경기도 부천시 중동로70번길 15',x:'935053.4388435667',y:'1943261.1177480435',jibun:'경기도 부천시 송내동 504'},</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>1201</v>
       </c>
@@ -14074,7 +14375,7 @@
         <v>{name:['현대백화점 중동점3F(디몰)-KB'],addr:'경기도 부천시 길주로 180',x:'934778.8432610824',y:'1945261.0811271123',jibun:'경기도 부천시 중동 1164 현대백화점부천중동점'},</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>1203</v>
       </c>
@@ -14095,7 +14396,7 @@
         <v>{name:['상동메가점G'],addr:'경기도 부천시 상동로 90',x:'934040.5315300801',y:'1945356.8885050272',jibun:'경기도 부천시 상동 541-1 메가플러스빌딩'},</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>1205</v>
       </c>
@@ -14116,7 +14417,7 @@
         <v>{name:['부천상이로점M'],addr:'경기도 부천시 상이로9번길 26-5',x:'933046.8897880868',y:'1943656.9576712232',jibun:'경기도 부천시 상동 614-7'},</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>1413</v>
       </c>
@@ -14137,7 +14438,7 @@
         <v>{name:['부천상도점G'],addr:'경기도 부천시 장말로 156',x:'934518.3469865369',y:'1944049.46242386',jibun:'경기도 부천시 상동 420'},</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>1208</v>
       </c>
@@ -14158,7 +14459,7 @@
         <v>{name:['간석이화점G'],addr:'인천광역시 남동구 남동대로916번길 40',x:'930182.1440641168',y:'1940798.9819973405',jibun:'인천광역시 남동구 간석동 182-13'},</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>1210</v>
       </c>
@@ -14179,7 +14480,7 @@
         <v>{name:['부평동수로점G'],addr:'인천광역시 부평구 동수로 27',x:'931178.6939188098',y:'1943148.66538799',jibun:'인천광역시 부평구 부평동 672-23'},</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>1212</v>
       </c>
@@ -14200,7 +14501,7 @@
         <v>{name:['부개주공점G'],addr:'인천광역시 부평구 부개로 61-14',x:'932730.6221358734',y:'1945165.9190083267',jibun:'인천광역시 부평구 부개동 498-9 대현프라자'},</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>1214</v>
       </c>
@@ -14221,7 +14522,7 @@
         <v>{name:['부평파크팰리스점G'],addr:'인천광역시 부평구 동수북로 38',x:'930317.6786651467',y:'1943243.6612359053',jibun:'인천광역시 부평구 부평동 767-163 파크팰리스'},</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>1216</v>
       </c>
@@ -14242,7 +14543,7 @@
         <v>{name:['미래타운주공3단지 결합부스'],addr:'인천광역시 부평구 부평북로 463',x:'933297.0104331193',y:'1947242.2830768712',jibun:'인천광역시 부평구 삼산동 390-6 주공미래타운3단지'},</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>1218</v>
       </c>
@@ -14263,7 +14564,7 @@
         <v>{name:['중동공원점G'],addr:'경기도 부천시 소향로 149',x:'934961.8521437296',y:'1945021.9345603008',jibun:'경기도 부천시 중동 1160-3 필레오트윈파크2동'},</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>1220</v>
       </c>
@@ -14284,7 +14585,7 @@
         <v>{name:['메리트-부천'],addr:'경기도 부천시 길주로 125',x:'934276.3197191034',y:'1945469.0924291466',jibun:'경기도 부천시 상동 538-7 다승프라자'},</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>1222</v>
       </c>
@@ -14305,7 +14606,7 @@
         <v>{name:['상동삼성점M'],addr:'경기도 부천시 소향로13번길 14-23',x:'933740.1007567733',y:'1945287.2960776766',jibun:'경기도 부천시 상동 545-16 삼성프라자'},</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>1224</v>
       </c>
@@ -14326,7 +14627,7 @@
         <v>{name:['부평사랑점G'],addr:'인천광역시 부평구 경원대로1431번길 13',x:'931750.6910376102',y:'1943899.1085860832',jibun:'인천광역시 부평구 부평동 585-2'},</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>1226</v>
       </c>
@@ -14347,7 +14648,7 @@
         <v>{name:['인천삼산점M'],addr:'인천광역시 부평구 길주로 633',x:'932200.5103440566',y:'1945612.2485296768',jibun:'인천광역시 부평구 삼산동 464-1 삼산메디캐슬'},</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>1228</v>
       </c>
@@ -14368,7 +14669,7 @@
         <v>{name:['부평파크타운점G'],addr:'인천광역시 부평구 마장로36번길 40-1',x:'930098.4109072781',y:'1943055.0494920602',jibun:'인천광역시 부평구 십정동 182-30 파크타운메트로'},</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>1230</v>
       </c>
@@ -14389,7 +14690,7 @@
         <v>{name:['부평신명점G'],addr:'인천광역시 부평구 장제로 145',x:'931906.9543120344',y:'1944676.982779122',jibun:'인천광역시 부평구 부평동 378-3 신명스카이홈'},</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>1232</v>
       </c>
@@ -14410,7 +14711,7 @@
         <v>{name:['부평남부점G'],addr:'인천광역시 부평구 장제로27번길 49',x:'931612.0905221628',y:'1943488.9596591424',jibun:'인천광역시 부평구 부평동 605-39 번성빌딩'},</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>1234</v>
       </c>
@@ -14431,7 +14732,7 @@
         <v>{name:['사우현대점G'],addr:'경기도 김포시 사우로 12',x:'931404.4588655937',y:'1958213.9915254172',jibun:'경기도 김포시 사우동 911 풍년마을현대아파트'},</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>1236</v>
       </c>
@@ -14452,7 +14753,7 @@
         <v>{name:['풍무자이점G'],addr:'경기도 김포시 풍무로96번길 102',x:'931911.8236301832',y:'1956351.3520765733',jibun:'경기도 김포시 풍무동 766 풍무자이2지구'},</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
         <v>1238</v>
       </c>
@@ -14469,11 +14770,11 @@
         <v>1279</v>
       </c>
       <c r="G259" t="str">
-        <f t="shared" ref="G259:G297" si="4">"{name:" &amp; "['"&amp;A259&amp;"'"&amp;IF(ISBLANK(B259),"",",'"&amp;B259&amp;"'")&amp;"],addr:" &amp; "'" &amp;C259&amp;"',x:"&amp; "'" &amp;D259&amp;"',y:"&amp; "'" &amp;E259&amp;"',jibun:"&amp; "'" &amp;F259&amp;"'},"</f>
+        <f t="shared" ref="G259:G322" si="4">"{name:" &amp; "['"&amp;A259&amp;"'"&amp;IF(ISBLANK(B259),"",",'"&amp;B259&amp;"'")&amp;"],addr:" &amp; "'" &amp;C259&amp;"',x:"&amp; "'" &amp;D259&amp;"',y:"&amp; "'" &amp;E259&amp;"',jibun:"&amp; "'" &amp;F259&amp;"'},"</f>
         <v>{name:['계양팬더점G'],addr:'인천광역시 계양구 경명대로1142번길 5',x:'932278.270056488',y:'1949518.940805179',jibun:'인천광역시 계양구 계산동 489-6 팬더아파트'},</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
         <v>1240</v>
       </c>
@@ -14494,7 +14795,7 @@
         <v>{name:['용종타운점G'],addr:'인천광역시 계양구 용마루1길 14',x:'933155.0954299255',y:'1949600.692782736',jibun:'인천광역시 계양구 용종동 223-1'},</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>1242</v>
       </c>
@@ -14515,7 +14816,7 @@
         <v>{name:['병방타운점G'],addr:'인천광역시 계양구 장제로920번길 8',x:'933055.0038974134',y:'1950124.0965765738',jibun:'인천광역시 계양구 병방동 118-23'},</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>1244</v>
       </c>
@@ -14536,7 +14837,7 @@
         <v>{name:['하이포크돈까스-인천'],addr:'인천광역시 계양구 주부토로 515',x:'931801.0081208765',y:'1949271.5415414097',jibun:'인천광역시 계양구 계산동 948-6 대원프라자'},</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>1246</v>
       </c>
@@ -14557,7 +14858,7 @@
         <v>{name:['계산향교점G'],addr:'인천광역시 계양구 향교로 11',x:'931098.6161570952',y:'1949141.8350205198',jibun:'인천광역시 계양구 계산동 982-10'},</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>1248</v>
       </c>
@@ -14578,7 +14879,7 @@
         <v>{name:['부평경찰서점G'],addr:'인천광역시 부평구 길주로 505',x:'930903.7670974967',y:'1945685.2516483534',jibun:'인천광역시 부평구 청천동 199-51 우진빌딩'},</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7">
       <c r="A265" t="s">
         <v>1250</v>
       </c>
@@ -14599,7 +14900,7 @@
         <v>{name:['작전한양점G'],addr:'인천광역시 계양구 계양대로120번길 11',x:'931438.9118810431',y:'1948645.5004086206',jibun:'인천광역시 계양구 작전동 855-27'},</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>1252</v>
       </c>
@@ -14620,7 +14921,7 @@
         <v>{name:['작전중앙점G'],addr:'인천광역시 계양구 오조산로 1',x:'932657.6976733829',y:'1948231.547796661',jibun:'인천광역시 계양구 작전동 911-7 거승프라자'},</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>1254</v>
       </c>
@@ -14641,7 +14942,7 @@
         <v>{name:['갈산본점G'],addr:'인천광역시 부평구 새갈로 22',x:'931978.99473544',y:'1946990.65978572',jibun:'인천광역시 부평구 갈산동 21-7'},</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>1351</v>
       </c>
@@ -14662,7 +14963,7 @@
         <v>{name:['송도휴니드'],addr:'인천광역시 연수구 벤처로 82',x:'924007.2295042474',y:'1931228.941159821',jibun:'인천광역시 연수구 송도동 11-13 정보통신산업진흥원 송도사무소'},</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>1356</v>
       </c>
@@ -14683,7 +14984,7 @@
         <v>{name:['부천직업학교점G'],addr:'경기도 부천시 경인로53번길 8',x:'934711.3744017',y:'1943003.0680683935',jibun:'경기도 부천시 송내동 366 상승프라자'},</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>1358</v>
       </c>
@@ -14704,7 +15005,7 @@
         <v>{name:['2001아울렛 부평점NH'],addr:'인천광역시 부평구 경원대로 1277',x:'930222.273037916',y:'1943756.3583188085',jibun:'인천광역시 부평구 산곡동 311-151 2001아울렛부평점'},</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>1360</v>
       </c>
@@ -14725,7 +15026,7 @@
         <v>{name:['부평대덕아크로존 결합부스'],addr:'인천광역시 부평구 경원대로 1422',x:'931669.1764701765',y:'1943794.49328152',jibun:'인천광역시 부평구 부평동 182-10 대덕아크로존'},</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>1362</v>
       </c>
@@ -14746,7 +15047,7 @@
         <v>{name:['부평보영점G'],addr:'인천광역시 부평구 경원대로1367번길 18-3',x:'931142.7376056598',y:'1943954.05065474',jibun:'인천광역시 부평구 부평동 546-133 HB엘림캐슬'},</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>1364</v>
       </c>
@@ -14767,7 +15068,7 @@
         <v>{name:['부평주공점M'],addr:'인천광역시 부평구 동수로120번길 43',x:'931934.1715355264',y:'1943017.1910001677',jibun:'인천광역시 부평구 부평동 938 부평엘에이치2단지'},</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>1366</v>
       </c>
@@ -14788,7 +15089,7 @@
         <v>{name:['산곡믿음점G'],addr:'인천광역시 부평구 마장로264번길 33',x:'929725.2634043125',y:'1944992.400635913',jibun:'인천광역시 부평구 산곡동 255-1 뉴서울아파트'},</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>1368</v>
       </c>
@@ -14809,7 +15110,7 @@
         <v>{name:['부개하이니스점G'],addr:'인천광역시 부평구 수변로93번길 6',x:'932927.3958141634',y:'1944228.9306980837',jibun:'인천광역시 부평구 부개동 120-407'},</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>1370</v>
       </c>
@@ -14830,7 +15131,7 @@
         <v>{name:['십정2동점G'],addr:'인천광역시 부평구 열우물로50번길 30',x:'929381.1594225436',y:'1941912.0994479563',jibun:'인천광역시 부평구 십정동 399-6'},</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>1372</v>
       </c>
@@ -14851,7 +15152,7 @@
         <v>{name:['삼산하이존점G'],addr:'인천광역시 부평구 체육관로 32',x:'932401.6239791668',y:'1945720.5818021502',jibun:'인천광역시 부평구 삼산동 459-2 하이존 HI ZONE'},</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>1374</v>
       </c>
@@ -14872,7 +15173,7 @@
         <v>{name:['삼산블루밍점G'],addr:'인천광역시 부평구 후정동로 13',x:'932645.642192537',y:'1946866.6548467316',jibun:'인천광역시 부평구 삼산동 202'},</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>1376</v>
       </c>
@@ -14893,7 +15194,7 @@
         <v>{name:['심곡본점G'],addr:'경기도 부천시 심곡로9번길 40',x:'936187.7196378834',y:'1942845.7174466103',jibun:'경기도 부천시 심곡본동 665'},</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>1378</v>
       </c>
@@ -14914,7 +15215,7 @@
         <v>{name:['열우물동암점G'],addr:'인천광역시 부평구 경인로667번길 14',x:'929885.288130031',y:'1941429.8037530337',jibun:'인천광역시 부평구 십정동 482-30'},</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>1380</v>
       </c>
@@ -14935,7 +15236,7 @@
         <v>{name:['부평길주점G'],addr:'인천광역시 부평구 길주남로 113',x:'932322.22616114',y:'1945266.2459413433',jibun:'인천광역시 부평구 부개동 12-213'},</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>1382</v>
       </c>
@@ -14956,7 +15257,7 @@
         <v>{name:['부개1동점G'],addr:'인천광역시 부평구 동수로 162',x:'932503.4987817237',y:'1943180.5450270968',jibun:'인천광역시 부평구 부개동 259'},</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>1384</v>
       </c>
@@ -14977,7 +15278,7 @@
         <v>{name:['부개푸르지오점G'],addr:'인천광역시 부평구 부일로 70',x:'932570.000904714',y:'1943564.380697852',jibun:'인천광역시 부평구 부개동 166-3'},</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>1386</v>
       </c>
@@ -14998,7 +15299,7 @@
         <v>{name:['부개북부역점G'],addr:'인천광역시 부평구 수변로37번길 5-2',x:'932791.9849646788',y:'1943673.6964042024',jibun:'인천광역시 부평구 부개동 197-28'},</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>1388</v>
       </c>
@@ -15019,7 +15320,7 @@
         <v>{name:['부평마사회 결합부스'],addr:'인천광역시 부평구 장제로 54',x:'931927.8353052868',y:'1943718.5432799067',jibun:'인천광역시 부평구 부평동 161-3'},</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>1390</v>
       </c>
@@ -15040,7 +15341,7 @@
         <v>{name:['대곶대능점G'],addr:'경기도 김포시 대곶면 대곶남로 573',x:'921102.0937932157',y:'1960245.03606041',jibun:'경기도 김포시 대곶면 대능리 57-4'},</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>1392</v>
       </c>
@@ -15061,7 +15362,7 @@
         <v>{name:['김포에코점G'],addr:'경기도 김포시 사우중로 23',x:'930910.95575678',y:'1957858.4548262246',jibun:'경기도 김포시 사우동 251 에코힐즈'},</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>1394</v>
       </c>
@@ -15082,7 +15383,7 @@
         <v>{name:['양촌타워점G'],addr:'경기도 김포시 양촌읍 양곡2로30번길 51-16',x:'923278.2811406231',y:'1962039.445796621',jibun:'경기도 김포시 양촌읍 양곡리 1313'},</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>1396</v>
       </c>
@@ -15103,7 +15404,7 @@
         <v>{name:['김포학운점M'],addr:'경기도 김포시 양촌읍 황금로109번길 80',x:'922566.3066215497',y:'1957668.0232976116',jibun:'경기도 김포시 양촌읍 학운리 2980-4'},</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>1398</v>
       </c>
@@ -15124,7 +15425,7 @@
         <v>{name:['김포데시앙점G'],addr:'경기도 김포시 양촌읍 황금로89번길 23',x:'922733.1425718856',y:'1958046.0483274334',jibun:'경기도 김포시 양촌읍 학운리 3019 김포양촌 금빛마을 자연앤 데시앙 아파트'},</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7">
       <c r="A291" t="s">
         <v>1400</v>
       </c>
@@ -15145,7 +15446,7 @@
         <v>{name:['풍무중앙점G'],addr:'경기도 김포시 풍무로96번길 42',x:'931547.1254532575',y:'1956398.4031931022',jibun:'경기도 김포시 풍무동 764 풍무자이'},</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7">
       <c r="A292" t="s">
         <v>1402</v>
       </c>
@@ -15166,7 +15467,7 @@
         <v>{name:['효성현대점M'],addr:'인천광역시 계양구 길마로88번길 1',x:'930699.2262116268',y:'1948544.4063613536',jibun:'인천광역시 계양구 효성동 21-47 대성빌딩'},</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>1404</v>
       </c>
@@ -15187,7 +15488,7 @@
         <v>{name:['인천임학점G'],addr:'인천광역시 계양구 임학동로 17',x:'932442.6257163081',y:'1949692.9968899256',jibun:'인천광역시 계양구 임학동 65-11'},</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>1406</v>
       </c>
@@ -15208,7 +15509,7 @@
         <v>{name:['우리가의원 결합부스'],addr:'인천광역시 계양구 계양대로 204',x:'931359.4913538166',y:'1949482.1580298734',jibun:'인천광역시 계양구 계산동 944-30'},</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>1408</v>
       </c>
@@ -15229,7 +15530,7 @@
         <v>{name:['효성1동점G'],addr:'인천광역시 계양구 봉오대로531번길 33',x:'929960.5048100632',y:'1948555.4040038083',jibun:'인천광역시 계양구 효성동 97'},</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>1410</v>
       </c>
@@ -15250,7 +15551,7 @@
         <v>{name:['임학역점BA'],addr:'인천광역시 계양구 장제로 879-1',x:'932744.9545369325',y:'1949848.5700937351',jibun:'인천광역시 계양구 임학동 10-10'},</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7">
       <c r="A297" t="s">
         <v>1412</v>
       </c>
@@ -15271,9 +15572,429 @@
         <v>{name:['갈산사거리점G'],addr:'인천광역시 부평구 주부토로 261',x:'931672.1376032769',y:'1946844.5130525236',jibun:'인천광역시 부평구 갈산동 169-16 신협빌딩'},</v>
       </c>
     </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G298" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['시흥서강점G'],addr:'경기도 시흥시 비둘기공원7길 22',x:'937448.3398756399',y:'1938562.4792490038',jibun:'경기도 시흥시 대야동 562-3 서강프라자'},</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G299" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['시흥월드점G'],addr:'경기도 시흥시 비둘기공원7길 46',x:'937346.2121258583',y:'1938344.3109330758',jibun:'경기도 시흥시 대야동 541-3 월드타운'},</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G300" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['신천초교로점M'],addr:'경기도 시흥시 포도원로79번길 2',x:'936582.2592841634',y:'1937651.3023221735',jibun:'경기도 시흥시 신천동 845-19'},</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G301" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['주안에쉐르점G'],addr:'인천광역시 미추홀구 주승로 110',x:'927719.2879240455',y:'1938717.6941827536',jibun:'인천광역시 미추홀구 주안동 1216-17'},</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G302" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['구월캐슬점G'],addr:'인천광역시 남동구 구월로 247',x:'930841.5710412234',y:'1939958.9257869069',jibun:'인천광역시 남동구 구월동 1244-11'},</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G303" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['1004마트-만수동'],addr:'인천광역시 남동구 구월말로 67',x:'931443.6144919668',y:'1939824.04465779',jibun:'인천광역시 남동구 만수동 911-4 봉호빌딩'},</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G304" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['만수효성점G'],addr:'인천광역시 남동구 구월말로85번길 26',x:'931341.4900672273',y:'1940018.603999448',jibun:'인천광역시 남동구 만수동 902-5'},</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G305" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['구월아시아드점M'],addr:'인천광역시 남동구 남동대로 684',x:'929856.9788878767',y:'1938528.3376402766',jibun:'인천광역시 남동구 구월동 1178-2'},</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G306" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['구월문화점G'],addr:'인천광역시 남동구 문화서로18번길 49',x:'929131.4643646367',y:'1938925.7876847968',jibun:'인천광역시 남동구 구월동 1371-17'},</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G307" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['만수다온점G'],addr:'인천광역시 남동구 복개동로34번길 25',x:'931705.8011908967',y:'1939361.1383707938',jibun:'인천광역시 남동구 만수동 935-1'},</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G308" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['서창청아안점G'],addr:'인천광역시 남동구 서창남순환로 108',x:'933284.22361243',y:'1937040.3867056346',jibun:'인천광역시 남동구 서창동 639 서창LH3단지상가'},</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G309" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['만수신한점G'],addr:'인천광역시 남동구 수현로136번길 35',x:'932774.0465627501',y:'1941019.10117833',jibun:'인천광역시 남동구 만수동 1-301'},</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G310" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['인천인주점G'],addr:'인천광역시 남동구 인주대로676번길 10',x:'930286.7067263534',y:'1939157.4377457472',jibun:'인천광역시 남동구 구월동 276-1 진선빌딩'},</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G311" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['구월신세계점G'],addr:'인천광역시 남동구 호구포로 844',x:'931016.3459577067',y:'1940141.9505111733',jibun:'인천광역시 남동구 구월동 342-213 신세계아파트상가'},</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G312" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['관교삼환점G'],addr:'인천광역시 미추홀구 문화로 27',x:'929078.1662948651',y:'1938331.0861617737',jibun:'인천광역시 미추홀구 관교동 13-10 삼환아파트'},</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G313" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['주안승기점G'],addr:'인천광역시 미추홀구 인주대로 456',x:'928111.2086274424',y:'1939365.0213392377',jibun:'인천광역시 미추홀구 주안동 1517-7'},</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G314" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['대야상업점G'],addr:'경기도 시흥시 비둘기공원5길 23-1',x:'937203.4966861256',y:'1938321.2268203245',jibun:'경기도 시흥시 대야동 540-3 SK프라자'},</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G315" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['시흥하나점M'],addr:'경기도 시흥시 삼미시장4길 17',x:'936544.8355448807',y:'1938071.3689906',jibun:'경기도 시흥시 신천동 759'},</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G316" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['구월점M'],addr:'인천광역시 남동구 문화서로17번길 6',x:'928867.7313054034',y:'1938957.6338435733',jibun:'인천광역시 남동구 구월동 1380-7'},</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G317" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['만수1동점G'],addr:'인천광역시 남동구 하촌로 69',x:'932216.4311302667',y:'1939700.3908490133',jibun:'인천광역시 남동구 만수동 957-5'},</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G185">
-    <sortState ref="A2:H189">
+  <autoFilter ref="A1:G185" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H189">
       <sortCondition ref="A1:A189"/>
     </sortState>
   </autoFilter>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyeokpark/Desktop/dev/work/atm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\work\temp\atm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B29F207-A068-1140-88BF-5B746E7E82C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="740" windowWidth="21200" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="735" windowWidth="21195" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$190</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$185</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="1711">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -4884,13 +4883,343 @@
   </si>
   <si>
     <t>1939700.3908490133</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대은로 4</t>
+  </si>
+  <si>
+    <t>은행동 대우3차 아파트후문 결합부스</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대은로104번길 8-1</t>
+  </si>
+  <si>
+    <t>시흥대은로점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 복지로120번길 8</t>
+  </si>
+  <si>
+    <t>대야영남점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 비둘기공원5길 12</t>
+  </si>
+  <si>
+    <t>시흥유호점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 수인로3409번길 44</t>
+  </si>
+  <si>
+    <t>시흥현대점M</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 시흥대로1074번길 10</t>
+  </si>
+  <si>
+    <t>시흥삼성점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천천서로 24</t>
+  </si>
+  <si>
+    <t>시흥신천역점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 하우로 26-1</t>
+  </si>
+  <si>
+    <t>G시흥하우로점G</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 구월로19번길 36</t>
+  </si>
+  <si>
+    <t>주안동국점G</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 승학길 72</t>
+  </si>
+  <si>
+    <t>주안승학점G</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 인주대로 463</t>
+  </si>
+  <si>
+    <t>주안4수협 결합부스</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 인주대로496번길 42</t>
+  </si>
+  <si>
+    <t>주안인주로점G</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 인하로 452</t>
+  </si>
+  <si>
+    <t>인천 순복음교회-CITI</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월말로 118</t>
+  </si>
+  <si>
+    <t>만수청운점M</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수서로83번길 45</t>
+  </si>
+  <si>
+    <t>만수숭덕점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 문화로115번길 3</t>
+  </si>
+  <si>
+    <t>구월올림픽점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 문화로89번길 26</t>
+  </si>
+  <si>
+    <t>문화부동산-인천</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 백범로297번길 42</t>
+  </si>
+  <si>
+    <t>간석백범점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 성리로 55-1</t>
+  </si>
+  <si>
+    <t>구월팬더점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월로 376</t>
+  </si>
+  <si>
+    <t>만수프라자점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 백범로227번길 95</t>
+  </si>
+  <si>
+    <t>만수2점M</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 성말로 10</t>
+  </si>
+  <si>
+    <t>구월효명점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 559-1 시흥소방서</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 529-1</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대야동 280-2 열린예능어린이집</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대야동 531-2 신주 씨티 프라자</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천동 458 현대아파트</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 289-11 삼성홈타운상가동</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천동 761-5 애견나라백화점</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대야동 57-5 S-OIL하우고개주유소</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1590-12</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1290-7</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1533-26</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1063-4 플러스캐슬</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 관교동 13-1 관교동 행정복지센터</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 896</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 1115-1</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1347-1</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1368-13</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 간석동 31-22</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1189-1</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 956 정은프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 908-27</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1463 효명프라자</t>
+  </si>
+  <si>
+    <t>937482.2221319533</t>
+  </si>
+  <si>
+    <t>938057.8482901675</t>
+  </si>
+  <si>
+    <t>937498.381251357</t>
+  </si>
+  <si>
+    <t>937225.0032899464</t>
+  </si>
+  <si>
+    <t>936272.1127136704</t>
+  </si>
+  <si>
+    <t>937533.3139552183</t>
+  </si>
+  <si>
+    <t>936663.6280433233</t>
+  </si>
+  <si>
+    <t>936879.1776595041</t>
+  </si>
+  <si>
+    <t>928727.6654828573</t>
+  </si>
+  <si>
+    <t>927448.2556652576</t>
+  </si>
+  <si>
+    <t>928205.295146582</t>
+  </si>
+  <si>
+    <t>928623.9176782831</t>
+  </si>
+  <si>
+    <t>928952.4910894916</t>
+  </si>
+  <si>
+    <t>931521.6943603067</t>
+  </si>
+  <si>
+    <t>932224.874504324</t>
+  </si>
+  <si>
+    <t>929180.5195194234</t>
+  </si>
+  <si>
+    <t>929035.2602743967</t>
+  </si>
+  <si>
+    <t>930656.1941175768</t>
+  </si>
+  <si>
+    <t>930005.6922677634</t>
+  </si>
+  <si>
+    <t>932102.5478626201</t>
+  </si>
+  <si>
+    <t>931332.5118907234</t>
+  </si>
+  <si>
+    <t>929370.6298422932</t>
+  </si>
+  <si>
+    <t>1938034.81932035</t>
+  </si>
+  <si>
+    <t>1938643.3110032696</t>
+  </si>
+  <si>
+    <t>1939096.7986823022</t>
+  </si>
+  <si>
+    <t>1938466.382095375</t>
+  </si>
+  <si>
+    <t>1937891.685062895</t>
+  </si>
+  <si>
+    <t>1937160.6429582676</t>
+  </si>
+  <si>
+    <t>1937968.64070718</t>
+  </si>
+  <si>
+    <t>1940126.2691092594</t>
+  </si>
+  <si>
+    <t>1940251.3150196634</t>
+  </si>
+  <si>
+    <t>1938480.6110020196</t>
+  </si>
+  <si>
+    <t>1939410.3177663865</t>
+  </si>
+  <si>
+    <t>1939209.2697154526</t>
+  </si>
+  <si>
+    <t>1938636.2302707438</t>
+  </si>
+  <si>
+    <t>1940307.19307775</t>
+  </si>
+  <si>
+    <t>1940744.9256419935</t>
+  </si>
+  <si>
+    <t>1939208.8017521868</t>
+  </si>
+  <si>
+    <t>1938984.2826620433</t>
+  </si>
+  <si>
+    <t>1940467.4662151802</t>
+  </si>
+  <si>
+    <t>1939021.9555669534</t>
+  </si>
+  <si>
+    <t>1939778.913259727</t>
+  </si>
+  <si>
+    <t>1939912.0193386236</t>
+  </si>
+  <si>
+    <t>1938745.20034389</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5215,24 +5544,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView topLeftCell="A181" workbookViewId="0">
       <selection activeCell="B191" sqref="B191:E193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>720</v>
       </c>
@@ -5249,7 +5578,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -5270,7 +5599,7 @@
         <v>{name:'(주)비에스이',addr:'인천광역시 남동구 남동서로 193',x:'928448.838274891',y:'1934545.4152585235'},</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -5291,7 +5620,7 @@
         <v>{name:'(주)씨에스티',addr:'인천광역시 남동구 남동대로 248',x:'929162.2536080531',y:'1934468.471045103'},</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -5312,7 +5641,7 @@
         <v>{name:'(주)일야',addr:'인천광역시 남동구 은봉로 129',x:'929636.4538484735',y:'1934569.642266401'},</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -5333,7 +5662,7 @@
         <v>{name:'CU연수타운점',addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092'},</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -5354,7 +5683,7 @@
         <v>{name:'간석드림점G',addr:'인천광역시 남동구 석산로9번길 69',x:'929139.5206771668',y:'1940818.0201271167'},</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -5375,7 +5704,7 @@
         <v>{name:'고잔엘아이점G',addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442'},</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -5396,7 +5725,7 @@
         <v>{name:'고잔중앙점G',addr:'인천광역시 남동구 앵고개로 712',x:'930676.6785130233',y:'1932416.9426641734'},</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5417,7 +5746,7 @@
         <v>{name:'남구숭의점G',addr:'인천광역시 미추홀구 독배로 438',x:'924751.8764202176',y:'1940279.1432027267'},</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -5438,7 +5767,7 @@
         <v>{name:'남동논현점G',addr:'인천광역시 남동구 앵고개로815번길 20',x:'931356.6721433003',y:'1933189.4978637807'},</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -5459,7 +5788,7 @@
         <v>{name:'남촌중앙점G',addr:'인천광역시 남동구 남촌로84번길 38-1',x:'930709.9029618322',y:'1936926.6012936095'},</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -5480,7 +5809,7 @@
         <v>{name:'남촌풍림점G',addr:'인천광역시 남동구 남촌로 87',x:'930519.5241960534',y:'1936924.5501427501'},</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -5501,7 +5830,7 @@
         <v>{name:'논현9단지점G',addr:'인천광역시 남동구 에코중앙로 96',x:'931082.9144479546',y:'1932299.9763963223'},</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -5522,7 +5851,7 @@
         <v>{name:'논현그린점G',addr:'인천광역시 남동구 소래역남로 41',x:'932050.8703605854',y:'1933616.1930220574'},</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -5543,7 +5872,7 @@
         <v>{name:'논현논곡점G',addr:'인천광역시 남동구 은봉로165번길 70',x:'930117.4696603667',y:'1934690.2941433568'},</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -5564,7 +5893,7 @@
         <v>{name:'논현본점G',addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222'},</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -5585,7 +5914,7 @@
         <v>{name:'논현사리울점G',addr:'인천광역시 남동구 호구포로 294',x:'930380.131301852',y:'1934682.26347306'},</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5606,7 +5935,7 @@
         <v>{name:'논현타워점G',addr:'인천광역시 남동구 논고개로 101',x:'931351.6498332566',y:'1933713.8792295498'},</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -5627,7 +5956,7 @@
         <v>{name:'논현푸르내점G',addr:'인천광역시 남동구 포구로 96',x:'932234.2407277152',y:'1934439.1704077376'},</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -5648,7 +5977,7 @@
         <v>{name:'논현푸르지오점G',addr:'인천광역시 남동구 남동서로236번길 30',x:'928769.7605027566',y:'1934796.3489991403'},</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -5669,7 +5998,7 @@
         <v>{name:'논현하늘소점G',addr:'인천광역시 남동구 논현로 17',x:'929976.1893208527',y:'1934125.684656498'},</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -5690,7 +6019,7 @@
         <v>{name:'논현행복점G',addr:'인천광역시 남동구 논현로 152',x:'931221.0594972067',y:'1934106.1328947735'},</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -5711,7 +6040,7 @@
         <v>{name:'논현현대식자재마트',addr:'인천광역시 남동구 포구로 69',x:'932397.976608831',y:'1934223.199099741'},</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -5732,7 +6061,7 @@
         <v>{name:'논현호구포점G',addr:'인천광역시 남동구 호구포로 209',x:'929995.2392286886',y:'1933932.6975875972'},</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -5753,7 +6082,7 @@
         <v>{name:'도림벽산점G',addr:'인천광역시 남동구 도림로 5-1',x:'931800.7220110968',y:'1935999.2065084004'},</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -5774,7 +6103,7 @@
         <v>{name:'도림아이파크점G',addr:'인천광역시 남동구 도리미로 8',x:'931913.8111496232',y:'1936148.2539673'},</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -5795,7 +6124,7 @@
         <v>{name:'도화 길목G',addr:'인천광역시 미추홀구 한나루로586번길 46',x:'926983.470680593',y:'1940180.8585922741'},</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -5816,7 +6145,7 @@
         <v>{name:'도화진주점G',addr:'인천광역시 미추홀구 석정로323번길 43',x:'926556.1723330859',y:'1941432.2902734857'},</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -5837,7 +6166,7 @@
         <v>{name:'도화팰리스점G',addr:'인천광역시 미추홀구 경인로 301',x:'926987.0691978035',y:'1940461.0685464954'},</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -5858,7 +6187,7 @@
         <v>{name:'동춘서해점G',addr:'인천광역시 연수구 봉재산로 20',x:'926197.1109902868',y:'1934885.043063439'},</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -5879,7 +6208,7 @@
         <v>{name:'동춘풍림점G',addr:'인천광역시 연수구 경원대로119번길 21',x:'926969.1834998771',y:'1933933.1206172006'},</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -5900,7 +6229,7 @@
         <v>{name:'마스터뷰21호점G',addr:'인천광역시 연수구 컨벤시아대로274번길 55',x:'922947.2055729781',y:'1932085.0274891593'},</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>727</v>
       </c>
@@ -5921,7 +6250,7 @@
         <v>{name:'만도헬라일렉트로닉스(주)-WOORI',addr:'인천광역시 연수구 하모니로 224',x:'923721.6646240482',y:'1931399.019956504'},</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -5942,7 +6271,7 @@
         <v>{name:'만수숭의점G',addr:'인천광역시 남동구 구월말로58번길 1',x:'931460.6338070568',y:'1939723.2555402233'},</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>747</v>
       </c>
@@ -5963,7 +6292,7 @@
         <v>{name:'주안동궁전예식장 결합부스',addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243'},</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -5984,7 +6313,7 @@
         <v>{name:'무지개할인마트',addr:'인천광역시 연수구 새말로36번길 11',x:'926976.9262094533',y:'1936160.6680197665'},</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -6005,7 +6334,7 @@
         <v>{name:'미니24-인천',addr:'인천광역시 미추홀구 경인로 437',x:'928246.1295577467',y:'1940192.399497855'},</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>725</v>
       </c>
@@ -6026,7 +6355,7 @@
         <v>{name:'미추홀타워점G',addr:'인천광역시 연수구 갯벌로 12',x:'925064.2345959987',y:'1931830.2383670015'},</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -6047,7 +6376,7 @@
         <v>{name:'보금마트-연수',addr:'인천광역시 연수구 함박로25번길 2',x:'927463.1199536233',y:'1936627.06679082'},</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -6068,7 +6397,7 @@
         <v>{name:'서구검단고점G',addr:'인천광역시 서구 검단로 532',x:'926110.4926230235',y:'1956373.3558248538'},</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -6089,7 +6418,7 @@
         <v>{name:'서구엠파크점G',addr:'인천광역시 서구 염곡로 52',x:'926244.9221541481',y:'1943755.5184864542'},</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -6110,7 +6439,7 @@
         <v>{name:'서구연희점G',addr:'인천광역시 서구 간촌로 9',x:'927388.9430976734',y:'1950308.0950684836'},</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -6131,7 +6460,7 @@
         <v>{name:'선학역점M',addr:'인천광역시 연수구 학나래로118번길 23',x:'929081.3471575531',y:'1936767.7973411446'},</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -6152,7 +6481,7 @@
         <v>{name:'선학중앙G',addr:'인천광역시 연수구 학나래로6번길 32',x:'929030.9872679301',y:'1936439.7252242365'},</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -6173,7 +6502,7 @@
         <v>{name:'세븐일레븐-인천간석역점',addr:'인천광역시 남동구 석산로 3',x:'928759.3617110967',y:'1940883.321277853'},</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -6194,7 +6523,7 @@
         <v>{name:'셀트리온 제2공장 3층WOORI',addr:'인천광역시 연수구 아카데미로51번길 20',x:'923862.253035788',y:'1930721.5154832513'},</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -6215,7 +6544,7 @@
         <v>{name:'소래베스트점G',addr:'인천광역시 남동구 소래역로 20',x:'932409.8016257668',y:'1933619.6491731368'},</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -6236,7 +6565,7 @@
         <v>{name:'소래시티점G',addr:'인천광역시 남동구 포구로 35',x:'932559.6363396579',y:'1933938.546323114'},</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>124</v>
       </c>
@@ -6257,7 +6586,7 @@
         <v>{name:'소래중앙점G',addr:'인천광역시 남동구 소래역로18번길 15',x:'932472.0993263312',y:'1933643.4917039908'},</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -6278,7 +6607,7 @@
         <v>{name:'소래포구점G',addr:'인천광역시 남동구 장도로 85',x:'932594.8315246161',y:'1933497.9901714372'},</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -6299,7 +6628,7 @@
         <v>{name:'소래풍림점G',addr:'인천광역시 남동구 포구로 64-29',x:'932494.2900207366',y:'1934308.7269807002'},</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>350</v>
       </c>
@@ -6320,7 +6649,7 @@
         <v>{name:'송도 라이크홈기숙사-KEB하나',addr:'인천광역시 연수구 첨단대로 80',x:'925077.5744217939',y:'1930163.4990456211'},</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -6341,7 +6670,7 @@
         <v>{name:'주안으뜸점G',addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243'},</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -6362,7 +6691,7 @@
         <v>{name:'송도그림워크점GSS',addr:'인천광역시 연수구 아트센터대로97번길 15',x:'923949.5984413391',y:'1933886.2199624083'},</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -6383,7 +6712,7 @@
         <v>{name:'송도더샵엑스포KB',addr:'인천광역시 연수구 컨벤시아대로42번길 95',x:'924238.7160272836',y:'1934178.4920383645'},</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -6404,7 +6733,7 @@
         <v>{name:'송도더샵점G',addr:'인천광역시 연수구 아트센터대로97번길 75',x:'924389.3127429485',y:'1933490.9978888235'},</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -6425,7 +6754,7 @@
         <v>{name:'송도라마다점G',addr:'인천광역시 연수구 능허대로267번길 29',x:'925239.3006682626',y:'1935277.2973558633'},</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -6446,7 +6775,7 @@
         <v>{name:'송도메디점G',addr:'인천광역시 연수구 컨벤시아대로130번길 14',x:'924308.0890260204',y:'1932993.4899920663'},</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>171</v>
       </c>
@@ -6467,7 +6796,7 @@
         <v>{name:'송도성지점G',addr:'인천광역시 연수구 신송로6번길 7',x:'925894.2303461249',y:'1932625.2375938715'},</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -6488,7 +6817,7 @@
         <v>{name:'메리빌리아-송도',addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588'},</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -6509,7 +6838,7 @@
         <v>{name:'송도센트럴파크호텔',addr:'인천광역시 연수구 테크노파크로 193',x:'923641.9774963101',y:'1932732.2588121234'},</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -6530,7 +6859,7 @@
         <v>{name:'송도스마트밸리점G',addr:'인천광역시 연수구 송도미래로 30',x:'924568.090254779',y:'1930236.501307576'},</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -6551,7 +6880,7 @@
         <v>{name:'송도월드마크점M',addr:'인천광역시 연수구 컨벤시아대로 60',x:'924851.1126633752',y:'1933442.4269422777'},</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -6572,7 +6901,7 @@
         <v>{name:'송도유원지점G',addr:'인천광역시 연수구 능허대로 203',x:'924862.0970530566',y:'1935734.32011165'},</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -6593,7 +6922,7 @@
         <v>{name:'송도점-GSS',addr:'인천광역시 연수구 해돋이로 107',x:'924778.2391112824',y:'1932822.1059526857'},</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -6614,7 +6943,7 @@
         <v>{name:'송도커넬워크점G',addr:'인천광역시 연수구 아트센터대로 107',x:'923751.8781831791',y:'1933894.0553808152'},</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -6635,7 +6964,7 @@
         <v>{name:'송도테크노파크IT센터SHINHAN',addr:'인천광역시 연수구 송도과학로 32',x:'925841.3207283262',y:'1931743.5380926528'},</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>722</v>
       </c>
@@ -6656,7 +6985,7 @@
         <v>{name:'송도트리플점G',addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588'},</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>159</v>
       </c>
@@ -6677,7 +7006,7 @@
         <v>{name:'송도파크호텔WOORI',addr:'인천광역시 연수구 테크노파크로 151',x:'923940.5490371233',y:'1932461.3960087532'},</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -6698,7 +7027,7 @@
         <v>{name:'인천글로벌운영재단',addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412'},</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -6719,7 +7048,7 @@
         <v>{name:'송도하모니점G',addr:'인천광역시 연수구 하모니로 124',x:'924325.4107504063',y:'1932184.2251096321'},</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -6740,7 +7069,7 @@
         <v>{name:'송도해송점G',addr:'인천광역시 연수구 해송로30번길 19',x:'924385.1257843729',y:'1931691.8597509419'},</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -6761,7 +7090,7 @@
         <v>{name:'송도현대점G',addr:'인천광역시 연수구 해돋이로6번길 7',x:'925627.0584128611',y:'1932281.0568902749'},</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -6782,7 +7111,7 @@
         <v>{name:'송도힐스점G',addr:'인천광역시 연수구 컨벤시아대로 90',x:'924647.7513800692',y:'1933202.8066080627'},</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -6803,7 +7132,7 @@
         <v>{name:'숭의길목점G',addr:'인천광역시 미추홀구 수봉안길 16',x:'925635.7302395517',y:'1940618.206504576'},</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -6824,7 +7153,7 @@
         <v>{name:'시흥신창점G',addr:'경기도 시흥시 신천4길 12',x:'936418.8711248166',y:'1937926.4969950966'},</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -6845,7 +7174,7 @@
         <v>{name:'신기사거리점G',addr:'인천광역시 미추홀구 미추홀대로 610',x:'927475.7843919608',y:'1939483.3085580925'},</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -6866,7 +7195,7 @@
         <v>{name:'신천동국민은행 결합부스',addr:'경기도 시흥시 수인로 3372',x:'936693.2910999567',y:'1938235.12572021'},</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -6887,7 +7216,7 @@
         <v>{name:'아크리아점G',addr:'인천광역시 연수구 신송로125번길 13',x:'924866.6899020134',y:'1933167.18251291'},</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>358</v>
       </c>
@@ -6908,7 +7237,7 @@
         <v>{name:'한국뉴욕주립대학교 결합부스',addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412'},</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -6929,7 +7258,7 @@
         <v>{name:'엠파크타워점G',addr:'인천광역시 서구 봉수대로 158',x:'925983.41854599',y:'1943696.0707750432'},</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -6950,7 +7279,7 @@
         <v>{name:'연수경원G',addr:'인천광역시 연수구 경원대로467번길 13',x:'929009.7022006633',y:'1936610.8085542968'},</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -6971,7 +7300,7 @@
         <v>{name:'연수골드점G',addr:'인천광역시 연수구 함박로 80',x:'927980.0656931633',y:'1936544.17710579'},</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -6992,7 +7321,7 @@
         <v>{name:'연수단비점G',addr:'인천광역시 연수구 청능대로113번길 43',x:'927274.7641431501',y:'1935327.7588821636'},</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -7013,7 +7342,7 @@
         <v>{name:'연수선학점G',addr:'인천광역시 연수구 넘말로29번길 21',x:'928915.90151959',y:'1936891.1488486365'},</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -7034,7 +7363,7 @@
         <v>{name:'연수장례식장 인천내부',addr:'인천광역시 연수구 벚꽃로 122',x:'927335.7894045769',y:'1935611.3385808035'},</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -7055,7 +7384,7 @@
         <v>{name:'연수점G',addr:'인천광역시 연수구 새말로46번길 4',x:'927054.4397459901',y:'1936127.9562478536'},</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -7076,7 +7405,7 @@
         <v>{name:'연수점M',addr:'인천광역시 연수구 비류대로 230',x:'925700.9976564867',y:'1936753.3900593636'},</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -7097,7 +7426,7 @@
         <v>{name:'연수중앙점G',addr:'인천광역시 연수구 새말로69번길 1',x:'927230.4884649334',y:'1935967.4642858398'},</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -7118,7 +7447,7 @@
         <v>{name:'연수청학점M',addr:'인천광역시 연수구 먼우금로 197',x:'927097.7779245968',y:'1935413.5243354505'},</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -7139,7 +7468,7 @@
         <v>{name:'연수타운점G',addr:'인천광역시 연수구 샘말로21번길 3',x:'927277.5510110233',y:'1935141.1890938403'},</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -7160,7 +7489,7 @@
         <v>{name:'연수태산점G',addr:'인천광역시 연수구 먼우금로264번길 8-4',x:'927477.3679526933',y:'1935944.299351547'},</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -7181,7 +7510,7 @@
         <v>{name:'연수파크타운점M',addr:'인천광역시 연수구 용담로 115',x:'927244.231129833',y:'1935426.1714365287'},</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>131</v>
       </c>
@@ -7202,7 +7531,7 @@
         <v>{name:'연수함박점M',addr:'인천광역시 연수구 함박뫼로50번길 93',x:'927263.5188448408',y:'1935872.3548643487'},</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>170</v>
       </c>
@@ -7223,7 +7552,7 @@
         <v>{name:'연수희망점G',addr:'인천광역시 연수구 앵고개로 256',x:'926724.2878851034',y:'1934622.8657452334'},</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>61</v>
       </c>
@@ -7244,7 +7573,7 @@
         <v>{name:'영빌딩CITY',addr:'인천광역시 미추홀구 인하로 253',x:'927138.1700531407',y:'1939133.3534303224'},</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -7265,7 +7594,7 @@
         <v>{name:'옥련백산점G',addr:'인천광역시 연수구 독배로 25',x:'924316.71718126',y:'1936330.9110739832'},</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>182</v>
       </c>
@@ -7286,7 +7615,7 @@
         <v>{name:'옥련사거리G',addr:'인천광역시 연수구 독배로 68',x:'924367.6668144872',y:'1936729.1735826507'},</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>181</v>
       </c>
@@ -7307,7 +7636,7 @@
         <v>{name:'옥련사랑M',addr:'인천광역시 연수구 한나루로 166',x:'925293.9163142969',y:'1936455.0597683867'},</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>134</v>
       </c>
@@ -7328,7 +7657,7 @@
         <v>{name:'옥련서해점G',addr:'인천광역시 연수구 청량로185번길 13',x:'924973.1474770068',y:'1936336.0367916236'},</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>180</v>
       </c>
@@ -7349,7 +7678,7 @@
         <v>{name:'옥련쌍용G',addr:'인천광역시 연수구 청량로184번길 48',x:'925182.9532054849',y:'1936549.0084032882'},</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -7370,7 +7699,7 @@
         <v>{name:'옥련아주점G',addr:'인천광역시 연수구 청량로 217',x:'925018.4765206832',y:'1936665.1654121173'},</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -7391,7 +7720,7 @@
         <v>{name:'옥련우성점G',addr:'인천광역시 연수구 독배로40번길 47',x:'924577.7008813033',y:'1936507.4463419202'},</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>132</v>
       </c>
@@ -7412,7 +7741,7 @@
         <v>{name:'옥련풍림점G',addr:'인천광역시 연수구 한나루로193번길 3',x:'925362.11812462',y:'1936699.7315103933'},</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -7433,7 +7762,7 @@
         <v>{name:'월미분수대점G',addr:'인천광역시 중구 월미문화로 57',x:'920135.501782795',y:'1941955.847831308'},</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -7454,7 +7783,7 @@
         <v>{name:'월미중앙점G',addr:'인천광역시 중구 월미문화로 65',x:'920108.2432266385',y:'1941888.865706168'},</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>76</v>
       </c>
@@ -7475,7 +7804,7 @@
         <v>{name:'위드미-라마다송도점',addr:'인천광역시 연수구 능허대로267번길 42',x:'925310.3928309134',y:'1935295.212755117'},</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -7496,7 +7825,7 @@
         <v>{name:'유진로봇 송도사옥',addr:'인천광역시 연수구 하모니로187번길 33',x:'924180.5928355344',y:'1931340.6668476937'},</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -7517,7 +7846,7 @@
         <v>{name:'은계센트럴점G',addr:'경기도 시흥시 은계중앙로 97',x:'938203.4013041602',y:'1938022.7406927734'},</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>156</v>
       </c>
@@ -7538,7 +7867,7 @@
         <v>{name:'은행동성원아파트 결합부스',addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804'},</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>157</v>
       </c>
@@ -7559,7 +7888,7 @@
         <v>{name:'은행동약사 결합부스',addr:'경기도 시흥시 은행로 8',x:'937498.2971942425',y:'1937334.1604390284'},</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>149</v>
       </c>
@@ -7580,7 +7909,7 @@
         <v>{name:'은혜의교회SH',addr:'인천광역시 미추홀구 매소홀로 428',x:'926520.0805420987',y:'1938134.7043078174'},</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -7601,7 +7930,7 @@
         <v>{name:'이마트 동인천점SC',addr:'인천광역시 중구 인중로 134',x:'922988.2656142102',y:'1941172.2637899336'},</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>179</v>
       </c>
@@ -7622,7 +7951,7 @@
         <v>{name:'이마트24 연수함박로',addr:'인천광역시 연수구 함박로 36',x:'927543.317565355',y:'1936592.6575228586'},</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -7643,7 +7972,7 @@
         <v>{name:'이수엑사보드 인천공장',addr:'인천광역시 남동구 남동서로270번길 54',x:'929093.4386579194',y:'1935045.5201349352'},</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>734</v>
       </c>
@@ -7664,7 +7993,7 @@
         <v>{name:'인천 송도 컨벤시아',addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082'},</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -7685,7 +8014,7 @@
         <v>{name:'인천5공단파출소결합부스',addr:'인천광역시 서구 가재울로 75',x:'927648.8596204547',y:'1942435.9377577854'},</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -7706,7 +8035,7 @@
         <v>{name:'인천경동점G',addr:'인천광역시 중구 개항로 82',x:'923229.7654404601',y:'1941739.1997609003'},</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>728</v>
       </c>
@@ -7727,7 +8056,7 @@
         <v>{name:'송도 에듀포레푸르지오',addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713'},</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>82</v>
       </c>
@@ -7748,7 +8077,7 @@
         <v>{name:'인천남촌로점G',addr:'인천광역시 남동구 남촌동로3번길 33',x:'930644.9199876767',y:'1937177.0833667233'},</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>57</v>
       </c>
@@ -7769,7 +8098,7 @@
         <v>{name:'인천논현광장점G',addr:'인천광역시 남동구 논고개로123번길 35',x:'931147.5988134101',y:'1933884.31215839'},</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -7790,7 +8119,7 @@
         <v>{name:'인천논현사랑점G',addr:'인천광역시 남동구 논고개로 166',x:'931299.0037734902',y:'1934371.8316615'},</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -7811,7 +8140,7 @@
         <v>{name:'인천논현역점G',addr:'인천광역시 남동구 논고개로 121',x:'931299.4091969267',y:'1933928.8000814402'},</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>51</v>
       </c>
@@ -7832,7 +8161,7 @@
         <v>{name:'인천논현점M',addr:'인천광역시 남동구 논현로46번길 51',x:'930040.7558424668',y:'1933792.9459385104'},</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>93</v>
       </c>
@@ -7853,7 +8182,7 @@
         <v>{name:'인천동아서점 결합부스',addr:'인천광역시 미추홀구 경인로 386-1',x:'927733.8360022209',y:'1940187.0715722647'},</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>160</v>
       </c>
@@ -7874,7 +8203,7 @@
         <v>{name:'인천메카점M',addr:'인천광역시 연수구 용담로125번길 41',x:'927422.4468487434',y:'1935499.65872847'},</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -7895,7 +8224,7 @@
         <v>{name:'인천벽산아파트 결합부스',addr:'인천광역시 남동구 서판로 43',x:'931434.1630260036',y:'1940841.3205330772'},</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>85</v>
       </c>
@@ -7916,7 +8245,7 @@
         <v>{name:'인천선학점G',addr:'인천광역시 연수구 비류대로529번길 10',x:'928643.5051002635',y:'1936354.497053353'},</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>94</v>
       </c>
@@ -7937,7 +8266,7 @@
         <v>{name:'인천송도점G',addr:'인천광역시 연수구 해돋이로84번길 29',x:'925166.2389731444',y:'1932929.6578389006'},</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -7958,7 +8287,7 @@
         <v>{name:'인천신현쇼핑 결합부스',addr:'인천광역시 서구 가정로 369',x:'926879.0843732902',y:'1946840.1810874036'},</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>100</v>
       </c>
@@ -7979,7 +8308,7 @@
         <v>{name:'인천옥련점M',addr:'인천광역시 연수구 한나루로197번길 30',x:'925282.19116041',y:'1936827.8251766833'},</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -8000,7 +8329,7 @@
         <v>{name:'인천주안로점G',addr:'인천광역시 미추홀구 주안동로 28-15',x:'928043.4087397007',y:'1940464.958479995'},</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -8021,7 +8350,7 @@
         <v>{name:'인천터미널점M',addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102'},</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>352</v>
       </c>
@@ -8042,7 +8371,7 @@
         <v>{name:'인천해양경찰서-SH',addr:'인천광역시 연수구 옥골로 69',x:'924748.3864360615',y:'1937246.7582861618'},</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -8063,7 +8392,7 @@
         <v>{name:'인천호구포역점M',addr:'인천광역시 남동구 논현로26번길 12',x:'929979.51652928',y:'1934015.4848348568'},</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>63</v>
       </c>
@@ -8084,7 +8413,7 @@
         <v>{name:'자매슈퍼-연수',addr:'인천광역시 연수구 함박로12번길 46',x:'927560.5282932345',y:'1936553.2454770715'},</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>25</v>
       </c>
@@ -8105,7 +8434,7 @@
         <v>{name:'제물포버스정류장 결합부스',addr:'인천광역시 미추홀구 경인로 135',x:'925542.174751237',y:'1941140.5618504882'},</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>69</v>
       </c>
@@ -8126,7 +8455,7 @@
         <v>{name:'제일슈퍼-인천',addr:'인천광역시 연수구 함박안로156번길 6',x:'927773.0413744',y:'1936723.1742538'},</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>173</v>
       </c>
@@ -8147,7 +8476,7 @@
         <v>{name:'주안 보보G',addr:'인천광역시 미추홀구 경인로425번길 14',x:'928155.8178139064',y:'1940251.613382046'},</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>174</v>
       </c>
@@ -8168,7 +8497,7 @@
         <v>{name:'주안 신성G',addr:'인천광역시 미추홀구 주안중로 28',x:'927733.3861476094',y:'1940496.9830620233'},</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>116</v>
       </c>
@@ -8189,7 +8518,7 @@
         <v>{name:'주안1동점G',addr:'인천광역시 미추홀구 주안중로50번길 20',x:'927832.11701282',y:'1940714.3422219716'},</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -8210,7 +8539,7 @@
         <v>{name:'주안공단점G',addr:'인천광역시 미추홀구 염전로 362',x:'927504.3446300412',y:'1941528.745698372'},</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>98</v>
       </c>
@@ -8231,7 +8560,7 @@
         <v>{name:'주안남부점M',addr:'인천광역시 미추홀구 주안로104번길 15',x:'927600.294782457',y:'1940748.241028722'},</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>117</v>
       </c>
@@ -8252,7 +8581,7 @@
         <v>{name:'주안대로점G',addr:'인천광역시 미추홀구 주안로 45',x:'927021.73843505',y:'1940904.6652424666'},</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -8273,7 +8602,7 @@
         <v>{name:'주안동경점G',addr:'인천광역시 미추홀구 주안서로 53',x:'927285.2900126814',y:'1940792.0053177588'},</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -8294,7 +8623,7 @@
         <v>{name:'에듀포레점G',addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713'},</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -8315,7 +8644,7 @@
         <v>{name:'주안미래점M',addr:'인천광역시 미추홀구 주안중로 13-1',x:'927698.3542673178',y:'1940367.9314235584'},</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -8336,7 +8665,7 @@
         <v>{name:'주안미소점G',addr:'인천광역시 미추홀구 신기길30번길 37',x:'926981.776154774',y:'1938935.675808793'},</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -8357,7 +8686,7 @@
         <v>{name:'주안미추홀점G',addr:'인천광역시 미추홀구 경인로 343',x:'927260.9079237133',y:'1940267.6733396333'},</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -8378,7 +8707,7 @@
         <v>{name:'주안본점M',addr:'인천광역시 미추홀구 미추홀대로734번길 37',x:'927714.5775235672',y:'1940744.2295416128'},</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>109</v>
       </c>
@@ -8399,7 +8728,7 @@
         <v>{name:'주안사거리점G',addr:'인천광역시 미추홀구 석바위로 61',x:'927476.9399430258',y:'1940520.5633123717'},</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>86</v>
       </c>
@@ -8420,7 +8749,7 @@
         <v>{name:'주안석바위점M',addr:'인천광역시 미추홀구 석바위로 112',x:'927947.6847094274',y:'1940400.324138321'},</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -8441,7 +8770,7 @@
         <v>{name:'주안세일점G',addr:'인천광역시 미추홀구 동주길 76',x:'927911.4083549832',y:'1939815.436123129'},</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>184</v>
       </c>
@@ -8462,7 +8791,7 @@
         <v>{name:'주안역삼거리 결합부스',addr:'인천광역시 미추홀구 미추홀대로 741',x:'927492.7927790079',y:'1940802.0347208697'},</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -8483,7 +8812,7 @@
         <v>{name:'주안월드점G',addr:'인천광역시 미추홀구 경인로485번길 33',x:'928577.0918325363',y:'1940491.9788272986'},</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -8504,7 +8833,7 @@
         <v>{name:'송도센트럴점M',addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754'},</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>139</v>
       </c>
@@ -8525,7 +8854,7 @@
         <v>{name:'주안주공점G',addr:'인천광역시 미추홀구 주안로 215',x:'928700.075495082',y:'1940788.8228662973'},</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>148</v>
       </c>
@@ -8546,7 +8875,7 @@
         <v>{name:'주안파크점G',addr:'인천광역시 미추홀구 미추홀대로722번길 21-1',x:'927631.6564081493',y:'1940615.9256797591'},</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -8567,7 +8896,7 @@
         <v>{name:'주안한신점G',addr:'인천광역시 미추홀구 인하로352번길 10',x:'928112.3556398968',y:'1939019.7543626092'},</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>119</v>
       </c>
@@ -8588,7 +8917,7 @@
         <v>{name:'주안행복점M',addr:'인천광역시 미추홀구 석바위로53번길 3',x:'927366.0847729146',y:'1940514.0627141502'},</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>55</v>
       </c>
@@ -8609,7 +8938,7 @@
         <v>{name:'중부지방해양경찰청SH',addr:'인천광역시 연수구 센트럴로 263',x:'923373.8316200967',y:'1933570.7668816056'},</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -8630,7 +8959,7 @@
         <v>{name:'중앙슈퍼-연수',addr:'인천광역시 연수구 함박뫼로4번길 13-8',x:'926743.3556705897',y:'1935757.611946192'},</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -8651,7 +8980,7 @@
         <v>{name:'천일식품-고잔동',addr:'인천광역시 남동구 앵고개로 426',x:'928102.1321792866',y:'1933636.4756072024'},</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>103</v>
       </c>
@@ -8672,7 +9001,7 @@
         <v>{name:'청능공원점G',addr:'인천광역시 연수구 청능말로7번길 20',x:'926506.0746164669',y:'1935665.4340851936'},</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>28</v>
       </c>
@@ -8693,7 +9022,7 @@
         <v>{name:'청라리치아노점M',addr:'인천광역시 서구 청라에메랄드로102번길 10',x:'925562.0452141722',y:'1948624.1122872476'},</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -8714,7 +9043,7 @@
         <v>{name:'청라에뜰점G',addr:'인천광역시 서구 청라커낼로 300',x:'924457.963117328',y:'1948765.6387663502'},</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>27</v>
       </c>
@@ -8735,7 +9064,7 @@
         <v>{name:'청라호반점G',addr:'인천광역시 서구 청라커낼로 163',x:'923949.8371560569',y:'1947760.2909392407'},</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>354</v>
       </c>
@@ -8756,7 +9085,7 @@
         <v>{name:'청학복합문화센터-SHINHAN',addr:'인천광역시 연수구 비류대로 299',x:'926357.2427523071',y:'1936675.620955735'},</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>74</v>
       </c>
@@ -8777,7 +9106,7 @@
         <v>{name:'청학본점G',addr:'인천광역시 연수구 비류대로278번길 8-3',x:'926142.2991103267',y:'1936646.2066965867'},</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -8798,7 +9127,7 @@
         <v>{name:'청학타운점G',addr:'인천광역시 연수구 청학로12번길 47',x:'926231.6395880934',y:'1936834.2690070835'},</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -8819,7 +9148,7 @@
         <v>{name:'청학현대점G',addr:'인천광역시 연수구 계림로35번길 58',x:'926443.0193460134',y:'1936904.7241967367'},</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>730</v>
       </c>
@@ -8840,7 +9169,7 @@
         <v>{name:'코스트코',addr:'인천광역시 연수구 컨벤시아대로230번길 60',x:' 923278.7832623338',y:'1932636.7317621163'},</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>133</v>
       </c>
@@ -8861,7 +9190,7 @@
         <v>{name:'퍼스트파크13점',addr:'인천광역시 연수구 컨벤시아대로252번길 70',x:'923074.6219626968',y:'1932451.7707887636'},</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>47</v>
       </c>
@@ -8882,7 +9211,7 @@
         <v>{name:'포스코송도 R&amp;D센터KB',addr:'인천광역시 연수구 송도과학로 100',x:'926384.4323779428',y:'1931453.2860596376'},</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>53</v>
       </c>
@@ -8903,7 +9232,7 @@
         <v>{name:'포스코이앤씨타워점G',addr:'인천광역시 연수구 인천타워대로 241',x:'923372.5008990793',y:'1932935.9711958324'},</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>123</v>
       </c>
@@ -8924,7 +9253,7 @@
         <v>{name:'하이-소래포구',addr:'인천광역시 남동구 포구로 3',x:'932688.4409603968',y:'1933646.0883224965'},</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>22</v>
       </c>
@@ -8945,7 +9274,7 @@
         <v>{name:'학익늘봄점G',addr:'인천광역시 미추홀구 한나루로403번길 105',x:'925632.7361822787',y:'1938795.12119258'},</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -8966,7 +9295,7 @@
         <v>{name:'학익다송G',addr:'인천광역시 미추홀구 소성로 162',x:'926243.6841133314',y:'1938404.1977886255'},</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>83</v>
       </c>
@@ -8987,7 +9316,7 @@
         <v>{name:'학익대로점G',addr:'인천광역시 미추홀구 소성로 244',x:'926977.6259435453',y:'1938038.3710919674'},</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>175</v>
       </c>
@@ -9008,7 +9337,7 @@
         <v>{name:'학익미소G',addr:'인천광역시 미추홀구 주승로 22',x:'926826.3832888785',y:'1938596.312287895'},</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -9029,7 +9358,7 @@
         <v>{name:'학익사거리점M',addr:'인천광역시 미추홀구 매소홀로446번길 16',x:'926687.5525610019',y:'1938078.4112452823'},</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>84</v>
       </c>
@@ -9050,7 +9379,7 @@
         <v>{name:'학익센터점G',addr:'인천광역시 미추홀구 매소홀로446번길 4',x:'926688.1271994561',y:'1938129.2821605182'},</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>40</v>
       </c>
@@ -9071,7 +9400,7 @@
         <v>{name:'학익점GSS',addr:'인천광역시 미추홀구 소성로 146',x:'926064.1264832243',y:'1938437.8886083513'},</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>118</v>
       </c>
@@ -9092,7 +9421,7 @@
         <v>{name:'학익중앙점G',addr:'인천광역시 미추홀구 소성로185번길 16-5',x:'926531.8325332045',y:'1938402.6683132658'},</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>165</v>
       </c>
@@ -9113,7 +9442,7 @@
         <v>{name:'학익타운점G',addr:'인천광역시 미추홀구 한나루로 350',x:'925893.6336379224',y:'1938132.127089256'},</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>356</v>
       </c>
@@ -9134,7 +9463,7 @@
         <v>{name:'송도푸르지오시티점G',addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754'},</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -9155,7 +9484,7 @@
         <v>{name:'한옥마을앰배서더-SHINHAN',addr:'인천광역시 연수구 테크노파크로 200',x:'923643.9542986592',y:'1932798.2731926683'},</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>33</v>
       </c>
@@ -9176,7 +9505,7 @@
         <v>{name:'한화프라자점G',addr:'인천광역시 남동구 소래역남로 12',x:'932305.6277828533',y:'1933461.700828867'},</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>129</v>
       </c>
@@ -9197,7 +9526,7 @@
         <v>{name:'해양경비안전본부SHINHAN',addr:'인천광역시 연수구 해돋이로 130',x:'924618.4617833635',y:'1932985.3575826176'},</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>732</v>
       </c>
@@ -9218,7 +9547,7 @@
         <v>{name:'현대 프리미엄 아울렛 송도',addr:'인천광역시 연수구 송도국제대로 123',x:'925450.1762407259',y:'1931726.6847481355'},</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>749</v>
       </c>
@@ -9239,7 +9568,7 @@
         <v>{name:'만도로브제',addr:'인천광역시 연수구 첨단대로60번길 75',x:'924604.9640742338',y:'1929694.2852085028'},</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>752</v>
       </c>
@@ -9260,7 +9589,7 @@
         <v>{name:'한화에코11단지',addr:'인천광역시 남동구 논고개로 17',x:'931971.8826013578',y:'1933157.4842754863'},</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>754</v>
       </c>
@@ -9282,8 +9611,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F190" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F193">
+  <autoFilter ref="A1:F190">
+    <sortState ref="A2:F193">
       <sortCondition ref="B1:B190"/>
     </sortState>
   </autoFilter>
@@ -9294,25 +9623,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G317"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G298" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G322" sqref="G322"/>
+    <sheetView tabSelected="1" topLeftCell="E300" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F316" sqref="F316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="191.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="191.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>720</v>
       </c>
@@ -9332,7 +9661,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -9353,7 +9682,7 @@
         <v>{name:['(주)비에스이'],addr:'인천광역시 남동구 남동서로 193',x:'928448.838274891',y:'1934545.4152585235',jibun:'인천광역시 남동구 고잔동 626-3 (주)이츠웰'},</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -9374,7 +9703,7 @@
         <v>{name:['(주)씨에스티'],addr:'인천광역시 남동구 남동대로 248',x:'929162.2536080531',y:'1934468.471045103',jibun:'인천광역시 남동구 논현동 444-4'},</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -9395,7 +9724,7 @@
         <v>{name:['(주)일야'],addr:'인천광역시 남동구 은봉로 129',x:'929636.4538484735',y:'1934569.642266401',jibun:'인천광역시 남동구 논현동 439-3'},</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -9416,7 +9745,7 @@
         <v>{name:['간석드림점G'],addr:'인천광역시 남동구 석산로9번길 69',x:'929139.5206771668',y:'1940818.0201271167',jibun:'인천광역시 남동구 간석동 388-30'},</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>761</v>
       </c>
@@ -9437,7 +9766,7 @@
         <v>{name:['경인종합상가 결합부스'],addr:'인천광역시 미추홀구 경인로 392',x:'927784.8569973619',y:'1940188.3494468476',jibun:'인천광역시 미추홀구 주안동 431-1 경인상가'},</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -9461,7 +9790,7 @@
         <v>{name:['고잔엘아이점G','남동국가365'],addr:'인천광역시 남동구 호구포로 50',x:'929252.1022300723',y:'1932524.4912659442',jibun:'인천광역시 남동구 고잔동 736-4'},</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -9482,7 +9811,7 @@
         <v>{name:['고잔중앙점G'],addr:'인천광역시 남동구 앵고개로 712',x:'930676.6785130233',y:'1932416.9426641734',jibun:'인천광역시 남동구 고잔동 349-3 석준빌딩'},</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -9503,7 +9832,7 @@
         <v>{name:['남구숭의점G'],addr:'인천광역시 미추홀구 독배로 438',x:'924751.8764202176',y:'1940279.1432027267',jibun:'인천광역시 미추홀구 숭의동 283-11'},</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -9524,7 +9853,7 @@
         <v>{name:['남동논현점G'],addr:'인천광역시 남동구 앵고개로815번길 20',x:'931356.6721433003',y:'1933189.4978637807',jibun:'인천광역시 남동구 논현동 740-2 소래휴먼시아3단지 상가비동'},</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -9545,7 +9874,7 @@
         <v>{name:['남촌중앙점G'],addr:'인천광역시 남동구 남촌로84번길 38-1',x:'930709.9029618322',y:'1936926.6012936095',jibun:'인천광역시 남동구 남촌동 649'},</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -9566,7 +9895,7 @@
         <v>{name:['남촌풍림점G'],addr:'인천광역시 남동구 남촌로 87',x:'930519.5241960534',y:'1936924.5501427501',jibun:'인천광역시 남동구 남촌동 266-4'},</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -9587,7 +9916,7 @@
         <v>{name:['논현9단지점G'],addr:'인천광역시 남동구 에코중앙로 96',x:'931082.9144479546',y:'1932299.9763963223',jibun:'인천광역시 남동구 논현동 766-1 에코메트로9단지한화꿈에그린아파트'},</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -9608,7 +9937,7 @@
         <v>{name:['논현그린점G'],addr:'인천광역시 남동구 소래역남로 41',x:'932050.8703605854',y:'1933616.1930220574',jibun:'인천광역시 남동구 논현동 755-1 에코메트로5단지상가'},</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -9629,7 +9958,7 @@
         <v>{name:['논현논곡점G'],addr:'인천광역시 남동구 은봉로165번길 70',x:'930117.4696603667',y:'1934690.2941433568',jibun:'인천광역시 남동구 논현동 579-8'},</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -9653,7 +9982,7 @@
         <v>{name:['논현본점G','주공5단지상가(KEB하나은행365)'],addr:'인천광역시 남동구 논현로 107',x:'930811.277431088',y:'1934015.7033148222',jibun:'인천광역시 남동구 논현동 633-1 달맞이마을휴먼시아5단지 상가'},</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -9674,7 +10003,7 @@
         <v>{name:['논현사리울점G'],addr:'인천광역시 남동구 호구포로 294',x:'930380.131301852',y:'1934682.26347306',jibun:'인천광역시 남동구 논현동 564-1 논현주공1단지아파트'},</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -9695,7 +10024,7 @@
         <v>{name:['논현타워점G'],addr:'인천광역시 남동구 논고개로 101',x:'931351.6498332566',y:'1933713.8792295498',jibun:'인천광역시 남동구 논현동 649-3 아름다운타워'},</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -9716,7 +10045,7 @@
         <v>{name:['논현푸르내점G'],addr:'인천광역시 남동구 포구로 96',x:'932234.2407277152',y:'1934439.1704077376',jibun:'인천광역시 남동구 논현동 600-9 휴먼시아푸르내마을13단지 상가'},</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -9737,7 +10066,7 @@
         <v>{name:['논현푸르지오점G'],addr:'인천광역시 남동구 남동서로236번길 30',x:'928769.7605027566',y:'1934796.3489991403',jibun:'인천광역시 남동구 논현동 448 논현2차푸르지오시티'},</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -9758,7 +10087,7 @@
         <v>{name:['논현하늘소점G'],addr:'인천광역시 남동구 논현로 17',x:'929976.1893208527',y:'1934125.684656498',jibun:'인천광역시 남동구 논현동 643-1 범마을휴먼시아2단지 상가'},</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -9779,7 +10108,7 @@
         <v>{name:['논현행복점G'],addr:'인천광역시 남동구 논현로 152',x:'931221.0594972067',y:'1934106.1328947735',jibun:'인천광역시 남동구 논현동 619-18'},</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -9800,7 +10129,7 @@
         <v>{name:['논현현대식자재마트'],addr:'인천광역시 남동구 포구로 69',x:'932397.976608831',y:'1934223.199099741',jibun:'인천광역시 남동구 논현동 109-40'},</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -9821,7 +10150,7 @@
         <v>{name:['논현호구포점G'],addr:'인천광역시 남동구 호구포로 209',x:'929995.2392286886',y:'1933932.6975875972',jibun:'인천광역시 남동구 논현동 647-6 호텔라르시티'},</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -9842,7 +10171,7 @@
         <v>{name:['도림벽산점G'],addr:'인천광역시 남동구 도림로 5-1',x:'931800.7220110968',y:'1935999.2065084004',jibun:'인천광역시 남동구 도림동 655-5'},</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -9863,7 +10192,7 @@
         <v>{name:['도림아이파크점G'],addr:'인천광역시 남동구 도리미로 8',x:'931913.8111496232',y:'1936148.2539673',jibun:'인천광역시 남동구 도림동 651-1 현대아이파크아파트'},</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -9884,7 +10213,7 @@
         <v>{name:['도화 길목G'],addr:'인천광역시 미추홀구 한나루로586번길 46',x:'926983.470680593',y:'1940180.8585922741',jibun:'인천광역시 미추홀구 도화동 456-5'},</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -9905,7 +10234,7 @@
         <v>{name:['도화진주점G'],addr:'인천광역시 미추홀구 석정로323번길 43',x:'926556.1723330859',y:'1941432.2902734857',jibun:'인천광역시 미추홀구 도화동 107-1'},</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -9926,7 +10255,7 @@
         <v>{name:['도화팰리스점G'],addr:'인천광역시 미추홀구 경인로 301',x:'926987.0691978035',y:'1940461.0685464954',jibun:'인천광역시 미추홀구 도화동 389-13 주영팰리스'},</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -9947,7 +10276,7 @@
         <v>{name:['동춘서해점G'],addr:'인천광역시 연수구 봉재산로 20',x:'926197.1109902868',y:'1934885.043063439',jibun:'인천광역시 연수구 동춘동 0 연수 서해그랑블 1단지'},</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -9968,7 +10297,7 @@
         <v>{name:['동춘풍림점G'],addr:'인천광역시 연수구 경원대로119번길 21',x:'926969.1834998771',y:'1933933.1206172006',jibun:'인천광역시 연수구 동춘동 929 연수2차풍림아파트'},</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -9989,7 +10318,7 @@
         <v>{name:['마스터뷰21호점G'],addr:'인천광역시 연수구 컨벤시아대로274번길 55',x:'922947.2055729781',y:'1932085.0274891593',jibun:'인천광역시 연수구 송도동 110 송도 더샵 마스터뷰 21BL'},</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>749</v>
       </c>
@@ -10010,7 +10339,7 @@
         <v>{name:['만도로브제'],addr:'인천광역시 연수구 첨단대로60번길 75',x:'924604.9640742338',y:'1929694.2852085028',jibun:'인천광역시 연수구 송도동 217-1 만도브로제공장'},</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>727</v>
       </c>
@@ -10031,7 +10360,7 @@
         <v>{name:['만도헬라일렉트로닉스(주)-WOORI'],addr:'인천광역시 연수구 하모니로 224',x:'923721.6646240482',y:'1931399.019956504',jibun:'인천광역시 연수구 송도동 10-42 MHE송도공장'},</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -10052,7 +10381,7 @@
         <v>{name:['만수숭의점G'],addr:'인천광역시 남동구 구월말로58번길 1',x:'931460.6338070568',y:'1939723.2555402233',jibun:'인천광역시 남동구 만수동 913-4'},</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -10076,7 +10405,7 @@
         <v>{name:['메리빌리아-송도','송도트리플점G'],addr:'인천광역시 연수구 송도과학로16번길 33-1',x:'925586.3783327616',y:'1931664.7480640588',jibun:'인천광역시 연수구 송도동 170-1 송도 트리플스트리트'},</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -10097,7 +10426,7 @@
         <v>{name:['무지개할인마트'],addr:'인천광역시 연수구 새말로36번길 11',x:'926976.9262094533',y:'1936160.6680197665',jibun:'인천광역시 연수구 연수동 559'},</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -10118,7 +10447,7 @@
         <v>{name:['미니24-인천'],addr:'인천광역시 미추홀구 경인로 437',x:'928246.1295577467',y:'1940192.399497855',jibun:'인천광역시 미추홀구 주안동 1005-10'},</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>725</v>
       </c>
@@ -10139,7 +10468,7 @@
         <v>{name:['미추홀타워점G'],addr:'인천광역시 연수구 갯벌로 12',x:'925064.2345959987',y:'1931830.2383670015',jibun:'인천광역시 연수구 송도동 7-50 미추홀타워 별관A동'},</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -10160,7 +10489,7 @@
         <v>{name:['보금마트-연수'],addr:'인천광역시 연수구 함박로25번길 2',x:'927463.1199536233',y:'1936627.06679082',jibun:'인천광역시 연수구 연수동 496-11'},</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -10181,7 +10510,7 @@
         <v>{name:['서구검단고점G'],addr:'인천광역시 서구 검단로 532',x:'926110.4926230235',y:'1956373.3558248538',jibun:'인천광역시 서구 마전동 988-7 신한빌딩'},</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -10202,7 +10531,7 @@
         <v>{name:['서구엠파크점G'],addr:'인천광역시 서구 염곡로 52',x:'926244.9221541481',y:'1943755.5184864542',jibun:'인천광역시 서구 가좌동 150-19 엠파크 허브'},</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -10223,7 +10552,7 @@
         <v>{name:['서구연희점G'],addr:'인천광역시 서구 간촌로 9',x:'927388.9430976734',y:'1950308.0950684836',jibun:'인천광역시 서구 연희동 708-6'},</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -10244,7 +10573,7 @@
         <v>{name:['선학역점M'],addr:'인천광역시 연수구 학나래로118번길 23',x:'929081.3471575531',y:'1936767.7973411446',jibun:'인천광역시 연수구 선학동 406 진승빌딩'},</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -10265,7 +10594,7 @@
         <v>{name:['선학중앙G'],addr:'인천광역시 연수구 학나래로6번길 32',x:'929030.9872679301',y:'1936439.7252242365',jibun:'인천광역시 연수구 선학동 407-10'},</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -10286,7 +10615,7 @@
         <v>{name:['세븐일레븐-인천간석역점'],addr:'인천광역시 남동구 석산로 3',x:'928759.3617110967',y:'1940883.321277853',jibun:'인천광역시 남동구 간석동 394-3 의성프라자'},</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -10307,7 +10636,7 @@
         <v>{name:['셀트리온 제2공장 3층WOORI'],addr:'인천광역시 연수구 아카데미로51번길 20',x:'923862.253035788',y:'1930721.5154832513',jibun:'인천광역시 연수구 송도동 13-1 셀트리온'},</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -10328,7 +10657,7 @@
         <v>{name:['소래베스트점G'],addr:'인천광역시 남동구 소래역로 20',x:'932409.8016257668',y:'1933619.6491731368',jibun:'인천광역시 남동구 논현동 679-3'},</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -10349,7 +10678,7 @@
         <v>{name:['소래시티점G'],addr:'인천광역시 남동구 포구로 35',x:'932559.6363396579',y:'1933938.546323114',jibun:'인천광역시 남동구 논현동 66-24 유호엔시티1단지'},</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -10370,7 +10699,7 @@
         <v>{name:['소래중앙점G'],addr:'인천광역시 남동구 소래역로18번길 15',x:'932472.0993263312',y:'1933643.4917039908',jibun:'인천광역시 남동구 논현동 678-5 중앙주차타워'},</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -10391,7 +10720,7 @@
         <v>{name:['소래포구점G'],addr:'인천광역시 남동구 장도로 85',x:'932594.8315246161',y:'1933497.9901714372',jibun:'인천광역시 남동구 논현동 111-79'},</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -10412,7 +10741,7 @@
         <v>{name:['소래풍림점G'],addr:'인천광역시 남동구 포구로 64-29',x:'932494.2900207366',y:'1934308.7269807002',jibun:'인천광역시 남동구 논현동 66-39'},</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>350</v>
       </c>
@@ -10433,7 +10762,7 @@
         <v>{name:['송도 라이크홈기숙사-KEB하나'],addr:'인천광역시 연수구 첨단대로 80',x:'925077.5744217939',y:'1930163.4990456211',jibun:'인천광역시 연수구 송도동 207-3 레지던스 라이크홈'},</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>728</v>
       </c>
@@ -10457,7 +10786,7 @@
         <v>{name:['송도 에듀포레푸르지오','에듀포레점G'],addr:'인천광역시 연수구 송도문화로84번길 24',x:'925676.0507520717',y:'1930863.955523713',jibun:'인천광역시 연수구 송도동 191-4 송도 에듀포레 푸르지오'},</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -10478,7 +10807,7 @@
         <v>{name:['송도그림워크점GSS'],addr:'인천광역시 연수구 아트센터대로97번길 15',x:'923949.5984413391',y:'1933886.2199624083',jibun:'인천광역시 연수구 송도동 17-3 더샵 그린워크2차'},</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -10499,7 +10828,7 @@
         <v>{name:['송도더샵엑스포KB'],addr:'인천광역시 연수구 컨벤시아대로42번길 95',x:'924238.7160272836',y:'1934178.4920383645',jibun:'인천광역시 연수구 송도동 16-4 더샵 엑스포'},</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -10520,7 +10849,7 @@
         <v>{name:['송도더샵점G'],addr:'인천광역시 연수구 아트센터대로97번길 75',x:'924389.3127429485',y:'1933490.9978888235',jibun:'인천광역시 연수구 송도동 17-5 송도 더샵 하버뷰 13단지'},</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -10541,7 +10870,7 @@
         <v>{name:['송도라마다점G'],addr:'인천광역시 연수구 능허대로267번길 29',x:'925239.3006682626',y:'1935277.2973558633',jibun:'인천광역시 연수구 동춘동 812-1 라마다송도호텔'},</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -10562,7 +10891,7 @@
         <v>{name:['송도메디점G'],addr:'인천광역시 연수구 컨벤시아대로130번길 14',x:'924308.0890260204',y:'1932993.4899920663',jibun:'인천광역시 연수구 송도동 22-19 송도 메디컬타워'},</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>171</v>
       </c>
@@ -10583,7 +10912,7 @@
         <v>{name:['송도성지점G'],addr:'인천광역시 연수구 신송로6번길 7',x:'925894.2303461249',y:'1932625.2375938715',jibun:'인천광역시 연수구 송도동 2-12 송도 성지리벨루스'},</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>162</v>
       </c>
@@ -10607,7 +10936,7 @@
         <v>{name:['송도센트럴점M','송도푸르지오시티점G'],addr:'인천광역시 연수구 아트센터대로 203',x:'923106.4381077425',y:'1933254.1090356754',jibun:'인천광역시 연수구 송도동 83 송도 센트럴파크 푸르지오시티'},</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -10628,7 +10957,7 @@
         <v>{name:['송도센트럴파크호텔'],addr:'인천광역시 연수구 테크노파크로 193',x:'923641.9774963101',y:'1932732.2588121234',jibun:'인천광역시 연수구 송도동 38 송도센트럴파크호텔'},</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -10649,7 +10978,7 @@
         <v>{name:['송도스마트밸리점G'],addr:'인천광역시 연수구 송도미래로 30',x:'924568.090254779',y:'1930236.501307576',jibun:'인천광역시 연수구 송도동 214 송도 BRC 스마트밸리 지식산업센터'},</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -10670,7 +10999,7 @@
         <v>{name:['송도월드마크점M'],addr:'인천광역시 연수구 컨벤시아대로 60',x:'924851.1126633752',y:'1933442.4269422777',jibun:'인천광역시 연수구 송도동 20-23 푸르지오월드마크'},</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -10691,7 +11020,7 @@
         <v>{name:['송도유원지점G'],addr:'인천광역시 연수구 능허대로 203',x:'924862.0970530566',y:'1935734.32011165',jibun:'인천광역시 연수구 옥련동 550-7'},</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -10712,7 +11041,7 @@
         <v>{name:['송도점-GSS'],addr:'인천광역시 연수구 해돋이로 107',x:'924778.2391112824',y:'1932822.1059526857',jibun:'인천광역시 연수구 송도동 4-1 송도 더샵 퍼스트월드'},</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -10733,7 +11062,7 @@
         <v>{name:['송도커넬워크점G'],addr:'인천광역시 연수구 아트센터대로 107',x:'923751.8781831791',y:'1933894.0553808152',jibun:'인천광역시 연수구 송도동 18-1 커낼워크D3 AUTUMN'},</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -10754,7 +11083,7 @@
         <v>{name:['송도테크노파크IT센터SHINHAN'],addr:'인천광역시 연수구 송도과학로 32',x:'925841.3207283262',y:'1931743.5380926528',jibun:'인천광역시 연수구 송도동 172-1 송도테크노파크IT센터'},</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>159</v>
       </c>
@@ -10775,7 +11104,7 @@
         <v>{name:['송도파크호텔WOORI'],addr:'인천광역시 연수구 테크노파크로 151',x:'923940.5490371233',y:'1932461.3960087532',jibun:'인천광역시 연수구 송도동 93-1 오라카이송도파크호텔'},</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -10796,7 +11125,7 @@
         <v>{name:['송도하모니점G'],addr:'인천광역시 연수구 하모니로 124',x:'924325.4107504063',y:'1932184.2251096321',jibun:'인천광역시 연수구 송도동 8-19'},</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -10817,7 +11146,7 @@
         <v>{name:['송도해송점G'],addr:'인천광역시 연수구 해송로30번길 19',x:'924385.1257843729',y:'1931691.8597509419',jibun:'인천광역시 연수구 송도동 9-6 웰카운티송도3단지'},</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -10838,7 +11167,7 @@
         <v>{name:['송도현대점G'],addr:'인천광역시 연수구 해돋이로6번길 7',x:'925627.0584128611',y:'1932281.0568902749',jibun:'인천광역시 연수구 송도동 3-46 아이파크송도'},</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -10859,7 +11188,7 @@
         <v>{name:['송도힐스점G'],addr:'인천광역시 연수구 컨벤시아대로 90',x:'924647.7513800692',y:'1933202.8066080627',jibun:'인천광역시 연수구 송도동 21-64 인천송도힐스테이트'},</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -10880,7 +11209,7 @@
         <v>{name:['숭의길목점G'],addr:'인천광역시 미추홀구 수봉안길 16',x:'925635.7302395517',y:'1940618.206504576',jibun:'인천광역시 미추홀구 숭의동 7-129'},</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -10901,7 +11230,7 @@
         <v>{name:['시흥신창점G'],addr:'경기도 시흥시 신천4길 12',x:'936418.8711248166',y:'1937926.4969950966',jibun:'경기도 시흥시 신천동 380-14'},</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -10922,7 +11251,7 @@
         <v>{name:['신기사거리점G'],addr:'인천광역시 미추홀구 미추홀대로 610',x:'927475.7843919608',y:'1939483.3085580925',jibun:'인천광역시 미추홀구 주안동 1469-1'},</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -10943,7 +11272,7 @@
         <v>{name:['신천동국민은행 결합부스'],addr:'경기도 시흥시 수인로 3372',x:'936693.2910999567',y:'1938235.12572021',jibun:'경기도 시흥시 신천동 712-9 신천프라자'},</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -10964,7 +11293,7 @@
         <v>{name:['아크리아점G'],addr:'인천광역시 연수구 신송로125번길 13',x:'924866.6899020134',y:'1933167.18251291',jibun:'인천광역시 연수구 송도동 3-6 아크리아'},</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -10985,7 +11314,7 @@
         <v>{name:['엠파크타워점G'],addr:'인천광역시 서구 봉수대로 158',x:'925983.41854599',y:'1943696.0707750432',jibun:'인천광역시 서구 가좌동 178-105 엠파크타워'},</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -11006,7 +11335,7 @@
         <v>{name:['연수경원G'],addr:'인천광역시 연수구 경원대로467번길 13',x:'929009.7022006633',y:'1936610.8085542968',jibun:'인천광역시 연수구 선학동 405-13 명빌딩'},</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -11027,7 +11356,7 @@
         <v>{name:['연수골드점G'],addr:'인천광역시 연수구 함박로 80',x:'927980.0656931633',y:'1936544.17710579',jibun:'인천광역시 연수구 연수동 522-6'},</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -11048,7 +11377,7 @@
         <v>{name:['연수단비점G'],addr:'인천광역시 연수구 청능대로113번길 43',x:'927274.7641431501',y:'1935327.7588821636',jibun:'인천광역시 연수구 연수동 598-2 동순빌딩'},</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -11069,7 +11398,7 @@
         <v>{name:['연수선학점G'],addr:'인천광역시 연수구 넘말로29번길 21',x:'928915.90151959',y:'1936891.1488486365',jibun:'인천광역시 연수구 선학동 398-2'},</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -11090,7 +11419,7 @@
         <v>{name:['연수장례식장 인천내부'],addr:'인천광역시 연수구 벚꽃로 122',x:'927335.7894045769',y:'1935611.3385808035',jibun:'인천광역시 연수구 연수동 592-5 연수동장례식장'},</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -11111,7 +11440,7 @@
         <v>{name:['연수점G'],addr:'인천광역시 연수구 새말로46번길 4',x:'927054.4397459901',y:'1936127.9562478536',jibun:'인천광역시 연수구 연수동 558-5'},</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -11132,7 +11461,7 @@
         <v>{name:['연수점M'],addr:'인천광역시 연수구 비류대로 230',x:'925700.9976564867',y:'1936753.3900593636',jibun:'인천광역시 연수구 옥련동 319-6 영남아파트상가'},</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>164</v>
       </c>
@@ -11153,7 +11482,7 @@
         <v>{name:['연수중앙점G'],addr:'인천광역시 연수구 새말로69번길 1',x:'927230.4884649334',y:'1935967.4642858398',jibun:'인천광역시 연수구 연수동 550-8'},</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>49</v>
       </c>
@@ -11174,7 +11503,7 @@
         <v>{name:['연수청학점M'],addr:'인천광역시 연수구 먼우금로 197',x:'927097.7779245968',y:'1935413.5243354505',jibun:'인천광역시 연수구 청학동 503-1 이리옴프라자'},</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>138</v>
       </c>
@@ -11195,7 +11524,7 @@
         <v>{name:['연수타운점G'],addr:'인천광역시 연수구 샘말로21번길 3',x:'927277.5510110233',y:'1935141.1890938403',jibun:'인천광역시 연수구 연수동 602-3'},</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -11216,7 +11545,7 @@
         <v>{name:['연수태산점G'],addr:'인천광역시 연수구 먼우금로264번길 8-4',x:'927477.3679526933',y:'1935944.299351547',jibun:'인천광역시 연수구 연수동 575-1'},</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -11237,7 +11566,7 @@
         <v>{name:['연수파크타운점M'],addr:'인천광역시 연수구 용담로 115',x:'927244.231129833',y:'1935426.1714365287',jibun:'인천광역시 연수구 연수동 596-7 파크타워'},</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -11258,7 +11587,7 @@
         <v>{name:['연수함박점M'],addr:'인천광역시 연수구 함박뫼로50번길 93',x:'927263.5188448408',y:'1935872.3548643487',jibun:'인천광역시 연수구 연수동 568-15'},</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>170</v>
       </c>
@@ -11279,7 +11608,7 @@
         <v>{name:['연수희망점G'],addr:'인천광역시 연수구 앵고개로 256',x:'926724.2878851034',y:'1934622.8657452334',jibun:'인천광역시 연수구 동춘동 936-5 웅지프라자'},</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>61</v>
       </c>
@@ -11300,7 +11629,7 @@
         <v>{name:['영빌딩CITY'],addr:'인천광역시 미추홀구 인하로 253',x:'927138.1700531407',y:'1939133.3534303224',jibun:'인천광역시 미추홀구 주안동 1436-5 한국씨티은행'},</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -11321,7 +11650,7 @@
         <v>{name:['옥련백산점G'],addr:'인천광역시 연수구 독배로 25',x:'924316.71718126',y:'1936330.9110739832',jibun:'인천광역시 연수구 옥련동 463-24'},</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -11342,7 +11671,7 @@
         <v>{name:['옥련사거리G'],addr:'인천광역시 연수구 독배로 68',x:'924367.6668144872',y:'1936729.1735826507',jibun:'인천광역시 연수구 옥련동 199-3'},</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>181</v>
       </c>
@@ -11363,7 +11692,7 @@
         <v>{name:['옥련사랑M'],addr:'인천광역시 연수구 한나루로 166',x:'925293.9163142969',y:'1936455.0597683867',jibun:'인천광역시 연수구 옥련동 352-30'},</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>134</v>
       </c>
@@ -11384,7 +11713,7 @@
         <v>{name:['옥련서해점G'],addr:'인천광역시 연수구 청량로185번길 13',x:'924973.1474770068',y:'1936336.0367916236',jibun:'인천광역시 연수구 옥련동 423-1'},</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>180</v>
       </c>
@@ -11405,7 +11734,7 @@
         <v>{name:['옥련쌍용G'],addr:'인천광역시 연수구 청량로184번길 48',x:'925182.9532054849',y:'1936549.0084032882',jibun:'인천광역시 연수구 옥련동 366-9'},</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>135</v>
       </c>
@@ -11426,7 +11755,7 @@
         <v>{name:['옥련아주점G'],addr:'인천광역시 연수구 청량로 217',x:'925018.4765206832',y:'1936665.1654121173',jibun:'인천광역시 연수구 옥련동 253-1'},</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -11447,7 +11776,7 @@
         <v>{name:['옥련우성점G'],addr:'인천광역시 연수구 독배로40번길 47',x:'924577.7008813033',y:'1936507.4463419202',jibun:'인천광역시 연수구 옥련동 462-20'},</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>132</v>
       </c>
@@ -11468,7 +11797,7 @@
         <v>{name:['옥련풍림점G'],addr:'인천광역시 연수구 한나루로193번길 3',x:'925362.11812462',y:'1936699.7315103933',jibun:'인천광역시 연수구 옥련동 336-5'},</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -11489,7 +11818,7 @@
         <v>{name:['월미분수대점G'],addr:'인천광역시 중구 월미문화로 57',x:'920135.501782795',y:'1941955.847831308',jibun:'인천광역시 중구 북성동1가 98-275'},</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -11510,7 +11839,7 @@
         <v>{name:['월미중앙점G'],addr:'인천광역시 중구 월미문화로 65',x:'920108.2432266385',y:'1941888.865706168',jibun:'인천광역시 중구 북성동1가 98-61'},</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>76</v>
       </c>
@@ -11531,7 +11860,7 @@
         <v>{name:['위드미-라마다송도점'],addr:'인천광역시 연수구 능허대로267번길 42',x:'925310.3928309134',y:'1935295.212755117',jibun:'인천광역시 연수구 동춘동 813'},</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -11552,7 +11881,7 @@
         <v>{name:['유진로봇 송도사옥'],addr:'인천광역시 연수구 하모니로187번길 33',x:'924180.5928355344',y:'1931340.6668476937',jibun:'인천광역시 연수구 송도동 11-5 (주)유진로봇'},</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>154</v>
       </c>
@@ -11573,7 +11902,7 @@
         <v>{name:['은계센트럴점G'],addr:'경기도 시흥시 은계중앙로 97',x:'938203.4013041602',y:'1938022.7406927734',jibun:'경기도 시흥시 은행동 38-7 은계센트럴타운'},</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>156</v>
       </c>
@@ -11594,7 +11923,7 @@
         <v>{name:['은행동성원아파트 결합부스'],addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804',jibun:'경기도 시흥시 은행동 538-2 시흥성원아파트'},</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>157</v>
       </c>
@@ -11615,7 +11944,7 @@
         <v>{name:['은행동약사 결합부스'],addr:'경기도 시흥시 은행로 8',x:'937498.2971942425',y:'1937334.1604390284',jibun:'경기도 시흥시 은행동 286-1 영진철물'},</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -11636,7 +11965,7 @@
         <v>{name:['은혜의교회SH'],addr:'인천광역시 미추홀구 매소홀로 428',x:'926520.0805420987',y:'1938134.7043078174',jibun:'인천광역시 미추홀구 학익동 682-3 은혜교회'},</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -11657,7 +11986,7 @@
         <v>{name:['이마트 동인천점SC'],addr:'인천광역시 중구 인중로 134',x:'922988.2656142102',y:'1941172.2637899336',jibun:'인천광역시 중구 신생동 38 동인천이마트'},</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -11678,7 +12007,7 @@
         <v>{name:['이마트24 연수함박로'],addr:'인천광역시 연수구 함박로 36',x:'927543.317565355',y:'1936592.6575228586',jibun:'인천광역시 연수구 연수동 495-5'},</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -11699,7 +12028,7 @@
         <v>{name:['이수엑사보드 인천공장'],addr:'인천광역시 남동구 남동서로270번길 54',x:'929093.4386579194',y:'1935045.5201349352',jibun:'인천광역시 남동구 논현동 429-3'},</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>990</v>
       </c>
@@ -11720,7 +12049,7 @@
         <v>{name:['송도 컨벤시아'],addr:'인천광역시 연수구 센트럴로 123',x:'924456.9867797431',y:'1932661.4434322082',jibun:'인천광역시 연수구 송도동 6-1 송도컨벤시아'},</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -11741,7 +12070,7 @@
         <v>{name:['인천5공단파출소결합부스'],addr:'인천광역시 서구 가재울로 75',x:'927648.8596204547',y:'1942435.9377577854',jibun:'인천광역시 서구 가좌동 540-3'},</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -11762,7 +12091,7 @@
         <v>{name:['인천경동점G'],addr:'인천광역시 중구 개항로 82',x:'923229.7654404601',y:'1941739.1997609003',jibun:'인천광역시 중구 경동 187-3 예지요양병원'},</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>89</v>
       </c>
@@ -11786,7 +12115,7 @@
         <v>{name:['인천글로벌운영재단','한국뉴욕주립대학교 결합부스'],addr:'인천광역시 연수구 송도문화로 119',x:'926175.2482764572',y:'1930840.0637925412',jibun:'인천광역시 연수구 송도동 187 인천글로벌캠퍼스'},</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>82</v>
       </c>
@@ -11807,7 +12136,7 @@
         <v>{name:['인천남촌로점G'],addr:'인천광역시 남동구 남촌동로3번길 33',x:'930644.9199876767',y:'1937177.0833667233',jibun:'인천광역시 남동구 남촌동 332-9 시온교회'},</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>57</v>
       </c>
@@ -11828,7 +12157,7 @@
         <v>{name:['인천논현광장점G'],addr:'인천광역시 남동구 논고개로123번길 35',x:'931147.5988134101',y:'1933884.31215839',jibun:'인천광역시 남동구 논현동 632-1 칼리오페'},</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -11849,7 +12178,7 @@
         <v>{name:['인천논현사랑점G'],addr:'인천광역시 남동구 논고개로 166',x:'931299.0037734902',y:'1934371.8316615',jibun:'인천광역시 남동구 논현동 593-6'},</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -11870,7 +12199,7 @@
         <v>{name:['인천논현역점G'],addr:'인천광역시 남동구 논고개로 121',x:'931299.4091969267',y:'1933928.8000814402',jibun:'인천광역시 남동구 논현동 631-11 에스닷몰'},</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -11891,7 +12220,7 @@
         <v>{name:['인천논현점M'],addr:'인천광역시 남동구 논현로46번길 51',x:'930040.7558424668',y:'1933792.9459385104',jibun:'인천광역시 남동구 논현동 642-1 유승테라폴리스'},</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>93</v>
       </c>
@@ -11912,7 +12241,7 @@
         <v>{name:['인천동아서점 결합부스'],addr:'인천광역시 미추홀구 경인로 386-1',x:'927733.8360022209',y:'1940187.0715722647',jibun:'인천광역시 미추홀구 주안동 431-32'},</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>160</v>
       </c>
@@ -11933,7 +12262,7 @@
         <v>{name:['인천메카점M'],addr:'인천광역시 연수구 용담로125번길 41',x:'927422.4468487434',y:'1935499.65872847',jibun:'인천광역시 연수구 연수동 593-8 메카리움오피스텔'},</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>151</v>
       </c>
@@ -11954,7 +12283,7 @@
         <v>{name:['인천벽산아파트 결합부스'],addr:'인천광역시 남동구 서판로 43',x:'931434.1630260036',y:'1940841.3205330772',jibun:'인천광역시 남동구 만수동 1114 기암유치원'},</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -11975,7 +12304,7 @@
         <v>{name:['인천선학점G'],addr:'인천광역시 연수구 비류대로529번길 10',x:'928643.5051002635',y:'1936354.497053353',jibun:'인천광역시 연수구 선학동 369-15'},</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>94</v>
       </c>
@@ -11996,7 +12325,7 @@
         <v>{name:['인천송도점G'],addr:'인천광역시 연수구 해돋이로84번길 29',x:'925166.2389731444',y:'1932929.6578389006',jibun:'인천광역시 연수구 송도동 3-13 송도풍림아이원3단지아파트'},</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -12017,7 +12346,7 @@
         <v>{name:['인천신현쇼핑 결합부스'],addr:'인천광역시 서구 가정로 369',x:'926879.0843732902',y:'1946840.1810874036',jibun:'인천광역시 서구 신현동 272-1 서경 플러스 존'},</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>100</v>
       </c>
@@ -12038,7 +12367,7 @@
         <v>{name:['인천옥련점M'],addr:'인천광역시 연수구 한나루로197번길 30',x:'925282.19116041',y:'1936827.8251766833',jibun:'인천광역시 연수구 옥련동 285-1 원준주택'},</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -12059,7 +12388,7 @@
         <v>{name:['인천주안로점G'],addr:'인천광역시 미추홀구 주안로 152',x:'928081.6298600277',y:'1940786.0079571293',jibun:'인천광역시 미추홀구 주안동 50-3'},</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -12080,7 +12409,7 @@
         <v>{name:['인천터미널점M'],addr:'인천광역시 남동구 인하로 497-28',x:'929468.6800886367',y:'1938695.6430360102',jibun:'인천광역시 남동구 구월동 1462-2 노빌리안 1'},</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>352</v>
       </c>
@@ -12101,7 +12430,7 @@
         <v>{name:['인천해양경찰서-SH'],addr:'인천광역시 연수구 옥골로 69',x:'924748.3864360615',y:'1937246.7582861618',jibun:'인천광역시 연수구 옥련동 93 능허대중학교'},</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -12122,7 +12451,7 @@
         <v>{name:['인천호구포역점M'],addr:'인천광역시 남동구 논현로26번길 12',x:'929979.51652928',y:'1934015.4848348568',jibun:'인천광역시 남동구 논현동 646-1 부티크 646'},</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>63</v>
       </c>
@@ -12143,7 +12472,7 @@
         <v>{name:['자매슈퍼-연수'],addr:'인천광역시 연수구 함박로12번길 46',x:'927560.5282932345',y:'1936553.2454770715',jibun:'인천광역시 연수구 연수동 504'},</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -12164,7 +12493,7 @@
         <v>{name:['제물포버스정류장 결합부스'],addr:'인천광역시 미추홀구 경인로 135',x:'925542.174751237',y:'1941140.5618504882',jibun:'인천광역시 미추홀구 도화동 648-15 해피타운'},</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>69</v>
       </c>
@@ -12185,7 +12514,7 @@
         <v>{name:['제일슈퍼-인천'],addr:'인천광역시 연수구 함박안로156번길 6',x:'927773.0413744',y:'1936723.1742538',jibun:'인천광역시 연수구 연수동 516-8'},</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -12206,7 +12535,7 @@
         <v>{name:['주안 보보G'],addr:'인천광역시 미추홀구 경인로425번길 14',x:'928155.8178139064',y:'1940251.613382046',jibun:'인천광역시 미추홀구 주안동 1004-3'},</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>174</v>
       </c>
@@ -12227,7 +12556,7 @@
         <v>{name:['주안 신성G'],addr:'인천광역시 미추홀구 주안중로 28',x:'927733.3861476094',y:'1940496.9830620233',jibun:'인천광역시 미추홀구 주안동 86-5'},</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>116</v>
       </c>
@@ -12248,7 +12577,7 @@
         <v>{name:['주안1동점G'],addr:'인천광역시 미추홀구 주안중로50번길 20',x:'927832.11701282',y:'1940714.3422219716',jibun:'인천광역시 미추홀구 주안동 104-8'},</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -12269,7 +12598,7 @@
         <v>{name:['주안공단점G'],addr:'인천광역시 미추홀구 염전로 362',x:'927504.3446300412',y:'1941528.745698372',jibun:'인천광역시 미추홀구 주안동 16-1'},</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>98</v>
       </c>
@@ -12290,7 +12619,7 @@
         <v>{name:['주안남부점M'],addr:'인천광역시 미추홀구 주안로104번길 15',x:'927600.294782457',y:'1940748.241028722',jibun:'인천광역시 미추홀구 주안동 138-5'},</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>117</v>
       </c>
@@ -12311,7 +12640,7 @@
         <v>{name:['주안대로점G'],addr:'인천광역시 미추홀구 주안로 45',x:'927021.73843505',y:'1940904.6652424666',jibun:'인천광역시 미추홀구 주안동 478-50 희림상사㈜'},</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -12332,7 +12661,7 @@
         <v>{name:['주안동경점G'],addr:'인천광역시 미추홀구 주안서로 53',x:'927285.2900126814',y:'1940792.0053177588',jibun:'인천광역시 미추홀구 주안동 272-1'},</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>747</v>
       </c>
@@ -12356,7 +12685,7 @@
         <v>{name:['주안동궁전예식장 결합부스','주안으뜸점G'],addr:'인천광역시 미추홀구 주안로 112',x:'927668.7912672199',y:'1940808.841817243',jibun:'인천광역시 미추홀구 주안동 133-3 대동빌딩'},</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -12377,7 +12706,7 @@
         <v>{name:['주안미래점M'],addr:'인천광역시 미추홀구 주안중로 13-1',x:'927698.3542673178',y:'1940367.9314235584',jibun:'인천광역시 미추홀구 주안동 179-10'},</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -12398,7 +12727,7 @@
         <v>{name:['주안미소점G'],addr:'인천광역시 미추홀구 신기길30번길 37',x:'926981.776154774',y:'1938935.675808793',jibun:'인천광역시 미추홀구 주안동 856-3'},</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>36</v>
       </c>
@@ -12419,7 +12748,7 @@
         <v>{name:['주안미추홀점G'],addr:'인천광역시 미추홀구 경인로 343',x:'927260.9079237133',y:'1940267.6733396333',jibun:'인천광역시 미추홀구 주안동 195-2'},</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -12440,7 +12769,7 @@
         <v>{name:['주안본점M'],addr:'인천광역시 미추홀구 미추홀대로734번길 37',x:'927714.5775235672',y:'1940744.2295416128',jibun:'인천광역시 미추홀구 주안동 132-4'},</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>109</v>
       </c>
@@ -12461,7 +12790,7 @@
         <v>{name:['주안사거리점G'],addr:'인천광역시 미추홀구 석바위로 61',x:'927476.9399430258',y:'1940520.5633123717',jibun:'인천광역시 미추홀구 주안동 210-13'},</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>86</v>
       </c>
@@ -12482,7 +12811,7 @@
         <v>{name:['주안석바위점M'],addr:'인천광역시 미추홀구 석바위로 112',x:'927947.6847094274',y:'1940400.324138321',jibun:'인천광역시 미추홀구 주안동 271-22'},</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>166</v>
       </c>
@@ -12503,7 +12832,7 @@
         <v>{name:['주안세일점G'],addr:'인천광역시 미추홀구 동주길 76',x:'927911.4083549832',y:'1939815.436123129',jibun:'인천광역시 미추홀구 주안동 386-6'},</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -12524,7 +12853,7 @@
         <v>{name:['주안역삼거리 결합부스'],addr:'인천광역시 미추홀구 미추홀대로 741',x:'927492.7927790079',y:'1940802.0347208697',jibun:'인천광역시 미추홀구 주안동 227-35'},</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -12545,7 +12874,7 @@
         <v>{name:['주안월드점G'],addr:'인천광역시 미추홀구 경인로485번길 33',x:'928577.0918325363',y:'1940491.9788272986',jibun:'인천광역시 미추홀구 주안동 922-11'},</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>139</v>
       </c>
@@ -12566,7 +12895,7 @@
         <v>{name:['주안주공점G'],addr:'인천광역시 미추홀구 주안로 215',x:'928700.075495082',y:'1940788.8228662973',jibun:'인천광역시 미추홀구 주안동 49-11'},</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>148</v>
       </c>
@@ -12587,7 +12916,7 @@
         <v>{name:['주안파크점G'],addr:'인천광역시 미추홀구 미추홀대로722번길 21-1',x:'927631.6564081493',y:'1940615.9256797591',jibun:'인천광역시 미추홀구 주안동 153-9 장원빌딩'},</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -12608,7 +12937,7 @@
         <v>{name:['주안한신점G'],addr:'인천광역시 미추홀구 인하로352번길 10',x:'928112.3556398968',y:'1939019.7543626092',jibun:'인천광역시 미추홀구 주안동 1523-36'},</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>119</v>
       </c>
@@ -12629,7 +12958,7 @@
         <v>{name:['주안행복점M'],addr:'인천광역시 미추홀구 석바위로53번길 3',x:'927366.0847729146',y:'1940514.0627141502',jibun:'인천광역시 미추홀구 주안동 216-2'},</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>55</v>
       </c>
@@ -12650,7 +12979,7 @@
         <v>{name:['중부지방해양경찰청SH'],addr:'인천광역시 연수구 센트럴로 263',x:'923373.8316200967',y:'1933570.7668816056',jibun:'인천광역시 연수구 송도동 29-13 송도국제업무단지 C8-2블럭 업무복합시설'},</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>37</v>
       </c>
@@ -12671,7 +13000,7 @@
         <v>{name:['중앙슈퍼-연수'],addr:'인천광역시 연수구 함박뫼로4번길 13-8',x:'926743.3556705897',y:'1935757.611946192',jibun:'인천광역시 연수구 청학동 477-7'},</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -12692,7 +13021,7 @@
         <v>{name:['천일식품-고잔동'],addr:'인천광역시 남동구 앵고개로 426',x:'928102.1321792866',y:'1933636.4756072024',jibun:'인천광역시 남동구 고잔동 690-2'},</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -12713,7 +13042,7 @@
         <v>{name:['청능공원점G'],addr:'인천광역시 연수구 청능말로7번길 20',x:'926506.0746164669',y:'1935665.4340851936',jibun:'인천광역시 연수구 청학동 461-1'},</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>28</v>
       </c>
@@ -12734,7 +13063,7 @@
         <v>{name:['청라리치아노점M'],addr:'인천광역시 서구 청라에메랄드로102번길 10',x:'925562.0452141722',y:'1948624.1122872476',jibun:'인천광역시 서구 청라동 167-1 청라리치아노'},</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -12755,7 +13084,7 @@
         <v>{name:['청라에뜰점G'],addr:'인천광역시 서구 청라커낼로 300',x:'924457.963117328',y:'1948765.6387663502',jibun:'인천광역시 서구 청라동 156-1 청라센트럴에일린의뜰'},</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -12776,7 +13105,7 @@
         <v>{name:['청라호반점G'],addr:'인천광역시 서구 청라커낼로 163',x:'923949.8371560569',y:'1947760.2909392407',jibun:'인천광역시 서구 청라동 173-1 청라29블럭호반베르디움'},</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>354</v>
       </c>
@@ -12797,7 +13126,7 @@
         <v>{name:['청학복합문화센터-SHINHAN'],addr:'인천광역시 연수구 비류대로 299',x:'926357.2427523071',y:'1936675.620955735',jibun:'인천광역시 연수구 청학동 239-4 청학문화센터'},</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>74</v>
       </c>
@@ -12818,7 +13147,7 @@
         <v>{name:['청학본점G'],addr:'인천광역시 연수구 비류대로278번길 8-3',x:'926142.2991103267',y:'1936646.2066965867',jibun:'인천광역시 연수구 청학동 563-8'},</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -12839,7 +13168,7 @@
         <v>{name:['청학타운점G'],addr:'인천광역시 연수구 청학로12번길 47',x:'926231.6395880934',y:'1936834.2690070835',jibun:'인천광역시 연수구 청학동 535-15'},</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>90</v>
       </c>
@@ -12860,7 +13189,7 @@
         <v>{name:['청학현대점G'],addr:'인천광역시 연수구 계림로35번길 58',x:'926443.0193460134',y:'1936904.7241967367',jibun:'인천광역시 연수구 청학동 547-13'},</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>730</v>
       </c>
@@ -12881,7 +13210,7 @@
         <v>{name:['코스트코'],addr:'인천광역시 연수구 컨벤시아대로230번길 60',x:' 923278.7832623338',y:'1932636.7317621163',jibun:'인천광역시 연수구 송도동 98 코스트코홀세일 송도점'},</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>133</v>
       </c>
@@ -12902,7 +13231,7 @@
         <v>{name:['퍼스트파크13점'],addr:'인천광역시 연수구 컨벤시아대로252번길 70',x:'923074.6219626968',y:'1932451.7707887636',jibun:'인천광역시 연수구 송도동 100 송도 더샵 퍼스트파크 F13-1BL'},</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>47</v>
       </c>
@@ -12923,7 +13252,7 @@
         <v>{name:['포스코송도 R&amp;D센터KB'],addr:'인천광역시 연수구 송도과학로 100',x:'926384.4323779428',y:'1931453.2860596376',jibun:'인천광역시 연수구 송도동 180-1 포스코 글로벌 R&amp;D CENTER'},</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>53</v>
       </c>
@@ -12944,7 +13273,7 @@
         <v>{name:['포스코이앤씨타워점G'],addr:'인천광역시 연수구 인천타워대로 241',x:'923372.5008990793',y:'1932935.9711958324',jibun:'인천광역시 연수구 송도동 36 부영송도타워'},</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>123</v>
       </c>
@@ -12965,7 +13294,7 @@
         <v>{name:['하이-소래포구'],addr:'인천광역시 남동구 포구로 3',x:'932688.4409603968',y:'1933646.0883224965',jibun:'인천광역시 남동구 논현동 111-234'},</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -12986,7 +13315,7 @@
         <v>{name:['학익늘봄점G'],addr:'인천광역시 미추홀구 한나루로403번길 105',x:'925632.7361822787',y:'1938795.12119258',jibun:'인천광역시 미추홀구 학익동 420-16'},</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -13007,7 +13336,7 @@
         <v>{name:['학익다송G'],addr:'인천광역시 미추홀구 소성로 162',x:'926243.6841133314',y:'1938404.1977886255',jibun:'인천광역시 미추홀구 학익동 252-8 다송빌딩'},</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>83</v>
       </c>
@@ -13028,7 +13357,7 @@
         <v>{name:['학익대로점G'],addr:'인천광역시 미추홀구 소성로 244',x:'926977.6259435453',y:'1938038.3710919674',jibun:'인천광역시 미추홀구 학익동 671-4'},</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -13049,7 +13378,7 @@
         <v>{name:['학익미소G'],addr:'인천광역시 미추홀구 주승로 22',x:'926826.3832888785',y:'1938596.312287895',jibun:'인천광역시 미추홀구 학익동 649 정진프라자'},</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -13070,7 +13399,7 @@
         <v>{name:['학익사거리점M'],addr:'인천광역시 미추홀구 매소홀로446번길 16',x:'926687.5525610019',y:'1938078.4112452823',jibun:'인천광역시 미추홀구 학익동 675-3'},</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>84</v>
       </c>
@@ -13091,7 +13420,7 @@
         <v>{name:['학익센터점G'],addr:'인천광역시 미추홀구 매소홀로446번길 4',x:'926688.1271994561',y:'1938129.2821605182',jibun:'인천광역시 미추홀구 학익동 677-2'},</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>40</v>
       </c>
@@ -13112,7 +13441,7 @@
         <v>{name:['학익점GSS'],addr:'인천광역시 미추홀구 소성로 146',x:'926064.1264832243',y:'1938437.8886083513',jibun:'인천광역시 미추홀구 학익동 256-19 LG수퍼마켓 학익점'},</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>118</v>
       </c>
@@ -13133,7 +13462,7 @@
         <v>{name:['학익중앙점G'],addr:'인천광역시 미추홀구 소성로185번길 16-5',x:'926531.8325332045',y:'1938402.6683132658',jibun:'인천광역시 미추홀구 학익동 244-1'},</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -13154,7 +13483,7 @@
         <v>{name:['학익타운점G'],addr:'인천광역시 미추홀구 한나루로 350',x:'925893.6336379224',y:'1938132.127089256',jibun:'인천광역시 미추홀구 학익동 691-8'},</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -13175,7 +13504,7 @@
         <v>{name:['한옥마을앰배서더-SHINHAN'],addr:'인천광역시 연수구 테크노파크로 200',x:'923643.9542986592',y:'1932798.2731926683',jibun:'인천광역시 연수구 송도동 24-11 경원재 앰배서더 인천'},</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>752</v>
       </c>
@@ -13196,7 +13525,7 @@
         <v>{name:['한화에코11단지'],addr:'인천광역시 남동구 논고개로 17',x:'931971.8826013578',y:'1933157.4842754863',jibun:'인천광역시 남동구 논현동 774-1 한화꿈에그린 에코메트로11단지'},</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>754</v>
       </c>
@@ -13217,7 +13546,7 @@
         <v>{name:['한화에코12단지'],addr:'인천광역시 남동구 논고개로 10',x:'932065.1035968331',y:'1933133.3493248513',jibun:'인천광역시 남동구 논현동 755-4 에코메트로12단지한화꿈에그린아파트'},</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>33</v>
       </c>
@@ -13238,7 +13567,7 @@
         <v>{name:['한화프라자점G'],addr:'인천광역시 남동구 소래역남로 12',x:'932305.6277828533',y:'1933461.700828867',jibun:'인천광역시 남동구 논현동 754-1 거목프라자'},</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>129</v>
       </c>
@@ -13259,7 +13588,7 @@
         <v>{name:['해양경비안전본부SHINHAN'],addr:'인천광역시 연수구 해돋이로 130',x:'924618.4617833635',y:'1932985.3575826176',jibun:'인천광역시 연수구 송도동 3-8 해양경찰청'},</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>732</v>
       </c>
@@ -13280,7 +13609,7 @@
         <v>{name:['현대 프리미엄 아울렛 송도'],addr:'인천광역시 연수구 송도국제대로 123',x:'925450.1762407259',y:'1931726.6847481355',jibun:'인천광역시 연수구 송도동 168-1 현대프리미엄 아울렛 송도점'},</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>70</v>
       </c>
@@ -13301,7 +13630,7 @@
         <v>{name:['CU연수타운점'],addr:'인천광역시 연수구 함박로25번길 22-20',x:'927557.6570542501',y:'1936706.64224092',jibun:'인천광역시 연수구 연수동 498-6'},</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>955</v>
       </c>
@@ -13322,7 +13651,7 @@
         <v>{name:['송도365'],addr:'인천광역시 연수구 신송로 122',x:'924979.0126602231',y:'1933304.6588912918',jibun:'인천광역시 연수구 송도동 2-6 송도프라자'},</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>954</v>
       </c>
@@ -13343,7 +13672,7 @@
         <v>{name:['옥련365'],addr:'인천광역시 연수구 독배로40번길 11',x:'924405.9113474332',y:'1936495.7661320935',jibun:'인천광역시 연수구 옥련동 462-9 효명프라자'},</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>956</v>
       </c>
@@ -13364,7 +13693,7 @@
         <v>{name:['이마트 연수점'],addr:'인천광역시 연수구 경원대로 184',x:'927526.0918634394',y:'1934214.7747739688',jibun:'인천광역시 연수구 동춘동 926-9 이마트'},</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>957</v>
       </c>
@@ -13385,7 +13714,7 @@
         <v>{name:['가천의대'],addr:'인천광역시 연수구 함박뫼로 191',x:'928150.6333777537',y:'1936215.7186591197',jibun:'인천광역시 연수구 연수동 534-2 가천대학교'},</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>989</v>
       </c>
@@ -13406,7 +13735,7 @@
         <v>{name:['인천가톨릭대학'],addr:'인천광역시 연수구 해송로 12',x:'924277.2476386407',y:'1931904.949320057',jibun:'인천광역시 연수구 송도동 9-3 인천가톨릭대학교'},</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>958</v>
       </c>
@@ -13427,7 +13756,7 @@
         <v>{name:['인천운전면허시험장'],addr:'인천광역시 남동구 아암대로 1247',x:'929796.4585835717',y:'1931960.6694761738',jibun:'인천광역시 남동구 고잔동 510-2'},</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>962</v>
       </c>
@@ -13448,7 +13777,7 @@
         <v>{name:['LH논현사옥'],addr:'인천광역시 남동구 논현로46번길 7',x:'930246.6015386996',y:'1933930.1850851905',jibun:'인천광역시 남동구 논현동 638-1'},</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>991</v>
       </c>
@@ -13469,7 +13798,7 @@
         <v>{name:['연수점GSS'],addr:'인천광역시 연수구 원인재로 88',x:'927184.2034296514',y:'1934516.2629514583',jibun:'인천광역시 연수구 동춘동 925-7 대우삼환아파트'},</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>996</v>
       </c>
@@ -13490,7 +13819,7 @@
         <v>{name:['논현향촌점G'],addr:'인천광역시 남동구 앵고개로847번길 51',x:'931416.1976096316',y:'1933498.9531416',jibun:'인천광역시 남동구 논현동 740-2 소래휴먼시아3단지 상가에이동'},</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1002</v>
       </c>
@@ -13511,7 +13840,7 @@
         <v>{name:['주안경원점G'],addr:'인천광역시 미추홀구 주안동로 34',x:'928019.33716304',y:'1940530.2795259403',jibun:'인천광역시 미추홀구 주안동 57-12'},</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1004</v>
       </c>
@@ -13532,7 +13861,7 @@
         <v>{name:['연수유천점G'],addr:'인천광역시 연수구 먼우금로 302',x:'927692.7867924417',y:'1936292.8503102353',jibun:'인천광역시 연수구 연수동 534 연수유천아파트'},</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1012</v>
       </c>
@@ -13553,7 +13882,7 @@
         <v>{name:['석바위점G'],addr:'인천광역시 미추홀구 석바위로 143',x:'928264.6171794888',y:'1940390.7456267346',jibun:'인천광역시 미추홀구 주안동 989-4 동양빌딩'},</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1021</v>
       </c>
@@ -13574,7 +13903,7 @@
         <v>{name:['송도큐브점G'],addr:'인천광역시 연수구 송도과학로16번길 13-18',x:'925705.9937962485',y:'1931656.908183341',jibun:'인천광역시 연수구 송도동 174-1 송도건원테크노큐브'},</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1026</v>
       </c>
@@ -13595,7 +13924,7 @@
         <v>{name:['청학수인점G'],addr:'인천광역시 연수구 청학로6번길 94',x:'926415.3123945633',y:'1936682.681330747',jibun:'인천광역시 연수구 청학동 527-24'},</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1031</v>
       </c>
@@ -13616,7 +13945,7 @@
         <v>{name:['새천년장례식장'],addr:'인천광역시 계양구 아나지로 541',x:'933976.1191295199',y:'1947644.6814924027',jibun:'인천광역시 계양구 서운동 138-5 새천년장례식장'},</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1033</v>
       </c>
@@ -13637,7 +13966,7 @@
         <v>{name:['부평일번가점G'],addr:'인천광역시 부평구 경원대로 1395',x:'931442.7457843034',y:'1943905.1716368534',jibun:'인천광역시 부평구 부평동 159-15 부평일번가'},</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1035</v>
       </c>
@@ -13658,7 +13987,7 @@
         <v>{name:['중동타운점G'],addr:'경기도 부천시 석천로 174',x:'934864.5284565468',y:'1945089.772593747',jibun:'경기도 부천시 중동 1159-8 하성빌딩'},</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1037</v>
       </c>
@@ -13679,7 +14008,7 @@
         <v>{name:['부평신촌점G'],addr:'인천광역시 부평구 경원대로1256번길 10',x:'930139.6624342366',y:'1943538.069996247',jibun:'인천광역시 부평구 부평동 277-21'},</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1039</v>
       </c>
@@ -13700,7 +14029,7 @@
         <v>{name:['글로리병원'],addr:'인천광역시 부평구 길주로 655',x:'932421.86098766',y:'1945596.0398589005',jibun:'인천광역시 부평구 삼산동 461-3 글로리타워'},</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1041</v>
       </c>
@@ -13721,7 +14050,7 @@
         <v>{name:['육군제2291부대(17보병사단)'],addr:'인천광역시 부평구 무네미로447번길 6-4',x:'933856.628527692',y:'1942131.4210598096',jibun:'인천광역시 부평구 구산동 30-10'},</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1043</v>
       </c>
@@ -13742,7 +14071,7 @@
         <v>{name:['부평2동점G'],addr:'인천광역시 부평구 부영로16번길 22',x:'930930.0009870247',y:'1943341.044701905',jibun:'인천광역시 부평구 부평동 760-117'},</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1045</v>
       </c>
@@ -13763,7 +14092,7 @@
         <v>{name:['나들가게-스타로또판매점'],addr:'인천광역시 부평구 부평대로 146',x:'931209.1015196894',y:'1945299.2664001212',jibun:'인천광역시 부평구 부평동 431-46'},</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1047</v>
       </c>
@@ -13784,7 +14113,7 @@
         <v>{name:['부평보건소 결합부스'],addr:'인천광역시 부평구 부흥로 291',x:'931429.61845897',y:'1944679.5655312636',jibun:'인천광역시 부평구 부평동 442-1 부평구 보건소'},</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>1049</v>
       </c>
@@ -13805,7 +14134,7 @@
         <v>{name:['부평삼천당양국 결합부스'],addr:'인천광역시 부평구 시장로 35-2',x:'931586.8051944501',y:'1944161.0736327833',jibun:'인천광역시 부평구 부평동 192-1'},</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1051</v>
       </c>
@@ -13826,7 +14155,7 @@
         <v>{name:['삼산주공4단지 결합부스'],addr:'인천광역시 부평구 체육관로 111',x:'933132.6592045021',y:'1945946.1184882158',jibun:'인천광역시 부평구 삼산동 456-8 주공삼산타운아파트'},</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1053</v>
       </c>
@@ -13847,7 +14176,7 @@
         <v>{name:['송내중앙점G'],addr:'경기도 부천시 송내대로42번길 58',x:'934270.8836680101',y:'1943345.6518097534',jibun:'경기도 부천시 송내동 300 생명샘교회'},</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1055</v>
       </c>
@@ -13868,7 +14197,7 @@
         <v>{name:['부평제일점G'],addr:'인천광역시 부평구 부평대로12번길 15',x:'931414.8208953666',y:'1943984.6596683604',jibun:'인천광역시 부평구 부평동 193-25'},</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1057</v>
       </c>
@@ -13889,7 +14218,7 @@
         <v>{name:['김포초당점M'],addr:'경기도 김포시 김포한강2로 76',x:'927187.7376515022',y:'1960298.0954450704',jibun:'경기도 김포시 장기동 2039-2 프레즌스빌딩'},</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1059</v>
       </c>
@@ -13910,7 +14239,7 @@
         <v>{name:['감정삼환아파트상가 결합부스'],addr:'경기도 김포시 봉화로181번길 36',x:'929393.31062681',y:'1958932.8253651601',jibun:'경기도 김포시 감정동 659 삼환아파트'},</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1061</v>
       </c>
@@ -13931,7 +14260,7 @@
         <v>{name:['한강센트럴자이'],addr:'경기도 김포시 태장로 845',x:'927249.6620825944',y:'1959781.8936519488',jibun:'경기도 김포시 장기동 2128-1 한강센트럴자이 1단지'},</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1063</v>
       </c>
@@ -13952,7 +14281,7 @@
         <v>{name:['풍무신안점G'],addr:'경기도 김포시 풍무로 111',x:'931328.0170300335',y:'1956533.06516879',jibun:'경기도 김포시 풍무동 100 신안아파트'},</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1065</v>
       </c>
@@ -13976,7 +14305,7 @@
         <v>{name:['계산점M','미니스톱계산점앞 결합부스'],addr:'인천광역시 계양구 경명대로 1062',x:'931527.348910369',y:'1949595.0281054797',jibun:'인천광역시 계양구 계산동 945'},</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1067</v>
       </c>
@@ -13997,7 +14326,7 @@
         <v>{name:['계산명인점G'],addr:'인천광역시 계양구 경명대로 1120',x:'932108.7903216111',y:'1949561.4707883568',jibun:'인천광역시 계양구 계산동 12-10 명인프라자2'},</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1069</v>
       </c>
@@ -14018,7 +14347,7 @@
         <v>{name:['계양신한점G'],addr:'인천광역시 계양구 경명대로1029번길 16',x:'931225.1142344968',y:'1949819.1893880423',jibun:'인천광역시 계양구 계산동 931-9 신한아파트'},</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1071</v>
       </c>
@@ -14039,7 +14368,7 @@
         <v>{name:['태화상가 결합부스'],addr:'인천광역시 계양구 계양대로 114',x:'931337.9279541038',y:'1948567.644235659',jibun:'인천광역시 계양구 작전동 854-2'},</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1073</v>
       </c>
@@ -14060,7 +14389,7 @@
         <v>{name:['계산농협 결합부스'],addr:'인천광역시 계양구 계양대로 159-1',x:'931290.091887224',y:'1949046.5163927404',jibun:'인천광역시 계양구 계산동 969-16'},</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1075</v>
       </c>
@@ -14081,7 +14410,7 @@
         <v>{name:['인천병방점G'],addr:'인천광역시 계양구 병방로 17',x:'933081.7079332424',y:'1949977.93490888',jibun:'인천광역시 계양구 병방동 136-6 제일빌딩'},</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1077</v>
       </c>
@@ -14102,7 +14431,7 @@
         <v>{name:['이마트-계양점-KEB'],addr:'인천광역시 계양구 봉오대로 785',x:'932576.6557839434',y:'1948243.302971094',jibun:'인천광역시 계양구 작전동 911-1 (주)신세계 이마트 계양점'},</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1079</v>
       </c>
@@ -14123,7 +14452,7 @@
         <v>{name:['박촌중앙점G'],addr:'인천광역시 계양구 장제로997번길 9-1',x:'933248.4628332835',y:'1950882.8012067103',jibun:'인천광역시 계양구 박촌동 98-1'},</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1081</v>
       </c>
@@ -14144,7 +14473,7 @@
         <v>{name:['위드미-계산역점'],addr:'인천광역시 계양구 하느재로 4',x:'931544.6516139768',y:'1949681.0059877522',jibun:'인천광역시 계양구 계산동 929'},</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1083</v>
       </c>
@@ -14165,7 +14494,7 @@
         <v>{name:['귤현중앙점G'],addr:'인천광역시 계양구 형제봉길 57',x:'933716.1497187633',y:'1952258.4427198768',jibun:'인천광역시 계양구 귤현동 500-14'},</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1085</v>
       </c>
@@ -14186,7 +14515,7 @@
         <v>{name:['계양대원점G'],addr:'인천광역시 계양구 황어로115번길 13',x:'932175.376509306',y:'1953625.1702445736',jibun:'인천광역시 계양구 장기동 131-10 계양 벽산 블루밍'},</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1087</v>
       </c>
@@ -14207,7 +14536,7 @@
         <v>{name:['부평갈산점G'],addr:'인천광역시 부평구 굴포로 50-10',x:'931629.6382923902',y:'1946047.8260866501',jibun:'인천광역시 부평구 갈산동 367-2'},</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1089</v>
       </c>
@@ -14228,7 +14557,7 @@
         <v>{name:['부평우림점G'],addr:'인천광역시 부평구 부평대로 283',x:'931164.0193303828',y:'1946691.216097455',jibun:'인천광역시 부평구 청천동 425 부평우림라이온스밸리'},</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1091</v>
       </c>
@@ -14249,7 +14578,7 @@
         <v>{name:['계양국제점M'],addr:'인천광역시 계양구 계양문화로29번길 10',x:'932417.39154975',y:'1948532.5869564335',jibun:'인천광역시 계양구 작전동 907-6 태진프라자'},</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1186</v>
       </c>
@@ -14270,7 +14599,7 @@
         <v>{name:['송도센트럴점G'],addr:'인천광역시 연수구 송도국제대로 261',x:'924676.6906859279',y:'1930858.557839889',jibun:'인천광역시 연수구 송도동 190-4 송도 더샵 센트럴시티'},</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1191</v>
       </c>
@@ -14291,7 +14620,7 @@
         <v>{name:['송도이편한점G'],addr:'인천광역시 연수구 랜드마크로 113',x:'921810.1679151095',y:'1935243.4228121955',jibun:'인천광역시 연수구 송도동 319-1 e편한세상 송도'},</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1195</v>
       </c>
@@ -14312,7 +14641,7 @@
         <v>{name:['상동스타점G'],addr:'경기도 부천시 상이로39번길 29',x:'933018.5068486969',y:'1943921.941091667',jibun:'경기도 부천시 상동 604-1'},</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1197</v>
       </c>
@@ -14333,7 +14662,7 @@
         <v>{name:['부천역사1점G'],addr:'경기도 부천시 부천로 1',x:'936579.4263615669',y:'1942996.8231301266',jibun:'경기도 부천시 심곡본동 316-2 부천역사쇼핑몰'},</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1199</v>
       </c>
@@ -14354,7 +14683,7 @@
         <v>{name:['중동남부점G'],addr:'경기도 부천시 중동로70번길 15',x:'935053.4388435667',y:'1943261.1177480435',jibun:'경기도 부천시 송내동 504'},</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1201</v>
       </c>
@@ -14375,7 +14704,7 @@
         <v>{name:['현대백화점 중동점3F(디몰)-KB'],addr:'경기도 부천시 길주로 180',x:'934778.8432610824',y:'1945261.0811271123',jibun:'경기도 부천시 중동 1164 현대백화점부천중동점'},</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1203</v>
       </c>
@@ -14396,7 +14725,7 @@
         <v>{name:['상동메가점G'],addr:'경기도 부천시 상동로 90',x:'934040.5315300801',y:'1945356.8885050272',jibun:'경기도 부천시 상동 541-1 메가플러스빌딩'},</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1205</v>
       </c>
@@ -14417,7 +14746,7 @@
         <v>{name:['부천상이로점M'],addr:'경기도 부천시 상이로9번길 26-5',x:'933046.8897880868',y:'1943656.9576712232',jibun:'경기도 부천시 상동 614-7'},</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1413</v>
       </c>
@@ -14438,7 +14767,7 @@
         <v>{name:['부천상도점G'],addr:'경기도 부천시 장말로 156',x:'934518.3469865369',y:'1944049.46242386',jibun:'경기도 부천시 상동 420'},</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1208</v>
       </c>
@@ -14459,7 +14788,7 @@
         <v>{name:['간석이화점G'],addr:'인천광역시 남동구 남동대로916번길 40',x:'930182.1440641168',y:'1940798.9819973405',jibun:'인천광역시 남동구 간석동 182-13'},</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1210</v>
       </c>
@@ -14480,7 +14809,7 @@
         <v>{name:['부평동수로점G'],addr:'인천광역시 부평구 동수로 27',x:'931178.6939188098',y:'1943148.66538799',jibun:'인천광역시 부평구 부평동 672-23'},</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1212</v>
       </c>
@@ -14501,7 +14830,7 @@
         <v>{name:['부개주공점G'],addr:'인천광역시 부평구 부개로 61-14',x:'932730.6221358734',y:'1945165.9190083267',jibun:'인천광역시 부평구 부개동 498-9 대현프라자'},</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1214</v>
       </c>
@@ -14522,7 +14851,7 @@
         <v>{name:['부평파크팰리스점G'],addr:'인천광역시 부평구 동수북로 38',x:'930317.6786651467',y:'1943243.6612359053',jibun:'인천광역시 부평구 부평동 767-163 파크팰리스'},</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1216</v>
       </c>
@@ -14543,7 +14872,7 @@
         <v>{name:['미래타운주공3단지 결합부스'],addr:'인천광역시 부평구 부평북로 463',x:'933297.0104331193',y:'1947242.2830768712',jibun:'인천광역시 부평구 삼산동 390-6 주공미래타운3단지'},</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1218</v>
       </c>
@@ -14564,7 +14893,7 @@
         <v>{name:['중동공원점G'],addr:'경기도 부천시 소향로 149',x:'934961.8521437296',y:'1945021.9345603008',jibun:'경기도 부천시 중동 1160-3 필레오트윈파크2동'},</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1220</v>
       </c>
@@ -14585,7 +14914,7 @@
         <v>{name:['메리트-부천'],addr:'경기도 부천시 길주로 125',x:'934276.3197191034',y:'1945469.0924291466',jibun:'경기도 부천시 상동 538-7 다승프라자'},</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1222</v>
       </c>
@@ -14606,7 +14935,7 @@
         <v>{name:['상동삼성점M'],addr:'경기도 부천시 소향로13번길 14-23',x:'933740.1007567733',y:'1945287.2960776766',jibun:'경기도 부천시 상동 545-16 삼성프라자'},</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1224</v>
       </c>
@@ -14627,7 +14956,7 @@
         <v>{name:['부평사랑점G'],addr:'인천광역시 부평구 경원대로1431번길 13',x:'931750.6910376102',y:'1943899.1085860832',jibun:'인천광역시 부평구 부평동 585-2'},</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1226</v>
       </c>
@@ -14648,7 +14977,7 @@
         <v>{name:['인천삼산점M'],addr:'인천광역시 부평구 길주로 633',x:'932200.5103440566',y:'1945612.2485296768',jibun:'인천광역시 부평구 삼산동 464-1 삼산메디캐슬'},</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1228</v>
       </c>
@@ -14669,7 +14998,7 @@
         <v>{name:['부평파크타운점G'],addr:'인천광역시 부평구 마장로36번길 40-1',x:'930098.4109072781',y:'1943055.0494920602',jibun:'인천광역시 부평구 십정동 182-30 파크타운메트로'},</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1230</v>
       </c>
@@ -14690,7 +15019,7 @@
         <v>{name:['부평신명점G'],addr:'인천광역시 부평구 장제로 145',x:'931906.9543120344',y:'1944676.982779122',jibun:'인천광역시 부평구 부평동 378-3 신명스카이홈'},</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1232</v>
       </c>
@@ -14711,7 +15040,7 @@
         <v>{name:['부평남부점G'],addr:'인천광역시 부평구 장제로27번길 49',x:'931612.0905221628',y:'1943488.9596591424',jibun:'인천광역시 부평구 부평동 605-39 번성빌딩'},</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1234</v>
       </c>
@@ -14732,7 +15061,7 @@
         <v>{name:['사우현대점G'],addr:'경기도 김포시 사우로 12',x:'931404.4588655937',y:'1958213.9915254172',jibun:'경기도 김포시 사우동 911 풍년마을현대아파트'},</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1236</v>
       </c>
@@ -14753,7 +15082,7 @@
         <v>{name:['풍무자이점G'],addr:'경기도 김포시 풍무로96번길 102',x:'931911.8236301832',y:'1956351.3520765733',jibun:'경기도 김포시 풍무동 766 풍무자이2지구'},</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1238</v>
       </c>
@@ -14774,7 +15103,7 @@
         <v>{name:['계양팬더점G'],addr:'인천광역시 계양구 경명대로1142번길 5',x:'932278.270056488',y:'1949518.940805179',jibun:'인천광역시 계양구 계산동 489-6 팬더아파트'},</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1240</v>
       </c>
@@ -14795,7 +15124,7 @@
         <v>{name:['용종타운점G'],addr:'인천광역시 계양구 용마루1길 14',x:'933155.0954299255',y:'1949600.692782736',jibun:'인천광역시 계양구 용종동 223-1'},</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1242</v>
       </c>
@@ -14816,7 +15145,7 @@
         <v>{name:['병방타운점G'],addr:'인천광역시 계양구 장제로920번길 8',x:'933055.0038974134',y:'1950124.0965765738',jibun:'인천광역시 계양구 병방동 118-23'},</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1244</v>
       </c>
@@ -14837,7 +15166,7 @@
         <v>{name:['하이포크돈까스-인천'],addr:'인천광역시 계양구 주부토로 515',x:'931801.0081208765',y:'1949271.5415414097',jibun:'인천광역시 계양구 계산동 948-6 대원프라자'},</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1246</v>
       </c>
@@ -14858,7 +15187,7 @@
         <v>{name:['계산향교점G'],addr:'인천광역시 계양구 향교로 11',x:'931098.6161570952',y:'1949141.8350205198',jibun:'인천광역시 계양구 계산동 982-10'},</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1248</v>
       </c>
@@ -14879,7 +15208,7 @@
         <v>{name:['부평경찰서점G'],addr:'인천광역시 부평구 길주로 505',x:'930903.7670974967',y:'1945685.2516483534',jibun:'인천광역시 부평구 청천동 199-51 우진빌딩'},</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1250</v>
       </c>
@@ -14900,7 +15229,7 @@
         <v>{name:['작전한양점G'],addr:'인천광역시 계양구 계양대로120번길 11',x:'931438.9118810431',y:'1948645.5004086206',jibun:'인천광역시 계양구 작전동 855-27'},</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1252</v>
       </c>
@@ -14921,7 +15250,7 @@
         <v>{name:['작전중앙점G'],addr:'인천광역시 계양구 오조산로 1',x:'932657.6976733829',y:'1948231.547796661',jibun:'인천광역시 계양구 작전동 911-7 거승프라자'},</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1254</v>
       </c>
@@ -14942,7 +15271,7 @@
         <v>{name:['갈산본점G'],addr:'인천광역시 부평구 새갈로 22',x:'931978.99473544',y:'1946990.65978572',jibun:'인천광역시 부평구 갈산동 21-7'},</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1351</v>
       </c>
@@ -14963,7 +15292,7 @@
         <v>{name:['송도휴니드'],addr:'인천광역시 연수구 벤처로 82',x:'924007.2295042474',y:'1931228.941159821',jibun:'인천광역시 연수구 송도동 11-13 정보통신산업진흥원 송도사무소'},</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1356</v>
       </c>
@@ -14984,7 +15313,7 @@
         <v>{name:['부천직업학교점G'],addr:'경기도 부천시 경인로53번길 8',x:'934711.3744017',y:'1943003.0680683935',jibun:'경기도 부천시 송내동 366 상승프라자'},</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1358</v>
       </c>
@@ -15005,7 +15334,7 @@
         <v>{name:['2001아울렛 부평점NH'],addr:'인천광역시 부평구 경원대로 1277',x:'930222.273037916',y:'1943756.3583188085',jibun:'인천광역시 부평구 산곡동 311-151 2001아울렛부평점'},</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1360</v>
       </c>
@@ -15026,7 +15355,7 @@
         <v>{name:['부평대덕아크로존 결합부스'],addr:'인천광역시 부평구 경원대로 1422',x:'931669.1764701765',y:'1943794.49328152',jibun:'인천광역시 부평구 부평동 182-10 대덕아크로존'},</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1362</v>
       </c>
@@ -15047,7 +15376,7 @@
         <v>{name:['부평보영점G'],addr:'인천광역시 부평구 경원대로1367번길 18-3',x:'931142.7376056598',y:'1943954.05065474',jibun:'인천광역시 부평구 부평동 546-133 HB엘림캐슬'},</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1364</v>
       </c>
@@ -15068,7 +15397,7 @@
         <v>{name:['부평주공점M'],addr:'인천광역시 부평구 동수로120번길 43',x:'931934.1715355264',y:'1943017.1910001677',jibun:'인천광역시 부평구 부평동 938 부평엘에이치2단지'},</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1366</v>
       </c>
@@ -15089,7 +15418,7 @@
         <v>{name:['산곡믿음점G'],addr:'인천광역시 부평구 마장로264번길 33',x:'929725.2634043125',y:'1944992.400635913',jibun:'인천광역시 부평구 산곡동 255-1 뉴서울아파트'},</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1368</v>
       </c>
@@ -15110,7 +15439,7 @@
         <v>{name:['부개하이니스점G'],addr:'인천광역시 부평구 수변로93번길 6',x:'932927.3958141634',y:'1944228.9306980837',jibun:'인천광역시 부평구 부개동 120-407'},</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1370</v>
       </c>
@@ -15131,7 +15460,7 @@
         <v>{name:['십정2동점G'],addr:'인천광역시 부평구 열우물로50번길 30',x:'929381.1594225436',y:'1941912.0994479563',jibun:'인천광역시 부평구 십정동 399-6'},</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1372</v>
       </c>
@@ -15152,7 +15481,7 @@
         <v>{name:['삼산하이존점G'],addr:'인천광역시 부평구 체육관로 32',x:'932401.6239791668',y:'1945720.5818021502',jibun:'인천광역시 부평구 삼산동 459-2 하이존 HI ZONE'},</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1374</v>
       </c>
@@ -15173,7 +15502,7 @@
         <v>{name:['삼산블루밍점G'],addr:'인천광역시 부평구 후정동로 13',x:'932645.642192537',y:'1946866.6548467316',jibun:'인천광역시 부평구 삼산동 202'},</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1376</v>
       </c>
@@ -15194,7 +15523,7 @@
         <v>{name:['심곡본점G'],addr:'경기도 부천시 심곡로9번길 40',x:'936187.7196378834',y:'1942845.7174466103',jibun:'경기도 부천시 심곡본동 665'},</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1378</v>
       </c>
@@ -15215,7 +15544,7 @@
         <v>{name:['열우물동암점G'],addr:'인천광역시 부평구 경인로667번길 14',x:'929885.288130031',y:'1941429.8037530337',jibun:'인천광역시 부평구 십정동 482-30'},</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1380</v>
       </c>
@@ -15236,7 +15565,7 @@
         <v>{name:['부평길주점G'],addr:'인천광역시 부평구 길주남로 113',x:'932322.22616114',y:'1945266.2459413433',jibun:'인천광역시 부평구 부개동 12-213'},</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1382</v>
       </c>
@@ -15257,7 +15586,7 @@
         <v>{name:['부개1동점G'],addr:'인천광역시 부평구 동수로 162',x:'932503.4987817237',y:'1943180.5450270968',jibun:'인천광역시 부평구 부개동 259'},</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1384</v>
       </c>
@@ -15278,7 +15607,7 @@
         <v>{name:['부개푸르지오점G'],addr:'인천광역시 부평구 부일로 70',x:'932570.000904714',y:'1943564.380697852',jibun:'인천광역시 부평구 부개동 166-3'},</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1386</v>
       </c>
@@ -15299,7 +15628,7 @@
         <v>{name:['부개북부역점G'],addr:'인천광역시 부평구 수변로37번길 5-2',x:'932791.9849646788',y:'1943673.6964042024',jibun:'인천광역시 부평구 부개동 197-28'},</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1388</v>
       </c>
@@ -15320,7 +15649,7 @@
         <v>{name:['부평마사회 결합부스'],addr:'인천광역시 부평구 장제로 54',x:'931927.8353052868',y:'1943718.5432799067',jibun:'인천광역시 부평구 부평동 161-3'},</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1390</v>
       </c>
@@ -15341,7 +15670,7 @@
         <v>{name:['대곶대능점G'],addr:'경기도 김포시 대곶면 대곶남로 573',x:'921102.0937932157',y:'1960245.03606041',jibun:'경기도 김포시 대곶면 대능리 57-4'},</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1392</v>
       </c>
@@ -15362,7 +15691,7 @@
         <v>{name:['김포에코점G'],addr:'경기도 김포시 사우중로 23',x:'930910.95575678',y:'1957858.4548262246',jibun:'경기도 김포시 사우동 251 에코힐즈'},</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1394</v>
       </c>
@@ -15383,7 +15712,7 @@
         <v>{name:['양촌타워점G'],addr:'경기도 김포시 양촌읍 양곡2로30번길 51-16',x:'923278.2811406231',y:'1962039.445796621',jibun:'경기도 김포시 양촌읍 양곡리 1313'},</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1396</v>
       </c>
@@ -15404,7 +15733,7 @@
         <v>{name:['김포학운점M'],addr:'경기도 김포시 양촌읍 황금로109번길 80',x:'922566.3066215497',y:'1957668.0232976116',jibun:'경기도 김포시 양촌읍 학운리 2980-4'},</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1398</v>
       </c>
@@ -15425,7 +15754,7 @@
         <v>{name:['김포데시앙점G'],addr:'경기도 김포시 양촌읍 황금로89번길 23',x:'922733.1425718856',y:'1958046.0483274334',jibun:'경기도 김포시 양촌읍 학운리 3019 김포양촌 금빛마을 자연앤 데시앙 아파트'},</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1400</v>
       </c>
@@ -15446,7 +15775,7 @@
         <v>{name:['풍무중앙점G'],addr:'경기도 김포시 풍무로96번길 42',x:'931547.1254532575',y:'1956398.4031931022',jibun:'경기도 김포시 풍무동 764 풍무자이'},</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1402</v>
       </c>
@@ -15467,7 +15796,7 @@
         <v>{name:['효성현대점M'],addr:'인천광역시 계양구 길마로88번길 1',x:'930699.2262116268',y:'1948544.4063613536',jibun:'인천광역시 계양구 효성동 21-47 대성빌딩'},</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1404</v>
       </c>
@@ -15488,7 +15817,7 @@
         <v>{name:['인천임학점G'],addr:'인천광역시 계양구 임학동로 17',x:'932442.6257163081',y:'1949692.9968899256',jibun:'인천광역시 계양구 임학동 65-11'},</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1406</v>
       </c>
@@ -15509,7 +15838,7 @@
         <v>{name:['우리가의원 결합부스'],addr:'인천광역시 계양구 계양대로 204',x:'931359.4913538166',y:'1949482.1580298734',jibun:'인천광역시 계양구 계산동 944-30'},</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1408</v>
       </c>
@@ -15530,7 +15859,7 @@
         <v>{name:['효성1동점G'],addr:'인천광역시 계양구 봉오대로531번길 33',x:'929960.5048100632',y:'1948555.4040038083',jibun:'인천광역시 계양구 효성동 97'},</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1410</v>
       </c>
@@ -15551,7 +15880,7 @@
         <v>{name:['임학역점BA'],addr:'인천광역시 계양구 장제로 879-1',x:'932744.9545369325',y:'1949848.5700937351',jibun:'인천광역시 계양구 임학동 10-10'},</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1412</v>
       </c>
@@ -15572,7 +15901,7 @@
         <v>{name:['갈산사거리점G'],addr:'인천광역시 부평구 주부토로 261',x:'931672.1376032769',y:'1946844.5130525236',jibun:'인천광역시 부평구 갈산동 169-16 신협빌딩'},</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1502</v>
       </c>
@@ -15593,7 +15922,7 @@
         <v>{name:['시흥서강점G'],addr:'경기도 시흥시 비둘기공원7길 22',x:'937448.3398756399',y:'1938562.4792490038',jibun:'경기도 시흥시 대야동 562-3 서강프라자'},</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1504</v>
       </c>
@@ -15614,7 +15943,7 @@
         <v>{name:['시흥월드점G'],addr:'경기도 시흥시 비둘기공원7길 46',x:'937346.2121258583',y:'1938344.3109330758',jibun:'경기도 시흥시 대야동 541-3 월드타운'},</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1506</v>
       </c>
@@ -15635,7 +15964,7 @@
         <v>{name:['신천초교로점M'],addr:'경기도 시흥시 포도원로79번길 2',x:'936582.2592841634',y:'1937651.3023221735',jibun:'경기도 시흥시 신천동 845-19'},</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1508</v>
       </c>
@@ -15656,7 +15985,7 @@
         <v>{name:['주안에쉐르점G'],addr:'인천광역시 미추홀구 주승로 110',x:'927719.2879240455',y:'1938717.6941827536',jibun:'인천광역시 미추홀구 주안동 1216-17'},</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1510</v>
       </c>
@@ -15677,7 +16006,7 @@
         <v>{name:['구월캐슬점G'],addr:'인천광역시 남동구 구월로 247',x:'930841.5710412234',y:'1939958.9257869069',jibun:'인천광역시 남동구 구월동 1244-11'},</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1512</v>
       </c>
@@ -15698,7 +16027,7 @@
         <v>{name:['1004마트-만수동'],addr:'인천광역시 남동구 구월말로 67',x:'931443.6144919668',y:'1939824.04465779',jibun:'인천광역시 남동구 만수동 911-4 봉호빌딩'},</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1514</v>
       </c>
@@ -15719,7 +16048,7 @@
         <v>{name:['만수효성점G'],addr:'인천광역시 남동구 구월말로85번길 26',x:'931341.4900672273',y:'1940018.603999448',jibun:'인천광역시 남동구 만수동 902-5'},</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1516</v>
       </c>
@@ -15740,7 +16069,7 @@
         <v>{name:['구월아시아드점M'],addr:'인천광역시 남동구 남동대로 684',x:'929856.9788878767',y:'1938528.3376402766',jibun:'인천광역시 남동구 구월동 1178-2'},</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1518</v>
       </c>
@@ -15761,7 +16090,7 @@
         <v>{name:['구월문화점G'],addr:'인천광역시 남동구 문화서로18번길 49',x:'929131.4643646367',y:'1938925.7876847968',jibun:'인천광역시 남동구 구월동 1371-17'},</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1520</v>
       </c>
@@ -15782,7 +16111,7 @@
         <v>{name:['만수다온점G'],addr:'인천광역시 남동구 복개동로34번길 25',x:'931705.8011908967',y:'1939361.1383707938',jibun:'인천광역시 남동구 만수동 935-1'},</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1522</v>
       </c>
@@ -15803,7 +16132,7 @@
         <v>{name:['서창청아안점G'],addr:'인천광역시 남동구 서창남순환로 108',x:'933284.22361243',y:'1937040.3867056346',jibun:'인천광역시 남동구 서창동 639 서창LH3단지상가'},</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1524</v>
       </c>
@@ -15824,7 +16153,7 @@
         <v>{name:['만수신한점G'],addr:'인천광역시 남동구 수현로136번길 35',x:'932774.0465627501',y:'1941019.10117833',jibun:'인천광역시 남동구 만수동 1-301'},</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1526</v>
       </c>
@@ -15845,7 +16174,7 @@
         <v>{name:['인천인주점G'],addr:'인천광역시 남동구 인주대로676번길 10',x:'930286.7067263534',y:'1939157.4377457472',jibun:'인천광역시 남동구 구월동 276-1 진선빌딩'},</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1528</v>
       </c>
@@ -15866,7 +16195,7 @@
         <v>{name:['구월신세계점G'],addr:'인천광역시 남동구 호구포로 844',x:'931016.3459577067',y:'1940141.9505111733',jibun:'인천광역시 남동구 구월동 342-213 신세계아파트상가'},</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1530</v>
       </c>
@@ -15887,7 +16216,7 @@
         <v>{name:['관교삼환점G'],addr:'인천광역시 미추홀구 문화로 27',x:'929078.1662948651',y:'1938331.0861617737',jibun:'인천광역시 미추홀구 관교동 13-10 삼환아파트'},</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1532</v>
       </c>
@@ -15908,7 +16237,7 @@
         <v>{name:['주안승기점G'],addr:'인천광역시 미추홀구 인주대로 456',x:'928111.2086274424',y:'1939365.0213392377',jibun:'인천광역시 미추홀구 주안동 1517-7'},</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1534</v>
       </c>
@@ -15929,7 +16258,7 @@
         <v>{name:['대야상업점G'],addr:'경기도 시흥시 비둘기공원5길 23-1',x:'937203.4966861256',y:'1938321.2268203245',jibun:'경기도 시흥시 대야동 540-3 SK프라자'},</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1536</v>
       </c>
@@ -15950,7 +16279,7 @@
         <v>{name:['시흥하나점M'],addr:'경기도 시흥시 삼미시장4길 17',x:'936544.8355448807',y:'1938071.3689906',jibun:'경기도 시흥시 신천동 759'},</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1538</v>
       </c>
@@ -15971,7 +16300,7 @@
         <v>{name:['구월점M'],addr:'인천광역시 남동구 문화서로17번길 6',x:'928867.7313054034',y:'1938957.6338435733',jibun:'인천광역시 남동구 구월동 1380-7'},</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1540</v>
       </c>
@@ -15992,9 +16321,471 @@
         <v>{name:['만수1동점G'],addr:'인천광역시 남동구 하촌로 69',x:'932216.4311302667',y:'1939700.3908490133',jibun:'인천광역시 남동구 만수동 957-5'},</v>
       </c>
     </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G318" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['은행동 대우3차 아파트후문 결합부스'],addr:'경기도 시흥시 대은로 4',x:'937482.2221319533',y:'1938034.81932035',jibun:'경기도 시흥시 은행동 559-1 시흥소방서'},</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G319" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['시흥대은로점G'],addr:'경기도 시흥시 대은로104번길 8-1',x:'938057.8482901675',y:'1938643.3110032696',jibun:'경기도 시흥시 은행동 529-1'},</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G320" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['대야영남점G'],addr:'경기도 시흥시 복지로120번길 8',x:'937498.381251357',y:'1939096.7986823022',jibun:'경기도 시흥시 대야동 280-2 열린예능어린이집'},</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G321" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['시흥유호점G'],addr:'경기도 시흥시 비둘기공원5길 12',x:'937225.0032899464',y:'1938466.382095375',jibun:'경기도 시흥시 대야동 531-2 신주 씨티 프라자'},</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="G322" t="str">
+        <f t="shared" si="4"/>
+        <v>{name:['시흥현대점M'],addr:'경기도 시흥시 수인로3409번길 44',x:'936272.1127136704',y:'1937891.685062895',jibun:'경기도 시흥시 신천동 458 현대아파트'},</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G323" t="str">
+        <f t="shared" ref="G323:G339" si="5">"{name:" &amp; "['"&amp;A323&amp;"'"&amp;IF(ISBLANK(B323),"",",'"&amp;B323&amp;"'")&amp;"],addr:" &amp; "'" &amp;C323&amp;"',x:"&amp; "'" &amp;D323&amp;"',y:"&amp; "'" &amp;E323&amp;"',jibun:"&amp; "'" &amp;F323&amp;"'},"</f>
+        <v>{name:['시흥삼성점G'],addr:'경기도 시흥시 시흥대로1074번길 10',x:'937533.3139552183',y:'1937160.6429582676',jibun:'경기도 시흥시 은행동 289-11 삼성홈타운상가동'},</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="G324" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['시흥신천역점G'],addr:'경기도 시흥시 신천천서로 24',x:'936663.6280433233',y:'1937968.64070718',jibun:'경기도 시흥시 신천동 761-5 애견나라백화점'},</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G325" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['G시흥하우로점G'],addr:'경기도 시흥시 하우로 26-1',x:'936879.1776595041',y:'1940126.2691092594',jibun:'경기도 시흥시 대야동 57-5 S-OIL하우고개주유소'},</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G326" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['주안동국점G'],addr:'인천광역시 미추홀구 구월로19번길 36',x:'928727.6654828573',y:'1940251.3150196634',jibun:'인천광역시 미추홀구 주안동 1590-12'},</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G327" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['주안승학점G'],addr:'인천광역시 미추홀구 승학길 72',x:'927448.2556652576',y:'1938480.6110020196',jibun:'인천광역시 미추홀구 주안동 1290-7'},</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G328" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['주안4수협 결합부스'],addr:'인천광역시 미추홀구 인주대로 463',x:'928205.295146582',y:'1939410.3177663865',jibun:'인천광역시 미추홀구 주안동 1533-26'},</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G329" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['주안인주로점G'],addr:'인천광역시 미추홀구 인주대로496번길 42',x:'928623.9176782831',y:'1939209.2697154526',jibun:'인천광역시 미추홀구 주안동 1063-4 플러스캐슬'},</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G330" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['인천 순복음교회-CITI'],addr:'인천광역시 미추홀구 인하로 452',x:'928952.4910894916',y:'1938636.2302707438',jibun:'인천광역시 미추홀구 관교동 13-1 관교동 행정복지센터'},</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G331" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['만수청운점M'],addr:'인천광역시 남동구 구월말로 118',x:'931521.6943603067',y:'1940307.19307775',jibun:'인천광역시 남동구 만수동 896'},</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G332" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['만수숭덕점G'],addr:'인천광역시 남동구 만수서로83번길 45',x:'932224.874504324',y:'1940744.9256419935',jibun:'인천광역시 남동구 만수동 1115-1'},</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G333" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['구월올림픽점G'],addr:'인천광역시 남동구 문화로115번길 3',x:'929180.5195194234',y:'1939208.8017521868',jibun:'인천광역시 남동구 구월동 1347-1'},</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G334" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['문화부동산-인천'],addr:'인천광역시 남동구 문화로89번길 26',x:'929035.2602743967',y:'1938984.2826620433',jibun:'인천광역시 남동구 구월동 1368-13'},</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G335" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['간석백범점G'],addr:'인천광역시 남동구 백범로297번길 42',x:'930656.1941175768',y:'1940467.4662151802',jibun:'인천광역시 남동구 간석동 31-22'},</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G336" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['구월팬더점G'],addr:'인천광역시 남동구 성리로 55-1',x:'930005.6922677634',y:'1939021.9555669534',jibun:'인천광역시 남동구 구월동 1189-1'},</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G337" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['만수프라자점G'],addr:'인천광역시 남동구 구월로 376',x:'932102.5478626201',y:'1939778.913259727',jibun:'인천광역시 남동구 만수동 956 정은프라자'},</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G338" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['만수2점M'],addr:'인천광역시 남동구 백범로227번길 95',x:'931332.5118907234',y:'1939912.0193386236',jibun:'인천광역시 남동구 만수동 908-27'},</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G339" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['구월효명점G'],addr:'인천광역시 남동구 성말로 10',x:'929370.6298422932',y:'1938745.20034389',jibun:'인천광역시 남동구 구월동 1463 효명프라자'},</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G185" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H189">
+  <autoFilter ref="A1:G185">
+    <sortState ref="A2:H189">
       <sortCondition ref="A1:A189"/>
     </sortState>
   </autoFilter>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="1816">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -5213,6 +5213,321 @@
   </si>
   <si>
     <t>1938745.20034389</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 삼미시장1길 13-1</t>
+  </si>
+  <si>
+    <t>미래약국앞 결합부스</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 호현로21번길 19-1</t>
+  </si>
+  <si>
+    <t>시흥호현로점M</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 인하로299번길 3</t>
+  </si>
+  <si>
+    <t>주안진흥점G</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 인하로 369</t>
+  </si>
+  <si>
+    <t>승학사거리점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 독곡로48번길 6</t>
+  </si>
+  <si>
+    <t>서창그랑블점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 매소홀로 1118</t>
+  </si>
+  <si>
+    <t>서창중앙점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 미래로 13</t>
+  </si>
+  <si>
+    <t>구월시티점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 백범로 210</t>
+  </si>
+  <si>
+    <t>편의점사랑-만수</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 백범로294번길 15</t>
+  </si>
+  <si>
+    <t>간석휴먼시아점M</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 석산로 112</t>
+  </si>
+  <si>
+    <t>간석석산길점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 선수촌공원로23번길 6-9</t>
+  </si>
+  <si>
+    <t>남동광장점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 선수촌로 27</t>
+  </si>
+  <si>
+    <t>구월아시아드점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 인주대로 847</t>
+  </si>
+  <si>
+    <t>인천남동점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 인주대로 859</t>
+  </si>
+  <si>
+    <t>인천삼환상가 결합부스</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 장자로 1</t>
+  </si>
+  <si>
+    <t>인천장수점M</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 장자로41번길 18</t>
+  </si>
+  <si>
+    <t>장수해누리점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 호구포로739번길 43</t>
+  </si>
+  <si>
+    <t>구월쌈지점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 호구포로 920</t>
+  </si>
+  <si>
+    <t>만수벽산점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 호구포로888번길 9-19</t>
+  </si>
+  <si>
+    <t>간석태화점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대골안길 38</t>
+  </si>
+  <si>
+    <t>대야초교점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 호현로40번길 17</t>
+  </si>
+  <si>
+    <t>시흥베스트점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천동 737-2 광장약국</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천동 716-3</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1464-48 일정빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1527-6</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 서창동 542-9</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 서창동 554-5 현대프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1129-22 노빌리안명품</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 861-8</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 간석동 940 간석LH1단지</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 간석동 458-10</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1541-1 광장프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1524 구월아시아드선수촌6단지</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 982</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 983-1</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 장수동 783-10 장수동근생및주택</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 장수동 777-5</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1480-1</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 1114</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 간석동 919-2</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대야동 466-7</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대야동 492-23 새벽종교회</t>
+  </si>
+  <si>
+    <t>936719.7711536468</t>
+  </si>
+  <si>
+    <t>936520.2733351432</t>
+  </si>
+  <si>
+    <t>927591.532523938</t>
+  </si>
+  <si>
+    <t>928294.0989001445</t>
+  </si>
+  <si>
+    <t>933539.6497023501</t>
+  </si>
+  <si>
+    <t>933366.2127928433</t>
+  </si>
+  <si>
+    <t>929595.6064953101</t>
+  </si>
+  <si>
+    <t>931559.9475392301</t>
+  </si>
+  <si>
+    <t>930800.2403223659</t>
+  </si>
+  <si>
+    <t>929612.0234433436</t>
+  </si>
+  <si>
+    <t>930061.933546904</t>
+  </si>
+  <si>
+    <t>930511.0943001849</t>
+  </si>
+  <si>
+    <t>932032.9883288653</t>
+  </si>
+  <si>
+    <t>932144.9345043334</t>
+  </si>
+  <si>
+    <t>933651.07423761</t>
+  </si>
+  <si>
+    <t>934045.5734088367</t>
+  </si>
+  <si>
+    <t>930643.8940919181</t>
+  </si>
+  <si>
+    <t>931126.7868728931</t>
+  </si>
+  <si>
+    <t>931113.24401651</t>
+  </si>
+  <si>
+    <t>937073.0391730901</t>
+  </si>
+  <si>
+    <t>936929.1198080769</t>
+  </si>
+  <si>
+    <t>1938139.8990815468</t>
+  </si>
+  <si>
+    <t>1938440.5459924103</t>
+  </si>
+  <si>
+    <t>1939092.0821073353</t>
+  </si>
+  <si>
+    <t>1939108.35969039</t>
+  </si>
+  <si>
+    <t>1937522.99973593</t>
+  </si>
+  <si>
+    <t>1937931.54791361</t>
+  </si>
+  <si>
+    <t>1939415.04512063</t>
+  </si>
+  <si>
+    <t>1940374.2285076636</t>
+  </si>
+  <si>
+    <t>1940745.6848868895</t>
+  </si>
+  <si>
+    <t>1940401.9144248837</t>
+  </si>
+  <si>
+    <t>1938329.513968382</t>
+  </si>
+  <si>
+    <t>1938350.0828634477</t>
+  </si>
+  <si>
+    <t>1939113.4445060315</t>
+  </si>
+  <si>
+    <t>1939103.2994915033</t>
+  </si>
+  <si>
+    <t>1939306.729553537</t>
+  </si>
+  <si>
+    <t>1939413.2571667</t>
+  </si>
+  <si>
+    <t>1939088.4107651794</t>
+  </si>
+  <si>
+    <t>1940853.6556383944</t>
+  </si>
+  <si>
+    <t>1940643.06398965</t>
+  </si>
+  <si>
+    <t>1938814.1552852164</t>
+  </si>
+  <si>
+    <t>1938473.903526077</t>
   </si>
 </sst>
 </file>
@@ -9624,10 +9939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G339"/>
+  <dimension ref="A1:G360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E300" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F316" sqref="F316"/>
+    <sheetView tabSelected="1" topLeftCell="E339" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G367" sqref="G367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16443,7 +16758,7 @@
         <v>1650</v>
       </c>
       <c r="G323" t="str">
-        <f t="shared" ref="G323:G339" si="5">"{name:" &amp; "['"&amp;A323&amp;"'"&amp;IF(ISBLANK(B323),"",",'"&amp;B323&amp;"'")&amp;"],addr:" &amp; "'" &amp;C323&amp;"',x:"&amp; "'" &amp;D323&amp;"',y:"&amp; "'" &amp;E323&amp;"',jibun:"&amp; "'" &amp;F323&amp;"'},"</f>
+        <f t="shared" ref="G323:G360" si="5">"{name:" &amp; "['"&amp;A323&amp;"'"&amp;IF(ISBLANK(B323),"",",'"&amp;B323&amp;"'")&amp;"],addr:" &amp; "'" &amp;C323&amp;"',x:"&amp; "'" &amp;D323&amp;"',y:"&amp; "'" &amp;E323&amp;"',jibun:"&amp; "'" &amp;F323&amp;"'},"</f>
         <v>{name:['시흥삼성점G'],addr:'경기도 시흥시 시흥대로1074번길 10',x:'937533.3139552183',y:'1937160.6429582676',jibun:'경기도 시흥시 은행동 289-11 삼성홈타운상가동'},</v>
       </c>
     </row>
@@ -16781,6 +17096,447 @@
       <c r="G339" t="str">
         <f t="shared" si="5"/>
         <v>{name:['구월효명점G'],addr:'인천광역시 남동구 성말로 10',x:'929370.6298422932',y:'1938745.20034389',jibun:'인천광역시 남동구 구월동 1463 효명프라자'},</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G340" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['미래약국앞 결합부스'],addr:'경기도 시흥시 삼미시장1길 13-1',x:'936719.7711536468',y:'1938139.8990815468',jibun:'경기도 시흥시 신천동 737-2 광장약국'},</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G341" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['시흥호현로점M'],addr:'경기도 시흥시 호현로21번길 19-1',x:'936520.2733351432',y:'1938440.5459924103',jibun:'경기도 시흥시 신천동 716-3'},</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G342" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['주안진흥점G'],addr:'인천광역시 미추홀구 인하로299번길 3',x:'927591.532523938',y:'1939092.0821073353',jibun:'인천광역시 미추홀구 주안동 1464-48 일정빌딩'},</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G343" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['승학사거리점G'],addr:'인천광역시 미추홀구 인하로 369',x:'928294.0989001445',y:'1939108.35969039',jibun:'인천광역시 미추홀구 주안동 1527-6'},</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G344" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['서창그랑블점G'],addr:'인천광역시 남동구 독곡로48번길 6',x:'933539.6497023501',y:'1937522.99973593',jibun:'인천광역시 남동구 서창동 542-9'},</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G345" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['서창중앙점G'],addr:'인천광역시 남동구 매소홀로 1118',x:'933366.2127928433',y:'1937931.54791361',jibun:'인천광역시 남동구 서창동 554-5 현대프라자'},</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="G346" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['구월시티점G'],addr:'인천광역시 남동구 미래로 13',x:'929595.6064953101',y:'1939415.04512063',jibun:'인천광역시 남동구 구월동 1129-22 노빌리안명품'},</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G347" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['편의점사랑-만수'],addr:'인천광역시 남동구 백범로 210',x:'931559.9475392301',y:'1940374.2285076636',jibun:'인천광역시 남동구 만수동 861-8'},</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G348" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['간석휴먼시아점M'],addr:'인천광역시 남동구 백범로294번길 15',x:'930800.2403223659',y:'1940745.6848868895',jibun:'인천광역시 남동구 간석동 940 간석LH1단지'},</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G349" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['간석석산길점G'],addr:'인천광역시 남동구 석산로 112',x:'929612.0234433436',y:'1940401.9144248837',jibun:'인천광역시 남동구 간석동 458-10'},</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G350" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['남동광장점G'],addr:'인천광역시 남동구 선수촌공원로23번길 6-9',x:'930061.933546904',y:'1938329.513968382',jibun:'인천광역시 남동구 구월동 1541-1 광장프라자'},</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G351" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['구월아시아드점G'],addr:'인천광역시 남동구 선수촌로 27',x:'930511.0943001849',y:'1938350.0828634477',jibun:'인천광역시 남동구 구월동 1524 구월아시아드선수촌6단지'},</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G352" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['인천남동점G'],addr:'인천광역시 남동구 인주대로 847',x:'932032.9883288653',y:'1939113.4445060315',jibun:'인천광역시 남동구 만수동 982'},</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G353" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['인천삼환상가 결합부스'],addr:'인천광역시 남동구 인주대로 859',x:'932144.9345043334',y:'1939103.2994915033',jibun:'인천광역시 남동구 만수동 983-1'},</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G354" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['인천장수점M'],addr:'인천광역시 남동구 장자로 1',x:'933651.07423761',y:'1939306.729553537',jibun:'인천광역시 남동구 장수동 783-10 장수동근생및주택'},</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G355" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['장수해누리점G'],addr:'인천광역시 남동구 장자로41번길 18',x:'934045.5734088367',y:'1939413.2571667',jibun:'인천광역시 남동구 장수동 777-5'},</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G356" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['구월쌈지점G'],addr:'인천광역시 남동구 호구포로739번길 43',x:'930643.8940919181',y:'1939088.4107651794',jibun:'인천광역시 남동구 구월동 1480-1'},</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G357" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['만수벽산점G'],addr:'인천광역시 남동구 호구포로 920',x:'931126.7868728931',y:'1940853.6556383944',jibun:'인천광역시 남동구 만수동 1114'},</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G358" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['간석태화점G'],addr:'인천광역시 남동구 호구포로888번길 9-19',x:'931113.24401651',y:'1940643.06398965',jibun:'인천광역시 남동구 간석동 919-2'},</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G359" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['대야초교점G'],addr:'경기도 시흥시 대골안길 38',x:'937073.0391730901',y:'1938814.1552852164',jibun:'경기도 시흥시 대야동 466-7'},</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G360" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['시흥베스트점G'],addr:'경기도 시흥시 호현로40번길 17',x:'936929.1198080769',y:'1938473.903526077',jibun:'경기도 시흥시 대야동 492-23 새벽종교회'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="1816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="1912">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -5528,6 +5528,295 @@
   </si>
   <si>
     <t>1938473.903526077</t>
+  </si>
+  <si>
+    <t>은행성원아파트 결합부스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 시흥시 검바위2로 31-1</t>
+  </si>
+  <si>
+    <t>시흥검바위점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은계번영길 40</t>
+  </si>
+  <si>
+    <t>은계샤르망점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 호현로85번길 10</t>
+  </si>
+  <si>
+    <t>시흥소래산점M</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 소성로 300</t>
+  </si>
+  <si>
+    <t>세븐일레븐-인천문학공원점</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 인하로 348</t>
+  </si>
+  <si>
+    <t>주안구판장 결합부스</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주승로 224</t>
+  </si>
+  <si>
+    <t>인천관교점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월말로27번길 65</t>
+  </si>
+  <si>
+    <t>구월성의점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 담방로21번길 61</t>
+  </si>
+  <si>
+    <t>만수뉴서울점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수서로 36</t>
+  </si>
+  <si>
+    <t>만수향촌점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 미래로 21</t>
+  </si>
+  <si>
+    <t>구월시청점M</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 미래로 45</t>
+  </si>
+  <si>
+    <t>인천광장점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 백범로248번길 9</t>
+  </si>
+  <si>
+    <t>간석영풍점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 서판로54번길 54</t>
+  </si>
+  <si>
+    <t>만수리치점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 성말로53번길 1</t>
+  </si>
+  <si>
+    <t>인천남동로점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 인주대로887번길 71</t>
+  </si>
+  <si>
+    <t>만수전원점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 장승남로 62</t>
+  </si>
+  <si>
+    <t>남동프라자점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 장승남로47번길 32-17</t>
+  </si>
+  <si>
+    <t>경기하이퍼 결합부스</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은계중앙로 140</t>
+  </si>
+  <si>
+    <t>은계포레점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수로75번길 21</t>
+  </si>
+  <si>
+    <t>영마트-태화점</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 276-15 광덕빌라트</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 147-2 샤르망프라자</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대야동 461</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 문학동 361-3</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1523-5</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 관교동 492-5</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1276-31</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 1044 뉴서울아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 1116-1 향촌휴먼시아2단지아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1129-17 SR노빌리안2</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1136-14 벤처빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 간석동 921-3</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 854-43</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1164-30 삼성마이빌</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 423-15 현대빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 1039 기성빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 1024-8</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 3-1 네이처포레</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 5-9 태화아파트및상가</t>
+  </si>
+  <si>
+    <t>937718.0878702197</t>
+  </si>
+  <si>
+    <t>938299.4457090907</t>
+  </si>
+  <si>
+    <t>936921.0398239132</t>
+  </si>
+  <si>
+    <t>927494.3803381128</t>
+  </si>
+  <si>
+    <t>928079.9149246542</t>
+  </si>
+  <si>
+    <t>928715.7043376276</t>
+  </si>
+  <si>
+    <t>931083.1583956</t>
+  </si>
+  <si>
+    <t>932346.7585759116</t>
+  </si>
+  <si>
+    <t>931914.2900131517</t>
+  </si>
+  <si>
+    <t>929604.1212639669</t>
+  </si>
+  <si>
+    <t>929611.4970598868</t>
+  </si>
+  <si>
+    <t>931169.3115021433</t>
+  </si>
+  <si>
+    <t>931476.5820329033</t>
+  </si>
+  <si>
+    <t>929802.7694909978</t>
+  </si>
+  <si>
+    <t>932602.1103084101</t>
+  </si>
+  <si>
+    <t>932685.0842282202</t>
+  </si>
+  <si>
+    <t>932645.9048994132</t>
+  </si>
+  <si>
+    <t>938612.3524956303</t>
+  </si>
+  <si>
+    <t>932411.4956874</t>
+  </si>
+  <si>
+    <t>1937212.6612922186</t>
+  </si>
+  <si>
+    <t>1937715.993534084</t>
+  </si>
+  <si>
+    <t>1938953.7183743403</t>
+  </si>
+  <si>
+    <t>1937917.6184262522</t>
+  </si>
+  <si>
+    <t>1939061.0098456866</t>
+  </si>
+  <si>
+    <t>1938514.1561488747</t>
+  </si>
+  <si>
+    <t>1939428.8302239468</t>
+  </si>
+  <si>
+    <t>1938304.6844734782</t>
+  </si>
+  <si>
+    <t>1940515.0279400973</t>
+  </si>
+  <si>
+    <t>1939485.5757794832</t>
+  </si>
+  <si>
+    <t>1939747.7201584768</t>
+  </si>
+  <si>
+    <t>1940507.71074063</t>
+  </si>
+  <si>
+    <t>1940554.3699378832</t>
+  </si>
+  <si>
+    <t>1938744.0220090281</t>
+  </si>
+  <si>
+    <t>1939384.4498349032</t>
+  </si>
+  <si>
+    <t>1938504.1663884465</t>
+  </si>
+  <si>
+    <t>1938709.3671599966</t>
+  </si>
+  <si>
+    <t>1938052.355530308</t>
+  </si>
+  <si>
+    <t>1940728.005343177</t>
   </si>
 </sst>
 </file>
@@ -9939,10 +10228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G360"/>
+  <dimension ref="A1:G379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E339" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G367" sqref="G367"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12219,7 +12508,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>156</v>
+        <v>1816</v>
       </c>
       <c r="C108" t="s">
         <v>321</v>
@@ -12235,7 +12524,7 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
-        <v>{name:['은행동성원아파트 결합부스'],addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804',jibun:'경기도 시흥시 은행동 538-2 시흥성원아파트'},</v>
+        <v>{name:['은행성원아파트 결합부스'],addr:'경기도 시흥시 은행로149번길 1',x:'938028.694184585',y:'1938571.9840112804',jibun:'경기도 시흥시 은행동 538-2 시흥성원아파트'},</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -16758,7 +17047,7 @@
         <v>1650</v>
       </c>
       <c r="G323" t="str">
-        <f t="shared" ref="G323:G360" si="5">"{name:" &amp; "['"&amp;A323&amp;"'"&amp;IF(ISBLANK(B323),"",",'"&amp;B323&amp;"'")&amp;"],addr:" &amp; "'" &amp;C323&amp;"',x:"&amp; "'" &amp;D323&amp;"',y:"&amp; "'" &amp;E323&amp;"',jibun:"&amp; "'" &amp;F323&amp;"'},"</f>
+        <f t="shared" ref="G323:G379" si="5">"{name:" &amp; "['"&amp;A323&amp;"'"&amp;IF(ISBLANK(B323),"",",'"&amp;B323&amp;"'")&amp;"],addr:" &amp; "'" &amp;C323&amp;"',x:"&amp; "'" &amp;D323&amp;"',y:"&amp; "'" &amp;E323&amp;"',jibun:"&amp; "'" &amp;F323&amp;"'},"</f>
         <v>{name:['시흥삼성점G'],addr:'경기도 시흥시 시흥대로1074번길 10',x:'937533.3139552183',y:'1937160.6429582676',jibun:'경기도 시흥시 은행동 289-11 삼성홈타운상가동'},</v>
       </c>
     </row>
@@ -17537,6 +17826,405 @@
       <c r="G360" t="str">
         <f t="shared" si="5"/>
         <v>{name:['시흥베스트점G'],addr:'경기도 시흥시 호현로40번길 17',x:'936929.1198080769',y:'1938473.903526077',jibun:'경기도 시흥시 대야동 492-23 새벽종교회'},</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G361" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['시흥검바위점G'],addr:'경기도 시흥시 검바위2로 31-1',x:'937718.0878702197',y:'1937212.6612922186',jibun:'경기도 시흥시 은행동 276-15 광덕빌라트'},</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G362" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['은계샤르망점G'],addr:'경기도 시흥시 은계번영길 40',x:'938299.4457090907',y:'1937715.993534084',jibun:'경기도 시흥시 은행동 147-2 샤르망프라자'},</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G363" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['시흥소래산점M'],addr:'경기도 시흥시 호현로85번길 10',x:'936921.0398239132',y:'1938953.7183743403',jibun:'경기도 시흥시 대야동 461'},</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G364" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['세븐일레븐-인천문학공원점'],addr:'인천광역시 미추홀구 소성로 300',x:'927494.3803381128',y:'1937917.6184262522',jibun:'인천광역시 미추홀구 문학동 361-3'},</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G365" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['주안구판장 결합부스'],addr:'인천광역시 미추홀구 인하로 348',x:'928079.9149246542',y:'1939061.0098456866',jibun:'인천광역시 미추홀구 주안동 1523-5'},</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G366" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['인천관교점G'],addr:'인천광역시 미추홀구 주승로 224',x:'928715.7043376276',y:'1938514.1561488747',jibun:'인천광역시 미추홀구 관교동 492-5'},</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G367" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['구월성의점G'],addr:'인천광역시 남동구 구월말로27번길 65',x:'931083.1583956',y:'1939428.8302239468',jibun:'인천광역시 남동구 구월동 1276-31'},</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G368" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['만수뉴서울점G'],addr:'인천광역시 남동구 담방로21번길 61',x:'932346.7585759116',y:'1938304.6844734782',jibun:'인천광역시 남동구 만수동 1044 뉴서울아파트'},</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G369" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['만수향촌점G'],addr:'인천광역시 남동구 만수서로 36',x:'931914.2900131517',y:'1940515.0279400973',jibun:'인천광역시 남동구 만수동 1116-1 향촌휴먼시아2단지아파트'},</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G370" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['구월시청점M'],addr:'인천광역시 남동구 미래로 21',x:'929604.1212639669',y:'1939485.5757794832',jibun:'인천광역시 남동구 구월동 1129-17 SR노빌리안2'},</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G371" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['인천광장점G'],addr:'인천광역시 남동구 미래로 45',x:'929611.4970598868',y:'1939747.7201584768',jibun:'인천광역시 남동구 구월동 1136-14 벤처빌딩'},</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G372" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['간석영풍점G'],addr:'인천광역시 남동구 백범로248번길 9',x:'931169.3115021433',y:'1940507.71074063',jibun:'인천광역시 남동구 간석동 921-3'},</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G373" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['만수리치점G'],addr:'인천광역시 남동구 서판로54번길 54',x:'931476.5820329033',y:'1940554.3699378832',jibun:'인천광역시 남동구 만수동 854-43'},</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="G374" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['인천남동로점G'],addr:'인천광역시 남동구 성말로53번길 1',x:'929802.7694909978',y:'1938744.0220090281',jibun:'인천광역시 남동구 구월동 1164-30 삼성마이빌'},</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G375" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['만수전원점G'],addr:'인천광역시 남동구 인주대로887번길 71',x:'932602.1103084101',y:'1939384.4498349032',jibun:'인천광역시 남동구 만수동 423-15 현대빌딩'},</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G376" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['남동프라자점G'],addr:'인천광역시 남동구 장승남로 62',x:'932685.0842282202',y:'1938504.1663884465',jibun:'인천광역시 남동구 만수동 1039 기성빌딩'},</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G377" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['경기하이퍼 결합부스'],addr:'인천광역시 남동구 장승남로47번길 32-17',x:'932645.9048994132',y:'1938709.3671599966',jibun:'인천광역시 남동구 만수동 1024-8'},</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G378" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['은계포레점G'],addr:'경기도 시흥시 은계중앙로 140',x:'938612.3524956303',y:'1938052.355530308',jibun:'경기도 시흥시 은행동 3-1 네이처포레'},</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G379" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['영마트-태화점'],addr:'인천광역시 남동구 만수로75번길 21',x:'932411.4956874',y:'1940728.005343177',jibun:'인천광역시 남동구 만수동 5-9 태화아파트및상가'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="1912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="1942">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -5817,6 +5817,96 @@
   </si>
   <si>
     <t>1940728.005343177</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천6길 43</t>
+  </si>
+  <si>
+    <t>신천빌라점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 용천로 87</t>
+  </si>
+  <si>
+    <t>구월흥인점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 장승남로33번길 9</t>
+  </si>
+  <si>
+    <t>남동초교점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천로19번길 26-1</t>
+  </si>
+  <si>
+    <t>시흥신일점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월로137번길 26</t>
+  </si>
+  <si>
+    <t>간석서해점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 미래로 30</t>
+  </si>
+  <si>
+    <t>이마트24-구월어반스테이점</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천동 821-1</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 70-14 흥인빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 1018 대동아파트상가</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천동 875-16</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 간석동 356</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1142-2</t>
+  </si>
+  <si>
+    <t>936071.0957837768</t>
+  </si>
+  <si>
+    <t>930535.30612308</t>
+  </si>
+  <si>
+    <t>932397.2818230153</t>
+  </si>
+  <si>
+    <t>937223.39382849</t>
+  </si>
+  <si>
+    <t>929753.1266847535</t>
+  </si>
+  <si>
+    <t>929702.0446417825</t>
+  </si>
+  <si>
+    <t>1937808.7422609236</t>
+  </si>
+  <si>
+    <t>1940098.3334763101</t>
+  </si>
+  <si>
+    <t>1938559.3518178891</t>
+  </si>
+  <si>
+    <t>1937149.55268041</t>
+  </si>
+  <si>
+    <t>1940172.8454499203</t>
+  </si>
+  <si>
+    <t>1939557.1948395409</t>
   </si>
 </sst>
 </file>
@@ -10228,10 +10318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G379"/>
+  <dimension ref="A1:G385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17047,7 +17137,7 @@
         <v>1650</v>
       </c>
       <c r="G323" t="str">
-        <f t="shared" ref="G323:G379" si="5">"{name:" &amp; "['"&amp;A323&amp;"'"&amp;IF(ISBLANK(B323),"",",'"&amp;B323&amp;"'")&amp;"],addr:" &amp; "'" &amp;C323&amp;"',x:"&amp; "'" &amp;D323&amp;"',y:"&amp; "'" &amp;E323&amp;"',jibun:"&amp; "'" &amp;F323&amp;"'},"</f>
+        <f t="shared" ref="G323:G385" si="5">"{name:" &amp; "['"&amp;A323&amp;"'"&amp;IF(ISBLANK(B323),"",",'"&amp;B323&amp;"'")&amp;"],addr:" &amp; "'" &amp;C323&amp;"',x:"&amp; "'" &amp;D323&amp;"',y:"&amp; "'" &amp;E323&amp;"',jibun:"&amp; "'" &amp;F323&amp;"'},"</f>
         <v>{name:['시흥삼성점G'],addr:'경기도 시흥시 시흥대로1074번길 10',x:'937533.3139552183',y:'1937160.6429582676',jibun:'경기도 시흥시 은행동 289-11 삼성홈타운상가동'},</v>
       </c>
     </row>
@@ -18225,6 +18315,132 @@
       <c r="G379" t="str">
         <f t="shared" si="5"/>
         <v>{name:['영마트-태화점'],addr:'인천광역시 남동구 만수로75번길 21',x:'932411.4956874',y:'1940728.005343177',jibun:'인천광역시 남동구 만수동 5-9 태화아파트및상가'},</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G380" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['신천빌라점G'],addr:'경기도 시흥시 신천6길 43',x:'936071.0957837768',y:'1937808.7422609236',jibun:'경기도 시흥시 신천동 821-1'},</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G381" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['구월흥인점G'],addr:'인천광역시 남동구 용천로 87',x:'930535.30612308',y:'1940098.3334763101',jibun:'인천광역시 남동구 구월동 70-14 흥인빌딩'},</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G382" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['남동초교점G'],addr:'인천광역시 남동구 장승남로33번길 9',x:'932397.2818230153',y:'1938559.3518178891',jibun:'인천광역시 남동구 만수동 1018 대동아파트상가'},</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G383" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['시흥신일점G'],addr:'경기도 시흥시 신천로19번길 26-1',x:'937223.39382849',y:'1937149.55268041',jibun:'경기도 시흥시 신천동 875-16'},</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G384" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['간석서해점G'],addr:'인천광역시 남동구 구월로137번길 26',x:'929753.1266847535',y:'1940172.8454499203',jibun:'인천광역시 남동구 간석동 356'},</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="G385" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['이마트24-구월어반스테이점'],addr:'인천광역시 남동구 미래로 30',x:'929702.0446417825',y:'1939557.1948395409',jibun:'인천광역시 남동구 구월동 1142-2'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="1942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="2007">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -5907,6 +5907,202 @@
   </si>
   <si>
     <t>1939557.1948395409</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대은로 8-10</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 문화마을로16번길 60</t>
+  </si>
+  <si>
+    <t>시흥푸르지오점G</t>
+  </si>
+  <si>
+    <t>시흥문화점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행로 107</t>
+  </si>
+  <si>
+    <t>시흥대우점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 호현로9번길 5</t>
+  </si>
+  <si>
+    <t>시흥무지개점G</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 매소홀로562번길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구문학점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월로8번길 98</t>
+  </si>
+  <si>
+    <t>간석마루점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월말로 106</t>
+  </si>
+  <si>
+    <t>만수상아점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 문화서로 76</t>
+  </si>
+  <si>
+    <t>구월한주G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 서판로 28</t>
+  </si>
+  <si>
+    <t>만수대성점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 선수촌로 55</t>
+  </si>
+  <si>
+    <t>구월자이점M</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 선수촌로 75</t>
+  </si>
+  <si>
+    <t>구월한내들점M</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 인주대로626번길 7</t>
+  </si>
+  <si>
+    <t>구월중앙점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 호구포로876번길 24</t>
+  </si>
+  <si>
+    <t>구월동남점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 559-3 강원빌딩</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대야동 477-8 은성빌딩</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 549-1 대우아파트</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천동 713-3 성지타워1차</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 문학동 378-11</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 간석동 508-25</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 895 삼현빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1106 한주빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 844-1</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1510 구월아시아드선수촌센트럴자이</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1508 구월유승한내들퍼스티지</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 201-34 중앙아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1252-4</t>
+  </si>
+  <si>
+    <t>937522.1260933033</t>
+  </si>
+  <si>
+    <t>936815.4522727432</t>
+  </si>
+  <si>
+    <t>937897.6990357444</t>
+  </si>
+  <si>
+    <t>936566.1943422267</t>
+  </si>
+  <si>
+    <t>927831.2546284539</t>
+  </si>
+  <si>
+    <t>928936.8971171135</t>
+  </si>
+  <si>
+    <t>931509.5503993765</t>
+  </si>
+  <si>
+    <t>928954.4307899901</t>
+  </si>
+  <si>
+    <t>931350.8279977103</t>
+  </si>
+  <si>
+    <t>930516.3469377453</t>
+  </si>
+  <si>
+    <t>930698.6749105807</t>
+  </si>
+  <si>
+    <t>929827.0042717366</t>
+  </si>
+  <si>
+    <t>931159.1437765434</t>
+  </si>
+  <si>
+    <t>1938044.6412441102</t>
+  </si>
+  <si>
+    <t>1938771.1156824138</t>
+  </si>
+  <si>
+    <t>1938242.1848908933</t>
+  </si>
+  <si>
+    <t>1938339.0252667097</t>
+  </si>
+  <si>
+    <t>1937994.7619667053</t>
+  </si>
+  <si>
+    <t>1939974.46404653</t>
+  </si>
+  <si>
+    <t>1940207.8016171437</t>
+  </si>
+  <si>
+    <t>1939507.1497741132</t>
+  </si>
+  <si>
+    <t>1940711.1365075116</t>
+  </si>
+  <si>
+    <t>1938618.2105483366</t>
+  </si>
+  <si>
+    <t>1938734.335723808</t>
+  </si>
+  <si>
+    <t>1939197.1014176034</t>
+  </si>
+  <si>
+    <t>1940397.26027429</t>
   </si>
 </sst>
 </file>
@@ -10318,10 +10514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G385"/>
+  <dimension ref="A1:G398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="E356" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17137,7 +17333,7 @@
         <v>1650</v>
       </c>
       <c r="G323" t="str">
-        <f t="shared" ref="G323:G385" si="5">"{name:" &amp; "['"&amp;A323&amp;"'"&amp;IF(ISBLANK(B323),"",",'"&amp;B323&amp;"'")&amp;"],addr:" &amp; "'" &amp;C323&amp;"',x:"&amp; "'" &amp;D323&amp;"',y:"&amp; "'" &amp;E323&amp;"',jibun:"&amp; "'" &amp;F323&amp;"'},"</f>
+        <f t="shared" ref="G323:G386" si="5">"{name:" &amp; "['"&amp;A323&amp;"'"&amp;IF(ISBLANK(B323),"",",'"&amp;B323&amp;"'")&amp;"],addr:" &amp; "'" &amp;C323&amp;"',x:"&amp; "'" &amp;D323&amp;"',y:"&amp; "'" &amp;E323&amp;"',jibun:"&amp; "'" &amp;F323&amp;"'},"</f>
         <v>{name:['시흥삼성점G'],addr:'경기도 시흥시 시흥대로1074번길 10',x:'937533.3139552183',y:'1937160.6429582676',jibun:'경기도 시흥시 은행동 289-11 삼성홈타운상가동'},</v>
       </c>
     </row>
@@ -18441,6 +18637,279 @@
       <c r="G385" t="str">
         <f t="shared" si="5"/>
         <v>{name:['이마트24-구월어반스테이점'],addr:'인천광역시 남동구 미래로 30',x:'929702.0446417825',y:'1939557.1948395409',jibun:'인천광역시 남동구 구월동 1142-2'},</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="G386" t="str">
+        <f t="shared" si="5"/>
+        <v>{name:['시흥푸르지오점G'],addr:'경기도 시흥시 대은로 8-10',x:'937522.1260933033',y:'1938044.6412441102',jibun:'경기도 시흥시 은행동 559-3 강원빌딩'},</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="G387" t="str">
+        <f t="shared" ref="G387:G398" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G388" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['시흥대우점G'],addr:'경기도 시흥시 은행로 107',x:'937897.6990357444',y:'1938242.1848908933',jibun:'경기도 시흥시 은행동 549-1 대우아파트'},</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="G389" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['시흥무지개점G'],addr:'경기도 시흥시 호현로9번길 5',x:'936566.1943422267',y:'1938339.0252667097',jibun:'경기도 시흥시 신천동 713-3 성지타워1차'},</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G390" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['남구문학점G'],addr:'인천광역시 미추홀구 매소홀로562번길',x:'927831.2546284539',y:'1937994.7619667053',jibun:'인천광역시 미추홀구 문학동 378-11'},</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G391" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['간석마루점G'],addr:'인천광역시 남동구 구월로8번길 98',x:'928936.8971171135',y:'1939974.46404653',jibun:'인천광역시 남동구 간석동 508-25'},</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G392" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['만수상아점G'],addr:'인천광역시 남동구 구월말로 106',x:'931509.5503993765',y:'1940207.8016171437',jibun:'인천광역시 남동구 만수동 895 삼현빌딩'},</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="G393" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['구월한주G'],addr:'인천광역시 남동구 문화서로 76',x:'928954.4307899901',y:'1939507.1497741132',jibun:'인천광역시 남동구 구월동 1106 한주빌딩'},</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G394" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['만수대성점G'],addr:'인천광역시 남동구 서판로 28',x:'931350.8279977103',y:'1940711.1365075116',jibun:'인천광역시 남동구 만수동 844-1'},</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G395" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['구월자이점M'],addr:'인천광역시 남동구 선수촌로 55',x:'930516.3469377453',y:'1938618.2105483366',jibun:'인천광역시 남동구 구월동 1510 구월아시아드선수촌센트럴자이'},</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G396" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['구월한내들점M'],addr:'인천광역시 남동구 선수촌로 75',x:'930698.6749105807',y:'1938734.335723808',jibun:'인천광역시 남동구 구월동 1508 구월유승한내들퍼스티지'},</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G397" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['구월중앙점G'],addr:'인천광역시 남동구 인주대로626번길 7',x:'929827.0042717366',y:'1939197.1014176034',jibun:'인천광역시 남동구 구월동 201-34 중앙아파트'},</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="G398" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['구월동남점G'],addr:'인천광역시 남동구 호구포로876번길 24',x:'931159.1437765434',y:'1940397.26027429',jibun:'인천광역시 남동구 구월동 1252-4'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="2007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="2022">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6103,6 +6103,51 @@
   </si>
   <si>
     <t>1940397.26027429</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 문화서로4번길 2</t>
+  </si>
+  <si>
+    <t>구월인하점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 예술로 206</t>
+  </si>
+  <si>
+    <t>구월프라자점G</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 소성로 285</t>
+  </si>
+  <si>
+    <t>인천문학점-씨유</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1398</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1131-3 구월중앙프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 문학동 356-9</t>
+  </si>
+  <si>
+    <t>928818.4091741769</t>
+  </si>
+  <si>
+    <t>929385.9825520937</t>
+  </si>
+  <si>
+    <t>927359.8459166149</t>
+  </si>
+  <si>
+    <t>1938799.5275694104</t>
+  </si>
+  <si>
+    <t>1939546.8705838537</t>
+  </si>
+  <si>
+    <t>1937922.929441073</t>
   </si>
 </sst>
 </file>
@@ -10514,10 +10559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G398"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E356" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18677,7 +18722,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G398" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G401" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -18910,6 +18955,69 @@
       <c r="G398" t="str">
         <f t="shared" si="6"/>
         <v>{name:['구월동남점G'],addr:'인천광역시 남동구 호구포로876번길 24',x:'931159.1437765434',y:'1940397.26027429',jibun:'인천광역시 남동구 구월동 1252-4'},</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C399" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G399" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['구월인하점G'],addr:'인천광역시 남동구 문화서로4번길 2',x:'928818.4091741769',y:'1938799.5275694104',jibun:'인천광역시 남동구 구월동 1398'},</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C400" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G400" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['구월프라자점G'],addr:'인천광역시 남동구 예술로 206',x:'929385.9825520937',y:'1939546.8705838537',jibun:'인천광역시 남동구 구월동 1131-3 구월중앙프라자'},</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C401" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G401" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['인천문학점-씨유'],addr:'인천광역시 미추홀구 소성로 285',x:'927359.8459166149',y:'1937922.929441073',jibun:'인천광역시 미추홀구 문학동 356-9'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="2037">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6148,6 +6148,51 @@
   </si>
   <si>
     <t>1937922.929441073</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 경인로524번길 24</t>
+  </si>
+  <si>
+    <t>간석중앙점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 서창남순환로 201</t>
+  </si>
+  <si>
+    <t>서창8단지점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 용천로176번길 90</t>
+  </si>
+  <si>
+    <t>간석주공점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 간석동 519-4</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 서창동 692 서창LH8단지</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 간석동 941 간석LH2단지상가2동</t>
+  </si>
+  <si>
+    <t>929051.0714820498</t>
+  </si>
+  <si>
+    <t>933348.3352520128</t>
+  </si>
+  <si>
+    <t>930961.1006649267</t>
+  </si>
+  <si>
+    <t>1940397.0512255114</t>
+  </si>
+  <si>
+    <t>1936380.2884483607</t>
+  </si>
+  <si>
+    <t>1940890.2595732687</t>
   </si>
 </sst>
 </file>
@@ -10559,10 +10604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G401"/>
+  <dimension ref="A1:G404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="E383" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G409" sqref="G409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18722,7 +18767,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G401" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G404" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -19018,6 +19063,69 @@
       <c r="G401" t="str">
         <f t="shared" si="6"/>
         <v>{name:['인천문학점-씨유'],addr:'인천광역시 미추홀구 소성로 285',x:'927359.8459166149',y:'1937922.929441073',jibun:'인천광역시 미추홀구 문학동 356-9'},</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C402" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G402" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['간석중앙점G'],addr:'인천광역시 남동구 경인로524번길 24',x:'929051.0714820498',y:'1940397.0512255114',jibun:'인천광역시 남동구 간석동 519-4'},</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C403" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G403" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['서창8단지점G'],addr:'인천광역시 남동구 서창남순환로 201',x:'933348.3352520128',y:'1936380.2884483607',jibun:'인천광역시 남동구 서창동 692 서창LH8단지'},</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C404" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G404" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['간석주공점G'],addr:'인천광역시 남동구 용천로176번길 90',x:'930961.1006649267',y:'1940890.2595732687',jibun:'인천광역시 남동구 간석동 941 간석LH2단지상가2동'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="2037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3069" uniqueCount="2112">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6193,6 +6193,232 @@
   </si>
   <si>
     <t>1940890.2595732687</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대야로 4</t>
+  </si>
+  <si>
+    <t>시흥햇빛점G</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 경원대로 780</t>
+  </si>
+  <si>
+    <t>인천승기점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수로94번길 5</t>
+  </si>
+  <si>
+    <t>인천만수로점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 문화로169번길 83</t>
+  </si>
+  <si>
+    <t>구월문화로점M</t>
+  </si>
+  <si>
+    <t>서창휴먼시아점M</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 서창남순환로 190-100</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 호구포로 803</t>
+  </si>
+  <si>
+    <t>롯데캐슬</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월로 192</t>
+  </si>
+  <si>
+    <t>현대힐스</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 문화로 147</t>
+  </si>
+  <si>
+    <t>건설회관</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 장승남로 61</t>
+  </si>
+  <si>
+    <t>만수6동</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 서창남순환로 222</t>
+  </si>
+  <si>
+    <t>서창365</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대은로 82</t>
+  </si>
+  <si>
+    <t>시흥365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 남동구 남동대로 671</t>
+  </si>
+  <si>
+    <t>구월농산물</t>
+  </si>
+  <si>
+    <t>길병원본관</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 남동대로774번길 21</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 남동대로 880</t>
+  </si>
+  <si>
+    <t>간석동 신한은행</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수서로 55</t>
+  </si>
+  <si>
+    <t>향촌 우리은행</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 대야동 490-5 신천연합농수산물센터</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1559</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 5-301</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1086-24</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 서창동 695 서창LH6단지아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 24 롯데캐슬골드2단지아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 23 힐스테이트롯데캐슬골드1단지아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1092-55 건설회관</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 1030 인일프라자</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 서창동 707-1 센타프라자</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 536-1 아슈레빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1446 구월농산물도매시장</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1198 가천대학교 길병원</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 간석동 205-1 올리브백화점</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 1115-1 향촌휴먼시아1단지아파트</t>
+  </si>
+  <si>
+    <t>937084.4043346511</t>
+  </si>
+  <si>
+    <t>928361.7915417231</t>
+  </si>
+  <si>
+    <t>932549.6844321366</t>
+  </si>
+  <si>
+    <t>928860.4943213367</t>
+  </si>
+  <si>
+    <t>933015.5188456462</t>
+  </si>
+  <si>
+    <t>930913.934436006</t>
+  </si>
+  <si>
+    <t>930285.8875235289</t>
+  </si>
+  <si>
+    <t>929198.5957241058</t>
+  </si>
+  <si>
+    <t>932688.0382481434</t>
+  </si>
+  <si>
+    <t>933593.5179375834</t>
+  </si>
+  <si>
+    <t>937866.1110966771</t>
+  </si>
+  <si>
+    <t>929787.1072834146</t>
+  </si>
+  <si>
+    <t>930062.7198308457</t>
+  </si>
+  <si>
+    <t>930034.1690580901</t>
+  </si>
+  <si>
+    <t>932102.3171945997</t>
+  </si>
+  <si>
+    <t>1938535.2508825548</t>
+  </si>
+  <si>
+    <t>1939536.7244234206</t>
+  </si>
+  <si>
+    <t>1940740.8594403602</t>
+  </si>
+  <si>
+    <t>1939889.3334715203</t>
+  </si>
+  <si>
+    <t>1936433.555030746</t>
+  </si>
+  <si>
+    <t>1939727.020357484</t>
+  </si>
+  <si>
+    <t>1939984.6584816729</t>
+  </si>
+  <si>
+    <t>1939533.7048255065</t>
+  </si>
+  <si>
+    <t>1938549.619723807</t>
+  </si>
+  <si>
+    <t>1936375.8348765397</t>
+  </si>
+  <si>
+    <t>1938590.4256620156</t>
+  </si>
+  <si>
+    <t>1938418.4253733633</t>
+  </si>
+  <si>
+    <t>1939428.0753468447</t>
+  </si>
+  <si>
+    <t>1940489.1820364003</t>
+  </si>
+  <si>
+    <t>1940572.2487998623</t>
   </si>
 </sst>
 </file>
@@ -10604,10 +10830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G404"/>
+  <dimension ref="A1:G419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E383" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G409" sqref="G409"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18767,7 +18993,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G404" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G419" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -19126,6 +19352,321 @@
       <c r="G404" t="str">
         <f t="shared" si="6"/>
         <v>{name:['간석주공점G'],addr:'인천광역시 남동구 용천로176번길 90',x:'930961.1006649267',y:'1940890.2595732687',jibun:'인천광역시 남동구 간석동 941 간석LH2단지상가2동'},</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C405" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G405" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['시흥햇빛점G'],addr:'경기도 시흥시 대야로 4',x:'937084.4043346511',y:'1938535.2508825548',jibun:'경기도 시흥시 대야동 490-5 신천연합농수산물센터'},</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C406" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G406" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['인천승기점G'],addr:'인천광역시 미추홀구 경원대로 780',x:'928361.7915417231',y:'1939536.7244234206',jibun:'인천광역시 미추홀구 주안동 1559'},</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C407" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="G407" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['인천만수로점G'],addr:'인천광역시 남동구 만수로94번길 5',x:'932549.6844321366',y:'1940740.8594403602',jibun:'인천광역시 남동구 만수동 5-301'},</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C408" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G408" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['구월문화로점M'],addr:'인천광역시 남동구 문화로169번길 83',x:'928860.4943213367',y:'1939889.3334715203',jibun:'인천광역시 남동구 구월동 1086-24'},</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C409" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G409" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['서창휴먼시아점M'],addr:'인천광역시 남동구 서창남순환로 190-100',x:'933015.5188456462',y:'1936433.555030746',jibun:'인천광역시 남동구 서창동 695 서창LH6단지아파트'},</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C410" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="G410" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['롯데캐슬'],addr:'인천광역시 남동구 호구포로 803',x:'930913.934436006',y:'1939727.020357484',jibun:'인천광역시 남동구 구월동 24 롯데캐슬골드2단지아파트'},</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C411" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="G411" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['현대힐스'],addr:'인천광역시 남동구 구월로 192',x:'930285.8875235289',y:'1939984.6584816729',jibun:'인천광역시 남동구 구월동 23 힐스테이트롯데캐슬골드1단지아파트'},</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C412" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="G412" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['건설회관'],addr:'인천광역시 남동구 문화로 147',x:'929198.5957241058',y:'1939533.7048255065',jibun:'인천광역시 남동구 구월동 1092-55 건설회관'},</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C413" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G413" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['만수6동'],addr:'인천광역시 남동구 장승남로 61',x:'932688.0382481434',y:'1938549.619723807',jibun:'인천광역시 남동구 만수동 1030 인일프라자'},</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C414" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="G414" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['서창365'],addr:'인천광역시 남동구 서창남순환로 222',x:'933593.5179375834',y:'1936375.8348765397',jibun:'인천광역시 남동구 서창동 707-1 센타프라자'},</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C415" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G415" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['시흥365'],addr:'경기도 시흥시 대은로 82',x:'937866.1110966771',y:'1938590.4256620156',jibun:'경기도 시흥시 은행동 536-1 아슈레빌딩'},</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C416" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G416" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['구월농산물'],addr:'인천광역시 남동구 남동대로 671',x:'929787.1072834146',y:'1938418.4253733633',jibun:'인천광역시 남동구 구월동 1446 구월농산물도매시장'},</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C417" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G417" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['길병원본관'],addr:'인천광역시 남동구 남동대로774번길 21',x:'930062.7198308457',y:'1939428.0753468447',jibun:'인천광역시 남동구 구월동 1198 가천대학교 길병원'},</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C418" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="G418" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['간석동 신한은행'],addr:'인천광역시 남동구 남동대로 880',x:'930034.1690580901',y:'1940489.1820364003',jibun:'인천광역시 남동구 간석동 205-1 올리브백화점'},</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C419" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="G419" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['향촌 우리은행'],addr:'인천광역시 남동구 만수서로 55',x:'932102.3171945997',y:'1940572.2487998623',jibun:'인천광역시 남동구 만수동 1115-1 향촌휴먼시아1단지아파트'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3069" uniqueCount="2112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="2122">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6419,6 +6419,36 @@
   </si>
   <si>
     <t>1940572.2487998623</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 예술로 230</t>
+  </si>
+  <si>
+    <t>구월스타점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 백범로124번길 43</t>
+  </si>
+  <si>
+    <t>만수주공</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1135-1 청진네오스빌</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 29 만수주공2단지아파트</t>
+  </si>
+  <si>
+    <t>929430.1134391434</t>
+  </si>
+  <si>
+    <t>932332.083018167</t>
+  </si>
+  <si>
+    <t>1939784.22944688</t>
+  </si>
+  <si>
+    <t>1939983.6353376233</t>
   </si>
 </sst>
 </file>
@@ -10830,10 +10860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G419"/>
+  <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="E403" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F424" sqref="F424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18993,7 +19023,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G419" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G421" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -19667,6 +19697,48 @@
       <c r="G419" t="str">
         <f t="shared" si="6"/>
         <v>{name:['향촌 우리은행'],addr:'인천광역시 남동구 만수서로 55',x:'932102.3171945997',y:'1940572.2487998623',jibun:'인천광역시 남동구 만수동 1115-1 향촌휴먼시아1단지아파트'},</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C420" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="G420" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['구월스타점G'],addr:'인천광역시 남동구 예술로 230',x:'929430.1134391434',y:'1939784.22944688',jibun:'인천광역시 남동구 구월동 1135-1 청진네오스빌'},</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C421" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="G421" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['만수주공'],addr:'인천광역시 남동구 백범로124번길 43',x:'932332.083018167',y:'1939983.6353376233',jibun:'인천광역시 남동구 만수동 29 만수주공2단지아파트'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="2122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="2127">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6449,6 +6449,21 @@
   </si>
   <si>
     <t>1939983.6353376233</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은계남로 12</t>
+  </si>
+  <si>
+    <t>은계호반점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 150 시흥은계 호반 써밋플레이스</t>
+  </si>
+  <si>
+    <t>938330.5440385365</t>
+  </si>
+  <si>
+    <t>1937536.5312286941</t>
   </si>
 </sst>
 </file>
@@ -10860,10 +10875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G421"/>
+  <dimension ref="A1:G422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E403" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F424" sqref="F424"/>
+    <sheetView tabSelected="1" topLeftCell="G403" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G415" sqref="G415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19023,7 +19038,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G421" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G422" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -19739,6 +19754,27 @@
       <c r="G421" t="str">
         <f t="shared" si="6"/>
         <v>{name:['만수주공'],addr:'인천광역시 남동구 백범로124번길 43',x:'932332.083018167',y:'1939983.6353376233',jibun:'인천광역시 남동구 만수동 29 만수주공2단지아파트'},</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C422" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="G422" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['은계호반점G'],addr:'경기도 시흥시 은계남로 12',x:'938330.5440385365',y:'1937536.5312286941',jibun:'경기도 시흥시 은행동 150 시흥은계 호반 써밋플레이스'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="2127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="2132">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6464,6 +6464,21 @@
   </si>
   <si>
     <t>1937536.5312286941</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 예술로 172</t>
+  </si>
+  <si>
+    <t>유안타증권</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1408 예술회관역</t>
+  </si>
+  <si>
+    <t>929342.5534276469</t>
+  </si>
+  <si>
+    <t>1939217.2320187702</t>
   </si>
 </sst>
 </file>
@@ -10875,10 +10890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G422"/>
+  <dimension ref="A1:G423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G403" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G415" sqref="G415"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19038,7 +19053,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G422" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G423" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -19775,6 +19790,27 @@
       <c r="G422" t="str">
         <f t="shared" si="6"/>
         <v>{name:['은계호반점G'],addr:'경기도 시흥시 은계남로 12',x:'938330.5440385365',y:'1937536.5312286941',jibun:'경기도 시흥시 은행동 150 시흥은계 호반 써밋플레이스'},</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C423" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G423" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['유안타증권'],addr:'인천광역시 남동구 예술로 172',x:'929342.5534276469',y:'1939217.2320187702',jibun:'인천광역시 남동구 구월동 1408 예술회관역'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="2132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="2137">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6479,6 +6479,21 @@
   </si>
   <si>
     <t>1939217.2320187702</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 인주대로 611</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1146-10 삼성생명 구월동빌딩</t>
+  </si>
+  <si>
+    <t>929689.8052070502</t>
+  </si>
+  <si>
+    <t>1939305.6128346669</t>
   </si>
 </sst>
 </file>
@@ -10890,10 +10905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G423"/>
+  <dimension ref="A1:G424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C425" sqref="C425"/>
+    <sheetView tabSelected="1" topLeftCell="G403" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G426" sqref="G426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19053,7 +19068,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G423" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G424" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -19811,6 +19826,27 @@
       <c r="G423" t="str">
         <f t="shared" si="6"/>
         <v>{name:['유안타증권'],addr:'인천광역시 남동구 예술로 172',x:'929342.5534276469',y:'1939217.2320187702',jibun:'인천광역시 남동구 구월동 1408 예술회관역'},</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C424" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G424" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['삼성생명'],addr:'인천광역시 남동구 인주대로 611',x:'929689.8052070502',y:'1939305.6128346669',jibun:'인천광역시 남동구 구월동 1146-10 삼성생명 구월동빌딩'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="2137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="2142">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6494,6 +6494,21 @@
   </si>
   <si>
     <t>1939305.6128346669</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 소성로350번길 19-6</t>
+  </si>
+  <si>
+    <t>인천문학점G</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 문학동 394-1 유성주택</t>
+  </si>
+  <si>
+    <t>928000.0658053046</t>
+  </si>
+  <si>
+    <t>1937780.4169045752</t>
   </si>
 </sst>
 </file>
@@ -10905,10 +10920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G424"/>
+  <dimension ref="A1:G425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G403" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G426" sqref="G426"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D426" sqref="D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19068,7 +19083,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G424" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G425" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -19847,6 +19862,27 @@
       <c r="G424" t="str">
         <f t="shared" si="6"/>
         <v>{name:['삼성생명'],addr:'인천광역시 남동구 인주대로 611',x:'929689.8052070502',y:'1939305.6128346669',jibun:'인천광역시 남동구 구월동 1146-10 삼성생명 구월동빌딩'},</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C425" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="G425" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['인천문학점G'],addr:'인천광역시 미추홀구 소성로350번길 19-6',x:'928000.0658053046',y:'1937780.4169045752',jibun:'인천광역시 미추홀구 문학동 394-1 유성주택'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="2142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="2147">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6509,6 +6509,21 @@
   </si>
   <si>
     <t>1937780.4169045752</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행로 21</t>
+  </si>
+  <si>
+    <t>시흥중앙테크노G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천동 86 중앙테크노타운</t>
+  </si>
+  <si>
+    <t>937481.28480594</t>
+  </si>
+  <si>
+    <t>1937489.7592714303</t>
   </si>
 </sst>
 </file>
@@ -10920,10 +10935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G425"/>
+  <dimension ref="A1:G426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D426" sqref="D426"/>
+    <sheetView tabSelected="1" topLeftCell="G403" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G413" sqref="G413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19083,7 +19098,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G425" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G426" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -19883,6 +19898,27 @@
       <c r="G425" t="str">
         <f t="shared" si="6"/>
         <v>{name:['인천문학점G'],addr:'인천광역시 미추홀구 소성로350번길 19-6',x:'928000.0658053046',y:'1937780.4169045752',jibun:'인천광역시 미추홀구 문학동 394-1 유성주택'},</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C426" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G426" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['시흥중앙테크노G'],addr:'경기도 시흥시 은행로 21',x:'937481.28480594',y:'1937489.7592714303',jibun:'경기도 시흥시 신천동 86 중앙테크노타운'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="2147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="2157">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6524,6 +6524,36 @@
   </si>
   <si>
     <t>1937489.7592714303</t>
+  </si>
+  <si>
+    <t>구월아트뷰점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 예술로192번길 32</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 승학길 6</t>
+  </si>
+  <si>
+    <t>문학중앙점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1128-1 아트뷰타워</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 문학동 337-1</t>
+  </si>
+  <si>
+    <t>929495.8975341667</t>
+  </si>
+  <si>
+    <t>927413.3712631958</t>
+  </si>
+  <si>
+    <t>1939349.9480673335</t>
+  </si>
+  <si>
+    <t>1938148.3658178058</t>
   </si>
 </sst>
 </file>
@@ -10935,10 +10965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G426"/>
+  <dimension ref="A1:G428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G403" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G413" sqref="G413"/>
+    <sheetView tabSelected="1" topLeftCell="G412" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G434" sqref="G434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19098,7 +19128,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G426" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G428" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -19919,6 +19949,48 @@
       <c r="G426" t="str">
         <f t="shared" si="6"/>
         <v>{name:['시흥중앙테크노G'],addr:'경기도 시흥시 은행로 21',x:'937481.28480594',y:'1937489.7592714303',jibun:'경기도 시흥시 신천동 86 중앙테크노타운'},</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C427" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G427" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['구월아트뷰점G'],addr:'인천광역시 남동구 예술로192번길 32',x:'929495.8975341667',y:'1939349.9480673335',jibun:'인천광역시 남동구 구월동 1128-1 아트뷰타워'},</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C428" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G428" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['문학중앙점G'],addr:'인천광역시 미추홀구 승학길 6',x:'927413.3712631958',y:'1938148.3658178058',jibun:'인천광역시 미추홀구 문학동 337-1'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="2157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="2162">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6554,6 +6554,21 @@
   </si>
   <si>
     <t>1938148.3658178058</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 남동대로774번길 35</t>
+  </si>
+  <si>
+    <t>남동제일점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1201-23</t>
+  </si>
+  <si>
+    <t>930134.2262021569</t>
+  </si>
+  <si>
+    <t>1939421.74141608</t>
   </si>
 </sst>
 </file>
@@ -10965,10 +10980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G428"/>
+  <dimension ref="A1:G429"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G412" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G434" sqref="G434"/>
+      <selection activeCell="G431" sqref="G431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19128,7 +19143,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G428" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G429" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -19991,6 +20006,27 @@
       <c r="G428" t="str">
         <f t="shared" si="6"/>
         <v>{name:['문학중앙점G'],addr:'인천광역시 미추홀구 승학길 6',x:'927413.3712631958',y:'1938148.3658178058',jibun:'인천광역시 미추홀구 문학동 337-1'},</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C429" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="G429" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['남동제일점G'],addr:'인천광역시 남동구 남동대로774번길 35',x:'930134.2262021569',y:'1939421.74141608',jibun:'인천광역시 남동구 구월동 1201-23'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="2162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="2167">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6569,6 +6569,21 @@
   </si>
   <si>
     <t>1939421.74141608</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 남동대로799번길 25</t>
+  </si>
+  <si>
+    <t>미추홀재활병원</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1140-5 대흥빌딩</t>
+  </si>
+  <si>
+    <t>929818.4557999168</t>
+  </si>
+  <si>
+    <t>1939685.7193979467</t>
   </si>
 </sst>
 </file>
@@ -10980,10 +10995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G429"/>
+  <dimension ref="A1:G430"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G412" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G431" sqref="G431"/>
+      <selection activeCell="G434" sqref="G434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19143,7 +19158,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G429" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G430" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -20027,6 +20042,27 @@
       <c r="G429" t="str">
         <f t="shared" si="6"/>
         <v>{name:['남동제일점G'],addr:'인천광역시 남동구 남동대로774번길 35',x:'930134.2262021569',y:'1939421.74141608',jibun:'인천광역시 남동구 구월동 1201-23'},</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C430" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="G430" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['미추홀재활병원'],addr:'인천광역시 남동구 남동대로799번길 25',x:'929818.4557999168',y:'1939685.7193979467',jibun:'인천광역시 남동구 구월동 1140-5 대흥빌딩'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="2167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="2177">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6584,6 +6584,36 @@
   </si>
   <si>
     <t>1939685.7193979467</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 남동대로 783</t>
+  </si>
+  <si>
+    <t>길병원 응급실</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 인하로298번길 33</t>
+  </si>
+  <si>
+    <t>주안진흥아파트결합</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1141-8 가천대 길병원 응급센터, 암센터</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 1606 진흥아파트</t>
+  </si>
+  <si>
+    <t>929912.7644920442</t>
+  </si>
+  <si>
+    <t>927580.3683817605</t>
+  </si>
+  <si>
+    <t>1939513.9607445821</t>
+  </si>
+  <si>
+    <t>1938895.5020418419</t>
   </si>
 </sst>
 </file>
@@ -10995,10 +11025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G430"/>
+  <dimension ref="A1:G432"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G412" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G434" sqref="G434"/>
+      <selection activeCell="G426" sqref="G426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19158,7 +19188,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G430" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G432" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -20063,6 +20093,48 @@
       <c r="G430" t="str">
         <f t="shared" si="6"/>
         <v>{name:['미추홀재활병원'],addr:'인천광역시 남동구 남동대로799번길 25',x:'929818.4557999168',y:'1939685.7193979467',jibun:'인천광역시 남동구 구월동 1140-5 대흥빌딩'},</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C431" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G431" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['길병원 응급실'],addr:'인천광역시 남동구 남동대로 783',x:'929912.7644920442',y:'1939513.9607445821',jibun:'인천광역시 남동구 구월동 1141-8 가천대 길병원 응급센터, 암센터'},</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C432" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G432" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['주안진흥아파트결합'],addr:'인천광역시 미추홀구 인하로298번길 33',x:'927580.3683817605',y:'1938895.5020418419',jibun:'인천광역시 미추홀구 주안동 1606 진흥아파트'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="2177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="2182">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6614,6 +6614,21 @@
   </si>
   <si>
     <t>1938895.5020418419</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 남동대로777번길 18</t>
+  </si>
+  <si>
+    <t>하이비젼점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 구월동 1141-7 하이비젼오피스텔</t>
+  </si>
+  <si>
+    <t>929843.6288793469</t>
+  </si>
+  <si>
+    <t>1939506.039108587</t>
   </si>
 </sst>
 </file>
@@ -11025,10 +11040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G432"/>
+  <dimension ref="A1:G433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G412" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G426" sqref="G426"/>
+    <sheetView tabSelected="1" topLeftCell="E412" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G439" sqref="G439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19188,7 +19203,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G432" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G433" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -20135,6 +20150,27 @@
       <c r="G432" t="str">
         <f t="shared" si="6"/>
         <v>{name:['주안진흥아파트결합'],addr:'인천광역시 미추홀구 인하로298번길 33',x:'927580.3683817605',y:'1938895.5020418419',jibun:'인천광역시 미추홀구 주안동 1606 진흥아파트'},</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C433" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G433" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['하이비젼점G'],addr:'인천광역시 남동구 남동대로777번길 18',x:'929843.6288793469',y:'1939506.039108587',jibun:'인천광역시 남동구 구월동 1141-7 하이비젼오피스텔'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="2182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="2188">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6629,6 +6629,25 @@
   </si>
   <si>
     <t>1939506.039108587</t>
+  </si>
+  <si>
+    <t>만수우리은행</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수로 29-1</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 868-50</t>
+  </si>
+  <si>
+    <t>932069.8571438068</t>
+  </si>
+  <si>
+    <t>1940313.03118229</t>
+  </si>
+  <si>
+    <t>길병원 장례식장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11040,10 +11059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G433"/>
+  <dimension ref="A1:G434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E412" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G439" sqref="G439"/>
+    <sheetView tabSelected="1" topLeftCell="E395" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G428" sqref="G428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19203,7 +19222,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G433" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G434" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -19820,6 +19839,9 @@
       <c r="A417" t="s">
         <v>2061</v>
       </c>
+      <c r="B417" t="s">
+        <v>2187</v>
+      </c>
       <c r="C417" t="s">
         <v>2062</v>
       </c>
@@ -19834,7 +19856,7 @@
       </c>
       <c r="G417" t="str">
         <f t="shared" si="6"/>
-        <v>{name:['길병원본관'],addr:'인천광역시 남동구 남동대로774번길 21',x:'930062.7198308457',y:'1939428.0753468447',jibun:'인천광역시 남동구 구월동 1198 가천대학교 길병원'},</v>
+        <v>{name:['길병원본관','길병원 장례식장'],addr:'인천광역시 남동구 남동대로774번길 21',x:'930062.7198308457',y:'1939428.0753468447',jibun:'인천광역시 남동구 구월동 1198 가천대학교 길병원'},</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
@@ -20171,6 +20193,27 @@
       <c r="G433" t="str">
         <f t="shared" si="6"/>
         <v>{name:['하이비젼점G'],addr:'인천광역시 남동구 남동대로777번길 18',x:'929843.6288793469',y:'1939506.039108587',jibun:'인천광역시 남동구 구월동 1141-7 하이비젼오피스텔'},</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C434" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G434" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['만수우리은행'],addr:'인천광역시 남동구 만수로 29-1',x:'932069.8571438068',y:'1940313.03118229',jibun:'인천광역시 남동구 만수동 868-50'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="2188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="2193">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6648,6 +6648,21 @@
   <si>
     <t>길병원 장례식장</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 남동구 매소홀로 1030</t>
+  </si>
+  <si>
+    <t>담방마을</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 1049 담방마을아파트</t>
+  </si>
+  <si>
+    <t>932548.7482419484</t>
+  </si>
+  <si>
+    <t>1938072.675659189</t>
   </si>
 </sst>
 </file>
@@ -11059,10 +11074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G434"/>
+  <dimension ref="A1:G435"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E395" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G428" sqref="G428"/>
+      <selection activeCell="G419" sqref="G419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19222,7 +19237,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G434" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G435" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -20214,6 +20229,27 @@
       <c r="G434" t="str">
         <f t="shared" si="6"/>
         <v>{name:['만수우리은행'],addr:'인천광역시 남동구 만수로 29-1',x:'932069.8571438068',y:'1940313.03118229',jibun:'인천광역시 남동구 만수동 868-50'},</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C435" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G435" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['담방마을'],addr:'인천광역시 남동구 매소홀로 1030',x:'932548.7482419484',y:'1938072.675659189',jibun:'인천광역시 남동구 만수동 1049 담방마을아파트'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="2193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="2198">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6663,6 +6663,21 @@
   </si>
   <si>
     <t>1938072.675659189</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 백범로 239</t>
+  </si>
+  <si>
+    <t>심도유통국민</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 904-1 한국통신</t>
+  </si>
+  <si>
+    <t>931267.0309773334</t>
+  </si>
+  <si>
+    <t>1940392.2284980537</t>
   </si>
 </sst>
 </file>
@@ -11074,10 +11089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G435"/>
+  <dimension ref="A1:G436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E395" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G419" sqref="G419"/>
+    <sheetView tabSelected="1" topLeftCell="E404" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G428" sqref="G428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19237,7 +19252,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G435" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G436" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -20250,6 +20265,27 @@
       <c r="G435" t="str">
         <f t="shared" si="6"/>
         <v>{name:['담방마을'],addr:'인천광역시 남동구 매소홀로 1030',x:'932548.7482419484',y:'1938072.675659189',jibun:'인천광역시 남동구 만수동 1049 담방마을아파트'},</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C436" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G436" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['심도유통국민'],addr:'인천광역시 남동구 백범로 239',x:'931267.0309773334',y:'1940392.2284980537',jibun:'인천광역시 남동구 만수동 904-1 한국통신'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="2198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="2203">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6678,6 +6678,21 @@
   </si>
   <si>
     <t>1940392.2284980537</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 무네미로 238</t>
+  </si>
+  <si>
+    <t>인천대공원점M</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 장수동 산78 인천대공원</t>
+  </si>
+  <si>
+    <t>933743.577538331</t>
+  </si>
+  <si>
+    <t>1940274.403416127</t>
   </si>
 </sst>
 </file>
@@ -11089,10 +11104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G436"/>
+  <dimension ref="A1:G437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E404" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G428" sqref="G428"/>
+    <sheetView tabSelected="1" topLeftCell="E413" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G443" sqref="G443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19252,7 +19267,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G436" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G437" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -20286,6 +20301,27 @@
       <c r="G436" t="str">
         <f t="shared" si="6"/>
         <v>{name:['심도유통국민'],addr:'인천광역시 남동구 백범로 239',x:'931267.0309773334',y:'1940392.2284980537',jibun:'인천광역시 남동구 만수동 904-1 한국통신'},</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C437" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="G437" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['인천대공원점M'],addr:'인천광역시 남동구 무네미로 238',x:'933743.577538331',y:'1940274.403416127',jibun:'인천광역시 남동구 장수동 산78 인천대공원'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="2203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="2213">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6693,6 +6693,36 @@
   </si>
   <si>
     <t>1940274.403416127</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 신송로 121</t>
+  </si>
+  <si>
+    <t>송도타운점G</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은계남로 11</t>
+  </si>
+  <si>
+    <t>은계써밋점G</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 3-4 송도센타프라자</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 은행동 661 시흥은계한양수자인더클래스</t>
+  </si>
+  <si>
+    <t>924929.4887608967</t>
+  </si>
+  <si>
+    <t>938330.2818590065</t>
+  </si>
+  <si>
+    <t>1933258.1021517701</t>
+  </si>
+  <si>
+    <t>1937509.313618048</t>
   </si>
 </sst>
 </file>
@@ -11104,10 +11134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G437"/>
+  <dimension ref="A1:G439"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E413" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G443" sqref="G443"/>
+      <selection activeCell="G442" sqref="G442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19267,7 +19297,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G437" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G439" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -20322,6 +20352,48 @@
       <c r="G437" t="str">
         <f t="shared" si="6"/>
         <v>{name:['인천대공원점M'],addr:'인천광역시 남동구 무네미로 238',x:'933743.577538331',y:'1940274.403416127',jibun:'인천광역시 남동구 장수동 산78 인천대공원'},</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C438" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="G438" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['송도타운점G'],addr:'인천광역시 연수구 신송로 121',x:'924929.4887608967',y:'1933258.1021517701',jibun:'인천광역시 연수구 송도동 3-4 송도센타프라자'},</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C439" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="G439" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['은계써밋점G'],addr:'경기도 시흥시 은계남로 11',x:'938330.2818590065',y:'1937509.313618048',jibun:'경기도 시흥시 은행동 661 시흥은계한양수자인더클래스'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="2213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="2218">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6723,6 +6723,22 @@
   </si>
   <si>
     <t>1937509.313618048</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 충선로203번길 58</t>
+  </si>
+  <si>
+    <t>사무점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 부평구 삼산동 463-1</t>
+  </si>
+  <si>
+    <t>932214.1549883587</t>
+  </si>
+  <si>
+    <t>1945648.1398619171</t>
   </si>
 </sst>
 </file>
@@ -11134,10 +11150,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G439"/>
+  <dimension ref="A1:G440"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E413" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G442" sqref="G442"/>
+      <selection activeCell="G446" sqref="G446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19297,7 +19313,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G439" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G440" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -20394,6 +20410,27 @@
       <c r="G439" t="str">
         <f t="shared" si="6"/>
         <v>{name:['은계써밋점G'],addr:'경기도 시흥시 은계남로 11',x:'938330.2818590065',y:'1937509.313618048',jibun:'경기도 시흥시 은행동 661 시흥은계한양수자인더클래스'},</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C440" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G440" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['사무점'],addr:'인천광역시 부평구 충선로203번길 58',x:'932214.1549883587',y:'1945648.1398619171',jibun:'인천광역시 부평구 삼산동 463-1'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="2218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="2223">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6739,6 +6739,21 @@
   </si>
   <si>
     <t>1945648.1398619171</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 담방서로17번길 25</t>
+  </si>
+  <si>
+    <t>만수나래점G</t>
+  </si>
+  <si>
+    <t>인천광역시 남동구 만수동 1086-1</t>
+  </si>
+  <si>
+    <t>932443.8708002509</t>
+  </si>
+  <si>
+    <t>1938859.0354283522</t>
   </si>
 </sst>
 </file>
@@ -11150,10 +11165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G440"/>
+  <dimension ref="A1:G441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E413" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G446" sqref="G446"/>
+    <sheetView tabSelected="1" topLeftCell="G434" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G445" sqref="G445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19313,7 +19328,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G440" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G441" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -20431,6 +20446,27 @@
       <c r="G440" t="str">
         <f t="shared" si="6"/>
         <v>{name:['사무점'],addr:'인천광역시 부평구 충선로203번길 58',x:'932214.1549883587',y:'1945648.1398619171',jibun:'인천광역시 부평구 삼산동 463-1'},</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="G441" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['만수나래점G'],addr:'인천광역시 남동구 담방서로17번길 25',x:'932443.8708002509',y:'1938859.0354283522',jibun:'인천광역시 남동구 만수동 1086-1'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="2223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="2228">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6754,6 +6754,21 @@
   </si>
   <si>
     <t>1938859.0354283522</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 앵고개로246번길 10</t>
+  </si>
+  <si>
+    <t>연수동춘점G</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 동춘동 937-1 대산프라자</t>
+  </si>
+  <si>
+    <t>926600.6750205001</t>
+  </si>
+  <si>
+    <t>1934691.7578607067</t>
   </si>
 </sst>
 </file>
@@ -11165,10 +11180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G441"/>
+  <dimension ref="A1:G442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G434" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G445" sqref="G445"/>
+    <sheetView tabSelected="1" topLeftCell="E434" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G453" sqref="G453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19328,7 +19343,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G441" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G442" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -20467,6 +20482,27 @@
       <c r="G441" t="str">
         <f t="shared" si="6"/>
         <v>{name:['만수나래점G'],addr:'인천광역시 남동구 담방서로17번길 25',x:'932443.8708002509',y:'1938859.0354283522',jibun:'인천광역시 남동구 만수동 1086-1'},</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C442" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G442" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['연수동춘점G'],addr:'인천광역시 연수구 앵고개로246번길 10',x:'926600.6750205001',y:'1934691.7578607067',jibun:'인천광역시 연수구 동춘동 937-1 대산프라자'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="2228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="2233">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6769,6 +6769,21 @@
   </si>
   <si>
     <t>1934691.7578607067</t>
+  </si>
+  <si>
+    <t>문학타운점G</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 매소홀로514번길 6-6</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 문학동 350-5 포운주택</t>
+  </si>
+  <si>
+    <t>927378.0915537602</t>
+  </si>
+  <si>
+    <t>1938089.3118816726</t>
   </si>
 </sst>
 </file>
@@ -11180,10 +11195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G442"/>
+  <dimension ref="A1:G443"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E434" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G453" sqref="G453"/>
+      <selection activeCell="G450" sqref="G450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19343,7 +19358,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G442" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G443" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -20503,6 +20518,27 @@
       <c r="G442" t="str">
         <f t="shared" si="6"/>
         <v>{name:['연수동춘점G'],addr:'인천광역시 연수구 앵고개로246번길 10',x:'926600.6750205001',y:'1934691.7578607067',jibun:'인천광역시 연수구 동춘동 937-1 대산프라자'},</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C443" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="G443" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['문학타운점G'],addr:'인천광역시 미추홀구 매소홀로514번길 6-6',x:'927378.0915537602',y:'1938089.3118816726',jibun:'인천광역시 미추홀구 문학동 350-5 포운주택'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="2233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="2433">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -6784,6 +6784,606 @@
   </si>
   <si>
     <t>1938089.3118816726</t>
+  </si>
+  <si>
+    <t>경기도 부천시 계남로301번길 48</t>
+  </si>
+  <si>
+    <t>춘의우남점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로815번길 20-2</t>
+  </si>
+  <si>
+    <t>부천역곡원진점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부흥로315번길 14</t>
+  </si>
+  <si>
+    <t>중동서홍점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼작로 221</t>
+  </si>
+  <si>
+    <t>부천내동점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 성곡로 28</t>
+  </si>
+  <si>
+    <t>여월성곡점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 성지로42번길 4</t>
+  </si>
+  <si>
+    <t>고강파크점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 경인로 505</t>
+  </si>
+  <si>
+    <t>역곡하이뷰아파트길거리365</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로247번길 19</t>
+  </si>
+  <si>
+    <t>꾸우재-부천</t>
+  </si>
+  <si>
+    <t>경기도 부천시 양지로 20</t>
+  </si>
+  <si>
+    <t>범박휴먼시아점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소삼로 1</t>
+  </si>
+  <si>
+    <t>소사느티나무점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소향로253번길 17</t>
+  </si>
+  <si>
+    <t>트리플타워점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 신흥로 199</t>
+  </si>
+  <si>
+    <t>중동대로점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고리울로39번길 4</t>
+  </si>
+  <si>
+    <t>고강고리울점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로775번길 68</t>
+  </si>
+  <si>
+    <t>원종성오로점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종로 10</t>
+  </si>
+  <si>
+    <t>원종스타점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로 434</t>
+  </si>
+  <si>
+    <t>부천북부점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로 460</t>
+  </si>
+  <si>
+    <t>부천시네마점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로245번길 16</t>
+  </si>
+  <si>
+    <t>부천참사랑점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 수도로206번길 31-3</t>
+  </si>
+  <si>
+    <t>도당성원점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 조마루로285번길 40</t>
+  </si>
+  <si>
+    <t>중동으뜸점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동로262번길 80</t>
+  </si>
+  <si>
+    <t>세븐일레븐-부천롯데2호점</t>
+  </si>
+  <si>
+    <t>경기도 부천시 지봉로 43</t>
+  </si>
+  <si>
+    <t>가톨릭대점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 평천로 679</t>
+  </si>
+  <si>
+    <t>악대아이파크점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미로144번길 26</t>
+  </si>
+  <si>
+    <t>원미한우리점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 장말로216번길 52</t>
+  </si>
+  <si>
+    <t>상동팰리스점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 조종로7번길 33</t>
+  </si>
+  <si>
+    <t>부천원미샛별점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동로248번길 45</t>
+  </si>
+  <si>
+    <t>부천파크리움점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동로254번길 90</t>
+  </si>
+  <si>
+    <t>세븐일레븐-부천롯데백화점</t>
+  </si>
+  <si>
+    <t>경기도 부천시 지봉로34번길 22</t>
+  </si>
+  <si>
+    <t>부천가톨릭대점M</t>
+  </si>
+  <si>
+    <t>서울특별시 구로구 연동로13길 56</t>
+  </si>
+  <si>
+    <t>구로행복점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로 761</t>
+  </si>
+  <si>
+    <t>역곡부일로점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로 496</t>
+  </si>
+  <si>
+    <t>부천소신점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부흥로307번길 52</t>
+  </si>
+  <si>
+    <t>중동중앙점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로170번길 81</t>
+  </si>
+  <si>
+    <t>한신아파트국민</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로78번길 44</t>
+  </si>
+  <si>
+    <t>소사삼성신한</t>
+  </si>
+  <si>
+    <t>경기도 부천시 범안로 103</t>
+  </si>
+  <si>
+    <t>영플러스신한</t>
+  </si>
+  <si>
+    <t>경기도 부천시 옥산로 153-2</t>
+  </si>
+  <si>
+    <t>도당동국민</t>
+  </si>
+  <si>
+    <t>경기도 부천시 범안로96번길 23</t>
+  </si>
+  <si>
+    <t>범박동국민</t>
+  </si>
+  <si>
+    <t>경기도 부천시 조마루로 231</t>
+  </si>
+  <si>
+    <t>미리내우리</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 함박뫼로 115</t>
+  </si>
+  <si>
+    <t>연수우주점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 춘의동 141-4</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡동 246 대우아크로빌</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1120-1 아이엔유 포비스타 오피스텔</t>
+  </si>
+  <si>
+    <t>경기도 부천시 내동 326</t>
+  </si>
+  <si>
+    <t>경기도 부천시 여월동 10 한양리더스빌</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고강동 296 리첸힐스</t>
+  </si>
+  <si>
+    <t>경기도 부천시 괴안동 113-1 역곡하이뷰</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 78 세영타워메카</t>
+  </si>
+  <si>
+    <t>경기도 부천시 괴안동 251-1 범박휴먼시아1단지</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 77-32</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1137-2 충도프라자</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1140-4 트리플 타워c</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고강동 390-5 스카이포인트 아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 208 선진그린빌</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 200-1 오성파크아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 398-17</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 383-1 시네마존</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 265-33</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 56-14 성원빌라</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1134-4 굿모닝로얄프라자</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1142-5 혜영빌딩</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡동 산43-1 가톨릭대학교 성심교정</t>
+  </si>
+  <si>
+    <t>경기도 부천시 약대동 216-1 부천아이파크</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미동 166-6</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상동 245-15</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미동 110-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1146-5</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1143-4 중동파크타운</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡동 45</t>
+  </si>
+  <si>
+    <t>서울특별시 구로구 항동 16-3</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡동 111-5</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 145-11</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1127-6</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 277-12 한신아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 401-6 사랑의교회</t>
+  </si>
+  <si>
+    <t>경기도 부천시 범박동 16-12</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 280 구두수선대</t>
+  </si>
+  <si>
+    <t>경기도 부천시 범박동 152-2 부천범박힐스테이트4단지아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1181 미리내마을 동성아파트</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 연수동 535-2 우주아파트</t>
+  </si>
+  <si>
+    <t>936713.4578142767</t>
+  </si>
+  <si>
+    <t>939746.2953258804</t>
+  </si>
+  <si>
+    <t>936163.06099007</t>
+  </si>
+  <si>
+    <t>936923.0183001566</t>
+  </si>
+  <si>
+    <t>938219.9491968546</t>
+  </si>
+  <si>
+    <t>939155.3413326412</t>
+  </si>
+  <si>
+    <t>939096.7551100233</t>
+  </si>
+  <si>
+    <t>937606.9902566366</t>
+  </si>
+  <si>
+    <t>939443.5657032514</t>
+  </si>
+  <si>
+    <t>937518.6245518469</t>
+  </si>
+  <si>
+    <t>935974.1004469399</t>
+  </si>
+  <si>
+    <t>936019.8184806076</t>
+  </si>
+  <si>
+    <t>939968.420370707</t>
+  </si>
+  <si>
+    <t>938246.4043737468</t>
+  </si>
+  <si>
+    <t>938218.024238419</t>
+  </si>
+  <si>
+    <t>936192.5302966167</t>
+  </si>
+  <si>
+    <t>936436.3469245962</t>
+  </si>
+  <si>
+    <t>936841.9903422934</t>
+  </si>
+  <si>
+    <t>937123.7764187369</t>
+  </si>
+  <si>
+    <t>935951.38564701</t>
+  </si>
+  <si>
+    <t>935773.8356946968</t>
+  </si>
+  <si>
+    <t>938521.6347732791</t>
+  </si>
+  <si>
+    <t>935099.1378746028</t>
+  </si>
+  <si>
+    <t>937488.4017700066</t>
+  </si>
+  <si>
+    <t>935019.9383374867</t>
+  </si>
+  <si>
+    <t>936863.6248905584</t>
+  </si>
+  <si>
+    <t>935592.9957447667</t>
+  </si>
+  <si>
+    <t>935803.2218652214</t>
+  </si>
+  <si>
+    <t>938650.1025033111</t>
+  </si>
+  <si>
+    <t>939839.8327588234</t>
+  </si>
+  <si>
+    <t>939352.5443443768</t>
+  </si>
+  <si>
+    <t>936809.3631425968</t>
+  </si>
+  <si>
+    <t>936047.1031363634</t>
+  </si>
+  <si>
+    <t>938115.3458663602</t>
+  </si>
+  <si>
+    <t>938215.4029339168</t>
+  </si>
+  <si>
+    <t>938952.2640206302</t>
+  </si>
+  <si>
+    <t>936385.0817580228</t>
+  </si>
+  <si>
+    <t>938790.1218149173</t>
+  </si>
+  <si>
+    <t>935432.0090733464</t>
+  </si>
+  <si>
+    <t>927436.0086149937</t>
+  </si>
+  <si>
+    <t>1945239.6721997</t>
+  </si>
+  <si>
+    <t>1943716.7247193987</t>
+  </si>
+  <si>
+    <t>1944222.1423371998</t>
+  </si>
+  <si>
+    <t>1947020.752634257</t>
+  </si>
+  <si>
+    <t>1946642.7908145897</t>
+  </si>
+  <si>
+    <t>1947262.049968117</t>
+  </si>
+  <si>
+    <t>1943026.6223299834</t>
+  </si>
+  <si>
+    <t>1942565.574172047</t>
+  </si>
+  <si>
+    <t>1942240.097415071</t>
+  </si>
+  <si>
+    <t>1942438.94747489</t>
+  </si>
+  <si>
+    <t>1944922.1217141035</t>
+  </si>
+  <si>
+    <t>1944912.4998473837</t>
+  </si>
+  <si>
+    <t>1947784.3746913886</t>
+  </si>
+  <si>
+    <t>1947581.3007036936</t>
+  </si>
+  <si>
+    <t>1947412.6234092247</t>
+  </si>
+  <si>
+    <t>1943260.0541564934</t>
+  </si>
+  <si>
+    <t>1943201.6657592114</t>
+  </si>
+  <si>
+    <t>1945421.6764127803</t>
+  </si>
+  <si>
+    <t>1946859.0594246471</t>
+  </si>
+  <si>
+    <t>1944700.1651988132</t>
+  </si>
+  <si>
+    <t>1945031.1967908703</t>
+  </si>
+  <si>
+    <t>1943176.835768342</t>
+  </si>
+  <si>
+    <t>1946548.3584992867</t>
+  </si>
+  <si>
+    <t>1944175.768240687</t>
+  </si>
+  <si>
+    <t>1943717.6973563167</t>
+  </si>
+  <si>
+    <t>1944210.8088398492</t>
+  </si>
+  <si>
+    <t>1944963.4428586848</t>
+  </si>
+  <si>
+    <t>1944940.6567838443</t>
+  </si>
+  <si>
+    <t>1943121.328346062</t>
+  </si>
+  <si>
+    <t>1943122.7895086668</t>
+  </si>
+  <si>
+    <t>1943296.5756718</t>
+  </si>
+  <si>
+    <t>1943136.8156903032</t>
+  </si>
+  <si>
+    <t>1944418.9188882033</t>
+  </si>
+  <si>
+    <t>1941817.9676270075</t>
+  </si>
+  <si>
+    <t>1941033.6878472767</t>
+  </si>
+  <si>
+    <t>1941728.5892080865</t>
+  </si>
+  <si>
+    <t>1945574.1144234817</t>
+  </si>
+  <si>
+    <t>1941741.6952655008</t>
+  </si>
+  <si>
+    <t>1944604.3541358327</t>
+  </si>
+  <si>
+    <t>1936249.5671476396</t>
   </si>
 </sst>
 </file>
@@ -11195,10 +11795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G443"/>
+  <dimension ref="A1:G483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E434" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G450" sqref="G450"/>
+    <sheetView tabSelected="1" topLeftCell="A449" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F459" sqref="F459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19358,7 +19958,7 @@
         <v>1969</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G443" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
+        <f t="shared" ref="G387:G450" si="6">"{name:" &amp; "['"&amp;A387&amp;"'"&amp;IF(ISBLANK(B387),"",",'"&amp;B387&amp;"'")&amp;"],addr:" &amp; "'" &amp;C387&amp;"',x:"&amp; "'" &amp;D387&amp;"',y:"&amp; "'" &amp;E387&amp;"',jibun:"&amp; "'" &amp;F387&amp;"'},"</f>
         <v>{name:['시흥문화점G'],addr:'경기도 시흥시 문화마을로16번길 60',x:'936815.4522727432',y:'1938771.1156824138',jibun:'경기도 시흥시 대야동 477-8 은성빌딩'},</v>
       </c>
     </row>
@@ -20539,6 +21139,846 @@
       <c r="G443" t="str">
         <f t="shared" si="6"/>
         <v>{name:['문학타운점G'],addr:'인천광역시 미추홀구 매소홀로514번길 6-6',x:'927378.0915537602',y:'1938089.3118816726',jibun:'인천광역시 미추홀구 문학동 350-5 포운주택'},</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C444" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="G444" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['춘의우남점G'],addr:'경기도 부천시 계남로301번길 48',x:'936713.4578142767',y:'1945239.6721997',jibun:'경기도 부천시 춘의동 141-4'},</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C445" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G445" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['부천역곡원진점G'],addr:'경기도 부천시 부일로815번길 20-2',x:'939746.2953258804',y:'1943716.7247193987',jibun:'경기도 부천시 역곡동 246 대우아크로빌'},</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C446" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="G446" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['중동서홍점G'],addr:'경기도 부천시 부흥로315번길 14',x:'936163.06099007',y:'1944222.1423371998',jibun:'경기도 부천시 중동 1120-1 아이엔유 포비스타 오피스텔'},</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C447" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="G447" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['부천내동점G'],addr:'경기도 부천시 삼작로 221',x:'936923.0183001566',y:'1947020.752634257',jibun:'경기도 부천시 내동 326'},</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C448" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="G448" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['여월성곡점G'],addr:'경기도 부천시 성곡로 28',x:'938219.9491968546',y:'1946642.7908145897',jibun:'경기도 부천시 여월동 10 한양리더스빌'},</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C449" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="G449" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['고강파크점G'],addr:'경기도 부천시 성지로42번길 4',x:'939155.3413326412',y:'1947262.049968117',jibun:'경기도 부천시 고강동 296 리첸힐스'},</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C450" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="G450" t="str">
+        <f t="shared" si="6"/>
+        <v>{name:['역곡하이뷰아파트길거리365'],addr:'경기도 부천시 경인로 505',x:'939096.7551100233',y:'1943026.6223299834',jibun:'경기도 부천시 괴안동 113-1 역곡하이뷰'},</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C451" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="G451" t="str">
+        <f t="shared" ref="G451:G483" si="7">"{name:" &amp; "['"&amp;A451&amp;"'"&amp;IF(ISBLANK(B451),"",",'"&amp;B451&amp;"'")&amp;"],addr:" &amp; "'" &amp;C451&amp;"',x:"&amp; "'" &amp;D451&amp;"',y:"&amp; "'" &amp;E451&amp;"',jibun:"&amp; "'" &amp;F451&amp;"'},"</f>
+        <v>{name:['꾸우재-부천'],addr:'경기도 부천시 소사로247번길 19',x:'937606.9902566366',y:'1942565.574172047',jibun:'경기도 부천시 소사본동 78 세영타워메카'},</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C452" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G452" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['범박휴먼시아점M'],addr:'경기도 부천시 양지로 20',x:'939443.5657032514',y:'1942240.097415071',jibun:'경기도 부천시 괴안동 251-1 범박휴먼시아1단지'},</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C453" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="G453" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['소사느티나무점G'],addr:'경기도 부천시 소삼로 1',x:'937518.6245518469',y:'1942438.94747489',jibun:'경기도 부천시 소사본동 77-32'},</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C454" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="G454" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['트리플타워점M'],addr:'경기도 부천시 소향로253번길 17',x:'935974.1004469399',y:'1944922.1217141035',jibun:'경기도 부천시 중동 1137-2 충도프라자'},</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C455" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="G455" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['중동대로점G'],addr:'경기도 부천시 신흥로 199',x:'936019.8184806076',y:'1944912.4998473837',jibun:'경기도 부천시 중동 1140-4 트리플 타워c'},</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C456" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="G456" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['고강고리울점G'],addr:'경기도 부천시 고리울로39번길 4',x:'939968.420370707',y:'1947784.3746913886',jibun:'경기도 부천시 고강동 390-5 스카이포인트 아파트'},</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C457" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="G457" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['원종성오로점G'],addr:'경기도 부천시 소사로775번길 68',x:'938246.4043737468',y:'1947581.3007036936',jibun:'경기도 부천시 원종동 208 선진그린빌'},</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C458" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="G458" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['원종스타점M'],addr:'경기도 부천시 원종로 10',x:'938218.024238419',y:'1947412.6234092247',jibun:'경기도 부천시 원종동 200-1 오성파크아파트'},</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C459" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="G459" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['부천북부점M'],addr:'경기도 부천시 부일로 434',x:'936192.5302966167',y:'1943260.0541564934',jibun:'경기도 부천시 심곡동 398-17'},</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C460" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="G460" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['부천시네마점M'],addr:'경기도 부천시 부일로 460',x:'936436.3469245962',y:'1943201.6657592114',jibun:'경기도 부천시 심곡동 383-1 시네마존'},</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C461" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="G461" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['부천참사랑점G'],addr:'경기도 부천시 부천로245번길 16',x:'936841.9903422934',y:'1945421.6764127803',jibun:'경기도 부천시 도당동 265-33'},</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C462" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="G462" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['도당성원점G'],addr:'경기도 부천시 수도로206번길 31-3',x:'937123.7764187369',y:'1946859.0594246471',jibun:'경기도 부천시 도당동 56-14 성원빌라'},</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C463" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="G463" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['중동으뜸점G'],addr:'경기도 부천시 조마루로285번길 40',x:'935951.38564701',y:'1944700.1651988132',jibun:'경기도 부천시 중동 1134-4 굿모닝로얄프라자'},</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C464" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="G464" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['세븐일레븐-부천롯데2호점'],addr:'경기도 부천시 중동로262번길 80',x:'935773.8356946968',y:'1945031.1967908703',jibun:'경기도 부천시 중동 1142-5 혜영빌딩'},</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C465" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="G465" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['가톨릭대점G'],addr:'경기도 부천시 지봉로 43',x:'938521.6347732791',y:'1943176.835768342',jibun:'경기도 부천시 역곡동 산43-1 가톨릭대학교 성심교정'},</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C466" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="G466" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['악대아이파크점G'],addr:'경기도 부천시 평천로 679',x:'935099.1378746028',y:'1946548.3584992867',jibun:'경기도 부천시 약대동 216-1 부천아이파크'},</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C467" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="G467" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['원미한우리점G'],addr:'경기도 부천시 원미로144번길 26',x:'937488.4017700066',y:'1944175.768240687',jibun:'경기도 부천시 원미동 166-6'},</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C468" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="G468" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['상동팰리스점G'],addr:'경기도 부천시 장말로216번길 52',x:'935019.9383374867',y:'1943717.6973563167',jibun:'경기도 부천시 상동 245-15'},</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C469" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G469" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['부천원미샛별점G'],addr:'경기도 부천시 조종로7번길 33',x:'936863.6248905584',y:'1944210.8088398492',jibun:'경기도 부천시 원미동 110-1'},</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C470" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="G470" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['부천파크리움점M'],addr:'경기도 부천시 중동로248번길 45',x:'935592.9957447667',y:'1944963.4428586848',jibun:'경기도 부천시 중동 1146-5'},</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C471" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="G471" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['세븐일레븐-부천롯데백화점'],addr:'경기도 부천시 중동로254번길 90',x:'935803.2218652214',y:'1944940.6567838443',jibun:'경기도 부천시 중동 1143-4 중동파크타운'},</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C472" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="G472" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['부천가톨릭대점M'],addr:'경기도 부천시 지봉로34번길 22',x:'938650.1025033111',y:'1943121.328346062',jibun:'경기도 부천시 역곡동 45'},</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C473" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="G473" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['구로행복점G'],addr:'서울특별시 구로구 연동로13길 56',x:'939839.8327588234',y:'1943122.7895086668',jibun:'서울특별시 구로구 항동 16-3'},</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C474" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="G474" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['역곡부일로점G'],addr:'경기도 부천시 부일로 761',x:'939352.5443443768',y:'1943296.5756718',jibun:'경기도 부천시 역곡동 111-5'},</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C475" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G475" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['부천소신점M'],addr:'경기도 부천시 부일로 496',x:'936809.3631425968',y:'1943136.8156903032',jibun:'경기도 부천시 심곡동 145-11'},</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C476" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="G476" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['중동중앙점G'],addr:'경기도 부천시 부흥로307번길 52',x:'936047.1031363634',y:'1944418.9188882033',jibun:'경기도 부천시 중동 1127-6'},</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C477" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="G477" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['한신아파트국민'],addr:'경기도 부천시 소사로170번길 81',x:'938115.3458663602',y:'1941817.9676270075',jibun:'경기도 부천시 소사본동 277-12 한신아파트'},</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C478" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="G478" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['소사삼성신한'],addr:'경기도 부천시 소사로78번길 44',x:'938215.4029339168',y:'1941033.6878472767',jibun:'경기도 부천시 소사본동 401-6 사랑의교회'},</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C479" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="G479" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['영플러스신한'],addr:'경기도 부천시 범안로 103',x:'938952.2640206302',y:'1941728.5892080865',jibun:'경기도 부천시 범박동 16-12'},</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C480" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="G480" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['도당동국민'],addr:'경기도 부천시 옥산로 153-2',x:'936385.0817580228',y:'1945574.1144234817',jibun:'경기도 부천시 도당동 280 구두수선대'},</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C481" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G481" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['범박동국민'],addr:'경기도 부천시 범안로96번길 23',x:'938790.1218149173',y:'1941741.6952655008',jibun:'경기도 부천시 범박동 152-2 부천범박힐스테이트4단지아파트'},</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C482" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="G482" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['미리내우리'],addr:'경기도 부천시 조마루로 231',x:'935432.0090733464',y:'1944604.3541358327',jibun:'경기도 부천시 중동 1181 미리내마을 동성아파트'},</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C483" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="G483" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['연수우주점G'],addr:'인천광역시 연수구 함박뫼로 115',x:'927436.0086149937',y:'1936249.5671476396',jibun:'인천광역시 연수구 연수동 535-2 우주아파트'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="2433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="2438">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -7384,6 +7384,21 @@
   </si>
   <si>
     <t>1936249.5671476396</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도바이오대로 300</t>
+  </si>
+  <si>
+    <t>삼성바이오</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 201-2 삼성바이오로직스</t>
+  </si>
+  <si>
+    <t>925942.3350891373</t>
+  </si>
+  <si>
+    <t>1929963.646334886</t>
   </si>
 </sst>
 </file>
@@ -11795,10 +11810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G483"/>
+  <dimension ref="A1:G484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F459" sqref="F459"/>
+    <sheetView tabSelected="1" topLeftCell="E449" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G473" sqref="G473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21305,7 +21320,7 @@
         <v>2320</v>
       </c>
       <c r="G451" t="str">
-        <f t="shared" ref="G451:G483" si="7">"{name:" &amp; "['"&amp;A451&amp;"'"&amp;IF(ISBLANK(B451),"",",'"&amp;B451&amp;"'")&amp;"],addr:" &amp; "'" &amp;C451&amp;"',x:"&amp; "'" &amp;D451&amp;"',y:"&amp; "'" &amp;E451&amp;"',jibun:"&amp; "'" &amp;F451&amp;"'},"</f>
+        <f t="shared" ref="G451:G484" si="7">"{name:" &amp; "['"&amp;A451&amp;"'"&amp;IF(ISBLANK(B451),"",",'"&amp;B451&amp;"'")&amp;"],addr:" &amp; "'" &amp;C451&amp;"',x:"&amp; "'" &amp;D451&amp;"',y:"&amp; "'" &amp;E451&amp;"',jibun:"&amp; "'" &amp;F451&amp;"'},"</f>
         <v>{name:['꾸우재-부천'],addr:'경기도 부천시 소사로247번길 19',x:'937606.9902566366',y:'1942565.574172047',jibun:'경기도 부천시 소사본동 78 세영타워메카'},</v>
       </c>
     </row>
@@ -21979,6 +21994,27 @@
       <c r="G483" t="str">
         <f t="shared" si="7"/>
         <v>{name:['연수우주점G'],addr:'인천광역시 연수구 함박뫼로 115',x:'927436.0086149937',y:'1936249.5671476396',jibun:'인천광역시 연수구 연수동 535-2 우주아파트'},</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C484" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="G484" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['삼성바이오'],addr:'인천광역시 연수구 송도바이오대로 300',x:'925942.3350891373',y:'1929963.646334886',jibun:'인천광역시 연수구 송도동 201-2 삼성바이오로직스'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="2438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="2523">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -7399,6 +7399,261 @@
   </si>
   <si>
     <t>1929963.646334886</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 인주대로 149</t>
+  </si>
+  <si>
+    <t>용현블루온점M</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 인주대로 180</t>
+  </si>
+  <si>
+    <t>용현1동점G</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 토금남로 5</t>
+  </si>
+  <si>
+    <t>용현제일점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고강로140번길 16</t>
+  </si>
+  <si>
+    <t>고강행복점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로276번길 69</t>
+  </si>
+  <si>
+    <t>부천드림파크점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡로489번길 33</t>
+  </si>
+  <si>
+    <t>부천고강로M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로 368</t>
+  </si>
+  <si>
+    <t>부천시민회관점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 신흥로45번길 56</t>
+  </si>
+  <si>
+    <t>심곡제일점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 조마루로 170</t>
+  </si>
+  <si>
+    <t>순천향부천병원장례식장-SHINHAN</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동로377번길 37</t>
+  </si>
+  <si>
+    <t>약대스타점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소향로37번길 31-7</t>
+  </si>
+  <si>
+    <t>상동타운점G</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평대로278번길 8</t>
+  </si>
+  <si>
+    <t>갈산역점G</t>
+  </si>
+  <si>
+    <t>인천광역시 중구 인항로 27</t>
+  </si>
+  <si>
+    <t>인하대 장례식장</t>
+  </si>
+  <si>
+    <t>인천광역시 동구 송현로 30</t>
+  </si>
+  <si>
+    <t>솔빛주공APT</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로 285</t>
+  </si>
+  <si>
+    <t>소사역</t>
+  </si>
+  <si>
+    <t>경기도 부천시 옥산로 181</t>
+  </si>
+  <si>
+    <t>도당동365</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 부평북로 432</t>
+  </si>
+  <si>
+    <t>미래타운2단지</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 용현동 490-37</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 용현동 139-3</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 용현동 629-11</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고강동 354-15</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사동 39-4 IHO드림파크아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고강동 312-2</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 795</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 344-4 부천예원교회</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1174 순천향대학교부천병원</t>
+  </si>
+  <si>
+    <t>경기도 부천시 약대동 139-7</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상동 545-11 상동타운</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 갈산동 178</t>
+  </si>
+  <si>
+    <t>인천광역시 중구 신흥동3가 7-206 인하대학병원</t>
+  </si>
+  <si>
+    <t>인천광역시 동구 송현동 157 새마을금고</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사동 44-51</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 281-34</t>
+  </si>
+  <si>
+    <t>인천광역시 부평구 삼산동 388-7 삼산주공미래타운2단지</t>
+  </si>
+  <si>
+    <t>925159.3581780714</t>
+  </si>
+  <si>
+    <t>925436.2484827922</t>
+  </si>
+  <si>
+    <t>923352.4605928194</t>
+  </si>
+  <si>
+    <t>939878.39461733</t>
+  </si>
+  <si>
+    <t>938016.7851300971</t>
+  </si>
+  <si>
+    <t>939409.2145172055</t>
+  </si>
+  <si>
+    <t>935554.00483263</t>
+  </si>
+  <si>
+    <t>935820.8754773999</t>
+  </si>
+  <si>
+    <t>934816.0219042138</t>
+  </si>
+  <si>
+    <t>935344.5929083249</t>
+  </si>
+  <si>
+    <t>933861.0439794036</t>
+  </si>
+  <si>
+    <t>931250.2265292602</t>
+  </si>
+  <si>
+    <t>923377.9072547008</t>
+  </si>
+  <si>
+    <t>923574.6981659201</t>
+  </si>
+  <si>
+    <t>937613.6606349468</t>
+  </si>
+  <si>
+    <t>936377.8699441161</t>
+  </si>
+  <si>
+    <t>932970.9349309707</t>
+  </si>
+  <si>
+    <t>1940053.3833795981</t>
+  </si>
+  <si>
+    <t>1939907.3913434516</t>
+  </si>
+  <si>
+    <t>1939665.3319581402</t>
+  </si>
+  <si>
+    <t>1948146.7872318467</t>
+  </si>
+  <si>
+    <t>1942888.841501385</t>
+  </si>
+  <si>
+    <t>1947912.090591588</t>
+  </si>
+  <si>
+    <t>1943382.25854781</t>
+  </si>
+  <si>
+    <t>1943487.0828762767</t>
+  </si>
+  <si>
+    <t>1944684.2888222663</t>
+  </si>
+  <si>
+    <t>1946200.2546949293</t>
+  </si>
+  <si>
+    <t>1945310.4585657432</t>
+  </si>
+  <si>
+    <t>1946585.2541518267</t>
+  </si>
+  <si>
+    <t>1940206.170705177</t>
+  </si>
+  <si>
+    <t>1942500.5474163634</t>
+  </si>
+  <si>
+    <t>1942941.8396291998</t>
+  </si>
+  <si>
+    <t>1945850.50026011</t>
+  </si>
+  <si>
+    <t>1947235.7470364831</t>
   </si>
 </sst>
 </file>
@@ -11810,10 +12065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G484"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E449" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G473" sqref="G473"/>
+    <sheetView tabSelected="1" topLeftCell="E474" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G507" sqref="G507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21320,7 +21575,7 @@
         <v>2320</v>
       </c>
       <c r="G451" t="str">
-        <f t="shared" ref="G451:G484" si="7">"{name:" &amp; "['"&amp;A451&amp;"'"&amp;IF(ISBLANK(B451),"",",'"&amp;B451&amp;"'")&amp;"],addr:" &amp; "'" &amp;C451&amp;"',x:"&amp; "'" &amp;D451&amp;"',y:"&amp; "'" &amp;E451&amp;"',jibun:"&amp; "'" &amp;F451&amp;"'},"</f>
+        <f t="shared" ref="G451:G501" si="7">"{name:" &amp; "['"&amp;A451&amp;"'"&amp;IF(ISBLANK(B451),"",",'"&amp;B451&amp;"'")&amp;"],addr:" &amp; "'" &amp;C451&amp;"',x:"&amp; "'" &amp;D451&amp;"',y:"&amp; "'" &amp;E451&amp;"',jibun:"&amp; "'" &amp;F451&amp;"'},"</f>
         <v>{name:['꾸우재-부천'],addr:'경기도 부천시 소사로247번길 19',x:'937606.9902566366',y:'1942565.574172047',jibun:'경기도 부천시 소사본동 78 세영타워메카'},</v>
       </c>
     </row>
@@ -22015,6 +22270,363 @@
       <c r="G484" t="str">
         <f t="shared" si="7"/>
         <v>{name:['삼성바이오'],addr:'인천광역시 연수구 송도바이오대로 300',x:'925942.3350891373',y:'1929963.646334886',jibun:'인천광역시 연수구 송도동 201-2 삼성바이오로직스'},</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C485" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="G485" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['용현블루온점M'],addr:'인천광역시 미추홀구 인주대로 149',x:'925159.3581780714',y:'1940053.3833795981',jibun:'인천광역시 미추홀구 용현동 490-37'},</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C486" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="G486" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['용현1동점G'],addr:'인천광역시 미추홀구 인주대로 180',x:'925436.2484827922',y:'1939907.3913434516',jibun:'인천광역시 미추홀구 용현동 139-3'},</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C487" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="G487" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['용현제일점G'],addr:'인천광역시 미추홀구 토금남로 5',x:'923352.4605928194',y:'1939665.3319581402',jibun:'인천광역시 미추홀구 용현동 629-11'},</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C488" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="G488" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['고강행복점G'],addr:'경기도 부천시 고강로140번길 16',x:'939878.39461733',y:'1948146.7872318467',jibun:'경기도 부천시 고강동 354-15'},</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C489" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="G489" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['부천드림파크점G'],addr:'경기도 부천시 소사로276번길 69',x:'938016.7851300971',y:'1942888.841501385',jibun:'경기도 부천시 소사동 39-4 IHO드림파크아파트'},</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C490" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G490" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['부천고강로M'],addr:'경기도 부천시 역곡로489번길 33',x:'939409.2145172055',y:'1947912.090591588',jibun:'경기도 부천시 고강동 312-2'},</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C491" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="G491" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['부천시민회관점G'],addr:'경기도 부천시 부일로 368',x:'935554.00483263',y:'1943382.25854781',jibun:'경기도 부천시 중동 795'},</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C492" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="G492" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['심곡제일점G'],addr:'경기도 부천시 신흥로45번길 56',x:'935820.8754773999',y:'1943487.0828762767',jibun:'경기도 부천시 심곡동 344-4 부천예원교회'},</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C493" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="G493" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['순천향부천병원장례식장-SHINHAN'],addr:'경기도 부천시 조마루로 170',x:'934816.0219042138',y:'1944684.2888222663',jibun:'경기도 부천시 중동 1174 순천향대학교부천병원'},</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C494" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="G494" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['약대스타점G'],addr:'경기도 부천시 중동로377번길 37',x:'935344.5929083249',y:'1946200.2546949293',jibun:'경기도 부천시 약대동 139-7'},</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C495" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G495" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['상동타운점G'],addr:'경기도 부천시 소향로37번길 31-7',x:'933861.0439794036',y:'1945310.4585657432',jibun:'경기도 부천시 상동 545-11 상동타운'},</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C496" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="G496" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['갈산역점G'],addr:'인천광역시 부평구 부평대로278번길 8',x:'931250.2265292602',y:'1946585.2541518267',jibun:'인천광역시 부평구 갈산동 178'},</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C497" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="G497" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['인하대 장례식장'],addr:'인천광역시 중구 인항로 27',x:'923377.9072547008',y:'1940206.170705177',jibun:'인천광역시 중구 신흥동3가 7-206 인하대학병원'},</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C498" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G498" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['솔빛주공APT'],addr:'인천광역시 동구 송현로 30',x:'923574.6981659201',y:'1942500.5474163634',jibun:'인천광역시 동구 송현동 157 새마을금고'},</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C499" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="G499" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['소사역'],addr:'경기도 부천시 소사로 285',x:'937613.6606349468',y:'1942941.8396291998',jibun:'경기도 부천시 소사동 44-51'},</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C500" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="G500" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['도당동365'],addr:'경기도 부천시 옥산로 181',x:'936377.8699441161',y:'1945850.50026011',jibun:'경기도 부천시 도당동 281-34'},</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C501" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="G501" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['미래타운2단지'],addr:'인천광역시 부평구 부평북로 432',x:'932970.9349309707',y:'1947235.7470364831',jibun:'인천광역시 부평구 삼산동 388-7 삼산주공미래타운2단지'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="2523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="2668">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -7654,6 +7654,443 @@
   </si>
   <si>
     <t>1947235.7470364831</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도약로 206</t>
+  </si>
+  <si>
+    <t>두산위브</t>
+  </si>
+  <si>
+    <t>경기도 부천시 계남로 144</t>
+  </si>
+  <si>
+    <t>덕유마을1단지</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동로 327</t>
+  </si>
+  <si>
+    <t>덕유마을3단지</t>
+  </si>
+  <si>
+    <t>경기도 부천시 석천로 397</t>
+  </si>
+  <si>
+    <t>부천테크노국민</t>
+  </si>
+  <si>
+    <t>경기도 부천시 계남로 195</t>
+  </si>
+  <si>
+    <t>설악마을</t>
+  </si>
+  <si>
+    <t>경기도 부천시 길주로 502</t>
+  </si>
+  <si>
+    <t>S부천운동장역점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로 429</t>
+  </si>
+  <si>
+    <t>부천다온하브점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부흥로 377</t>
+  </si>
+  <si>
+    <t>대성병원장례식장-부천</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼작로 421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원종기쁨점G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 부천시 상오정로184번길 44-1</t>
+  </si>
+  <si>
+    <t>원종타운점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 석천로356번길 30</t>
+  </si>
+  <si>
+    <t>삼정타운점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 성지로111번길 39</t>
+  </si>
+  <si>
+    <t>오정성지로점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 경인옛로 22</t>
+  </si>
+  <si>
+    <t>소사센트럴점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로 170</t>
+  </si>
+  <si>
+    <t>춘의지식센터점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로159번길 30</t>
+  </si>
+  <si>
+    <t>부천소사본점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소향로 227</t>
+  </si>
+  <si>
+    <t>중동미리내점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼작로233번길 44</t>
+  </si>
+  <si>
+    <t>내촌제일점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼작로292번길 21-18</t>
+  </si>
+  <si>
+    <t>도당타운점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 평천로751번길 54</t>
+  </si>
+  <si>
+    <t>필-부천</t>
+  </si>
+  <si>
+    <t>경기도 부천시 계남로 193</t>
+  </si>
+  <si>
+    <t>중동설악마을주공아파트 결합부스</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로 380</t>
+  </si>
+  <si>
+    <t>기아자동차 서비스센터 중동점-CITI</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로 409</t>
+  </si>
+  <si>
+    <t>행복슈퍼복권방-부천</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼작로256번길 61</t>
+  </si>
+  <si>
+    <t>도당장미점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소향로 204</t>
+  </si>
+  <si>
+    <t>중동은하수점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 조마루로 428</t>
+  </si>
+  <si>
+    <t>풍천슈퍼-원미</t>
+  </si>
+  <si>
+    <t>경기도 부천시 지봉로107번길 48</t>
+  </si>
+  <si>
+    <t>역곡타운점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동로 361</t>
+  </si>
+  <si>
+    <t>대인의료재단</t>
+  </si>
+  <si>
+    <t>경기도 부천시 지봉로 79</t>
+  </si>
+  <si>
+    <t>역곡본점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 지봉로143번길 5</t>
+  </si>
+  <si>
+    <t>역곡제일점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 약대동 209 부천위브트레지움2단지아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1038 은하마을 주공2단지아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1040 덕유마을 주공3단지아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼정동 36-1 부천테크노파크쌍용3차</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1051 설악마을 주공아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 춘의동 15-1 부천종합운동장역</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 458-2 다온하브</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 106 DS병원</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 362-27</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 127-9</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼정동 283-10</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 299 대성원종타운</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 75 Shc타워</t>
+  </si>
+  <si>
+    <t>경기도 부천시 춘의동 205-12</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 210-48</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1144-3 디아뜨갤러리3</t>
+  </si>
+  <si>
+    <t>경기도 부천시 내동 349-2</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 129</t>
+  </si>
+  <si>
+    <t>경기도 부천시 내동 33</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1051-12</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 794-4</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 351-10</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 67-28</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1178</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미동 55-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡동 98</t>
+  </si>
+  <si>
+    <t>경기도 부천시 약대동 138-7 다니엘종합병원</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡동 70-11</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡동 202-1 대림e편한세상1차아파트</t>
+  </si>
+  <si>
+    <t>935698.5256964418</t>
+  </si>
+  <si>
+    <t>935030.7905956672</t>
+  </si>
+  <si>
+    <t>935432.735096962</t>
+  </si>
+  <si>
+    <t>935340.0886627142</t>
+  </si>
+  <si>
+    <t>935546.5563240598</t>
+  </si>
+  <si>
+    <t>937903.8957978799</t>
+  </si>
+  <si>
+    <t>936165.717586441</t>
+  </si>
+  <si>
+    <t>936661.672797312</t>
+  </si>
+  <si>
+    <t>938903.45961868</t>
+  </si>
+  <si>
+    <t>938082.1699842233</t>
+  </si>
+  <si>
+    <t>935302.0700951035</t>
+  </si>
+  <si>
+    <t>938941.6387510335</t>
+  </si>
+  <si>
+    <t>937620.244355375</t>
+  </si>
+  <si>
+    <t>936934.6369157978</t>
+  </si>
+  <si>
+    <t>937563.8586611934</t>
+  </si>
+  <si>
+    <t>935755.1515233868</t>
+  </si>
+  <si>
+    <t>937040.9802927766</t>
+  </si>
+  <si>
+    <t>937684.1613286785</t>
+  </si>
+  <si>
+    <t>935744.6924309935</t>
+  </si>
+  <si>
+    <t>935534.8150422531</t>
+  </si>
+  <si>
+    <t>935658.4524120968</t>
+  </si>
+  <si>
+    <t>935962.0815557197</t>
+  </si>
+  <si>
+    <t>937258.6275689201</t>
+  </si>
+  <si>
+    <t>935493.8688474246</t>
+  </si>
+  <si>
+    <t>937343.4051737634</t>
+  </si>
+  <si>
+    <t>939022.91011751</t>
+  </si>
+  <si>
+    <t>935440.1809117801</t>
+  </si>
+  <si>
+    <t>938826.5348649935</t>
+  </si>
+  <si>
+    <t>939399.9035501834</t>
+  </si>
+  <si>
+    <t>1945927.8410687055</t>
+  </si>
+  <si>
+    <t>1945664.2897918765</t>
+  </si>
+  <si>
+    <t>1945788.1305265017</t>
+  </si>
+  <si>
+    <t>1947236.83825217</t>
+  </si>
+  <si>
+    <t>1945600.9232504768</t>
+  </si>
+  <si>
+    <t>1945366.5052831732</t>
+  </si>
+  <si>
+    <t>1943321.7044874248</t>
+  </si>
+  <si>
+    <t>1943836.9348417297</t>
+  </si>
+  <si>
+    <t>1946969.5273376168</t>
+  </si>
+  <si>
+    <t>1948056.1070932</t>
+  </si>
+  <si>
+    <t>1946813.46030444</t>
+  </si>
+  <si>
+    <t>1947921.18120701</t>
+  </si>
+  <si>
+    <t>1942658.2469479782</t>
+  </si>
+  <si>
+    <t>1944698.5011237492</t>
+  </si>
+  <si>
+    <t>1941722.93199503</t>
+  </si>
+  <si>
+    <t>1944883.9861882636</t>
+  </si>
+  <si>
+    <t>1947220.448226397</t>
+  </si>
+  <si>
+    <t>1946890.4802508783</t>
+  </si>
+  <si>
+    <t>1946683.3847888135</t>
+  </si>
+  <si>
+    <t>1945621.020449724</t>
+  </si>
+  <si>
+    <t>1943338.8491838467</t>
+  </si>
+  <si>
+    <t>1943345.8461025367</t>
+  </si>
+  <si>
+    <t>1946688.661895513</t>
+  </si>
+  <si>
+    <t>1944873.7944756122</t>
+  </si>
+  <si>
+    <t>1944439.374624257</t>
+  </si>
+  <si>
+    <t>1943674.3297440438</t>
+  </si>
+  <si>
+    <t>1946144.5431363503</t>
+  </si>
+  <si>
+    <t>1943353.09310793</t>
+  </si>
+  <si>
+    <t>1943585.1995648537</t>
   </si>
 </sst>
 </file>
@@ -12065,10 +12502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G501"/>
+  <dimension ref="A1:G530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E474" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G507" sqref="G507"/>
+    <sheetView tabSelected="1" topLeftCell="A492" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C521" sqref="C521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21575,7 +22012,7 @@
         <v>2320</v>
       </c>
       <c r="G451" t="str">
-        <f t="shared" ref="G451:G501" si="7">"{name:" &amp; "['"&amp;A451&amp;"'"&amp;IF(ISBLANK(B451),"",",'"&amp;B451&amp;"'")&amp;"],addr:" &amp; "'" &amp;C451&amp;"',x:"&amp; "'" &amp;D451&amp;"',y:"&amp; "'" &amp;E451&amp;"',jibun:"&amp; "'" &amp;F451&amp;"'},"</f>
+        <f t="shared" ref="G451:G514" si="7">"{name:" &amp; "['"&amp;A451&amp;"'"&amp;IF(ISBLANK(B451),"",",'"&amp;B451&amp;"'")&amp;"],addr:" &amp; "'" &amp;C451&amp;"',x:"&amp; "'" &amp;D451&amp;"',y:"&amp; "'" &amp;E451&amp;"',jibun:"&amp; "'" &amp;F451&amp;"'},"</f>
         <v>{name:['꾸우재-부천'],addr:'경기도 부천시 소사로247번길 19',x:'937606.9902566366',y:'1942565.574172047',jibun:'경기도 부천시 소사본동 78 세영타워메카'},</v>
       </c>
     </row>
@@ -22627,6 +23064,615 @@
       <c r="G501" t="str">
         <f t="shared" si="7"/>
         <v>{name:['미래타운2단지'],addr:'인천광역시 부평구 부평북로 432',x:'932970.9349309707',y:'1947235.7470364831',jibun:'인천광역시 부평구 삼산동 388-7 삼산주공미래타운2단지'},</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C502" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="G502" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['두산위브'],addr:'경기도 부천시 도약로 206',x:'935698.5256964418',y:'1945927.8410687055',jibun:'경기도 부천시 약대동 209 부천위브트레지움2단지아파트'},</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C503" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="G503" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['덕유마을1단지'],addr:'경기도 부천시 계남로 144',x:'935030.7905956672',y:'1945664.2897918765',jibun:'경기도 부천시 중동 1038 은하마을 주공2단지아파트'},</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C504" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="G504" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['덕유마을3단지'],addr:'경기도 부천시 중동로 327',x:'935432.735096962',y:'1945788.1305265017',jibun:'경기도 부천시 중동 1040 덕유마을 주공3단지아파트'},</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C505" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G505" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['부천테크노국민'],addr:'경기도 부천시 석천로 397',x:'935340.0886627142',y:'1947236.83825217',jibun:'경기도 부천시 삼정동 36-1 부천테크노파크쌍용3차'},</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C506" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="G506" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['설악마을'],addr:'경기도 부천시 계남로 195',x:'935546.5563240598',y:'1945600.9232504768',jibun:'경기도 부천시 중동 1051 설악마을 주공아파트'},</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C507" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="G507" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['S부천운동장역점G'],addr:'경기도 부천시 길주로 502',x:'937903.8957978799',y:'1945366.5052831732',jibun:'경기도 부천시 춘의동 15-1 부천종합운동장역'},</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C508" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="G508" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['부천다온하브점G'],addr:'경기도 부천시 부일로 429',x:'936165.717586441',y:'1943321.7044874248',jibun:'경기도 부천시 심곡동 458-2 다온하브'},</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C509" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G509" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['대성병원장례식장-부천'],addr:'경기도 부천시 부흥로 377',x:'936661.672797312',y:'1943836.9348417297',jibun:'경기도 부천시 심곡동 106 DS병원'},</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C510" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="G510" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['원종기쁨점G'],addr:'경기도 부천시 삼작로 421',x:'938903.45961868',y:'1946969.5273376168',jibun:'경기도 부천시 원종동 362-27'},</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C511" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="G511" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['원종타운점G'],addr:'경기도 부천시 상오정로184번길 44-1',x:'938082.1699842233',y:'1948056.1070932',jibun:'경기도 부천시 원종동 127-9'},</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C512" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="G512" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['삼정타운점G'],addr:'경기도 부천시 석천로356번길 30',x:'935302.0700951035',y:'1946813.46030444',jibun:'경기도 부천시 삼정동 283-10'},</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C513" t="s">
+        <v>2545</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="G513" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['오정성지로점G'],addr:'경기도 부천시 성지로111번길 39',x:'938941.6387510335',y:'1947921.18120701',jibun:'경기도 부천시 원종동 299 대성원종타운'},</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C514" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="G514" t="str">
+        <f t="shared" si="7"/>
+        <v>{name:['소사센트럴점M'],addr:'경기도 부천시 경인옛로 22',x:'937620.244355375',y:'1942658.2469479782',jibun:'경기도 부천시 소사본동 75 Shc타워'},</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C515" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="G515" t="str">
+        <f t="shared" ref="G515:G530" si="8">"{name:" &amp; "['"&amp;A515&amp;"'"&amp;IF(ISBLANK(B515),"",",'"&amp;B515&amp;"'")&amp;"],addr:" &amp; "'" &amp;C515&amp;"',x:"&amp; "'" &amp;D515&amp;"',y:"&amp; "'" &amp;E515&amp;"',jibun:"&amp; "'" &amp;F515&amp;"'},"</f>
+        <v>{name:['춘의지식센터점G'],addr:'경기도 부천시 부천로 170',x:'936934.6369157978',y:'1944698.5011237492',jibun:'경기도 부천시 춘의동 205-12'},</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C516" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G516" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천소사본점G'],addr:'경기도 부천시 소사로159번길 30',x:'937563.8586611934',y:'1941722.93199503',jibun:'경기도 부천시 소사본동 210-48'},</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C517" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="G517" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['중동미리내점G'],addr:'경기도 부천시 소향로 227',x:'935755.1515233868',y:'1944883.9861882636',jibun:'경기도 부천시 중동 1144-3 디아뜨갤러리3'},</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C518" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G518" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['내촌제일점G'],addr:'경기도 부천시 삼작로233번길 44',x:'937040.9802927766',y:'1947220.448226397',jibun:'경기도 부천시 내동 349-2'},</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C519" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G519" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['도당타운점G'],addr:'경기도 부천시 삼작로292번길 21-18',x:'937684.1613286785',y:'1946890.4802508783',jibun:'경기도 부천시 도당동 129'},</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C520" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="G520" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['필-부천'],addr:'경기도 부천시 평천로751번길 54',x:'935744.6924309935',y:'1946683.3847888135',jibun:'경기도 부천시 내동 33'},</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C521" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="G521" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['중동설악마을주공아파트 결합부스'],addr:'경기도 부천시 계남로 193',x:'935534.8150422531',y:'1945621.020449724',jibun:'경기도 부천시 중동 1051-12'},</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C522" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="G522" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['기아자동차 서비스센터 중동점-CITI'],addr:'경기도 부천시 부일로 380',x:'935658.4524120968',y:'1943338.8491838467',jibun:'경기도 부천시 중동 794-4'},</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C523" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="G523" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['행복슈퍼복권방-부천'],addr:'경기도 부천시 부일로 409',x:'935962.0815557197',y:'1943345.8461025367',jibun:'경기도 부천시 심곡동 351-10'},</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C524" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="G524" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['도당장미점G'],addr:'경기도 부천시 삼작로256번길 61',x:'937258.6275689201',y:'1946688.661895513',jibun:'경기도 부천시 도당동 67-28'},</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C525" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="G525" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['중동은하수점G'],addr:'경기도 부천시 소향로 204',x:'935493.8688474246',y:'1944873.7944756122',jibun:'경기도 부천시 중동 1178'},</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C526" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="G526" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['풍천슈퍼-원미'],addr:'경기도 부천시 조마루로 428',x:'937343.4051737634',y:'1944439.374624257',jibun:'경기도 부천시 원미동 55-1'},</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C527" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G527" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['역곡타운점G'],addr:'경기도 부천시 지봉로107번길 48',x:'939022.91011751',y:'1943674.3297440438',jibun:'경기도 부천시 역곡동 98'},</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C528" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="G528" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['대인의료재단'],addr:'경기도 부천시 중동로 361',x:'935440.1809117801',y:'1946144.5431363503',jibun:'경기도 부천시 약대동 138-7 다니엘종합병원'},</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C529" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="G529" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['역곡본점G'],addr:'경기도 부천시 지봉로 79',x:'938826.5348649935',y:'1943353.09310793',jibun:'경기도 부천시 역곡동 70-11'},</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C530" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="G530" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['역곡제일점G'],addr:'경기도 부천시 지봉로143번길 5',x:'939399.9035501834',y:'1943585.1995648537',jibun:'경기도 부천시 역곡동 202-1 대림e편한세상1차아파트'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="2668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="2923">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -8091,6 +8091,772 @@
   </si>
   <si>
     <t>1943585.1995648537</t>
+  </si>
+  <si>
+    <t>경기도 부천시 조마루로 271</t>
+  </si>
+  <si>
+    <t>미리내 신한</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로 663</t>
+  </si>
+  <si>
+    <t>홈플러스 여월</t>
+  </si>
+  <si>
+    <t>경기도 부천시 범안로 117</t>
+  </si>
+  <si>
+    <t>부천현대점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 범안로 220</t>
+  </si>
+  <si>
+    <t>옥길호반점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로53번길 9</t>
+  </si>
+  <si>
+    <t>부천세일점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼작로395번길 5</t>
+  </si>
+  <si>
+    <t>성곡사거리점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상오정로 44</t>
+  </si>
+  <si>
+    <t>오정대로점G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 부천시 경인로484번길 70</t>
+  </si>
+  <si>
+    <t>괴안타운점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 범안로95번길 43</t>
+  </si>
+  <si>
+    <t>소사범안로점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 양지로 134</t>
+  </si>
+  <si>
+    <t>옥길1단지점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 양지로 234-10</t>
+  </si>
+  <si>
+    <t>옥길카운티점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 양지로 234-26</t>
+  </si>
+  <si>
+    <t>옥길시티점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 까치로20번길 24-18</t>
+  </si>
+  <si>
+    <t>부천전원마을점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종로51번길 27</t>
+  </si>
+  <si>
+    <t>원종중앙점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 오정로244번길 38</t>
+  </si>
+  <si>
+    <t>오정타운점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 계남로 349</t>
+  </si>
+  <si>
+    <t>부천춘의점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로518번길 23</t>
+  </si>
+  <si>
+    <t>부천석원점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로148번길 43</t>
+  </si>
+  <si>
+    <t>원미중앙점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로263번길 18</t>
+  </si>
+  <si>
+    <t>농심마트-도당동</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심중로114번길 35</t>
+  </si>
+  <si>
+    <t>중동본점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미로 213</t>
+  </si>
+  <si>
+    <t>부천장례식장</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미로13번길 48</t>
+  </si>
+  <si>
+    <t>심곡중앙점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동로 161</t>
+  </si>
+  <si>
+    <t>중동복사골점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미로 124</t>
+  </si>
+  <si>
+    <t>부천원미점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종로30번길 27</t>
+  </si>
+  <si>
+    <t>원종한울점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 은성로61번길 21</t>
+  </si>
+  <si>
+    <t>소사수연메인점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 장말로 239</t>
+  </si>
+  <si>
+    <t>부천문예점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로10번길 13</t>
+  </si>
+  <si>
+    <t>부천광장점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 길주로 284</t>
+  </si>
+  <si>
+    <t>중동혜리움점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로 524</t>
+  </si>
+  <si>
+    <t>부천늘사랑점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로483번길 29</t>
+  </si>
+  <si>
+    <t>심곡타운점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로 47</t>
+  </si>
+  <si>
+    <t>심곡대로점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부흥로 444</t>
+  </si>
+  <si>
+    <t>심곡복개천점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부흥로433번길 23</t>
+  </si>
+  <si>
+    <t>원미늘푸른점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼작로 489</t>
+  </si>
+  <si>
+    <t>작동중앙점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부광로 10</t>
+  </si>
+  <si>
+    <t>역곡남부점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소삼로 60</t>
+  </si>
+  <si>
+    <t>소사SK뷰점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼작로 325</t>
+  </si>
+  <si>
+    <t>부천여월점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 성지로 68</t>
+  </si>
+  <si>
+    <t>부천고강점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로699번길 35</t>
+  </si>
+  <si>
+    <t>부천성곡점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로808번길 43</t>
+  </si>
+  <si>
+    <t>코사마트-원종</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡로 473</t>
+  </si>
+  <si>
+    <t>세븐일레븐-고강사거리점</t>
+  </si>
+  <si>
+    <t>경기도 부천시 길주로 272</t>
+  </si>
+  <si>
+    <t>중동해중점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미로 164</t>
+  </si>
+  <si>
+    <t>부천조마루점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미로201번길 72</t>
+  </si>
+  <si>
+    <t>춘의산업단지점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미로65번길 110</t>
+  </si>
+  <si>
+    <t>부천심곡행복G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 은성로37번길 28</t>
+  </si>
+  <si>
+    <t>소사중앙점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동로254번길 50</t>
+  </si>
+  <si>
+    <t>중동센트럴점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 평천로832번길 30</t>
+  </si>
+  <si>
+    <t>에스피반도체통신(주)-KB</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종로 50</t>
+  </si>
+  <si>
+    <t>원종사거리점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 조마루로291번길 22</t>
+  </si>
+  <si>
+    <t>영신마트-부천</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1180-1 미리내마을 롯데아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 여월동 301 홈플러스 부천여월점</t>
+  </si>
+  <si>
+    <t>경기도 부천시 범박동 155-2 현대리치모아</t>
+  </si>
+  <si>
+    <t>경기도 부천시 옥길동 780-1 옥길호반베르디움</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 350-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 373-9</t>
+  </si>
+  <si>
+    <t>경기도 부천시 오정동 613-15</t>
+  </si>
+  <si>
+    <t>경기도 부천시 괴안동 99-41</t>
+  </si>
+  <si>
+    <t>경기도 부천시 범박동 4-1 승일빌딩</t>
+  </si>
+  <si>
+    <t>경기도 부천시 옥길동 701-1 부천옥길엘에이치1단지</t>
+  </si>
+  <si>
+    <t>경기도 부천시 옥길동 742-1 제이드카운티 1단지</t>
+  </si>
+  <si>
+    <t>경기도 부천시 옥길동 747-1 엘에이치옥길헤일라움</t>
+  </si>
+  <si>
+    <t>경기도 부천시 작동 427-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 277-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 오정동 558-10</t>
+  </si>
+  <si>
+    <t>경기도 부천시 춘의동 220-50</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 128-25</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미동 62-30</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 263-29</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1203-7</t>
+  </si>
+  <si>
+    <t>경기도 부천시 춘의동 193-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 140-3</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 720-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미동 94-3 신영빌딩</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 222-7 한울팰리스</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 159-30</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 775-2</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 170-21</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1141-3 신중동역 헤리움 메트로</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 129-2</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 164-14</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 349-3 노마즈하우스</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 132-2</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미동 199-18</t>
+  </si>
+  <si>
+    <t>경기도 부천시 작동 32-10</t>
+  </si>
+  <si>
+    <t>경기도 부천시 괴안동 115-6</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 135 소사 에스케이뷰</t>
+  </si>
+  <si>
+    <t>경기도 부천시 여월동 3-30 주영빌딩</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고강동 294-20 경성아트빌리지</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 378</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 241-14 왕성한교회</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고강동 474-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1141 코스모폴리탄</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미동 2-5</t>
+  </si>
+  <si>
+    <t>경기도 부천시 춘의동 196-5</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미동 138-1 화신빌딩</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 152-23 봄날하우징</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1146-2</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 96-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 280-1 한성연립</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1130-4 초석빌딩</t>
+  </si>
+  <si>
+    <t>935824.0912296071</t>
+  </si>
+  <si>
+    <t>938353.6378163034</t>
+  </si>
+  <si>
+    <t>938950.7963754567</t>
+  </si>
+  <si>
+    <t>939125.7561736028</t>
+  </si>
+  <si>
+    <t>936630.1583782367</t>
+  </si>
+  <si>
+    <t>938637.3556954768</t>
+  </si>
+  <si>
+    <t>937157.4953812901</t>
+  </si>
+  <si>
+    <t>939084.3499897001</t>
+  </si>
+  <si>
+    <t>939105.5058289065</t>
+  </si>
+  <si>
+    <t>939649.2974718865</t>
+  </si>
+  <si>
+    <t>940407.8856807328</t>
+  </si>
+  <si>
+    <t>940323.9568076185</t>
+  </si>
+  <si>
+    <t>938964.9185465635</t>
+  </si>
+  <si>
+    <t>938638.7528868834</t>
+  </si>
+  <si>
+    <t>937022.9899339767</t>
+  </si>
+  <si>
+    <t>936686.5581205166</t>
+  </si>
+  <si>
+    <t>937029.4579920934</t>
+  </si>
+  <si>
+    <t>937066.6740567067</t>
+  </si>
+  <si>
+    <t>936796.2112419868</t>
+  </si>
+  <si>
+    <t>935669.8167004234</t>
+  </si>
+  <si>
+    <t>937520.793822641</t>
+  </si>
+  <si>
+    <t>936905.7148628335</t>
+  </si>
+  <si>
+    <t>935202.5894938202</t>
+  </si>
+  <si>
+    <t>937354.7772728968</t>
+  </si>
+  <si>
+    <t>938449.9499632535</t>
+  </si>
+  <si>
+    <t>937879.2045541967</t>
+  </si>
+  <si>
+    <t>935347.6305577168</t>
+  </si>
+  <si>
+    <t>936669.9539632967</t>
+  </si>
+  <si>
+    <t>935805.7124050865</t>
+  </si>
+  <si>
+    <t>937075.7948986602</t>
+  </si>
+  <si>
+    <t>936699.3180037567</t>
+  </si>
+  <si>
+    <t>936639.7505607919</t>
+  </si>
+  <si>
+    <t>937102.0904281901</t>
+  </si>
+  <si>
+    <t>937129.0147495533</t>
+  </si>
+  <si>
+    <t>939554.4158174766</t>
+  </si>
+  <si>
+    <t>939227.3965562966</t>
+  </si>
+  <si>
+    <t>938071.7665639266</t>
+  </si>
+  <si>
+    <t>937949.3556220634</t>
+  </si>
+  <si>
+    <t>939151.6284657377</t>
+  </si>
+  <si>
+    <t>938394.4446079733</t>
+  </si>
+  <si>
+    <t>938780.1610811134</t>
+  </si>
+  <si>
+    <t>939546.3027440934</t>
+  </si>
+  <si>
+    <t>935697.7686057966</t>
+  </si>
+  <si>
+    <t>937441.6183491966</t>
+  </si>
+  <si>
+    <t>937274.4996735004</t>
+  </si>
+  <si>
+    <t>936842.9873131467</t>
+  </si>
+  <si>
+    <t>937653.4693434436</t>
+  </si>
+  <si>
+    <t>935627.7599616719</t>
+  </si>
+  <si>
+    <t>936649.9096412025</t>
+  </si>
+  <si>
+    <t>938636.0361479335</t>
+  </si>
+  <si>
+    <t>936008.54028427</t>
+  </si>
+  <si>
+    <t>1944536.6057369541</t>
+  </si>
+  <si>
+    <t>1946510.9062971636</t>
+  </si>
+  <si>
+    <t>1941556.7373980903</t>
+  </si>
+  <si>
+    <t>1940597.3762413184</t>
+  </si>
+  <si>
+    <t>1943542.89476451</t>
+  </si>
+  <si>
+    <t>1946973.145377587</t>
+  </si>
+  <si>
+    <t>1947387.4261540868</t>
+  </si>
+  <si>
+    <t>1942583.3147484302</t>
+  </si>
+  <si>
+    <t>1941848.992813347</t>
+  </si>
+  <si>
+    <t>1941542.4765197346</t>
+  </si>
+  <si>
+    <t>1940924.5820713178</t>
+  </si>
+  <si>
+    <t>1940791.37944292</t>
+  </si>
+  <si>
+    <t>1945592.18424385</t>
+  </si>
+  <si>
+    <t>1947548.9733005767</t>
+  </si>
+  <si>
+    <t>1947876.8986013504</t>
+  </si>
+  <si>
+    <t>1944767.4433127302</t>
+  </si>
+  <si>
+    <t>1943005.14288089</t>
+  </si>
+  <si>
+    <t>1944443.039293277</t>
+  </si>
+  <si>
+    <t>1945592.5785667202</t>
+  </si>
+  <si>
+    <t>1944006.3665641402</t>
+  </si>
+  <si>
+    <t>1944929.6920374157</t>
+  </si>
+  <si>
+    <t>1943034.0362369036</t>
+  </si>
+  <si>
+    <t>1944144.326413997</t>
+  </si>
+  <si>
+    <t>1944042.5430829534</t>
+  </si>
+  <si>
+    <t>1947293.3074186835</t>
+  </si>
+  <si>
+    <t>1942119.9391428768</t>
+  </si>
+  <si>
+    <t>1943930.3169447067</t>
+  </si>
+  <si>
+    <t>1943125.6315513435</t>
+  </si>
+  <si>
+    <t>1945082.3659298155</t>
+  </si>
+  <si>
+    <t>1943094.5570333232</t>
+  </si>
+  <si>
+    <t>1943323.5495398198</t>
+  </si>
+  <si>
+    <t>1943515.3642196883</t>
+  </si>
+  <si>
+    <t>1943334.6138755367</t>
+  </si>
+  <si>
+    <t>1943512.8150395635</t>
+  </si>
+  <si>
+    <t>1946826.3675286132</t>
+  </si>
+  <si>
+    <t>1942942.7560234931</t>
+  </si>
+  <si>
+    <t>1942333.0851764334</t>
+  </si>
+  <si>
+    <t>1946987.497450157</t>
+  </si>
+  <si>
+    <t>1947527.439471791</t>
+  </si>
+  <si>
+    <t>1946790.5669453</t>
+  </si>
+  <si>
+    <t>1947914.63684361</t>
+  </si>
+  <si>
+    <t>1947730.8207361535</t>
+  </si>
+  <si>
+    <t>1945104.2865053834</t>
+  </si>
+  <si>
+    <t>1944447.973258867</t>
+  </si>
+  <si>
+    <t>1945005.493760469</t>
+  </si>
+  <si>
+    <t>1943875.1385334567</t>
+  </si>
+  <si>
+    <t>1942148.5173964603</t>
+  </si>
+  <si>
+    <t>1944987.1606943635</t>
+  </si>
+  <si>
+    <t>1946300.0668894793</t>
+  </si>
+  <si>
+    <t>1947407.2231691834</t>
+  </si>
+  <si>
+    <t>1944603.6848063837</t>
   </si>
 </sst>
 </file>
@@ -12502,10 +13268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G530"/>
+  <dimension ref="A1:G581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C521" sqref="C521"/>
+    <sheetView tabSelected="1" topLeftCell="E558" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G588" sqref="G588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23356,7 +24122,7 @@
         <v>2594</v>
       </c>
       <c r="G515" t="str">
-        <f t="shared" ref="G515:G530" si="8">"{name:" &amp; "['"&amp;A515&amp;"'"&amp;IF(ISBLANK(B515),"",",'"&amp;B515&amp;"'")&amp;"],addr:" &amp; "'" &amp;C515&amp;"',x:"&amp; "'" &amp;D515&amp;"',y:"&amp; "'" &amp;E515&amp;"',jibun:"&amp; "'" &amp;F515&amp;"'},"</f>
+        <f t="shared" ref="G515:G578" si="8">"{name:" &amp; "['"&amp;A515&amp;"'"&amp;IF(ISBLANK(B515),"",",'"&amp;B515&amp;"'")&amp;"],addr:" &amp; "'" &amp;C515&amp;"',x:"&amp; "'" &amp;D515&amp;"',y:"&amp; "'" &amp;E515&amp;"',jibun:"&amp; "'" &amp;F515&amp;"'},"</f>
         <v>{name:['춘의지식센터점G'],addr:'경기도 부천시 부천로 170',x:'936934.6369157978',y:'1944698.5011237492',jibun:'경기도 부천시 춘의동 205-12'},</v>
       </c>
     </row>
@@ -23673,6 +24439,1077 @@
       <c r="G530" t="str">
         <f t="shared" si="8"/>
         <v>{name:['역곡제일점G'],addr:'경기도 부천시 지봉로143번길 5',x:'939399.9035501834',y:'1943585.1995648537',jibun:'경기도 부천시 역곡동 202-1 대림e편한세상1차아파트'},</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C531" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="G531" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['미리내 신한'],addr:'경기도 부천시 조마루로 271',x:'935824.0912296071',y:'1944536.6057369541',jibun:'경기도 부천시 중동 1180-1 미리내마을 롯데아파트'},</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C532" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="G532" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['홈플러스 여월'],addr:'경기도 부천시 소사로 663',x:'938353.6378163034',y:'1946510.9062971636',jibun:'경기도 부천시 여월동 301 홈플러스 부천여월점'},</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C533" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="G533" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천현대점G'],addr:'경기도 부천시 범안로 117',x:'938950.7963754567',y:'1941556.7373980903',jibun:'경기도 부천시 범박동 155-2 현대리치모아'},</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C534" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="G534" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['옥길호반점G'],addr:'경기도 부천시 범안로 220',x:'939125.7561736028',y:'1940597.3762413184',jibun:'경기도 부천시 옥길동 780-1 옥길호반베르디움'},</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C535" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G535" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천세일점M'],addr:'경기도 부천시 부천로53번길 9',x:'936630.1583782367',y:'1943542.89476451',jibun:'경기도 부천시 심곡동 350-1'},</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C536" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="G536" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['성곡사거리점G'],addr:'경기도 부천시 삼작로395번길 5',x:'938637.3556954768',y:'1946973.145377587',jibun:'경기도 부천시 원종동 373-9'},</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C537" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="G537" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['오정대로점G'],addr:'경기도 부천시 상오정로 44',x:'937157.4953812901',y:'1947387.4261540868',jibun:'경기도 부천시 오정동 613-15'},</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C538" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="G538" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['괴안타운점G'],addr:'경기도 부천시 경인로484번길 70',x:'939084.3499897001',y:'1942583.3147484302',jibun:'경기도 부천시 괴안동 99-41'},</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C539" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="G539" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['소사범안로점G'],addr:'경기도 부천시 범안로95번길 43',x:'939105.5058289065',y:'1941848.992813347',jibun:'경기도 부천시 범박동 4-1 승일빌딩'},</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C540" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="G540" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['옥길1단지점G'],addr:'경기도 부천시 양지로 134',x:'939649.2974718865',y:'1941542.4765197346',jibun:'경기도 부천시 옥길동 701-1 부천옥길엘에이치1단지'},</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C541" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="G541" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['옥길카운티점G'],addr:'경기도 부천시 양지로 234-10',x:'940407.8856807328',y:'1940924.5820713178',jibun:'경기도 부천시 옥길동 742-1 제이드카운티 1단지'},</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C542" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="G542" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['옥길시티점M'],addr:'경기도 부천시 양지로 234-26',x:'940323.9568076185',y:'1940791.37944292',jibun:'경기도 부천시 옥길동 747-1 엘에이치옥길헤일라움'},</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C543" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="G543" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천전원마을점G'],addr:'경기도 부천시 까치로20번길 24-18',x:'938964.9185465635',y:'1945592.18424385',jibun:'경기도 부천시 작동 427-1'},</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C544" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="G544" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['원종중앙점G'],addr:'경기도 부천시 원종로51번길 27',x:'938638.7528868834',y:'1947548.9733005767',jibun:'경기도 부천시 원종동 277-1'},</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C545" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="G545" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['오정타운점G'],addr:'경기도 부천시 오정로244번길 38',x:'937022.9899339767',y:'1947876.8986013504',jibun:'경기도 부천시 오정동 558-10'},</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C546" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="G546" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천춘의점M'],addr:'경기도 부천시 계남로 349',x:'936686.5581205166',y:'1944767.4433127302',jibun:'경기도 부천시 춘의동 220-50'},</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C547" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G547" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천석원점G'],addr:'경기도 부천시 부일로518번길 23',x:'937029.4579920934',y:'1943005.14288089',jibun:'경기도 부천시 심곡동 128-25'},</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C548" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G548" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['원미중앙점G'],addr:'경기도 부천시 부천로148번길 43',x:'937066.6740567067',y:'1944443.039293277',jibun:'경기도 부천시 원미동 62-30'},</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C549" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="G549" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['농심마트-도당동'],addr:'경기도 부천시 부천로263번길 18',x:'936796.2112419868',y:'1945592.5785667202',jibun:'경기도 부천시 도당동 263-29'},</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C550" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="G550" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['중동본점G'],addr:'경기도 부천시 심중로114번길 35',x:'935669.8167004234',y:'1944006.3665641402',jibun:'경기도 부천시 중동 1203-7'},</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C551" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="G551" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천장례식장'],addr:'경기도 부천시 원미로 213',x:'937520.793822641',y:'1944929.6920374157',jibun:'경기도 부천시 춘의동 193-1'},</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C552" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="G552" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['심곡중앙점M'],addr:'경기도 부천시 원미로13번길 48',x:'936905.7148628335',y:'1943034.0362369036',jibun:'경기도 부천시 심곡동 140-3'},</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C553" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="G553" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['중동복사골점G'],addr:'경기도 부천시 중동로 161',x:'935202.5894938202',y:'1944144.326413997',jibun:'경기도 부천시 중동 720-1'},</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C554" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="G554" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천원미점G'],addr:'경기도 부천시 원미로 124',x:'937354.7772728968',y:'1944042.5430829534',jibun:'경기도 부천시 원미동 94-3 신영빌딩'},</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C555" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="G555" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['원종한울점G'],addr:'경기도 부천시 원종로30번길 27',x:'938449.9499632535',y:'1947293.3074186835',jibun:'경기도 부천시 원종동 222-7 한울팰리스'},</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C556" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="G556" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['소사수연메인점G'],addr:'경기도 부천시 은성로61번길 21',x:'937879.2045541967',y:'1942119.9391428768',jibun:'경기도 부천시 소사본동 159-30'},</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C557" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="G557" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천문예점G'],addr:'경기도 부천시 장말로 239',x:'935347.6305577168',y:'1943930.3169447067',jibun:'경기도 부천시 중동 775-2'},</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C558" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="G558" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천광장점M'],addr:'경기도 부천시 부천로10번길 13',x:'936669.9539632967',y:'1943125.6315513435',jibun:'경기도 부천시 심곡동 170-21'},</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C559" t="s">
+        <v>2724</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="G559" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['중동혜리움점G'],addr:'경기도 부천시 길주로 284',x:'935805.7124050865',y:'1945082.3659298155',jibun:'경기도 부천시 중동 1141-3 신중동역 헤리움 메트로'},</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C560" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="G560" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천늘사랑점G'],addr:'경기도 부천시 부일로 524',x:'937075.7948986602',y:'1943094.5570333232',jibun:'경기도 부천시 심곡동 129-2'},</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C561" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="G561" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['심곡타운점G'],addr:'경기도 부천시 부일로483번길 29',x:'936699.3180037567',y:'1943323.5495398198',jibun:'경기도 부천시 심곡동 164-14'},</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C562" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="G562" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['심곡대로점G'],addr:'경기도 부천시 부천로 47',x:'936639.7505607919',y:'1943515.3642196883',jibun:'경기도 부천시 심곡동 349-3 노마즈하우스'},</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C563" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="G563" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['심곡복개천점G'],addr:'경기도 부천시 부흥로 444',x:'937102.0904281901',y:'1943334.6138755367',jibun:'경기도 부천시 심곡동 132-2'},</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C564" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G564" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['원미늘푸른점G'],addr:'경기도 부천시 부흥로433번길 23',x:'937129.0147495533',y:'1943512.8150395635',jibun:'경기도 부천시 원미동 199-18'},</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C565" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="G565" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['작동중앙점G'],addr:'경기도 부천시 삼작로 489',x:'939554.4158174766',y:'1946826.3675286132',jibun:'경기도 부천시 작동 32-10'},</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C566" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="G566" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['역곡남부점M'],addr:'경기도 부천시 부광로 10',x:'939227.3965562966',y:'1942942.7560234931',jibun:'경기도 부천시 괴안동 115-6'},</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C567" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="G567" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['소사SK뷰점G'],addr:'경기도 부천시 소삼로 60',x:'938071.7665639266',y:'1942333.0851764334',jibun:'경기도 부천시 소사본동 135 소사 에스케이뷰'},</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C568" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="G568" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천여월점G'],addr:'경기도 부천시 삼작로 325',x:'937949.3556220634',y:'1946987.497450157',jibun:'경기도 부천시 여월동 3-30 주영빌딩'},</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C569" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="G569" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천고강점G'],addr:'경기도 부천시 성지로 68',x:'939151.6284657377',y:'1947527.439471791',jibun:'경기도 부천시 고강동 294-20 경성아트빌리지'},</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C570" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="G570" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천성곡점G'],addr:'경기도 부천시 소사로699번길 35',x:'938394.4446079733',y:'1946790.5669453',jibun:'경기도 부천시 원종동 378'},</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C571" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G571" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['코사마트-원종'],addr:'경기도 부천시 소사로808번길 43',x:'938780.1610811134',y:'1947914.63684361',jibun:'경기도 부천시 원종동 241-14 왕성한교회'},</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C572" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="G572" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['세븐일레븐-고강사거리점'],addr:'경기도 부천시 역곡로 473',x:'939546.3027440934',y:'1947730.8207361535',jibun:'경기도 부천시 고강동 474-1'},</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C573" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="G573" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['중동해중점G'],addr:'경기도 부천시 길주로 272',x:'935697.7686057966',y:'1945104.2865053834',jibun:'경기도 부천시 중동 1141 코스모폴리탄'},</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C574" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G574" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천조마루점G'],addr:'경기도 부천시 원미로 164',x:'937441.6183491966',y:'1944447.973258867',jibun:'경기도 부천시 원미동 2-5'},</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C575" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="G575" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['춘의산업단지점G'],addr:'경기도 부천시 원미로201번길 72',x:'937274.4996735004',y:'1945005.493760469',jibun:'경기도 부천시 춘의동 196-5'},</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C576" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="G576" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['부천심곡행복G'],addr:'경기도 부천시 원미로65번길 110',x:'936842.9873131467',y:'1943875.1385334567',jibun:'경기도 부천시 원미동 138-1 화신빌딩'},</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C577" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G577" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['소사중앙점G'],addr:'경기도 부천시 은성로37번길 28',x:'937653.4693434436',y:'1942148.5173964603',jibun:'경기도 부천시 소사본동 152-23 봄날하우징'},</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C578" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="G578" t="str">
+        <f t="shared" si="8"/>
+        <v>{name:['중동센트럴점G'],addr:'경기도 부천시 중동로254번길 50',x:'935627.7599616719',y:'1944987.1606943635',jibun:'경기도 부천시 중동 1146-2'},</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C579" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="G579" t="str">
+        <f t="shared" ref="G579:G581" si="9">"{name:" &amp; "['"&amp;A579&amp;"'"&amp;IF(ISBLANK(B579),"",",'"&amp;B579&amp;"'")&amp;"],addr:" &amp; "'" &amp;C579&amp;"',x:"&amp; "'" &amp;D579&amp;"',y:"&amp; "'" &amp;E579&amp;"',jibun:"&amp; "'" &amp;F579&amp;"'},"</f>
+        <v>{name:['에스피반도체통신(주)-KB'],addr:'경기도 부천시 평천로832번길 30',x:'936649.9096412025',y:'1946300.0668894793',jibun:'경기도 부천시 도당동 96-1'},</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C580" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G580" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['원종사거리점G'],addr:'경기도 부천시 원종로 50',x:'938636.0361479335',y:'1947407.2231691834',jibun:'경기도 부천시 원종동 280-1 한성연립'},</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C581" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="G581" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['영신마트-부천'],addr:'경기도 부천시 조마루로291번길 22',x:'936008.54028427',y:'1944603.6848063837',jibun:'경기도 부천시 중동 1130-4 초석빌딩'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="2923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="3028">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -8857,6 +8857,321 @@
   </si>
   <si>
     <t>1944603.6848063837</t>
+  </si>
+  <si>
+    <t>경기도 부천시 경인로483번길 10</t>
+  </si>
+  <si>
+    <t>역곡빌리지점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로459번길 11</t>
+  </si>
+  <si>
+    <t>부천본점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로699번길 24</t>
+  </si>
+  <si>
+    <t>역곡중앙점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로366번길 18</t>
+  </si>
+  <si>
+    <t>부천북중점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 성오로160번길 42</t>
+  </si>
+  <si>
+    <t>오정스타점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소안로 22</t>
+  </si>
+  <si>
+    <t>소사삼익점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 양지로184번길 8-4</t>
+  </si>
+  <si>
+    <t>부천옥길점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소안로 63</t>
+  </si>
+  <si>
+    <t>소사팰리스점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 신흥로 92-1</t>
+  </si>
+  <si>
+    <t>부천신흥로점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 양지로 234-38</t>
+  </si>
+  <si>
+    <t>옥길센트럴점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로10번길 33</t>
+  </si>
+  <si>
+    <t>부천소신점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼작로416번길 35</t>
+  </si>
+  <si>
+    <t>원종공원점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상오정로 17</t>
+  </si>
+  <si>
+    <t>이마트24-부천오정점</t>
+  </si>
+  <si>
+    <t>경기도 부천시 성곡로 88</t>
+  </si>
+  <si>
+    <t>부천여월점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 성오로141번길 54</t>
+  </si>
+  <si>
+    <t>원종본점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로775번길 25</t>
+  </si>
+  <si>
+    <t>부천욱일점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종로 64</t>
+  </si>
+  <si>
+    <t>진로할인마트-부천</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부흥로188번길 33</t>
+  </si>
+  <si>
+    <t>중동시장점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 신흥로 248</t>
+  </si>
+  <si>
+    <t>중동신흥점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 조마루로397번길 8</t>
+  </si>
+  <si>
+    <t>부천조마루점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종로 30</t>
+  </si>
+  <si>
+    <t>부천원종점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 괴안동 112-24</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 381-13</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡동 51</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 35-14</t>
+  </si>
+  <si>
+    <t>경기도 부천시 오정동 137-5</t>
+  </si>
+  <si>
+    <t>경기도 부천시 괴안동 204-6 삼익세라믹아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 옥길동 722-5</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 55-2 대은팰리스뷰아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 446-3</t>
+  </si>
+  <si>
+    <t>경기도 부천시 옥길동 748-1 엘에이치옥길센트럴힐</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 170-9</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 359</t>
+  </si>
+  <si>
+    <t>경기도 부천시 오정동 585-19 한진타운</t>
+  </si>
+  <si>
+    <t>경기도 부천시 여월동 4-32 대향빌딩</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 150-15</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 221 수성빌딩</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 313-10 부천프라자</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 726-17</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1061-3 수와미프라자</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미동 44-5 스테이트 로뎀</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 222</t>
+  </si>
+  <si>
+    <t>938919.0504598434</t>
+  </si>
+  <si>
+    <t>936463.4961682502</t>
+  </si>
+  <si>
+    <t>938754.3870545034</t>
+  </si>
+  <si>
+    <t>936883.5920143302</t>
+  </si>
+  <si>
+    <t>938098.1829682868</t>
+  </si>
+  <si>
+    <t>938291.3920085568</t>
+  </si>
+  <si>
+    <t>940023.4401801764</t>
+  </si>
+  <si>
+    <t>938360.9080552934</t>
+  </si>
+  <si>
+    <t>936200.4638179247</t>
+  </si>
+  <si>
+    <t>940359.3714133694</t>
+  </si>
+  <si>
+    <t>936775.4343954467</t>
+  </si>
+  <si>
+    <t>938863.2129920034</t>
+  </si>
+  <si>
+    <t>936896.5176245633</t>
+  </si>
+  <si>
+    <t>937791.5553046933</t>
+  </si>
+  <si>
+    <t>938022.8318222335</t>
+  </si>
+  <si>
+    <t>938452.9365951633</t>
+  </si>
+  <si>
+    <t>938760.55276683</t>
+  </si>
+  <si>
+    <t>934875.1775259734</t>
+  </si>
+  <si>
+    <t>935999.4180041</t>
+  </si>
+  <si>
+    <t>937099.6498249532</t>
+  </si>
+  <si>
+    <t>938445.6124630934</t>
+  </si>
+  <si>
+    <t>1942943.5240052533</t>
+  </si>
+  <si>
+    <t>1943285.7638978702</t>
+  </si>
+  <si>
+    <t>1943155.68859808</t>
+  </si>
+  <si>
+    <t>1946607.0906425803</t>
+  </si>
+  <si>
+    <t>1947773.2146421666</t>
+  </si>
+  <si>
+    <t>1942172.202223057</t>
+  </si>
+  <si>
+    <t>1941230.0063069724</t>
+  </si>
+  <si>
+    <t>1942586.9990018266</t>
+  </si>
+  <si>
+    <t>1943882.9191860054</t>
+  </si>
+  <si>
+    <t>1940666.0660170303</t>
+  </si>
+  <si>
+    <t>1943105.5946267666</t>
+  </si>
+  <si>
+    <t>1946793.8583676936</t>
+  </si>
+  <si>
+    <t>1947463.5517697237</t>
+  </si>
+  <si>
+    <t>1947045.1115102037</t>
+  </si>
+  <si>
+    <t>1947408.55607113</t>
+  </si>
+  <si>
+    <t>1947545.0531922164</t>
+  </si>
+  <si>
+    <t>1947392.580067343</t>
+  </si>
+  <si>
+    <t>1944199.9188912334</t>
+  </si>
+  <si>
+    <t>1945408.1680623135</t>
+  </si>
+  <si>
+    <t>1944528.7897716337</t>
+  </si>
+  <si>
+    <t>1947409.5496348664</t>
   </si>
 </sst>
 </file>
@@ -13268,10 +13583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G581"/>
+  <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E558" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G588" sqref="G588"/>
+    <sheetView tabSelected="1" topLeftCell="A396" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B589" sqref="B589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25466,7 +25781,7 @@
         <v>2818</v>
       </c>
       <c r="G579" t="str">
-        <f t="shared" ref="G579:G581" si="9">"{name:" &amp; "['"&amp;A579&amp;"'"&amp;IF(ISBLANK(B579),"",",'"&amp;B579&amp;"'")&amp;"],addr:" &amp; "'" &amp;C579&amp;"',x:"&amp; "'" &amp;D579&amp;"',y:"&amp; "'" &amp;E579&amp;"',jibun:"&amp; "'" &amp;F579&amp;"'},"</f>
+        <f t="shared" ref="G579:G602" si="9">"{name:" &amp; "['"&amp;A579&amp;"'"&amp;IF(ISBLANK(B579),"",",'"&amp;B579&amp;"'")&amp;"],addr:" &amp; "'" &amp;C579&amp;"',x:"&amp; "'" &amp;D579&amp;"',y:"&amp; "'" &amp;E579&amp;"',jibun:"&amp; "'" &amp;F579&amp;"'},"</f>
         <v>{name:['에스피반도체통신(주)-KB'],addr:'경기도 부천시 평천로832번길 30',x:'936649.9096412025',y:'1946300.0668894793',jibun:'경기도 부천시 도당동 96-1'},</v>
       </c>
     </row>
@@ -25510,6 +25825,447 @@
       <c r="G581" t="str">
         <f t="shared" si="9"/>
         <v>{name:['영신마트-부천'],addr:'경기도 부천시 조마루로291번길 22',x:'936008.54028427',y:'1944603.6848063837',jibun:'경기도 부천시 중동 1130-4 초석빌딩'},</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C582" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="G582" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['역곡빌리지점G'],addr:'경기도 부천시 경인로483번길 10',x:'938919.0504598434',y:'1942943.5240052533',jibun:'경기도 부천시 괴안동 112-24'},</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C583" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="G583" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천본점M'],addr:'경기도 부천시 부일로459번길 11',x:'936463.4961682502',y:'1943285.7638978702',jibun:'경기도 부천시 심곡동 381-13'},</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C584" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="G584" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['역곡중앙점G'],addr:'경기도 부천시 부일로699번길 24',x:'938754.3870545034',y:'1943155.68859808',jibun:'경기도 부천시 역곡동 51'},</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C585" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G585" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천북중점G'],addr:'경기도 부천시 부천로366번길 18',x:'936883.5920143302',y:'1946607.0906425803',jibun:'경기도 부천시 도당동 35-14'},</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C586" t="s">
+        <v>2931</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="G586" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['오정스타점G'],addr:'경기도 부천시 성오로160번길 42',x:'938098.1829682868',y:'1947773.2146421666',jibun:'경기도 부천시 오정동 137-5'},</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C587" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="G587" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['소사삼익점G'],addr:'경기도 부천시 소안로 22',x:'938291.3920085568',y:'1942172.202223057',jibun:'경기도 부천시 괴안동 204-6 삼익세라믹아파트'},</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C588" t="s">
+        <v>2935</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="G588" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천옥길점G'],addr:'경기도 부천시 양지로184번길 8-4',x:'940023.4401801764',y:'1941230.0063069724',jibun:'경기도 부천시 옥길동 722-5'},</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C589" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="G589" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['소사팰리스점G'],addr:'경기도 부천시 소안로 63',x:'938360.9080552934',y:'1942586.9990018266',jibun:'경기도 부천시 소사본동 55-2 대은팰리스뷰아파트'},</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C590" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="G590" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천신흥로점G'],addr:'경기도 부천시 신흥로 92-1',x:'936200.4638179247',y:'1943882.9191860054',jibun:'경기도 부천시 심곡동 446-3'},</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C591" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="G591" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['옥길센트럴점G'],addr:'경기도 부천시 양지로 234-38',x:'940359.3714133694',y:'1940666.0660170303',jibun:'경기도 부천시 옥길동 748-1 엘에이치옥길센트럴힐'},</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C592" t="s">
+        <v>2943</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="G592" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천소신점G'],addr:'경기도 부천시 부천로10번길 33',x:'936775.4343954467',y:'1943105.5946267666',jibun:'경기도 부천시 심곡동 170-9'},</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C593" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="G593" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['원종공원점G'],addr:'경기도 부천시 삼작로416번길 35',x:'938863.2129920034',y:'1946793.8583676936',jibun:'경기도 부천시 원종동 359'},</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C594" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G594" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['이마트24-부천오정점'],addr:'경기도 부천시 상오정로 17',x:'936896.5176245633',y:'1947463.5517697237',jibun:'경기도 부천시 오정동 585-19 한진타운'},</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C595" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="G595" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천여월점M'],addr:'경기도 부천시 성곡로 88',x:'937791.5553046933',y:'1947045.1115102037',jibun:'경기도 부천시 여월동 4-32 대향빌딩'},</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C596" t="s">
+        <v>2951</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G596" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['원종본점G'],addr:'경기도 부천시 성오로141번길 54',x:'938022.8318222335',y:'1947408.55607113',jibun:'경기도 부천시 원종동 150-15'},</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C597" t="s">
+        <v>2953</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="G597" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천욱일점M'],addr:'경기도 부천시 소사로775번길 25',x:'938452.9365951633',y:'1947545.0531922164',jibun:'경기도 부천시 원종동 221 수성빌딩'},</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C598" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="G598" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['진로할인마트-부천'],addr:'경기도 부천시 원종로 64',x:'938760.55276683',y:'1947392.580067343',jibun:'경기도 부천시 원종동 313-10 부천프라자'},</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C599" t="s">
+        <v>2957</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="G599" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['중동시장점G'],addr:'경기도 부천시 부흥로188번길 33',x:'934875.1775259734',y:'1944199.9188912334',jibun:'경기도 부천시 중동 726-17'},</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C600" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="G600" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['중동신흥점G'],addr:'경기도 부천시 신흥로 248',x:'935999.4180041',y:'1945408.1680623135',jibun:'경기도 부천시 중동 1061-3 수와미프라자'},</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C601" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="G601" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천조마루점M'],addr:'경기도 부천시 조마루로397번길 8',x:'937099.6498249532',y:'1944528.7897716337',jibun:'경기도 부천시 원미동 44-5 스테이트 로뎀'},</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C602" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="G602" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천원종점G'],addr:'경기도 부천시 원종로 30',x:'938445.6124630934',y:'1947409.5496348664',jibun:'경기도 부천시 원종동 222'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="3028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="3094">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -9172,6 +9172,205 @@
   </si>
   <si>
     <t>1947409.5496348664</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로65번길 25</t>
+  </si>
+  <si>
+    <t>부천심곡점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부흥로177번길 16</t>
+  </si>
+  <si>
+    <t>중동무지개점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼작로291번길 13</t>
+  </si>
+  <si>
+    <t>부천도서관점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 은성로 15</t>
+  </si>
+  <si>
+    <t>부천은성로점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소안로 18</t>
+  </si>
+  <si>
+    <t>소사본동점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심중로 36-6</t>
+  </si>
+  <si>
+    <t>부천심곡산우물점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로476번길 83</t>
+  </si>
+  <si>
+    <t>오정성진점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 석천로 345</t>
+  </si>
+  <si>
+    <t>2테크노파크점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로808번길 6</t>
+  </si>
+  <si>
+    <t>오정소사로점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 옥산로 7</t>
+  </si>
+  <si>
+    <t>중동리첸시아점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도약로282번길 48</t>
+  </si>
+  <si>
+    <t>세븐일레븐-부천도약로점</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼작로 257</t>
+  </si>
+  <si>
+    <t>부천도당점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동로 364</t>
+  </si>
+  <si>
+    <t>부천다니엘점G</t>
+  </si>
+  <si>
+    <t>부천역사3점G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 366-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 590-21</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 116-6 중앙빌딩</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 166-8</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 243-128</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 359</t>
+  </si>
+  <si>
+    <t>경기도 부천시 오정동 560-13</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼정동 365 부천테크노파크</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 231 부원빌딩</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1116 리첸시아</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 275-11</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 61-2 영진빌딩</t>
+  </si>
+  <si>
+    <t>경기도 부천시 약대동 145-13</t>
+  </si>
+  <si>
+    <t>936615.5604409266</t>
+  </si>
+  <si>
+    <t>934826.7318506767</t>
+  </si>
+  <si>
+    <t>937591.0836795901</t>
+  </si>
+  <si>
+    <t>937426.3075787935</t>
+  </si>
+  <si>
+    <t>938263.9984694398</t>
+  </si>
+  <si>
+    <t>935768.0846945448</t>
+  </si>
+  <si>
+    <t>937017.63051811</t>
+  </si>
+  <si>
+    <t>935089.470102217</t>
+  </si>
+  <si>
+    <t>938605.8628293835</t>
+  </si>
+  <si>
+    <t>936361.9361859185</t>
+  </si>
+  <si>
+    <t>936450.8978810201</t>
+  </si>
+  <si>
+    <t>937269.1222482268</t>
+  </si>
+  <si>
+    <t>935500.77255486</t>
+  </si>
+  <si>
+    <t>1943746.8999042069</t>
+  </si>
+  <si>
+    <t>1944459.4916034136</t>
+  </si>
+  <si>
+    <t>1947058.6063390737</t>
+  </si>
+  <si>
+    <t>1942024.1646447731</t>
+  </si>
+  <si>
+    <t>1942161.7819190938</t>
+  </si>
+  <si>
+    <t>1943278.2490769937</t>
+  </si>
+  <si>
+    <t>1947754.5290159434</t>
+  </si>
+  <si>
+    <t>1946793.6899769558</t>
+  </si>
+  <si>
+    <t>1947861.30354814</t>
+  </si>
+  <si>
+    <t>1944179.5190167353</t>
+  </si>
+  <si>
+    <t>1945701.3775272635</t>
+  </si>
+  <si>
+    <t>1947019.0944288066</t>
+  </si>
+  <si>
+    <t>1946144.9690805902</t>
   </si>
 </sst>
 </file>
@@ -13583,10 +13782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G602"/>
+  <dimension ref="A1:G615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B589" sqref="B589"/>
+    <sheetView tabSelected="1" topLeftCell="E598" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G629" sqref="G629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18604,6 +18803,9 @@
       <c r="A238" t="s">
         <v>1197</v>
       </c>
+      <c r="B238" t="s">
+        <v>3054</v>
+      </c>
       <c r="C238" t="s">
         <v>1198</v>
       </c>
@@ -18618,7 +18820,7 @@
       </c>
       <c r="G238" t="str">
         <f t="shared" si="3"/>
-        <v>{name:['부천역사1점G'],addr:'경기도 부천시 부천로 1',x:'936579.4263615669',y:'1942996.8231301266',jibun:'경기도 부천시 심곡본동 316-2 부천역사쇼핑몰'},</v>
+        <v>{name:['부천역사1점G','부천역사3점G'],addr:'경기도 부천시 부천로 1',x:'936579.4263615669',y:'1942996.8231301266',jibun:'경기도 부천시 심곡본동 316-2 부천역사쇼핑몰'},</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -25781,7 +25983,7 @@
         <v>2818</v>
       </c>
       <c r="G579" t="str">
-        <f t="shared" ref="G579:G602" si="9">"{name:" &amp; "['"&amp;A579&amp;"'"&amp;IF(ISBLANK(B579),"",",'"&amp;B579&amp;"'")&amp;"],addr:" &amp; "'" &amp;C579&amp;"',x:"&amp; "'" &amp;D579&amp;"',y:"&amp; "'" &amp;E579&amp;"',jibun:"&amp; "'" &amp;F579&amp;"'},"</f>
+        <f t="shared" ref="G579:G615" si="9">"{name:" &amp; "['"&amp;A579&amp;"'"&amp;IF(ISBLANK(B579),"",",'"&amp;B579&amp;"'")&amp;"],addr:" &amp; "'" &amp;C579&amp;"',x:"&amp; "'" &amp;D579&amp;"',y:"&amp; "'" &amp;E579&amp;"',jibun:"&amp; "'" &amp;F579&amp;"'},"</f>
         <v>{name:['에스피반도체통신(주)-KB'],addr:'경기도 부천시 평천로832번길 30',x:'936649.9096412025',y:'1946300.0668894793',jibun:'경기도 부천시 도당동 96-1'},</v>
       </c>
     </row>
@@ -26266,6 +26468,279 @@
       <c r="G602" t="str">
         <f t="shared" si="9"/>
         <v>{name:['부천원종점G'],addr:'경기도 부천시 원종로 30',x:'938445.6124630934',y:'1947409.5496348664',jibun:'경기도 부천시 원종동 222'},</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C603" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="G603" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천심곡점G'],addr:'경기도 부천시 부천로65번길 25',x:'936615.5604409266',y:'1943746.8999042069',jibun:'경기도 부천시 심곡동 366-1'},</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C604" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="G604" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['중동무지개점G'],addr:'경기도 부천시 부흥로177번길 16',x:'934826.7318506767',y:'1944459.4916034136',jibun:'경기도 부천시 중동 590-21'},</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C605" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="G605" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천도서관점G'],addr:'경기도 부천시 삼작로291번길 13',x:'937591.0836795901',y:'1947058.6063390737',jibun:'경기도 부천시 도당동 116-6 중앙빌딩'},</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C606" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="G606" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천은성로점G'],addr:'경기도 부천시 은성로 15',x:'937426.3075787935',y:'1942024.1646447731',jibun:'경기도 부천시 소사본동 166-8'},</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C607" t="s">
+        <v>3036</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="G607" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['소사본동점M'],addr:'경기도 부천시 소안로 18',x:'938263.9984694398',y:'1942161.7819190938',jibun:'경기도 부천시 소사본동 243-128'},</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C608" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="G608" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천심곡산우물점G'],addr:'경기도 부천시 심중로 36-6',x:'935768.0846945448',y:'1943278.2490769937',jibun:'경기도 부천시 심곡동 359'},</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C609" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="G609" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['오정성진점M'],addr:'경기도 부천시 부천로476번길 83',x:'937017.63051811',y:'1947754.5290159434',jibun:'경기도 부천시 오정동 560-13'},</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C610" t="s">
+        <v>3042</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="G610" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['2테크노파크점G'],addr:'경기도 부천시 석천로 345',x:'935089.470102217',y:'1946793.6899769558',jibun:'경기도 부천시 삼정동 365 부천테크노파크'},</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C611" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G611" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['오정소사로점G'],addr:'경기도 부천시 소사로808번길 6',x:'938605.8628293835',y:'1947861.30354814',jibun:'경기도 부천시 원종동 231 부원빌딩'},</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C612" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="G612" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['중동리첸시아점G'],addr:'경기도 부천시 옥산로 7',x:'936361.9361859185',y:'1944179.5190167353',jibun:'경기도 부천시 중동 1116 리첸시아'},</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C613" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="G613" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['세븐일레븐-부천도약로점'],addr:'경기도 부천시 도약로282번길 48',x:'936450.8978810201',y:'1945701.3775272635',jibun:'경기도 부천시 도당동 275-11'},</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C614" t="s">
+        <v>3050</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G614" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천도당점G'],addr:'경기도 부천시 삼작로 257',x:'937269.1222482268',y:'1947019.0944288066',jibun:'경기도 부천시 도당동 61-2 영진빌딩'},</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C615" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="G615" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천다니엘점G'],addr:'경기도 부천시 중동로 364',x:'935500.77255486',y:'1946144.9690805902',jibun:'경기도 부천시 약대동 145-13'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="3094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="3216">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -9371,6 +9371,374 @@
   </si>
   <si>
     <t>1946144.9690805902</t>
+  </si>
+  <si>
+    <t>경기도 부천시 범안로 227</t>
+  </si>
+  <si>
+    <t>옥길스타필드점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로 710</t>
+  </si>
+  <si>
+    <t>부천연세사랑점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로121번길 24-3</t>
+  </si>
+  <si>
+    <t>심곡행운점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부광로 40</t>
+  </si>
+  <si>
+    <t>소사부광로점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 은성로 86</t>
+  </si>
+  <si>
+    <t>소사점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로862번길 43</t>
+  </si>
+  <si>
+    <t>원종뉴월드점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 신흥로 163</t>
+  </si>
+  <si>
+    <t>부천위너스점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 오정로212번길 14</t>
+  </si>
+  <si>
+    <t>오정해나라점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 오정로251번길 39-1</t>
+  </si>
+  <si>
+    <t>오정휴먼시아점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 옥길로 55</t>
+  </si>
+  <si>
+    <t>옥길센트리뷰점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 신흥로73번길 60</t>
+  </si>
+  <si>
+    <t>심곡공원점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 여월로 70</t>
+  </si>
+  <si>
+    <t>두오파크프라자 길거리365</t>
+  </si>
+  <si>
+    <t>경기도 부천시 길주로 275</t>
+  </si>
+  <si>
+    <t>중동길주점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로445번길 22</t>
+  </si>
+  <si>
+    <t>부천대학점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로 196</t>
+  </si>
+  <si>
+    <t>부천춘의점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 성지로112번길 42</t>
+  </si>
+  <si>
+    <t>고강제일시장점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 안곡로205번길 53</t>
+  </si>
+  <si>
+    <t>소사괴안점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡로 43</t>
+  </si>
+  <si>
+    <t>부천역곡로점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 계남로 265</t>
+  </si>
+  <si>
+    <t>중동부흥점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로 206</t>
+  </si>
+  <si>
+    <t>예손병원</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로 7</t>
+  </si>
+  <si>
+    <t>세븐일레븐-부천북부역점</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼작로 252</t>
+  </si>
+  <si>
+    <t>하모니마트-부천도당점</t>
+  </si>
+  <si>
+    <t>경기도 부천시 평천로 797-7</t>
+  </si>
+  <si>
+    <t>부천도당공단점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 지양로158번길 40</t>
+  </si>
+  <si>
+    <t>부천은행점G</t>
+  </si>
+  <si>
+    <t>부천테크노점M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 부천시 옥길동 777-4 서영아너시티</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡동 49-4</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 92-28 빌라. 지</t>
+  </si>
+  <si>
+    <t>경기도 부천시 괴안동 119-9 노블하우스</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 244-86</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원종동 180-4 뉴월드맨숀</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1131-4 굿모닝위너스텔4차</t>
+  </si>
+  <si>
+    <t>경기도 부천시 오정동 592-17</t>
+  </si>
+  <si>
+    <t>경기도 부천시 오정동 717</t>
+  </si>
+  <si>
+    <t>경기도 부천시 옥길동 771-1 엘에이치센트리뷰</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 323-22</t>
+  </si>
+  <si>
+    <t>경기도 부천시 여월동 335 두오파크프라자</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1058-2 중동프라자</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 404-6</t>
+  </si>
+  <si>
+    <t>경기도 부천시 춘의동 203-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고강동 311-5</t>
+  </si>
+  <si>
+    <t>경기도 부천시 괴안동 175</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡동 72-11</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1073</t>
+  </si>
+  <si>
+    <t>경기도 부천시 춘의동 164-3 다성빌딩</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 174-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 58-2 정남프라자</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 8-6</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고강동 555-3</t>
+  </si>
+  <si>
+    <t>939220.341189028</t>
+  </si>
+  <si>
+    <t>938882.9262575032</t>
+  </si>
+  <si>
+    <t>936698.1042209635</t>
+  </si>
+  <si>
+    <t>939373.7534310315</t>
+  </si>
+  <si>
+    <t>938133.7063197899</t>
+  </si>
+  <si>
+    <t>938731.4829299704</t>
+  </si>
+  <si>
+    <t>936092.3305349369</t>
+  </si>
+  <si>
+    <t>936710.3536193799</t>
+  </si>
+  <si>
+    <t>936755.9799973753</t>
+  </si>
+  <si>
+    <t>939731.7821779842</t>
+  </si>
+  <si>
+    <t>935852.1504747767</t>
+  </si>
+  <si>
+    <t>938711.4198809268</t>
+  </si>
+  <si>
+    <t>935771.4441961334</t>
+  </si>
+  <si>
+    <t>936318.1150630368</t>
+  </si>
+  <si>
+    <t>936981.8693230269</t>
+  </si>
+  <si>
+    <t>939343.5782090034</t>
+  </si>
+  <si>
+    <t>939559.7563759</t>
+  </si>
+  <si>
+    <t>938990.3879899168</t>
+  </si>
+  <si>
+    <t>936212.5395178301</t>
+  </si>
+  <si>
+    <t>937018.4030811151</t>
+  </si>
+  <si>
+    <t>936551.4591221563</t>
+  </si>
+  <si>
+    <t>937215.1352284234</t>
+  </si>
+  <si>
+    <t>936297.4191495401</t>
+  </si>
+  <si>
+    <t>940209.5174197233</t>
+  </si>
+  <si>
+    <t>1940549.5138553102</t>
+  </si>
+  <si>
+    <t>1943060.13592856</t>
+  </si>
+  <si>
+    <t>1944265.264801052</t>
+  </si>
+  <si>
+    <t>1942675.5857880893</t>
+  </si>
+  <si>
+    <t>1941986.3485234203</t>
+  </si>
+  <si>
+    <t>1948197.0004257234</t>
+  </si>
+  <si>
+    <t>1944575.7174480967</t>
+  </si>
+  <si>
+    <t>1947746.2639140966</t>
+  </si>
+  <si>
+    <t>1948192.942303645</t>
+  </si>
+  <si>
+    <t>1940627.5888940888</t>
+  </si>
+  <si>
+    <t>1943760.3909527203</t>
+  </si>
+  <si>
+    <t>1946014.5338642532</t>
+  </si>
+  <si>
+    <t>1945207.6164329266</t>
+  </si>
+  <si>
+    <t>1943367.4657698134</t>
+  </si>
+  <si>
+    <t>1944955.15364919</t>
+  </si>
+  <si>
+    <t>1947924.8611522368</t>
+  </si>
+  <si>
+    <t>1943116.4140237835</t>
+  </si>
+  <si>
+    <t>1943528.5348306536</t>
+  </si>
+  <si>
+    <t>1945421.3079974833</t>
+  </si>
+  <si>
+    <t>1945051.0738475546</t>
+  </si>
+  <si>
+    <t>1943115.9615412783</t>
+  </si>
+  <si>
+    <t>1946974.6040668665</t>
+  </si>
+  <si>
+    <t>1946462.7630012068</t>
+  </si>
+  <si>
+    <t>1947307.7902368135</t>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13782,10 +14150,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G615"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E598" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G629" sqref="G629"/>
+    <sheetView tabSelected="1" topLeftCell="E619" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G660" sqref="G660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24416,6 +24785,9 @@
       <c r="A505" t="s">
         <v>2530</v>
       </c>
+      <c r="B505" t="s">
+        <v>3142</v>
+      </c>
       <c r="C505" t="s">
         <v>2529</v>
       </c>
@@ -24430,7 +24802,7 @@
       </c>
       <c r="G505" t="str">
         <f t="shared" si="7"/>
-        <v>{name:['부천테크노국민'],addr:'경기도 부천시 석천로 397',x:'935340.0886627142',y:'1947236.83825217',jibun:'경기도 부천시 삼정동 36-1 부천테크노파크쌍용3차'},</v>
+        <v>{name:['부천테크노국민','부천테크노점M'],addr:'경기도 부천시 석천로 397',x:'935340.0886627142',y:'1947236.83825217',jibun:'경기도 부천시 삼정동 36-1 부천테크노파크쌍용3차'},</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.3">
@@ -25983,7 +26355,7 @@
         <v>2818</v>
       </c>
       <c r="G579" t="str">
-        <f t="shared" ref="G579:G615" si="9">"{name:" &amp; "['"&amp;A579&amp;"'"&amp;IF(ISBLANK(B579),"",",'"&amp;B579&amp;"'")&amp;"],addr:" &amp; "'" &amp;C579&amp;"',x:"&amp; "'" &amp;D579&amp;"',y:"&amp; "'" &amp;E579&amp;"',jibun:"&amp; "'" &amp;F579&amp;"'},"</f>
+        <f t="shared" ref="G579:G639" si="9">"{name:" &amp; "['"&amp;A579&amp;"'"&amp;IF(ISBLANK(B579),"",",'"&amp;B579&amp;"'")&amp;"],addr:" &amp; "'" &amp;C579&amp;"',x:"&amp; "'" &amp;D579&amp;"',y:"&amp; "'" &amp;E579&amp;"',jibun:"&amp; "'" &amp;F579&amp;"'},"</f>
         <v>{name:['에스피반도체통신(주)-KB'],addr:'경기도 부천시 평천로832번길 30',x:'936649.9096412025',y:'1946300.0668894793',jibun:'경기도 부천시 도당동 96-1'},</v>
       </c>
     </row>
@@ -26741,6 +27113,515 @@
       <c r="G615" t="str">
         <f t="shared" si="9"/>
         <v>{name:['부천다니엘점G'],addr:'경기도 부천시 중동로 364',x:'935500.77255486',y:'1946144.9690805902',jibun:'경기도 부천시 약대동 145-13'},</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C616" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G616" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['옥길스타필드점G'],addr:'경기도 부천시 범안로 227',x:'939220.341189028',y:'1940549.5138553102',jibun:'경기도 부천시 옥길동 777-4 서영아너시티'},</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C617" t="s">
+        <v>3096</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="G617" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천연세사랑점G'],addr:'경기도 부천시 부일로 710',x:'938882.9262575032',y:'1943060.13592856',jibun:'경기도 부천시 역곡동 49-4'},</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C618" t="s">
+        <v>3098</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="G618" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['심곡행운점G'],addr:'경기도 부천시 부천로121번길 24-3',x:'936698.1042209635',y:'1944265.264801052',jibun:'경기도 부천시 심곡동 92-28 빌라. 지'},</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C619" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="G619" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['소사부광로점G'],addr:'경기도 부천시 부광로 40',x:'939373.7534310315',y:'1942675.5857880893',jibun:'경기도 부천시 괴안동 119-9 노블하우스'},</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C620" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="G620" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['소사점M'],addr:'경기도 부천시 은성로 86',x:'938133.7063197899',y:'1941986.3485234203',jibun:'경기도 부천시 소사본동 244-86'},</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C621" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="G621" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['원종뉴월드점G'],addr:'경기도 부천시 소사로862번길 43',x:'938731.4829299704',y:'1948197.0004257234',jibun:'경기도 부천시 원종동 180-4 뉴월드맨숀'},</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>3107</v>
+      </c>
+      <c r="C622" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="G622" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천위너스점M'],addr:'경기도 부천시 신흥로 163',x:'936092.3305349369',y:'1944575.7174480967',jibun:'경기도 부천시 중동 1131-4 굿모닝위너스텔4차'},</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C623" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="G623" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['오정해나라점G'],addr:'경기도 부천시 오정로212번길 14',x:'936710.3536193799',y:'1947746.2639140966',jibun:'경기도 부천시 오정동 592-17'},</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C624" t="s">
+        <v>3110</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="G624" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['오정휴먼시아점G'],addr:'경기도 부천시 오정로251번길 39-1',x:'936755.9799973753',y:'1948192.942303645',jibun:'경기도 부천시 오정동 717'},</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C625" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="G625" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['옥길센트리뷰점G'],addr:'경기도 부천시 옥길로 55',x:'939731.7821779842',y:'1940627.5888940888',jibun:'경기도 부천시 옥길동 771-1 엘에이치센트리뷰'},</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C626" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="G626" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['심곡공원점G'],addr:'경기도 부천시 신흥로73번길 60',x:'935852.1504747767',y:'1943760.3909527203',jibun:'경기도 부천시 심곡동 323-22'},</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C627" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G627" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['두오파크프라자 길거리365'],addr:'경기도 부천시 여월로 70',x:'938711.4198809268',y:'1946014.5338642532',jibun:'경기도 부천시 여월동 335 두오파크프라자'},</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C628" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G628" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['중동길주점G'],addr:'경기도 부천시 길주로 275',x:'935771.4441961334',y:'1945207.6164329266',jibun:'경기도 부천시 중동 1058-2 중동프라자'},</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C629" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="G629" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천대학점G'],addr:'경기도 부천시 부일로445번길 22',x:'936318.1150630368',y:'1943367.4657698134',jibun:'경기도 부천시 심곡동 404-6'},</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>3123</v>
+      </c>
+      <c r="C630" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>3157</v>
+      </c>
+      <c r="G630" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천춘의점G'],addr:'경기도 부천시 부천로 196',x:'936981.8693230269',y:'1944955.15364919',jibun:'경기도 부천시 춘의동 203-1'},</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C631" t="s">
+        <v>3124</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>3182</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="G631" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['고강제일시장점G'],addr:'경기도 부천시 성지로112번길 42',x:'939343.5782090034',y:'1947924.8611522368',jibun:'경기도 부천시 고강동 311-5'},</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C632" t="s">
+        <v>3126</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>3159</v>
+      </c>
+      <c r="G632" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['소사괴안점G'],addr:'경기도 부천시 안곡로205번길 53',x:'939559.7563759',y:'1943116.4140237835',jibun:'경기도 부천시 괴안동 175'},</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>3129</v>
+      </c>
+      <c r="C633" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="G633" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천역곡로점G'],addr:'경기도 부천시 역곡로 43',x:'938990.3879899168',y:'1943528.5348306536',jibun:'경기도 부천시 역곡동 72-11'},</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>3131</v>
+      </c>
+      <c r="C634" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>3161</v>
+      </c>
+      <c r="G634" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['중동부흥점G'],addr:'경기도 부천시 계남로 265',x:'936212.5395178301',y:'1945421.3079974833',jibun:'경기도 부천시 중동 1073'},</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C635" t="s">
+        <v>3132</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="G635" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['예손병원'],addr:'경기도 부천시 부천로 206',x:'937018.4030811151',y:'1945051.0738475546',jibun:'경기도 부천시 춘의동 164-3 다성빌딩'},</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C636" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="G636" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['세븐일레븐-부천북부역점'],addr:'경기도 부천시 부천로 7',x:'936551.4591221563',y:'1943115.9615412783',jibun:'경기도 부천시 심곡동 174-1'},</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C637" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G637" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['하모니마트-부천도당점'],addr:'경기도 부천시 삼작로 252',x:'937215.1352284234',y:'1946974.6040668665',jibun:'경기도 부천시 도당동 58-2 정남프라자'},</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C638" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="G638" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천도당공단점G'],addr:'경기도 부천시 평천로 797-7',x:'936297.4191495401',y:'1946462.7630012068',jibun:'경기도 부천시 도당동 8-6'},</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C639" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="G639" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['부천은행점G'],addr:'경기도 부천시 지양로158번길 40',x:'940209.5174197233',y:'1947307.7902368135',jibun:'경기도 부천시 고강동 555-3'},</v>
+      </c>
+    </row>
+    <row r="660" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G660" t="s">
+        <v>3215</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="3216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4223" uniqueCount="3266">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -9739,6 +9739,157 @@
   <si>
     <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 부천시 수주로 19</t>
+  </si>
+  <si>
+    <t>고강중앙점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 신흥로22번길 50</t>
+  </si>
+  <si>
+    <t>심곡제일점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 송내대로 450</t>
+  </si>
+  <si>
+    <t>국민차차차점G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 부천시 원미로 216</t>
+  </si>
+  <si>
+    <t>부천애플점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 조마루로385번길 122</t>
+  </si>
+  <si>
+    <t>부천삼보테크노점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 경인로526번길 87</t>
+  </si>
+  <si>
+    <t>소사안곡로점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도약로 209-1</t>
+  </si>
+  <si>
+    <t>부천약대점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 수도로 88-51</t>
+  </si>
+  <si>
+    <t>부천동부밸리점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고강로72번길 67</t>
+  </si>
+  <si>
+    <t>오정꿈사랑점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로126번길 38</t>
+  </si>
+  <si>
+    <t>소사양우점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고강동 415-5</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 388-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 삼정동 366-1 국민차 매매단지</t>
+  </si>
+  <si>
+    <t>경기도 부천시 춘의동 188-5 애플하우스</t>
+  </si>
+  <si>
+    <t>경기도 부천시 춘의동 195 삼보테크노타워</t>
+  </si>
+  <si>
+    <t>경기도 부천시 괴안동 159-1 신원프린스</t>
+  </si>
+  <si>
+    <t>경기도 부천시 약대동 175-15</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 222-28 (주)남양인쇄</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고강동 309-7</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 301-33</t>
+  </si>
+  <si>
+    <t>940355.4600782299</t>
+  </si>
+  <si>
+    <t>936275.11129924</t>
+  </si>
+  <si>
+    <t>934783.4816310685</t>
+  </si>
+  <si>
+    <t>937588.9478266679</t>
+  </si>
+  <si>
+    <t>937379.6393983767</t>
+  </si>
+  <si>
+    <t>939523.1842690967</t>
+  </si>
+  <si>
+    <t>935733.5220124908</t>
+  </si>
+  <si>
+    <t>936039.0724660631</t>
+  </si>
+  <si>
+    <t>939230.1719082401</t>
+  </si>
+  <si>
+    <t>937966.1869897868</t>
+  </si>
+  <si>
+    <t>1947553.0362503165</t>
+  </si>
+  <si>
+    <t>1943122.6689980933</t>
+  </si>
+  <si>
+    <t>1947365.0493876701</t>
+  </si>
+  <si>
+    <t>1944932.0883676289</t>
+  </si>
+  <si>
+    <t>1944938.2372553581</t>
+  </si>
+  <si>
+    <t>1942712.722831116</t>
+  </si>
+  <si>
+    <t>1945954.142301417</t>
+  </si>
+  <si>
+    <t>1946233.2035300406</t>
+  </si>
+  <si>
+    <t>1947730.1810172102</t>
+  </si>
+  <si>
+    <t>1941468.926802727</t>
   </si>
 </sst>
 </file>
@@ -14153,8 +14304,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E619" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G660" sqref="G660"/>
+    <sheetView tabSelected="1" topLeftCell="E618" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G651" sqref="G651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26355,7 +26506,7 @@
         <v>2818</v>
       </c>
       <c r="G579" t="str">
-        <f t="shared" ref="G579:G639" si="9">"{name:" &amp; "['"&amp;A579&amp;"'"&amp;IF(ISBLANK(B579),"",",'"&amp;B579&amp;"'")&amp;"],addr:" &amp; "'" &amp;C579&amp;"',x:"&amp; "'" &amp;D579&amp;"',y:"&amp; "'" &amp;E579&amp;"',jibun:"&amp; "'" &amp;F579&amp;"'},"</f>
+        <f t="shared" ref="G579:G642" si="9">"{name:" &amp; "['"&amp;A579&amp;"'"&amp;IF(ISBLANK(B579),"",",'"&amp;B579&amp;"'")&amp;"],addr:" &amp; "'" &amp;C579&amp;"',x:"&amp; "'" &amp;D579&amp;"',y:"&amp; "'" &amp;E579&amp;"',jibun:"&amp; "'" &amp;F579&amp;"'},"</f>
         <v>{name:['에스피반도체통신(주)-KB'],addr:'경기도 부천시 평천로832번길 30',x:'936649.9096412025',y:'1946300.0668894793',jibun:'경기도 부천시 도당동 96-1'},</v>
       </c>
     </row>
@@ -27617,6 +27768,216 @@
       <c r="G639" t="str">
         <f t="shared" si="9"/>
         <v>{name:['부천은행점G'],addr:'경기도 부천시 지양로158번길 40',x:'940209.5174197233',y:'1947307.7902368135',jibun:'경기도 부천시 고강동 555-3'},</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C640" t="s">
+        <v>3216</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="G640" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['고강중앙점G'],addr:'경기도 부천시 수주로 19',x:'940355.4600782299',y:'1947553.0362503165',jibun:'경기도 부천시 고강동 415-5'},</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C641" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="G641" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['심곡제일점M'],addr:'경기도 부천시 신흥로22번길 50',x:'936275.11129924',y:'1943122.6689980933',jibun:'경기도 부천시 심곡동 388-1'},</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C642" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="G642" t="str">
+        <f t="shared" si="9"/>
+        <v>{name:['국민차차차점G'],addr:'경기도 부천시 송내대로 450',x:'934783.4816310685',y:'1947365.0493876701',jibun:'경기도 부천시 삼정동 366-1 국민차 매매단지'},</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C643" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="G643" t="str">
+        <f t="shared" ref="G643:G649" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
+        <v>{name:['부천애플점G'],addr:'경기도 부천시 원미로 216',x:'937588.9478266679',y:'1944932.0883676289',jibun:'경기도 부천시 춘의동 188-5 애플하우스'},</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C644" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="G644" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['부천삼보테크노점G'],addr:'경기도 부천시 조마루로385번길 122',x:'937379.6393983767',y:'1944938.2372553581',jibun:'경기도 부천시 춘의동 195 삼보테크노타워'},</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C645" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="G645" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['소사안곡로점G'],addr:'경기도 부천시 경인로526번길 87',x:'939523.1842690967',y:'1942712.722831116',jibun:'경기도 부천시 괴안동 159-1 신원프린스'},</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C646" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="G646" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['부천약대점G'],addr:'경기도 부천시 도약로 209-1',x:'935733.5220124908',y:'1945954.142301417',jibun:'경기도 부천시 약대동 175-15'},</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C647" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="G647" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['부천동부밸리점G'],addr:'경기도 부천시 수도로 88-51',x:'936039.0724660631',y:'1946233.2035300406',jibun:'경기도 부천시 도당동 222-28 (주)남양인쇄'},</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C648" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="F648" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="G648" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['오정꿈사랑점G'],addr:'경기도 부천시 고강로72번길 67',x:'939230.1719082401',y:'1947730.1810172102',jibun:'경기도 부천시 고강동 309-7'},</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C649" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G649" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['소사양우점G'],addr:'경기도 부천시 소사로126번길 38',x:'937966.1869897868',y:'1941468.926802727',jibun:'경기도 부천시 소사본동 301-33'},</v>
       </c>
     </row>
     <row r="660" spans="7:7" x14ac:dyDescent="0.3">

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4223" uniqueCount="3266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="3276">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -9890,6 +9890,36 @@
   </si>
   <si>
     <t>1941468.926802727</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도약로 261</t>
+  </si>
+  <si>
+    <t>대우테크노</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사로102번길 66</t>
+  </si>
+  <si>
+    <t>소사본점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 187-7 부천대우테크노파크</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 401-12 소사주공1단지아파트</t>
+  </si>
+  <si>
+    <t>936255.1819255364</t>
+  </si>
+  <si>
+    <t>938200.8458626668</t>
+  </si>
+  <si>
+    <t>1945952.2251118254</t>
+  </si>
+  <si>
+    <t>1941296.4629685902</t>
   </si>
 </sst>
 </file>
@@ -14305,7 +14335,7 @@
   <dimension ref="A1:G660"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E618" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G651" sqref="G651"/>
+      <selection activeCell="G655" sqref="G655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27850,7 +27880,7 @@
         <v>3239</v>
       </c>
       <c r="G643" t="str">
-        <f t="shared" ref="G643:G649" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
+        <f t="shared" ref="G643:G651" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
         <v>{name:['부천애플점G'],addr:'경기도 부천시 원미로 216',x:'937588.9478266679',y:'1944932.0883676289',jibun:'경기도 부천시 춘의동 188-5 애플하우스'},</v>
       </c>
     </row>
@@ -27978,6 +28008,48 @@
       <c r="G649" t="str">
         <f t="shared" si="10"/>
         <v>{name:['소사양우점G'],addr:'경기도 부천시 소사로126번길 38',x:'937966.1869897868',y:'1941468.926802727',jibun:'경기도 부천시 소사본동 301-33'},</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C650" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="G650" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['대우테크노'],addr:'경기도 부천시 도약로 261',x:'936255.1819255364',y:'1945952.2251118254',jibun:'경기도 부천시 도당동 187-7 부천대우테크노파크'},</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C651" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G651" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['소사본점M'],addr:'경기도 부천시 소사로102번길 66',x:'938200.8458626668',y:'1941296.4629685902',jibun:'경기도 부천시 소사본동 401-12 소사주공1단지아파트'},</v>
       </c>
     </row>
     <row r="660" spans="7:7" x14ac:dyDescent="0.3">

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="3276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="3281">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -9920,6 +9920,21 @@
   </si>
   <si>
     <t>1941296.4629685902</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로 341</t>
+  </si>
+  <si>
+    <t>부천팰리스G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1289</t>
+  </si>
+  <si>
+    <t>935309.0815022006</t>
+  </si>
+  <si>
+    <t>1943487.5970368409</t>
   </si>
 </sst>
 </file>
@@ -14334,8 +14349,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E618" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G655" sqref="G655"/>
+    <sheetView tabSelected="1" topLeftCell="E627" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G658" sqref="G658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27880,7 +27895,7 @@
         <v>3239</v>
       </c>
       <c r="G643" t="str">
-        <f t="shared" ref="G643:G651" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
+        <f t="shared" ref="G643:G652" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
         <v>{name:['부천애플점G'],addr:'경기도 부천시 원미로 216',x:'937588.9478266679',y:'1944932.0883676289',jibun:'경기도 부천시 춘의동 188-5 애플하우스'},</v>
       </c>
     </row>
@@ -28050,6 +28065,27 @@
       <c r="G651" t="str">
         <f t="shared" si="10"/>
         <v>{name:['소사본점M'],addr:'경기도 부천시 소사로102번길 66',x:'938200.8458626668',y:'1941296.4629685902',jibun:'경기도 부천시 소사본동 401-12 소사주공1단지아파트'},</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C652" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="G652" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['부천팰리스G'],addr:'경기도 부천시 부일로 341',x:'935309.0815022006',y:'1943487.5970368409',jibun:'경기도 부천시 중동 1289'},</v>
       </c>
     </row>
     <row r="660" spans="7:7" x14ac:dyDescent="0.3">

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="3281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="3296">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -9935,6 +9935,52 @@
   </si>
   <si>
     <t>1943487.5970368409</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로9번길 54</t>
+  </si>
+  <si>
+    <t>부천역점G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 부천시 도약로298번길 44</t>
+  </si>
+  <si>
+    <t>도당번창점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 신흥로 375</t>
+  </si>
+  <si>
+    <t>부천대로점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 383-14</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 271-1</t>
+  </si>
+  <si>
+    <t>경기도 부천시 내동 54-1 대림 프라우드 아파트</t>
+  </si>
+  <si>
+    <t>936344.4372235534</t>
+  </si>
+  <si>
+    <t>936598.6119699399</t>
+  </si>
+  <si>
+    <t>935928.2335709308</t>
+  </si>
+  <si>
+    <t>1943186.5068598068</t>
+  </si>
+  <si>
+    <t>1945718.36948463</t>
+  </si>
+  <si>
+    <t>1946668.0473323343</t>
   </si>
 </sst>
 </file>
@@ -14350,7 +14396,7 @@
   <dimension ref="A1:G660"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E627" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G658" sqref="G658"/>
+      <selection activeCell="G652" sqref="G652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27895,7 +27941,7 @@
         <v>3239</v>
       </c>
       <c r="G643" t="str">
-        <f t="shared" ref="G643:G652" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
+        <f t="shared" ref="G643:G655" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
         <v>{name:['부천애플점G'],addr:'경기도 부천시 원미로 216',x:'937588.9478266679',y:'1944932.0883676289',jibun:'경기도 부천시 춘의동 188-5 애플하우스'},</v>
       </c>
     </row>
@@ -28086,6 +28132,69 @@
       <c r="G652" t="str">
         <f t="shared" si="10"/>
         <v>{name:['부천팰리스G'],addr:'경기도 부천시 부일로 341',x:'935309.0815022006',y:'1943487.5970368409',jibun:'경기도 부천시 중동 1289'},</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C653" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G653" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['부천역점G'],addr:'경기도 부천시 부천로9번길 54',x:'936344.4372235534',y:'1943186.5068598068',jibun:'경기도 부천시 심곡동 383-14'},</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>3284</v>
+      </c>
+      <c r="C654" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="G654" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['도당번창점G'],addr:'경기도 부천시 도약로298번길 44',x:'936598.6119699399',y:'1945718.36948463',jibun:'경기도 부천시 도당동 271-1'},</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C655" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="G655" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['부천대로점G'],addr:'경기도 부천시 신흥로 375',x:'935928.2335709308',y:'1946668.0473323343',jibun:'경기도 부천시 내동 54-1 대림 프라우드 아파트'},</v>
       </c>
     </row>
     <row r="660" spans="7:7" x14ac:dyDescent="0.3">

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="3296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="3301">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -9981,6 +9981,21 @@
   </si>
   <si>
     <t>1946668.0473323343</t>
+  </si>
+  <si>
+    <t>경기도 부천시 경인로 583</t>
+  </si>
+  <si>
+    <t>유한대점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 괴안동 190-13</t>
+  </si>
+  <si>
+    <t>939819.1646264717</t>
+  </si>
+  <si>
+    <t>1943386.1063874862</t>
   </si>
 </sst>
 </file>
@@ -14396,7 +14411,7 @@
   <dimension ref="A1:G660"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E627" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G652" sqref="G652"/>
+      <selection activeCell="G657" sqref="G657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27941,7 +27956,7 @@
         <v>3239</v>
       </c>
       <c r="G643" t="str">
-        <f t="shared" ref="G643:G655" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
+        <f t="shared" ref="G643:G656" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
         <v>{name:['부천애플점G'],addr:'경기도 부천시 원미로 216',x:'937588.9478266679',y:'1944932.0883676289',jibun:'경기도 부천시 춘의동 188-5 애플하우스'},</v>
       </c>
     </row>
@@ -28195,6 +28210,27 @@
       <c r="G655" t="str">
         <f t="shared" si="10"/>
         <v>{name:['부천대로점G'],addr:'경기도 부천시 신흥로 375',x:'935928.2335709308',y:'1946668.0473323343',jibun:'경기도 부천시 내동 54-1 대림 프라우드 아파트'},</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C656" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="G656" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['유한대점G'],addr:'경기도 부천시 경인로 583',x:'939819.1646264717',y:'1943386.1063874862',jibun:'경기도 부천시 괴안동 190-13'},</v>
       </c>
     </row>
     <row r="660" spans="7:7" x14ac:dyDescent="0.3">

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="3301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="3306">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -9996,6 +9996,21 @@
   </si>
   <si>
     <t>1943386.1063874862</t>
+  </si>
+  <si>
+    <t>경기도 부천시 신흥로401번길 58</t>
+  </si>
+  <si>
+    <t>삼정스타점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 내동 9-8</t>
+  </si>
+  <si>
+    <t>935673.9493654934</t>
+  </si>
+  <si>
+    <t>1946950.77943853</t>
   </si>
 </sst>
 </file>
@@ -14411,7 +14426,7 @@
   <dimension ref="A1:G660"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E627" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G657" sqref="G657"/>
+      <selection activeCell="G650" sqref="G650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27956,7 +27971,7 @@
         <v>3239</v>
       </c>
       <c r="G643" t="str">
-        <f t="shared" ref="G643:G656" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
+        <f t="shared" ref="G643:G657" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
         <v>{name:['부천애플점G'],addr:'경기도 부천시 원미로 216',x:'937588.9478266679',y:'1944932.0883676289',jibun:'경기도 부천시 춘의동 188-5 애플하우스'},</v>
       </c>
     </row>
@@ -28233,7 +28248,28 @@
         <v>{name:['유한대점G'],addr:'경기도 부천시 경인로 583',x:'939819.1646264717',y:'1943386.1063874862',jibun:'경기도 부천시 괴안동 190-13'},</v>
       </c>
     </row>
-    <row r="660" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C657" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="G657" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['삼정스타점G'],addr:'경기도 부천시 신흥로401번길 58',x:'935673.9493654934',y:'1946950.77943853',jibun:'경기도 부천시 내동 9-8'},</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G660" t="s">
         <v>3215</v>
       </c>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -9252,10 +9252,6 @@
     <t>부천다니엘점G</t>
   </si>
   <si>
-    <t>부천역사3점G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경기도 부천시 심곡동 366-1</t>
   </si>
   <si>
@@ -10011,6 +10007,10 @@
   </si>
   <si>
     <t>1946950.77943853</t>
+  </si>
+  <si>
+    <t>부천역사2점G(부천역사3점G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14425,8 +14425,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E627" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G650" sqref="G650"/>
+    <sheetView tabSelected="1" topLeftCell="E217" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G238" sqref="G238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19445,7 +19445,7 @@
         <v>1197</v>
       </c>
       <c r="B238" t="s">
-        <v>3054</v>
+        <v>3305</v>
       </c>
       <c r="C238" t="s">
         <v>1198</v>
@@ -19461,7 +19461,7 @@
       </c>
       <c r="G238" t="str">
         <f t="shared" si="3"/>
-        <v>{name:['부천역사1점G','부천역사3점G'],addr:'경기도 부천시 부천로 1',x:'936579.4263615669',y:'1942996.8231301266',jibun:'경기도 부천시 심곡본동 316-2 부천역사쇼핑몰'},</v>
+        <v>{name:['부천역사1점G','부천역사2점G(부천역사3점G)'],addr:'경기도 부천시 부천로 1',x:'936579.4263615669',y:'1942996.8231301266',jibun:'경기도 부천시 심곡본동 316-2 부천역사쇼핑몰'},</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -25058,7 +25058,7 @@
         <v>2530</v>
       </c>
       <c r="B505" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="C505" t="s">
         <v>2529</v>
@@ -27122,13 +27122,13 @@
         <v>3028</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="G603" t="str">
         <f t="shared" si="9"/>
@@ -27143,13 +27143,13 @@
         <v>3030</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="G604" t="str">
         <f t="shared" si="9"/>
@@ -27164,13 +27164,13 @@
         <v>3032</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="G605" t="str">
         <f t="shared" si="9"/>
@@ -27185,13 +27185,13 @@
         <v>3034</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="G606" t="str">
         <f t="shared" si="9"/>
@@ -27206,13 +27206,13 @@
         <v>3036</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="G607" t="str">
         <f t="shared" si="9"/>
@@ -27227,13 +27227,13 @@
         <v>3038</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="G608" t="str">
         <f t="shared" si="9"/>
@@ -27248,13 +27248,13 @@
         <v>3040</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="G609" t="str">
         <f t="shared" si="9"/>
@@ -27269,13 +27269,13 @@
         <v>3042</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="G610" t="str">
         <f t="shared" si="9"/>
@@ -27290,13 +27290,13 @@
         <v>3044</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="G611" t="str">
         <f t="shared" si="9"/>
@@ -27311,13 +27311,13 @@
         <v>3046</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="G612" t="str">
         <f t="shared" si="9"/>
@@ -27332,13 +27332,13 @@
         <v>3048</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="G613" t="str">
         <f t="shared" si="9"/>
@@ -27353,13 +27353,13 @@
         <v>3050</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="G614" t="str">
         <f t="shared" si="9"/>
@@ -27374,13 +27374,13 @@
         <v>3052</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="G615" t="str">
         <f t="shared" si="9"/>
@@ -27389,19 +27389,19 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="C616" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="G616" t="str">
         <f t="shared" si="9"/>
@@ -27410,19 +27410,19 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="C617" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="G617" t="str">
         <f t="shared" si="9"/>
@@ -27431,19 +27431,19 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="C618" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="G618" t="str">
         <f t="shared" si="9"/>
@@ -27452,19 +27452,19 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="C619" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="G619" t="str">
         <f t="shared" si="9"/>
@@ -27473,19 +27473,19 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="C620" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="G620" t="str">
         <f t="shared" si="9"/>
@@ -27494,19 +27494,19 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="C621" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="G621" t="str">
         <f t="shared" si="9"/>
@@ -27515,19 +27515,19 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="C622" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="G622" t="str">
         <f t="shared" si="9"/>
@@ -27536,19 +27536,19 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="C623" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="G623" t="str">
         <f t="shared" si="9"/>
@@ -27557,19 +27557,19 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="C624" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="G624" t="str">
         <f t="shared" si="9"/>
@@ -27578,19 +27578,19 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="C625" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="G625" t="str">
         <f t="shared" si="9"/>
@@ -27599,19 +27599,19 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="C626" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="G626" t="str">
         <f t="shared" si="9"/>
@@ -27620,19 +27620,19 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="C627" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="G627" t="str">
         <f t="shared" si="9"/>
@@ -27641,19 +27641,19 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="C628" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="G628" t="str">
         <f t="shared" si="9"/>
@@ -27662,19 +27662,19 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="C629" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="G629" t="str">
         <f t="shared" si="9"/>
@@ -27683,19 +27683,19 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="C630" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="G630" t="str">
         <f t="shared" si="9"/>
@@ -27704,19 +27704,19 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="C631" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="G631" t="str">
         <f t="shared" si="9"/>
@@ -27725,19 +27725,19 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="C632" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="G632" t="str">
         <f t="shared" si="9"/>
@@ -27746,19 +27746,19 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="C633" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="G633" t="str">
         <f t="shared" si="9"/>
@@ -27767,19 +27767,19 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="C634" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="G634" t="str">
         <f t="shared" si="9"/>
@@ -27788,19 +27788,19 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="C635" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="G635" t="str">
         <f t="shared" si="9"/>
@@ -27809,19 +27809,19 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="C636" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="G636" t="str">
         <f t="shared" si="9"/>
@@ -27830,19 +27830,19 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="C637" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="G637" t="str">
         <f t="shared" si="9"/>
@@ -27851,19 +27851,19 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="C638" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="G638" t="str">
         <f t="shared" si="9"/>
@@ -27872,19 +27872,19 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="C639" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="G639" t="str">
         <f t="shared" si="9"/>
@@ -27893,19 +27893,19 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="C640" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="G640" t="str">
         <f t="shared" si="9"/>
@@ -27914,19 +27914,19 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="C641" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="G641" t="str">
         <f t="shared" si="9"/>
@@ -27935,19 +27935,19 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="C642" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="G642" t="str">
         <f t="shared" si="9"/>
@@ -27956,19 +27956,19 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="C643" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="G643" t="str">
         <f t="shared" ref="G643:G657" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
@@ -27977,19 +27977,19 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="C644" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="G644" t="str">
         <f t="shared" si="10"/>
@@ -27998,19 +27998,19 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="C645" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="G645" t="str">
         <f t="shared" si="10"/>
@@ -28019,19 +28019,19 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="C646" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="G646" t="str">
         <f t="shared" si="10"/>
@@ -28040,19 +28040,19 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="C647" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="G647" t="str">
         <f t="shared" si="10"/>
@@ -28061,19 +28061,19 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="C648" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="G648" t="str">
         <f t="shared" si="10"/>
@@ -28082,19 +28082,19 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="C649" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="G649" t="str">
         <f t="shared" si="10"/>
@@ -28103,19 +28103,19 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="C650" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="G650" t="str">
         <f t="shared" si="10"/>
@@ -28124,19 +28124,19 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="C651" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="G651" t="str">
         <f t="shared" si="10"/>
@@ -28145,19 +28145,19 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C652" t="s">
+        <v>3275</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F652" s="1" t="s">
         <v>3277</v>
-      </c>
-      <c r="C652" t="s">
-        <v>3276</v>
-      </c>
-      <c r="D652" s="1" t="s">
-        <v>3279</v>
-      </c>
-      <c r="E652" s="1" t="s">
-        <v>3280</v>
-      </c>
-      <c r="F652" s="1" t="s">
-        <v>3278</v>
       </c>
       <c r="G652" t="str">
         <f t="shared" si="10"/>
@@ -28166,19 +28166,19 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="C653" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G653" t="str">
         <f t="shared" si="10"/>
@@ -28187,19 +28187,19 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="C654" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="G654" t="str">
         <f t="shared" si="10"/>
@@ -28208,19 +28208,19 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="C655" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="G655" t="str">
         <f t="shared" si="10"/>
@@ -28229,19 +28229,19 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C656" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F656" s="1" t="s">
         <v>3297</v>
-      </c>
-      <c r="C656" t="s">
-        <v>3296</v>
-      </c>
-      <c r="D656" s="1" t="s">
-        <v>3299</v>
-      </c>
-      <c r="E656" s="1" t="s">
-        <v>3300</v>
-      </c>
-      <c r="F656" s="1" t="s">
-        <v>3298</v>
       </c>
       <c r="G656" t="str">
         <f t="shared" si="10"/>
@@ -28250,19 +28250,19 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C657" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="F657" s="1" t="s">
         <v>3302</v>
-      </c>
-      <c r="C657" t="s">
-        <v>3301</v>
-      </c>
-      <c r="D657" s="1" t="s">
-        <v>3304</v>
-      </c>
-      <c r="E657" s="1" t="s">
-        <v>3305</v>
-      </c>
-      <c r="F657" s="1" t="s">
-        <v>3303</v>
       </c>
       <c r="G657" t="str">
         <f t="shared" si="10"/>
@@ -28271,7 +28271,7 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G660" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="3306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4287" uniqueCount="3330">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -9733,10 +9733,6 @@
     <t>1947307.7902368135</t>
   </si>
   <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경기도 부천시 수주로 19</t>
   </si>
   <si>
@@ -10011,6 +10007,81 @@
   <si>
     <t>부천역사2점G(부천역사3점G)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 부천시 신흥로365번길 29</t>
+  </si>
+  <si>
+    <t>삼정본점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부일로 635</t>
+  </si>
+  <si>
+    <t>역곡고가점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 경인로526번길 27-1</t>
+  </si>
+  <si>
+    <t>소사타운점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 오정로 194</t>
+  </si>
+  <si>
+    <t>부천IC점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 옥산로 241</t>
+  </si>
+  <si>
+    <t>도당공단점M</t>
+  </si>
+  <si>
+    <t>경기도 부천시 내동 57</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡동 21-4</t>
+  </si>
+  <si>
+    <t>경기도 부천시 괴안동 130-4</t>
+  </si>
+  <si>
+    <t>경기도 부천시 오정동 594</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 11-5</t>
+  </si>
+  <si>
+    <t>935806.6158617034</t>
+  </si>
+  <si>
+    <t>938189.0515600522</t>
+  </si>
+  <si>
+    <t>939368.9240634067</t>
+  </si>
+  <si>
+    <t>936568.7463015504</t>
+  </si>
+  <si>
+    <t>936377.7291935734</t>
+  </si>
+  <si>
+    <t>1946567.8275657631</t>
+  </si>
+  <si>
+    <t>1942954.8461351683</t>
+  </si>
+  <si>
+    <t>1942979.1434647967</t>
+  </si>
+  <si>
+    <t>1947680.6525582122</t>
+  </si>
+  <si>
+    <t>1946469.2891681967</t>
   </si>
 </sst>
 </file>
@@ -14423,10 +14494,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G660"/>
+  <dimension ref="A1:G662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E217" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G238" sqref="G238"/>
+    <sheetView tabSelected="1" topLeftCell="E655" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G679" sqref="G679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19445,7 +19516,7 @@
         <v>1197</v>
       </c>
       <c r="B238" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="C238" t="s">
         <v>1198</v>
@@ -27893,19 +27964,19 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="C640" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="G640" t="str">
         <f t="shared" si="9"/>
@@ -27914,19 +27985,19 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="C641" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="G641" t="str">
         <f t="shared" si="9"/>
@@ -27935,19 +28006,19 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="C642" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="G642" t="str">
         <f t="shared" si="9"/>
@@ -27956,40 +28027,40 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="C643" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="G643" t="str">
-        <f t="shared" ref="G643:G657" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
+        <f t="shared" ref="G643:G662" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
         <v>{name:['부천애플점G'],addr:'경기도 부천시 원미로 216',x:'937588.9478266679',y:'1944932.0883676289',jibun:'경기도 부천시 춘의동 188-5 애플하우스'},</v>
       </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="C644" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="G644" t="str">
         <f t="shared" si="10"/>
@@ -27998,19 +28069,19 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="C645" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="G645" t="str">
         <f t="shared" si="10"/>
@@ -28019,19 +28090,19 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="C646" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="G646" t="str">
         <f t="shared" si="10"/>
@@ -28040,19 +28111,19 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="C647" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="G647" t="str">
         <f t="shared" si="10"/>
@@ -28061,19 +28132,19 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="C648" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="G648" t="str">
         <f t="shared" si="10"/>
@@ -28082,19 +28153,19 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="C649" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="G649" t="str">
         <f t="shared" si="10"/>
@@ -28103,19 +28174,19 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="C650" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="G650" t="str">
         <f t="shared" si="10"/>
@@ -28124,19 +28195,19 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="C651" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="G651" t="str">
         <f t="shared" si="10"/>
@@ -28145,19 +28216,19 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C652" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="F652" s="1" t="s">
         <v>3276</v>
-      </c>
-      <c r="C652" t="s">
-        <v>3275</v>
-      </c>
-      <c r="D652" s="1" t="s">
-        <v>3278</v>
-      </c>
-      <c r="E652" s="1" t="s">
-        <v>3279</v>
-      </c>
-      <c r="F652" s="1" t="s">
-        <v>3277</v>
       </c>
       <c r="G652" t="str">
         <f t="shared" si="10"/>
@@ -28166,19 +28237,19 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="C653" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="G653" t="str">
         <f t="shared" si="10"/>
@@ -28187,19 +28258,19 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="C654" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G654" t="str">
         <f t="shared" si="10"/>
@@ -28208,19 +28279,19 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="C655" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="G655" t="str">
         <f t="shared" si="10"/>
@@ -28229,19 +28300,19 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C656" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F656" s="1" t="s">
         <v>3296</v>
-      </c>
-      <c r="C656" t="s">
-        <v>3295</v>
-      </c>
-      <c r="D656" s="1" t="s">
-        <v>3298</v>
-      </c>
-      <c r="E656" s="1" t="s">
-        <v>3299</v>
-      </c>
-      <c r="F656" s="1" t="s">
-        <v>3297</v>
       </c>
       <c r="G656" t="str">
         <f t="shared" si="10"/>
@@ -28250,28 +28321,128 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C657" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="F657" s="1" t="s">
         <v>3301</v>
-      </c>
-      <c r="C657" t="s">
-        <v>3300</v>
-      </c>
-      <c r="D657" s="1" t="s">
-        <v>3303</v>
-      </c>
-      <c r="E657" s="1" t="s">
-        <v>3304</v>
-      </c>
-      <c r="F657" s="1" t="s">
-        <v>3302</v>
       </c>
       <c r="G657" t="str">
         <f t="shared" si="10"/>
         <v>{name:['삼정스타점G'],addr:'경기도 부천시 신흥로401번길 58',x:'935673.9493654934',y:'1946950.77943853',jibun:'경기도 부천시 내동 9-8'},</v>
       </c>
     </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C658" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="G658" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['삼정본점G'],addr:'경기도 부천시 신흥로365번길 29',x:'935806.6158617034',y:'1946567.8275657631',jibun:'경기도 부천시 내동 57'},</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C659" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="F659" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="G659" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['역곡고가점G'],addr:'경기도 부천시 부일로 635',x:'938189.0515600522',y:'1942954.8461351683',jibun:'경기도 부천시 역곡동 21-4'},</v>
+      </c>
+    </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G660" t="s">
-        <v>3214</v>
+      <c r="A660" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C660" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="G660" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['소사타운점G'],addr:'경기도 부천시 경인로526번길 27-1',x:'939368.9240634067',y:'1942979.1434647967',jibun:'경기도 부천시 괴안동 130-4'},</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C661" t="s">
+        <v>3311</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="F661" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="G661" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['부천IC점M'],addr:'경기도 부천시 오정로 194',x:'936568.7463015504',y:'1947680.6525582122',jibun:'경기도 부천시 오정동 594'},</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C662" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="F662" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="G662" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['도당공단점M'],addr:'경기도 부천시 옥산로 241',x:'936377.7291935734',y:'1946469.2891681967',jibun:'경기도 부천시 도당동 11-5'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4287" uniqueCount="3330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4307" uniqueCount="3350">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -10082,6 +10082,66 @@
   </si>
   <si>
     <t>1946469.2891681967</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 경인로 401</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 앵고개로206번길 10</t>
+  </si>
+  <si>
+    <t>인천사랑점G</t>
+  </si>
+  <si>
+    <t>동춘태평G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부흥로315번길 62</t>
+  </si>
+  <si>
+    <t>중동타워G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 길주로425번길 67</t>
+  </si>
+  <si>
+    <t>영광정공</t>
+  </si>
+  <si>
+    <t>인천광역시 미추홀구 주안동 79-6 다호빌딩</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 동춘동 939 태평아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1126-1 필-그린타워</t>
+  </si>
+  <si>
+    <t>경기도 부천시 도당동 185-6</t>
+  </si>
+  <si>
+    <t>927898.2030319003</t>
+  </si>
+  <si>
+    <t>926322.521320692</t>
+  </si>
+  <si>
+    <t>936111.5998535401</t>
+  </si>
+  <si>
+    <t>937078.888035224</t>
+  </si>
+  <si>
+    <t>1940230.1992318565</t>
+  </si>
+  <si>
+    <t>1934931.7646246315</t>
+  </si>
+  <si>
+    <t>1944487.4871828365</t>
+  </si>
+  <si>
+    <t>1945534.4246356757</t>
   </si>
 </sst>
 </file>
@@ -14494,10 +14554,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G662"/>
+  <dimension ref="A1:G666"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E655" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G679" sqref="G679"/>
+    <sheetView tabSelected="1" topLeftCell="A655" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E675" sqref="E675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28042,7 +28102,7 @@
         <v>3237</v>
       </c>
       <c r="G643" t="str">
-        <f t="shared" ref="G643:G662" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
+        <f t="shared" ref="G643:G666" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
         <v>{name:['부천애플점G'],addr:'경기도 부천시 원미로 216',x:'937588.9478266679',y:'1944932.0883676289',jibun:'경기도 부천시 춘의동 188-5 애플하우스'},</v>
       </c>
     </row>
@@ -28443,6 +28503,90 @@
       <c r="G662" t="str">
         <f t="shared" si="10"/>
         <v>{name:['도당공단점M'],addr:'경기도 부천시 옥산로 241',x:'936377.7291935734',y:'1946469.2891681967',jibun:'경기도 부천시 도당동 11-5'},</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C663" t="s">
+        <v>3330</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="G663" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['인천사랑점G'],addr:'인천광역시 미추홀구 경인로 401',x:'927898.2030319003',y:'1940230.1992318565',jibun:'인천광역시 미추홀구 주안동 79-6 다호빌딩'},</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C664" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="F664" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="G664" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['동춘태평G'],addr:'인천광역시 연수구 앵고개로206번길 10',x:'926322.521320692',y:'1934931.7646246315',jibun:'인천광역시 연수구 동춘동 939 태평아파트'},</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C665" t="s">
+        <v>3334</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="F665" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="G665" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['중동타워G'],addr:'경기도 부천시 부흥로315번길 62',x:'936111.5998535401',y:'1944487.4871828365',jibun:'경기도 부천시 중동 1126-1 필-그린타워'},</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C666" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="F666" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="G666" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['영광정공'],addr:'경기도 부천시 길주로425번길 67',x:'937078.888035224',y:'1945534.4246356757',jibun:'경기도 부천시 도당동 185-6'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4307" uniqueCount="3350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4322" uniqueCount="3365">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -10142,6 +10142,51 @@
   </si>
   <si>
     <t>1945534.4246356757</t>
+  </si>
+  <si>
+    <t>경기도 부천시 역곡로482번길 45</t>
+  </si>
+  <si>
+    <t>고강본점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미로144번길 51</t>
+  </si>
+  <si>
+    <t>원미두산아파트결합부스</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동로85번길 12</t>
+  </si>
+  <si>
+    <t>중동역점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 고강동 377-4</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미동 151-1 두산아파트</t>
+  </si>
+  <si>
+    <t>경기도 부천시 상동 328-8 영화빌딩</t>
+  </si>
+  <si>
+    <t>939778.7072577502</t>
+  </si>
+  <si>
+    <t>937620.386184033</t>
+  </si>
+  <si>
+    <t>934964.96789379</t>
+  </si>
+  <si>
+    <t>1947727.4869513768</t>
+  </si>
+  <si>
+    <t>1944154.5830588462</t>
+  </si>
+  <si>
+    <t>1943425.3511155304</t>
   </si>
 </sst>
 </file>
@@ -14554,10 +14599,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G666"/>
+  <dimension ref="A1:G669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A655" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E675" sqref="E675"/>
+    <sheetView tabSelected="1" topLeftCell="E655" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G676" sqref="G676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28102,7 +28147,7 @@
         <v>3237</v>
       </c>
       <c r="G643" t="str">
-        <f t="shared" ref="G643:G666" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
+        <f t="shared" ref="G643:G669" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
         <v>{name:['부천애플점G'],addr:'경기도 부천시 원미로 216',x:'937588.9478266679',y:'1944932.0883676289',jibun:'경기도 부천시 춘의동 188-5 애플하우스'},</v>
       </c>
     </row>
@@ -28587,6 +28632,69 @@
       <c r="G666" t="str">
         <f t="shared" si="10"/>
         <v>{name:['영광정공'],addr:'경기도 부천시 길주로425번길 67',x:'937078.888035224',y:'1945534.4246356757',jibun:'경기도 부천시 도당동 185-6'},</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C667" t="s">
+        <v>3350</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>3359</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="G667" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['고강본점G'],addr:'경기도 부천시 역곡로482번길 45',x:'939778.7072577502',y:'1947727.4869513768',jibun:'경기도 부천시 고강동 377-4'},</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C668" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>3357</v>
+      </c>
+      <c r="G668" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['원미두산아파트결합부스'],addr:'경기도 부천시 원미로144번길 51',x:'937620.386184033',y:'1944154.5830588462',jibun:'경기도 부천시 원미동 151-1 두산아파트'},</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>3355</v>
+      </c>
+      <c r="C669" t="s">
+        <v>3354</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>3364</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="G669" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['중동역점G'],addr:'경기도 부천시 중동로85번길 12',x:'934964.96789379',y:'1943425.3511155304',jibun:'경기도 부천시 상동 328-8 영화빌딩'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4322" uniqueCount="3365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4327" uniqueCount="3370">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -10187,6 +10187,21 @@
   </si>
   <si>
     <t>1943425.3511155304</t>
+  </si>
+  <si>
+    <t>경기도 부천시 은성로68번길 62</t>
+  </si>
+  <si>
+    <t>소사그린G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 219-3</t>
+  </si>
+  <si>
+    <t>937944.2841595134</t>
+  </si>
+  <si>
+    <t>1941697.9197080936</t>
   </si>
 </sst>
 </file>
@@ -14599,10 +14614,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G669"/>
+  <dimension ref="A1:G670"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E655" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G676" sqref="G676"/>
+      <selection activeCell="G679" sqref="G679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28147,7 +28162,7 @@
         <v>3237</v>
       </c>
       <c r="G643" t="str">
-        <f t="shared" ref="G643:G669" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
+        <f t="shared" ref="G643:G670" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
         <v>{name:['부천애플점G'],addr:'경기도 부천시 원미로 216',x:'937588.9478266679',y:'1944932.0883676289',jibun:'경기도 부천시 춘의동 188-5 애플하우스'},</v>
       </c>
     </row>
@@ -28695,6 +28710,27 @@
       <c r="G669" t="str">
         <f t="shared" si="10"/>
         <v>{name:['중동역점G'],addr:'경기도 부천시 중동로85번길 12',x:'934964.96789379',y:'1943425.3511155304',jibun:'경기도 부천시 상동 328-8 영화빌딩'},</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C670" t="s">
+        <v>3365</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F670" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="G670" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['소사그린G'],addr:'경기도 부천시 은성로68번길 62',x:'937944.2841595134',y:'1941697.9197080936',jibun:'경기도 부천시 소사본동 219-3'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4327" uniqueCount="3370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="3375">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -10202,6 +10202,21 @@
   </si>
   <si>
     <t>1941697.9197080936</t>
+  </si>
+  <si>
+    <t>경기도 부천시 부천로3번길 45</t>
+  </si>
+  <si>
+    <t>부천부일점G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 387-1</t>
+  </si>
+  <si>
+    <t>936360.3236625732</t>
+  </si>
+  <si>
+    <t>1943103.3090595803</t>
   </si>
 </sst>
 </file>
@@ -14614,10 +14629,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G670"/>
+  <dimension ref="A1:G671"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E655" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G679" sqref="G679"/>
+      <selection activeCell="G681" sqref="G681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28162,7 +28177,7 @@
         <v>3237</v>
       </c>
       <c r="G643" t="str">
-        <f t="shared" ref="G643:G670" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
+        <f t="shared" ref="G643:G671" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
         <v>{name:['부천애플점G'],addr:'경기도 부천시 원미로 216',x:'937588.9478266679',y:'1944932.0883676289',jibun:'경기도 부천시 춘의동 188-5 애플하우스'},</v>
       </c>
     </row>
@@ -28731,6 +28746,27 @@
       <c r="G670" t="str">
         <f t="shared" si="10"/>
         <v>{name:['소사그린G'],addr:'경기도 부천시 은성로68번길 62',x:'937944.2841595134',y:'1941697.9197080936',jibun:'경기도 부천시 소사본동 219-3'},</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C671" t="s">
+        <v>3370</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="F671" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="G671" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['부천부일점G'],addr:'경기도 부천시 부천로3번길 45',x:'936360.3236625732',y:'1943103.3090595803',jibun:'경기도 부천시 심곡동 387-1'},</v>
       </c>
     </row>
   </sheetData>

--- a/atm_v0.02.xlsx
+++ b/atm_v0.02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="3375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="3385">
   <si>
     <t>인천광역시 연수구 테크노파크로 200</t>
   </si>
@@ -10217,6 +10217,36 @@
   </si>
   <si>
     <t>1943103.3090595803</t>
+  </si>
+  <si>
+    <t>경기도 부천시 신흥로 61</t>
+  </si>
+  <si>
+    <t>부천하나G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 계남로 127</t>
+  </si>
+  <si>
+    <t>중동한라G</t>
+  </si>
+  <si>
+    <t>경기도 부천시 심곡동 329-33</t>
+  </si>
+  <si>
+    <t>경기도 부천시 중동 1028-1</t>
+  </si>
+  <si>
+    <t>936094.7613089914</t>
+  </si>
+  <si>
+    <t>934865.630785434</t>
+  </si>
+  <si>
+    <t>1943577.8744032905</t>
+  </si>
+  <si>
+    <t>1945725.258536756</t>
   </si>
 </sst>
 </file>
@@ -14629,10 +14659,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G671"/>
+  <dimension ref="A1:G673"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E655" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G681" sqref="G681"/>
+      <selection activeCell="G673" sqref="G673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28177,7 +28207,7 @@
         <v>3237</v>
       </c>
       <c r="G643" t="str">
-        <f t="shared" ref="G643:G671" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
+        <f t="shared" ref="G643:G673" si="10">"{name:" &amp; "['"&amp;A643&amp;"'"&amp;IF(ISBLANK(B643),"",",'"&amp;B643&amp;"'")&amp;"],addr:" &amp; "'" &amp;C643&amp;"',x:"&amp; "'" &amp;D643&amp;"',y:"&amp; "'" &amp;E643&amp;"',jibun:"&amp; "'" &amp;F643&amp;"'},"</f>
         <v>{name:['부천애플점G'],addr:'경기도 부천시 원미로 216',x:'937588.9478266679',y:'1944932.0883676289',jibun:'경기도 부천시 춘의동 188-5 애플하우스'},</v>
       </c>
     </row>
@@ -28767,6 +28797,48 @@
       <c r="G671" t="str">
         <f t="shared" si="10"/>
         <v>{name:['부천부일점G'],addr:'경기도 부천시 부천로3번길 45',x:'936360.3236625732',y:'1943103.3090595803',jibun:'경기도 부천시 심곡동 387-1'},</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C672" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="G672" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['부천하나G'],addr:'경기도 부천시 신흥로 61',x:'936094.7613089914',y:'1943577.8744032905',jibun:'경기도 부천시 심곡동 329-33'},</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C673" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="G673" t="str">
+        <f t="shared" si="10"/>
+        <v>{name:['중동한라G'],addr:'경기도 부천시 계남로 127',x:'934865.630785434',y:'1945725.258536756',jibun:'경기도 부천시 중동 1028-1'},</v>
       </c>
     </row>
   </sheetData>
